--- a/RotoShootUnityProject/Assets/Resources/mySheet.xlsx
+++ b/RotoShootUnityProject/Assets/Resources/mySheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming\UnityProjects\RotoShoot\RotoShootUnityProject\Assets\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B86BC49-4A6D-4987-9CF8-8B162B996251}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{610CCF2A-AE7D-48F7-955B-33AEB1ABB320}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16056" yWindow="-5268" windowWidth="13596" windowHeight="23880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-18180" yWindow="-2064" windowWidth="13476" windowHeight="17916" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="mySheet (3)" sheetId="3" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="mySheet (2)" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -953,7 +954,7 @@
   <dimension ref="A1:R104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1977,7 +1978,7 @@
         <v>56</v>
       </c>
       <c r="C49">
-        <f>(C$5+((SUM(A49-1)/SUM(A$104-1))*(SUM(C$104-C$5))))</f>
+        <f t="shared" ref="C49:C80" si="6">(C$5+((SUM(A49-1)/SUM(A$104-1))*(SUM(C$104-C$5))))</f>
         <v>1.7111111111111112</v>
       </c>
       <c r="D49">
@@ -1998,11 +1999,11 @@
         <v>55</v>
       </c>
       <c r="C50">
-        <f>(C$5+((SUM(A50-1)/SUM(A$104-1))*(SUM(C$104-C$5))))</f>
+        <f t="shared" si="6"/>
         <v>1.6818181818181819</v>
       </c>
       <c r="D50">
-        <f t="shared" ref="D50:D103" si="6">(D$5+((SUM($A50-1)/SUM($A$104-1))*(SUM(D$104-D$5))))</f>
+        <f t="shared" ref="D50:D103" si="7">(D$5+((SUM($A50-1)/SUM($A$104-1))*(SUM(D$104-D$5))))</f>
         <v>2.8636363636363638</v>
       </c>
       <c r="E50">
@@ -2019,11 +2020,11 @@
         <v>54</v>
       </c>
       <c r="C51">
-        <f>(C$5+((SUM(A51-1)/SUM(A$104-1))*(SUM(C$104-C$5))))</f>
+        <f t="shared" si="6"/>
         <v>1.6525252525252525</v>
       </c>
       <c r="D51">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.8161616161616161</v>
       </c>
       <c r="E51">
@@ -2040,11 +2041,11 @@
         <v>53</v>
       </c>
       <c r="C52">
-        <f>(C$5+((SUM(A52-1)/SUM(A$104-1))*(SUM(C$104-C$5))))</f>
+        <f t="shared" si="6"/>
         <v>1.6232323232323234</v>
       </c>
       <c r="D52">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.7686868686868684</v>
       </c>
       <c r="E52">
@@ -2061,11 +2062,11 @@
         <v>52</v>
       </c>
       <c r="C53">
-        <f>(C$5+((SUM(A53-1)/SUM(A$104-1))*(SUM(C$104-C$5))))</f>
+        <f t="shared" si="6"/>
         <v>1.593939393939394</v>
       </c>
       <c r="D53">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.7212121212121212</v>
       </c>
       <c r="E53">
@@ -2082,11 +2083,11 @@
         <v>51</v>
       </c>
       <c r="C54">
-        <f>(C$5+((SUM(A54-1)/SUM(A$104-1))*(SUM(C$104-C$5))))</f>
+        <f t="shared" si="6"/>
         <v>1.5646464646464646</v>
       </c>
       <c r="D54">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.6737373737373735</v>
       </c>
       <c r="E54">
@@ -2103,11 +2104,11 @@
         <v>50</v>
       </c>
       <c r="C55">
-        <f>(C$5+((SUM(A55-1)/SUM(A$104-1))*(SUM(C$104-C$5))))</f>
+        <f t="shared" si="6"/>
         <v>1.5353535353535352</v>
       </c>
       <c r="D55">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.6262626262626259</v>
       </c>
       <c r="E55">
@@ -2124,11 +2125,11 @@
         <v>49</v>
       </c>
       <c r="C56">
-        <f>(C$5+((SUM(A56-1)/SUM(A$104-1))*(SUM(C$104-C$5))))</f>
+        <f t="shared" si="6"/>
         <v>1.5060606060606061</v>
       </c>
       <c r="D56">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.5787878787878786</v>
       </c>
       <c r="E56">
@@ -2145,11 +2146,11 @@
         <v>47.999999999999993</v>
       </c>
       <c r="C57">
-        <f>(C$5+((SUM(A57-1)/SUM(A$104-1))*(SUM(C$104-C$5))))</f>
+        <f t="shared" si="6"/>
         <v>1.4767676767676767</v>
       </c>
       <c r="D57">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.531313131313131</v>
       </c>
       <c r="E57">
@@ -2166,11 +2167,11 @@
         <v>47</v>
       </c>
       <c r="C58">
-        <f>(C$5+((SUM(A58-1)/SUM(A$104-1))*(SUM(C$104-C$5))))</f>
+        <f t="shared" si="6"/>
         <v>1.4474747474747476</v>
       </c>
       <c r="D58">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.4838383838383837</v>
       </c>
       <c r="E58">
@@ -2187,11 +2188,11 @@
         <v>46.000000000000007</v>
       </c>
       <c r="C59">
-        <f>(C$5+((SUM(A59-1)/SUM(A$104-1))*(SUM(C$104-C$5))))</f>
+        <f t="shared" si="6"/>
         <v>1.4181818181818184</v>
       </c>
       <c r="D59">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.4363636363636365</v>
       </c>
       <c r="E59">
@@ -2208,11 +2209,11 @@
         <v>45</v>
       </c>
       <c r="C60">
-        <f>(C$5+((SUM(A60-1)/SUM(A$104-1))*(SUM(C$104-C$5))))</f>
+        <f t="shared" si="6"/>
         <v>1.3888888888888888</v>
       </c>
       <c r="D60">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.3888888888888888</v>
       </c>
       <c r="E60">
@@ -2229,11 +2230,11 @@
         <v>44</v>
       </c>
       <c r="C61">
-        <f>(C$5+((SUM(A61-1)/SUM(A$104-1))*(SUM(C$104-C$5))))</f>
+        <f t="shared" si="6"/>
         <v>1.3595959595959597</v>
       </c>
       <c r="D61">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.3414141414141416</v>
       </c>
       <c r="E61">
@@ -2250,11 +2251,11 @@
         <v>42.999999999999993</v>
       </c>
       <c r="C62">
-        <f>(C$5+((SUM(A62-1)/SUM(A$104-1))*(SUM(C$104-C$5))))</f>
+        <f t="shared" si="6"/>
         <v>1.3303030303030303</v>
       </c>
       <c r="D62">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.2939393939393935</v>
       </c>
       <c r="E62">
@@ -2271,11 +2272,11 @@
         <v>42</v>
       </c>
       <c r="C63">
-        <f>(C$5+((SUM(A63-1)/SUM(A$104-1))*(SUM(C$104-C$5))))</f>
+        <f t="shared" si="6"/>
         <v>1.3010101010101012</v>
       </c>
       <c r="D63">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.2464646464646463</v>
       </c>
       <c r="E63">
@@ -2292,11 +2293,11 @@
         <v>41.000000000000007</v>
       </c>
       <c r="C64">
-        <f>(C$5+((SUM(A64-1)/SUM(A$104-1))*(SUM(C$104-C$5))))</f>
+        <f t="shared" si="6"/>
         <v>1.2717171717171718</v>
       </c>
       <c r="D64">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.1989898989898991</v>
       </c>
       <c r="E64">
@@ -2313,11 +2314,11 @@
         <v>40</v>
       </c>
       <c r="C65">
-        <f>(C$5+((SUM(A65-1)/SUM(A$104-1))*(SUM(C$104-C$5))))</f>
+        <f t="shared" si="6"/>
         <v>1.2424242424242424</v>
       </c>
       <c r="D65">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.1515151515151514</v>
       </c>
       <c r="E65">
@@ -2334,11 +2335,11 @@
         <v>39</v>
       </c>
       <c r="C66">
-        <f>(C$5+((SUM(A66-1)/SUM(A$104-1))*(SUM(C$104-C$5))))</f>
+        <f t="shared" si="6"/>
         <v>1.2131313131313133</v>
       </c>
       <c r="D66">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.1040404040404042</v>
       </c>
       <c r="E66">
@@ -2355,11 +2356,11 @@
         <v>38</v>
       </c>
       <c r="C67">
-        <f>(C$5+((SUM(A67-1)/SUM(A$104-1))*(SUM(C$104-C$5))))</f>
+        <f t="shared" si="6"/>
         <v>1.1838383838383837</v>
       </c>
       <c r="D67">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.0565656565656565</v>
       </c>
       <c r="E67">
@@ -2376,11 +2377,11 @@
         <v>37</v>
       </c>
       <c r="C68">
-        <f>(C$5+((SUM(A68-1)/SUM(A$104-1))*(SUM(C$104-C$5))))</f>
+        <f t="shared" si="6"/>
         <v>1.1545454545454545</v>
       </c>
       <c r="D68">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.0090909090909088</v>
       </c>
       <c r="E68">
@@ -2397,11 +2398,11 @@
         <v>36</v>
       </c>
       <c r="C69">
-        <f>(C$5+((SUM(A69-1)/SUM(A$104-1))*(SUM(C$104-C$5))))</f>
+        <f t="shared" si="6"/>
         <v>1.1252525252525252</v>
       </c>
       <c r="D69">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.9616161616161611</v>
       </c>
       <c r="E69">
@@ -2418,11 +2419,11 @@
         <v>35</v>
       </c>
       <c r="C70">
-        <f>(C$5+((SUM(A70-1)/SUM(A$104-1))*(SUM(C$104-C$5))))</f>
+        <f t="shared" si="6"/>
         <v>1.095959595959596</v>
       </c>
       <c r="D70">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.9141414141414139</v>
       </c>
       <c r="E70">
@@ -2435,15 +2436,15 @@
         <v>67</v>
       </c>
       <c r="B71">
-        <f t="shared" ref="B71:B103" si="7">(B$5+((SUM(A71-1)/SUM(A$104-1))*(SUM(B$104-B$5))))</f>
+        <f t="shared" ref="B71:B103" si="8">(B$5+((SUM(A71-1)/SUM(A$104-1))*(SUM(B$104-B$5))))</f>
         <v>34</v>
       </c>
       <c r="C71">
-        <f>(C$5+((SUM(A71-1)/SUM(A$104-1))*(SUM(C$104-C$5))))</f>
+        <f t="shared" si="6"/>
         <v>1.0666666666666669</v>
       </c>
       <c r="D71">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.8666666666666667</v>
       </c>
       <c r="E71">
@@ -2456,15 +2457,15 @@
         <v>68</v>
       </c>
       <c r="B72">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>33</v>
       </c>
       <c r="C72">
-        <f>(C$5+((SUM(A72-1)/SUM(A$104-1))*(SUM(C$104-C$5))))</f>
+        <f t="shared" si="6"/>
         <v>1.0373737373737373</v>
       </c>
       <c r="D72">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.819191919191919</v>
       </c>
       <c r="E72">
@@ -2477,15 +2478,15 @@
         <v>69</v>
       </c>
       <c r="B73">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>32</v>
       </c>
       <c r="C73">
-        <f>(C$5+((SUM(A73-1)/SUM(A$104-1))*(SUM(C$104-C$5))))</f>
+        <f t="shared" si="6"/>
         <v>1.0080808080808081</v>
       </c>
       <c r="D73">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.7717171717171718</v>
       </c>
       <c r="E73">
@@ -2498,15 +2499,15 @@
         <v>70</v>
       </c>
       <c r="B74">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>31</v>
       </c>
       <c r="C74">
-        <f>(C$5+((SUM(A74-1)/SUM(A$104-1))*(SUM(C$104-C$5))))</f>
+        <f t="shared" si="6"/>
         <v>0.97878787878787854</v>
       </c>
       <c r="D74">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.7242424242424237</v>
       </c>
       <c r="E74">
@@ -2519,15 +2520,15 @@
         <v>71</v>
       </c>
       <c r="B75">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>30</v>
       </c>
       <c r="C75">
-        <f>(C$5+((SUM(A75-1)/SUM(A$104-1))*(SUM(C$104-C$5))))</f>
+        <f t="shared" si="6"/>
         <v>0.94949494949494939</v>
       </c>
       <c r="D75">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.6767676767676765</v>
       </c>
       <c r="E75">
@@ -2540,15 +2541,15 @@
         <v>72</v>
       </c>
       <c r="B76">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>29</v>
       </c>
       <c r="C76">
-        <f>(C$5+((SUM(A76-1)/SUM(A$104-1))*(SUM(C$104-C$5))))</f>
+        <f t="shared" si="6"/>
         <v>0.92020202020202024</v>
       </c>
       <c r="D76">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.6292929292929292</v>
       </c>
       <c r="E76">
@@ -2561,15 +2562,15 @@
         <v>73</v>
       </c>
       <c r="B77">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>28</v>
       </c>
       <c r="C77">
-        <f>(C$5+((SUM(A77-1)/SUM(A$104-1))*(SUM(C$104-C$5))))</f>
+        <f t="shared" si="6"/>
         <v>0.89090909090909109</v>
       </c>
       <c r="D77">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.5818181818181816</v>
       </c>
       <c r="E77">
@@ -2582,15 +2583,15 @@
         <v>74</v>
       </c>
       <c r="B78">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>27</v>
       </c>
       <c r="C78">
-        <f>(C$5+((SUM(A78-1)/SUM(A$104-1))*(SUM(C$104-C$5))))</f>
+        <f t="shared" si="6"/>
         <v>0.86161616161616195</v>
       </c>
       <c r="D78">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.5343434343434343</v>
       </c>
       <c r="E78">
@@ -2603,15 +2604,15 @@
         <v>75</v>
       </c>
       <c r="B79">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>26</v>
       </c>
       <c r="C79">
-        <f>(C$5+((SUM(A79-1)/SUM(A$104-1))*(SUM(C$104-C$5))))</f>
+        <f t="shared" si="6"/>
         <v>0.83232323232323235</v>
       </c>
       <c r="D79">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.4868686868686867</v>
       </c>
       <c r="E79">
@@ -2624,15 +2625,15 @@
         <v>76</v>
       </c>
       <c r="B80">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>25</v>
       </c>
       <c r="C80">
-        <f>(C$5+((SUM(A80-1)/SUM(A$104-1))*(SUM(C$104-C$5))))</f>
+        <f t="shared" si="6"/>
         <v>0.80303030303030321</v>
       </c>
       <c r="D80">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.4393939393939394</v>
       </c>
       <c r="E80">
@@ -2645,15 +2646,15 @@
         <v>77</v>
       </c>
       <c r="B81">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>24</v>
       </c>
       <c r="C81">
-        <f>(C$5+((SUM(A81-1)/SUM(A$104-1))*(SUM(C$104-C$5))))</f>
+        <f t="shared" ref="C81:C103" si="9">(C$5+((SUM(A81-1)/SUM(A$104-1))*(SUM(C$104-C$5))))</f>
         <v>0.77373737373737406</v>
       </c>
       <c r="D81">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.3919191919191922</v>
       </c>
       <c r="E81">
@@ -2666,15 +2667,15 @@
         <v>78</v>
       </c>
       <c r="B82">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>23</v>
       </c>
       <c r="C82">
-        <f>(C$5+((SUM(A82-1)/SUM(A$104-1))*(SUM(C$104-C$5))))</f>
+        <f t="shared" si="9"/>
         <v>0.74444444444444446</v>
       </c>
       <c r="D82">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.3444444444444441</v>
       </c>
       <c r="E82">
@@ -2687,15 +2688,15 @@
         <v>79</v>
       </c>
       <c r="B83">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>22</v>
       </c>
       <c r="C83">
-        <f>(C$5+((SUM(A83-1)/SUM(A$104-1))*(SUM(C$104-C$5))))</f>
+        <f t="shared" si="9"/>
         <v>0.71515151515151532</v>
       </c>
       <c r="D83">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.2969696969696969</v>
       </c>
       <c r="E83">
@@ -2708,15 +2709,15 @@
         <v>80</v>
       </c>
       <c r="B84">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>21</v>
       </c>
       <c r="C84">
-        <f>(C$5+((SUM(A84-1)/SUM(A$104-1))*(SUM(C$104-C$5))))</f>
+        <f t="shared" si="9"/>
         <v>0.68585858585858572</v>
       </c>
       <c r="D84">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.2494949494949492</v>
       </c>
       <c r="E84">
@@ -2729,15 +2730,15 @@
         <v>81</v>
       </c>
       <c r="B85">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>20</v>
       </c>
       <c r="C85">
-        <f>(C$5+((SUM(A85-1)/SUM(A$104-1))*(SUM(C$104-C$5))))</f>
+        <f t="shared" si="9"/>
         <v>0.65656565656565657</v>
       </c>
       <c r="D85">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.202020202020202</v>
       </c>
       <c r="E85">
@@ -2750,19 +2751,19 @@
         <v>82</v>
       </c>
       <c r="B86">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>19</v>
       </c>
       <c r="C86">
-        <f>(C$5+((SUM(A86-1)/SUM(A$104-1))*(SUM(C$104-C$5))))</f>
+        <f t="shared" si="9"/>
         <v>0.62727272727272698</v>
       </c>
       <c r="D86">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.1545454545454543</v>
       </c>
       <c r="E86">
-        <f t="shared" ref="E86:E103" si="8">(E$5+((SUM($A86-1)/SUM($A$104-1))*(SUM(E$104-E$5))))</f>
+        <f t="shared" ref="E86:E103" si="10">(E$5+((SUM($A86-1)/SUM($A$104-1))*(SUM(E$104-E$5))))</f>
         <v>163.81818181818184</v>
       </c>
     </row>
@@ -2771,19 +2772,19 @@
         <v>83</v>
       </c>
       <c r="B87">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>18</v>
       </c>
       <c r="C87">
-        <f>(C$5+((SUM(A87-1)/SUM(A$104-1))*(SUM(C$104-C$5))))</f>
+        <f t="shared" si="9"/>
         <v>0.59797979797979783</v>
       </c>
       <c r="D87">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.1070707070707071</v>
       </c>
       <c r="E87">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>165.82828282828282</v>
       </c>
     </row>
@@ -2792,19 +2793,19 @@
         <v>84</v>
       </c>
       <c r="B88">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>17</v>
       </c>
       <c r="C88">
-        <f>(C$5+((SUM(A88-1)/SUM(A$104-1))*(SUM(C$104-C$5))))</f>
+        <f t="shared" si="9"/>
         <v>0.56868686868686869</v>
       </c>
       <c r="D88">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.0595959595959594</v>
       </c>
       <c r="E88">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>167.83838383838383</v>
       </c>
     </row>
@@ -2813,19 +2814,19 @@
         <v>85</v>
       </c>
       <c r="B89">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>16</v>
       </c>
       <c r="C89">
-        <f>(C$5+((SUM(A89-1)/SUM(A$104-1))*(SUM(C$104-C$5))))</f>
+        <f t="shared" si="9"/>
         <v>0.53939393939393954</v>
       </c>
       <c r="D89">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.0121212121212118</v>
       </c>
       <c r="E89">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>169.84848484848484</v>
       </c>
     </row>
@@ -2834,19 +2835,19 @@
         <v>86</v>
       </c>
       <c r="B90">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>15</v>
       </c>
       <c r="C90">
-        <f>(C$5+((SUM(A90-1)/SUM(A$104-1))*(SUM(C$104-C$5))))</f>
+        <f t="shared" si="9"/>
         <v>0.51010101010101039</v>
       </c>
       <c r="D90">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.96464646464646453</v>
       </c>
       <c r="E90">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>171.85858585858585</v>
       </c>
     </row>
@@ -2855,19 +2856,19 @@
         <v>87</v>
       </c>
       <c r="B91">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>14</v>
       </c>
       <c r="C91">
-        <f>(C$5+((SUM(A91-1)/SUM(A$104-1))*(SUM(C$104-C$5))))</f>
+        <f t="shared" si="9"/>
         <v>0.4808080808080808</v>
       </c>
       <c r="D91">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.91717171717171642</v>
       </c>
       <c r="E91">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>173.86868686868686</v>
       </c>
     </row>
@@ -2876,19 +2877,19 @@
         <v>88</v>
       </c>
       <c r="B92">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>13</v>
       </c>
       <c r="C92">
-        <f>(C$5+((SUM(A92-1)/SUM(A$104-1))*(SUM(C$104-C$5))))</f>
+        <f t="shared" si="9"/>
         <v>0.45151515151515165</v>
       </c>
       <c r="D92">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.86969696969696919</v>
       </c>
       <c r="E92">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>175.87878787878788</v>
       </c>
     </row>
@@ -2897,19 +2898,19 @@
         <v>89</v>
       </c>
       <c r="B93">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>12</v>
       </c>
       <c r="C93">
-        <f>(C$5+((SUM(A93-1)/SUM(A$104-1))*(SUM(C$104-C$5))))</f>
+        <f t="shared" si="9"/>
         <v>0.4222222222222225</v>
       </c>
       <c r="D93">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.82222222222222197</v>
       </c>
       <c r="E93">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>177.88888888888889</v>
       </c>
     </row>
@@ -2918,19 +2919,19 @@
         <v>90</v>
       </c>
       <c r="B94">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>11</v>
       </c>
       <c r="C94">
-        <f>(C$5+((SUM(A94-1)/SUM(A$104-1))*(SUM(C$104-C$5))))</f>
+        <f t="shared" si="9"/>
         <v>0.39292929292929291</v>
       </c>
       <c r="D94">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.77474747474747474</v>
       </c>
       <c r="E94">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>179.8989898989899</v>
       </c>
     </row>
@@ -2939,19 +2940,19 @@
         <v>91</v>
       </c>
       <c r="B95">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="C95">
-        <f>(C$5+((SUM(A95-1)/SUM(A$104-1))*(SUM(C$104-C$5))))</f>
+        <f t="shared" si="9"/>
         <v>0.36363636363636376</v>
       </c>
       <c r="D95">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.72727272727272751</v>
       </c>
       <c r="E95">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>181.90909090909091</v>
       </c>
     </row>
@@ -2960,19 +2961,19 @@
         <v>92</v>
       </c>
       <c r="B96">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="C96">
-        <f>(C$5+((SUM(A96-1)/SUM(A$104-1))*(SUM(C$104-C$5))))</f>
+        <f t="shared" si="9"/>
         <v>0.33434343434343416</v>
       </c>
       <c r="D96">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.6797979797979794</v>
       </c>
       <c r="E96">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>183.91919191919192</v>
       </c>
     </row>
@@ -2981,19 +2982,19 @@
         <v>93</v>
       </c>
       <c r="B97">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
       <c r="C97">
-        <f>(C$5+((SUM(A97-1)/SUM(A$104-1))*(SUM(C$104-C$5))))</f>
+        <f t="shared" si="9"/>
         <v>0.30505050505050502</v>
       </c>
       <c r="D97">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.63232323232323218</v>
       </c>
       <c r="E97">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>185.92929292929293</v>
       </c>
     </row>
@@ -3002,19 +3003,19 @@
         <v>94</v>
       </c>
       <c r="B98">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="C98">
-        <f>(C$5+((SUM(A98-1)/SUM(A$104-1))*(SUM(C$104-C$5))))</f>
+        <f t="shared" si="9"/>
         <v>0.27575757575757587</v>
       </c>
       <c r="D98">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.58484848484848406</v>
       </c>
       <c r="E98">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>187.93939393939394</v>
       </c>
     </row>
@@ -3023,19 +3024,19 @@
         <v>95</v>
       </c>
       <c r="B99">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="C99">
-        <f>(C$5+((SUM(A99-1)/SUM(A$104-1))*(SUM(C$104-C$5))))</f>
+        <f t="shared" si="9"/>
         <v>0.24646464646464672</v>
       </c>
       <c r="D99">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.53737373737373684</v>
       </c>
       <c r="E99">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>189.94949494949495</v>
       </c>
     </row>
@@ -3044,19 +3045,19 @@
         <v>96</v>
       </c>
       <c r="B100">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="C100">
-        <f>(C$5+((SUM(A100-1)/SUM(A$104-1))*(SUM(C$104-C$5))))</f>
+        <f t="shared" si="9"/>
         <v>0.21717171717171757</v>
       </c>
       <c r="D100">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.48989898989898961</v>
       </c>
       <c r="E100">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>191.95959595959596</v>
       </c>
     </row>
@@ -3065,19 +3066,19 @@
         <v>97</v>
       </c>
       <c r="B101">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="C101">
-        <f>(C$5+((SUM(A101-1)/SUM(A$104-1))*(SUM(C$104-C$5))))</f>
+        <f t="shared" si="9"/>
         <v>0.18787878787878798</v>
       </c>
       <c r="D101">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.44242424242424239</v>
       </c>
       <c r="E101">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>193.96969696969697</v>
       </c>
     </row>
@@ -3086,19 +3087,19 @@
         <v>98</v>
       </c>
       <c r="B102">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="C102">
-        <f>(C$5+((SUM(A102-1)/SUM(A$104-1))*(SUM(C$104-C$5))))</f>
+        <f t="shared" si="9"/>
         <v>0.15858585858585883</v>
       </c>
       <c r="D102">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.39494949494949516</v>
       </c>
       <c r="E102">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>195.97979797979798</v>
       </c>
     </row>
@@ -3107,19 +3108,19 @@
         <v>99</v>
       </c>
       <c r="B103">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="C103">
-        <f>(C$5+((SUM(A103-1)/SUM(A$104-1))*(SUM(C$104-C$5))))</f>
+        <f t="shared" si="9"/>
         <v>0.12929292929292924</v>
       </c>
       <c r="D103">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.34747474747474705</v>
       </c>
       <c r="E103">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>197.98989898989899</v>
       </c>
     </row>
@@ -3201,7 +3202,7 @@
         <v>98</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C2:D4" si="2">(C$1+((SUM($A3-1)/SUM($A$100-1))*(SUM(C$100-C$1))))</f>
+        <f t="shared" ref="C3:C4" si="2">(C$1+((SUM($A3-1)/SUM($A$100-1))*(SUM(C$100-C$1))))</f>
         <v>3</v>
       </c>
       <c r="D3">
@@ -3231,11 +3232,11 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <f t="shared" ref="B3:B5" si="3">(B$1+((SUM(A5-1)/SUM(A$100-1))*(SUM(B$100-B$1))))</f>
+        <f t="shared" ref="B5" si="3">(B$1+((SUM(A5-1)/SUM(A$100-1))*(SUM(B$100-B$1))))</f>
         <v>96</v>
       </c>
       <c r="C5">
-        <f t="shared" ref="C3:C8" si="4">(C$1+((SUM(A5-1)/SUM($A$100-1))*(SUM(C$100-C$1))))</f>
+        <f t="shared" ref="C5:C8" si="4">(C$1+((SUM(A5-1)/SUM($A$100-1))*(SUM(C$100-C$1))))</f>
         <v>5</v>
       </c>
       <c r="D5">
@@ -3248,7 +3249,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <f t="shared" ref="B3:B66" si="5">(B$1+((SUM(A6-1)/SUM(A$100-1))*(SUM(B$100-B$1))))</f>
+        <f t="shared" ref="B6:B66" si="5">(B$1+((SUM(A6-1)/SUM(A$100-1))*(SUM(B$100-B$1))))</f>
         <v>95</v>
       </c>
       <c r="C6">
@@ -3303,7 +3304,7 @@
         <v>92</v>
       </c>
       <c r="C9">
-        <f t="shared" ref="C3:C66" si="6">(C$1+((SUM(A9-1)/SUM(A$100-1))*(SUM(C$100-C$1))))</f>
+        <f t="shared" ref="C9:C66" si="6">(C$1+((SUM(A9-1)/SUM(A$100-1))*(SUM(C$100-C$1))))</f>
         <v>9</v>
       </c>
       <c r="D9">

--- a/RotoShootUnityProject/Assets/Resources/mySheet.xlsx
+++ b/RotoShootUnityProject/Assets/Resources/mySheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming\UnityProjects\RotoShoot\RotoShootUnityProject\Assets\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{610CCF2A-AE7D-48F7-955B-33AEB1ABB320}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73FAEC78-9664-41C6-BDA4-A5F2A73C4E26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-18180" yWindow="-2064" windowWidth="13476" windowHeight="17916" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="-32940" yWindow="1716" windowWidth="29952" windowHeight="12828" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="mySheet (3)" sheetId="3" r:id="rId1"/>
@@ -18,7 +18,6 @@
     <sheet name="mySheet (2)" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -954,7 +953,7 @@
   <dimension ref="A1:R104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D1" sqref="D1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -975,8 +974,7 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="2"/>
@@ -991,7 +989,7 @@
       <c r="C2">
         <v>10</v>
       </c>
-      <c r="E2">
+      <c r="D2">
         <v>1</v>
       </c>
     </row>
@@ -3151,7 +3149,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D100"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B70" sqref="B70"/>
     </sheetView>
   </sheetViews>
@@ -4867,7 +4865,7 @@
   <dimension ref="A1:H100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/RotoShootUnityProject/Assets/Resources/mySheet.xlsx
+++ b/RotoShootUnityProject/Assets/Resources/mySheet.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming\UnityProjects\RotoShoot\RotoShootUnityProject\Assets\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73FAEC78-9664-41C6-BDA4-A5F2A73C4E26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9BB64FE-0D36-4565-9CAA-D317F5B83AFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="-32940" yWindow="1716" windowWidth="29952" windowHeight="12828" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="825" yWindow="-120" windowWidth="28095" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="mySheet (3)" sheetId="3" r:id="rId1"/>
-    <sheet name="mySheet" sheetId="1" r:id="rId2"/>
-    <sheet name="mySheet (2)" sheetId="2" r:id="rId3"/>
+    <sheet name="mySheet (4)" sheetId="4" r:id="rId1"/>
+    <sheet name="mySheet (3)" sheetId="3" r:id="rId2"/>
+    <sheet name="mySheet" sheetId="1" r:id="rId3"/>
+    <sheet name="mySheet (2)" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="21">
   <si>
     <t>BasePlayerHP</t>
   </si>
@@ -591,10 +592,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -949,11 +951,2208 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E354C71D-EF32-43C5-977C-A8EFCEACE8B3}">
+  <dimension ref="A1:R101"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="20.5703125" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" customWidth="1"/>
+    <col min="17" max="17" width="21.7109375" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R1" s="2"/>
+    </row>
+    <row r="2" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>100</v>
+      </c>
+      <c r="C2" s="1">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1">
+        <v>5</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <f>(B$2+((SUM($A3-1)/SUM($A$101-1))*(SUM(B$101-B$2))))</f>
+        <v>99</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:E18" si="0">(C$2+((SUM($A3-1)/SUM($A$101-1))*(SUM(C$101-C$2))))</f>
+        <v>2.9707070707070709</v>
+      </c>
+      <c r="D3">
+        <f t="shared" si="0"/>
+        <v>4.9525252525252528</v>
+      </c>
+      <c r="E3">
+        <f t="shared" si="0"/>
+        <v>3.0101010101010104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <f t="shared" ref="B4:B5" si="1">(B$2+((SUM($A4-1)/SUM($A$101-1))*(SUM(B$101-B$2))))</f>
+        <v>98</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>2.9414141414141413</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>4.9050505050505047</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>5.0202020202020208</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="1"/>
+        <v>97</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>2.9121212121212121</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>4.8575757575757574</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>7.0303030303030303</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <f t="shared" ref="B6" si="2">(B$2+((SUM(A6-1)/SUM(A$101-1))*(SUM(B$101-B$2))))</f>
+        <v>96</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>2.882828282828283</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>4.8101010101010102</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>9.0404040404040416</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <f t="shared" ref="B7:B67" si="3">(B$2+((SUM(A7-1)/SUM(A$101-1))*(SUM(B$101-B$2))))</f>
+        <v>95</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>2.8535353535353534</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>4.762626262626263</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>11.05050505050505</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="3"/>
+        <v>94</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>2.8242424242424242</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>4.7151515151515149</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>13.060606060606061</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="3"/>
+        <v>93</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>2.7949494949494951</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>4.6676767676767676</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>15.070707070707071</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="3"/>
+        <v>92</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>2.7656565656565655</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>4.6202020202020204</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>17.080808080808083</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="3"/>
+        <v>91</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>2.7363636363636363</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>4.5727272727272723</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>19.09090909090909</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="3"/>
+        <v>90</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>2.7070707070707072</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>4.5252525252525251</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>21.1010101010101</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="3"/>
+        <v>89</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>2.677777777777778</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>4.4777777777777779</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>23.111111111111111</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="3"/>
+        <v>88</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>2.6484848484848484</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>4.4303030303030306</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>25.121212121212121</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="3"/>
+        <v>87</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>2.6191919191919193</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>4.3828282828282825</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>27.131313131313135</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="3"/>
+        <v>86</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>2.5898989898989901</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>4.3353535353535353</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>29.141414141414142</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="3"/>
+        <v>85</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>2.5606060606060606</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>4.2878787878787881</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>31.151515151515152</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="3"/>
+        <v>84</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>2.5313131313131314</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>4.24040404040404</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>33.161616161616166</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="3"/>
+        <v>83</v>
+      </c>
+      <c r="C19">
+        <f t="shared" ref="C19:D46" si="4">(C$2+((SUM($A19-1)/SUM($A$101-1))*(SUM(C$101-C$2))))</f>
+        <v>2.5020202020202023</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="4"/>
+        <v>4.1929292929292927</v>
+      </c>
+      <c r="E19">
+        <f t="shared" ref="E19:E82" si="5">(E$2+((SUM($A19-1)/SUM($A$101-1))*(SUM(E$101-E$2))))</f>
+        <v>35.171717171717169</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="3"/>
+        <v>82</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="4"/>
+        <v>2.4727272727272727</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="4"/>
+        <v>4.1454545454545455</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="5"/>
+        <v>37.18181818181818</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="3"/>
+        <v>81</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="4"/>
+        <v>2.4434343434343435</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="4"/>
+        <v>4.0979797979797983</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="5"/>
+        <v>39.19191919191919</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="3"/>
+        <v>80</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="4"/>
+        <v>2.4141414141414144</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="4"/>
+        <v>4.0505050505050502</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="5"/>
+        <v>41.202020202020201</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="3"/>
+        <v>79</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="4"/>
+        <v>2.3848484848484848</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="4"/>
+        <v>4.0030303030303029</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="5"/>
+        <v>43.212121212121211</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="3"/>
+        <v>78</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="4"/>
+        <v>2.3555555555555556</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="4"/>
+        <v>3.9555555555555557</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="5"/>
+        <v>45.222222222222221</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="3"/>
+        <v>77</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="4"/>
+        <v>2.3262626262626265</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="4"/>
+        <v>3.908080808080808</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="5"/>
+        <v>47.232323232323232</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="3"/>
+        <v>76</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="4"/>
+        <v>2.2969696969696969</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="4"/>
+        <v>3.8606060606060604</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="5"/>
+        <v>49.242424242424242</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="3"/>
+        <v>75</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="4"/>
+        <v>2.2676767676767677</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="4"/>
+        <v>3.8131313131313131</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="5"/>
+        <v>51.252525252525253</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="3"/>
+        <v>74</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="4"/>
+        <v>2.2383838383838386</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="4"/>
+        <v>3.7656565656565655</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="5"/>
+        <v>53.26262626262627</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="3"/>
+        <v>73</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="4"/>
+        <v>2.209090909090909</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="4"/>
+        <v>3.7181818181818183</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="5"/>
+        <v>55.272727272727266</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="3"/>
+        <v>72</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="4"/>
+        <v>2.1797979797979798</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="4"/>
+        <v>3.6707070707070706</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="5"/>
+        <v>57.282828282828284</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="3"/>
+        <v>71</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="4"/>
+        <v>2.1505050505050507</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="4"/>
+        <v>3.6232323232323234</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="5"/>
+        <v>59.292929292929294</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <f t="shared" si="3"/>
+        <v>70</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="4"/>
+        <v>2.1212121212121211</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="4"/>
+        <v>3.5757575757575757</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="5"/>
+        <v>61.303030303030305</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <f t="shared" si="3"/>
+        <v>69</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="4"/>
+        <v>2.091919191919192</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="4"/>
+        <v>3.528282828282828</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="5"/>
+        <v>63.313131313131315</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <f t="shared" si="3"/>
+        <v>68</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="4"/>
+        <v>2.0626262626262628</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="4"/>
+        <v>3.4808080808080808</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="5"/>
+        <v>65.323232323232332</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <f t="shared" si="3"/>
+        <v>67</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="4"/>
+        <v>2.0333333333333332</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="4"/>
+        <v>3.4333333333333336</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="5"/>
+        <v>67.333333333333329</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <f t="shared" si="3"/>
+        <v>66</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="4"/>
+        <v>2.0040404040404041</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="4"/>
+        <v>3.3858585858585859</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="5"/>
+        <v>69.343434343434339</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <f t="shared" si="3"/>
+        <v>65</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="4"/>
+        <v>1.9747474747474747</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="4"/>
+        <v>3.3383838383838382</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="5"/>
+        <v>71.353535353535349</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <f t="shared" si="3"/>
+        <v>64</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="4"/>
+        <v>1.9454545454545455</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="4"/>
+        <v>3.290909090909091</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="5"/>
+        <v>73.36363636363636</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <f t="shared" si="3"/>
+        <v>63</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="4"/>
+        <v>1.9161616161616162</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="4"/>
+        <v>3.2434343434343433</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="5"/>
+        <v>75.373737373737384</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <f t="shared" si="3"/>
+        <v>62</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="4"/>
+        <v>1.886868686868687</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="4"/>
+        <v>3.1959595959595961</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="5"/>
+        <v>77.383838383838381</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <f t="shared" si="3"/>
+        <v>61</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="4"/>
+        <v>1.8575757575757577</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="4"/>
+        <v>3.1484848484848484</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="5"/>
+        <v>79.393939393939391</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="4"/>
+        <v>1.8282828282828283</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="4"/>
+        <v>3.1010101010101012</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="5"/>
+        <v>81.404040404040401</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <f t="shared" si="3"/>
+        <v>59</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="4"/>
+        <v>1.7989898989898989</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="4"/>
+        <v>3.0535353535353535</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="5"/>
+        <v>83.414141414141412</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <f t="shared" si="3"/>
+        <v>58</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="4"/>
+        <v>1.7696969696969698</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="4"/>
+        <v>3.0060606060606059</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="5"/>
+        <v>85.424242424242422</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <f t="shared" si="3"/>
+        <v>57</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="4"/>
+        <v>1.7404040404040404</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="4"/>
+        <v>2.9585858585858582</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="5"/>
+        <v>87.434343434343432</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <f t="shared" si="3"/>
+        <v>56</v>
+      </c>
+      <c r="C46">
+        <f t="shared" ref="C46:C77" si="6">(C$2+((SUM(A46-1)/SUM(A$101-1))*(SUM(C$101-C$2))))</f>
+        <v>1.7111111111111112</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="4"/>
+        <v>2.911111111111111</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="5"/>
+        <v>89.444444444444443</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <f t="shared" si="3"/>
+        <v>55</v>
+      </c>
+      <c r="C47">
+        <f t="shared" si="6"/>
+        <v>1.6818181818181819</v>
+      </c>
+      <c r="D47">
+        <f t="shared" ref="D47:D100" si="7">(D$2+((SUM($A47-1)/SUM($A$101-1))*(SUM(D$101-D$2))))</f>
+        <v>2.8636363636363638</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="5"/>
+        <v>91.454545454545453</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <f t="shared" si="3"/>
+        <v>54</v>
+      </c>
+      <c r="C48">
+        <f t="shared" si="6"/>
+        <v>1.6525252525252525</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="7"/>
+        <v>2.8161616161616161</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="5"/>
+        <v>93.464646464646464</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <f t="shared" si="3"/>
+        <v>53</v>
+      </c>
+      <c r="C49">
+        <f t="shared" si="6"/>
+        <v>1.6232323232323234</v>
+      </c>
+      <c r="D49">
+        <f t="shared" si="7"/>
+        <v>2.7686868686868684</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="5"/>
+        <v>95.474747474747474</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <f t="shared" si="3"/>
+        <v>52</v>
+      </c>
+      <c r="C50">
+        <f t="shared" si="6"/>
+        <v>1.593939393939394</v>
+      </c>
+      <c r="D50">
+        <f t="shared" si="7"/>
+        <v>2.7212121212121212</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="5"/>
+        <v>97.484848484848484</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <f t="shared" si="3"/>
+        <v>51</v>
+      </c>
+      <c r="C51">
+        <f t="shared" si="6"/>
+        <v>1.5646464646464646</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="7"/>
+        <v>2.6737373737373735</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="5"/>
+        <v>99.494949494949495</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="C52">
+        <f t="shared" si="6"/>
+        <v>1.5353535353535352</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="7"/>
+        <v>2.6262626262626259</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="5"/>
+        <v>101.50505050505051</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <f t="shared" si="3"/>
+        <v>49</v>
+      </c>
+      <c r="C53">
+        <f t="shared" si="6"/>
+        <v>1.5060606060606061</v>
+      </c>
+      <c r="D53">
+        <f t="shared" si="7"/>
+        <v>2.5787878787878786</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="5"/>
+        <v>103.51515151515152</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <f t="shared" si="3"/>
+        <v>47.999999999999993</v>
+      </c>
+      <c r="C54">
+        <f t="shared" si="6"/>
+        <v>1.4767676767676767</v>
+      </c>
+      <c r="D54">
+        <f t="shared" si="7"/>
+        <v>2.531313131313131</v>
+      </c>
+      <c r="E54">
+        <f t="shared" si="5"/>
+        <v>105.52525252525254</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <f t="shared" si="3"/>
+        <v>47</v>
+      </c>
+      <c r="C55">
+        <f t="shared" si="6"/>
+        <v>1.4474747474747476</v>
+      </c>
+      <c r="D55">
+        <f t="shared" si="7"/>
+        <v>2.4838383838383837</v>
+      </c>
+      <c r="E55">
+        <f t="shared" si="5"/>
+        <v>107.53535353535354</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <f t="shared" si="3"/>
+        <v>46.000000000000007</v>
+      </c>
+      <c r="C56">
+        <f t="shared" si="6"/>
+        <v>1.4181818181818184</v>
+      </c>
+      <c r="D56">
+        <f t="shared" si="7"/>
+        <v>2.4363636363636365</v>
+      </c>
+      <c r="E56">
+        <f t="shared" si="5"/>
+        <v>109.54545454545453</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <f t="shared" si="3"/>
+        <v>45</v>
+      </c>
+      <c r="C57">
+        <f t="shared" si="6"/>
+        <v>1.3888888888888888</v>
+      </c>
+      <c r="D57">
+        <f t="shared" si="7"/>
+        <v>2.3888888888888888</v>
+      </c>
+      <c r="E57">
+        <f t="shared" si="5"/>
+        <v>111.55555555555556</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <f t="shared" si="3"/>
+        <v>44</v>
+      </c>
+      <c r="C58">
+        <f t="shared" si="6"/>
+        <v>1.3595959595959597</v>
+      </c>
+      <c r="D58">
+        <f t="shared" si="7"/>
+        <v>2.3414141414141416</v>
+      </c>
+      <c r="E58">
+        <f t="shared" si="5"/>
+        <v>113.56565656565657</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <f t="shared" si="3"/>
+        <v>42.999999999999993</v>
+      </c>
+      <c r="C59">
+        <f t="shared" si="6"/>
+        <v>1.3303030303030303</v>
+      </c>
+      <c r="D59">
+        <f t="shared" si="7"/>
+        <v>2.2939393939393935</v>
+      </c>
+      <c r="E59">
+        <f t="shared" si="5"/>
+        <v>115.57575757575758</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <f t="shared" si="3"/>
+        <v>42</v>
+      </c>
+      <c r="C60">
+        <f t="shared" si="6"/>
+        <v>1.3010101010101012</v>
+      </c>
+      <c r="D60">
+        <f t="shared" si="7"/>
+        <v>2.2464646464646463</v>
+      </c>
+      <c r="E60">
+        <f t="shared" si="5"/>
+        <v>117.58585858585859</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <f t="shared" si="3"/>
+        <v>41.000000000000007</v>
+      </c>
+      <c r="C61">
+        <f t="shared" si="6"/>
+        <v>1.2717171717171718</v>
+      </c>
+      <c r="D61">
+        <f t="shared" si="7"/>
+        <v>2.1989898989898991</v>
+      </c>
+      <c r="E61">
+        <f t="shared" si="5"/>
+        <v>119.59595959595958</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+      <c r="C62">
+        <f t="shared" si="6"/>
+        <v>1.2424242424242424</v>
+      </c>
+      <c r="D62">
+        <f t="shared" si="7"/>
+        <v>2.1515151515151514</v>
+      </c>
+      <c r="E62">
+        <f t="shared" si="5"/>
+        <v>121.60606060606061</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <f t="shared" si="3"/>
+        <v>39</v>
+      </c>
+      <c r="C63">
+        <f t="shared" si="6"/>
+        <v>1.2131313131313133</v>
+      </c>
+      <c r="D63">
+        <f t="shared" si="7"/>
+        <v>2.1040404040404042</v>
+      </c>
+      <c r="E63">
+        <f t="shared" si="5"/>
+        <v>123.61616161616161</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <f t="shared" si="3"/>
+        <v>38</v>
+      </c>
+      <c r="C64">
+        <f t="shared" si="6"/>
+        <v>1.1838383838383837</v>
+      </c>
+      <c r="D64">
+        <f t="shared" si="7"/>
+        <v>2.0565656565656565</v>
+      </c>
+      <c r="E64">
+        <f t="shared" si="5"/>
+        <v>125.62626262626263</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <f t="shared" si="3"/>
+        <v>37</v>
+      </c>
+      <c r="C65">
+        <f t="shared" si="6"/>
+        <v>1.1545454545454545</v>
+      </c>
+      <c r="D65">
+        <f t="shared" si="7"/>
+        <v>2.0090909090909088</v>
+      </c>
+      <c r="E65">
+        <f t="shared" si="5"/>
+        <v>127.63636363636364</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <f t="shared" si="3"/>
+        <v>36</v>
+      </c>
+      <c r="C66">
+        <f t="shared" si="6"/>
+        <v>1.1252525252525252</v>
+      </c>
+      <c r="D66">
+        <f t="shared" si="7"/>
+        <v>1.9616161616161611</v>
+      </c>
+      <c r="E66">
+        <f t="shared" si="5"/>
+        <v>129.64646464646466</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <f t="shared" si="3"/>
+        <v>35</v>
+      </c>
+      <c r="C67">
+        <f t="shared" si="6"/>
+        <v>1.095959595959596</v>
+      </c>
+      <c r="D67">
+        <f t="shared" si="7"/>
+        <v>1.9141414141414139</v>
+      </c>
+      <c r="E67">
+        <f t="shared" si="5"/>
+        <v>131.65656565656565</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <f t="shared" ref="B68:B100" si="8">(B$2+((SUM(A68-1)/SUM(A$101-1))*(SUM(B$101-B$2))))</f>
+        <v>34</v>
+      </c>
+      <c r="C68">
+        <f t="shared" si="6"/>
+        <v>1.0666666666666669</v>
+      </c>
+      <c r="D68">
+        <f t="shared" si="7"/>
+        <v>1.8666666666666667</v>
+      </c>
+      <c r="E68">
+        <f t="shared" si="5"/>
+        <v>133.66666666666666</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <f t="shared" si="8"/>
+        <v>33</v>
+      </c>
+      <c r="C69">
+        <f t="shared" si="6"/>
+        <v>1.0373737373737373</v>
+      </c>
+      <c r="D69">
+        <f t="shared" si="7"/>
+        <v>1.819191919191919</v>
+      </c>
+      <c r="E69">
+        <f t="shared" si="5"/>
+        <v>135.6767676767677</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <f t="shared" si="8"/>
+        <v>32</v>
+      </c>
+      <c r="C70">
+        <f t="shared" si="6"/>
+        <v>1.0080808080808081</v>
+      </c>
+      <c r="D70">
+        <f t="shared" si="7"/>
+        <v>1.7717171717171718</v>
+      </c>
+      <c r="E70">
+        <f t="shared" si="5"/>
+        <v>137.68686868686868</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <f t="shared" si="8"/>
+        <v>31</v>
+      </c>
+      <c r="C71">
+        <f t="shared" si="6"/>
+        <v>0.97878787878787854</v>
+      </c>
+      <c r="D71">
+        <f t="shared" si="7"/>
+        <v>1.7242424242424237</v>
+      </c>
+      <c r="E71">
+        <f t="shared" si="5"/>
+        <v>139.69696969696972</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <f t="shared" si="8"/>
+        <v>30</v>
+      </c>
+      <c r="C72">
+        <f t="shared" si="6"/>
+        <v>0.94949494949494939</v>
+      </c>
+      <c r="D72">
+        <f t="shared" si="7"/>
+        <v>1.6767676767676765</v>
+      </c>
+      <c r="E72">
+        <f t="shared" si="5"/>
+        <v>141.7070707070707</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <f t="shared" si="8"/>
+        <v>29</v>
+      </c>
+      <c r="C73">
+        <f t="shared" si="6"/>
+        <v>0.92020202020202024</v>
+      </c>
+      <c r="D73">
+        <f t="shared" si="7"/>
+        <v>1.6292929292929292</v>
+      </c>
+      <c r="E73">
+        <f t="shared" si="5"/>
+        <v>143.71717171717171</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <f t="shared" si="8"/>
+        <v>28</v>
+      </c>
+      <c r="C74">
+        <f t="shared" si="6"/>
+        <v>0.89090909090909109</v>
+      </c>
+      <c r="D74">
+        <f t="shared" si="7"/>
+        <v>1.5818181818181816</v>
+      </c>
+      <c r="E74">
+        <f t="shared" si="5"/>
+        <v>145.72727272727272</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75">
+        <f t="shared" si="8"/>
+        <v>27</v>
+      </c>
+      <c r="C75">
+        <f t="shared" si="6"/>
+        <v>0.86161616161616195</v>
+      </c>
+      <c r="D75">
+        <f t="shared" si="7"/>
+        <v>1.5343434343434343</v>
+      </c>
+      <c r="E75">
+        <f t="shared" si="5"/>
+        <v>147.73737373737373</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <f t="shared" si="8"/>
+        <v>26</v>
+      </c>
+      <c r="C76">
+        <f t="shared" si="6"/>
+        <v>0.83232323232323235</v>
+      </c>
+      <c r="D76">
+        <f t="shared" si="7"/>
+        <v>1.4868686868686867</v>
+      </c>
+      <c r="E76">
+        <f t="shared" si="5"/>
+        <v>149.74747474747477</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <f t="shared" si="8"/>
+        <v>25</v>
+      </c>
+      <c r="C77">
+        <f t="shared" si="6"/>
+        <v>0.80303030303030321</v>
+      </c>
+      <c r="D77">
+        <f t="shared" si="7"/>
+        <v>1.4393939393939394</v>
+      </c>
+      <c r="E77">
+        <f t="shared" si="5"/>
+        <v>151.75757575757575</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <f t="shared" si="8"/>
+        <v>24</v>
+      </c>
+      <c r="C78">
+        <f t="shared" ref="C78:C100" si="9">(C$2+((SUM(A78-1)/SUM(A$101-1))*(SUM(C$101-C$2))))</f>
+        <v>0.77373737373737406</v>
+      </c>
+      <c r="D78">
+        <f t="shared" si="7"/>
+        <v>1.3919191919191922</v>
+      </c>
+      <c r="E78">
+        <f t="shared" si="5"/>
+        <v>153.76767676767676</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <f t="shared" si="8"/>
+        <v>23</v>
+      </c>
+      <c r="C79">
+        <f t="shared" si="9"/>
+        <v>0.74444444444444446</v>
+      </c>
+      <c r="D79">
+        <f t="shared" si="7"/>
+        <v>1.3444444444444441</v>
+      </c>
+      <c r="E79">
+        <f t="shared" si="5"/>
+        <v>155.77777777777777</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <f t="shared" si="8"/>
+        <v>22</v>
+      </c>
+      <c r="C80">
+        <f t="shared" si="9"/>
+        <v>0.71515151515151532</v>
+      </c>
+      <c r="D80">
+        <f t="shared" si="7"/>
+        <v>1.2969696969696969</v>
+      </c>
+      <c r="E80">
+        <f t="shared" si="5"/>
+        <v>157.78787878787878</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <f t="shared" si="8"/>
+        <v>21</v>
+      </c>
+      <c r="C81">
+        <f t="shared" si="9"/>
+        <v>0.68585858585858572</v>
+      </c>
+      <c r="D81">
+        <f t="shared" si="7"/>
+        <v>1.2494949494949492</v>
+      </c>
+      <c r="E81">
+        <f t="shared" si="5"/>
+        <v>159.79797979797979</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82">
+        <f t="shared" si="8"/>
+        <v>20</v>
+      </c>
+      <c r="C82">
+        <f t="shared" si="9"/>
+        <v>0.65656565656565657</v>
+      </c>
+      <c r="D82">
+        <f t="shared" si="7"/>
+        <v>1.202020202020202</v>
+      </c>
+      <c r="E82">
+        <f t="shared" si="5"/>
+        <v>161.8080808080808</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83">
+        <f t="shared" si="8"/>
+        <v>19</v>
+      </c>
+      <c r="C83">
+        <f t="shared" si="9"/>
+        <v>0.62727272727272698</v>
+      </c>
+      <c r="D83">
+        <f t="shared" si="7"/>
+        <v>1.1545454545454543</v>
+      </c>
+      <c r="E83">
+        <f t="shared" ref="E83:E100" si="10">(E$2+((SUM($A83-1)/SUM($A$101-1))*(SUM(E$101-E$2))))</f>
+        <v>163.81818181818184</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84">
+        <f t="shared" si="8"/>
+        <v>18</v>
+      </c>
+      <c r="C84">
+        <f t="shared" si="9"/>
+        <v>0.59797979797979783</v>
+      </c>
+      <c r="D84">
+        <f t="shared" si="7"/>
+        <v>1.1070707070707071</v>
+      </c>
+      <c r="E84">
+        <f t="shared" si="10"/>
+        <v>165.82828282828282</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <f t="shared" si="8"/>
+        <v>17</v>
+      </c>
+      <c r="C85">
+        <f t="shared" si="9"/>
+        <v>0.56868686868686869</v>
+      </c>
+      <c r="D85">
+        <f t="shared" si="7"/>
+        <v>1.0595959595959594</v>
+      </c>
+      <c r="E85">
+        <f t="shared" si="10"/>
+        <v>167.83838383838383</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86">
+        <f t="shared" si="8"/>
+        <v>16</v>
+      </c>
+      <c r="C86">
+        <f t="shared" si="9"/>
+        <v>0.53939393939393954</v>
+      </c>
+      <c r="D86">
+        <f t="shared" si="7"/>
+        <v>1.0121212121212118</v>
+      </c>
+      <c r="E86">
+        <f t="shared" si="10"/>
+        <v>169.84848484848484</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87">
+        <f t="shared" si="8"/>
+        <v>15</v>
+      </c>
+      <c r="C87">
+        <f t="shared" si="9"/>
+        <v>0.51010101010101039</v>
+      </c>
+      <c r="D87">
+        <f t="shared" si="7"/>
+        <v>0.96464646464646453</v>
+      </c>
+      <c r="E87">
+        <f t="shared" si="10"/>
+        <v>171.85858585858585</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88">
+        <f t="shared" si="8"/>
+        <v>14</v>
+      </c>
+      <c r="C88">
+        <f t="shared" si="9"/>
+        <v>0.4808080808080808</v>
+      </c>
+      <c r="D88">
+        <f t="shared" si="7"/>
+        <v>0.91717171717171642</v>
+      </c>
+      <c r="E88">
+        <f t="shared" si="10"/>
+        <v>173.86868686868686</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89">
+        <f t="shared" si="8"/>
+        <v>13</v>
+      </c>
+      <c r="C89">
+        <f t="shared" si="9"/>
+        <v>0.45151515151515165</v>
+      </c>
+      <c r="D89">
+        <f t="shared" si="7"/>
+        <v>0.86969696969696919</v>
+      </c>
+      <c r="E89">
+        <f t="shared" si="10"/>
+        <v>175.87878787878788</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90">
+        <f t="shared" si="8"/>
+        <v>12</v>
+      </c>
+      <c r="C90">
+        <f t="shared" si="9"/>
+        <v>0.4222222222222225</v>
+      </c>
+      <c r="D90">
+        <f t="shared" si="7"/>
+        <v>0.82222222222222197</v>
+      </c>
+      <c r="E90">
+        <f t="shared" si="10"/>
+        <v>177.88888888888889</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91">
+        <f t="shared" si="8"/>
+        <v>11</v>
+      </c>
+      <c r="C91">
+        <f t="shared" si="9"/>
+        <v>0.39292929292929291</v>
+      </c>
+      <c r="D91">
+        <f t="shared" si="7"/>
+        <v>0.77474747474747474</v>
+      </c>
+      <c r="E91">
+        <f t="shared" si="10"/>
+        <v>179.8989898989899</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="C92">
+        <f t="shared" si="9"/>
+        <v>0.36363636363636376</v>
+      </c>
+      <c r="D92">
+        <f t="shared" si="7"/>
+        <v>0.72727272727272751</v>
+      </c>
+      <c r="E92">
+        <f t="shared" si="10"/>
+        <v>181.90909090909091</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93">
+        <f t="shared" si="8"/>
+        <v>9</v>
+      </c>
+      <c r="C93">
+        <f t="shared" si="9"/>
+        <v>0.33434343434343416</v>
+      </c>
+      <c r="D93">
+        <f t="shared" si="7"/>
+        <v>0.6797979797979794</v>
+      </c>
+      <c r="E93">
+        <f t="shared" si="10"/>
+        <v>183.91919191919192</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
+      <c r="C94">
+        <f t="shared" si="9"/>
+        <v>0.30505050505050502</v>
+      </c>
+      <c r="D94">
+        <f t="shared" si="7"/>
+        <v>0.63232323232323218</v>
+      </c>
+      <c r="E94">
+        <f t="shared" si="10"/>
+        <v>185.92929292929293</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="C95">
+        <f t="shared" si="9"/>
+        <v>0.27575757575757587</v>
+      </c>
+      <c r="D95">
+        <f t="shared" si="7"/>
+        <v>0.58484848484848406</v>
+      </c>
+      <c r="E95">
+        <f t="shared" si="10"/>
+        <v>187.93939393939394</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="C96">
+        <f t="shared" si="9"/>
+        <v>0.24646464646464672</v>
+      </c>
+      <c r="D96">
+        <f t="shared" si="7"/>
+        <v>0.53737373737373684</v>
+      </c>
+      <c r="E96">
+        <f t="shared" si="10"/>
+        <v>189.94949494949495</v>
+      </c>
+    </row>
+    <row r="97" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="C97">
+        <f t="shared" si="9"/>
+        <v>0.21717171717171757</v>
+      </c>
+      <c r="D97">
+        <f t="shared" si="7"/>
+        <v>0.48989898989898961</v>
+      </c>
+      <c r="E97">
+        <f t="shared" si="10"/>
+        <v>191.95959595959596</v>
+      </c>
+    </row>
+    <row r="98" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="C98">
+        <f t="shared" si="9"/>
+        <v>0.18787878787878798</v>
+      </c>
+      <c r="D98">
+        <f t="shared" si="7"/>
+        <v>0.44242424242424239</v>
+      </c>
+      <c r="E98">
+        <f t="shared" si="10"/>
+        <v>193.96969696969697</v>
+      </c>
+    </row>
+    <row r="99" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="C99">
+        <f t="shared" si="9"/>
+        <v>0.15858585858585883</v>
+      </c>
+      <c r="D99">
+        <f t="shared" si="7"/>
+        <v>0.39494949494949516</v>
+      </c>
+      <c r="E99">
+        <f t="shared" si="10"/>
+        <v>195.97979797979798</v>
+      </c>
+    </row>
+    <row r="100" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="C100">
+        <f t="shared" si="9"/>
+        <v>0.12929292929292924</v>
+      </c>
+      <c r="D100">
+        <f t="shared" si="7"/>
+        <v>0.34747474747474705</v>
+      </c>
+      <c r="E100">
+        <f t="shared" si="10"/>
+        <v>197.98989898989899</v>
+      </c>
+    </row>
+    <row r="101" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="1">
+        <v>100</v>
+      </c>
+      <c r="B101" s="1">
+        <v>1</v>
+      </c>
+      <c r="C101" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="D101" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="E101" s="1">
+        <v>200</v>
+      </c>
+      <c r="F101" s="1"/>
+      <c r="G101" s="1"/>
+      <c r="H101" s="1"/>
+      <c r="I101" s="1"/>
+      <c r="J101" s="1"/>
+      <c r="K101" s="1"/>
+      <c r="L101" s="1"/>
+      <c r="M101" s="1"/>
+      <c r="N101" s="1"/>
+      <c r="O101" s="1"/>
+      <c r="P101" s="1"/>
+      <c r="Q101" s="1"/>
+      <c r="R101" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C07D9FF7-6764-493E-B8E7-E13E8EAB688E}">
   <dimension ref="A1:R104"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:R4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3145,7 +5344,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D100"/>
   <sheetViews>
@@ -4860,7 +7059,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{177E4DE0-04A8-445D-9BEA-547F536AA93A}">
   <dimension ref="A1:H100"/>
   <sheetViews>

--- a/RotoShootUnityProject/Assets/Resources/mySheet.xlsx
+++ b/RotoShootUnityProject/Assets/Resources/mySheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming\UnityProjects\RotoShoot\RotoShootUnityProject\Assets\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9BB64FE-0D36-4565-9CAA-D317F5B83AFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA2B8B97-E5E2-4BDB-AE0B-16BFAB4A6533}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="825" yWindow="-120" windowWidth="28095" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -952,11 +952,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E354C71D-EF32-43C5-977C-A8EFCEACE8B3}">
-  <dimension ref="A1:R101"/>
+  <dimension ref="A1:Q101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
+      <selection pane="bottomLeft" activeCell="B102" sqref="B102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -966,10 +966,9 @@
     <col min="5" max="5" width="18.7109375" customWidth="1"/>
     <col min="6" max="6" width="14.5703125" customWidth="1"/>
     <col min="17" max="17" width="21.7109375" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -1021,14 +1020,13 @@
       <c r="Q1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="R1" s="2"/>
-    </row>
-    <row r="2" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="C2" s="1">
         <v>3</v>
@@ -1039,27 +1037,50 @@
       <c r="E2" s="1">
         <v>1</v>
       </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="F2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="K2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="L2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="O2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
         <f>(B$2+((SUM($A3-1)/SUM($A$101-1))*(SUM(B$101-B$2))))</f>
-        <v>99</v>
+        <v>2</v>
       </c>
       <c r="C3">
         <f t="shared" ref="C3:E18" si="0">(C$2+((SUM($A3-1)/SUM($A$101-1))*(SUM(C$101-C$2))))</f>
@@ -1073,14 +1094,50 @@
         <f t="shared" si="0"/>
         <v>3.0101010101010104</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="F3">
+        <v>-1</v>
+      </c>
+      <c r="G3">
+        <v>-1</v>
+      </c>
+      <c r="H3">
+        <v>-1</v>
+      </c>
+      <c r="I3">
+        <v>-1</v>
+      </c>
+      <c r="J3">
+        <v>-1</v>
+      </c>
+      <c r="K3">
+        <v>-1</v>
+      </c>
+      <c r="L3">
+        <v>-1</v>
+      </c>
+      <c r="M3">
+        <v>-1</v>
+      </c>
+      <c r="N3">
+        <v>-1</v>
+      </c>
+      <c r="O3">
+        <v>-1</v>
+      </c>
+      <c r="P3">
+        <v>-1</v>
+      </c>
+      <c r="Q3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
         <f t="shared" ref="B4:B5" si="1">(B$2+((SUM($A4-1)/SUM($A$101-1))*(SUM(B$101-B$2))))</f>
-        <v>98</v>
+        <v>3</v>
       </c>
       <c r="C4">
         <f t="shared" si="0"/>
@@ -1094,14 +1151,50 @@
         <f t="shared" si="0"/>
         <v>5.0202020202020208</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="F4">
+        <v>-1</v>
+      </c>
+      <c r="G4">
+        <v>-1</v>
+      </c>
+      <c r="H4">
+        <v>-1</v>
+      </c>
+      <c r="I4">
+        <v>-1</v>
+      </c>
+      <c r="J4">
+        <v>-1</v>
+      </c>
+      <c r="K4">
+        <v>-1</v>
+      </c>
+      <c r="L4">
+        <v>-1</v>
+      </c>
+      <c r="M4">
+        <v>-1</v>
+      </c>
+      <c r="N4">
+        <v>-1</v>
+      </c>
+      <c r="O4">
+        <v>-1</v>
+      </c>
+      <c r="P4">
+        <v>-1</v>
+      </c>
+      <c r="Q4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
         <f t="shared" si="1"/>
-        <v>97</v>
+        <v>4</v>
       </c>
       <c r="C5">
         <f t="shared" si="0"/>
@@ -1115,14 +1208,50 @@
         <f t="shared" si="0"/>
         <v>7.0303030303030303</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="F5">
+        <v>-1</v>
+      </c>
+      <c r="G5">
+        <v>-1</v>
+      </c>
+      <c r="H5">
+        <v>-1</v>
+      </c>
+      <c r="I5">
+        <v>-1</v>
+      </c>
+      <c r="J5">
+        <v>-1</v>
+      </c>
+      <c r="K5">
+        <v>-1</v>
+      </c>
+      <c r="L5">
+        <v>-1</v>
+      </c>
+      <c r="M5">
+        <v>-1</v>
+      </c>
+      <c r="N5">
+        <v>-1</v>
+      </c>
+      <c r="O5">
+        <v>-1</v>
+      </c>
+      <c r="P5">
+        <v>-1</v>
+      </c>
+      <c r="Q5">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
         <f t="shared" ref="B6" si="2">(B$2+((SUM(A6-1)/SUM(A$101-1))*(SUM(B$101-B$2))))</f>
-        <v>96</v>
+        <v>5</v>
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
@@ -1136,14 +1265,50 @@
         <f t="shared" si="0"/>
         <v>9.0404040404040416</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="F6">
+        <v>-1</v>
+      </c>
+      <c r="G6">
+        <v>-1</v>
+      </c>
+      <c r="H6">
+        <v>-1</v>
+      </c>
+      <c r="I6">
+        <v>-1</v>
+      </c>
+      <c r="J6">
+        <v>-1</v>
+      </c>
+      <c r="K6">
+        <v>-1</v>
+      </c>
+      <c r="L6">
+        <v>-1</v>
+      </c>
+      <c r="M6">
+        <v>-1</v>
+      </c>
+      <c r="N6">
+        <v>-1</v>
+      </c>
+      <c r="O6">
+        <v>-1</v>
+      </c>
+      <c r="P6">
+        <v>-1</v>
+      </c>
+      <c r="Q6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
         <f t="shared" ref="B7:B67" si="3">(B$2+((SUM(A7-1)/SUM(A$101-1))*(SUM(B$101-B$2))))</f>
-        <v>95</v>
+        <v>6</v>
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
@@ -1157,14 +1322,50 @@
         <f t="shared" si="0"/>
         <v>11.05050505050505</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="F7">
+        <v>-1</v>
+      </c>
+      <c r="G7">
+        <v>-1</v>
+      </c>
+      <c r="H7">
+        <v>-1</v>
+      </c>
+      <c r="I7">
+        <v>-1</v>
+      </c>
+      <c r="J7">
+        <v>-1</v>
+      </c>
+      <c r="K7">
+        <v>-1</v>
+      </c>
+      <c r="L7">
+        <v>-1</v>
+      </c>
+      <c r="M7">
+        <v>-1</v>
+      </c>
+      <c r="N7">
+        <v>-1</v>
+      </c>
+      <c r="O7">
+        <v>-1</v>
+      </c>
+      <c r="P7">
+        <v>-1</v>
+      </c>
+      <c r="Q7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
         <f t="shared" si="3"/>
-        <v>94</v>
+        <v>7</v>
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
@@ -1178,14 +1379,50 @@
         <f t="shared" si="0"/>
         <v>13.060606060606061</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="F8">
+        <v>-1</v>
+      </c>
+      <c r="G8">
+        <v>-1</v>
+      </c>
+      <c r="H8">
+        <v>-1</v>
+      </c>
+      <c r="I8">
+        <v>-1</v>
+      </c>
+      <c r="J8">
+        <v>-1</v>
+      </c>
+      <c r="K8">
+        <v>-1</v>
+      </c>
+      <c r="L8">
+        <v>-1</v>
+      </c>
+      <c r="M8">
+        <v>-1</v>
+      </c>
+      <c r="N8">
+        <v>-1</v>
+      </c>
+      <c r="O8">
+        <v>-1</v>
+      </c>
+      <c r="P8">
+        <v>-1</v>
+      </c>
+      <c r="Q8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
         <f t="shared" si="3"/>
-        <v>93</v>
+        <v>8</v>
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
@@ -1199,14 +1436,50 @@
         <f t="shared" si="0"/>
         <v>15.070707070707071</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="F9">
+        <v>-1</v>
+      </c>
+      <c r="G9">
+        <v>-1</v>
+      </c>
+      <c r="H9">
+        <v>-1</v>
+      </c>
+      <c r="I9">
+        <v>-1</v>
+      </c>
+      <c r="J9">
+        <v>-1</v>
+      </c>
+      <c r="K9">
+        <v>-1</v>
+      </c>
+      <c r="L9">
+        <v>-1</v>
+      </c>
+      <c r="M9">
+        <v>-1</v>
+      </c>
+      <c r="N9">
+        <v>-1</v>
+      </c>
+      <c r="O9">
+        <v>-1</v>
+      </c>
+      <c r="P9">
+        <v>-1</v>
+      </c>
+      <c r="Q9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
         <f t="shared" si="3"/>
-        <v>92</v>
+        <v>9</v>
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
@@ -1220,14 +1493,50 @@
         <f t="shared" si="0"/>
         <v>17.080808080808083</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="F10">
+        <v>-1</v>
+      </c>
+      <c r="G10">
+        <v>-1</v>
+      </c>
+      <c r="H10">
+        <v>-1</v>
+      </c>
+      <c r="I10">
+        <v>-1</v>
+      </c>
+      <c r="J10">
+        <v>-1</v>
+      </c>
+      <c r="K10">
+        <v>-1</v>
+      </c>
+      <c r="L10">
+        <v>-1</v>
+      </c>
+      <c r="M10">
+        <v>-1</v>
+      </c>
+      <c r="N10">
+        <v>-1</v>
+      </c>
+      <c r="O10">
+        <v>-1</v>
+      </c>
+      <c r="P10">
+        <v>-1</v>
+      </c>
+      <c r="Q10">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
         <f t="shared" si="3"/>
-        <v>91</v>
+        <v>10</v>
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
@@ -1241,14 +1550,50 @@
         <f t="shared" si="0"/>
         <v>19.09090909090909</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="F11">
+        <v>-1</v>
+      </c>
+      <c r="G11">
+        <v>-1</v>
+      </c>
+      <c r="H11">
+        <v>-1</v>
+      </c>
+      <c r="I11">
+        <v>-1</v>
+      </c>
+      <c r="J11">
+        <v>-1</v>
+      </c>
+      <c r="K11">
+        <v>-1</v>
+      </c>
+      <c r="L11">
+        <v>-1</v>
+      </c>
+      <c r="M11">
+        <v>-1</v>
+      </c>
+      <c r="N11">
+        <v>-1</v>
+      </c>
+      <c r="O11">
+        <v>-1</v>
+      </c>
+      <c r="P11">
+        <v>-1</v>
+      </c>
+      <c r="Q11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12">
         <f t="shared" si="3"/>
-        <v>90</v>
+        <v>11</v>
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
@@ -1262,14 +1607,50 @@
         <f t="shared" si="0"/>
         <v>21.1010101010101</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="F12">
+        <v>-1</v>
+      </c>
+      <c r="G12">
+        <v>-1</v>
+      </c>
+      <c r="H12">
+        <v>-1</v>
+      </c>
+      <c r="I12">
+        <v>-1</v>
+      </c>
+      <c r="J12">
+        <v>-1</v>
+      </c>
+      <c r="K12">
+        <v>-1</v>
+      </c>
+      <c r="L12">
+        <v>-1</v>
+      </c>
+      <c r="M12">
+        <v>-1</v>
+      </c>
+      <c r="N12">
+        <v>-1</v>
+      </c>
+      <c r="O12">
+        <v>-1</v>
+      </c>
+      <c r="P12">
+        <v>-1</v>
+      </c>
+      <c r="Q12">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13">
         <f t="shared" si="3"/>
-        <v>89</v>
+        <v>12</v>
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
@@ -1283,14 +1664,50 @@
         <f t="shared" si="0"/>
         <v>23.111111111111111</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="F13">
+        <v>-1</v>
+      </c>
+      <c r="G13">
+        <v>-1</v>
+      </c>
+      <c r="H13">
+        <v>-1</v>
+      </c>
+      <c r="I13">
+        <v>-1</v>
+      </c>
+      <c r="J13">
+        <v>-1</v>
+      </c>
+      <c r="K13">
+        <v>-1</v>
+      </c>
+      <c r="L13">
+        <v>-1</v>
+      </c>
+      <c r="M13">
+        <v>-1</v>
+      </c>
+      <c r="N13">
+        <v>-1</v>
+      </c>
+      <c r="O13">
+        <v>-1</v>
+      </c>
+      <c r="P13">
+        <v>-1</v>
+      </c>
+      <c r="Q13">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14">
         <f t="shared" si="3"/>
-        <v>88</v>
+        <v>13</v>
       </c>
       <c r="C14">
         <f t="shared" si="0"/>
@@ -1304,14 +1721,50 @@
         <f t="shared" si="0"/>
         <v>25.121212121212121</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="F14">
+        <v>-1</v>
+      </c>
+      <c r="G14">
+        <v>-1</v>
+      </c>
+      <c r="H14">
+        <v>-1</v>
+      </c>
+      <c r="I14">
+        <v>-1</v>
+      </c>
+      <c r="J14">
+        <v>-1</v>
+      </c>
+      <c r="K14">
+        <v>-1</v>
+      </c>
+      <c r="L14">
+        <v>-1</v>
+      </c>
+      <c r="M14">
+        <v>-1</v>
+      </c>
+      <c r="N14">
+        <v>-1</v>
+      </c>
+      <c r="O14">
+        <v>-1</v>
+      </c>
+      <c r="P14">
+        <v>-1</v>
+      </c>
+      <c r="Q14">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15">
         <f t="shared" si="3"/>
-        <v>87</v>
+        <v>14.000000000000002</v>
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
@@ -1325,14 +1778,50 @@
         <f t="shared" si="0"/>
         <v>27.131313131313135</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="F15">
+        <v>-1</v>
+      </c>
+      <c r="G15">
+        <v>-1</v>
+      </c>
+      <c r="H15">
+        <v>-1</v>
+      </c>
+      <c r="I15">
+        <v>-1</v>
+      </c>
+      <c r="J15">
+        <v>-1</v>
+      </c>
+      <c r="K15">
+        <v>-1</v>
+      </c>
+      <c r="L15">
+        <v>-1</v>
+      </c>
+      <c r="M15">
+        <v>-1</v>
+      </c>
+      <c r="N15">
+        <v>-1</v>
+      </c>
+      <c r="O15">
+        <v>-1</v>
+      </c>
+      <c r="P15">
+        <v>-1</v>
+      </c>
+      <c r="Q15">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16">
         <f t="shared" si="3"/>
-        <v>86</v>
+        <v>15</v>
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
@@ -1346,14 +1835,50 @@
         <f t="shared" si="0"/>
         <v>29.141414141414142</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F16">
+        <v>-1</v>
+      </c>
+      <c r="G16">
+        <v>-1</v>
+      </c>
+      <c r="H16">
+        <v>-1</v>
+      </c>
+      <c r="I16">
+        <v>-1</v>
+      </c>
+      <c r="J16">
+        <v>-1</v>
+      </c>
+      <c r="K16">
+        <v>-1</v>
+      </c>
+      <c r="L16">
+        <v>-1</v>
+      </c>
+      <c r="M16">
+        <v>-1</v>
+      </c>
+      <c r="N16">
+        <v>-1</v>
+      </c>
+      <c r="O16">
+        <v>-1</v>
+      </c>
+      <c r="P16">
+        <v>-1</v>
+      </c>
+      <c r="Q16">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17">
         <f t="shared" si="3"/>
-        <v>85</v>
+        <v>16</v>
       </c>
       <c r="C17">
         <f t="shared" si="0"/>
@@ -1367,14 +1892,50 @@
         <f t="shared" si="0"/>
         <v>31.151515151515152</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F17">
+        <v>-1</v>
+      </c>
+      <c r="G17">
+        <v>-1</v>
+      </c>
+      <c r="H17">
+        <v>-1</v>
+      </c>
+      <c r="I17">
+        <v>-1</v>
+      </c>
+      <c r="J17">
+        <v>-1</v>
+      </c>
+      <c r="K17">
+        <v>-1</v>
+      </c>
+      <c r="L17">
+        <v>-1</v>
+      </c>
+      <c r="M17">
+        <v>-1</v>
+      </c>
+      <c r="N17">
+        <v>-1</v>
+      </c>
+      <c r="O17">
+        <v>-1</v>
+      </c>
+      <c r="P17">
+        <v>-1</v>
+      </c>
+      <c r="Q17">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18">
         <f t="shared" si="3"/>
-        <v>84</v>
+        <v>17</v>
       </c>
       <c r="C18">
         <f t="shared" si="0"/>
@@ -1388,14 +1949,50 @@
         <f t="shared" si="0"/>
         <v>33.161616161616166</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F18">
+        <v>-1</v>
+      </c>
+      <c r="G18">
+        <v>-1</v>
+      </c>
+      <c r="H18">
+        <v>-1</v>
+      </c>
+      <c r="I18">
+        <v>-1</v>
+      </c>
+      <c r="J18">
+        <v>-1</v>
+      </c>
+      <c r="K18">
+        <v>-1</v>
+      </c>
+      <c r="L18">
+        <v>-1</v>
+      </c>
+      <c r="M18">
+        <v>-1</v>
+      </c>
+      <c r="N18">
+        <v>-1</v>
+      </c>
+      <c r="O18">
+        <v>-1</v>
+      </c>
+      <c r="P18">
+        <v>-1</v>
+      </c>
+      <c r="Q18">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19">
         <f t="shared" si="3"/>
-        <v>83</v>
+        <v>18</v>
       </c>
       <c r="C19">
         <f t="shared" ref="C19:D46" si="4">(C$2+((SUM($A19-1)/SUM($A$101-1))*(SUM(C$101-C$2))))</f>
@@ -1409,14 +2006,50 @@
         <f t="shared" ref="E19:E82" si="5">(E$2+((SUM($A19-1)/SUM($A$101-1))*(SUM(E$101-E$2))))</f>
         <v>35.171717171717169</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F19">
+        <v>-1</v>
+      </c>
+      <c r="G19">
+        <v>-1</v>
+      </c>
+      <c r="H19">
+        <v>-1</v>
+      </c>
+      <c r="I19">
+        <v>-1</v>
+      </c>
+      <c r="J19">
+        <v>-1</v>
+      </c>
+      <c r="K19">
+        <v>-1</v>
+      </c>
+      <c r="L19">
+        <v>-1</v>
+      </c>
+      <c r="M19">
+        <v>-1</v>
+      </c>
+      <c r="N19">
+        <v>-1</v>
+      </c>
+      <c r="O19">
+        <v>-1</v>
+      </c>
+      <c r="P19">
+        <v>-1</v>
+      </c>
+      <c r="Q19">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20">
         <f t="shared" si="3"/>
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="C20">
         <f t="shared" si="4"/>
@@ -1430,14 +2063,50 @@
         <f t="shared" si="5"/>
         <v>37.18181818181818</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F20">
+        <v>-1</v>
+      </c>
+      <c r="G20">
+        <v>-1</v>
+      </c>
+      <c r="H20">
+        <v>-1</v>
+      </c>
+      <c r="I20">
+        <v>-1</v>
+      </c>
+      <c r="J20">
+        <v>-1</v>
+      </c>
+      <c r="K20">
+        <v>-1</v>
+      </c>
+      <c r="L20">
+        <v>-1</v>
+      </c>
+      <c r="M20">
+        <v>-1</v>
+      </c>
+      <c r="N20">
+        <v>-1</v>
+      </c>
+      <c r="O20">
+        <v>-1</v>
+      </c>
+      <c r="P20">
+        <v>-1</v>
+      </c>
+      <c r="Q20">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21">
         <f t="shared" si="3"/>
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="C21">
         <f t="shared" si="4"/>
@@ -1451,14 +2120,50 @@
         <f t="shared" si="5"/>
         <v>39.19191919191919</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F21">
+        <v>-1</v>
+      </c>
+      <c r="G21">
+        <v>-1</v>
+      </c>
+      <c r="H21">
+        <v>-1</v>
+      </c>
+      <c r="I21">
+        <v>-1</v>
+      </c>
+      <c r="J21">
+        <v>-1</v>
+      </c>
+      <c r="K21">
+        <v>-1</v>
+      </c>
+      <c r="L21">
+        <v>-1</v>
+      </c>
+      <c r="M21">
+        <v>-1</v>
+      </c>
+      <c r="N21">
+        <v>-1</v>
+      </c>
+      <c r="O21">
+        <v>-1</v>
+      </c>
+      <c r="P21">
+        <v>-1</v>
+      </c>
+      <c r="Q21">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22">
         <f t="shared" si="3"/>
-        <v>80</v>
+        <v>21</v>
       </c>
       <c r="C22">
         <f t="shared" si="4"/>
@@ -1472,14 +2177,50 @@
         <f t="shared" si="5"/>
         <v>41.202020202020201</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F22">
+        <v>-1</v>
+      </c>
+      <c r="G22">
+        <v>-1</v>
+      </c>
+      <c r="H22">
+        <v>-1</v>
+      </c>
+      <c r="I22">
+        <v>-1</v>
+      </c>
+      <c r="J22">
+        <v>-1</v>
+      </c>
+      <c r="K22">
+        <v>-1</v>
+      </c>
+      <c r="L22">
+        <v>-1</v>
+      </c>
+      <c r="M22">
+        <v>-1</v>
+      </c>
+      <c r="N22">
+        <v>-1</v>
+      </c>
+      <c r="O22">
+        <v>-1</v>
+      </c>
+      <c r="P22">
+        <v>-1</v>
+      </c>
+      <c r="Q22">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23">
         <f t="shared" si="3"/>
-        <v>79</v>
+        <v>22</v>
       </c>
       <c r="C23">
         <f t="shared" si="4"/>
@@ -1493,14 +2234,50 @@
         <f t="shared" si="5"/>
         <v>43.212121212121211</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F23">
+        <v>-1</v>
+      </c>
+      <c r="G23">
+        <v>-1</v>
+      </c>
+      <c r="H23">
+        <v>-1</v>
+      </c>
+      <c r="I23">
+        <v>-1</v>
+      </c>
+      <c r="J23">
+        <v>-1</v>
+      </c>
+      <c r="K23">
+        <v>-1</v>
+      </c>
+      <c r="L23">
+        <v>-1</v>
+      </c>
+      <c r="M23">
+        <v>-1</v>
+      </c>
+      <c r="N23">
+        <v>-1</v>
+      </c>
+      <c r="O23">
+        <v>-1</v>
+      </c>
+      <c r="P23">
+        <v>-1</v>
+      </c>
+      <c r="Q23">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24">
         <f t="shared" si="3"/>
-        <v>78</v>
+        <v>23</v>
       </c>
       <c r="C24">
         <f t="shared" si="4"/>
@@ -1514,14 +2291,50 @@
         <f t="shared" si="5"/>
         <v>45.222222222222221</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F24">
+        <v>-1</v>
+      </c>
+      <c r="G24">
+        <v>-1</v>
+      </c>
+      <c r="H24">
+        <v>-1</v>
+      </c>
+      <c r="I24">
+        <v>-1</v>
+      </c>
+      <c r="J24">
+        <v>-1</v>
+      </c>
+      <c r="K24">
+        <v>-1</v>
+      </c>
+      <c r="L24">
+        <v>-1</v>
+      </c>
+      <c r="M24">
+        <v>-1</v>
+      </c>
+      <c r="N24">
+        <v>-1</v>
+      </c>
+      <c r="O24">
+        <v>-1</v>
+      </c>
+      <c r="P24">
+        <v>-1</v>
+      </c>
+      <c r="Q24">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25">
         <f t="shared" si="3"/>
-        <v>77</v>
+        <v>24</v>
       </c>
       <c r="C25">
         <f t="shared" si="4"/>
@@ -1535,14 +2348,50 @@
         <f t="shared" si="5"/>
         <v>47.232323232323232</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F25">
+        <v>-1</v>
+      </c>
+      <c r="G25">
+        <v>-1</v>
+      </c>
+      <c r="H25">
+        <v>-1</v>
+      </c>
+      <c r="I25">
+        <v>-1</v>
+      </c>
+      <c r="J25">
+        <v>-1</v>
+      </c>
+      <c r="K25">
+        <v>-1</v>
+      </c>
+      <c r="L25">
+        <v>-1</v>
+      </c>
+      <c r="M25">
+        <v>-1</v>
+      </c>
+      <c r="N25">
+        <v>-1</v>
+      </c>
+      <c r="O25">
+        <v>-1</v>
+      </c>
+      <c r="P25">
+        <v>-1</v>
+      </c>
+      <c r="Q25">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26">
         <f t="shared" si="3"/>
-        <v>76</v>
+        <v>25</v>
       </c>
       <c r="C26">
         <f t="shared" si="4"/>
@@ -1556,14 +2405,50 @@
         <f t="shared" si="5"/>
         <v>49.242424242424242</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F26">
+        <v>-1</v>
+      </c>
+      <c r="G26">
+        <v>-1</v>
+      </c>
+      <c r="H26">
+        <v>-1</v>
+      </c>
+      <c r="I26">
+        <v>-1</v>
+      </c>
+      <c r="J26">
+        <v>-1</v>
+      </c>
+      <c r="K26">
+        <v>-1</v>
+      </c>
+      <c r="L26">
+        <v>-1</v>
+      </c>
+      <c r="M26">
+        <v>-1</v>
+      </c>
+      <c r="N26">
+        <v>-1</v>
+      </c>
+      <c r="O26">
+        <v>-1</v>
+      </c>
+      <c r="P26">
+        <v>-1</v>
+      </c>
+      <c r="Q26">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27">
         <f t="shared" si="3"/>
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="C27">
         <f t="shared" si="4"/>
@@ -1577,14 +2462,50 @@
         <f t="shared" si="5"/>
         <v>51.252525252525253</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F27">
+        <v>-1</v>
+      </c>
+      <c r="G27">
+        <v>-1</v>
+      </c>
+      <c r="H27">
+        <v>-1</v>
+      </c>
+      <c r="I27">
+        <v>-1</v>
+      </c>
+      <c r="J27">
+        <v>-1</v>
+      </c>
+      <c r="K27">
+        <v>-1</v>
+      </c>
+      <c r="L27">
+        <v>-1</v>
+      </c>
+      <c r="M27">
+        <v>-1</v>
+      </c>
+      <c r="N27">
+        <v>-1</v>
+      </c>
+      <c r="O27">
+        <v>-1</v>
+      </c>
+      <c r="P27">
+        <v>-1</v>
+      </c>
+      <c r="Q27">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28">
         <f t="shared" si="3"/>
-        <v>74</v>
+        <v>27.000000000000004</v>
       </c>
       <c r="C28">
         <f t="shared" si="4"/>
@@ -1598,14 +2519,50 @@
         <f t="shared" si="5"/>
         <v>53.26262626262627</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F28">
+        <v>-1</v>
+      </c>
+      <c r="G28">
+        <v>-1</v>
+      </c>
+      <c r="H28">
+        <v>-1</v>
+      </c>
+      <c r="I28">
+        <v>-1</v>
+      </c>
+      <c r="J28">
+        <v>-1</v>
+      </c>
+      <c r="K28">
+        <v>-1</v>
+      </c>
+      <c r="L28">
+        <v>-1</v>
+      </c>
+      <c r="M28">
+        <v>-1</v>
+      </c>
+      <c r="N28">
+        <v>-1</v>
+      </c>
+      <c r="O28">
+        <v>-1</v>
+      </c>
+      <c r="P28">
+        <v>-1</v>
+      </c>
+      <c r="Q28">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29">
         <f t="shared" si="3"/>
-        <v>73</v>
+        <v>27.999999999999996</v>
       </c>
       <c r="C29">
         <f t="shared" si="4"/>
@@ -1619,14 +2576,50 @@
         <f t="shared" si="5"/>
         <v>55.272727272727266</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F29">
+        <v>-1</v>
+      </c>
+      <c r="G29">
+        <v>-1</v>
+      </c>
+      <c r="H29">
+        <v>-1</v>
+      </c>
+      <c r="I29">
+        <v>-1</v>
+      </c>
+      <c r="J29">
+        <v>-1</v>
+      </c>
+      <c r="K29">
+        <v>-1</v>
+      </c>
+      <c r="L29">
+        <v>-1</v>
+      </c>
+      <c r="M29">
+        <v>-1</v>
+      </c>
+      <c r="N29">
+        <v>-1</v>
+      </c>
+      <c r="O29">
+        <v>-1</v>
+      </c>
+      <c r="P29">
+        <v>-1</v>
+      </c>
+      <c r="Q29">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30">
         <f t="shared" si="3"/>
-        <v>72</v>
+        <v>29</v>
       </c>
       <c r="C30">
         <f t="shared" si="4"/>
@@ -1640,14 +2633,50 @@
         <f t="shared" si="5"/>
         <v>57.282828282828284</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F30">
+        <v>-1</v>
+      </c>
+      <c r="G30">
+        <v>-1</v>
+      </c>
+      <c r="H30">
+        <v>-1</v>
+      </c>
+      <c r="I30">
+        <v>-1</v>
+      </c>
+      <c r="J30">
+        <v>-1</v>
+      </c>
+      <c r="K30">
+        <v>-1</v>
+      </c>
+      <c r="L30">
+        <v>-1</v>
+      </c>
+      <c r="M30">
+        <v>-1</v>
+      </c>
+      <c r="N30">
+        <v>-1</v>
+      </c>
+      <c r="O30">
+        <v>-1</v>
+      </c>
+      <c r="P30">
+        <v>-1</v>
+      </c>
+      <c r="Q30">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31">
         <f t="shared" si="3"/>
-        <v>71</v>
+        <v>30</v>
       </c>
       <c r="C31">
         <f t="shared" si="4"/>
@@ -1661,14 +2690,50 @@
         <f t="shared" si="5"/>
         <v>59.292929292929294</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F31">
+        <v>-1</v>
+      </c>
+      <c r="G31">
+        <v>-1</v>
+      </c>
+      <c r="H31">
+        <v>-1</v>
+      </c>
+      <c r="I31">
+        <v>-1</v>
+      </c>
+      <c r="J31">
+        <v>-1</v>
+      </c>
+      <c r="K31">
+        <v>-1</v>
+      </c>
+      <c r="L31">
+        <v>-1</v>
+      </c>
+      <c r="M31">
+        <v>-1</v>
+      </c>
+      <c r="N31">
+        <v>-1</v>
+      </c>
+      <c r="O31">
+        <v>-1</v>
+      </c>
+      <c r="P31">
+        <v>-1</v>
+      </c>
+      <c r="Q31">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32">
         <f t="shared" si="3"/>
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="C32">
         <f t="shared" si="4"/>
@@ -1682,14 +2747,50 @@
         <f t="shared" si="5"/>
         <v>61.303030303030305</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F32">
+        <v>-1</v>
+      </c>
+      <c r="G32">
+        <v>-1</v>
+      </c>
+      <c r="H32">
+        <v>-1</v>
+      </c>
+      <c r="I32">
+        <v>-1</v>
+      </c>
+      <c r="J32">
+        <v>-1</v>
+      </c>
+      <c r="K32">
+        <v>-1</v>
+      </c>
+      <c r="L32">
+        <v>-1</v>
+      </c>
+      <c r="M32">
+        <v>-1</v>
+      </c>
+      <c r="N32">
+        <v>-1</v>
+      </c>
+      <c r="O32">
+        <v>-1</v>
+      </c>
+      <c r="P32">
+        <v>-1</v>
+      </c>
+      <c r="Q32">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33">
         <f t="shared" si="3"/>
-        <v>69</v>
+        <v>32</v>
       </c>
       <c r="C33">
         <f t="shared" si="4"/>
@@ -1703,14 +2804,50 @@
         <f t="shared" si="5"/>
         <v>63.313131313131315</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F33">
+        <v>-1</v>
+      </c>
+      <c r="G33">
+        <v>-1</v>
+      </c>
+      <c r="H33">
+        <v>-1</v>
+      </c>
+      <c r="I33">
+        <v>-1</v>
+      </c>
+      <c r="J33">
+        <v>-1</v>
+      </c>
+      <c r="K33">
+        <v>-1</v>
+      </c>
+      <c r="L33">
+        <v>-1</v>
+      </c>
+      <c r="M33">
+        <v>-1</v>
+      </c>
+      <c r="N33">
+        <v>-1</v>
+      </c>
+      <c r="O33">
+        <v>-1</v>
+      </c>
+      <c r="P33">
+        <v>-1</v>
+      </c>
+      <c r="Q33">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34">
         <f t="shared" si="3"/>
-        <v>68</v>
+        <v>33</v>
       </c>
       <c r="C34">
         <f t="shared" si="4"/>
@@ -1724,14 +2861,50 @@
         <f t="shared" si="5"/>
         <v>65.323232323232332</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F34">
+        <v>-1</v>
+      </c>
+      <c r="G34">
+        <v>-1</v>
+      </c>
+      <c r="H34">
+        <v>-1</v>
+      </c>
+      <c r="I34">
+        <v>-1</v>
+      </c>
+      <c r="J34">
+        <v>-1</v>
+      </c>
+      <c r="K34">
+        <v>-1</v>
+      </c>
+      <c r="L34">
+        <v>-1</v>
+      </c>
+      <c r="M34">
+        <v>-1</v>
+      </c>
+      <c r="N34">
+        <v>-1</v>
+      </c>
+      <c r="O34">
+        <v>-1</v>
+      </c>
+      <c r="P34">
+        <v>-1</v>
+      </c>
+      <c r="Q34">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35">
         <f t="shared" si="3"/>
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="C35">
         <f t="shared" si="4"/>
@@ -1745,14 +2918,50 @@
         <f t="shared" si="5"/>
         <v>67.333333333333329</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F35">
+        <v>-1</v>
+      </c>
+      <c r="G35">
+        <v>-1</v>
+      </c>
+      <c r="H35">
+        <v>-1</v>
+      </c>
+      <c r="I35">
+        <v>-1</v>
+      </c>
+      <c r="J35">
+        <v>-1</v>
+      </c>
+      <c r="K35">
+        <v>-1</v>
+      </c>
+      <c r="L35">
+        <v>-1</v>
+      </c>
+      <c r="M35">
+        <v>-1</v>
+      </c>
+      <c r="N35">
+        <v>-1</v>
+      </c>
+      <c r="O35">
+        <v>-1</v>
+      </c>
+      <c r="P35">
+        <v>-1</v>
+      </c>
+      <c r="Q35">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36">
         <f t="shared" si="3"/>
-        <v>66</v>
+        <v>35</v>
       </c>
       <c r="C36">
         <f t="shared" si="4"/>
@@ -1766,14 +2975,50 @@
         <f t="shared" si="5"/>
         <v>69.343434343434339</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F36">
+        <v>-1</v>
+      </c>
+      <c r="G36">
+        <v>-1</v>
+      </c>
+      <c r="H36">
+        <v>-1</v>
+      </c>
+      <c r="I36">
+        <v>-1</v>
+      </c>
+      <c r="J36">
+        <v>-1</v>
+      </c>
+      <c r="K36">
+        <v>-1</v>
+      </c>
+      <c r="L36">
+        <v>-1</v>
+      </c>
+      <c r="M36">
+        <v>-1</v>
+      </c>
+      <c r="N36">
+        <v>-1</v>
+      </c>
+      <c r="O36">
+        <v>-1</v>
+      </c>
+      <c r="P36">
+        <v>-1</v>
+      </c>
+      <c r="Q36">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37">
         <f t="shared" si="3"/>
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="C37">
         <f t="shared" si="4"/>
@@ -1787,14 +3032,50 @@
         <f t="shared" si="5"/>
         <v>71.353535353535349</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F37">
+        <v>-1</v>
+      </c>
+      <c r="G37">
+        <v>-1</v>
+      </c>
+      <c r="H37">
+        <v>-1</v>
+      </c>
+      <c r="I37">
+        <v>-1</v>
+      </c>
+      <c r="J37">
+        <v>-1</v>
+      </c>
+      <c r="K37">
+        <v>-1</v>
+      </c>
+      <c r="L37">
+        <v>-1</v>
+      </c>
+      <c r="M37">
+        <v>-1</v>
+      </c>
+      <c r="N37">
+        <v>-1</v>
+      </c>
+      <c r="O37">
+        <v>-1</v>
+      </c>
+      <c r="P37">
+        <v>-1</v>
+      </c>
+      <c r="Q37">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38">
         <f t="shared" si="3"/>
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="C38">
         <f t="shared" si="4"/>
@@ -1808,14 +3089,50 @@
         <f t="shared" si="5"/>
         <v>73.36363636363636</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F38">
+        <v>-1</v>
+      </c>
+      <c r="G38">
+        <v>-1</v>
+      </c>
+      <c r="H38">
+        <v>-1</v>
+      </c>
+      <c r="I38">
+        <v>-1</v>
+      </c>
+      <c r="J38">
+        <v>-1</v>
+      </c>
+      <c r="K38">
+        <v>-1</v>
+      </c>
+      <c r="L38">
+        <v>-1</v>
+      </c>
+      <c r="M38">
+        <v>-1</v>
+      </c>
+      <c r="N38">
+        <v>-1</v>
+      </c>
+      <c r="O38">
+        <v>-1</v>
+      </c>
+      <c r="P38">
+        <v>-1</v>
+      </c>
+      <c r="Q38">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39">
         <f t="shared" si="3"/>
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="C39">
         <f t="shared" si="4"/>
@@ -1829,14 +3146,50 @@
         <f t="shared" si="5"/>
         <v>75.373737373737384</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F39">
+        <v>-1</v>
+      </c>
+      <c r="G39">
+        <v>-1</v>
+      </c>
+      <c r="H39">
+        <v>-1</v>
+      </c>
+      <c r="I39">
+        <v>-1</v>
+      </c>
+      <c r="J39">
+        <v>-1</v>
+      </c>
+      <c r="K39">
+        <v>-1</v>
+      </c>
+      <c r="L39">
+        <v>-1</v>
+      </c>
+      <c r="M39">
+        <v>-1</v>
+      </c>
+      <c r="N39">
+        <v>-1</v>
+      </c>
+      <c r="O39">
+        <v>-1</v>
+      </c>
+      <c r="P39">
+        <v>-1</v>
+      </c>
+      <c r="Q39">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40">
         <f t="shared" si="3"/>
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="C40">
         <f t="shared" si="4"/>
@@ -1850,14 +3203,50 @@
         <f t="shared" si="5"/>
         <v>77.383838383838381</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F40">
+        <v>-1</v>
+      </c>
+      <c r="G40">
+        <v>-1</v>
+      </c>
+      <c r="H40">
+        <v>-1</v>
+      </c>
+      <c r="I40">
+        <v>-1</v>
+      </c>
+      <c r="J40">
+        <v>-1</v>
+      </c>
+      <c r="K40">
+        <v>-1</v>
+      </c>
+      <c r="L40">
+        <v>-1</v>
+      </c>
+      <c r="M40">
+        <v>-1</v>
+      </c>
+      <c r="N40">
+        <v>-1</v>
+      </c>
+      <c r="O40">
+        <v>-1</v>
+      </c>
+      <c r="P40">
+        <v>-1</v>
+      </c>
+      <c r="Q40">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41">
         <f t="shared" si="3"/>
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="C41">
         <f t="shared" si="4"/>
@@ -1871,14 +3260,50 @@
         <f t="shared" si="5"/>
         <v>79.393939393939391</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F41">
+        <v>-1</v>
+      </c>
+      <c r="G41">
+        <v>-1</v>
+      </c>
+      <c r="H41">
+        <v>-1</v>
+      </c>
+      <c r="I41">
+        <v>-1</v>
+      </c>
+      <c r="J41">
+        <v>-1</v>
+      </c>
+      <c r="K41">
+        <v>-1</v>
+      </c>
+      <c r="L41">
+        <v>-1</v>
+      </c>
+      <c r="M41">
+        <v>-1</v>
+      </c>
+      <c r="N41">
+        <v>-1</v>
+      </c>
+      <c r="O41">
+        <v>-1</v>
+      </c>
+      <c r="P41">
+        <v>-1</v>
+      </c>
+      <c r="Q41">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42">
         <f t="shared" si="3"/>
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="C42">
         <f t="shared" si="4"/>
@@ -1892,14 +3317,50 @@
         <f t="shared" si="5"/>
         <v>81.404040404040401</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F42">
+        <v>-1</v>
+      </c>
+      <c r="G42">
+        <v>-1</v>
+      </c>
+      <c r="H42">
+        <v>-1</v>
+      </c>
+      <c r="I42">
+        <v>-1</v>
+      </c>
+      <c r="J42">
+        <v>-1</v>
+      </c>
+      <c r="K42">
+        <v>-1</v>
+      </c>
+      <c r="L42">
+        <v>-1</v>
+      </c>
+      <c r="M42">
+        <v>-1</v>
+      </c>
+      <c r="N42">
+        <v>-1</v>
+      </c>
+      <c r="O42">
+        <v>-1</v>
+      </c>
+      <c r="P42">
+        <v>-1</v>
+      </c>
+      <c r="Q42">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43">
         <f t="shared" si="3"/>
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="C43">
         <f t="shared" si="4"/>
@@ -1913,14 +3374,50 @@
         <f t="shared" si="5"/>
         <v>83.414141414141412</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F43">
+        <v>-1</v>
+      </c>
+      <c r="G43">
+        <v>-1</v>
+      </c>
+      <c r="H43">
+        <v>-1</v>
+      </c>
+      <c r="I43">
+        <v>-1</v>
+      </c>
+      <c r="J43">
+        <v>-1</v>
+      </c>
+      <c r="K43">
+        <v>-1</v>
+      </c>
+      <c r="L43">
+        <v>-1</v>
+      </c>
+      <c r="M43">
+        <v>-1</v>
+      </c>
+      <c r="N43">
+        <v>-1</v>
+      </c>
+      <c r="O43">
+        <v>-1</v>
+      </c>
+      <c r="P43">
+        <v>-1</v>
+      </c>
+      <c r="Q43">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44">
         <f t="shared" si="3"/>
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="C44">
         <f t="shared" si="4"/>
@@ -1934,14 +3431,50 @@
         <f t="shared" si="5"/>
         <v>85.424242424242422</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F44">
+        <v>-1</v>
+      </c>
+      <c r="G44">
+        <v>-1</v>
+      </c>
+      <c r="H44">
+        <v>-1</v>
+      </c>
+      <c r="I44">
+        <v>-1</v>
+      </c>
+      <c r="J44">
+        <v>-1</v>
+      </c>
+      <c r="K44">
+        <v>-1</v>
+      </c>
+      <c r="L44">
+        <v>-1</v>
+      </c>
+      <c r="M44">
+        <v>-1</v>
+      </c>
+      <c r="N44">
+        <v>-1</v>
+      </c>
+      <c r="O44">
+        <v>-1</v>
+      </c>
+      <c r="P44">
+        <v>-1</v>
+      </c>
+      <c r="Q44">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45">
         <f t="shared" si="3"/>
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="C45">
         <f t="shared" si="4"/>
@@ -1955,14 +3488,50 @@
         <f t="shared" si="5"/>
         <v>87.434343434343432</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F45">
+        <v>-1</v>
+      </c>
+      <c r="G45">
+        <v>-1</v>
+      </c>
+      <c r="H45">
+        <v>-1</v>
+      </c>
+      <c r="I45">
+        <v>-1</v>
+      </c>
+      <c r="J45">
+        <v>-1</v>
+      </c>
+      <c r="K45">
+        <v>-1</v>
+      </c>
+      <c r="L45">
+        <v>-1</v>
+      </c>
+      <c r="M45">
+        <v>-1</v>
+      </c>
+      <c r="N45">
+        <v>-1</v>
+      </c>
+      <c r="O45">
+        <v>-1</v>
+      </c>
+      <c r="P45">
+        <v>-1</v>
+      </c>
+      <c r="Q45">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46">
         <f t="shared" si="3"/>
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="C46">
         <f t="shared" ref="C46:C77" si="6">(C$2+((SUM(A46-1)/SUM(A$101-1))*(SUM(C$101-C$2))))</f>
@@ -1976,14 +3545,50 @@
         <f t="shared" si="5"/>
         <v>89.444444444444443</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F46">
+        <v>-1</v>
+      </c>
+      <c r="G46">
+        <v>-1</v>
+      </c>
+      <c r="H46">
+        <v>-1</v>
+      </c>
+      <c r="I46">
+        <v>-1</v>
+      </c>
+      <c r="J46">
+        <v>-1</v>
+      </c>
+      <c r="K46">
+        <v>-1</v>
+      </c>
+      <c r="L46">
+        <v>-1</v>
+      </c>
+      <c r="M46">
+        <v>-1</v>
+      </c>
+      <c r="N46">
+        <v>-1</v>
+      </c>
+      <c r="O46">
+        <v>-1</v>
+      </c>
+      <c r="P46">
+        <v>-1</v>
+      </c>
+      <c r="Q46">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47">
         <f t="shared" si="3"/>
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="C47">
         <f t="shared" si="6"/>
@@ -1997,14 +3602,50 @@
         <f t="shared" si="5"/>
         <v>91.454545454545453</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F47">
+        <v>-1</v>
+      </c>
+      <c r="G47">
+        <v>-1</v>
+      </c>
+      <c r="H47">
+        <v>-1</v>
+      </c>
+      <c r="I47">
+        <v>-1</v>
+      </c>
+      <c r="J47">
+        <v>-1</v>
+      </c>
+      <c r="K47">
+        <v>-1</v>
+      </c>
+      <c r="L47">
+        <v>-1</v>
+      </c>
+      <c r="M47">
+        <v>-1</v>
+      </c>
+      <c r="N47">
+        <v>-1</v>
+      </c>
+      <c r="O47">
+        <v>-1</v>
+      </c>
+      <c r="P47">
+        <v>-1</v>
+      </c>
+      <c r="Q47">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48">
         <f t="shared" si="3"/>
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C48">
         <f t="shared" si="6"/>
@@ -2018,14 +3659,50 @@
         <f t="shared" si="5"/>
         <v>93.464646464646464</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F48">
+        <v>-1</v>
+      </c>
+      <c r="G48">
+        <v>-1</v>
+      </c>
+      <c r="H48">
+        <v>-1</v>
+      </c>
+      <c r="I48">
+        <v>-1</v>
+      </c>
+      <c r="J48">
+        <v>-1</v>
+      </c>
+      <c r="K48">
+        <v>-1</v>
+      </c>
+      <c r="L48">
+        <v>-1</v>
+      </c>
+      <c r="M48">
+        <v>-1</v>
+      </c>
+      <c r="N48">
+        <v>-1</v>
+      </c>
+      <c r="O48">
+        <v>-1</v>
+      </c>
+      <c r="P48">
+        <v>-1</v>
+      </c>
+      <c r="Q48">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49">
         <f t="shared" si="3"/>
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C49">
         <f t="shared" si="6"/>
@@ -2039,14 +3716,50 @@
         <f t="shared" si="5"/>
         <v>95.474747474747474</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F49">
+        <v>-1</v>
+      </c>
+      <c r="G49">
+        <v>-1</v>
+      </c>
+      <c r="H49">
+        <v>-1</v>
+      </c>
+      <c r="I49">
+        <v>-1</v>
+      </c>
+      <c r="J49">
+        <v>-1</v>
+      </c>
+      <c r="K49">
+        <v>-1</v>
+      </c>
+      <c r="L49">
+        <v>-1</v>
+      </c>
+      <c r="M49">
+        <v>-1</v>
+      </c>
+      <c r="N49">
+        <v>-1</v>
+      </c>
+      <c r="O49">
+        <v>-1</v>
+      </c>
+      <c r="P49">
+        <v>-1</v>
+      </c>
+      <c r="Q49">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50">
         <f t="shared" si="3"/>
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C50">
         <f t="shared" si="6"/>
@@ -2060,14 +3773,50 @@
         <f t="shared" si="5"/>
         <v>97.484848484848484</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F50">
+        <v>-1</v>
+      </c>
+      <c r="G50">
+        <v>-1</v>
+      </c>
+      <c r="H50">
+        <v>-1</v>
+      </c>
+      <c r="I50">
+        <v>-1</v>
+      </c>
+      <c r="J50">
+        <v>-1</v>
+      </c>
+      <c r="K50">
+        <v>-1</v>
+      </c>
+      <c r="L50">
+        <v>-1</v>
+      </c>
+      <c r="M50">
+        <v>-1</v>
+      </c>
+      <c r="N50">
+        <v>-1</v>
+      </c>
+      <c r="O50">
+        <v>-1</v>
+      </c>
+      <c r="P50">
+        <v>-1</v>
+      </c>
+      <c r="Q50">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51">
         <f t="shared" si="3"/>
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C51">
         <f t="shared" si="6"/>
@@ -2081,14 +3830,50 @@
         <f t="shared" si="5"/>
         <v>99.494949494949495</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F51">
+        <v>-1</v>
+      </c>
+      <c r="G51">
+        <v>-1</v>
+      </c>
+      <c r="H51">
+        <v>-1</v>
+      </c>
+      <c r="I51">
+        <v>-1</v>
+      </c>
+      <c r="J51">
+        <v>-1</v>
+      </c>
+      <c r="K51">
+        <v>-1</v>
+      </c>
+      <c r="L51">
+        <v>-1</v>
+      </c>
+      <c r="M51">
+        <v>-1</v>
+      </c>
+      <c r="N51">
+        <v>-1</v>
+      </c>
+      <c r="O51">
+        <v>-1</v>
+      </c>
+      <c r="P51">
+        <v>-1</v>
+      </c>
+      <c r="Q51">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52">
         <f t="shared" si="3"/>
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C52">
         <f t="shared" si="6"/>
@@ -2102,14 +3887,50 @@
         <f t="shared" si="5"/>
         <v>101.50505050505051</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F52">
+        <v>-1</v>
+      </c>
+      <c r="G52">
+        <v>-1</v>
+      </c>
+      <c r="H52">
+        <v>-1</v>
+      </c>
+      <c r="I52">
+        <v>-1</v>
+      </c>
+      <c r="J52">
+        <v>-1</v>
+      </c>
+      <c r="K52">
+        <v>-1</v>
+      </c>
+      <c r="L52">
+        <v>-1</v>
+      </c>
+      <c r="M52">
+        <v>-1</v>
+      </c>
+      <c r="N52">
+        <v>-1</v>
+      </c>
+      <c r="O52">
+        <v>-1</v>
+      </c>
+      <c r="P52">
+        <v>-1</v>
+      </c>
+      <c r="Q52">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53">
         <f t="shared" si="3"/>
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C53">
         <f t="shared" si="6"/>
@@ -2123,14 +3944,50 @@
         <f t="shared" si="5"/>
         <v>103.51515151515152</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F53">
+        <v>-1</v>
+      </c>
+      <c r="G53">
+        <v>-1</v>
+      </c>
+      <c r="H53">
+        <v>-1</v>
+      </c>
+      <c r="I53">
+        <v>-1</v>
+      </c>
+      <c r="J53">
+        <v>-1</v>
+      </c>
+      <c r="K53">
+        <v>-1</v>
+      </c>
+      <c r="L53">
+        <v>-1</v>
+      </c>
+      <c r="M53">
+        <v>-1</v>
+      </c>
+      <c r="N53">
+        <v>-1</v>
+      </c>
+      <c r="O53">
+        <v>-1</v>
+      </c>
+      <c r="P53">
+        <v>-1</v>
+      </c>
+      <c r="Q53">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54">
         <f t="shared" si="3"/>
-        <v>47.999999999999993</v>
+        <v>53.000000000000007</v>
       </c>
       <c r="C54">
         <f t="shared" si="6"/>
@@ -2144,14 +4001,50 @@
         <f t="shared" si="5"/>
         <v>105.52525252525254</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F54">
+        <v>-1</v>
+      </c>
+      <c r="G54">
+        <v>-1</v>
+      </c>
+      <c r="H54">
+        <v>-1</v>
+      </c>
+      <c r="I54">
+        <v>-1</v>
+      </c>
+      <c r="J54">
+        <v>-1</v>
+      </c>
+      <c r="K54">
+        <v>-1</v>
+      </c>
+      <c r="L54">
+        <v>-1</v>
+      </c>
+      <c r="M54">
+        <v>-1</v>
+      </c>
+      <c r="N54">
+        <v>-1</v>
+      </c>
+      <c r="O54">
+        <v>-1</v>
+      </c>
+      <c r="P54">
+        <v>-1</v>
+      </c>
+      <c r="Q54">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55">
         <f t="shared" si="3"/>
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="C55">
         <f t="shared" si="6"/>
@@ -2165,14 +4058,50 @@
         <f t="shared" si="5"/>
         <v>107.53535353535354</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F55">
+        <v>-1</v>
+      </c>
+      <c r="G55">
+        <v>-1</v>
+      </c>
+      <c r="H55">
+        <v>-1</v>
+      </c>
+      <c r="I55">
+        <v>-1</v>
+      </c>
+      <c r="J55">
+        <v>-1</v>
+      </c>
+      <c r="K55">
+        <v>-1</v>
+      </c>
+      <c r="L55">
+        <v>-1</v>
+      </c>
+      <c r="M55">
+        <v>-1</v>
+      </c>
+      <c r="N55">
+        <v>-1</v>
+      </c>
+      <c r="O55">
+        <v>-1</v>
+      </c>
+      <c r="P55">
+        <v>-1</v>
+      </c>
+      <c r="Q55">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56">
         <f t="shared" si="3"/>
-        <v>46.000000000000007</v>
+        <v>54.999999999999993</v>
       </c>
       <c r="C56">
         <f t="shared" si="6"/>
@@ -2186,14 +4115,50 @@
         <f t="shared" si="5"/>
         <v>109.54545454545453</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F56">
+        <v>-1</v>
+      </c>
+      <c r="G56">
+        <v>-1</v>
+      </c>
+      <c r="H56">
+        <v>-1</v>
+      </c>
+      <c r="I56">
+        <v>-1</v>
+      </c>
+      <c r="J56">
+        <v>-1</v>
+      </c>
+      <c r="K56">
+        <v>-1</v>
+      </c>
+      <c r="L56">
+        <v>-1</v>
+      </c>
+      <c r="M56">
+        <v>-1</v>
+      </c>
+      <c r="N56">
+        <v>-1</v>
+      </c>
+      <c r="O56">
+        <v>-1</v>
+      </c>
+      <c r="P56">
+        <v>-1</v>
+      </c>
+      <c r="Q56">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57">
         <f t="shared" si="3"/>
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="C57">
         <f t="shared" si="6"/>
@@ -2207,14 +4172,50 @@
         <f t="shared" si="5"/>
         <v>111.55555555555556</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F57">
+        <v>-1</v>
+      </c>
+      <c r="G57">
+        <v>-1</v>
+      </c>
+      <c r="H57">
+        <v>-1</v>
+      </c>
+      <c r="I57">
+        <v>-1</v>
+      </c>
+      <c r="J57">
+        <v>-1</v>
+      </c>
+      <c r="K57">
+        <v>-1</v>
+      </c>
+      <c r="L57">
+        <v>-1</v>
+      </c>
+      <c r="M57">
+        <v>-1</v>
+      </c>
+      <c r="N57">
+        <v>-1</v>
+      </c>
+      <c r="O57">
+        <v>-1</v>
+      </c>
+      <c r="P57">
+        <v>-1</v>
+      </c>
+      <c r="Q57">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58">
         <f t="shared" si="3"/>
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="C58">
         <f t="shared" si="6"/>
@@ -2228,14 +4229,50 @@
         <f t="shared" si="5"/>
         <v>113.56565656565657</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F58">
+        <v>-1</v>
+      </c>
+      <c r="G58">
+        <v>-1</v>
+      </c>
+      <c r="H58">
+        <v>-1</v>
+      </c>
+      <c r="I58">
+        <v>-1</v>
+      </c>
+      <c r="J58">
+        <v>-1</v>
+      </c>
+      <c r="K58">
+        <v>-1</v>
+      </c>
+      <c r="L58">
+        <v>-1</v>
+      </c>
+      <c r="M58">
+        <v>-1</v>
+      </c>
+      <c r="N58">
+        <v>-1</v>
+      </c>
+      <c r="O58">
+        <v>-1</v>
+      </c>
+      <c r="P58">
+        <v>-1</v>
+      </c>
+      <c r="Q58">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59">
         <f t="shared" si="3"/>
-        <v>42.999999999999993</v>
+        <v>58.000000000000007</v>
       </c>
       <c r="C59">
         <f t="shared" si="6"/>
@@ -2249,14 +4286,50 @@
         <f t="shared" si="5"/>
         <v>115.57575757575758</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F59">
+        <v>-1</v>
+      </c>
+      <c r="G59">
+        <v>-1</v>
+      </c>
+      <c r="H59">
+        <v>-1</v>
+      </c>
+      <c r="I59">
+        <v>-1</v>
+      </c>
+      <c r="J59">
+        <v>-1</v>
+      </c>
+      <c r="K59">
+        <v>-1</v>
+      </c>
+      <c r="L59">
+        <v>-1</v>
+      </c>
+      <c r="M59">
+        <v>-1</v>
+      </c>
+      <c r="N59">
+        <v>-1</v>
+      </c>
+      <c r="O59">
+        <v>-1</v>
+      </c>
+      <c r="P59">
+        <v>-1</v>
+      </c>
+      <c r="Q59">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60">
         <f t="shared" si="3"/>
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="C60">
         <f t="shared" si="6"/>
@@ -2270,14 +4343,50 @@
         <f t="shared" si="5"/>
         <v>117.58585858585859</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F60">
+        <v>-1</v>
+      </c>
+      <c r="G60">
+        <v>-1</v>
+      </c>
+      <c r="H60">
+        <v>-1</v>
+      </c>
+      <c r="I60">
+        <v>-1</v>
+      </c>
+      <c r="J60">
+        <v>-1</v>
+      </c>
+      <c r="K60">
+        <v>-1</v>
+      </c>
+      <c r="L60">
+        <v>-1</v>
+      </c>
+      <c r="M60">
+        <v>-1</v>
+      </c>
+      <c r="N60">
+        <v>-1</v>
+      </c>
+      <c r="O60">
+        <v>-1</v>
+      </c>
+      <c r="P60">
+        <v>-1</v>
+      </c>
+      <c r="Q60">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61">
         <f t="shared" si="3"/>
-        <v>41.000000000000007</v>
+        <v>59.999999999999993</v>
       </c>
       <c r="C61">
         <f t="shared" si="6"/>
@@ -2291,14 +4400,50 @@
         <f t="shared" si="5"/>
         <v>119.59595959595958</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F61">
+        <v>-1</v>
+      </c>
+      <c r="G61">
+        <v>-1</v>
+      </c>
+      <c r="H61">
+        <v>-1</v>
+      </c>
+      <c r="I61">
+        <v>-1</v>
+      </c>
+      <c r="J61">
+        <v>-1</v>
+      </c>
+      <c r="K61">
+        <v>-1</v>
+      </c>
+      <c r="L61">
+        <v>-1</v>
+      </c>
+      <c r="M61">
+        <v>-1</v>
+      </c>
+      <c r="N61">
+        <v>-1</v>
+      </c>
+      <c r="O61">
+        <v>-1</v>
+      </c>
+      <c r="P61">
+        <v>-1</v>
+      </c>
+      <c r="Q61">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62">
         <f t="shared" si="3"/>
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="C62">
         <f t="shared" si="6"/>
@@ -2312,14 +4457,50 @@
         <f t="shared" si="5"/>
         <v>121.60606060606061</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F62">
+        <v>-1</v>
+      </c>
+      <c r="G62">
+        <v>-1</v>
+      </c>
+      <c r="H62">
+        <v>-1</v>
+      </c>
+      <c r="I62">
+        <v>-1</v>
+      </c>
+      <c r="J62">
+        <v>-1</v>
+      </c>
+      <c r="K62">
+        <v>-1</v>
+      </c>
+      <c r="L62">
+        <v>-1</v>
+      </c>
+      <c r="M62">
+        <v>-1</v>
+      </c>
+      <c r="N62">
+        <v>-1</v>
+      </c>
+      <c r="O62">
+        <v>-1</v>
+      </c>
+      <c r="P62">
+        <v>-1</v>
+      </c>
+      <c r="Q62">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63">
         <f t="shared" si="3"/>
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="C63">
         <f t="shared" si="6"/>
@@ -2333,14 +4514,50 @@
         <f t="shared" si="5"/>
         <v>123.61616161616161</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F63">
+        <v>-1</v>
+      </c>
+      <c r="G63">
+        <v>-1</v>
+      </c>
+      <c r="H63">
+        <v>-1</v>
+      </c>
+      <c r="I63">
+        <v>-1</v>
+      </c>
+      <c r="J63">
+        <v>-1</v>
+      </c>
+      <c r="K63">
+        <v>-1</v>
+      </c>
+      <c r="L63">
+        <v>-1</v>
+      </c>
+      <c r="M63">
+        <v>-1</v>
+      </c>
+      <c r="N63">
+        <v>-1</v>
+      </c>
+      <c r="O63">
+        <v>-1</v>
+      </c>
+      <c r="P63">
+        <v>-1</v>
+      </c>
+      <c r="Q63">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64">
         <f t="shared" si="3"/>
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="C64">
         <f t="shared" si="6"/>
@@ -2354,14 +4571,50 @@
         <f t="shared" si="5"/>
         <v>125.62626262626263</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F64">
+        <v>-1</v>
+      </c>
+      <c r="G64">
+        <v>-1</v>
+      </c>
+      <c r="H64">
+        <v>-1</v>
+      </c>
+      <c r="I64">
+        <v>-1</v>
+      </c>
+      <c r="J64">
+        <v>-1</v>
+      </c>
+      <c r="K64">
+        <v>-1</v>
+      </c>
+      <c r="L64">
+        <v>-1</v>
+      </c>
+      <c r="M64">
+        <v>-1</v>
+      </c>
+      <c r="N64">
+        <v>-1</v>
+      </c>
+      <c r="O64">
+        <v>-1</v>
+      </c>
+      <c r="P64">
+        <v>-1</v>
+      </c>
+      <c r="Q64">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65">
         <f t="shared" si="3"/>
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="C65">
         <f t="shared" si="6"/>
@@ -2375,14 +4628,50 @@
         <f t="shared" si="5"/>
         <v>127.63636363636364</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F65">
+        <v>-1</v>
+      </c>
+      <c r="G65">
+        <v>-1</v>
+      </c>
+      <c r="H65">
+        <v>-1</v>
+      </c>
+      <c r="I65">
+        <v>-1</v>
+      </c>
+      <c r="J65">
+        <v>-1</v>
+      </c>
+      <c r="K65">
+        <v>-1</v>
+      </c>
+      <c r="L65">
+        <v>-1</v>
+      </c>
+      <c r="M65">
+        <v>-1</v>
+      </c>
+      <c r="N65">
+        <v>-1</v>
+      </c>
+      <c r="O65">
+        <v>-1</v>
+      </c>
+      <c r="P65">
+        <v>-1</v>
+      </c>
+      <c r="Q65">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66">
         <f t="shared" si="3"/>
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="C66">
         <f t="shared" si="6"/>
@@ -2396,14 +4685,50 @@
         <f t="shared" si="5"/>
         <v>129.64646464646466</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F66">
+        <v>-1</v>
+      </c>
+      <c r="G66">
+        <v>-1</v>
+      </c>
+      <c r="H66">
+        <v>-1</v>
+      </c>
+      <c r="I66">
+        <v>-1</v>
+      </c>
+      <c r="J66">
+        <v>-1</v>
+      </c>
+      <c r="K66">
+        <v>-1</v>
+      </c>
+      <c r="L66">
+        <v>-1</v>
+      </c>
+      <c r="M66">
+        <v>-1</v>
+      </c>
+      <c r="N66">
+        <v>-1</v>
+      </c>
+      <c r="O66">
+        <v>-1</v>
+      </c>
+      <c r="P66">
+        <v>-1</v>
+      </c>
+      <c r="Q66">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67">
         <f t="shared" si="3"/>
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="C67">
         <f t="shared" si="6"/>
@@ -2417,14 +4742,50 @@
         <f t="shared" si="5"/>
         <v>131.65656565656565</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F67">
+        <v>-1</v>
+      </c>
+      <c r="G67">
+        <v>-1</v>
+      </c>
+      <c r="H67">
+        <v>-1</v>
+      </c>
+      <c r="I67">
+        <v>-1</v>
+      </c>
+      <c r="J67">
+        <v>-1</v>
+      </c>
+      <c r="K67">
+        <v>-1</v>
+      </c>
+      <c r="L67">
+        <v>-1</v>
+      </c>
+      <c r="M67">
+        <v>-1</v>
+      </c>
+      <c r="N67">
+        <v>-1</v>
+      </c>
+      <c r="O67">
+        <v>-1</v>
+      </c>
+      <c r="P67">
+        <v>-1</v>
+      </c>
+      <c r="Q67">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68">
         <f t="shared" ref="B68:B100" si="8">(B$2+((SUM(A68-1)/SUM(A$101-1))*(SUM(B$101-B$2))))</f>
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="C68">
         <f t="shared" si="6"/>
@@ -2438,14 +4799,50 @@
         <f t="shared" si="5"/>
         <v>133.66666666666666</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F68">
+        <v>-1</v>
+      </c>
+      <c r="G68">
+        <v>-1</v>
+      </c>
+      <c r="H68">
+        <v>-1</v>
+      </c>
+      <c r="I68">
+        <v>-1</v>
+      </c>
+      <c r="J68">
+        <v>-1</v>
+      </c>
+      <c r="K68">
+        <v>-1</v>
+      </c>
+      <c r="L68">
+        <v>-1</v>
+      </c>
+      <c r="M68">
+        <v>-1</v>
+      </c>
+      <c r="N68">
+        <v>-1</v>
+      </c>
+      <c r="O68">
+        <v>-1</v>
+      </c>
+      <c r="P68">
+        <v>-1</v>
+      </c>
+      <c r="Q68">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69">
         <f t="shared" si="8"/>
-        <v>33</v>
+        <v>68</v>
       </c>
       <c r="C69">
         <f t="shared" si="6"/>
@@ -2459,14 +4856,50 @@
         <f t="shared" si="5"/>
         <v>135.6767676767677</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F69">
+        <v>-1</v>
+      </c>
+      <c r="G69">
+        <v>-1</v>
+      </c>
+      <c r="H69">
+        <v>-1</v>
+      </c>
+      <c r="I69">
+        <v>-1</v>
+      </c>
+      <c r="J69">
+        <v>-1</v>
+      </c>
+      <c r="K69">
+        <v>-1</v>
+      </c>
+      <c r="L69">
+        <v>-1</v>
+      </c>
+      <c r="M69">
+        <v>-1</v>
+      </c>
+      <c r="N69">
+        <v>-1</v>
+      </c>
+      <c r="O69">
+        <v>-1</v>
+      </c>
+      <c r="P69">
+        <v>-1</v>
+      </c>
+      <c r="Q69">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70">
         <f t="shared" si="8"/>
-        <v>32</v>
+        <v>69</v>
       </c>
       <c r="C70">
         <f t="shared" si="6"/>
@@ -2480,14 +4913,50 @@
         <f t="shared" si="5"/>
         <v>137.68686868686868</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F70">
+        <v>-1</v>
+      </c>
+      <c r="G70">
+        <v>-1</v>
+      </c>
+      <c r="H70">
+        <v>-1</v>
+      </c>
+      <c r="I70">
+        <v>-1</v>
+      </c>
+      <c r="J70">
+        <v>-1</v>
+      </c>
+      <c r="K70">
+        <v>-1</v>
+      </c>
+      <c r="L70">
+        <v>-1</v>
+      </c>
+      <c r="M70">
+        <v>-1</v>
+      </c>
+      <c r="N70">
+        <v>-1</v>
+      </c>
+      <c r="O70">
+        <v>-1</v>
+      </c>
+      <c r="P70">
+        <v>-1</v>
+      </c>
+      <c r="Q70">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71">
         <f t="shared" si="8"/>
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="C71">
         <f t="shared" si="6"/>
@@ -2501,14 +4970,50 @@
         <f t="shared" si="5"/>
         <v>139.69696969696972</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F71">
+        <v>-1</v>
+      </c>
+      <c r="G71">
+        <v>-1</v>
+      </c>
+      <c r="H71">
+        <v>-1</v>
+      </c>
+      <c r="I71">
+        <v>-1</v>
+      </c>
+      <c r="J71">
+        <v>-1</v>
+      </c>
+      <c r="K71">
+        <v>-1</v>
+      </c>
+      <c r="L71">
+        <v>-1</v>
+      </c>
+      <c r="M71">
+        <v>-1</v>
+      </c>
+      <c r="N71">
+        <v>-1</v>
+      </c>
+      <c r="O71">
+        <v>-1</v>
+      </c>
+      <c r="P71">
+        <v>-1</v>
+      </c>
+      <c r="Q71">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72">
         <f t="shared" si="8"/>
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="C72">
         <f t="shared" si="6"/>
@@ -2522,14 +5027,50 @@
         <f t="shared" si="5"/>
         <v>141.7070707070707</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F72">
+        <v>-1</v>
+      </c>
+      <c r="G72">
+        <v>-1</v>
+      </c>
+      <c r="H72">
+        <v>-1</v>
+      </c>
+      <c r="I72">
+        <v>-1</v>
+      </c>
+      <c r="J72">
+        <v>-1</v>
+      </c>
+      <c r="K72">
+        <v>-1</v>
+      </c>
+      <c r="L72">
+        <v>-1</v>
+      </c>
+      <c r="M72">
+        <v>-1</v>
+      </c>
+      <c r="N72">
+        <v>-1</v>
+      </c>
+      <c r="O72">
+        <v>-1</v>
+      </c>
+      <c r="P72">
+        <v>-1</v>
+      </c>
+      <c r="Q72">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73">
         <f t="shared" si="8"/>
-        <v>29</v>
+        <v>72</v>
       </c>
       <c r="C73">
         <f t="shared" si="6"/>
@@ -2543,14 +5084,50 @@
         <f t="shared" si="5"/>
         <v>143.71717171717171</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F73">
+        <v>-1</v>
+      </c>
+      <c r="G73">
+        <v>-1</v>
+      </c>
+      <c r="H73">
+        <v>-1</v>
+      </c>
+      <c r="I73">
+        <v>-1</v>
+      </c>
+      <c r="J73">
+        <v>-1</v>
+      </c>
+      <c r="K73">
+        <v>-1</v>
+      </c>
+      <c r="L73">
+        <v>-1</v>
+      </c>
+      <c r="M73">
+        <v>-1</v>
+      </c>
+      <c r="N73">
+        <v>-1</v>
+      </c>
+      <c r="O73">
+        <v>-1</v>
+      </c>
+      <c r="P73">
+        <v>-1</v>
+      </c>
+      <c r="Q73">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74">
         <f t="shared" si="8"/>
-        <v>28</v>
+        <v>73</v>
       </c>
       <c r="C74">
         <f t="shared" si="6"/>
@@ -2564,14 +5141,50 @@
         <f t="shared" si="5"/>
         <v>145.72727272727272</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F74">
+        <v>-1</v>
+      </c>
+      <c r="G74">
+        <v>-1</v>
+      </c>
+      <c r="H74">
+        <v>-1</v>
+      </c>
+      <c r="I74">
+        <v>-1</v>
+      </c>
+      <c r="J74">
+        <v>-1</v>
+      </c>
+      <c r="K74">
+        <v>-1</v>
+      </c>
+      <c r="L74">
+        <v>-1</v>
+      </c>
+      <c r="M74">
+        <v>-1</v>
+      </c>
+      <c r="N74">
+        <v>-1</v>
+      </c>
+      <c r="O74">
+        <v>-1</v>
+      </c>
+      <c r="P74">
+        <v>-1</v>
+      </c>
+      <c r="Q74">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75">
         <f t="shared" si="8"/>
-        <v>27</v>
+        <v>74</v>
       </c>
       <c r="C75">
         <f t="shared" si="6"/>
@@ -2585,14 +5198,50 @@
         <f t="shared" si="5"/>
         <v>147.73737373737373</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F75">
+        <v>-1</v>
+      </c>
+      <c r="G75">
+        <v>-1</v>
+      </c>
+      <c r="H75">
+        <v>-1</v>
+      </c>
+      <c r="I75">
+        <v>-1</v>
+      </c>
+      <c r="J75">
+        <v>-1</v>
+      </c>
+      <c r="K75">
+        <v>-1</v>
+      </c>
+      <c r="L75">
+        <v>-1</v>
+      </c>
+      <c r="M75">
+        <v>-1</v>
+      </c>
+      <c r="N75">
+        <v>-1</v>
+      </c>
+      <c r="O75">
+        <v>-1</v>
+      </c>
+      <c r="P75">
+        <v>-1</v>
+      </c>
+      <c r="Q75">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76">
         <f t="shared" si="8"/>
-        <v>26</v>
+        <v>75</v>
       </c>
       <c r="C76">
         <f t="shared" si="6"/>
@@ -2606,14 +5255,50 @@
         <f t="shared" si="5"/>
         <v>149.74747474747477</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F76">
+        <v>-1</v>
+      </c>
+      <c r="G76">
+        <v>-1</v>
+      </c>
+      <c r="H76">
+        <v>-1</v>
+      </c>
+      <c r="I76">
+        <v>-1</v>
+      </c>
+      <c r="J76">
+        <v>-1</v>
+      </c>
+      <c r="K76">
+        <v>-1</v>
+      </c>
+      <c r="L76">
+        <v>-1</v>
+      </c>
+      <c r="M76">
+        <v>-1</v>
+      </c>
+      <c r="N76">
+        <v>-1</v>
+      </c>
+      <c r="O76">
+        <v>-1</v>
+      </c>
+      <c r="P76">
+        <v>-1</v>
+      </c>
+      <c r="Q76">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77">
         <f t="shared" si="8"/>
-        <v>25</v>
+        <v>76</v>
       </c>
       <c r="C77">
         <f t="shared" si="6"/>
@@ -2627,14 +5312,50 @@
         <f t="shared" si="5"/>
         <v>151.75757575757575</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F77">
+        <v>-1</v>
+      </c>
+      <c r="G77">
+        <v>-1</v>
+      </c>
+      <c r="H77">
+        <v>-1</v>
+      </c>
+      <c r="I77">
+        <v>-1</v>
+      </c>
+      <c r="J77">
+        <v>-1</v>
+      </c>
+      <c r="K77">
+        <v>-1</v>
+      </c>
+      <c r="L77">
+        <v>-1</v>
+      </c>
+      <c r="M77">
+        <v>-1</v>
+      </c>
+      <c r="N77">
+        <v>-1</v>
+      </c>
+      <c r="O77">
+        <v>-1</v>
+      </c>
+      <c r="P77">
+        <v>-1</v>
+      </c>
+      <c r="Q77">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78">
         <f t="shared" si="8"/>
-        <v>24</v>
+        <v>77</v>
       </c>
       <c r="C78">
         <f t="shared" ref="C78:C100" si="9">(C$2+((SUM(A78-1)/SUM(A$101-1))*(SUM(C$101-C$2))))</f>
@@ -2648,14 +5369,50 @@
         <f t="shared" si="5"/>
         <v>153.76767676767676</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F78">
+        <v>-1</v>
+      </c>
+      <c r="G78">
+        <v>-1</v>
+      </c>
+      <c r="H78">
+        <v>-1</v>
+      </c>
+      <c r="I78">
+        <v>-1</v>
+      </c>
+      <c r="J78">
+        <v>-1</v>
+      </c>
+      <c r="K78">
+        <v>-1</v>
+      </c>
+      <c r="L78">
+        <v>-1</v>
+      </c>
+      <c r="M78">
+        <v>-1</v>
+      </c>
+      <c r="N78">
+        <v>-1</v>
+      </c>
+      <c r="O78">
+        <v>-1</v>
+      </c>
+      <c r="P78">
+        <v>-1</v>
+      </c>
+      <c r="Q78">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="B79">
         <f t="shared" si="8"/>
-        <v>23</v>
+        <v>78</v>
       </c>
       <c r="C79">
         <f t="shared" si="9"/>
@@ -2669,14 +5426,50 @@
         <f t="shared" si="5"/>
         <v>155.77777777777777</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F79">
+        <v>-1</v>
+      </c>
+      <c r="G79">
+        <v>-1</v>
+      </c>
+      <c r="H79">
+        <v>-1</v>
+      </c>
+      <c r="I79">
+        <v>-1</v>
+      </c>
+      <c r="J79">
+        <v>-1</v>
+      </c>
+      <c r="K79">
+        <v>-1</v>
+      </c>
+      <c r="L79">
+        <v>-1</v>
+      </c>
+      <c r="M79">
+        <v>-1</v>
+      </c>
+      <c r="N79">
+        <v>-1</v>
+      </c>
+      <c r="O79">
+        <v>-1</v>
+      </c>
+      <c r="P79">
+        <v>-1</v>
+      </c>
+      <c r="Q79">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
       <c r="B80">
         <f t="shared" si="8"/>
-        <v>22</v>
+        <v>79</v>
       </c>
       <c r="C80">
         <f t="shared" si="9"/>
@@ -2690,14 +5483,50 @@
         <f t="shared" si="5"/>
         <v>157.78787878787878</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F80">
+        <v>-1</v>
+      </c>
+      <c r="G80">
+        <v>-1</v>
+      </c>
+      <c r="H80">
+        <v>-1</v>
+      </c>
+      <c r="I80">
+        <v>-1</v>
+      </c>
+      <c r="J80">
+        <v>-1</v>
+      </c>
+      <c r="K80">
+        <v>-1</v>
+      </c>
+      <c r="L80">
+        <v>-1</v>
+      </c>
+      <c r="M80">
+        <v>-1</v>
+      </c>
+      <c r="N80">
+        <v>-1</v>
+      </c>
+      <c r="O80">
+        <v>-1</v>
+      </c>
+      <c r="P80">
+        <v>-1</v>
+      </c>
+      <c r="Q80">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
       <c r="B81">
         <f t="shared" si="8"/>
-        <v>21</v>
+        <v>80</v>
       </c>
       <c r="C81">
         <f t="shared" si="9"/>
@@ -2711,14 +5540,50 @@
         <f t="shared" si="5"/>
         <v>159.79797979797979</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F81">
+        <v>-1</v>
+      </c>
+      <c r="G81">
+        <v>-1</v>
+      </c>
+      <c r="H81">
+        <v>-1</v>
+      </c>
+      <c r="I81">
+        <v>-1</v>
+      </c>
+      <c r="J81">
+        <v>-1</v>
+      </c>
+      <c r="K81">
+        <v>-1</v>
+      </c>
+      <c r="L81">
+        <v>-1</v>
+      </c>
+      <c r="M81">
+        <v>-1</v>
+      </c>
+      <c r="N81">
+        <v>-1</v>
+      </c>
+      <c r="O81">
+        <v>-1</v>
+      </c>
+      <c r="P81">
+        <v>-1</v>
+      </c>
+      <c r="Q81">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
       <c r="B82">
         <f t="shared" si="8"/>
-        <v>20</v>
+        <v>81</v>
       </c>
       <c r="C82">
         <f t="shared" si="9"/>
@@ -2732,14 +5597,50 @@
         <f t="shared" si="5"/>
         <v>161.8080808080808</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F82">
+        <v>-1</v>
+      </c>
+      <c r="G82">
+        <v>-1</v>
+      </c>
+      <c r="H82">
+        <v>-1</v>
+      </c>
+      <c r="I82">
+        <v>-1</v>
+      </c>
+      <c r="J82">
+        <v>-1</v>
+      </c>
+      <c r="K82">
+        <v>-1</v>
+      </c>
+      <c r="L82">
+        <v>-1</v>
+      </c>
+      <c r="M82">
+        <v>-1</v>
+      </c>
+      <c r="N82">
+        <v>-1</v>
+      </c>
+      <c r="O82">
+        <v>-1</v>
+      </c>
+      <c r="P82">
+        <v>-1</v>
+      </c>
+      <c r="Q82">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
       <c r="B83">
         <f t="shared" si="8"/>
-        <v>19</v>
+        <v>82</v>
       </c>
       <c r="C83">
         <f t="shared" si="9"/>
@@ -2753,14 +5654,50 @@
         <f t="shared" ref="E83:E100" si="10">(E$2+((SUM($A83-1)/SUM($A$101-1))*(SUM(E$101-E$2))))</f>
         <v>163.81818181818184</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F83">
+        <v>-1</v>
+      </c>
+      <c r="G83">
+        <v>-1</v>
+      </c>
+      <c r="H83">
+        <v>-1</v>
+      </c>
+      <c r="I83">
+        <v>-1</v>
+      </c>
+      <c r="J83">
+        <v>-1</v>
+      </c>
+      <c r="K83">
+        <v>-1</v>
+      </c>
+      <c r="L83">
+        <v>-1</v>
+      </c>
+      <c r="M83">
+        <v>-1</v>
+      </c>
+      <c r="N83">
+        <v>-1</v>
+      </c>
+      <c r="O83">
+        <v>-1</v>
+      </c>
+      <c r="P83">
+        <v>-1</v>
+      </c>
+      <c r="Q83">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
       <c r="B84">
         <f t="shared" si="8"/>
-        <v>18</v>
+        <v>83</v>
       </c>
       <c r="C84">
         <f t="shared" si="9"/>
@@ -2774,14 +5711,50 @@
         <f t="shared" si="10"/>
         <v>165.82828282828282</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F84">
+        <v>-1</v>
+      </c>
+      <c r="G84">
+        <v>-1</v>
+      </c>
+      <c r="H84">
+        <v>-1</v>
+      </c>
+      <c r="I84">
+        <v>-1</v>
+      </c>
+      <c r="J84">
+        <v>-1</v>
+      </c>
+      <c r="K84">
+        <v>-1</v>
+      </c>
+      <c r="L84">
+        <v>-1</v>
+      </c>
+      <c r="M84">
+        <v>-1</v>
+      </c>
+      <c r="N84">
+        <v>-1</v>
+      </c>
+      <c r="O84">
+        <v>-1</v>
+      </c>
+      <c r="P84">
+        <v>-1</v>
+      </c>
+      <c r="Q84">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
       <c r="B85">
         <f t="shared" si="8"/>
-        <v>17</v>
+        <v>84</v>
       </c>
       <c r="C85">
         <f t="shared" si="9"/>
@@ -2795,14 +5768,50 @@
         <f t="shared" si="10"/>
         <v>167.83838383838383</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F85">
+        <v>-1</v>
+      </c>
+      <c r="G85">
+        <v>-1</v>
+      </c>
+      <c r="H85">
+        <v>-1</v>
+      </c>
+      <c r="I85">
+        <v>-1</v>
+      </c>
+      <c r="J85">
+        <v>-1</v>
+      </c>
+      <c r="K85">
+        <v>-1</v>
+      </c>
+      <c r="L85">
+        <v>-1</v>
+      </c>
+      <c r="M85">
+        <v>-1</v>
+      </c>
+      <c r="N85">
+        <v>-1</v>
+      </c>
+      <c r="O85">
+        <v>-1</v>
+      </c>
+      <c r="P85">
+        <v>-1</v>
+      </c>
+      <c r="Q85">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
       <c r="B86">
         <f t="shared" si="8"/>
-        <v>16</v>
+        <v>85</v>
       </c>
       <c r="C86">
         <f t="shared" si="9"/>
@@ -2816,14 +5825,50 @@
         <f t="shared" si="10"/>
         <v>169.84848484848484</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F86">
+        <v>-1</v>
+      </c>
+      <c r="G86">
+        <v>-1</v>
+      </c>
+      <c r="H86">
+        <v>-1</v>
+      </c>
+      <c r="I86">
+        <v>-1</v>
+      </c>
+      <c r="J86">
+        <v>-1</v>
+      </c>
+      <c r="K86">
+        <v>-1</v>
+      </c>
+      <c r="L86">
+        <v>-1</v>
+      </c>
+      <c r="M86">
+        <v>-1</v>
+      </c>
+      <c r="N86">
+        <v>-1</v>
+      </c>
+      <c r="O86">
+        <v>-1</v>
+      </c>
+      <c r="P86">
+        <v>-1</v>
+      </c>
+      <c r="Q86">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
       <c r="B87">
         <f t="shared" si="8"/>
-        <v>15</v>
+        <v>86</v>
       </c>
       <c r="C87">
         <f t="shared" si="9"/>
@@ -2837,14 +5882,50 @@
         <f t="shared" si="10"/>
         <v>171.85858585858585</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F87">
+        <v>-1</v>
+      </c>
+      <c r="G87">
+        <v>-1</v>
+      </c>
+      <c r="H87">
+        <v>-1</v>
+      </c>
+      <c r="I87">
+        <v>-1</v>
+      </c>
+      <c r="J87">
+        <v>-1</v>
+      </c>
+      <c r="K87">
+        <v>-1</v>
+      </c>
+      <c r="L87">
+        <v>-1</v>
+      </c>
+      <c r="M87">
+        <v>-1</v>
+      </c>
+      <c r="N87">
+        <v>-1</v>
+      </c>
+      <c r="O87">
+        <v>-1</v>
+      </c>
+      <c r="P87">
+        <v>-1</v>
+      </c>
+      <c r="Q87">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
       <c r="B88">
         <f t="shared" si="8"/>
-        <v>14</v>
+        <v>87</v>
       </c>
       <c r="C88">
         <f t="shared" si="9"/>
@@ -2858,14 +5939,50 @@
         <f t="shared" si="10"/>
         <v>173.86868686868686</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F88">
+        <v>-1</v>
+      </c>
+      <c r="G88">
+        <v>-1</v>
+      </c>
+      <c r="H88">
+        <v>-1</v>
+      </c>
+      <c r="I88">
+        <v>-1</v>
+      </c>
+      <c r="J88">
+        <v>-1</v>
+      </c>
+      <c r="K88">
+        <v>-1</v>
+      </c>
+      <c r="L88">
+        <v>-1</v>
+      </c>
+      <c r="M88">
+        <v>-1</v>
+      </c>
+      <c r="N88">
+        <v>-1</v>
+      </c>
+      <c r="O88">
+        <v>-1</v>
+      </c>
+      <c r="P88">
+        <v>-1</v>
+      </c>
+      <c r="Q88">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
       <c r="B89">
         <f t="shared" si="8"/>
-        <v>13</v>
+        <v>88</v>
       </c>
       <c r="C89">
         <f t="shared" si="9"/>
@@ -2879,14 +5996,50 @@
         <f t="shared" si="10"/>
         <v>175.87878787878788</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F89">
+        <v>-1</v>
+      </c>
+      <c r="G89">
+        <v>-1</v>
+      </c>
+      <c r="H89">
+        <v>-1</v>
+      </c>
+      <c r="I89">
+        <v>-1</v>
+      </c>
+      <c r="J89">
+        <v>-1</v>
+      </c>
+      <c r="K89">
+        <v>-1</v>
+      </c>
+      <c r="L89">
+        <v>-1</v>
+      </c>
+      <c r="M89">
+        <v>-1</v>
+      </c>
+      <c r="N89">
+        <v>-1</v>
+      </c>
+      <c r="O89">
+        <v>-1</v>
+      </c>
+      <c r="P89">
+        <v>-1</v>
+      </c>
+      <c r="Q89">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
       <c r="B90">
         <f t="shared" si="8"/>
-        <v>12</v>
+        <v>89</v>
       </c>
       <c r="C90">
         <f t="shared" si="9"/>
@@ -2900,14 +6053,50 @@
         <f t="shared" si="10"/>
         <v>177.88888888888889</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F90">
+        <v>-1</v>
+      </c>
+      <c r="G90">
+        <v>-1</v>
+      </c>
+      <c r="H90">
+        <v>-1</v>
+      </c>
+      <c r="I90">
+        <v>-1</v>
+      </c>
+      <c r="J90">
+        <v>-1</v>
+      </c>
+      <c r="K90">
+        <v>-1</v>
+      </c>
+      <c r="L90">
+        <v>-1</v>
+      </c>
+      <c r="M90">
+        <v>-1</v>
+      </c>
+      <c r="N90">
+        <v>-1</v>
+      </c>
+      <c r="O90">
+        <v>-1</v>
+      </c>
+      <c r="P90">
+        <v>-1</v>
+      </c>
+      <c r="Q90">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
       <c r="B91">
         <f t="shared" si="8"/>
-        <v>11</v>
+        <v>90</v>
       </c>
       <c r="C91">
         <f t="shared" si="9"/>
@@ -2921,14 +6110,50 @@
         <f t="shared" si="10"/>
         <v>179.8989898989899</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F91">
+        <v>-1</v>
+      </c>
+      <c r="G91">
+        <v>-1</v>
+      </c>
+      <c r="H91">
+        <v>-1</v>
+      </c>
+      <c r="I91">
+        <v>-1</v>
+      </c>
+      <c r="J91">
+        <v>-1</v>
+      </c>
+      <c r="K91">
+        <v>-1</v>
+      </c>
+      <c r="L91">
+        <v>-1</v>
+      </c>
+      <c r="M91">
+        <v>-1</v>
+      </c>
+      <c r="N91">
+        <v>-1</v>
+      </c>
+      <c r="O91">
+        <v>-1</v>
+      </c>
+      <c r="P91">
+        <v>-1</v>
+      </c>
+      <c r="Q91">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
       <c r="B92">
         <f t="shared" si="8"/>
-        <v>10</v>
+        <v>91</v>
       </c>
       <c r="C92">
         <f t="shared" si="9"/>
@@ -2942,14 +6167,50 @@
         <f t="shared" si="10"/>
         <v>181.90909090909091</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F92">
+        <v>-1</v>
+      </c>
+      <c r="G92">
+        <v>-1</v>
+      </c>
+      <c r="H92">
+        <v>-1</v>
+      </c>
+      <c r="I92">
+        <v>-1</v>
+      </c>
+      <c r="J92">
+        <v>-1</v>
+      </c>
+      <c r="K92">
+        <v>-1</v>
+      </c>
+      <c r="L92">
+        <v>-1</v>
+      </c>
+      <c r="M92">
+        <v>-1</v>
+      </c>
+      <c r="N92">
+        <v>-1</v>
+      </c>
+      <c r="O92">
+        <v>-1</v>
+      </c>
+      <c r="P92">
+        <v>-1</v>
+      </c>
+      <c r="Q92">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
       <c r="B93">
         <f t="shared" si="8"/>
-        <v>9</v>
+        <v>92</v>
       </c>
       <c r="C93">
         <f t="shared" si="9"/>
@@ -2963,14 +6224,50 @@
         <f t="shared" si="10"/>
         <v>183.91919191919192</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F93">
+        <v>-1</v>
+      </c>
+      <c r="G93">
+        <v>-1</v>
+      </c>
+      <c r="H93">
+        <v>-1</v>
+      </c>
+      <c r="I93">
+        <v>-1</v>
+      </c>
+      <c r="J93">
+        <v>-1</v>
+      </c>
+      <c r="K93">
+        <v>-1</v>
+      </c>
+      <c r="L93">
+        <v>-1</v>
+      </c>
+      <c r="M93">
+        <v>-1</v>
+      </c>
+      <c r="N93">
+        <v>-1</v>
+      </c>
+      <c r="O93">
+        <v>-1</v>
+      </c>
+      <c r="P93">
+        <v>-1</v>
+      </c>
+      <c r="Q93">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
       <c r="B94">
         <f t="shared" si="8"/>
-        <v>8</v>
+        <v>93</v>
       </c>
       <c r="C94">
         <f t="shared" si="9"/>
@@ -2984,14 +6281,50 @@
         <f t="shared" si="10"/>
         <v>185.92929292929293</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F94">
+        <v>-1</v>
+      </c>
+      <c r="G94">
+        <v>-1</v>
+      </c>
+      <c r="H94">
+        <v>-1</v>
+      </c>
+      <c r="I94">
+        <v>-1</v>
+      </c>
+      <c r="J94">
+        <v>-1</v>
+      </c>
+      <c r="K94">
+        <v>-1</v>
+      </c>
+      <c r="L94">
+        <v>-1</v>
+      </c>
+      <c r="M94">
+        <v>-1</v>
+      </c>
+      <c r="N94">
+        <v>-1</v>
+      </c>
+      <c r="O94">
+        <v>-1</v>
+      </c>
+      <c r="P94">
+        <v>-1</v>
+      </c>
+      <c r="Q94">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
       <c r="B95">
         <f t="shared" si="8"/>
-        <v>7</v>
+        <v>94</v>
       </c>
       <c r="C95">
         <f t="shared" si="9"/>
@@ -3005,14 +6338,50 @@
         <f t="shared" si="10"/>
         <v>187.93939393939394</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F95">
+        <v>-1</v>
+      </c>
+      <c r="G95">
+        <v>-1</v>
+      </c>
+      <c r="H95">
+        <v>-1</v>
+      </c>
+      <c r="I95">
+        <v>-1</v>
+      </c>
+      <c r="J95">
+        <v>-1</v>
+      </c>
+      <c r="K95">
+        <v>-1</v>
+      </c>
+      <c r="L95">
+        <v>-1</v>
+      </c>
+      <c r="M95">
+        <v>-1</v>
+      </c>
+      <c r="N95">
+        <v>-1</v>
+      </c>
+      <c r="O95">
+        <v>-1</v>
+      </c>
+      <c r="P95">
+        <v>-1</v>
+      </c>
+      <c r="Q95">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
       <c r="B96">
         <f t="shared" si="8"/>
-        <v>6</v>
+        <v>95</v>
       </c>
       <c r="C96">
         <f t="shared" si="9"/>
@@ -3026,14 +6395,50 @@
         <f t="shared" si="10"/>
         <v>189.94949494949495</v>
       </c>
-    </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="F96">
+        <v>-1</v>
+      </c>
+      <c r="G96">
+        <v>-1</v>
+      </c>
+      <c r="H96">
+        <v>-1</v>
+      </c>
+      <c r="I96">
+        <v>-1</v>
+      </c>
+      <c r="J96">
+        <v>-1</v>
+      </c>
+      <c r="K96">
+        <v>-1</v>
+      </c>
+      <c r="L96">
+        <v>-1</v>
+      </c>
+      <c r="M96">
+        <v>-1</v>
+      </c>
+      <c r="N96">
+        <v>-1</v>
+      </c>
+      <c r="O96">
+        <v>-1</v>
+      </c>
+      <c r="P96">
+        <v>-1</v>
+      </c>
+      <c r="Q96">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
       <c r="B97">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>96</v>
       </c>
       <c r="C97">
         <f t="shared" si="9"/>
@@ -3047,14 +6452,50 @@
         <f t="shared" si="10"/>
         <v>191.95959595959596</v>
       </c>
-    </row>
-    <row r="98" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="F97">
+        <v>-1</v>
+      </c>
+      <c r="G97">
+        <v>-1</v>
+      </c>
+      <c r="H97">
+        <v>-1</v>
+      </c>
+      <c r="I97">
+        <v>-1</v>
+      </c>
+      <c r="J97">
+        <v>-1</v>
+      </c>
+      <c r="K97">
+        <v>-1</v>
+      </c>
+      <c r="L97">
+        <v>-1</v>
+      </c>
+      <c r="M97">
+        <v>-1</v>
+      </c>
+      <c r="N97">
+        <v>-1</v>
+      </c>
+      <c r="O97">
+        <v>-1</v>
+      </c>
+      <c r="P97">
+        <v>-1</v>
+      </c>
+      <c r="Q97">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
       <c r="B98">
         <f t="shared" si="8"/>
-        <v>4</v>
+        <v>97</v>
       </c>
       <c r="C98">
         <f t="shared" si="9"/>
@@ -3068,14 +6509,50 @@
         <f t="shared" si="10"/>
         <v>193.96969696969697</v>
       </c>
-    </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="F98">
+        <v>-1</v>
+      </c>
+      <c r="G98">
+        <v>-1</v>
+      </c>
+      <c r="H98">
+        <v>-1</v>
+      </c>
+      <c r="I98">
+        <v>-1</v>
+      </c>
+      <c r="J98">
+        <v>-1</v>
+      </c>
+      <c r="K98">
+        <v>-1</v>
+      </c>
+      <c r="L98">
+        <v>-1</v>
+      </c>
+      <c r="M98">
+        <v>-1</v>
+      </c>
+      <c r="N98">
+        <v>-1</v>
+      </c>
+      <c r="O98">
+        <v>-1</v>
+      </c>
+      <c r="P98">
+        <v>-1</v>
+      </c>
+      <c r="Q98">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
       <c r="B99">
         <f t="shared" si="8"/>
-        <v>3</v>
+        <v>98</v>
       </c>
       <c r="C99">
         <f t="shared" si="9"/>
@@ -3089,14 +6566,50 @@
         <f t="shared" si="10"/>
         <v>195.97979797979798</v>
       </c>
-    </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="F99">
+        <v>-1</v>
+      </c>
+      <c r="G99">
+        <v>-1</v>
+      </c>
+      <c r="H99">
+        <v>-1</v>
+      </c>
+      <c r="I99">
+        <v>-1</v>
+      </c>
+      <c r="J99">
+        <v>-1</v>
+      </c>
+      <c r="K99">
+        <v>-1</v>
+      </c>
+      <c r="L99">
+        <v>-1</v>
+      </c>
+      <c r="M99">
+        <v>-1</v>
+      </c>
+      <c r="N99">
+        <v>-1</v>
+      </c>
+      <c r="O99">
+        <v>-1</v>
+      </c>
+      <c r="P99">
+        <v>-1</v>
+      </c>
+      <c r="Q99">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
       <c r="B100">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>99</v>
       </c>
       <c r="C100">
         <f t="shared" si="9"/>
@@ -3110,13 +6623,49 @@
         <f t="shared" si="10"/>
         <v>197.98989898989899</v>
       </c>
-    </row>
-    <row r="101" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F100">
+        <v>-1</v>
+      </c>
+      <c r="G100">
+        <v>-1</v>
+      </c>
+      <c r="H100">
+        <v>-1</v>
+      </c>
+      <c r="I100">
+        <v>-1</v>
+      </c>
+      <c r="J100">
+        <v>-1</v>
+      </c>
+      <c r="K100">
+        <v>-1</v>
+      </c>
+      <c r="L100">
+        <v>-1</v>
+      </c>
+      <c r="M100">
+        <v>-1</v>
+      </c>
+      <c r="N100">
+        <v>-1</v>
+      </c>
+      <c r="O100">
+        <v>-1</v>
+      </c>
+      <c r="P100">
+        <v>-1</v>
+      </c>
+      <c r="Q100">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>100</v>
       </c>
       <c r="B101" s="1">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="C101" s="1">
         <v>0.1</v>
@@ -3127,19 +6676,42 @@
       <c r="E101" s="1">
         <v>200</v>
       </c>
-      <c r="F101" s="1"/>
-      <c r="G101" s="1"/>
-      <c r="H101" s="1"/>
-      <c r="I101" s="1"/>
-      <c r="J101" s="1"/>
-      <c r="K101" s="1"/>
-      <c r="L101" s="1"/>
-      <c r="M101" s="1"/>
-      <c r="N101" s="1"/>
-      <c r="O101" s="1"/>
-      <c r="P101" s="1"/>
-      <c r="Q101" s="1"/>
-      <c r="R101" s="1"/>
+      <c r="F101">
+        <v>-1</v>
+      </c>
+      <c r="G101">
+        <v>-1</v>
+      </c>
+      <c r="H101">
+        <v>-1</v>
+      </c>
+      <c r="I101">
+        <v>-1</v>
+      </c>
+      <c r="J101">
+        <v>-1</v>
+      </c>
+      <c r="K101">
+        <v>-1</v>
+      </c>
+      <c r="L101">
+        <v>-1</v>
+      </c>
+      <c r="M101">
+        <v>-1</v>
+      </c>
+      <c r="N101">
+        <v>-1</v>
+      </c>
+      <c r="O101">
+        <v>-1</v>
+      </c>
+      <c r="P101">
+        <v>-1</v>
+      </c>
+      <c r="Q101">
+        <v>-1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/RotoShootUnityProject/Assets/Resources/mySheet.xlsx
+++ b/RotoShootUnityProject/Assets/Resources/mySheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming\UnityProjects\RotoShoot\RotoShootUnityProject\Assets\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA2B8B97-E5E2-4BDB-AE0B-16BFAB4A6533}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A82F1D20-6423-4497-8C51-B3DEFE6122F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="825" yWindow="-120" windowWidth="28095" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-37992" yWindow="-1560" windowWidth="33348" windowHeight="19944" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="mySheet (4)" sheetId="4" r:id="rId1"/>
@@ -239,7 +239,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -431,6 +431,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -592,11 +604,13 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -956,7 +970,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B102" sqref="B102"/>
+      <selection pane="bottomLeft" activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -964,7 +978,7 @@
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="20.5703125" customWidth="1"/>
     <col min="5" max="5" width="18.7109375" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" customWidth="1"/>
+    <col min="6" max="6" width="19.85546875" customWidth="1"/>
     <col min="17" max="17" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -972,52 +986,52 @@
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="5" t="s">
         <v>18</v>
       </c>
     </row>

--- a/RotoShootUnityProject/Assets/Resources/mySheet.xlsx
+++ b/RotoShootUnityProject/Assets/Resources/mySheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming\UnityProjects\RotoShoot\RotoShootUnityProject\Assets\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UnityProjects\RotoShoot\RotoShootUnityProject\Assets\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A82F1D20-6423-4497-8C51-B3DEFE6122F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{541159AE-9CB5-4224-8E82-61BC7B5A8241}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-37992" yWindow="-1560" windowWidth="33348" windowHeight="19944" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="885" yWindow="-120" windowWidth="28035" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="mySheet (4)" sheetId="4" r:id="rId1"/>
@@ -970,7 +970,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1052,7 +1052,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="1">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="G2" s="1">
         <v>-1</v>
@@ -1097,7 +1097,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:E18" si="0">(C$2+((SUM($A3-1)/SUM($A$101-1))*(SUM(C$101-C$2))))</f>
+        <f t="shared" ref="C3:F18" si="0">(C$2+((SUM($A3-1)/SUM($A$101-1))*(SUM(C$101-C$2))))</f>
         <v>2.9707070707070709</v>
       </c>
       <c r="D3">
@@ -1109,7 +1109,8 @@
         <v>3.0101010101010104</v>
       </c>
       <c r="F3">
-        <v>-1</v>
+        <f t="shared" si="0"/>
+        <v>5.1515151515151514</v>
       </c>
       <c r="G3">
         <v>-1</v>
@@ -1166,7 +1167,8 @@
         <v>5.0202020202020208</v>
       </c>
       <c r="F4">
-        <v>-1</v>
+        <f t="shared" si="0"/>
+        <v>5.3030303030303028</v>
       </c>
       <c r="G4">
         <v>-1</v>
@@ -1223,7 +1225,8 @@
         <v>7.0303030303030303</v>
       </c>
       <c r="F5">
-        <v>-1</v>
+        <f t="shared" si="0"/>
+        <v>5.454545454545455</v>
       </c>
       <c r="G5">
         <v>-1</v>
@@ -1280,7 +1283,8 @@
         <v>9.0404040404040416</v>
       </c>
       <c r="F6">
-        <v>-1</v>
+        <f t="shared" si="0"/>
+        <v>5.6060606060606064</v>
       </c>
       <c r="G6">
         <v>-1</v>
@@ -1337,7 +1341,8 @@
         <v>11.05050505050505</v>
       </c>
       <c r="F7">
-        <v>-1</v>
+        <f t="shared" si="0"/>
+        <v>5.7575757575757578</v>
       </c>
       <c r="G7">
         <v>-1</v>
@@ -1394,7 +1399,8 @@
         <v>13.060606060606061</v>
       </c>
       <c r="F8">
-        <v>-1</v>
+        <f t="shared" si="0"/>
+        <v>5.9090909090909092</v>
       </c>
       <c r="G8">
         <v>-1</v>
@@ -1451,7 +1457,8 @@
         <v>15.070707070707071</v>
       </c>
       <c r="F9">
-        <v>-1</v>
+        <f t="shared" si="0"/>
+        <v>6.0606060606060606</v>
       </c>
       <c r="G9">
         <v>-1</v>
@@ -1508,7 +1515,8 @@
         <v>17.080808080808083</v>
       </c>
       <c r="F10">
-        <v>-1</v>
+        <f t="shared" si="0"/>
+        <v>6.2121212121212119</v>
       </c>
       <c r="G10">
         <v>-1</v>
@@ -1565,7 +1573,8 @@
         <v>19.09090909090909</v>
       </c>
       <c r="F11">
-        <v>-1</v>
+        <f t="shared" si="0"/>
+        <v>6.3636363636363633</v>
       </c>
       <c r="G11">
         <v>-1</v>
@@ -1622,7 +1631,8 @@
         <v>21.1010101010101</v>
       </c>
       <c r="F12">
-        <v>-1</v>
+        <f t="shared" si="0"/>
+        <v>6.5151515151515156</v>
       </c>
       <c r="G12">
         <v>-1</v>
@@ -1679,7 +1689,8 @@
         <v>23.111111111111111</v>
       </c>
       <c r="F13">
-        <v>-1</v>
+        <f t="shared" si="0"/>
+        <v>6.6666666666666661</v>
       </c>
       <c r="G13">
         <v>-1</v>
@@ -1736,7 +1747,8 @@
         <v>25.121212121212121</v>
       </c>
       <c r="F14">
-        <v>-1</v>
+        <f t="shared" si="0"/>
+        <v>6.8181818181818183</v>
       </c>
       <c r="G14">
         <v>-1</v>
@@ -1793,7 +1805,8 @@
         <v>27.131313131313135</v>
       </c>
       <c r="F15">
-        <v>-1</v>
+        <f t="shared" si="0"/>
+        <v>6.9696969696969697</v>
       </c>
       <c r="G15">
         <v>-1</v>
@@ -1850,7 +1863,8 @@
         <v>29.141414141414142</v>
       </c>
       <c r="F16">
-        <v>-1</v>
+        <f t="shared" si="0"/>
+        <v>7.1212121212121211</v>
       </c>
       <c r="G16">
         <v>-1</v>
@@ -1907,7 +1921,8 @@
         <v>31.151515151515152</v>
       </c>
       <c r="F17">
-        <v>-1</v>
+        <f t="shared" si="0"/>
+        <v>7.2727272727272734</v>
       </c>
       <c r="G17">
         <v>-1</v>
@@ -1964,7 +1979,8 @@
         <v>33.161616161616166</v>
       </c>
       <c r="F18">
-        <v>-1</v>
+        <f t="shared" si="0"/>
+        <v>7.4242424242424239</v>
       </c>
       <c r="G18">
         <v>-1</v>
@@ -2021,7 +2037,8 @@
         <v>35.171717171717169</v>
       </c>
       <c r="F19">
-        <v>-1</v>
+        <f t="shared" ref="F19:F82" si="6">(F$2+((SUM($A19-1)/SUM($A$101-1))*(SUM(F$101-F$2))))</f>
+        <v>7.5757575757575761</v>
       </c>
       <c r="G19">
         <v>-1</v>
@@ -2078,7 +2095,8 @@
         <v>37.18181818181818</v>
       </c>
       <c r="F20">
-        <v>-1</v>
+        <f t="shared" si="6"/>
+        <v>7.7272727272727275</v>
       </c>
       <c r="G20">
         <v>-1</v>
@@ -2135,7 +2153,8 @@
         <v>39.19191919191919</v>
       </c>
       <c r="F21">
-        <v>-1</v>
+        <f t="shared" si="6"/>
+        <v>7.8787878787878789</v>
       </c>
       <c r="G21">
         <v>-1</v>
@@ -2192,7 +2211,8 @@
         <v>41.202020202020201</v>
       </c>
       <c r="F22">
-        <v>-1</v>
+        <f t="shared" si="6"/>
+        <v>8.0303030303030312</v>
       </c>
       <c r="G22">
         <v>-1</v>
@@ -2249,7 +2269,8 @@
         <v>43.212121212121211</v>
       </c>
       <c r="F23">
-        <v>-1</v>
+        <f t="shared" si="6"/>
+        <v>8.1818181818181817</v>
       </c>
       <c r="G23">
         <v>-1</v>
@@ -2306,7 +2327,8 @@
         <v>45.222222222222221</v>
       </c>
       <c r="F24">
-        <v>-1</v>
+        <f t="shared" si="6"/>
+        <v>8.3333333333333321</v>
       </c>
       <c r="G24">
         <v>-1</v>
@@ -2363,7 +2385,8 @@
         <v>47.232323232323232</v>
       </c>
       <c r="F25">
-        <v>-1</v>
+        <f t="shared" si="6"/>
+        <v>8.4848484848484844</v>
       </c>
       <c r="G25">
         <v>-1</v>
@@ -2420,7 +2443,8 @@
         <v>49.242424242424242</v>
       </c>
       <c r="F26">
-        <v>-1</v>
+        <f t="shared" si="6"/>
+        <v>8.6363636363636367</v>
       </c>
       <c r="G26">
         <v>-1</v>
@@ -2477,7 +2501,8 @@
         <v>51.252525252525253</v>
       </c>
       <c r="F27">
-        <v>-1</v>
+        <f t="shared" si="6"/>
+        <v>8.787878787878789</v>
       </c>
       <c r="G27">
         <v>-1</v>
@@ -2534,7 +2559,8 @@
         <v>53.26262626262627</v>
       </c>
       <c r="F28">
-        <v>-1</v>
+        <f t="shared" si="6"/>
+        <v>8.9393939393939394</v>
       </c>
       <c r="G28">
         <v>-1</v>
@@ -2591,7 +2617,8 @@
         <v>55.272727272727266</v>
       </c>
       <c r="F29">
-        <v>-1</v>
+        <f t="shared" si="6"/>
+        <v>9.0909090909090899</v>
       </c>
       <c r="G29">
         <v>-1</v>
@@ -2648,7 +2675,8 @@
         <v>57.282828282828284</v>
       </c>
       <c r="F30">
-        <v>-1</v>
+        <f t="shared" si="6"/>
+        <v>9.2424242424242422</v>
       </c>
       <c r="G30">
         <v>-1</v>
@@ -2705,7 +2733,8 @@
         <v>59.292929292929294</v>
       </c>
       <c r="F31">
-        <v>-1</v>
+        <f t="shared" si="6"/>
+        <v>9.3939393939393945</v>
       </c>
       <c r="G31">
         <v>-1</v>
@@ -2762,7 +2791,8 @@
         <v>61.303030303030305</v>
       </c>
       <c r="F32">
-        <v>-1</v>
+        <f t="shared" si="6"/>
+        <v>9.5454545454545467</v>
       </c>
       <c r="G32">
         <v>-1</v>
@@ -2819,7 +2849,8 @@
         <v>63.313131313131315</v>
       </c>
       <c r="F33">
-        <v>-1</v>
+        <f t="shared" si="6"/>
+        <v>9.6969696969696972</v>
       </c>
       <c r="G33">
         <v>-1</v>
@@ -2876,7 +2907,8 @@
         <v>65.323232323232332</v>
       </c>
       <c r="F34">
-        <v>-1</v>
+        <f t="shared" si="6"/>
+        <v>9.8484848484848477</v>
       </c>
       <c r="G34">
         <v>-1</v>
@@ -2933,7 +2965,8 @@
         <v>67.333333333333329</v>
       </c>
       <c r="F35">
-        <v>-1</v>
+        <f t="shared" si="6"/>
+        <v>10</v>
       </c>
       <c r="G35">
         <v>-1</v>
@@ -2990,7 +3023,8 @@
         <v>69.343434343434339</v>
       </c>
       <c r="F36">
-        <v>-1</v>
+        <f t="shared" si="6"/>
+        <v>10.151515151515152</v>
       </c>
       <c r="G36">
         <v>-1</v>
@@ -3047,7 +3081,8 @@
         <v>71.353535353535349</v>
       </c>
       <c r="F37">
-        <v>-1</v>
+        <f t="shared" si="6"/>
+        <v>10.303030303030303</v>
       </c>
       <c r="G37">
         <v>-1</v>
@@ -3104,7 +3139,8 @@
         <v>73.36363636363636</v>
       </c>
       <c r="F38">
-        <v>-1</v>
+        <f t="shared" si="6"/>
+        <v>10.454545454545455</v>
       </c>
       <c r="G38">
         <v>-1</v>
@@ -3161,7 +3197,8 @@
         <v>75.373737373737384</v>
       </c>
       <c r="F39">
-        <v>-1</v>
+        <f t="shared" si="6"/>
+        <v>10.606060606060606</v>
       </c>
       <c r="G39">
         <v>-1</v>
@@ -3218,7 +3255,8 @@
         <v>77.383838383838381</v>
       </c>
       <c r="F40">
-        <v>-1</v>
+        <f t="shared" si="6"/>
+        <v>10.757575757575758</v>
       </c>
       <c r="G40">
         <v>-1</v>
@@ -3275,7 +3313,8 @@
         <v>79.393939393939391</v>
       </c>
       <c r="F41">
-        <v>-1</v>
+        <f t="shared" si="6"/>
+        <v>10.90909090909091</v>
       </c>
       <c r="G41">
         <v>-1</v>
@@ -3332,7 +3371,8 @@
         <v>81.404040404040401</v>
       </c>
       <c r="F42">
-        <v>-1</v>
+        <f t="shared" si="6"/>
+        <v>11.060606060606061</v>
       </c>
       <c r="G42">
         <v>-1</v>
@@ -3389,7 +3429,8 @@
         <v>83.414141414141412</v>
       </c>
       <c r="F43">
-        <v>-1</v>
+        <f t="shared" si="6"/>
+        <v>11.212121212121211</v>
       </c>
       <c r="G43">
         <v>-1</v>
@@ -3446,7 +3487,8 @@
         <v>85.424242424242422</v>
       </c>
       <c r="F44">
-        <v>-1</v>
+        <f t="shared" si="6"/>
+        <v>11.363636363636363</v>
       </c>
       <c r="G44">
         <v>-1</v>
@@ -3503,7 +3545,8 @@
         <v>87.434343434343432</v>
       </c>
       <c r="F45">
-        <v>-1</v>
+        <f t="shared" si="6"/>
+        <v>11.515151515151516</v>
       </c>
       <c r="G45">
         <v>-1</v>
@@ -3548,7 +3591,7 @@
         <v>45</v>
       </c>
       <c r="C46">
-        <f t="shared" ref="C46:C77" si="6">(C$2+((SUM(A46-1)/SUM(A$101-1))*(SUM(C$101-C$2))))</f>
+        <f t="shared" ref="C46:C77" si="7">(C$2+((SUM(A46-1)/SUM(A$101-1))*(SUM(C$101-C$2))))</f>
         <v>1.7111111111111112</v>
       </c>
       <c r="D46">
@@ -3560,7 +3603,8 @@
         <v>89.444444444444443</v>
       </c>
       <c r="F46">
-        <v>-1</v>
+        <f t="shared" si="6"/>
+        <v>11.666666666666666</v>
       </c>
       <c r="G46">
         <v>-1</v>
@@ -3605,11 +3649,11 @@
         <v>46</v>
       </c>
       <c r="C47">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.6818181818181819</v>
       </c>
       <c r="D47">
-        <f t="shared" ref="D47:D100" si="7">(D$2+((SUM($A47-1)/SUM($A$101-1))*(SUM(D$101-D$2))))</f>
+        <f t="shared" ref="D47:D100" si="8">(D$2+((SUM($A47-1)/SUM($A$101-1))*(SUM(D$101-D$2))))</f>
         <v>2.8636363636363638</v>
       </c>
       <c r="E47">
@@ -3617,7 +3661,8 @@
         <v>91.454545454545453</v>
       </c>
       <c r="F47">
-        <v>-1</v>
+        <f t="shared" si="6"/>
+        <v>11.818181818181818</v>
       </c>
       <c r="G47">
         <v>-1</v>
@@ -3662,11 +3707,11 @@
         <v>47</v>
       </c>
       <c r="C48">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.6525252525252525</v>
       </c>
       <c r="D48">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.8161616161616161</v>
       </c>
       <c r="E48">
@@ -3674,7 +3719,8 @@
         <v>93.464646464646464</v>
       </c>
       <c r="F48">
-        <v>-1</v>
+        <f t="shared" si="6"/>
+        <v>11.969696969696969</v>
       </c>
       <c r="G48">
         <v>-1</v>
@@ -3719,11 +3765,11 @@
         <v>48</v>
       </c>
       <c r="C49">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.6232323232323234</v>
       </c>
       <c r="D49">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.7686868686868684</v>
       </c>
       <c r="E49">
@@ -3731,7 +3777,8 @@
         <v>95.474747474747474</v>
       </c>
       <c r="F49">
-        <v>-1</v>
+        <f t="shared" si="6"/>
+        <v>12.121212121212121</v>
       </c>
       <c r="G49">
         <v>-1</v>
@@ -3776,11 +3823,11 @@
         <v>49</v>
       </c>
       <c r="C50">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.593939393939394</v>
       </c>
       <c r="D50">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.7212121212121212</v>
       </c>
       <c r="E50">
@@ -3788,7 +3835,8 @@
         <v>97.484848484848484</v>
       </c>
       <c r="F50">
-        <v>-1</v>
+        <f t="shared" si="6"/>
+        <v>12.272727272727273</v>
       </c>
       <c r="G50">
         <v>-1</v>
@@ -3833,11 +3881,11 @@
         <v>50</v>
       </c>
       <c r="C51">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.5646464646464646</v>
       </c>
       <c r="D51">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.6737373737373735</v>
       </c>
       <c r="E51">
@@ -3845,7 +3893,8 @@
         <v>99.494949494949495</v>
       </c>
       <c r="F51">
-        <v>-1</v>
+        <f t="shared" si="6"/>
+        <v>12.424242424242426</v>
       </c>
       <c r="G51">
         <v>-1</v>
@@ -3890,11 +3939,11 @@
         <v>51</v>
       </c>
       <c r="C52">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.5353535353535352</v>
       </c>
       <c r="D52">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.6262626262626259</v>
       </c>
       <c r="E52">
@@ -3902,7 +3951,8 @@
         <v>101.50505050505051</v>
       </c>
       <c r="F52">
-        <v>-1</v>
+        <f t="shared" si="6"/>
+        <v>12.575757575757576</v>
       </c>
       <c r="G52">
         <v>-1</v>
@@ -3947,11 +3997,11 @@
         <v>52</v>
       </c>
       <c r="C53">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.5060606060606061</v>
       </c>
       <c r="D53">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.5787878787878786</v>
       </c>
       <c r="E53">
@@ -3959,7 +4009,8 @@
         <v>103.51515151515152</v>
       </c>
       <c r="F53">
-        <v>-1</v>
+        <f t="shared" si="6"/>
+        <v>12.727272727272727</v>
       </c>
       <c r="G53">
         <v>-1</v>
@@ -4004,11 +4055,11 @@
         <v>53.000000000000007</v>
       </c>
       <c r="C54">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.4767676767676767</v>
       </c>
       <c r="D54">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.531313131313131</v>
       </c>
       <c r="E54">
@@ -4016,7 +4067,8 @@
         <v>105.52525252525254</v>
       </c>
       <c r="F54">
-        <v>-1</v>
+        <f t="shared" si="6"/>
+        <v>12.878787878787879</v>
       </c>
       <c r="G54">
         <v>-1</v>
@@ -4061,11 +4113,11 @@
         <v>54</v>
       </c>
       <c r="C55">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.4474747474747476</v>
       </c>
       <c r="D55">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.4838383838383837</v>
       </c>
       <c r="E55">
@@ -4073,7 +4125,8 @@
         <v>107.53535353535354</v>
       </c>
       <c r="F55">
-        <v>-1</v>
+        <f t="shared" si="6"/>
+        <v>13.030303030303031</v>
       </c>
       <c r="G55">
         <v>-1</v>
@@ -4118,11 +4171,11 @@
         <v>54.999999999999993</v>
       </c>
       <c r="C56">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.4181818181818184</v>
       </c>
       <c r="D56">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.4363636363636365</v>
       </c>
       <c r="E56">
@@ -4130,7 +4183,8 @@
         <v>109.54545454545453</v>
       </c>
       <c r="F56">
-        <v>-1</v>
+        <f t="shared" si="6"/>
+        <v>13.181818181818182</v>
       </c>
       <c r="G56">
         <v>-1</v>
@@ -4175,11 +4229,11 @@
         <v>56</v>
       </c>
       <c r="C57">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.3888888888888888</v>
       </c>
       <c r="D57">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.3888888888888888</v>
       </c>
       <c r="E57">
@@ -4187,7 +4241,8 @@
         <v>111.55555555555556</v>
       </c>
       <c r="F57">
-        <v>-1</v>
+        <f t="shared" si="6"/>
+        <v>13.333333333333334</v>
       </c>
       <c r="G57">
         <v>-1</v>
@@ -4232,11 +4287,11 @@
         <v>57</v>
       </c>
       <c r="C58">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.3595959595959597</v>
       </c>
       <c r="D58">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.3414141414141416</v>
       </c>
       <c r="E58">
@@ -4244,7 +4299,8 @@
         <v>113.56565656565657</v>
       </c>
       <c r="F58">
-        <v>-1</v>
+        <f t="shared" si="6"/>
+        <v>13.484848484848484</v>
       </c>
       <c r="G58">
         <v>-1</v>
@@ -4289,11 +4345,11 @@
         <v>58.000000000000007</v>
       </c>
       <c r="C59">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.3303030303030303</v>
       </c>
       <c r="D59">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.2939393939393935</v>
       </c>
       <c r="E59">
@@ -4301,7 +4357,8 @@
         <v>115.57575757575758</v>
       </c>
       <c r="F59">
-        <v>-1</v>
+        <f t="shared" si="6"/>
+        <v>13.636363636363637</v>
       </c>
       <c r="G59">
         <v>-1</v>
@@ -4346,11 +4403,11 @@
         <v>59</v>
       </c>
       <c r="C60">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.3010101010101012</v>
       </c>
       <c r="D60">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.2464646464646463</v>
       </c>
       <c r="E60">
@@ -4358,7 +4415,8 @@
         <v>117.58585858585859</v>
       </c>
       <c r="F60">
-        <v>-1</v>
+        <f t="shared" si="6"/>
+        <v>13.787878787878787</v>
       </c>
       <c r="G60">
         <v>-1</v>
@@ -4403,11 +4461,11 @@
         <v>59.999999999999993</v>
       </c>
       <c r="C61">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.2717171717171718</v>
       </c>
       <c r="D61">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.1989898989898991</v>
       </c>
       <c r="E61">
@@ -4415,7 +4473,8 @@
         <v>119.59595959595958</v>
       </c>
       <c r="F61">
-        <v>-1</v>
+        <f t="shared" si="6"/>
+        <v>13.939393939393939</v>
       </c>
       <c r="G61">
         <v>-1</v>
@@ -4460,11 +4519,11 @@
         <v>61</v>
       </c>
       <c r="C62">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.2424242424242424</v>
       </c>
       <c r="D62">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.1515151515151514</v>
       </c>
       <c r="E62">
@@ -4472,7 +4531,8 @@
         <v>121.60606060606061</v>
       </c>
       <c r="F62">
-        <v>-1</v>
+        <f t="shared" si="6"/>
+        <v>14.090909090909092</v>
       </c>
       <c r="G62">
         <v>-1</v>
@@ -4517,11 +4577,11 @@
         <v>62</v>
       </c>
       <c r="C63">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.2131313131313133</v>
       </c>
       <c r="D63">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.1040404040404042</v>
       </c>
       <c r="E63">
@@ -4529,7 +4589,8 @@
         <v>123.61616161616161</v>
       </c>
       <c r="F63">
-        <v>-1</v>
+        <f t="shared" si="6"/>
+        <v>14.242424242424242</v>
       </c>
       <c r="G63">
         <v>-1</v>
@@ -4574,11 +4635,11 @@
         <v>63</v>
       </c>
       <c r="C64">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.1838383838383837</v>
       </c>
       <c r="D64">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.0565656565656565</v>
       </c>
       <c r="E64">
@@ -4586,7 +4647,8 @@
         <v>125.62626262626263</v>
       </c>
       <c r="F64">
-        <v>-1</v>
+        <f t="shared" si="6"/>
+        <v>14.393939393939394</v>
       </c>
       <c r="G64">
         <v>-1</v>
@@ -4631,11 +4693,11 @@
         <v>64</v>
       </c>
       <c r="C65">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.1545454545454545</v>
       </c>
       <c r="D65">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.0090909090909088</v>
       </c>
       <c r="E65">
@@ -4643,7 +4705,8 @@
         <v>127.63636363636364</v>
       </c>
       <c r="F65">
-        <v>-1</v>
+        <f t="shared" si="6"/>
+        <v>14.545454545454545</v>
       </c>
       <c r="G65">
         <v>-1</v>
@@ -4688,11 +4751,11 @@
         <v>65</v>
       </c>
       <c r="C66">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.1252525252525252</v>
       </c>
       <c r="D66">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.9616161616161611</v>
       </c>
       <c r="E66">
@@ -4700,7 +4763,8 @@
         <v>129.64646464646466</v>
       </c>
       <c r="F66">
-        <v>-1</v>
+        <f t="shared" si="6"/>
+        <v>14.696969696969697</v>
       </c>
       <c r="G66">
         <v>-1</v>
@@ -4745,11 +4809,11 @@
         <v>66</v>
       </c>
       <c r="C67">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.095959595959596</v>
       </c>
       <c r="D67">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.9141414141414139</v>
       </c>
       <c r="E67">
@@ -4757,7 +4821,8 @@
         <v>131.65656565656565</v>
       </c>
       <c r="F67">
-        <v>-1</v>
+        <f t="shared" si="6"/>
+        <v>14.848484848484848</v>
       </c>
       <c r="G67">
         <v>-1</v>
@@ -4798,15 +4863,15 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <f t="shared" ref="B68:B100" si="8">(B$2+((SUM(A68-1)/SUM(A$101-1))*(SUM(B$101-B$2))))</f>
+        <f t="shared" ref="B68:B100" si="9">(B$2+((SUM(A68-1)/SUM(A$101-1))*(SUM(B$101-B$2))))</f>
         <v>67</v>
       </c>
       <c r="C68">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.0666666666666669</v>
       </c>
       <c r="D68">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.8666666666666667</v>
       </c>
       <c r="E68">
@@ -4814,7 +4879,8 @@
         <v>133.66666666666666</v>
       </c>
       <c r="F68">
-        <v>-1</v>
+        <f t="shared" si="6"/>
+        <v>15</v>
       </c>
       <c r="G68">
         <v>-1</v>
@@ -4855,15 +4921,15 @@
         <v>68</v>
       </c>
       <c r="B69">
+        <f t="shared" si="9"/>
+        <v>68</v>
+      </c>
+      <c r="C69">
+        <f t="shared" si="7"/>
+        <v>1.0373737373737373</v>
+      </c>
+      <c r="D69">
         <f t="shared" si="8"/>
-        <v>68</v>
-      </c>
-      <c r="C69">
-        <f t="shared" si="6"/>
-        <v>1.0373737373737373</v>
-      </c>
-      <c r="D69">
-        <f t="shared" si="7"/>
         <v>1.819191919191919</v>
       </c>
       <c r="E69">
@@ -4871,7 +4937,8 @@
         <v>135.6767676767677</v>
       </c>
       <c r="F69">
-        <v>-1</v>
+        <f t="shared" si="6"/>
+        <v>15.151515151515152</v>
       </c>
       <c r="G69">
         <v>-1</v>
@@ -4912,15 +4979,15 @@
         <v>69</v>
       </c>
       <c r="B70">
+        <f t="shared" si="9"/>
+        <v>69</v>
+      </c>
+      <c r="C70">
+        <f t="shared" si="7"/>
+        <v>1.0080808080808081</v>
+      </c>
+      <c r="D70">
         <f t="shared" si="8"/>
-        <v>69</v>
-      </c>
-      <c r="C70">
-        <f t="shared" si="6"/>
-        <v>1.0080808080808081</v>
-      </c>
-      <c r="D70">
-        <f t="shared" si="7"/>
         <v>1.7717171717171718</v>
       </c>
       <c r="E70">
@@ -4928,7 +4995,8 @@
         <v>137.68686868686868</v>
       </c>
       <c r="F70">
-        <v>-1</v>
+        <f t="shared" si="6"/>
+        <v>15.303030303030303</v>
       </c>
       <c r="G70">
         <v>-1</v>
@@ -4969,15 +5037,15 @@
         <v>70</v>
       </c>
       <c r="B71">
+        <f t="shared" si="9"/>
+        <v>70</v>
+      </c>
+      <c r="C71">
+        <f t="shared" si="7"/>
+        <v>0.97878787878787854</v>
+      </c>
+      <c r="D71">
         <f t="shared" si="8"/>
-        <v>70</v>
-      </c>
-      <c r="C71">
-        <f t="shared" si="6"/>
-        <v>0.97878787878787854</v>
-      </c>
-      <c r="D71">
-        <f t="shared" si="7"/>
         <v>1.7242424242424237</v>
       </c>
       <c r="E71">
@@ -4985,7 +5053,8 @@
         <v>139.69696969696972</v>
       </c>
       <c r="F71">
-        <v>-1</v>
+        <f t="shared" si="6"/>
+        <v>15.454545454545455</v>
       </c>
       <c r="G71">
         <v>-1</v>
@@ -5026,15 +5095,15 @@
         <v>71</v>
       </c>
       <c r="B72">
+        <f t="shared" si="9"/>
+        <v>71</v>
+      </c>
+      <c r="C72">
+        <f t="shared" si="7"/>
+        <v>0.94949494949494939</v>
+      </c>
+      <c r="D72">
         <f t="shared" si="8"/>
-        <v>71</v>
-      </c>
-      <c r="C72">
-        <f t="shared" si="6"/>
-        <v>0.94949494949494939</v>
-      </c>
-      <c r="D72">
-        <f t="shared" si="7"/>
         <v>1.6767676767676765</v>
       </c>
       <c r="E72">
@@ -5042,7 +5111,8 @@
         <v>141.7070707070707</v>
       </c>
       <c r="F72">
-        <v>-1</v>
+        <f t="shared" si="6"/>
+        <v>15.606060606060606</v>
       </c>
       <c r="G72">
         <v>-1</v>
@@ -5083,15 +5153,15 @@
         <v>72</v>
       </c>
       <c r="B73">
+        <f t="shared" si="9"/>
+        <v>72</v>
+      </c>
+      <c r="C73">
+        <f t="shared" si="7"/>
+        <v>0.92020202020202024</v>
+      </c>
+      <c r="D73">
         <f t="shared" si="8"/>
-        <v>72</v>
-      </c>
-      <c r="C73">
-        <f t="shared" si="6"/>
-        <v>0.92020202020202024</v>
-      </c>
-      <c r="D73">
-        <f t="shared" si="7"/>
         <v>1.6292929292929292</v>
       </c>
       <c r="E73">
@@ -5099,7 +5169,8 @@
         <v>143.71717171717171</v>
       </c>
       <c r="F73">
-        <v>-1</v>
+        <f t="shared" si="6"/>
+        <v>15.757575757575758</v>
       </c>
       <c r="G73">
         <v>-1</v>
@@ -5140,15 +5211,15 @@
         <v>73</v>
       </c>
       <c r="B74">
+        <f t="shared" si="9"/>
+        <v>73</v>
+      </c>
+      <c r="C74">
+        <f t="shared" si="7"/>
+        <v>0.89090909090909109</v>
+      </c>
+      <c r="D74">
         <f t="shared" si="8"/>
-        <v>73</v>
-      </c>
-      <c r="C74">
-        <f t="shared" si="6"/>
-        <v>0.89090909090909109</v>
-      </c>
-      <c r="D74">
-        <f t="shared" si="7"/>
         <v>1.5818181818181816</v>
       </c>
       <c r="E74">
@@ -5156,7 +5227,8 @@
         <v>145.72727272727272</v>
       </c>
       <c r="F74">
-        <v>-1</v>
+        <f t="shared" si="6"/>
+        <v>15.90909090909091</v>
       </c>
       <c r="G74">
         <v>-1</v>
@@ -5197,15 +5269,15 @@
         <v>74</v>
       </c>
       <c r="B75">
+        <f t="shared" si="9"/>
+        <v>74</v>
+      </c>
+      <c r="C75">
+        <f t="shared" si="7"/>
+        <v>0.86161616161616195</v>
+      </c>
+      <c r="D75">
         <f t="shared" si="8"/>
-        <v>74</v>
-      </c>
-      <c r="C75">
-        <f t="shared" si="6"/>
-        <v>0.86161616161616195</v>
-      </c>
-      <c r="D75">
-        <f t="shared" si="7"/>
         <v>1.5343434343434343</v>
       </c>
       <c r="E75">
@@ -5213,7 +5285,8 @@
         <v>147.73737373737373</v>
       </c>
       <c r="F75">
-        <v>-1</v>
+        <f t="shared" si="6"/>
+        <v>16.060606060606062</v>
       </c>
       <c r="G75">
         <v>-1</v>
@@ -5254,15 +5327,15 @@
         <v>75</v>
       </c>
       <c r="B76">
+        <f t="shared" si="9"/>
+        <v>75</v>
+      </c>
+      <c r="C76">
+        <f t="shared" si="7"/>
+        <v>0.83232323232323235</v>
+      </c>
+      <c r="D76">
         <f t="shared" si="8"/>
-        <v>75</v>
-      </c>
-      <c r="C76">
-        <f t="shared" si="6"/>
-        <v>0.83232323232323235</v>
-      </c>
-      <c r="D76">
-        <f t="shared" si="7"/>
         <v>1.4868686868686867</v>
       </c>
       <c r="E76">
@@ -5270,7 +5343,8 @@
         <v>149.74747474747477</v>
       </c>
       <c r="F76">
-        <v>-1</v>
+        <f t="shared" si="6"/>
+        <v>16.212121212121211</v>
       </c>
       <c r="G76">
         <v>-1</v>
@@ -5311,15 +5385,15 @@
         <v>76</v>
       </c>
       <c r="B77">
+        <f t="shared" si="9"/>
+        <v>76</v>
+      </c>
+      <c r="C77">
+        <f t="shared" si="7"/>
+        <v>0.80303030303030321</v>
+      </c>
+      <c r="D77">
         <f t="shared" si="8"/>
-        <v>76</v>
-      </c>
-      <c r="C77">
-        <f t="shared" si="6"/>
-        <v>0.80303030303030321</v>
-      </c>
-      <c r="D77">
-        <f t="shared" si="7"/>
         <v>1.4393939393939394</v>
       </c>
       <c r="E77">
@@ -5327,7 +5401,8 @@
         <v>151.75757575757575</v>
       </c>
       <c r="F77">
-        <v>-1</v>
+        <f t="shared" si="6"/>
+        <v>16.363636363636363</v>
       </c>
       <c r="G77">
         <v>-1</v>
@@ -5368,15 +5443,15 @@
         <v>77</v>
       </c>
       <c r="B78">
+        <f t="shared" si="9"/>
+        <v>77</v>
+      </c>
+      <c r="C78">
+        <f t="shared" ref="C78:C100" si="10">(C$2+((SUM(A78-1)/SUM(A$101-1))*(SUM(C$101-C$2))))</f>
+        <v>0.77373737373737406</v>
+      </c>
+      <c r="D78">
         <f t="shared" si="8"/>
-        <v>77</v>
-      </c>
-      <c r="C78">
-        <f t="shared" ref="C78:C100" si="9">(C$2+((SUM(A78-1)/SUM(A$101-1))*(SUM(C$101-C$2))))</f>
-        <v>0.77373737373737406</v>
-      </c>
-      <c r="D78">
-        <f t="shared" si="7"/>
         <v>1.3919191919191922</v>
       </c>
       <c r="E78">
@@ -5384,7 +5459,8 @@
         <v>153.76767676767676</v>
       </c>
       <c r="F78">
-        <v>-1</v>
+        <f t="shared" si="6"/>
+        <v>16.515151515151516</v>
       </c>
       <c r="G78">
         <v>-1</v>
@@ -5425,15 +5501,15 @@
         <v>78</v>
       </c>
       <c r="B79">
+        <f t="shared" si="9"/>
+        <v>78</v>
+      </c>
+      <c r="C79">
+        <f t="shared" si="10"/>
+        <v>0.74444444444444446</v>
+      </c>
+      <c r="D79">
         <f t="shared" si="8"/>
-        <v>78</v>
-      </c>
-      <c r="C79">
-        <f t="shared" si="9"/>
-        <v>0.74444444444444446</v>
-      </c>
-      <c r="D79">
-        <f t="shared" si="7"/>
         <v>1.3444444444444441</v>
       </c>
       <c r="E79">
@@ -5441,7 +5517,8 @@
         <v>155.77777777777777</v>
       </c>
       <c r="F79">
-        <v>-1</v>
+        <f t="shared" si="6"/>
+        <v>16.666666666666664</v>
       </c>
       <c r="G79">
         <v>-1</v>
@@ -5482,15 +5559,15 @@
         <v>79</v>
       </c>
       <c r="B80">
+        <f t="shared" si="9"/>
+        <v>79</v>
+      </c>
+      <c r="C80">
+        <f t="shared" si="10"/>
+        <v>0.71515151515151532</v>
+      </c>
+      <c r="D80">
         <f t="shared" si="8"/>
-        <v>79</v>
-      </c>
-      <c r="C80">
-        <f t="shared" si="9"/>
-        <v>0.71515151515151532</v>
-      </c>
-      <c r="D80">
-        <f t="shared" si="7"/>
         <v>1.2969696969696969</v>
       </c>
       <c r="E80">
@@ -5498,7 +5575,8 @@
         <v>157.78787878787878</v>
       </c>
       <c r="F80">
-        <v>-1</v>
+        <f t="shared" si="6"/>
+        <v>16.81818181818182</v>
       </c>
       <c r="G80">
         <v>-1</v>
@@ -5539,15 +5617,15 @@
         <v>80</v>
       </c>
       <c r="B81">
+        <f t="shared" si="9"/>
+        <v>80</v>
+      </c>
+      <c r="C81">
+        <f t="shared" si="10"/>
+        <v>0.68585858585858572</v>
+      </c>
+      <c r="D81">
         <f t="shared" si="8"/>
-        <v>80</v>
-      </c>
-      <c r="C81">
-        <f t="shared" si="9"/>
-        <v>0.68585858585858572</v>
-      </c>
-      <c r="D81">
-        <f t="shared" si="7"/>
         <v>1.2494949494949492</v>
       </c>
       <c r="E81">
@@ -5555,7 +5633,8 @@
         <v>159.79797979797979</v>
       </c>
       <c r="F81">
-        <v>-1</v>
+        <f t="shared" si="6"/>
+        <v>16.969696969696969</v>
       </c>
       <c r="G81">
         <v>-1</v>
@@ -5596,15 +5675,15 @@
         <v>81</v>
       </c>
       <c r="B82">
+        <f t="shared" si="9"/>
+        <v>81</v>
+      </c>
+      <c r="C82">
+        <f t="shared" si="10"/>
+        <v>0.65656565656565657</v>
+      </c>
+      <c r="D82">
         <f t="shared" si="8"/>
-        <v>81</v>
-      </c>
-      <c r="C82">
-        <f t="shared" si="9"/>
-        <v>0.65656565656565657</v>
-      </c>
-      <c r="D82">
-        <f t="shared" si="7"/>
         <v>1.202020202020202</v>
       </c>
       <c r="E82">
@@ -5612,7 +5691,8 @@
         <v>161.8080808080808</v>
       </c>
       <c r="F82">
-        <v>-1</v>
+        <f t="shared" si="6"/>
+        <v>17.121212121212121</v>
       </c>
       <c r="G82">
         <v>-1</v>
@@ -5653,23 +5733,24 @@
         <v>82</v>
       </c>
       <c r="B83">
+        <f t="shared" si="9"/>
+        <v>82</v>
+      </c>
+      <c r="C83">
+        <f t="shared" si="10"/>
+        <v>0.62727272727272698</v>
+      </c>
+      <c r="D83">
         <f t="shared" si="8"/>
-        <v>82</v>
-      </c>
-      <c r="C83">
-        <f t="shared" si="9"/>
-        <v>0.62727272727272698</v>
-      </c>
-      <c r="D83">
-        <f t="shared" si="7"/>
         <v>1.1545454545454543</v>
       </c>
       <c r="E83">
-        <f t="shared" ref="E83:E100" si="10">(E$2+((SUM($A83-1)/SUM($A$101-1))*(SUM(E$101-E$2))))</f>
+        <f t="shared" ref="E83:E100" si="11">(E$2+((SUM($A83-1)/SUM($A$101-1))*(SUM(E$101-E$2))))</f>
         <v>163.81818181818184</v>
       </c>
       <c r="F83">
-        <v>-1</v>
+        <f t="shared" ref="F83:F100" si="12">(F$2+((SUM($A83-1)/SUM($A$101-1))*(SUM(F$101-F$2))))</f>
+        <v>17.272727272727273</v>
       </c>
       <c r="G83">
         <v>-1</v>
@@ -5710,23 +5791,24 @@
         <v>83</v>
       </c>
       <c r="B84">
+        <f t="shared" si="9"/>
+        <v>83</v>
+      </c>
+      <c r="C84">
+        <f t="shared" si="10"/>
+        <v>0.59797979797979783</v>
+      </c>
+      <c r="D84">
         <f t="shared" si="8"/>
-        <v>83</v>
-      </c>
-      <c r="C84">
-        <f t="shared" si="9"/>
-        <v>0.59797979797979783</v>
-      </c>
-      <c r="D84">
-        <f t="shared" si="7"/>
         <v>1.1070707070707071</v>
       </c>
       <c r="E84">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>165.82828282828282</v>
       </c>
       <c r="F84">
-        <v>-1</v>
+        <f t="shared" si="12"/>
+        <v>17.424242424242422</v>
       </c>
       <c r="G84">
         <v>-1</v>
@@ -5767,23 +5849,24 @@
         <v>84</v>
       </c>
       <c r="B85">
+        <f t="shared" si="9"/>
+        <v>84</v>
+      </c>
+      <c r="C85">
+        <f t="shared" si="10"/>
+        <v>0.56868686868686869</v>
+      </c>
+      <c r="D85">
         <f t="shared" si="8"/>
-        <v>84</v>
-      </c>
-      <c r="C85">
-        <f t="shared" si="9"/>
-        <v>0.56868686868686869</v>
-      </c>
-      <c r="D85">
-        <f t="shared" si="7"/>
         <v>1.0595959595959594</v>
       </c>
       <c r="E85">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>167.83838383838383</v>
       </c>
       <c r="F85">
-        <v>-1</v>
+        <f t="shared" si="12"/>
+        <v>17.575757575757574</v>
       </c>
       <c r="G85">
         <v>-1</v>
@@ -5824,23 +5907,24 @@
         <v>85</v>
       </c>
       <c r="B86">
+        <f t="shared" si="9"/>
+        <v>85</v>
+      </c>
+      <c r="C86">
+        <f t="shared" si="10"/>
+        <v>0.53939393939393954</v>
+      </c>
+      <c r="D86">
         <f t="shared" si="8"/>
-        <v>85</v>
-      </c>
-      <c r="C86">
-        <f t="shared" si="9"/>
-        <v>0.53939393939393954</v>
-      </c>
-      <c r="D86">
-        <f t="shared" si="7"/>
         <v>1.0121212121212118</v>
       </c>
       <c r="E86">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>169.84848484848484</v>
       </c>
       <c r="F86">
-        <v>-1</v>
+        <f t="shared" si="12"/>
+        <v>17.727272727272727</v>
       </c>
       <c r="G86">
         <v>-1</v>
@@ -5881,23 +5965,24 @@
         <v>86</v>
       </c>
       <c r="B87">
+        <f t="shared" si="9"/>
+        <v>86</v>
+      </c>
+      <c r="C87">
+        <f t="shared" si="10"/>
+        <v>0.51010101010101039</v>
+      </c>
+      <c r="D87">
         <f t="shared" si="8"/>
-        <v>86</v>
-      </c>
-      <c r="C87">
-        <f t="shared" si="9"/>
-        <v>0.51010101010101039</v>
-      </c>
-      <c r="D87">
-        <f t="shared" si="7"/>
         <v>0.96464646464646453</v>
       </c>
       <c r="E87">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>171.85858585858585</v>
       </c>
       <c r="F87">
-        <v>-1</v>
+        <f t="shared" si="12"/>
+        <v>17.878787878787879</v>
       </c>
       <c r="G87">
         <v>-1</v>
@@ -5938,23 +6023,24 @@
         <v>87</v>
       </c>
       <c r="B88">
+        <f t="shared" si="9"/>
+        <v>87</v>
+      </c>
+      <c r="C88">
+        <f t="shared" si="10"/>
+        <v>0.4808080808080808</v>
+      </c>
+      <c r="D88">
         <f t="shared" si="8"/>
-        <v>87</v>
-      </c>
-      <c r="C88">
-        <f t="shared" si="9"/>
-        <v>0.4808080808080808</v>
-      </c>
-      <c r="D88">
-        <f t="shared" si="7"/>
         <v>0.91717171717171642</v>
       </c>
       <c r="E88">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>173.86868686868686</v>
       </c>
       <c r="F88">
-        <v>-1</v>
+        <f t="shared" si="12"/>
+        <v>18.030303030303031</v>
       </c>
       <c r="G88">
         <v>-1</v>
@@ -5995,23 +6081,24 @@
         <v>88</v>
       </c>
       <c r="B89">
+        <f t="shared" si="9"/>
+        <v>88</v>
+      </c>
+      <c r="C89">
+        <f t="shared" si="10"/>
+        <v>0.45151515151515165</v>
+      </c>
+      <c r="D89">
         <f t="shared" si="8"/>
-        <v>88</v>
-      </c>
-      <c r="C89">
-        <f t="shared" si="9"/>
-        <v>0.45151515151515165</v>
-      </c>
-      <c r="D89">
-        <f t="shared" si="7"/>
         <v>0.86969696969696919</v>
       </c>
       <c r="E89">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>175.87878787878788</v>
       </c>
       <c r="F89">
-        <v>-1</v>
+        <f t="shared" si="12"/>
+        <v>18.18181818181818</v>
       </c>
       <c r="G89">
         <v>-1</v>
@@ -6052,23 +6139,24 @@
         <v>89</v>
       </c>
       <c r="B90">
+        <f t="shared" si="9"/>
+        <v>89</v>
+      </c>
+      <c r="C90">
+        <f t="shared" si="10"/>
+        <v>0.4222222222222225</v>
+      </c>
+      <c r="D90">
         <f t="shared" si="8"/>
-        <v>89</v>
-      </c>
-      <c r="C90">
-        <f t="shared" si="9"/>
-        <v>0.4222222222222225</v>
-      </c>
-      <c r="D90">
-        <f t="shared" si="7"/>
         <v>0.82222222222222197</v>
       </c>
       <c r="E90">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>177.88888888888889</v>
       </c>
       <c r="F90">
-        <v>-1</v>
+        <f t="shared" si="12"/>
+        <v>18.333333333333332</v>
       </c>
       <c r="G90">
         <v>-1</v>
@@ -6109,23 +6197,24 @@
         <v>90</v>
       </c>
       <c r="B91">
+        <f t="shared" si="9"/>
+        <v>90</v>
+      </c>
+      <c r="C91">
+        <f t="shared" si="10"/>
+        <v>0.39292929292929291</v>
+      </c>
+      <c r="D91">
         <f t="shared" si="8"/>
-        <v>90</v>
-      </c>
-      <c r="C91">
-        <f t="shared" si="9"/>
-        <v>0.39292929292929291</v>
-      </c>
-      <c r="D91">
-        <f t="shared" si="7"/>
         <v>0.77474747474747474</v>
       </c>
       <c r="E91">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>179.8989898989899</v>
       </c>
       <c r="F91">
-        <v>-1</v>
+        <f t="shared" si="12"/>
+        <v>18.484848484848484</v>
       </c>
       <c r="G91">
         <v>-1</v>
@@ -6166,23 +6255,24 @@
         <v>91</v>
       </c>
       <c r="B92">
+        <f t="shared" si="9"/>
+        <v>91</v>
+      </c>
+      <c r="C92">
+        <f t="shared" si="10"/>
+        <v>0.36363636363636376</v>
+      </c>
+      <c r="D92">
         <f t="shared" si="8"/>
-        <v>91</v>
-      </c>
-      <c r="C92">
-        <f t="shared" si="9"/>
-        <v>0.36363636363636376</v>
-      </c>
-      <c r="D92">
-        <f t="shared" si="7"/>
         <v>0.72727272727272751</v>
       </c>
       <c r="E92">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>181.90909090909091</v>
       </c>
       <c r="F92">
-        <v>-1</v>
+        <f t="shared" si="12"/>
+        <v>18.636363636363637</v>
       </c>
       <c r="G92">
         <v>-1</v>
@@ -6223,23 +6313,24 @@
         <v>92</v>
       </c>
       <c r="B93">
+        <f t="shared" si="9"/>
+        <v>92</v>
+      </c>
+      <c r="C93">
+        <f t="shared" si="10"/>
+        <v>0.33434343434343416</v>
+      </c>
+      <c r="D93">
         <f t="shared" si="8"/>
-        <v>92</v>
-      </c>
-      <c r="C93">
-        <f t="shared" si="9"/>
-        <v>0.33434343434343416</v>
-      </c>
-      <c r="D93">
-        <f t="shared" si="7"/>
         <v>0.6797979797979794</v>
       </c>
       <c r="E93">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>183.91919191919192</v>
       </c>
       <c r="F93">
-        <v>-1</v>
+        <f t="shared" si="12"/>
+        <v>18.787878787878789</v>
       </c>
       <c r="G93">
         <v>-1</v>
@@ -6280,23 +6371,24 @@
         <v>93</v>
       </c>
       <c r="B94">
+        <f t="shared" si="9"/>
+        <v>93</v>
+      </c>
+      <c r="C94">
+        <f t="shared" si="10"/>
+        <v>0.30505050505050502</v>
+      </c>
+      <c r="D94">
         <f t="shared" si="8"/>
-        <v>93</v>
-      </c>
-      <c r="C94">
-        <f t="shared" si="9"/>
-        <v>0.30505050505050502</v>
-      </c>
-      <c r="D94">
-        <f t="shared" si="7"/>
         <v>0.63232323232323218</v>
       </c>
       <c r="E94">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>185.92929292929293</v>
       </c>
       <c r="F94">
-        <v>-1</v>
+        <f t="shared" si="12"/>
+        <v>18.939393939393938</v>
       </c>
       <c r="G94">
         <v>-1</v>
@@ -6337,23 +6429,24 @@
         <v>94</v>
       </c>
       <c r="B95">
+        <f t="shared" si="9"/>
+        <v>94</v>
+      </c>
+      <c r="C95">
+        <f t="shared" si="10"/>
+        <v>0.27575757575757587</v>
+      </c>
+      <c r="D95">
         <f t="shared" si="8"/>
-        <v>94</v>
-      </c>
-      <c r="C95">
-        <f t="shared" si="9"/>
-        <v>0.27575757575757587</v>
-      </c>
-      <c r="D95">
-        <f t="shared" si="7"/>
         <v>0.58484848484848406</v>
       </c>
       <c r="E95">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>187.93939393939394</v>
       </c>
       <c r="F95">
-        <v>-1</v>
+        <f t="shared" si="12"/>
+        <v>19.090909090909093</v>
       </c>
       <c r="G95">
         <v>-1</v>
@@ -6394,23 +6487,24 @@
         <v>95</v>
       </c>
       <c r="B96">
+        <f t="shared" si="9"/>
+        <v>95</v>
+      </c>
+      <c r="C96">
+        <f t="shared" si="10"/>
+        <v>0.24646464646464672</v>
+      </c>
+      <c r="D96">
         <f t="shared" si="8"/>
-        <v>95</v>
-      </c>
-      <c r="C96">
-        <f t="shared" si="9"/>
-        <v>0.24646464646464672</v>
-      </c>
-      <c r="D96">
-        <f t="shared" si="7"/>
         <v>0.53737373737373684</v>
       </c>
       <c r="E96">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>189.94949494949495</v>
       </c>
       <c r="F96">
-        <v>-1</v>
+        <f t="shared" si="12"/>
+        <v>19.242424242424242</v>
       </c>
       <c r="G96">
         <v>-1</v>
@@ -6451,23 +6545,24 @@
         <v>96</v>
       </c>
       <c r="B97">
+        <f t="shared" si="9"/>
+        <v>96</v>
+      </c>
+      <c r="C97">
+        <f t="shared" si="10"/>
+        <v>0.21717171717171757</v>
+      </c>
+      <c r="D97">
         <f t="shared" si="8"/>
-        <v>96</v>
-      </c>
-      <c r="C97">
-        <f t="shared" si="9"/>
-        <v>0.21717171717171757</v>
-      </c>
-      <c r="D97">
-        <f t="shared" si="7"/>
         <v>0.48989898989898961</v>
       </c>
       <c r="E97">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>191.95959595959596</v>
       </c>
       <c r="F97">
-        <v>-1</v>
+        <f t="shared" si="12"/>
+        <v>19.393939393939391</v>
       </c>
       <c r="G97">
         <v>-1</v>
@@ -6508,23 +6603,24 @@
         <v>97</v>
       </c>
       <c r="B98">
+        <f t="shared" si="9"/>
+        <v>97</v>
+      </c>
+      <c r="C98">
+        <f t="shared" si="10"/>
+        <v>0.18787878787878798</v>
+      </c>
+      <c r="D98">
         <f t="shared" si="8"/>
-        <v>97</v>
-      </c>
-      <c r="C98">
-        <f t="shared" si="9"/>
-        <v>0.18787878787878798</v>
-      </c>
-      <c r="D98">
-        <f t="shared" si="7"/>
         <v>0.44242424242424239</v>
       </c>
       <c r="E98">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>193.96969696969697</v>
       </c>
       <c r="F98">
-        <v>-1</v>
+        <f t="shared" si="12"/>
+        <v>19.545454545454547</v>
       </c>
       <c r="G98">
         <v>-1</v>
@@ -6565,23 +6661,24 @@
         <v>98</v>
       </c>
       <c r="B99">
+        <f t="shared" si="9"/>
+        <v>98</v>
+      </c>
+      <c r="C99">
+        <f t="shared" si="10"/>
+        <v>0.15858585858585883</v>
+      </c>
+      <c r="D99">
         <f t="shared" si="8"/>
-        <v>98</v>
-      </c>
-      <c r="C99">
-        <f t="shared" si="9"/>
-        <v>0.15858585858585883</v>
-      </c>
-      <c r="D99">
-        <f t="shared" si="7"/>
         <v>0.39494949494949516</v>
       </c>
       <c r="E99">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>195.97979797979798</v>
       </c>
       <c r="F99">
-        <v>-1</v>
+        <f t="shared" si="12"/>
+        <v>19.696969696969695</v>
       </c>
       <c r="G99">
         <v>-1</v>
@@ -6622,23 +6719,24 @@
         <v>99</v>
       </c>
       <c r="B100">
+        <f t="shared" si="9"/>
+        <v>99</v>
+      </c>
+      <c r="C100">
+        <f t="shared" si="10"/>
+        <v>0.12929292929292924</v>
+      </c>
+      <c r="D100">
         <f t="shared" si="8"/>
-        <v>99</v>
-      </c>
-      <c r="C100">
-        <f t="shared" si="9"/>
-        <v>0.12929292929292924</v>
-      </c>
-      <c r="D100">
-        <f t="shared" si="7"/>
         <v>0.34747474747474705</v>
       </c>
       <c r="E100">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>197.98989898989899</v>
       </c>
       <c r="F100">
-        <v>-1</v>
+        <f t="shared" si="12"/>
+        <v>19.848484848484851</v>
       </c>
       <c r="G100">
         <v>-1</v>
@@ -6691,7 +6789,7 @@
         <v>200</v>
       </c>
       <c r="F101">
-        <v>-1</v>
+        <v>20</v>
       </c>
       <c r="G101">
         <v>-1</v>
@@ -6729,7 +6827,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/RotoShootUnityProject/Assets/Resources/mySheet.xlsx
+++ b/RotoShootUnityProject/Assets/Resources/mySheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UnityProjects\RotoShoot\RotoShootUnityProject\Assets\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming\UnityProjects\RotoShoot\RotoShootUnityProject\Assets\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{541159AE-9CB5-4224-8E82-61BC7B5A8241}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DD8B8B9-2F56-4956-BD5E-175049FAE2DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="885" yWindow="-120" windowWidth="28035" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-45252" yWindow="-6348" windowWidth="45360" windowHeight="26136" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="mySheet (4)" sheetId="4" r:id="rId1"/>
@@ -970,7 +970,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -998,7 +998,7 @@
       <c r="E1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>7</v>
       </c>
       <c r="G1" s="5" t="s">
@@ -1106,7 +1106,7 @@
       </c>
       <c r="E3">
         <f t="shared" si="0"/>
-        <v>3.0101010101010104</v>
+        <v>1.191919191919192</v>
       </c>
       <c r="F3">
         <f t="shared" si="0"/>
@@ -1164,7 +1164,7 @@
       </c>
       <c r="E4">
         <f t="shared" si="0"/>
-        <v>5.0202020202020208</v>
+        <v>1.3838383838383839</v>
       </c>
       <c r="F4">
         <f t="shared" si="0"/>
@@ -1222,7 +1222,7 @@
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
-        <v>7.0303030303030303</v>
+        <v>1.5757575757575757</v>
       </c>
       <c r="F5">
         <f t="shared" si="0"/>
@@ -1280,7 +1280,7 @@
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
-        <v>9.0404040404040416</v>
+        <v>1.7676767676767677</v>
       </c>
       <c r="F6">
         <f t="shared" si="0"/>
@@ -1338,7 +1338,7 @@
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
-        <v>11.05050505050505</v>
+        <v>1.9595959595959596</v>
       </c>
       <c r="F7">
         <f t="shared" si="0"/>
@@ -1396,7 +1396,7 @@
       </c>
       <c r="E8">
         <f t="shared" si="0"/>
-        <v>13.060606060606061</v>
+        <v>2.1515151515151514</v>
       </c>
       <c r="F8">
         <f t="shared" si="0"/>
@@ -1454,7 +1454,7 @@
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
-        <v>15.070707070707071</v>
+        <v>2.3434343434343434</v>
       </c>
       <c r="F9">
         <f t="shared" si="0"/>
@@ -1512,7 +1512,7 @@
       </c>
       <c r="E10">
         <f t="shared" si="0"/>
-        <v>17.080808080808083</v>
+        <v>2.5353535353535355</v>
       </c>
       <c r="F10">
         <f t="shared" si="0"/>
@@ -1570,7 +1570,7 @@
       </c>
       <c r="E11">
         <f t="shared" si="0"/>
-        <v>19.09090909090909</v>
+        <v>2.7272727272727275</v>
       </c>
       <c r="F11">
         <f t="shared" si="0"/>
@@ -1628,7 +1628,7 @@
       </c>
       <c r="E12">
         <f t="shared" si="0"/>
-        <v>21.1010101010101</v>
+        <v>2.9191919191919191</v>
       </c>
       <c r="F12">
         <f t="shared" si="0"/>
@@ -1686,7 +1686,7 @@
       </c>
       <c r="E13">
         <f t="shared" si="0"/>
-        <v>23.111111111111111</v>
+        <v>3.1111111111111112</v>
       </c>
       <c r="F13">
         <f t="shared" si="0"/>
@@ -1744,7 +1744,7 @@
       </c>
       <c r="E14">
         <f t="shared" si="0"/>
-        <v>25.121212121212121</v>
+        <v>3.3030303030303032</v>
       </c>
       <c r="F14">
         <f t="shared" si="0"/>
@@ -1802,7 +1802,7 @@
       </c>
       <c r="E15">
         <f t="shared" si="0"/>
-        <v>27.131313131313135</v>
+        <v>3.4949494949494953</v>
       </c>
       <c r="F15">
         <f t="shared" si="0"/>
@@ -1860,7 +1860,7 @@
       </c>
       <c r="E16">
         <f t="shared" si="0"/>
-        <v>29.141414141414142</v>
+        <v>3.6868686868686869</v>
       </c>
       <c r="F16">
         <f t="shared" si="0"/>
@@ -1918,7 +1918,7 @@
       </c>
       <c r="E17">
         <f t="shared" si="0"/>
-        <v>31.151515151515152</v>
+        <v>3.8787878787878789</v>
       </c>
       <c r="F17">
         <f t="shared" si="0"/>
@@ -1976,7 +1976,7 @@
       </c>
       <c r="E18">
         <f t="shared" si="0"/>
-        <v>33.161616161616166</v>
+        <v>4.0707070707070709</v>
       </c>
       <c r="F18">
         <f t="shared" si="0"/>
@@ -2034,7 +2034,7 @@
       </c>
       <c r="E19">
         <f t="shared" ref="E19:E82" si="5">(E$2+((SUM($A19-1)/SUM($A$101-1))*(SUM(E$101-E$2))))</f>
-        <v>35.171717171717169</v>
+        <v>4.262626262626263</v>
       </c>
       <c r="F19">
         <f t="shared" ref="F19:F82" si="6">(F$2+((SUM($A19-1)/SUM($A$101-1))*(SUM(F$101-F$2))))</f>
@@ -2092,7 +2092,7 @@
       </c>
       <c r="E20">
         <f t="shared" si="5"/>
-        <v>37.18181818181818</v>
+        <v>4.454545454545455</v>
       </c>
       <c r="F20">
         <f t="shared" si="6"/>
@@ -2150,7 +2150,7 @@
       </c>
       <c r="E21">
         <f t="shared" si="5"/>
-        <v>39.19191919191919</v>
+        <v>4.6464646464646462</v>
       </c>
       <c r="F21">
         <f t="shared" si="6"/>
@@ -2208,7 +2208,7 @@
       </c>
       <c r="E22">
         <f t="shared" si="5"/>
-        <v>41.202020202020201</v>
+        <v>4.8383838383838382</v>
       </c>
       <c r="F22">
         <f t="shared" si="6"/>
@@ -2266,7 +2266,7 @@
       </c>
       <c r="E23">
         <f t="shared" si="5"/>
-        <v>43.212121212121211</v>
+        <v>5.0303030303030303</v>
       </c>
       <c r="F23">
         <f t="shared" si="6"/>
@@ -2324,7 +2324,7 @@
       </c>
       <c r="E24">
         <f t="shared" si="5"/>
-        <v>45.222222222222221</v>
+        <v>5.2222222222222223</v>
       </c>
       <c r="F24">
         <f t="shared" si="6"/>
@@ -2382,7 +2382,7 @@
       </c>
       <c r="E25">
         <f t="shared" si="5"/>
-        <v>47.232323232323232</v>
+        <v>5.4141414141414144</v>
       </c>
       <c r="F25">
         <f t="shared" si="6"/>
@@ -2440,7 +2440,7 @@
       </c>
       <c r="E26">
         <f t="shared" si="5"/>
-        <v>49.242424242424242</v>
+        <v>5.6060606060606064</v>
       </c>
       <c r="F26">
         <f t="shared" si="6"/>
@@ -2498,7 +2498,7 @@
       </c>
       <c r="E27">
         <f t="shared" si="5"/>
-        <v>51.252525252525253</v>
+        <v>5.7979797979797985</v>
       </c>
       <c r="F27">
         <f t="shared" si="6"/>
@@ -2556,7 +2556,7 @@
       </c>
       <c r="E28">
         <f t="shared" si="5"/>
-        <v>53.26262626262627</v>
+        <v>5.9898989898989905</v>
       </c>
       <c r="F28">
         <f t="shared" si="6"/>
@@ -2614,7 +2614,7 @@
       </c>
       <c r="E29">
         <f t="shared" si="5"/>
-        <v>55.272727272727266</v>
+        <v>6.1818181818181817</v>
       </c>
       <c r="F29">
         <f t="shared" si="6"/>
@@ -2672,7 +2672,7 @@
       </c>
       <c r="E30">
         <f t="shared" si="5"/>
-        <v>57.282828282828284</v>
+        <v>6.3737373737373737</v>
       </c>
       <c r="F30">
         <f t="shared" si="6"/>
@@ -2730,7 +2730,7 @@
       </c>
       <c r="E31">
         <f t="shared" si="5"/>
-        <v>59.292929292929294</v>
+        <v>6.5656565656565657</v>
       </c>
       <c r="F31">
         <f t="shared" si="6"/>
@@ -2788,7 +2788,7 @@
       </c>
       <c r="E32">
         <f t="shared" si="5"/>
-        <v>61.303030303030305</v>
+        <v>6.7575757575757578</v>
       </c>
       <c r="F32">
         <f t="shared" si="6"/>
@@ -2846,7 +2846,7 @@
       </c>
       <c r="E33">
         <f t="shared" si="5"/>
-        <v>63.313131313131315</v>
+        <v>6.9494949494949498</v>
       </c>
       <c r="F33">
         <f t="shared" si="6"/>
@@ -2904,7 +2904,7 @@
       </c>
       <c r="E34">
         <f t="shared" si="5"/>
-        <v>65.323232323232332</v>
+        <v>7.1414141414141419</v>
       </c>
       <c r="F34">
         <f t="shared" si="6"/>
@@ -2962,7 +2962,7 @@
       </c>
       <c r="E35">
         <f t="shared" si="5"/>
-        <v>67.333333333333329</v>
+        <v>7.333333333333333</v>
       </c>
       <c r="F35">
         <f t="shared" si="6"/>
@@ -3020,7 +3020,7 @@
       </c>
       <c r="E36">
         <f t="shared" si="5"/>
-        <v>69.343434343434339</v>
+        <v>7.5252525252525251</v>
       </c>
       <c r="F36">
         <f t="shared" si="6"/>
@@ -3078,7 +3078,7 @@
       </c>
       <c r="E37">
         <f t="shared" si="5"/>
-        <v>71.353535353535349</v>
+        <v>7.7171717171717171</v>
       </c>
       <c r="F37">
         <f t="shared" si="6"/>
@@ -3136,7 +3136,7 @@
       </c>
       <c r="E38">
         <f t="shared" si="5"/>
-        <v>73.36363636363636</v>
+        <v>7.9090909090909092</v>
       </c>
       <c r="F38">
         <f t="shared" si="6"/>
@@ -3194,7 +3194,7 @@
       </c>
       <c r="E39">
         <f t="shared" si="5"/>
-        <v>75.373737373737384</v>
+        <v>8.1010101010101003</v>
       </c>
       <c r="F39">
         <f t="shared" si="6"/>
@@ -3252,7 +3252,7 @@
       </c>
       <c r="E40">
         <f t="shared" si="5"/>
-        <v>77.383838383838381</v>
+        <v>8.2929292929292924</v>
       </c>
       <c r="F40">
         <f t="shared" si="6"/>
@@ -3310,7 +3310,7 @@
       </c>
       <c r="E41">
         <f t="shared" si="5"/>
-        <v>79.393939393939391</v>
+        <v>8.4848484848484844</v>
       </c>
       <c r="F41">
         <f t="shared" si="6"/>
@@ -3368,7 +3368,7 @@
       </c>
       <c r="E42">
         <f t="shared" si="5"/>
-        <v>81.404040404040401</v>
+        <v>8.6767676767676765</v>
       </c>
       <c r="F42">
         <f t="shared" si="6"/>
@@ -3426,7 +3426,7 @@
       </c>
       <c r="E43">
         <f t="shared" si="5"/>
-        <v>83.414141414141412</v>
+        <v>8.8686868686868685</v>
       </c>
       <c r="F43">
         <f t="shared" si="6"/>
@@ -3484,7 +3484,7 @@
       </c>
       <c r="E44">
         <f t="shared" si="5"/>
-        <v>85.424242424242422</v>
+        <v>9.0606060606060606</v>
       </c>
       <c r="F44">
         <f t="shared" si="6"/>
@@ -3542,7 +3542,7 @@
       </c>
       <c r="E45">
         <f t="shared" si="5"/>
-        <v>87.434343434343432</v>
+        <v>9.2525252525252526</v>
       </c>
       <c r="F45">
         <f t="shared" si="6"/>
@@ -3600,7 +3600,7 @@
       </c>
       <c r="E46">
         <f t="shared" si="5"/>
-        <v>89.444444444444443</v>
+        <v>9.4444444444444446</v>
       </c>
       <c r="F46">
         <f t="shared" si="6"/>
@@ -3658,7 +3658,7 @@
       </c>
       <c r="E47">
         <f t="shared" si="5"/>
-        <v>91.454545454545453</v>
+        <v>9.6363636363636367</v>
       </c>
       <c r="F47">
         <f t="shared" si="6"/>
@@ -3716,7 +3716,7 @@
       </c>
       <c r="E48">
         <f t="shared" si="5"/>
-        <v>93.464646464646464</v>
+        <v>9.8282828282828287</v>
       </c>
       <c r="F48">
         <f t="shared" si="6"/>
@@ -3774,7 +3774,7 @@
       </c>
       <c r="E49">
         <f t="shared" si="5"/>
-        <v>95.474747474747474</v>
+        <v>10.020202020202021</v>
       </c>
       <c r="F49">
         <f t="shared" si="6"/>
@@ -3832,7 +3832,7 @@
       </c>
       <c r="E50">
         <f t="shared" si="5"/>
-        <v>97.484848484848484</v>
+        <v>10.212121212121213</v>
       </c>
       <c r="F50">
         <f t="shared" si="6"/>
@@ -3890,7 +3890,7 @@
       </c>
       <c r="E51">
         <f t="shared" si="5"/>
-        <v>99.494949494949495</v>
+        <v>10.404040404040405</v>
       </c>
       <c r="F51">
         <f t="shared" si="6"/>
@@ -3948,7 +3948,7 @@
       </c>
       <c r="E52">
         <f t="shared" si="5"/>
-        <v>101.50505050505051</v>
+        <v>10.595959595959597</v>
       </c>
       <c r="F52">
         <f t="shared" si="6"/>
@@ -4006,7 +4006,7 @@
       </c>
       <c r="E53">
         <f t="shared" si="5"/>
-        <v>103.51515151515152</v>
+        <v>10.787878787878787</v>
       </c>
       <c r="F53">
         <f t="shared" si="6"/>
@@ -4064,7 +4064,7 @@
       </c>
       <c r="E54">
         <f t="shared" si="5"/>
-        <v>105.52525252525254</v>
+        <v>10.979797979797981</v>
       </c>
       <c r="F54">
         <f t="shared" si="6"/>
@@ -4122,7 +4122,7 @@
       </c>
       <c r="E55">
         <f t="shared" si="5"/>
-        <v>107.53535353535354</v>
+        <v>11.171717171717171</v>
       </c>
       <c r="F55">
         <f t="shared" si="6"/>
@@ -4180,7 +4180,7 @@
       </c>
       <c r="E56">
         <f t="shared" si="5"/>
-        <v>109.54545454545453</v>
+        <v>11.363636363636363</v>
       </c>
       <c r="F56">
         <f t="shared" si="6"/>
@@ -4238,7 +4238,7 @@
       </c>
       <c r="E57">
         <f t="shared" si="5"/>
-        <v>111.55555555555556</v>
+        <v>11.555555555555555</v>
       </c>
       <c r="F57">
         <f t="shared" si="6"/>
@@ -4296,7 +4296,7 @@
       </c>
       <c r="E58">
         <f t="shared" si="5"/>
-        <v>113.56565656565657</v>
+        <v>11.747474747474747</v>
       </c>
       <c r="F58">
         <f t="shared" si="6"/>
@@ -4354,7 +4354,7 @@
       </c>
       <c r="E59">
         <f t="shared" si="5"/>
-        <v>115.57575757575758</v>
+        <v>11.939393939393939</v>
       </c>
       <c r="F59">
         <f t="shared" si="6"/>
@@ -4412,7 +4412,7 @@
       </c>
       <c r="E60">
         <f t="shared" si="5"/>
-        <v>117.58585858585859</v>
+        <v>12.131313131313131</v>
       </c>
       <c r="F60">
         <f t="shared" si="6"/>
@@ -4470,7 +4470,7 @@
       </c>
       <c r="E61">
         <f t="shared" si="5"/>
-        <v>119.59595959595958</v>
+        <v>12.323232323232322</v>
       </c>
       <c r="F61">
         <f t="shared" si="6"/>
@@ -4528,7 +4528,7 @@
       </c>
       <c r="E62">
         <f t="shared" si="5"/>
-        <v>121.60606060606061</v>
+        <v>12.515151515151516</v>
       </c>
       <c r="F62">
         <f t="shared" si="6"/>
@@ -4586,7 +4586,7 @@
       </c>
       <c r="E63">
         <f t="shared" si="5"/>
-        <v>123.61616161616161</v>
+        <v>12.707070707070706</v>
       </c>
       <c r="F63">
         <f t="shared" si="6"/>
@@ -4644,7 +4644,7 @@
       </c>
       <c r="E64">
         <f t="shared" si="5"/>
-        <v>125.62626262626263</v>
+        <v>12.8989898989899</v>
       </c>
       <c r="F64">
         <f t="shared" si="6"/>
@@ -4702,7 +4702,7 @@
       </c>
       <c r="E65">
         <f t="shared" si="5"/>
-        <v>127.63636363636364</v>
+        <v>13.09090909090909</v>
       </c>
       <c r="F65">
         <f t="shared" si="6"/>
@@ -4760,7 +4760,7 @@
       </c>
       <c r="E66">
         <f t="shared" si="5"/>
-        <v>129.64646464646466</v>
+        <v>13.282828282828284</v>
       </c>
       <c r="F66">
         <f t="shared" si="6"/>
@@ -4818,7 +4818,7 @@
       </c>
       <c r="E67">
         <f t="shared" si="5"/>
-        <v>131.65656565656565</v>
+        <v>13.474747474747474</v>
       </c>
       <c r="F67">
         <f t="shared" si="6"/>
@@ -4876,7 +4876,7 @@
       </c>
       <c r="E68">
         <f t="shared" si="5"/>
-        <v>133.66666666666666</v>
+        <v>13.666666666666666</v>
       </c>
       <c r="F68">
         <f t="shared" si="6"/>
@@ -4934,7 +4934,7 @@
       </c>
       <c r="E69">
         <f t="shared" si="5"/>
-        <v>135.6767676767677</v>
+        <v>13.85858585858586</v>
       </c>
       <c r="F69">
         <f t="shared" si="6"/>
@@ -4992,7 +4992,7 @@
       </c>
       <c r="E70">
         <f t="shared" si="5"/>
-        <v>137.68686868686868</v>
+        <v>14.05050505050505</v>
       </c>
       <c r="F70">
         <f t="shared" si="6"/>
@@ -5050,7 +5050,7 @@
       </c>
       <c r="E71">
         <f t="shared" si="5"/>
-        <v>139.69696969696972</v>
+        <v>14.242424242424244</v>
       </c>
       <c r="F71">
         <f t="shared" si="6"/>
@@ -5108,7 +5108,7 @@
       </c>
       <c r="E72">
         <f t="shared" si="5"/>
-        <v>141.7070707070707</v>
+        <v>14.434343434343434</v>
       </c>
       <c r="F72">
         <f t="shared" si="6"/>
@@ -5166,7 +5166,7 @@
       </c>
       <c r="E73">
         <f t="shared" si="5"/>
-        <v>143.71717171717171</v>
+        <v>14.626262626262626</v>
       </c>
       <c r="F73">
         <f t="shared" si="6"/>
@@ -5224,7 +5224,7 @@
       </c>
       <c r="E74">
         <f t="shared" si="5"/>
-        <v>145.72727272727272</v>
+        <v>14.818181818181818</v>
       </c>
       <c r="F74">
         <f t="shared" si="6"/>
@@ -5282,7 +5282,7 @@
       </c>
       <c r="E75">
         <f t="shared" si="5"/>
-        <v>147.73737373737373</v>
+        <v>15.01010101010101</v>
       </c>
       <c r="F75">
         <f t="shared" si="6"/>
@@ -5340,7 +5340,7 @@
       </c>
       <c r="E76">
         <f t="shared" si="5"/>
-        <v>149.74747474747477</v>
+        <v>15.202020202020202</v>
       </c>
       <c r="F76">
         <f t="shared" si="6"/>
@@ -5398,7 +5398,7 @@
       </c>
       <c r="E77">
         <f t="shared" si="5"/>
-        <v>151.75757575757575</v>
+        <v>15.393939393939394</v>
       </c>
       <c r="F77">
         <f t="shared" si="6"/>
@@ -5456,7 +5456,7 @@
       </c>
       <c r="E78">
         <f t="shared" si="5"/>
-        <v>153.76767676767676</v>
+        <v>15.585858585858585</v>
       </c>
       <c r="F78">
         <f t="shared" si="6"/>
@@ -5514,7 +5514,7 @@
       </c>
       <c r="E79">
         <f t="shared" si="5"/>
-        <v>155.77777777777777</v>
+        <v>15.777777777777779</v>
       </c>
       <c r="F79">
         <f t="shared" si="6"/>
@@ -5572,7 +5572,7 @@
       </c>
       <c r="E80">
         <f t="shared" si="5"/>
-        <v>157.78787878787878</v>
+        <v>15.969696969696969</v>
       </c>
       <c r="F80">
         <f t="shared" si="6"/>
@@ -5630,7 +5630,7 @@
       </c>
       <c r="E81">
         <f t="shared" si="5"/>
-        <v>159.79797979797979</v>
+        <v>16.161616161616163</v>
       </c>
       <c r="F81">
         <f t="shared" si="6"/>
@@ -5688,7 +5688,7 @@
       </c>
       <c r="E82">
         <f t="shared" si="5"/>
-        <v>161.8080808080808</v>
+        <v>16.353535353535353</v>
       </c>
       <c r="F82">
         <f t="shared" si="6"/>
@@ -5746,7 +5746,7 @@
       </c>
       <c r="E83">
         <f t="shared" ref="E83:E100" si="11">(E$2+((SUM($A83-1)/SUM($A$101-1))*(SUM(E$101-E$2))))</f>
-        <v>163.81818181818184</v>
+        <v>16.545454545454547</v>
       </c>
       <c r="F83">
         <f t="shared" ref="F83:F100" si="12">(F$2+((SUM($A83-1)/SUM($A$101-1))*(SUM(F$101-F$2))))</f>
@@ -5804,7 +5804,7 @@
       </c>
       <c r="E84">
         <f t="shared" si="11"/>
-        <v>165.82828282828282</v>
+        <v>16.737373737373737</v>
       </c>
       <c r="F84">
         <f t="shared" si="12"/>
@@ -5862,7 +5862,7 @@
       </c>
       <c r="E85">
         <f t="shared" si="11"/>
-        <v>167.83838383838383</v>
+        <v>16.929292929292927</v>
       </c>
       <c r="F85">
         <f t="shared" si="12"/>
@@ -5920,7 +5920,7 @@
       </c>
       <c r="E86">
         <f t="shared" si="11"/>
-        <v>169.84848484848484</v>
+        <v>17.121212121212121</v>
       </c>
       <c r="F86">
         <f t="shared" si="12"/>
@@ -5978,7 +5978,7 @@
       </c>
       <c r="E87">
         <f t="shared" si="11"/>
-        <v>171.85858585858585</v>
+        <v>17.313131313131311</v>
       </c>
       <c r="F87">
         <f t="shared" si="12"/>
@@ -6036,7 +6036,7 @@
       </c>
       <c r="E88">
         <f t="shared" si="11"/>
-        <v>173.86868686868686</v>
+        <v>17.505050505050505</v>
       </c>
       <c r="F88">
         <f t="shared" si="12"/>
@@ -6094,7 +6094,7 @@
       </c>
       <c r="E89">
         <f t="shared" si="11"/>
-        <v>175.87878787878788</v>
+        <v>17.696969696969695</v>
       </c>
       <c r="F89">
         <f t="shared" si="12"/>
@@ -6152,7 +6152,7 @@
       </c>
       <c r="E90">
         <f t="shared" si="11"/>
-        <v>177.88888888888889</v>
+        <v>17.888888888888889</v>
       </c>
       <c r="F90">
         <f t="shared" si="12"/>
@@ -6210,7 +6210,7 @@
       </c>
       <c r="E91">
         <f t="shared" si="11"/>
-        <v>179.8989898989899</v>
+        <v>18.08080808080808</v>
       </c>
       <c r="F91">
         <f t="shared" si="12"/>
@@ -6268,7 +6268,7 @@
       </c>
       <c r="E92">
         <f t="shared" si="11"/>
-        <v>181.90909090909091</v>
+        <v>18.272727272727273</v>
       </c>
       <c r="F92">
         <f t="shared" si="12"/>
@@ -6326,7 +6326,7 @@
       </c>
       <c r="E93">
         <f t="shared" si="11"/>
-        <v>183.91919191919192</v>
+        <v>18.464646464646464</v>
       </c>
       <c r="F93">
         <f t="shared" si="12"/>
@@ -6384,7 +6384,7 @@
       </c>
       <c r="E94">
         <f t="shared" si="11"/>
-        <v>185.92929292929293</v>
+        <v>18.656565656565657</v>
       </c>
       <c r="F94">
         <f t="shared" si="12"/>
@@ -6442,7 +6442,7 @@
       </c>
       <c r="E95">
         <f t="shared" si="11"/>
-        <v>187.93939393939394</v>
+        <v>18.848484848484851</v>
       </c>
       <c r="F95">
         <f t="shared" si="12"/>
@@ -6500,7 +6500,7 @@
       </c>
       <c r="E96">
         <f t="shared" si="11"/>
-        <v>189.94949494949495</v>
+        <v>19.040404040404042</v>
       </c>
       <c r="F96">
         <f t="shared" si="12"/>
@@ -6558,7 +6558,7 @@
       </c>
       <c r="E97">
         <f t="shared" si="11"/>
-        <v>191.95959595959596</v>
+        <v>19.232323232323232</v>
       </c>
       <c r="F97">
         <f t="shared" si="12"/>
@@ -6616,7 +6616,7 @@
       </c>
       <c r="E98">
         <f t="shared" si="11"/>
-        <v>193.96969696969697</v>
+        <v>19.424242424242426</v>
       </c>
       <c r="F98">
         <f t="shared" si="12"/>
@@ -6674,7 +6674,7 @@
       </c>
       <c r="E99">
         <f t="shared" si="11"/>
-        <v>195.97979797979798</v>
+        <v>19.616161616161616</v>
       </c>
       <c r="F99">
         <f t="shared" si="12"/>
@@ -6732,7 +6732,7 @@
       </c>
       <c r="E100">
         <f t="shared" si="11"/>
-        <v>197.98989898989899</v>
+        <v>19.80808080808081</v>
       </c>
       <c r="F100">
         <f t="shared" si="12"/>
@@ -6786,7 +6786,7 @@
         <v>0.3</v>
       </c>
       <c r="E101" s="1">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="F101">
         <v>20</v>

--- a/RotoShootUnityProject/Assets/Resources/mySheet.xlsx
+++ b/RotoShootUnityProject/Assets/Resources/mySheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming\UnityProjects\RotoShoot\RotoShootUnityProject\Assets\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UnityProjects\RotoShoot\RotoShootUnityProject\Assets\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DD8B8B9-2F56-4956-BD5E-175049FAE2DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D934EC4F-0BF4-4FB2-877E-A7CFF8806A98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-45252" yWindow="-6348" windowWidth="45360" windowHeight="26136" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="885" yWindow="-120" windowWidth="28035" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="mySheet (4)" sheetId="4" r:id="rId1"/>
@@ -979,6 +979,7 @@
     <col min="3" max="4" width="20.5703125" customWidth="1"/>
     <col min="5" max="5" width="18.7109375" customWidth="1"/>
     <col min="6" max="6" width="19.85546875" customWidth="1"/>
+    <col min="7" max="7" width="18.5703125" customWidth="1"/>
     <col min="17" max="17" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1001,7 +1002,7 @@
       <c r="F1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>8</v>
       </c>
       <c r="H1" s="5" t="s">
@@ -1049,13 +1050,13 @@
         <v>5</v>
       </c>
       <c r="E2" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F2" s="1">
         <v>5</v>
       </c>
       <c r="G2" s="1">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="H2" s="1">
         <v>-1</v>
@@ -1097,7 +1098,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:F18" si="0">(C$2+((SUM($A3-1)/SUM($A$101-1))*(SUM(C$101-C$2))))</f>
+        <f t="shared" ref="C3:G18" si="0">(C$2+((SUM($A3-1)/SUM($A$101-1))*(SUM(C$101-C$2))))</f>
         <v>2.9707070707070709</v>
       </c>
       <c r="D3">
@@ -1106,14 +1107,15 @@
       </c>
       <c r="E3">
         <f t="shared" si="0"/>
-        <v>1.191919191919192</v>
+        <v>5.1515151515151514</v>
       </c>
       <c r="F3">
         <f t="shared" si="0"/>
         <v>5.1515151515151514</v>
       </c>
       <c r="G3">
-        <v>-1</v>
+        <f t="shared" si="0"/>
+        <v>10.90909090909091</v>
       </c>
       <c r="H3">
         <v>-1</v>
@@ -1164,14 +1166,15 @@
       </c>
       <c r="E4">
         <f t="shared" si="0"/>
-        <v>1.3838383838383839</v>
+        <v>5.3030303030303028</v>
       </c>
       <c r="F4">
         <f t="shared" si="0"/>
         <v>5.3030303030303028</v>
       </c>
       <c r="G4">
-        <v>-1</v>
+        <f t="shared" si="0"/>
+        <v>11.818181818181818</v>
       </c>
       <c r="H4">
         <v>-1</v>
@@ -1222,14 +1225,15 @@
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
-        <v>1.5757575757575757</v>
+        <v>5.454545454545455</v>
       </c>
       <c r="F5">
         <f t="shared" si="0"/>
         <v>5.454545454545455</v>
       </c>
       <c r="G5">
-        <v>-1</v>
+        <f t="shared" si="0"/>
+        <v>12.727272727272727</v>
       </c>
       <c r="H5">
         <v>-1</v>
@@ -1280,14 +1284,15 @@
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
-        <v>1.7676767676767677</v>
+        <v>5.6060606060606064</v>
       </c>
       <c r="F6">
         <f t="shared" si="0"/>
         <v>5.6060606060606064</v>
       </c>
       <c r="G6">
-        <v>-1</v>
+        <f t="shared" si="0"/>
+        <v>13.636363636363637</v>
       </c>
       <c r="H6">
         <v>-1</v>
@@ -1338,14 +1343,15 @@
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
-        <v>1.9595959595959596</v>
+        <v>5.7575757575757578</v>
       </c>
       <c r="F7">
         <f t="shared" si="0"/>
         <v>5.7575757575757578</v>
       </c>
       <c r="G7">
-        <v>-1</v>
+        <f t="shared" si="0"/>
+        <v>14.545454545454545</v>
       </c>
       <c r="H7">
         <v>-1</v>
@@ -1396,14 +1402,15 @@
       </c>
       <c r="E8">
         <f t="shared" si="0"/>
-        <v>2.1515151515151514</v>
+        <v>5.9090909090909092</v>
       </c>
       <c r="F8">
         <f t="shared" si="0"/>
         <v>5.9090909090909092</v>
       </c>
       <c r="G8">
-        <v>-1</v>
+        <f t="shared" si="0"/>
+        <v>15.454545454545455</v>
       </c>
       <c r="H8">
         <v>-1</v>
@@ -1454,14 +1461,15 @@
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
-        <v>2.3434343434343434</v>
+        <v>6.0606060606060606</v>
       </c>
       <c r="F9">
         <f t="shared" si="0"/>
         <v>6.0606060606060606</v>
       </c>
       <c r="G9">
-        <v>-1</v>
+        <f t="shared" si="0"/>
+        <v>16.363636363636363</v>
       </c>
       <c r="H9">
         <v>-1</v>
@@ -1512,14 +1520,15 @@
       </c>
       <c r="E10">
         <f t="shared" si="0"/>
-        <v>2.5353535353535355</v>
+        <v>6.2121212121212119</v>
       </c>
       <c r="F10">
         <f t="shared" si="0"/>
         <v>6.2121212121212119</v>
       </c>
       <c r="G10">
-        <v>-1</v>
+        <f t="shared" si="0"/>
+        <v>17.272727272727273</v>
       </c>
       <c r="H10">
         <v>-1</v>
@@ -1570,14 +1579,15 @@
       </c>
       <c r="E11">
         <f t="shared" si="0"/>
-        <v>2.7272727272727275</v>
+        <v>6.3636363636363633</v>
       </c>
       <c r="F11">
         <f t="shared" si="0"/>
         <v>6.3636363636363633</v>
       </c>
       <c r="G11">
-        <v>-1</v>
+        <f t="shared" si="0"/>
+        <v>18.18181818181818</v>
       </c>
       <c r="H11">
         <v>-1</v>
@@ -1628,14 +1638,15 @@
       </c>
       <c r="E12">
         <f t="shared" si="0"/>
-        <v>2.9191919191919191</v>
+        <v>6.5151515151515156</v>
       </c>
       <c r="F12">
         <f t="shared" si="0"/>
         <v>6.5151515151515156</v>
       </c>
       <c r="G12">
-        <v>-1</v>
+        <f t="shared" si="0"/>
+        <v>19.09090909090909</v>
       </c>
       <c r="H12">
         <v>-1</v>
@@ -1686,14 +1697,15 @@
       </c>
       <c r="E13">
         <f t="shared" si="0"/>
-        <v>3.1111111111111112</v>
+        <v>6.6666666666666661</v>
       </c>
       <c r="F13">
         <f t="shared" si="0"/>
         <v>6.6666666666666661</v>
       </c>
       <c r="G13">
-        <v>-1</v>
+        <f t="shared" si="0"/>
+        <v>20</v>
       </c>
       <c r="H13">
         <v>-1</v>
@@ -1744,14 +1756,15 @@
       </c>
       <c r="E14">
         <f t="shared" si="0"/>
-        <v>3.3030303030303032</v>
+        <v>6.8181818181818183</v>
       </c>
       <c r="F14">
         <f t="shared" si="0"/>
         <v>6.8181818181818183</v>
       </c>
       <c r="G14">
-        <v>-1</v>
+        <f t="shared" si="0"/>
+        <v>20.90909090909091</v>
       </c>
       <c r="H14">
         <v>-1</v>
@@ -1802,14 +1815,15 @@
       </c>
       <c r="E15">
         <f t="shared" si="0"/>
-        <v>3.4949494949494953</v>
+        <v>6.9696969696969697</v>
       </c>
       <c r="F15">
         <f t="shared" si="0"/>
         <v>6.9696969696969697</v>
       </c>
       <c r="G15">
-        <v>-1</v>
+        <f t="shared" si="0"/>
+        <v>21.81818181818182</v>
       </c>
       <c r="H15">
         <v>-1</v>
@@ -1860,14 +1874,15 @@
       </c>
       <c r="E16">
         <f t="shared" si="0"/>
-        <v>3.6868686868686869</v>
+        <v>7.1212121212121211</v>
       </c>
       <c r="F16">
         <f t="shared" si="0"/>
         <v>7.1212121212121211</v>
       </c>
       <c r="G16">
-        <v>-1</v>
+        <f t="shared" si="0"/>
+        <v>22.727272727272727</v>
       </c>
       <c r="H16">
         <v>-1</v>
@@ -1918,14 +1933,15 @@
       </c>
       <c r="E17">
         <f t="shared" si="0"/>
-        <v>3.8787878787878789</v>
+        <v>7.2727272727272734</v>
       </c>
       <c r="F17">
         <f t="shared" si="0"/>
         <v>7.2727272727272734</v>
       </c>
       <c r="G17">
-        <v>-1</v>
+        <f t="shared" si="0"/>
+        <v>23.636363636363637</v>
       </c>
       <c r="H17">
         <v>-1</v>
@@ -1976,14 +1992,15 @@
       </c>
       <c r="E18">
         <f t="shared" si="0"/>
-        <v>4.0707070707070709</v>
+        <v>7.4242424242424239</v>
       </c>
       <c r="F18">
         <f t="shared" si="0"/>
         <v>7.4242424242424239</v>
       </c>
       <c r="G18">
-        <v>-1</v>
+        <f t="shared" si="0"/>
+        <v>24.545454545454547</v>
       </c>
       <c r="H18">
         <v>-1</v>
@@ -2034,14 +2051,15 @@
       </c>
       <c r="E19">
         <f t="shared" ref="E19:E82" si="5">(E$2+((SUM($A19-1)/SUM($A$101-1))*(SUM(E$101-E$2))))</f>
-        <v>4.262626262626263</v>
+        <v>7.5757575757575761</v>
       </c>
       <c r="F19">
         <f t="shared" ref="F19:F82" si="6">(F$2+((SUM($A19-1)/SUM($A$101-1))*(SUM(F$101-F$2))))</f>
         <v>7.5757575757575761</v>
       </c>
       <c r="G19">
-        <v>-1</v>
+        <f t="shared" ref="G19:G82" si="7">(G$2+((SUM($A19-1)/SUM($A$101-1))*(SUM(G$101-G$2))))</f>
+        <v>25.454545454545453</v>
       </c>
       <c r="H19">
         <v>-1</v>
@@ -2092,14 +2110,15 @@
       </c>
       <c r="E20">
         <f t="shared" si="5"/>
-        <v>4.454545454545455</v>
+        <v>7.7272727272727275</v>
       </c>
       <c r="F20">
         <f t="shared" si="6"/>
         <v>7.7272727272727275</v>
       </c>
       <c r="G20">
-        <v>-1</v>
+        <f t="shared" si="7"/>
+        <v>26.363636363636363</v>
       </c>
       <c r="H20">
         <v>-1</v>
@@ -2150,14 +2169,15 @@
       </c>
       <c r="E21">
         <f t="shared" si="5"/>
-        <v>4.6464646464646462</v>
+        <v>7.8787878787878789</v>
       </c>
       <c r="F21">
         <f t="shared" si="6"/>
         <v>7.8787878787878789</v>
       </c>
       <c r="G21">
-        <v>-1</v>
+        <f t="shared" si="7"/>
+        <v>27.27272727272727</v>
       </c>
       <c r="H21">
         <v>-1</v>
@@ -2208,14 +2228,15 @@
       </c>
       <c r="E22">
         <f t="shared" si="5"/>
-        <v>4.8383838383838382</v>
+        <v>8.0303030303030312</v>
       </c>
       <c r="F22">
         <f t="shared" si="6"/>
         <v>8.0303030303030312</v>
       </c>
       <c r="G22">
-        <v>-1</v>
+        <f t="shared" si="7"/>
+        <v>28.18181818181818</v>
       </c>
       <c r="H22">
         <v>-1</v>
@@ -2266,14 +2287,15 @@
       </c>
       <c r="E23">
         <f t="shared" si="5"/>
-        <v>5.0303030303030303</v>
+        <v>8.1818181818181817</v>
       </c>
       <c r="F23">
         <f t="shared" si="6"/>
         <v>8.1818181818181817</v>
       </c>
       <c r="G23">
-        <v>-1</v>
+        <f t="shared" si="7"/>
+        <v>29.09090909090909</v>
       </c>
       <c r="H23">
         <v>-1</v>
@@ -2324,14 +2346,15 @@
       </c>
       <c r="E24">
         <f t="shared" si="5"/>
-        <v>5.2222222222222223</v>
+        <v>8.3333333333333321</v>
       </c>
       <c r="F24">
         <f t="shared" si="6"/>
         <v>8.3333333333333321</v>
       </c>
       <c r="G24">
-        <v>-1</v>
+        <f t="shared" si="7"/>
+        <v>30</v>
       </c>
       <c r="H24">
         <v>-1</v>
@@ -2382,14 +2405,15 @@
       </c>
       <c r="E25">
         <f t="shared" si="5"/>
-        <v>5.4141414141414144</v>
+        <v>8.4848484848484844</v>
       </c>
       <c r="F25">
         <f t="shared" si="6"/>
         <v>8.4848484848484844</v>
       </c>
       <c r="G25">
-        <v>-1</v>
+        <f t="shared" si="7"/>
+        <v>30.90909090909091</v>
       </c>
       <c r="H25">
         <v>-1</v>
@@ -2440,14 +2464,15 @@
       </c>
       <c r="E26">
         <f t="shared" si="5"/>
-        <v>5.6060606060606064</v>
+        <v>8.6363636363636367</v>
       </c>
       <c r="F26">
         <f t="shared" si="6"/>
         <v>8.6363636363636367</v>
       </c>
       <c r="G26">
-        <v>-1</v>
+        <f t="shared" si="7"/>
+        <v>31.81818181818182</v>
       </c>
       <c r="H26">
         <v>-1</v>
@@ -2498,14 +2523,15 @@
       </c>
       <c r="E27">
         <f t="shared" si="5"/>
-        <v>5.7979797979797985</v>
+        <v>8.787878787878789</v>
       </c>
       <c r="F27">
         <f t="shared" si="6"/>
         <v>8.787878787878789</v>
       </c>
       <c r="G27">
-        <v>-1</v>
+        <f t="shared" si="7"/>
+        <v>32.727272727272734</v>
       </c>
       <c r="H27">
         <v>-1</v>
@@ -2556,14 +2582,15 @@
       </c>
       <c r="E28">
         <f t="shared" si="5"/>
-        <v>5.9898989898989905</v>
+        <v>8.9393939393939394</v>
       </c>
       <c r="F28">
         <f t="shared" si="6"/>
         <v>8.9393939393939394</v>
       </c>
       <c r="G28">
-        <v>-1</v>
+        <f t="shared" si="7"/>
+        <v>33.63636363636364</v>
       </c>
       <c r="H28">
         <v>-1</v>
@@ -2614,14 +2641,15 @@
       </c>
       <c r="E29">
         <f t="shared" si="5"/>
-        <v>6.1818181818181817</v>
+        <v>9.0909090909090899</v>
       </c>
       <c r="F29">
         <f t="shared" si="6"/>
         <v>9.0909090909090899</v>
       </c>
       <c r="G29">
-        <v>-1</v>
+        <f t="shared" si="7"/>
+        <v>34.545454545454547</v>
       </c>
       <c r="H29">
         <v>-1</v>
@@ -2672,14 +2700,15 @@
       </c>
       <c r="E30">
         <f t="shared" si="5"/>
-        <v>6.3737373737373737</v>
+        <v>9.2424242424242422</v>
       </c>
       <c r="F30">
         <f t="shared" si="6"/>
         <v>9.2424242424242422</v>
       </c>
       <c r="G30">
-        <v>-1</v>
+        <f t="shared" si="7"/>
+        <v>35.454545454545453</v>
       </c>
       <c r="H30">
         <v>-1</v>
@@ -2730,14 +2759,15 @@
       </c>
       <c r="E31">
         <f t="shared" si="5"/>
-        <v>6.5656565656565657</v>
+        <v>9.3939393939393945</v>
       </c>
       <c r="F31">
         <f t="shared" si="6"/>
         <v>9.3939393939393945</v>
       </c>
       <c r="G31">
-        <v>-1</v>
+        <f t="shared" si="7"/>
+        <v>36.36363636363636</v>
       </c>
       <c r="H31">
         <v>-1</v>
@@ -2788,14 +2818,15 @@
       </c>
       <c r="E32">
         <f t="shared" si="5"/>
-        <v>6.7575757575757578</v>
+        <v>9.5454545454545467</v>
       </c>
       <c r="F32">
         <f t="shared" si="6"/>
         <v>9.5454545454545467</v>
       </c>
       <c r="G32">
-        <v>-1</v>
+        <f t="shared" si="7"/>
+        <v>37.272727272727273</v>
       </c>
       <c r="H32">
         <v>-1</v>
@@ -2846,14 +2877,15 @@
       </c>
       <c r="E33">
         <f t="shared" si="5"/>
-        <v>6.9494949494949498</v>
+        <v>9.6969696969696972</v>
       </c>
       <c r="F33">
         <f t="shared" si="6"/>
         <v>9.6969696969696972</v>
       </c>
       <c r="G33">
-        <v>-1</v>
+        <f t="shared" si="7"/>
+        <v>38.181818181818187</v>
       </c>
       <c r="H33">
         <v>-1</v>
@@ -2904,14 +2936,15 @@
       </c>
       <c r="E34">
         <f t="shared" si="5"/>
-        <v>7.1414141414141419</v>
+        <v>9.8484848484848477</v>
       </c>
       <c r="F34">
         <f t="shared" si="6"/>
         <v>9.8484848484848477</v>
       </c>
       <c r="G34">
-        <v>-1</v>
+        <f t="shared" si="7"/>
+        <v>39.090909090909093</v>
       </c>
       <c r="H34">
         <v>-1</v>
@@ -2962,14 +2995,15 @@
       </c>
       <c r="E35">
         <f t="shared" si="5"/>
-        <v>7.333333333333333</v>
+        <v>10</v>
       </c>
       <c r="F35">
         <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="G35">
-        <v>-1</v>
+        <f t="shared" si="7"/>
+        <v>40</v>
       </c>
       <c r="H35">
         <v>-1</v>
@@ -3020,14 +3054,15 @@
       </c>
       <c r="E36">
         <f t="shared" si="5"/>
-        <v>7.5252525252525251</v>
+        <v>10.151515151515152</v>
       </c>
       <c r="F36">
         <f t="shared" si="6"/>
         <v>10.151515151515152</v>
       </c>
       <c r="G36">
-        <v>-1</v>
+        <f t="shared" si="7"/>
+        <v>40.909090909090907</v>
       </c>
       <c r="H36">
         <v>-1</v>
@@ -3078,14 +3113,15 @@
       </c>
       <c r="E37">
         <f t="shared" si="5"/>
-        <v>7.7171717171717171</v>
+        <v>10.303030303030303</v>
       </c>
       <c r="F37">
         <f t="shared" si="6"/>
         <v>10.303030303030303</v>
       </c>
       <c r="G37">
-        <v>-1</v>
+        <f t="shared" si="7"/>
+        <v>41.818181818181813</v>
       </c>
       <c r="H37">
         <v>-1</v>
@@ -3136,14 +3172,15 @@
       </c>
       <c r="E38">
         <f t="shared" si="5"/>
-        <v>7.9090909090909092</v>
+        <v>10.454545454545455</v>
       </c>
       <c r="F38">
         <f t="shared" si="6"/>
         <v>10.454545454545455</v>
       </c>
       <c r="G38">
-        <v>-1</v>
+        <f t="shared" si="7"/>
+        <v>42.727272727272727</v>
       </c>
       <c r="H38">
         <v>-1</v>
@@ -3194,14 +3231,15 @@
       </c>
       <c r="E39">
         <f t="shared" si="5"/>
-        <v>8.1010101010101003</v>
+        <v>10.606060606060606</v>
       </c>
       <c r="F39">
         <f t="shared" si="6"/>
         <v>10.606060606060606</v>
       </c>
       <c r="G39">
-        <v>-1</v>
+        <f t="shared" si="7"/>
+        <v>43.63636363636364</v>
       </c>
       <c r="H39">
         <v>-1</v>
@@ -3252,14 +3290,15 @@
       </c>
       <c r="E40">
         <f t="shared" si="5"/>
-        <v>8.2929292929292924</v>
+        <v>10.757575757575758</v>
       </c>
       <c r="F40">
         <f t="shared" si="6"/>
         <v>10.757575757575758</v>
       </c>
       <c r="G40">
-        <v>-1</v>
+        <f t="shared" si="7"/>
+        <v>44.54545454545454</v>
       </c>
       <c r="H40">
         <v>-1</v>
@@ -3310,14 +3349,15 @@
       </c>
       <c r="E41">
         <f t="shared" si="5"/>
-        <v>8.4848484848484844</v>
+        <v>10.90909090909091</v>
       </c>
       <c r="F41">
         <f t="shared" si="6"/>
         <v>10.90909090909091</v>
       </c>
       <c r="G41">
-        <v>-1</v>
+        <f t="shared" si="7"/>
+        <v>45.454545454545453</v>
       </c>
       <c r="H41">
         <v>-1</v>
@@ -3368,14 +3408,15 @@
       </c>
       <c r="E42">
         <f t="shared" si="5"/>
-        <v>8.6767676767676765</v>
+        <v>11.060606060606061</v>
       </c>
       <c r="F42">
         <f t="shared" si="6"/>
         <v>11.060606060606061</v>
       </c>
       <c r="G42">
-        <v>-1</v>
+        <f t="shared" si="7"/>
+        <v>46.36363636363636</v>
       </c>
       <c r="H42">
         <v>-1</v>
@@ -3426,14 +3467,15 @@
       </c>
       <c r="E43">
         <f t="shared" si="5"/>
-        <v>8.8686868686868685</v>
+        <v>11.212121212121211</v>
       </c>
       <c r="F43">
         <f t="shared" si="6"/>
         <v>11.212121212121211</v>
       </c>
       <c r="G43">
-        <v>-1</v>
+        <f t="shared" si="7"/>
+        <v>47.272727272727273</v>
       </c>
       <c r="H43">
         <v>-1</v>
@@ -3484,14 +3526,15 @@
       </c>
       <c r="E44">
         <f t="shared" si="5"/>
-        <v>9.0606060606060606</v>
+        <v>11.363636363636363</v>
       </c>
       <c r="F44">
         <f t="shared" si="6"/>
         <v>11.363636363636363</v>
       </c>
       <c r="G44">
-        <v>-1</v>
+        <f t="shared" si="7"/>
+        <v>48.18181818181818</v>
       </c>
       <c r="H44">
         <v>-1</v>
@@ -3542,14 +3585,15 @@
       </c>
       <c r="E45">
         <f t="shared" si="5"/>
-        <v>9.2525252525252526</v>
+        <v>11.515151515151516</v>
       </c>
       <c r="F45">
         <f t="shared" si="6"/>
         <v>11.515151515151516</v>
       </c>
       <c r="G45">
-        <v>-1</v>
+        <f t="shared" si="7"/>
+        <v>49.090909090909093</v>
       </c>
       <c r="H45">
         <v>-1</v>
@@ -3591,7 +3635,7 @@
         <v>45</v>
       </c>
       <c r="C46">
-        <f t="shared" ref="C46:C77" si="7">(C$2+((SUM(A46-1)/SUM(A$101-1))*(SUM(C$101-C$2))))</f>
+        <f t="shared" ref="C46:C77" si="8">(C$2+((SUM(A46-1)/SUM(A$101-1))*(SUM(C$101-C$2))))</f>
         <v>1.7111111111111112</v>
       </c>
       <c r="D46">
@@ -3600,14 +3644,15 @@
       </c>
       <c r="E46">
         <f t="shared" si="5"/>
-        <v>9.4444444444444446</v>
+        <v>11.666666666666666</v>
       </c>
       <c r="F46">
         <f t="shared" si="6"/>
         <v>11.666666666666666</v>
       </c>
       <c r="G46">
-        <v>-1</v>
+        <f t="shared" si="7"/>
+        <v>50</v>
       </c>
       <c r="H46">
         <v>-1</v>
@@ -3649,23 +3694,24 @@
         <v>46</v>
       </c>
       <c r="C47">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.6818181818181819</v>
       </c>
       <c r="D47">
-        <f t="shared" ref="D47:D100" si="8">(D$2+((SUM($A47-1)/SUM($A$101-1))*(SUM(D$101-D$2))))</f>
+        <f t="shared" ref="D47:D100" si="9">(D$2+((SUM($A47-1)/SUM($A$101-1))*(SUM(D$101-D$2))))</f>
         <v>2.8636363636363638</v>
       </c>
       <c r="E47">
         <f t="shared" si="5"/>
-        <v>9.6363636363636367</v>
+        <v>11.818181818181818</v>
       </c>
       <c r="F47">
         <f t="shared" si="6"/>
         <v>11.818181818181818</v>
       </c>
       <c r="G47">
-        <v>-1</v>
+        <f t="shared" si="7"/>
+        <v>50.909090909090907</v>
       </c>
       <c r="H47">
         <v>-1</v>
@@ -3707,23 +3753,24 @@
         <v>47</v>
       </c>
       <c r="C48">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.6525252525252525</v>
       </c>
       <c r="D48">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.8161616161616161</v>
       </c>
       <c r="E48">
         <f t="shared" si="5"/>
-        <v>9.8282828282828287</v>
+        <v>11.969696969696969</v>
       </c>
       <c r="F48">
         <f t="shared" si="6"/>
         <v>11.969696969696969</v>
       </c>
       <c r="G48">
-        <v>-1</v>
+        <f t="shared" si="7"/>
+        <v>51.81818181818182</v>
       </c>
       <c r="H48">
         <v>-1</v>
@@ -3765,23 +3812,24 @@
         <v>48</v>
       </c>
       <c r="C49">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.6232323232323234</v>
       </c>
       <c r="D49">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.7686868686868684</v>
       </c>
       <c r="E49">
         <f t="shared" si="5"/>
-        <v>10.020202020202021</v>
+        <v>12.121212121212121</v>
       </c>
       <c r="F49">
         <f t="shared" si="6"/>
         <v>12.121212121212121</v>
       </c>
       <c r="G49">
-        <v>-1</v>
+        <f t="shared" si="7"/>
+        <v>52.727272727272727</v>
       </c>
       <c r="H49">
         <v>-1</v>
@@ -3823,23 +3871,24 @@
         <v>49</v>
       </c>
       <c r="C50">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.593939393939394</v>
       </c>
       <c r="D50">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.7212121212121212</v>
       </c>
       <c r="E50">
         <f t="shared" si="5"/>
-        <v>10.212121212121213</v>
+        <v>12.272727272727273</v>
       </c>
       <c r="F50">
         <f t="shared" si="6"/>
         <v>12.272727272727273</v>
       </c>
       <c r="G50">
-        <v>-1</v>
+        <f t="shared" si="7"/>
+        <v>53.63636363636364</v>
       </c>
       <c r="H50">
         <v>-1</v>
@@ -3881,23 +3930,24 @@
         <v>50</v>
       </c>
       <c r="C51">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.5646464646464646</v>
       </c>
       <c r="D51">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.6737373737373735</v>
       </c>
       <c r="E51">
         <f t="shared" si="5"/>
-        <v>10.404040404040405</v>
+        <v>12.424242424242426</v>
       </c>
       <c r="F51">
         <f t="shared" si="6"/>
         <v>12.424242424242426</v>
       </c>
       <c r="G51">
-        <v>-1</v>
+        <f t="shared" si="7"/>
+        <v>54.545454545454547</v>
       </c>
       <c r="H51">
         <v>-1</v>
@@ -3939,23 +3989,24 @@
         <v>51</v>
       </c>
       <c r="C52">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.5353535353535352</v>
       </c>
       <c r="D52">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.6262626262626259</v>
       </c>
       <c r="E52">
         <f t="shared" si="5"/>
-        <v>10.595959595959597</v>
+        <v>12.575757575757576</v>
       </c>
       <c r="F52">
         <f t="shared" si="6"/>
         <v>12.575757575757576</v>
       </c>
       <c r="G52">
-        <v>-1</v>
+        <f t="shared" si="7"/>
+        <v>55.45454545454546</v>
       </c>
       <c r="H52">
         <v>-1</v>
@@ -3997,23 +4048,24 @@
         <v>52</v>
       </c>
       <c r="C53">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.5060606060606061</v>
       </c>
       <c r="D53">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.5787878787878786</v>
       </c>
       <c r="E53">
         <f t="shared" si="5"/>
-        <v>10.787878787878787</v>
+        <v>12.727272727272727</v>
       </c>
       <c r="F53">
         <f t="shared" si="6"/>
         <v>12.727272727272727</v>
       </c>
       <c r="G53">
-        <v>-1</v>
+        <f t="shared" si="7"/>
+        <v>56.36363636363636</v>
       </c>
       <c r="H53">
         <v>-1</v>
@@ -4055,23 +4107,24 @@
         <v>53.000000000000007</v>
       </c>
       <c r="C54">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.4767676767676767</v>
       </c>
       <c r="D54">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.531313131313131</v>
       </c>
       <c r="E54">
         <f t="shared" si="5"/>
-        <v>10.979797979797981</v>
+        <v>12.878787878787879</v>
       </c>
       <c r="F54">
         <f t="shared" si="6"/>
         <v>12.878787878787879</v>
       </c>
       <c r="G54">
-        <v>-1</v>
+        <f t="shared" si="7"/>
+        <v>57.27272727272728</v>
       </c>
       <c r="H54">
         <v>-1</v>
@@ -4113,23 +4166,24 @@
         <v>54</v>
       </c>
       <c r="C55">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.4474747474747476</v>
       </c>
       <c r="D55">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.4838383838383837</v>
       </c>
       <c r="E55">
         <f t="shared" si="5"/>
-        <v>11.171717171717171</v>
+        <v>13.030303030303031</v>
       </c>
       <c r="F55">
         <f t="shared" si="6"/>
         <v>13.030303030303031</v>
       </c>
       <c r="G55">
-        <v>-1</v>
+        <f t="shared" si="7"/>
+        <v>58.18181818181818</v>
       </c>
       <c r="H55">
         <v>-1</v>
@@ -4171,23 +4225,24 @@
         <v>54.999999999999993</v>
       </c>
       <c r="C56">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.4181818181818184</v>
       </c>
       <c r="D56">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.4363636363636365</v>
       </c>
       <c r="E56">
         <f t="shared" si="5"/>
-        <v>11.363636363636363</v>
+        <v>13.181818181818182</v>
       </c>
       <c r="F56">
         <f t="shared" si="6"/>
         <v>13.181818181818182</v>
       </c>
       <c r="G56">
-        <v>-1</v>
+        <f t="shared" si="7"/>
+        <v>59.090909090909086</v>
       </c>
       <c r="H56">
         <v>-1</v>
@@ -4229,23 +4284,24 @@
         <v>56</v>
       </c>
       <c r="C57">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.3888888888888888</v>
       </c>
       <c r="D57">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.3888888888888888</v>
       </c>
       <c r="E57">
         <f t="shared" si="5"/>
-        <v>11.555555555555555</v>
+        <v>13.333333333333334</v>
       </c>
       <c r="F57">
         <f t="shared" si="6"/>
         <v>13.333333333333334</v>
       </c>
       <c r="G57">
-        <v>-1</v>
+        <f t="shared" si="7"/>
+        <v>60</v>
       </c>
       <c r="H57">
         <v>-1</v>
@@ -4287,23 +4343,24 @@
         <v>57</v>
       </c>
       <c r="C58">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.3595959595959597</v>
       </c>
       <c r="D58">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.3414141414141416</v>
       </c>
       <c r="E58">
         <f t="shared" si="5"/>
-        <v>11.747474747474747</v>
+        <v>13.484848484848484</v>
       </c>
       <c r="F58">
         <f t="shared" si="6"/>
         <v>13.484848484848484</v>
       </c>
       <c r="G58">
-        <v>-1</v>
+        <f t="shared" si="7"/>
+        <v>60.909090909090907</v>
       </c>
       <c r="H58">
         <v>-1</v>
@@ -4345,23 +4402,24 @@
         <v>58.000000000000007</v>
       </c>
       <c r="C59">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.3303030303030303</v>
       </c>
       <c r="D59">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.2939393939393935</v>
       </c>
       <c r="E59">
         <f t="shared" si="5"/>
-        <v>11.939393939393939</v>
+        <v>13.636363636363637</v>
       </c>
       <c r="F59">
         <f t="shared" si="6"/>
         <v>13.636363636363637</v>
       </c>
       <c r="G59">
-        <v>-1</v>
+        <f t="shared" si="7"/>
+        <v>61.81818181818182</v>
       </c>
       <c r="H59">
         <v>-1</v>
@@ -4403,23 +4461,24 @@
         <v>59</v>
       </c>
       <c r="C60">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.3010101010101012</v>
       </c>
       <c r="D60">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.2464646464646463</v>
       </c>
       <c r="E60">
         <f t="shared" si="5"/>
-        <v>12.131313131313131</v>
+        <v>13.787878787878787</v>
       </c>
       <c r="F60">
         <f t="shared" si="6"/>
         <v>13.787878787878787</v>
       </c>
       <c r="G60">
-        <v>-1</v>
+        <f t="shared" si="7"/>
+        <v>62.727272727272727</v>
       </c>
       <c r="H60">
         <v>-1</v>
@@ -4461,23 +4520,24 @@
         <v>59.999999999999993</v>
       </c>
       <c r="C61">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.2717171717171718</v>
       </c>
       <c r="D61">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.1989898989898991</v>
       </c>
       <c r="E61">
         <f t="shared" si="5"/>
-        <v>12.323232323232322</v>
+        <v>13.939393939393939</v>
       </c>
       <c r="F61">
         <f t="shared" si="6"/>
         <v>13.939393939393939</v>
       </c>
       <c r="G61">
-        <v>-1</v>
+        <f t="shared" si="7"/>
+        <v>63.636363636363633</v>
       </c>
       <c r="H61">
         <v>-1</v>
@@ -4519,23 +4579,24 @@
         <v>61</v>
       </c>
       <c r="C62">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.2424242424242424</v>
       </c>
       <c r="D62">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.1515151515151514</v>
       </c>
       <c r="E62">
         <f t="shared" si="5"/>
-        <v>12.515151515151516</v>
+        <v>14.090909090909092</v>
       </c>
       <c r="F62">
         <f t="shared" si="6"/>
         <v>14.090909090909092</v>
       </c>
       <c r="G62">
-        <v>-1</v>
+        <f t="shared" si="7"/>
+        <v>64.545454545454547</v>
       </c>
       <c r="H62">
         <v>-1</v>
@@ -4577,23 +4638,24 @@
         <v>62</v>
       </c>
       <c r="C63">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.2131313131313133</v>
       </c>
       <c r="D63">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.1040404040404042</v>
       </c>
       <c r="E63">
         <f t="shared" si="5"/>
-        <v>12.707070707070706</v>
+        <v>14.242424242424242</v>
       </c>
       <c r="F63">
         <f t="shared" si="6"/>
         <v>14.242424242424242</v>
       </c>
       <c r="G63">
-        <v>-1</v>
+        <f t="shared" si="7"/>
+        <v>65.454545454545453</v>
       </c>
       <c r="H63">
         <v>-1</v>
@@ -4635,23 +4697,24 @@
         <v>63</v>
       </c>
       <c r="C64">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.1838383838383837</v>
       </c>
       <c r="D64">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.0565656565656565</v>
       </c>
       <c r="E64">
         <f t="shared" si="5"/>
-        <v>12.8989898989899</v>
+        <v>14.393939393939394</v>
       </c>
       <c r="F64">
         <f t="shared" si="6"/>
         <v>14.393939393939394</v>
       </c>
       <c r="G64">
-        <v>-1</v>
+        <f t="shared" si="7"/>
+        <v>66.363636363636374</v>
       </c>
       <c r="H64">
         <v>-1</v>
@@ -4693,23 +4756,24 @@
         <v>64</v>
       </c>
       <c r="C65">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.1545454545454545</v>
       </c>
       <c r="D65">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.0090909090909088</v>
       </c>
       <c r="E65">
         <f t="shared" si="5"/>
-        <v>13.09090909090909</v>
+        <v>14.545454545454545</v>
       </c>
       <c r="F65">
         <f t="shared" si="6"/>
         <v>14.545454545454545</v>
       </c>
       <c r="G65">
-        <v>-1</v>
+        <f t="shared" si="7"/>
+        <v>67.27272727272728</v>
       </c>
       <c r="H65">
         <v>-1</v>
@@ -4751,23 +4815,24 @@
         <v>65</v>
       </c>
       <c r="C66">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.1252525252525252</v>
       </c>
       <c r="D66">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.9616161616161611</v>
       </c>
       <c r="E66">
         <f t="shared" si="5"/>
-        <v>13.282828282828284</v>
+        <v>14.696969696969697</v>
       </c>
       <c r="F66">
         <f t="shared" si="6"/>
         <v>14.696969696969697</v>
       </c>
       <c r="G66">
-        <v>-1</v>
+        <f t="shared" si="7"/>
+        <v>68.181818181818187</v>
       </c>
       <c r="H66">
         <v>-1</v>
@@ -4809,23 +4874,24 @@
         <v>66</v>
       </c>
       <c r="C67">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.095959595959596</v>
       </c>
       <c r="D67">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.9141414141414139</v>
       </c>
       <c r="E67">
         <f t="shared" si="5"/>
-        <v>13.474747474747474</v>
+        <v>14.848484848484848</v>
       </c>
       <c r="F67">
         <f t="shared" si="6"/>
         <v>14.848484848484848</v>
       </c>
       <c r="G67">
-        <v>-1</v>
+        <f t="shared" si="7"/>
+        <v>69.090909090909093</v>
       </c>
       <c r="H67">
         <v>-1</v>
@@ -4863,27 +4929,28 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <f t="shared" ref="B68:B100" si="9">(B$2+((SUM(A68-1)/SUM(A$101-1))*(SUM(B$101-B$2))))</f>
+        <f t="shared" ref="B68:B100" si="10">(B$2+((SUM(A68-1)/SUM(A$101-1))*(SUM(B$101-B$2))))</f>
         <v>67</v>
       </c>
       <c r="C68">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.0666666666666669</v>
       </c>
       <c r="D68">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.8666666666666667</v>
       </c>
       <c r="E68">
         <f t="shared" si="5"/>
-        <v>13.666666666666666</v>
+        <v>15</v>
       </c>
       <c r="F68">
         <f t="shared" si="6"/>
         <v>15</v>
       </c>
       <c r="G68">
-        <v>-1</v>
+        <f t="shared" si="7"/>
+        <v>70</v>
       </c>
       <c r="H68">
         <v>-1</v>
@@ -4921,27 +4988,28 @@
         <v>68</v>
       </c>
       <c r="B69">
+        <f t="shared" si="10"/>
+        <v>68</v>
+      </c>
+      <c r="C69">
+        <f t="shared" si="8"/>
+        <v>1.0373737373737373</v>
+      </c>
+      <c r="D69">
         <f t="shared" si="9"/>
-        <v>68</v>
-      </c>
-      <c r="C69">
-        <f t="shared" si="7"/>
-        <v>1.0373737373737373</v>
-      </c>
-      <c r="D69">
-        <f t="shared" si="8"/>
         <v>1.819191919191919</v>
       </c>
       <c r="E69">
         <f t="shared" si="5"/>
-        <v>13.85858585858586</v>
+        <v>15.151515151515152</v>
       </c>
       <c r="F69">
         <f t="shared" si="6"/>
         <v>15.151515151515152</v>
       </c>
       <c r="G69">
-        <v>-1</v>
+        <f t="shared" si="7"/>
+        <v>70.909090909090907</v>
       </c>
       <c r="H69">
         <v>-1</v>
@@ -4979,27 +5047,28 @@
         <v>69</v>
       </c>
       <c r="B70">
+        <f t="shared" si="10"/>
+        <v>69</v>
+      </c>
+      <c r="C70">
+        <f t="shared" si="8"/>
+        <v>1.0080808080808081</v>
+      </c>
+      <c r="D70">
         <f t="shared" si="9"/>
-        <v>69</v>
-      </c>
-      <c r="C70">
-        <f t="shared" si="7"/>
-        <v>1.0080808080808081</v>
-      </c>
-      <c r="D70">
-        <f t="shared" si="8"/>
         <v>1.7717171717171718</v>
       </c>
       <c r="E70">
         <f t="shared" si="5"/>
-        <v>14.05050505050505</v>
+        <v>15.303030303030303</v>
       </c>
       <c r="F70">
         <f t="shared" si="6"/>
         <v>15.303030303030303</v>
       </c>
       <c r="G70">
-        <v>-1</v>
+        <f t="shared" si="7"/>
+        <v>71.818181818181813</v>
       </c>
       <c r="H70">
         <v>-1</v>
@@ -5037,27 +5106,28 @@
         <v>70</v>
       </c>
       <c r="B71">
+        <f t="shared" si="10"/>
+        <v>70</v>
+      </c>
+      <c r="C71">
+        <f t="shared" si="8"/>
+        <v>0.97878787878787854</v>
+      </c>
+      <c r="D71">
         <f t="shared" si="9"/>
-        <v>70</v>
-      </c>
-      <c r="C71">
-        <f t="shared" si="7"/>
-        <v>0.97878787878787854</v>
-      </c>
-      <c r="D71">
-        <f t="shared" si="8"/>
         <v>1.7242424242424237</v>
       </c>
       <c r="E71">
         <f t="shared" si="5"/>
-        <v>14.242424242424244</v>
+        <v>15.454545454545455</v>
       </c>
       <c r="F71">
         <f t="shared" si="6"/>
         <v>15.454545454545455</v>
       </c>
       <c r="G71">
-        <v>-1</v>
+        <f t="shared" si="7"/>
+        <v>72.727272727272734</v>
       </c>
       <c r="H71">
         <v>-1</v>
@@ -5095,27 +5165,28 @@
         <v>71</v>
       </c>
       <c r="B72">
+        <f t="shared" si="10"/>
+        <v>71</v>
+      </c>
+      <c r="C72">
+        <f t="shared" si="8"/>
+        <v>0.94949494949494939</v>
+      </c>
+      <c r="D72">
         <f t="shared" si="9"/>
-        <v>71</v>
-      </c>
-      <c r="C72">
-        <f t="shared" si="7"/>
-        <v>0.94949494949494939</v>
-      </c>
-      <c r="D72">
-        <f t="shared" si="8"/>
         <v>1.6767676767676765</v>
       </c>
       <c r="E72">
         <f t="shared" si="5"/>
-        <v>14.434343434343434</v>
+        <v>15.606060606060606</v>
       </c>
       <c r="F72">
         <f t="shared" si="6"/>
         <v>15.606060606060606</v>
       </c>
       <c r="G72">
-        <v>-1</v>
+        <f t="shared" si="7"/>
+        <v>73.636363636363626</v>
       </c>
       <c r="H72">
         <v>-1</v>
@@ -5153,27 +5224,28 @@
         <v>72</v>
       </c>
       <c r="B73">
+        <f t="shared" si="10"/>
+        <v>72</v>
+      </c>
+      <c r="C73">
+        <f t="shared" si="8"/>
+        <v>0.92020202020202024</v>
+      </c>
+      <c r="D73">
         <f t="shared" si="9"/>
-        <v>72</v>
-      </c>
-      <c r="C73">
-        <f t="shared" si="7"/>
-        <v>0.92020202020202024</v>
-      </c>
-      <c r="D73">
-        <f t="shared" si="8"/>
         <v>1.6292929292929292</v>
       </c>
       <c r="E73">
         <f t="shared" si="5"/>
-        <v>14.626262626262626</v>
+        <v>15.757575757575758</v>
       </c>
       <c r="F73">
         <f t="shared" si="6"/>
         <v>15.757575757575758</v>
       </c>
       <c r="G73">
-        <v>-1</v>
+        <f t="shared" si="7"/>
+        <v>74.545454545454547</v>
       </c>
       <c r="H73">
         <v>-1</v>
@@ -5211,27 +5283,28 @@
         <v>73</v>
       </c>
       <c r="B74">
+        <f t="shared" si="10"/>
+        <v>73</v>
+      </c>
+      <c r="C74">
+        <f t="shared" si="8"/>
+        <v>0.89090909090909109</v>
+      </c>
+      <c r="D74">
         <f t="shared" si="9"/>
-        <v>73</v>
-      </c>
-      <c r="C74">
-        <f t="shared" si="7"/>
-        <v>0.89090909090909109</v>
-      </c>
-      <c r="D74">
-        <f t="shared" si="8"/>
         <v>1.5818181818181816</v>
       </c>
       <c r="E74">
         <f t="shared" si="5"/>
-        <v>14.818181818181818</v>
+        <v>15.90909090909091</v>
       </c>
       <c r="F74">
         <f t="shared" si="6"/>
         <v>15.90909090909091</v>
       </c>
       <c r="G74">
-        <v>-1</v>
+        <f t="shared" si="7"/>
+        <v>75.454545454545453</v>
       </c>
       <c r="H74">
         <v>-1</v>
@@ -5269,27 +5342,28 @@
         <v>74</v>
       </c>
       <c r="B75">
+        <f t="shared" si="10"/>
+        <v>74</v>
+      </c>
+      <c r="C75">
+        <f t="shared" si="8"/>
+        <v>0.86161616161616195</v>
+      </c>
+      <c r="D75">
         <f t="shared" si="9"/>
-        <v>74</v>
-      </c>
-      <c r="C75">
-        <f t="shared" si="7"/>
-        <v>0.86161616161616195</v>
-      </c>
-      <c r="D75">
-        <f t="shared" si="8"/>
         <v>1.5343434343434343</v>
       </c>
       <c r="E75">
         <f t="shared" si="5"/>
-        <v>15.01010101010101</v>
+        <v>16.060606060606062</v>
       </c>
       <c r="F75">
         <f t="shared" si="6"/>
         <v>16.060606060606062</v>
       </c>
       <c r="G75">
-        <v>-1</v>
+        <f t="shared" si="7"/>
+        <v>76.36363636363636</v>
       </c>
       <c r="H75">
         <v>-1</v>
@@ -5327,27 +5401,28 @@
         <v>75</v>
       </c>
       <c r="B76">
+        <f t="shared" si="10"/>
+        <v>75</v>
+      </c>
+      <c r="C76">
+        <f t="shared" si="8"/>
+        <v>0.83232323232323235</v>
+      </c>
+      <c r="D76">
         <f t="shared" si="9"/>
-        <v>75</v>
-      </c>
-      <c r="C76">
-        <f t="shared" si="7"/>
-        <v>0.83232323232323235</v>
-      </c>
-      <c r="D76">
-        <f t="shared" si="8"/>
         <v>1.4868686868686867</v>
       </c>
       <c r="E76">
         <f t="shared" si="5"/>
-        <v>15.202020202020202</v>
+        <v>16.212121212121211</v>
       </c>
       <c r="F76">
         <f t="shared" si="6"/>
         <v>16.212121212121211</v>
       </c>
       <c r="G76">
-        <v>-1</v>
+        <f t="shared" si="7"/>
+        <v>77.27272727272728</v>
       </c>
       <c r="H76">
         <v>-1</v>
@@ -5385,27 +5460,28 @@
         <v>76</v>
       </c>
       <c r="B77">
+        <f t="shared" si="10"/>
+        <v>76</v>
+      </c>
+      <c r="C77">
+        <f t="shared" si="8"/>
+        <v>0.80303030303030321</v>
+      </c>
+      <c r="D77">
         <f t="shared" si="9"/>
-        <v>76</v>
-      </c>
-      <c r="C77">
-        <f t="shared" si="7"/>
-        <v>0.80303030303030321</v>
-      </c>
-      <c r="D77">
-        <f t="shared" si="8"/>
         <v>1.4393939393939394</v>
       </c>
       <c r="E77">
         <f t="shared" si="5"/>
-        <v>15.393939393939394</v>
+        <v>16.363636363636363</v>
       </c>
       <c r="F77">
         <f t="shared" si="6"/>
         <v>16.363636363636363</v>
       </c>
       <c r="G77">
-        <v>-1</v>
+        <f t="shared" si="7"/>
+        <v>78.181818181818187</v>
       </c>
       <c r="H77">
         <v>-1</v>
@@ -5443,27 +5519,28 @@
         <v>77</v>
       </c>
       <c r="B78">
+        <f t="shared" si="10"/>
+        <v>77</v>
+      </c>
+      <c r="C78">
+        <f t="shared" ref="C78:C100" si="11">(C$2+((SUM(A78-1)/SUM(A$101-1))*(SUM(C$101-C$2))))</f>
+        <v>0.77373737373737406</v>
+      </c>
+      <c r="D78">
         <f t="shared" si="9"/>
-        <v>77</v>
-      </c>
-      <c r="C78">
-        <f t="shared" ref="C78:C100" si="10">(C$2+((SUM(A78-1)/SUM(A$101-1))*(SUM(C$101-C$2))))</f>
-        <v>0.77373737373737406</v>
-      </c>
-      <c r="D78">
-        <f t="shared" si="8"/>
         <v>1.3919191919191922</v>
       </c>
       <c r="E78">
         <f t="shared" si="5"/>
-        <v>15.585858585858585</v>
+        <v>16.515151515151516</v>
       </c>
       <c r="F78">
         <f t="shared" si="6"/>
         <v>16.515151515151516</v>
       </c>
       <c r="G78">
-        <v>-1</v>
+        <f t="shared" si="7"/>
+        <v>79.090909090909079</v>
       </c>
       <c r="H78">
         <v>-1</v>
@@ -5501,27 +5578,28 @@
         <v>78</v>
       </c>
       <c r="B79">
+        <f t="shared" si="10"/>
+        <v>78</v>
+      </c>
+      <c r="C79">
+        <f t="shared" si="11"/>
+        <v>0.74444444444444446</v>
+      </c>
+      <c r="D79">
         <f t="shared" si="9"/>
-        <v>78</v>
-      </c>
-      <c r="C79">
-        <f t="shared" si="10"/>
-        <v>0.74444444444444446</v>
-      </c>
-      <c r="D79">
-        <f t="shared" si="8"/>
         <v>1.3444444444444441</v>
       </c>
       <c r="E79">
         <f t="shared" si="5"/>
-        <v>15.777777777777779</v>
+        <v>16.666666666666664</v>
       </c>
       <c r="F79">
         <f t="shared" si="6"/>
         <v>16.666666666666664</v>
       </c>
       <c r="G79">
-        <v>-1</v>
+        <f t="shared" si="7"/>
+        <v>80</v>
       </c>
       <c r="H79">
         <v>-1</v>
@@ -5559,27 +5637,28 @@
         <v>79</v>
       </c>
       <c r="B80">
+        <f t="shared" si="10"/>
+        <v>79</v>
+      </c>
+      <c r="C80">
+        <f t="shared" si="11"/>
+        <v>0.71515151515151532</v>
+      </c>
+      <c r="D80">
         <f t="shared" si="9"/>
-        <v>79</v>
-      </c>
-      <c r="C80">
-        <f t="shared" si="10"/>
-        <v>0.71515151515151532</v>
-      </c>
-      <c r="D80">
-        <f t="shared" si="8"/>
         <v>1.2969696969696969</v>
       </c>
       <c r="E80">
         <f t="shared" si="5"/>
-        <v>15.969696969696969</v>
+        <v>16.81818181818182</v>
       </c>
       <c r="F80">
         <f t="shared" si="6"/>
         <v>16.81818181818182</v>
       </c>
       <c r="G80">
-        <v>-1</v>
+        <f t="shared" si="7"/>
+        <v>80.909090909090907</v>
       </c>
       <c r="H80">
         <v>-1</v>
@@ -5617,27 +5696,28 @@
         <v>80</v>
       </c>
       <c r="B81">
+        <f t="shared" si="10"/>
+        <v>80</v>
+      </c>
+      <c r="C81">
+        <f t="shared" si="11"/>
+        <v>0.68585858585858572</v>
+      </c>
+      <c r="D81">
         <f t="shared" si="9"/>
-        <v>80</v>
-      </c>
-      <c r="C81">
-        <f t="shared" si="10"/>
-        <v>0.68585858585858572</v>
-      </c>
-      <c r="D81">
-        <f t="shared" si="8"/>
         <v>1.2494949494949492</v>
       </c>
       <c r="E81">
         <f t="shared" si="5"/>
-        <v>16.161616161616163</v>
+        <v>16.969696969696969</v>
       </c>
       <c r="F81">
         <f t="shared" si="6"/>
         <v>16.969696969696969</v>
       </c>
       <c r="G81">
-        <v>-1</v>
+        <f t="shared" si="7"/>
+        <v>81.818181818181827</v>
       </c>
       <c r="H81">
         <v>-1</v>
@@ -5675,27 +5755,28 @@
         <v>81</v>
       </c>
       <c r="B82">
+        <f t="shared" si="10"/>
+        <v>81</v>
+      </c>
+      <c r="C82">
+        <f t="shared" si="11"/>
+        <v>0.65656565656565657</v>
+      </c>
+      <c r="D82">
         <f t="shared" si="9"/>
-        <v>81</v>
-      </c>
-      <c r="C82">
-        <f t="shared" si="10"/>
-        <v>0.65656565656565657</v>
-      </c>
-      <c r="D82">
-        <f t="shared" si="8"/>
         <v>1.202020202020202</v>
       </c>
       <c r="E82">
         <f t="shared" si="5"/>
-        <v>16.353535353535353</v>
+        <v>17.121212121212121</v>
       </c>
       <c r="F82">
         <f t="shared" si="6"/>
         <v>17.121212121212121</v>
       </c>
       <c r="G82">
-        <v>-1</v>
+        <f t="shared" si="7"/>
+        <v>82.72727272727272</v>
       </c>
       <c r="H82">
         <v>-1</v>
@@ -5733,27 +5814,28 @@
         <v>82</v>
       </c>
       <c r="B83">
+        <f t="shared" si="10"/>
+        <v>82</v>
+      </c>
+      <c r="C83">
+        <f t="shared" si="11"/>
+        <v>0.62727272727272698</v>
+      </c>
+      <c r="D83">
         <f t="shared" si="9"/>
-        <v>82</v>
-      </c>
-      <c r="C83">
-        <f t="shared" si="10"/>
-        <v>0.62727272727272698</v>
-      </c>
-      <c r="D83">
-        <f t="shared" si="8"/>
         <v>1.1545454545454543</v>
       </c>
       <c r="E83">
-        <f t="shared" ref="E83:E100" si="11">(E$2+((SUM($A83-1)/SUM($A$101-1))*(SUM(E$101-E$2))))</f>
-        <v>16.545454545454547</v>
+        <f t="shared" ref="E83:E100" si="12">(E$2+((SUM($A83-1)/SUM($A$101-1))*(SUM(E$101-E$2))))</f>
+        <v>17.272727272727273</v>
       </c>
       <c r="F83">
-        <f t="shared" ref="F83:F100" si="12">(F$2+((SUM($A83-1)/SUM($A$101-1))*(SUM(F$101-F$2))))</f>
+        <f t="shared" ref="F83:F100" si="13">(F$2+((SUM($A83-1)/SUM($A$101-1))*(SUM(F$101-F$2))))</f>
         <v>17.272727272727273</v>
       </c>
       <c r="G83">
-        <v>-1</v>
+        <f t="shared" ref="G83:G100" si="14">(G$2+((SUM($A83-1)/SUM($A$101-1))*(SUM(G$101-G$2))))</f>
+        <v>83.63636363636364</v>
       </c>
       <c r="H83">
         <v>-1</v>
@@ -5791,27 +5873,28 @@
         <v>83</v>
       </c>
       <c r="B84">
+        <f t="shared" si="10"/>
+        <v>83</v>
+      </c>
+      <c r="C84">
+        <f t="shared" si="11"/>
+        <v>0.59797979797979783</v>
+      </c>
+      <c r="D84">
         <f t="shared" si="9"/>
-        <v>83</v>
-      </c>
-      <c r="C84">
-        <f t="shared" si="10"/>
-        <v>0.59797979797979783</v>
-      </c>
-      <c r="D84">
-        <f t="shared" si="8"/>
         <v>1.1070707070707071</v>
       </c>
       <c r="E84">
-        <f t="shared" si="11"/>
-        <v>16.737373737373737</v>
-      </c>
-      <c r="F84">
         <f t="shared" si="12"/>
         <v>17.424242424242422</v>
       </c>
+      <c r="F84">
+        <f t="shared" si="13"/>
+        <v>17.424242424242422</v>
+      </c>
       <c r="G84">
-        <v>-1</v>
+        <f t="shared" si="14"/>
+        <v>84.545454545454547</v>
       </c>
       <c r="H84">
         <v>-1</v>
@@ -5849,27 +5932,28 @@
         <v>84</v>
       </c>
       <c r="B85">
+        <f t="shared" si="10"/>
+        <v>84</v>
+      </c>
+      <c r="C85">
+        <f t="shared" si="11"/>
+        <v>0.56868686868686869</v>
+      </c>
+      <c r="D85">
         <f t="shared" si="9"/>
-        <v>84</v>
-      </c>
-      <c r="C85">
-        <f t="shared" si="10"/>
-        <v>0.56868686868686869</v>
-      </c>
-      <c r="D85">
-        <f t="shared" si="8"/>
         <v>1.0595959595959594</v>
       </c>
       <c r="E85">
-        <f t="shared" si="11"/>
-        <v>16.929292929292927</v>
-      </c>
-      <c r="F85">
         <f t="shared" si="12"/>
         <v>17.575757575757574</v>
       </c>
+      <c r="F85">
+        <f t="shared" si="13"/>
+        <v>17.575757575757574</v>
+      </c>
       <c r="G85">
-        <v>-1</v>
+        <f t="shared" si="14"/>
+        <v>85.454545454545453</v>
       </c>
       <c r="H85">
         <v>-1</v>
@@ -5907,27 +5991,28 @@
         <v>85</v>
       </c>
       <c r="B86">
+        <f t="shared" si="10"/>
+        <v>85</v>
+      </c>
+      <c r="C86">
+        <f t="shared" si="11"/>
+        <v>0.53939393939393954</v>
+      </c>
+      <c r="D86">
         <f t="shared" si="9"/>
-        <v>85</v>
-      </c>
-      <c r="C86">
-        <f t="shared" si="10"/>
-        <v>0.53939393939393954</v>
-      </c>
-      <c r="D86">
-        <f t="shared" si="8"/>
         <v>1.0121212121212118</v>
       </c>
       <c r="E86">
-        <f t="shared" si="11"/>
-        <v>17.121212121212121</v>
-      </c>
-      <c r="F86">
         <f t="shared" si="12"/>
         <v>17.727272727272727</v>
       </c>
+      <c r="F86">
+        <f t="shared" si="13"/>
+        <v>17.727272727272727</v>
+      </c>
       <c r="G86">
-        <v>-1</v>
+        <f t="shared" si="14"/>
+        <v>86.36363636363636</v>
       </c>
       <c r="H86">
         <v>-1</v>
@@ -5965,27 +6050,28 @@
         <v>86</v>
       </c>
       <c r="B87">
+        <f t="shared" si="10"/>
+        <v>86</v>
+      </c>
+      <c r="C87">
+        <f t="shared" si="11"/>
+        <v>0.51010101010101039</v>
+      </c>
+      <c r="D87">
         <f t="shared" si="9"/>
-        <v>86</v>
-      </c>
-      <c r="C87">
-        <f t="shared" si="10"/>
-        <v>0.51010101010101039</v>
-      </c>
-      <c r="D87">
-        <f t="shared" si="8"/>
         <v>0.96464646464646453</v>
       </c>
       <c r="E87">
-        <f t="shared" si="11"/>
-        <v>17.313131313131311</v>
-      </c>
-      <c r="F87">
         <f t="shared" si="12"/>
         <v>17.878787878787879</v>
       </c>
+      <c r="F87">
+        <f t="shared" si="13"/>
+        <v>17.878787878787879</v>
+      </c>
       <c r="G87">
-        <v>-1</v>
+        <f t="shared" si="14"/>
+        <v>87.272727272727266</v>
       </c>
       <c r="H87">
         <v>-1</v>
@@ -6023,27 +6109,28 @@
         <v>87</v>
       </c>
       <c r="B88">
+        <f t="shared" si="10"/>
+        <v>87</v>
+      </c>
+      <c r="C88">
+        <f t="shared" si="11"/>
+        <v>0.4808080808080808</v>
+      </c>
+      <c r="D88">
         <f t="shared" si="9"/>
-        <v>87</v>
-      </c>
-      <c r="C88">
-        <f t="shared" si="10"/>
-        <v>0.4808080808080808</v>
-      </c>
-      <c r="D88">
-        <f t="shared" si="8"/>
         <v>0.91717171717171642</v>
       </c>
       <c r="E88">
-        <f t="shared" si="11"/>
-        <v>17.505050505050505</v>
-      </c>
-      <c r="F88">
         <f t="shared" si="12"/>
         <v>18.030303030303031</v>
       </c>
+      <c r="F88">
+        <f t="shared" si="13"/>
+        <v>18.030303030303031</v>
+      </c>
       <c r="G88">
-        <v>-1</v>
+        <f t="shared" si="14"/>
+        <v>88.181818181818187</v>
       </c>
       <c r="H88">
         <v>-1</v>
@@ -6081,27 +6168,28 @@
         <v>88</v>
       </c>
       <c r="B89">
+        <f t="shared" si="10"/>
+        <v>88</v>
+      </c>
+      <c r="C89">
+        <f t="shared" si="11"/>
+        <v>0.45151515151515165</v>
+      </c>
+      <c r="D89">
         <f t="shared" si="9"/>
-        <v>88</v>
-      </c>
-      <c r="C89">
-        <f t="shared" si="10"/>
-        <v>0.45151515151515165</v>
-      </c>
-      <c r="D89">
-        <f t="shared" si="8"/>
         <v>0.86969696969696919</v>
       </c>
       <c r="E89">
-        <f t="shared" si="11"/>
-        <v>17.696969696969695</v>
-      </c>
-      <c r="F89">
         <f t="shared" si="12"/>
         <v>18.18181818181818</v>
       </c>
+      <c r="F89">
+        <f t="shared" si="13"/>
+        <v>18.18181818181818</v>
+      </c>
       <c r="G89">
-        <v>-1</v>
+        <f t="shared" si="14"/>
+        <v>89.090909090909093</v>
       </c>
       <c r="H89">
         <v>-1</v>
@@ -6139,27 +6227,28 @@
         <v>89</v>
       </c>
       <c r="B90">
+        <f t="shared" si="10"/>
+        <v>89</v>
+      </c>
+      <c r="C90">
+        <f t="shared" si="11"/>
+        <v>0.4222222222222225</v>
+      </c>
+      <c r="D90">
         <f t="shared" si="9"/>
-        <v>89</v>
-      </c>
-      <c r="C90">
-        <f t="shared" si="10"/>
-        <v>0.4222222222222225</v>
-      </c>
-      <c r="D90">
-        <f t="shared" si="8"/>
         <v>0.82222222222222197</v>
       </c>
       <c r="E90">
-        <f t="shared" si="11"/>
-        <v>17.888888888888889</v>
-      </c>
-      <c r="F90">
         <f t="shared" si="12"/>
         <v>18.333333333333332</v>
       </c>
+      <c r="F90">
+        <f t="shared" si="13"/>
+        <v>18.333333333333332</v>
+      </c>
       <c r="G90">
-        <v>-1</v>
+        <f t="shared" si="14"/>
+        <v>90</v>
       </c>
       <c r="H90">
         <v>-1</v>
@@ -6197,27 +6286,28 @@
         <v>90</v>
       </c>
       <c r="B91">
+        <f t="shared" si="10"/>
+        <v>90</v>
+      </c>
+      <c r="C91">
+        <f t="shared" si="11"/>
+        <v>0.39292929292929291</v>
+      </c>
+      <c r="D91">
         <f t="shared" si="9"/>
-        <v>90</v>
-      </c>
-      <c r="C91">
-        <f t="shared" si="10"/>
-        <v>0.39292929292929291</v>
-      </c>
-      <c r="D91">
-        <f t="shared" si="8"/>
         <v>0.77474747474747474</v>
       </c>
       <c r="E91">
-        <f t="shared" si="11"/>
-        <v>18.08080808080808</v>
-      </c>
-      <c r="F91">
         <f t="shared" si="12"/>
         <v>18.484848484848484</v>
       </c>
+      <c r="F91">
+        <f t="shared" si="13"/>
+        <v>18.484848484848484</v>
+      </c>
       <c r="G91">
-        <v>-1</v>
+        <f t="shared" si="14"/>
+        <v>90.909090909090907</v>
       </c>
       <c r="H91">
         <v>-1</v>
@@ -6255,27 +6345,28 @@
         <v>91</v>
       </c>
       <c r="B92">
+        <f t="shared" si="10"/>
+        <v>91</v>
+      </c>
+      <c r="C92">
+        <f t="shared" si="11"/>
+        <v>0.36363636363636376</v>
+      </c>
+      <c r="D92">
         <f t="shared" si="9"/>
-        <v>91</v>
-      </c>
-      <c r="C92">
-        <f t="shared" si="10"/>
-        <v>0.36363636363636376</v>
-      </c>
-      <c r="D92">
-        <f t="shared" si="8"/>
         <v>0.72727272727272751</v>
       </c>
       <c r="E92">
-        <f t="shared" si="11"/>
-        <v>18.272727272727273</v>
-      </c>
-      <c r="F92">
         <f t="shared" si="12"/>
         <v>18.636363636363637</v>
       </c>
+      <c r="F92">
+        <f t="shared" si="13"/>
+        <v>18.636363636363637</v>
+      </c>
       <c r="G92">
-        <v>-1</v>
+        <f t="shared" si="14"/>
+        <v>91.818181818181813</v>
       </c>
       <c r="H92">
         <v>-1</v>
@@ -6313,27 +6404,28 @@
         <v>92</v>
       </c>
       <c r="B93">
+        <f t="shared" si="10"/>
+        <v>92</v>
+      </c>
+      <c r="C93">
+        <f t="shared" si="11"/>
+        <v>0.33434343434343416</v>
+      </c>
+      <c r="D93">
         <f t="shared" si="9"/>
-        <v>92</v>
-      </c>
-      <c r="C93">
-        <f t="shared" si="10"/>
-        <v>0.33434343434343416</v>
-      </c>
-      <c r="D93">
-        <f t="shared" si="8"/>
         <v>0.6797979797979794</v>
       </c>
       <c r="E93">
-        <f t="shared" si="11"/>
-        <v>18.464646464646464</v>
-      </c>
-      <c r="F93">
         <f t="shared" si="12"/>
         <v>18.787878787878789</v>
       </c>
+      <c r="F93">
+        <f t="shared" si="13"/>
+        <v>18.787878787878789</v>
+      </c>
       <c r="G93">
-        <v>-1</v>
+        <f t="shared" si="14"/>
+        <v>92.727272727272734</v>
       </c>
       <c r="H93">
         <v>-1</v>
@@ -6371,27 +6463,28 @@
         <v>93</v>
       </c>
       <c r="B94">
+        <f t="shared" si="10"/>
+        <v>93</v>
+      </c>
+      <c r="C94">
+        <f t="shared" si="11"/>
+        <v>0.30505050505050502</v>
+      </c>
+      <c r="D94">
         <f t="shared" si="9"/>
-        <v>93</v>
-      </c>
-      <c r="C94">
-        <f t="shared" si="10"/>
-        <v>0.30505050505050502</v>
-      </c>
-      <c r="D94">
-        <f t="shared" si="8"/>
         <v>0.63232323232323218</v>
       </c>
       <c r="E94">
-        <f t="shared" si="11"/>
-        <v>18.656565656565657</v>
-      </c>
-      <c r="F94">
         <f t="shared" si="12"/>
         <v>18.939393939393938</v>
       </c>
+      <c r="F94">
+        <f t="shared" si="13"/>
+        <v>18.939393939393938</v>
+      </c>
       <c r="G94">
-        <v>-1</v>
+        <f t="shared" si="14"/>
+        <v>93.63636363636364</v>
       </c>
       <c r="H94">
         <v>-1</v>
@@ -6429,27 +6522,28 @@
         <v>94</v>
       </c>
       <c r="B95">
+        <f t="shared" si="10"/>
+        <v>94</v>
+      </c>
+      <c r="C95">
+        <f t="shared" si="11"/>
+        <v>0.27575757575757587</v>
+      </c>
+      <c r="D95">
         <f t="shared" si="9"/>
-        <v>94</v>
-      </c>
-      <c r="C95">
-        <f t="shared" si="10"/>
-        <v>0.27575757575757587</v>
-      </c>
-      <c r="D95">
-        <f t="shared" si="8"/>
         <v>0.58484848484848406</v>
       </c>
       <c r="E95">
-        <f t="shared" si="11"/>
-        <v>18.848484848484851</v>
-      </c>
-      <c r="F95">
         <f t="shared" si="12"/>
         <v>19.090909090909093</v>
       </c>
+      <c r="F95">
+        <f t="shared" si="13"/>
+        <v>19.090909090909093</v>
+      </c>
       <c r="G95">
-        <v>-1</v>
+        <f t="shared" si="14"/>
+        <v>94.545454545454547</v>
       </c>
       <c r="H95">
         <v>-1</v>
@@ -6487,27 +6581,28 @@
         <v>95</v>
       </c>
       <c r="B96">
+        <f t="shared" si="10"/>
+        <v>95</v>
+      </c>
+      <c r="C96">
+        <f t="shared" si="11"/>
+        <v>0.24646464646464672</v>
+      </c>
+      <c r="D96">
         <f t="shared" si="9"/>
-        <v>95</v>
-      </c>
-      <c r="C96">
-        <f t="shared" si="10"/>
-        <v>0.24646464646464672</v>
-      </c>
-      <c r="D96">
-        <f t="shared" si="8"/>
         <v>0.53737373737373684</v>
       </c>
       <c r="E96">
-        <f t="shared" si="11"/>
-        <v>19.040404040404042</v>
-      </c>
-      <c r="F96">
         <f t="shared" si="12"/>
         <v>19.242424242424242</v>
       </c>
+      <c r="F96">
+        <f t="shared" si="13"/>
+        <v>19.242424242424242</v>
+      </c>
       <c r="G96">
-        <v>-1</v>
+        <f t="shared" si="14"/>
+        <v>95.454545454545453</v>
       </c>
       <c r="H96">
         <v>-1</v>
@@ -6545,27 +6640,28 @@
         <v>96</v>
       </c>
       <c r="B97">
+        <f t="shared" si="10"/>
+        <v>96</v>
+      </c>
+      <c r="C97">
+        <f t="shared" si="11"/>
+        <v>0.21717171717171757</v>
+      </c>
+      <c r="D97">
         <f t="shared" si="9"/>
-        <v>96</v>
-      </c>
-      <c r="C97">
-        <f t="shared" si="10"/>
-        <v>0.21717171717171757</v>
-      </c>
-      <c r="D97">
-        <f t="shared" si="8"/>
         <v>0.48989898989898961</v>
       </c>
       <c r="E97">
-        <f t="shared" si="11"/>
-        <v>19.232323232323232</v>
-      </c>
-      <c r="F97">
         <f t="shared" si="12"/>
         <v>19.393939393939391</v>
       </c>
+      <c r="F97">
+        <f t="shared" si="13"/>
+        <v>19.393939393939391</v>
+      </c>
       <c r="G97">
-        <v>-1</v>
+        <f t="shared" si="14"/>
+        <v>96.36363636363636</v>
       </c>
       <c r="H97">
         <v>-1</v>
@@ -6603,27 +6699,28 @@
         <v>97</v>
       </c>
       <c r="B98">
+        <f t="shared" si="10"/>
+        <v>97</v>
+      </c>
+      <c r="C98">
+        <f t="shared" si="11"/>
+        <v>0.18787878787878798</v>
+      </c>
+      <c r="D98">
         <f t="shared" si="9"/>
-        <v>97</v>
-      </c>
-      <c r="C98">
-        <f t="shared" si="10"/>
-        <v>0.18787878787878798</v>
-      </c>
-      <c r="D98">
-        <f t="shared" si="8"/>
         <v>0.44242424242424239</v>
       </c>
       <c r="E98">
-        <f t="shared" si="11"/>
-        <v>19.424242424242426</v>
-      </c>
-      <c r="F98">
         <f t="shared" si="12"/>
         <v>19.545454545454547</v>
       </c>
+      <c r="F98">
+        <f t="shared" si="13"/>
+        <v>19.545454545454547</v>
+      </c>
       <c r="G98">
-        <v>-1</v>
+        <f t="shared" si="14"/>
+        <v>97.27272727272728</v>
       </c>
       <c r="H98">
         <v>-1</v>
@@ -6661,27 +6758,28 @@
         <v>98</v>
       </c>
       <c r="B99">
+        <f t="shared" si="10"/>
+        <v>98</v>
+      </c>
+      <c r="C99">
+        <f t="shared" si="11"/>
+        <v>0.15858585858585883</v>
+      </c>
+      <c r="D99">
         <f t="shared" si="9"/>
-        <v>98</v>
-      </c>
-      <c r="C99">
-        <f t="shared" si="10"/>
-        <v>0.15858585858585883</v>
-      </c>
-      <c r="D99">
-        <f t="shared" si="8"/>
         <v>0.39494949494949516</v>
       </c>
       <c r="E99">
-        <f t="shared" si="11"/>
-        <v>19.616161616161616</v>
-      </c>
-      <c r="F99">
         <f t="shared" si="12"/>
         <v>19.696969696969695</v>
       </c>
+      <c r="F99">
+        <f t="shared" si="13"/>
+        <v>19.696969696969695</v>
+      </c>
       <c r="G99">
-        <v>-1</v>
+        <f t="shared" si="14"/>
+        <v>98.181818181818187</v>
       </c>
       <c r="H99">
         <v>-1</v>
@@ -6719,27 +6817,28 @@
         <v>99</v>
       </c>
       <c r="B100">
+        <f t="shared" si="10"/>
+        <v>99</v>
+      </c>
+      <c r="C100">
+        <f t="shared" si="11"/>
+        <v>0.12929292929292924</v>
+      </c>
+      <c r="D100">
         <f t="shared" si="9"/>
-        <v>99</v>
-      </c>
-      <c r="C100">
-        <f t="shared" si="10"/>
-        <v>0.12929292929292924</v>
-      </c>
-      <c r="D100">
-        <f t="shared" si="8"/>
         <v>0.34747474747474705</v>
       </c>
       <c r="E100">
-        <f t="shared" si="11"/>
-        <v>19.80808080808081</v>
-      </c>
-      <c r="F100">
         <f t="shared" si="12"/>
         <v>19.848484848484851</v>
       </c>
+      <c r="F100">
+        <f t="shared" si="13"/>
+        <v>19.848484848484851</v>
+      </c>
       <c r="G100">
-        <v>-1</v>
+        <f t="shared" si="14"/>
+        <v>99.090909090909093</v>
       </c>
       <c r="H100">
         <v>-1</v>
@@ -6792,7 +6891,7 @@
         <v>20</v>
       </c>
       <c r="G101">
-        <v>-1</v>
+        <v>100</v>
       </c>
       <c r="H101">
         <v>-1</v>

--- a/RotoShootUnityProject/Assets/Resources/mySheet.xlsx
+++ b/RotoShootUnityProject/Assets/Resources/mySheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UnityProjects\RotoShoot\RotoShootUnityProject\Assets\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming\UnityProjects\RotoShoot\RotoShootUnityProject\Assets\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D934EC4F-0BF4-4FB2-877E-A7CFF8806A98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CF57760-9839-4ED8-83E0-408EEC157121}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="885" yWindow="-120" windowWidth="28035" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1068" yWindow="-108" windowWidth="45120" windowHeight="26136" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="mySheet (4)" sheetId="4" r:id="rId1"/>
@@ -31,6 +31,42 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={38C412BA-2901-4494-B5AC-22AB50FFF3E7}</author>
+    <author>tc={5AE2D4A1-3151-4D87-89F3-CF48A8FBAA4C}</author>
+    <author>tc={C1B4CB3F-CDB6-445C-9C58-F04B7DD9002D}</author>
+  </authors>
+  <commentList>
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{38C412BA-2901-4494-B5AC-22AB50FFF3E7}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Same as EnemyMissileDamage</t>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="1" shapeId="0" xr:uid="{5AE2D4A1-3151-4D87-89F3-CF48A8FBAA4C}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    for now at least, just use the frequency set in the level's SO data</t>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="2" shapeId="0" xr:uid="{C1B4CB3F-CDB6-445C-9C58-F04B7DD9002D}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Same as EnemyMissileDamage</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -103,7 +139,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -238,8 +274,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="37">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -443,6 +485,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -604,13 +658,15 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -667,6 +723,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Padraig Crowley" id="{ED208F84-4A51-4025-8EFB-2F06783E476B}" userId="Padraig Crowley" providerId="None"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -964,26 +1026,41 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="H1" dT="2021-11-23T13:22:08.33" personId="{ED208F84-4A51-4025-8EFB-2F06783E476B}" id="{38C412BA-2901-4494-B5AC-22AB50FFF3E7}">
+    <text>Same as EnemyMissileDamage</text>
+  </threadedComment>
+  <threadedComment ref="I1" dT="2021-11-23T13:29:38.00" personId="{ED208F84-4A51-4025-8EFB-2F06783E476B}" id="{5AE2D4A1-3151-4D87-89F3-CF48A8FBAA4C}">
+    <text>for now at least, just use the frequency set in the level's SO data</text>
+  </threadedComment>
+  <threadedComment ref="J1" dT="2021-11-23T13:29:55.69" personId="{ED208F84-4A51-4025-8EFB-2F06783E476B}" id="{C1B4CB3F-CDB6-445C-9C58-F04B7DD9002D}">
+    <text>Same as EnemyMissileDamage</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E354C71D-EF32-43C5-977C-A8EFCEACE8B3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E354C71D-EF32-43C5-977C-A8EFCEACE8B3}">
   <dimension ref="A1:Q101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G1" sqref="G1"/>
+      <selection pane="bottomLeft" activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="20.5703125" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" customWidth="1"/>
-    <col min="6" max="6" width="19.85546875" customWidth="1"/>
-    <col min="7" max="7" width="18.5703125" customWidth="1"/>
-    <col min="17" max="17" width="21.7109375" customWidth="1"/>
+    <col min="3" max="4" width="20.5546875" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" customWidth="1"/>
+    <col min="6" max="6" width="19.88671875" customWidth="1"/>
+    <col min="7" max="7" width="18.5546875" customWidth="1"/>
+    <col min="8" max="8" width="12.77734375" customWidth="1"/>
+    <col min="17" max="17" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -1005,16 +1082,16 @@
       <c r="G1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L1" s="5" t="s">
@@ -1036,7 +1113,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1044,10 +1121,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D2" s="1">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="E2" s="1">
         <v>5</v>
@@ -1068,7 +1145,7 @@
         <v>-1</v>
       </c>
       <c r="K2" s="1">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="L2" s="1">
         <v>-1</v>
@@ -1089,7 +1166,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1099,11 +1176,11 @@
       </c>
       <c r="C3">
         <f t="shared" ref="C3:G18" si="0">(C$2+((SUM($A3-1)/SUM($A$101-1))*(SUM(C$101-C$2))))</f>
-        <v>2.9707070707070709</v>
+        <v>0.99090909090909096</v>
       </c>
       <c r="D3">
         <f t="shared" si="0"/>
-        <v>4.9525252525252528</v>
+        <v>2.4777777777777779</v>
       </c>
       <c r="E3">
         <f t="shared" si="0"/>
@@ -1127,7 +1204,8 @@
         <v>-1</v>
       </c>
       <c r="K3">
-        <v>-1</v>
+        <f t="shared" ref="K3:K18" si="1">(K$2+((SUM($A3-1)/SUM($A$101-1))*(SUM(K$101-K$2))))</f>
+        <v>5.1515151515151514</v>
       </c>
       <c r="L3">
         <v>-1</v>
@@ -1148,21 +1226,21 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
-        <f t="shared" ref="B4:B5" si="1">(B$2+((SUM($A4-1)/SUM($A$101-1))*(SUM(B$101-B$2))))</f>
+        <f t="shared" ref="B4:B5" si="2">(B$2+((SUM($A4-1)/SUM($A$101-1))*(SUM(B$101-B$2))))</f>
         <v>3</v>
       </c>
       <c r="C4">
         <f t="shared" si="0"/>
-        <v>2.9414141414141413</v>
+        <v>0.98181818181818181</v>
       </c>
       <c r="D4">
         <f t="shared" si="0"/>
-        <v>4.9050505050505047</v>
+        <v>2.4555555555555557</v>
       </c>
       <c r="E4">
         <f t="shared" si="0"/>
@@ -1186,7 +1264,8 @@
         <v>-1</v>
       </c>
       <c r="K4">
-        <v>-1</v>
+        <f t="shared" si="1"/>
+        <v>5.3030303030303028</v>
       </c>
       <c r="L4">
         <v>-1</v>
@@ -1207,46 +1286,47 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>0.97272727272727277</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>2.4333333333333331</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>5.454545454545455</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>5.454545454545455</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>12.727272727272727</v>
+      </c>
+      <c r="H5">
+        <v>-1</v>
+      </c>
+      <c r="I5">
+        <v>-1</v>
+      </c>
+      <c r="J5">
+        <v>-1</v>
+      </c>
+      <c r="K5">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="C5">
-        <f t="shared" si="0"/>
-        <v>2.9121212121212121</v>
-      </c>
-      <c r="D5">
-        <f t="shared" si="0"/>
-        <v>4.8575757575757574</v>
-      </c>
-      <c r="E5">
-        <f t="shared" si="0"/>
         <v>5.454545454545455</v>
       </c>
-      <c r="F5">
-        <f t="shared" si="0"/>
-        <v>5.454545454545455</v>
-      </c>
-      <c r="G5">
-        <f t="shared" si="0"/>
-        <v>12.727272727272727</v>
-      </c>
-      <c r="H5">
-        <v>-1</v>
-      </c>
-      <c r="I5">
-        <v>-1</v>
-      </c>
-      <c r="J5">
-        <v>-1</v>
-      </c>
-      <c r="K5">
-        <v>-1</v>
-      </c>
       <c r="L5">
         <v>-1</v>
       </c>
@@ -1266,21 +1346,21 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
-        <f t="shared" ref="B6" si="2">(B$2+((SUM(A6-1)/SUM(A$101-1))*(SUM(B$101-B$2))))</f>
+        <f t="shared" ref="B6" si="3">(B$2+((SUM(A6-1)/SUM(A$101-1))*(SUM(B$101-B$2))))</f>
         <v>5</v>
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
-        <v>2.882828282828283</v>
+        <v>0.96363636363636362</v>
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
-        <v>4.8101010101010102</v>
+        <v>2.411111111111111</v>
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
@@ -1304,7 +1384,8 @@
         <v>-1</v>
       </c>
       <c r="K6">
-        <v>-1</v>
+        <f t="shared" si="1"/>
+        <v>5.6060606060606064</v>
       </c>
       <c r="L6">
         <v>-1</v>
@@ -1325,21 +1406,21 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
-        <f t="shared" ref="B7:B67" si="3">(B$2+((SUM(A7-1)/SUM(A$101-1))*(SUM(B$101-B$2))))</f>
+        <f t="shared" ref="B7:B67" si="4">(B$2+((SUM(A7-1)/SUM(A$101-1))*(SUM(B$101-B$2))))</f>
         <v>6</v>
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
-        <v>2.8535353535353534</v>
+        <v>0.95454545454545459</v>
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>4.762626262626263</v>
+        <v>2.3888888888888888</v>
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
@@ -1363,7 +1444,8 @@
         <v>-1</v>
       </c>
       <c r="K7">
-        <v>-1</v>
+        <f t="shared" si="1"/>
+        <v>5.7575757575757578</v>
       </c>
       <c r="L7">
         <v>-1</v>
@@ -1384,21 +1466,21 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
-        <v>2.8242424242424242</v>
+        <v>0.94545454545454544</v>
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>4.7151515151515149</v>
+        <v>2.3666666666666667</v>
       </c>
       <c r="E8">
         <f t="shared" si="0"/>
@@ -1422,7 +1504,8 @@
         <v>-1</v>
       </c>
       <c r="K8">
-        <v>-1</v>
+        <f t="shared" si="1"/>
+        <v>5.9090909090909092</v>
       </c>
       <c r="L8">
         <v>-1</v>
@@ -1443,21 +1526,21 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
-        <v>2.7949494949494951</v>
+        <v>0.9363636363636364</v>
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
-        <v>4.6676767676767676</v>
+        <v>2.3444444444444446</v>
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
@@ -1481,7 +1564,8 @@
         <v>-1</v>
       </c>
       <c r="K9">
-        <v>-1</v>
+        <f t="shared" si="1"/>
+        <v>6.0606060606060606</v>
       </c>
       <c r="L9">
         <v>-1</v>
@@ -1502,21 +1586,21 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
-        <v>2.7656565656565655</v>
+        <v>0.92727272727272725</v>
       </c>
       <c r="D10">
         <f t="shared" si="0"/>
-        <v>4.6202020202020204</v>
+        <v>2.322222222222222</v>
       </c>
       <c r="E10">
         <f t="shared" si="0"/>
@@ -1540,7 +1624,8 @@
         <v>-1</v>
       </c>
       <c r="K10">
-        <v>-1</v>
+        <f t="shared" si="1"/>
+        <v>6.2121212121212119</v>
       </c>
       <c r="L10">
         <v>-1</v>
@@ -1561,21 +1646,21 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
-        <v>2.7363636363636363</v>
+        <v>0.91818181818181821</v>
       </c>
       <c r="D11">
         <f t="shared" si="0"/>
-        <v>4.5727272727272723</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="E11">
         <f t="shared" si="0"/>
@@ -1599,7 +1684,8 @@
         <v>-1</v>
       </c>
       <c r="K11">
-        <v>-1</v>
+        <f t="shared" si="1"/>
+        <v>6.3636363636363633</v>
       </c>
       <c r="L11">
         <v>-1</v>
@@ -1620,21 +1706,21 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
-        <v>2.7070707070707072</v>
+        <v>0.90909090909090906</v>
       </c>
       <c r="D12">
         <f t="shared" si="0"/>
-        <v>4.5252525252525251</v>
+        <v>2.2777777777777777</v>
       </c>
       <c r="E12">
         <f t="shared" si="0"/>
@@ -1658,7 +1744,8 @@
         <v>-1</v>
       </c>
       <c r="K12">
-        <v>-1</v>
+        <f t="shared" si="1"/>
+        <v>6.5151515151515156</v>
       </c>
       <c r="L12">
         <v>-1</v>
@@ -1679,21 +1766,21 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
-        <v>2.677777777777778</v>
+        <v>0.9</v>
       </c>
       <c r="D13">
         <f t="shared" si="0"/>
-        <v>4.4777777777777779</v>
+        <v>2.2555555555555555</v>
       </c>
       <c r="E13">
         <f t="shared" si="0"/>
@@ -1717,7 +1804,8 @@
         <v>-1</v>
       </c>
       <c r="K13">
-        <v>-1</v>
+        <f t="shared" si="1"/>
+        <v>6.6666666666666661</v>
       </c>
       <c r="L13">
         <v>-1</v>
@@ -1738,21 +1826,21 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
       <c r="C14">
         <f t="shared" si="0"/>
-        <v>2.6484848484848484</v>
+        <v>0.89090909090909087</v>
       </c>
       <c r="D14">
         <f t="shared" si="0"/>
-        <v>4.4303030303030306</v>
+        <v>2.2333333333333334</v>
       </c>
       <c r="E14">
         <f t="shared" si="0"/>
@@ -1776,7 +1864,8 @@
         <v>-1</v>
       </c>
       <c r="K14">
-        <v>-1</v>
+        <f t="shared" si="1"/>
+        <v>6.8181818181818183</v>
       </c>
       <c r="L14">
         <v>-1</v>
@@ -1797,21 +1886,21 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>14.000000000000002</v>
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
-        <v>2.6191919191919193</v>
+        <v>0.88181818181818183</v>
       </c>
       <c r="D15">
         <f t="shared" si="0"/>
-        <v>4.3828282828282825</v>
+        <v>2.2111111111111112</v>
       </c>
       <c r="E15">
         <f t="shared" si="0"/>
@@ -1835,7 +1924,8 @@
         <v>-1</v>
       </c>
       <c r="K15">
-        <v>-1</v>
+        <f t="shared" si="1"/>
+        <v>6.9696969696969697</v>
       </c>
       <c r="L15">
         <v>-1</v>
@@ -1856,21 +1946,21 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
-        <v>2.5898989898989901</v>
+        <v>0.8727272727272728</v>
       </c>
       <c r="D16">
         <f t="shared" si="0"/>
-        <v>4.3353535353535353</v>
+        <v>2.1888888888888891</v>
       </c>
       <c r="E16">
         <f t="shared" si="0"/>
@@ -1894,7 +1984,8 @@
         <v>-1</v>
       </c>
       <c r="K16">
-        <v>-1</v>
+        <f t="shared" si="1"/>
+        <v>7.1212121212121211</v>
       </c>
       <c r="L16">
         <v>-1</v>
@@ -1915,21 +2006,21 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
       <c r="C17">
         <f t="shared" si="0"/>
-        <v>2.5606060606060606</v>
+        <v>0.86363636363636365</v>
       </c>
       <c r="D17">
         <f t="shared" si="0"/>
-        <v>4.2878787878787881</v>
+        <v>2.1666666666666665</v>
       </c>
       <c r="E17">
         <f t="shared" si="0"/>
@@ -1953,7 +2044,8 @@
         <v>-1</v>
       </c>
       <c r="K17">
-        <v>-1</v>
+        <f t="shared" si="1"/>
+        <v>7.2727272727272734</v>
       </c>
       <c r="L17">
         <v>-1</v>
@@ -1974,21 +2066,21 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>17</v>
       </c>
       <c r="C18">
         <f t="shared" si="0"/>
-        <v>2.5313131313131314</v>
+        <v>0.8545454545454545</v>
       </c>
       <c r="D18">
         <f t="shared" si="0"/>
-        <v>4.24040404040404</v>
+        <v>2.1444444444444444</v>
       </c>
       <c r="E18">
         <f t="shared" si="0"/>
@@ -2012,7 +2104,8 @@
         <v>-1</v>
       </c>
       <c r="K18">
-        <v>-1</v>
+        <f t="shared" si="1"/>
+        <v>7.4242424242424239</v>
       </c>
       <c r="L18">
         <v>-1</v>
@@ -2033,32 +2126,32 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>18</v>
       </c>
       <c r="C19">
-        <f t="shared" ref="C19:D46" si="4">(C$2+((SUM($A19-1)/SUM($A$101-1))*(SUM(C$101-C$2))))</f>
-        <v>2.5020202020202023</v>
+        <f t="shared" ref="C19:D46" si="5">(C$2+((SUM($A19-1)/SUM($A$101-1))*(SUM(C$101-C$2))))</f>
+        <v>0.84545454545454546</v>
       </c>
       <c r="D19">
-        <f t="shared" si="4"/>
-        <v>4.1929292929292927</v>
+        <f t="shared" si="5"/>
+        <v>2.1222222222222222</v>
       </c>
       <c r="E19">
-        <f t="shared" ref="E19:E82" si="5">(E$2+((SUM($A19-1)/SUM($A$101-1))*(SUM(E$101-E$2))))</f>
+        <f t="shared" ref="E19:E82" si="6">(E$2+((SUM($A19-1)/SUM($A$101-1))*(SUM(E$101-E$2))))</f>
         <v>7.5757575757575761</v>
       </c>
       <c r="F19">
-        <f t="shared" ref="F19:F82" si="6">(F$2+((SUM($A19-1)/SUM($A$101-1))*(SUM(F$101-F$2))))</f>
+        <f t="shared" ref="F19:F82" si="7">(F$2+((SUM($A19-1)/SUM($A$101-1))*(SUM(F$101-F$2))))</f>
         <v>7.5757575757575761</v>
       </c>
       <c r="G19">
-        <f t="shared" ref="G19:G82" si="7">(G$2+((SUM($A19-1)/SUM($A$101-1))*(SUM(G$101-G$2))))</f>
+        <f t="shared" ref="G19:G82" si="8">(G$2+((SUM($A19-1)/SUM($A$101-1))*(SUM(G$101-G$2))))</f>
         <v>25.454545454545453</v>
       </c>
       <c r="H19">
@@ -2071,7 +2164,8 @@
         <v>-1</v>
       </c>
       <c r="K19">
-        <v>-1</v>
+        <f t="shared" ref="K19:K82" si="9">(K$2+((SUM($A19-1)/SUM($A$101-1))*(SUM(K$101-K$2))))</f>
+        <v>7.5757575757575761</v>
       </c>
       <c r="L19">
         <v>-1</v>
@@ -2092,32 +2186,32 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>19</v>
       </c>
       <c r="C20">
-        <f t="shared" si="4"/>
-        <v>2.4727272727272727</v>
+        <f t="shared" si="5"/>
+        <v>0.83636363636363642</v>
       </c>
       <c r="D20">
-        <f t="shared" si="4"/>
-        <v>4.1454545454545455</v>
+        <f t="shared" si="5"/>
+        <v>2.1</v>
       </c>
       <c r="E20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>7.7272727272727275</v>
       </c>
       <c r="F20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>7.7272727272727275</v>
       </c>
       <c r="G20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>26.363636363636363</v>
       </c>
       <c r="H20">
@@ -2130,7 +2224,8 @@
         <v>-1</v>
       </c>
       <c r="K20">
-        <v>-1</v>
+        <f t="shared" si="9"/>
+        <v>7.7272727272727275</v>
       </c>
       <c r="L20">
         <v>-1</v>
@@ -2151,32 +2246,32 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="C21">
-        <f t="shared" si="4"/>
-        <v>2.4434343434343435</v>
+        <f t="shared" si="5"/>
+        <v>0.82727272727272727</v>
       </c>
       <c r="D21">
-        <f t="shared" si="4"/>
-        <v>4.0979797979797983</v>
+        <f t="shared" si="5"/>
+        <v>2.0777777777777779</v>
       </c>
       <c r="E21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>7.8787878787878789</v>
       </c>
       <c r="F21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>7.8787878787878789</v>
       </c>
       <c r="G21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>27.27272727272727</v>
       </c>
       <c r="H21">
@@ -2189,7 +2284,8 @@
         <v>-1</v>
       </c>
       <c r="K21">
-        <v>-1</v>
+        <f t="shared" si="9"/>
+        <v>7.8787878787878789</v>
       </c>
       <c r="L21">
         <v>-1</v>
@@ -2210,32 +2306,32 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>21</v>
       </c>
       <c r="C22">
-        <f t="shared" si="4"/>
-        <v>2.4141414141414144</v>
+        <f t="shared" si="5"/>
+        <v>0.81818181818181812</v>
       </c>
       <c r="D22">
-        <f t="shared" si="4"/>
-        <v>4.0505050505050502</v>
+        <f t="shared" si="5"/>
+        <v>2.0555555555555554</v>
       </c>
       <c r="E22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>8.0303030303030312</v>
       </c>
       <c r="F22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>8.0303030303030312</v>
       </c>
       <c r="G22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>28.18181818181818</v>
       </c>
       <c r="H22">
@@ -2248,7 +2344,8 @@
         <v>-1</v>
       </c>
       <c r="K22">
-        <v>-1</v>
+        <f t="shared" si="9"/>
+        <v>8.0303030303030312</v>
       </c>
       <c r="L22">
         <v>-1</v>
@@ -2269,32 +2366,32 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>22</v>
       </c>
       <c r="C23">
-        <f t="shared" si="4"/>
-        <v>2.3848484848484848</v>
+        <f t="shared" si="5"/>
+        <v>0.80909090909090908</v>
       </c>
       <c r="D23">
-        <f t="shared" si="4"/>
-        <v>4.0030303030303029</v>
+        <f t="shared" si="5"/>
+        <v>2.0333333333333332</v>
       </c>
       <c r="E23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>8.1818181818181817</v>
       </c>
       <c r="F23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>8.1818181818181817</v>
       </c>
       <c r="G23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>29.09090909090909</v>
       </c>
       <c r="H23">
@@ -2307,7 +2404,8 @@
         <v>-1</v>
       </c>
       <c r="K23">
-        <v>-1</v>
+        <f t="shared" si="9"/>
+        <v>8.1818181818181817</v>
       </c>
       <c r="L23">
         <v>-1</v>
@@ -2328,32 +2426,32 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>23</v>
       </c>
       <c r="C24">
-        <f t="shared" si="4"/>
-        <v>2.3555555555555556</v>
+        <f t="shared" si="5"/>
+        <v>0.8</v>
       </c>
       <c r="D24">
-        <f t="shared" si="4"/>
-        <v>3.9555555555555557</v>
+        <f t="shared" si="5"/>
+        <v>2.0111111111111111</v>
       </c>
       <c r="E24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>8.3333333333333321</v>
       </c>
       <c r="F24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>8.3333333333333321</v>
       </c>
       <c r="G24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>30</v>
       </c>
       <c r="H24">
@@ -2366,7 +2464,8 @@
         <v>-1</v>
       </c>
       <c r="K24">
-        <v>-1</v>
+        <f t="shared" si="9"/>
+        <v>8.3333333333333321</v>
       </c>
       <c r="L24">
         <v>-1</v>
@@ -2387,32 +2486,32 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>24</v>
       </c>
       <c r="C25">
-        <f t="shared" si="4"/>
-        <v>2.3262626262626265</v>
+        <f t="shared" si="5"/>
+        <v>0.79090909090909089</v>
       </c>
       <c r="D25">
-        <f t="shared" si="4"/>
-        <v>3.908080808080808</v>
+        <f t="shared" si="5"/>
+        <v>1.9888888888888889</v>
       </c>
       <c r="E25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>8.4848484848484844</v>
       </c>
       <c r="F25">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>8.4848484848484844</v>
       </c>
       <c r="G25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>30.90909090909091</v>
       </c>
       <c r="H25">
@@ -2425,7 +2524,8 @@
         <v>-1</v>
       </c>
       <c r="K25">
-        <v>-1</v>
+        <f t="shared" si="9"/>
+        <v>8.4848484848484844</v>
       </c>
       <c r="L25">
         <v>-1</v>
@@ -2446,32 +2546,32 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
       <c r="C26">
-        <f t="shared" si="4"/>
-        <v>2.2969696969696969</v>
+        <f t="shared" si="5"/>
+        <v>0.78181818181818175</v>
       </c>
       <c r="D26">
-        <f t="shared" si="4"/>
-        <v>3.8606060606060604</v>
+        <f t="shared" si="5"/>
+        <v>1.9666666666666666</v>
       </c>
       <c r="E26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>8.6363636363636367</v>
       </c>
       <c r="F26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>8.6363636363636367</v>
       </c>
       <c r="G26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>31.81818181818182</v>
       </c>
       <c r="H26">
@@ -2484,7 +2584,8 @@
         <v>-1</v>
       </c>
       <c r="K26">
-        <v>-1</v>
+        <f t="shared" si="9"/>
+        <v>8.6363636363636367</v>
       </c>
       <c r="L26">
         <v>-1</v>
@@ -2505,32 +2606,32 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
       <c r="C27">
-        <f t="shared" si="4"/>
-        <v>2.2676767676767677</v>
+        <f t="shared" si="5"/>
+        <v>0.77272727272727271</v>
       </c>
       <c r="D27">
-        <f t="shared" si="4"/>
-        <v>3.8131313131313131</v>
+        <f t="shared" si="5"/>
+        <v>1.9444444444444442</v>
       </c>
       <c r="E27">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>8.787878787878789</v>
       </c>
       <c r="F27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>8.787878787878789</v>
       </c>
       <c r="G27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>32.727272727272734</v>
       </c>
       <c r="H27">
@@ -2543,7 +2644,8 @@
         <v>-1</v>
       </c>
       <c r="K27">
-        <v>-1</v>
+        <f t="shared" si="9"/>
+        <v>8.787878787878789</v>
       </c>
       <c r="L27">
         <v>-1</v>
@@ -2564,32 +2666,32 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>27.000000000000004</v>
       </c>
       <c r="C28">
-        <f t="shared" si="4"/>
-        <v>2.2383838383838386</v>
+        <f t="shared" si="5"/>
+        <v>0.76363636363636367</v>
       </c>
       <c r="D28">
-        <f t="shared" si="4"/>
-        <v>3.7656565656565655</v>
+        <f t="shared" si="5"/>
+        <v>1.9222222222222221</v>
       </c>
       <c r="E28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>8.9393939393939394</v>
       </c>
       <c r="F28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>8.9393939393939394</v>
       </c>
       <c r="G28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>33.63636363636364</v>
       </c>
       <c r="H28">
@@ -2602,7 +2704,8 @@
         <v>-1</v>
       </c>
       <c r="K28">
-        <v>-1</v>
+        <f t="shared" si="9"/>
+        <v>8.9393939393939394</v>
       </c>
       <c r="L28">
         <v>-1</v>
@@ -2623,32 +2726,32 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>27.999999999999996</v>
       </c>
       <c r="C29">
-        <f t="shared" si="4"/>
-        <v>2.209090909090909</v>
+        <f t="shared" si="5"/>
+        <v>0.75454545454545452</v>
       </c>
       <c r="D29">
-        <f t="shared" si="4"/>
-        <v>3.7181818181818183</v>
+        <f t="shared" si="5"/>
+        <v>1.9</v>
       </c>
       <c r="E29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9.0909090909090899</v>
       </c>
       <c r="F29">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>9.0909090909090899</v>
       </c>
       <c r="G29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>34.545454545454547</v>
       </c>
       <c r="H29">
@@ -2661,7 +2764,8 @@
         <v>-1</v>
       </c>
       <c r="K29">
-        <v>-1</v>
+        <f t="shared" si="9"/>
+        <v>9.0909090909090899</v>
       </c>
       <c r="L29">
         <v>-1</v>
@@ -2682,32 +2786,32 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>29</v>
       </c>
       <c r="C30">
-        <f t="shared" si="4"/>
-        <v>2.1797979797979798</v>
+        <f t="shared" si="5"/>
+        <v>0.74545454545454548</v>
       </c>
       <c r="D30">
-        <f t="shared" si="4"/>
-        <v>3.6707070707070706</v>
+        <f t="shared" si="5"/>
+        <v>1.8777777777777778</v>
       </c>
       <c r="E30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9.2424242424242422</v>
       </c>
       <c r="F30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>9.2424242424242422</v>
       </c>
       <c r="G30">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>35.454545454545453</v>
       </c>
       <c r="H30">
@@ -2720,7 +2824,8 @@
         <v>-1</v>
       </c>
       <c r="K30">
-        <v>-1</v>
+        <f t="shared" si="9"/>
+        <v>9.2424242424242422</v>
       </c>
       <c r="L30">
         <v>-1</v>
@@ -2741,32 +2846,32 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
       <c r="C31">
-        <f t="shared" si="4"/>
-        <v>2.1505050505050507</v>
+        <f t="shared" si="5"/>
+        <v>0.73636363636363633</v>
       </c>
       <c r="D31">
-        <f t="shared" si="4"/>
-        <v>3.6232323232323234</v>
+        <f t="shared" si="5"/>
+        <v>1.8555555555555556</v>
       </c>
       <c r="E31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9.3939393939393945</v>
       </c>
       <c r="F31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>9.3939393939393945</v>
       </c>
       <c r="G31">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>36.36363636363636</v>
       </c>
       <c r="H31">
@@ -2779,7 +2884,8 @@
         <v>-1</v>
       </c>
       <c r="K31">
-        <v>-1</v>
+        <f t="shared" si="9"/>
+        <v>9.3939393939393945</v>
       </c>
       <c r="L31">
         <v>-1</v>
@@ -2800,32 +2906,32 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>31</v>
       </c>
       <c r="C32">
-        <f t="shared" si="4"/>
-        <v>2.1212121212121211</v>
+        <f t="shared" si="5"/>
+        <v>0.72727272727272729</v>
       </c>
       <c r="D32">
-        <f t="shared" si="4"/>
-        <v>3.5757575757575757</v>
+        <f t="shared" si="5"/>
+        <v>1.8333333333333333</v>
       </c>
       <c r="E32">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9.5454545454545467</v>
       </c>
       <c r="F32">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>9.5454545454545467</v>
       </c>
       <c r="G32">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>37.272727272727273</v>
       </c>
       <c r="H32">
@@ -2838,7 +2944,8 @@
         <v>-1</v>
       </c>
       <c r="K32">
-        <v>-1</v>
+        <f t="shared" si="9"/>
+        <v>9.5454545454545467</v>
       </c>
       <c r="L32">
         <v>-1</v>
@@ -2859,32 +2966,32 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
       <c r="C33">
-        <f t="shared" si="4"/>
-        <v>2.091919191919192</v>
+        <f t="shared" si="5"/>
+        <v>0.71818181818181814</v>
       </c>
       <c r="D33">
-        <f t="shared" si="4"/>
-        <v>3.528282828282828</v>
+        <f t="shared" si="5"/>
+        <v>1.8111111111111109</v>
       </c>
       <c r="E33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9.6969696969696972</v>
       </c>
       <c r="F33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>9.6969696969696972</v>
       </c>
       <c r="G33">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>38.181818181818187</v>
       </c>
       <c r="H33">
@@ -2897,7 +3004,8 @@
         <v>-1</v>
       </c>
       <c r="K33">
-        <v>-1</v>
+        <f t="shared" si="9"/>
+        <v>9.6969696969696972</v>
       </c>
       <c r="L33">
         <v>-1</v>
@@ -2918,32 +3026,32 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>33</v>
       </c>
       <c r="C34">
-        <f t="shared" si="4"/>
-        <v>2.0626262626262628</v>
+        <f t="shared" si="5"/>
+        <v>0.70909090909090899</v>
       </c>
       <c r="D34">
-        <f t="shared" si="4"/>
-        <v>3.4808080808080808</v>
+        <f t="shared" si="5"/>
+        <v>1.7888888888888888</v>
       </c>
       <c r="E34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9.8484848484848477</v>
       </c>
       <c r="F34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>9.8484848484848477</v>
       </c>
       <c r="G34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>39.090909090909093</v>
       </c>
       <c r="H34">
@@ -2956,7 +3064,8 @@
         <v>-1</v>
       </c>
       <c r="K34">
-        <v>-1</v>
+        <f t="shared" si="9"/>
+        <v>9.8484848484848477</v>
       </c>
       <c r="L34">
         <v>-1</v>
@@ -2977,32 +3086,32 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>34</v>
       </c>
       <c r="C35">
-        <f t="shared" si="4"/>
-        <v>2.0333333333333332</v>
+        <f t="shared" si="5"/>
+        <v>0.7</v>
       </c>
       <c r="D35">
-        <f t="shared" si="4"/>
-        <v>3.4333333333333336</v>
+        <f t="shared" si="5"/>
+        <v>1.7666666666666666</v>
       </c>
       <c r="E35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="F35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="G35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>40</v>
       </c>
       <c r="H35">
@@ -3015,7 +3124,8 @@
         <v>-1</v>
       </c>
       <c r="K35">
-        <v>-1</v>
+        <f t="shared" si="9"/>
+        <v>10</v>
       </c>
       <c r="L35">
         <v>-1</v>
@@ -3036,32 +3146,32 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>35</v>
       </c>
       <c r="C36">
-        <f t="shared" si="4"/>
-        <v>2.0040404040404041</v>
+        <f t="shared" si="5"/>
+        <v>0.69090909090909092</v>
       </c>
       <c r="D36">
-        <f t="shared" si="4"/>
-        <v>3.3858585858585859</v>
+        <f t="shared" si="5"/>
+        <v>1.7444444444444445</v>
       </c>
       <c r="E36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>10.151515151515152</v>
       </c>
       <c r="F36">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10.151515151515152</v>
       </c>
       <c r="G36">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>40.909090909090907</v>
       </c>
       <c r="H36">
@@ -3074,7 +3184,8 @@
         <v>-1</v>
       </c>
       <c r="K36">
-        <v>-1</v>
+        <f t="shared" si="9"/>
+        <v>10.151515151515152</v>
       </c>
       <c r="L36">
         <v>-1</v>
@@ -3095,32 +3206,32 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>36</v>
       </c>
       <c r="C37">
-        <f t="shared" si="4"/>
-        <v>1.9747474747474747</v>
+        <f t="shared" si="5"/>
+        <v>0.68181818181818188</v>
       </c>
       <c r="D37">
-        <f t="shared" si="4"/>
-        <v>3.3383838383838382</v>
+        <f t="shared" si="5"/>
+        <v>1.7222222222222223</v>
       </c>
       <c r="E37">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>10.303030303030303</v>
       </c>
       <c r="F37">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10.303030303030303</v>
       </c>
       <c r="G37">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>41.818181818181813</v>
       </c>
       <c r="H37">
@@ -3133,7 +3244,8 @@
         <v>-1</v>
       </c>
       <c r="K37">
-        <v>-1</v>
+        <f t="shared" si="9"/>
+        <v>10.303030303030303</v>
       </c>
       <c r="L37">
         <v>-1</v>
@@ -3154,32 +3266,32 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>37</v>
       </c>
       <c r="C38">
-        <f t="shared" si="4"/>
-        <v>1.9454545454545455</v>
+        <f t="shared" si="5"/>
+        <v>0.67272727272727273</v>
       </c>
       <c r="D38">
-        <f t="shared" si="4"/>
-        <v>3.290909090909091</v>
+        <f t="shared" si="5"/>
+        <v>1.7</v>
       </c>
       <c r="E38">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>10.454545454545455</v>
       </c>
       <c r="F38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10.454545454545455</v>
       </c>
       <c r="G38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>42.727272727272727</v>
       </c>
       <c r="H38">
@@ -3192,7 +3304,8 @@
         <v>-1</v>
       </c>
       <c r="K38">
-        <v>-1</v>
+        <f t="shared" si="9"/>
+        <v>10.454545454545455</v>
       </c>
       <c r="L38">
         <v>-1</v>
@@ -3213,32 +3326,32 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>38</v>
       </c>
       <c r="C39">
-        <f t="shared" si="4"/>
-        <v>1.9161616161616162</v>
+        <f t="shared" si="5"/>
+        <v>0.66363636363636358</v>
       </c>
       <c r="D39">
-        <f t="shared" si="4"/>
-        <v>3.2434343434343433</v>
+        <f t="shared" si="5"/>
+        <v>1.6777777777777776</v>
       </c>
       <c r="E39">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>10.606060606060606</v>
       </c>
       <c r="F39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10.606060606060606</v>
       </c>
       <c r="G39">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>43.63636363636364</v>
       </c>
       <c r="H39">
@@ -3251,7 +3364,8 @@
         <v>-1</v>
       </c>
       <c r="K39">
-        <v>-1</v>
+        <f t="shared" si="9"/>
+        <v>10.606060606060606</v>
       </c>
       <c r="L39">
         <v>-1</v>
@@ -3272,32 +3386,32 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>39</v>
       </c>
       <c r="C40">
-        <f t="shared" si="4"/>
-        <v>1.886868686868687</v>
+        <f t="shared" si="5"/>
+        <v>0.65454545454545454</v>
       </c>
       <c r="D40">
-        <f t="shared" si="4"/>
-        <v>3.1959595959595961</v>
+        <f t="shared" si="5"/>
+        <v>1.6555555555555554</v>
       </c>
       <c r="E40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>10.757575757575758</v>
       </c>
       <c r="F40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10.757575757575758</v>
       </c>
       <c r="G40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44.54545454545454</v>
       </c>
       <c r="H40">
@@ -3310,7 +3424,8 @@
         <v>-1</v>
       </c>
       <c r="K40">
-        <v>-1</v>
+        <f t="shared" si="9"/>
+        <v>10.757575757575758</v>
       </c>
       <c r="L40">
         <v>-1</v>
@@ -3331,32 +3446,32 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>40</v>
       </c>
       <c r="C41">
-        <f t="shared" si="4"/>
-        <v>1.8575757575757577</v>
+        <f t="shared" si="5"/>
+        <v>0.6454545454545455</v>
       </c>
       <c r="D41">
-        <f t="shared" si="4"/>
-        <v>3.1484848484848484</v>
+        <f t="shared" si="5"/>
+        <v>1.6333333333333333</v>
       </c>
       <c r="E41">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>10.90909090909091</v>
       </c>
       <c r="F41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10.90909090909091</v>
       </c>
       <c r="G41">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>45.454545454545453</v>
       </c>
       <c r="H41">
@@ -3369,7 +3484,8 @@
         <v>-1</v>
       </c>
       <c r="K41">
-        <v>-1</v>
+        <f t="shared" si="9"/>
+        <v>10.90909090909091</v>
       </c>
       <c r="L41">
         <v>-1</v>
@@ -3390,32 +3506,32 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>41</v>
       </c>
       <c r="C42">
-        <f t="shared" si="4"/>
-        <v>1.8282828282828283</v>
+        <f t="shared" si="5"/>
+        <v>0.63636363636363635</v>
       </c>
       <c r="D42">
-        <f t="shared" si="4"/>
-        <v>3.1010101010101012</v>
+        <f t="shared" si="5"/>
+        <v>1.6111111111111112</v>
       </c>
       <c r="E42">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>11.060606060606061</v>
       </c>
       <c r="F42">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>11.060606060606061</v>
       </c>
       <c r="G42">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>46.36363636363636</v>
       </c>
       <c r="H42">
@@ -3428,7 +3544,8 @@
         <v>-1</v>
       </c>
       <c r="K42">
-        <v>-1</v>
+        <f t="shared" si="9"/>
+        <v>11.060606060606061</v>
       </c>
       <c r="L42">
         <v>-1</v>
@@ -3449,32 +3566,32 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>42</v>
       </c>
       <c r="C43">
-        <f t="shared" si="4"/>
-        <v>1.7989898989898989</v>
+        <f t="shared" si="5"/>
+        <v>0.6272727272727272</v>
       </c>
       <c r="D43">
-        <f t="shared" si="4"/>
-        <v>3.0535353535353535</v>
+        <f t="shared" si="5"/>
+        <v>1.5888888888888888</v>
       </c>
       <c r="E43">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>11.212121212121211</v>
       </c>
       <c r="F43">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>11.212121212121211</v>
       </c>
       <c r="G43">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>47.272727272727273</v>
       </c>
       <c r="H43">
@@ -3487,7 +3604,8 @@
         <v>-1</v>
       </c>
       <c r="K43">
-        <v>-1</v>
+        <f t="shared" si="9"/>
+        <v>11.212121212121211</v>
       </c>
       <c r="L43">
         <v>-1</v>
@@ -3508,32 +3626,32 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>43</v>
       </c>
       <c r="C44">
-        <f t="shared" si="4"/>
-        <v>1.7696969696969698</v>
+        <f t="shared" si="5"/>
+        <v>0.61818181818181817</v>
       </c>
       <c r="D44">
-        <f t="shared" si="4"/>
-        <v>3.0060606060606059</v>
+        <f t="shared" si="5"/>
+        <v>1.5666666666666664</v>
       </c>
       <c r="E44">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>11.363636363636363</v>
       </c>
       <c r="F44">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>11.363636363636363</v>
       </c>
       <c r="G44">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>48.18181818181818</v>
       </c>
       <c r="H44">
@@ -3546,7 +3664,8 @@
         <v>-1</v>
       </c>
       <c r="K44">
-        <v>-1</v>
+        <f t="shared" si="9"/>
+        <v>11.363636363636363</v>
       </c>
       <c r="L44">
         <v>-1</v>
@@ -3567,32 +3686,32 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>44</v>
       </c>
       <c r="C45">
-        <f t="shared" si="4"/>
-        <v>1.7404040404040404</v>
+        <f t="shared" si="5"/>
+        <v>0.60909090909090913</v>
       </c>
       <c r="D45">
-        <f t="shared" si="4"/>
-        <v>2.9585858585858582</v>
+        <f t="shared" si="5"/>
+        <v>1.5444444444444443</v>
       </c>
       <c r="E45">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>11.515151515151516</v>
       </c>
       <c r="F45">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>11.515151515151516</v>
       </c>
       <c r="G45">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>49.090909090909093</v>
       </c>
       <c r="H45">
@@ -3605,7 +3724,8 @@
         <v>-1</v>
       </c>
       <c r="K45">
-        <v>-1</v>
+        <f t="shared" si="9"/>
+        <v>11.515151515151516</v>
       </c>
       <c r="L45">
         <v>-1</v>
@@ -3626,32 +3746,32 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>45</v>
       </c>
       <c r="C46">
-        <f t="shared" ref="C46:C77" si="8">(C$2+((SUM(A46-1)/SUM(A$101-1))*(SUM(C$101-C$2))))</f>
-        <v>1.7111111111111112</v>
+        <f t="shared" ref="C46:C77" si="10">(C$2+((SUM(A46-1)/SUM(A$101-1))*(SUM(C$101-C$2))))</f>
+        <v>0.60000000000000009</v>
       </c>
       <c r="D46">
-        <f t="shared" si="4"/>
-        <v>2.911111111111111</v>
+        <f t="shared" si="5"/>
+        <v>1.5222222222222221</v>
       </c>
       <c r="E46">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>11.666666666666666</v>
       </c>
       <c r="F46">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>11.666666666666666</v>
       </c>
       <c r="G46">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>50</v>
       </c>
       <c r="H46">
@@ -3664,7 +3784,8 @@
         <v>-1</v>
       </c>
       <c r="K46">
-        <v>-1</v>
+        <f t="shared" si="9"/>
+        <v>11.666666666666666</v>
       </c>
       <c r="L46">
         <v>-1</v>
@@ -3685,32 +3806,32 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>46</v>
       </c>
       <c r="C47">
-        <f t="shared" si="8"/>
-        <v>1.6818181818181819</v>
+        <f t="shared" si="10"/>
+        <v>0.59090909090909094</v>
       </c>
       <c r="D47">
-        <f t="shared" ref="D47:D100" si="9">(D$2+((SUM($A47-1)/SUM($A$101-1))*(SUM(D$101-D$2))))</f>
-        <v>2.8636363636363638</v>
+        <f t="shared" ref="D47:D100" si="11">(D$2+((SUM($A47-1)/SUM($A$101-1))*(SUM(D$101-D$2))))</f>
+        <v>1.5</v>
       </c>
       <c r="E47">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>11.818181818181818</v>
       </c>
       <c r="F47">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>11.818181818181818</v>
       </c>
       <c r="G47">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>50.909090909090907</v>
       </c>
       <c r="H47">
@@ -3723,7 +3844,8 @@
         <v>-1</v>
       </c>
       <c r="K47">
-        <v>-1</v>
+        <f t="shared" si="9"/>
+        <v>11.818181818181818</v>
       </c>
       <c r="L47">
         <v>-1</v>
@@ -3744,46 +3866,47 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>47</v>
       </c>
       <c r="C48">
-        <f t="shared" si="8"/>
-        <v>1.6525252525252525</v>
+        <f t="shared" si="10"/>
+        <v>0.58181818181818179</v>
       </c>
       <c r="D48">
+        <f t="shared" si="11"/>
+        <v>1.4777777777777776</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="6"/>
+        <v>11.969696969696969</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="7"/>
+        <v>11.969696969696969</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="8"/>
+        <v>51.81818181818182</v>
+      </c>
+      <c r="H48">
+        <v>-1</v>
+      </c>
+      <c r="I48">
+        <v>-1</v>
+      </c>
+      <c r="J48">
+        <v>-1</v>
+      </c>
+      <c r="K48">
         <f t="shared" si="9"/>
-        <v>2.8161616161616161</v>
-      </c>
-      <c r="E48">
-        <f t="shared" si="5"/>
         <v>11.969696969696969</v>
       </c>
-      <c r="F48">
-        <f t="shared" si="6"/>
-        <v>11.969696969696969</v>
-      </c>
-      <c r="G48">
-        <f t="shared" si="7"/>
-        <v>51.81818181818182</v>
-      </c>
-      <c r="H48">
-        <v>-1</v>
-      </c>
-      <c r="I48">
-        <v>-1</v>
-      </c>
-      <c r="J48">
-        <v>-1</v>
-      </c>
-      <c r="K48">
-        <v>-1</v>
-      </c>
       <c r="L48">
         <v>-1</v>
       </c>
@@ -3803,46 +3926,47 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>48</v>
       </c>
       <c r="C49">
-        <f t="shared" si="8"/>
-        <v>1.6232323232323234</v>
+        <f t="shared" si="10"/>
+        <v>0.57272727272727275</v>
       </c>
       <c r="D49">
+        <f t="shared" si="11"/>
+        <v>1.4555555555555555</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="6"/>
+        <v>12.121212121212121</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="7"/>
+        <v>12.121212121212121</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="8"/>
+        <v>52.727272727272727</v>
+      </c>
+      <c r="H49">
+        <v>-1</v>
+      </c>
+      <c r="I49">
+        <v>-1</v>
+      </c>
+      <c r="J49">
+        <v>-1</v>
+      </c>
+      <c r="K49">
         <f t="shared" si="9"/>
-        <v>2.7686868686868684</v>
-      </c>
-      <c r="E49">
-        <f t="shared" si="5"/>
         <v>12.121212121212121</v>
       </c>
-      <c r="F49">
-        <f t="shared" si="6"/>
-        <v>12.121212121212121</v>
-      </c>
-      <c r="G49">
-        <f t="shared" si="7"/>
-        <v>52.727272727272727</v>
-      </c>
-      <c r="H49">
-        <v>-1</v>
-      </c>
-      <c r="I49">
-        <v>-1</v>
-      </c>
-      <c r="J49">
-        <v>-1</v>
-      </c>
-      <c r="K49">
-        <v>-1</v>
-      </c>
       <c r="L49">
         <v>-1</v>
       </c>
@@ -3862,46 +3986,47 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>49</v>
       </c>
       <c r="C50">
-        <f t="shared" si="8"/>
-        <v>1.593939393939394</v>
+        <f t="shared" si="10"/>
+        <v>0.5636363636363636</v>
       </c>
       <c r="D50">
+        <f t="shared" si="11"/>
+        <v>1.4333333333333331</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="6"/>
+        <v>12.272727272727273</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="7"/>
+        <v>12.272727272727273</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="8"/>
+        <v>53.63636363636364</v>
+      </c>
+      <c r="H50">
+        <v>-1</v>
+      </c>
+      <c r="I50">
+        <v>-1</v>
+      </c>
+      <c r="J50">
+        <v>-1</v>
+      </c>
+      <c r="K50">
         <f t="shared" si="9"/>
-        <v>2.7212121212121212</v>
-      </c>
-      <c r="E50">
-        <f t="shared" si="5"/>
         <v>12.272727272727273</v>
       </c>
-      <c r="F50">
-        <f t="shared" si="6"/>
-        <v>12.272727272727273</v>
-      </c>
-      <c r="G50">
-        <f t="shared" si="7"/>
-        <v>53.63636363636364</v>
-      </c>
-      <c r="H50">
-        <v>-1</v>
-      </c>
-      <c r="I50">
-        <v>-1</v>
-      </c>
-      <c r="J50">
-        <v>-1</v>
-      </c>
-      <c r="K50">
-        <v>-1</v>
-      </c>
       <c r="L50">
         <v>-1</v>
       </c>
@@ -3921,46 +4046,47 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>50</v>
       </c>
       <c r="C51">
-        <f t="shared" si="8"/>
-        <v>1.5646464646464646</v>
+        <f t="shared" si="10"/>
+        <v>0.55454545454545445</v>
       </c>
       <c r="D51">
+        <f t="shared" si="11"/>
+        <v>1.411111111111111</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="6"/>
+        <v>12.424242424242426</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="7"/>
+        <v>12.424242424242426</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="8"/>
+        <v>54.545454545454547</v>
+      </c>
+      <c r="H51">
+        <v>-1</v>
+      </c>
+      <c r="I51">
+        <v>-1</v>
+      </c>
+      <c r="J51">
+        <v>-1</v>
+      </c>
+      <c r="K51">
         <f t="shared" si="9"/>
-        <v>2.6737373737373735</v>
-      </c>
-      <c r="E51">
-        <f t="shared" si="5"/>
         <v>12.424242424242426</v>
       </c>
-      <c r="F51">
-        <f t="shared" si="6"/>
-        <v>12.424242424242426</v>
-      </c>
-      <c r="G51">
-        <f t="shared" si="7"/>
-        <v>54.545454545454547</v>
-      </c>
-      <c r="H51">
-        <v>-1</v>
-      </c>
-      <c r="I51">
-        <v>-1</v>
-      </c>
-      <c r="J51">
-        <v>-1</v>
-      </c>
-      <c r="K51">
-        <v>-1</v>
-      </c>
       <c r="L51">
         <v>-1</v>
       </c>
@@ -3980,46 +4106,47 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>51</v>
       </c>
       <c r="C52">
-        <f t="shared" si="8"/>
-        <v>1.5353535353535352</v>
+        <f t="shared" si="10"/>
+        <v>0.54545454545454541</v>
       </c>
       <c r="D52">
+        <f t="shared" si="11"/>
+        <v>1.3888888888888886</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="6"/>
+        <v>12.575757575757576</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="7"/>
+        <v>12.575757575757576</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="8"/>
+        <v>55.45454545454546</v>
+      </c>
+      <c r="H52">
+        <v>-1</v>
+      </c>
+      <c r="I52">
+        <v>-1</v>
+      </c>
+      <c r="J52">
+        <v>-1</v>
+      </c>
+      <c r="K52">
         <f t="shared" si="9"/>
-        <v>2.6262626262626259</v>
-      </c>
-      <c r="E52">
-        <f t="shared" si="5"/>
         <v>12.575757575757576</v>
       </c>
-      <c r="F52">
-        <f t="shared" si="6"/>
-        <v>12.575757575757576</v>
-      </c>
-      <c r="G52">
-        <f t="shared" si="7"/>
-        <v>55.45454545454546</v>
-      </c>
-      <c r="H52">
-        <v>-1</v>
-      </c>
-      <c r="I52">
-        <v>-1</v>
-      </c>
-      <c r="J52">
-        <v>-1</v>
-      </c>
-      <c r="K52">
-        <v>-1</v>
-      </c>
       <c r="L52">
         <v>-1</v>
       </c>
@@ -4039,46 +4166,47 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>52</v>
       </c>
       <c r="C53">
-        <f t="shared" si="8"/>
-        <v>1.5060606060606061</v>
+        <f t="shared" si="10"/>
+        <v>0.53636363636363638</v>
       </c>
       <c r="D53">
+        <f t="shared" si="11"/>
+        <v>1.3666666666666667</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="6"/>
+        <v>12.727272727272727</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="7"/>
+        <v>12.727272727272727</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="8"/>
+        <v>56.36363636363636</v>
+      </c>
+      <c r="H53">
+        <v>-1</v>
+      </c>
+      <c r="I53">
+        <v>-1</v>
+      </c>
+      <c r="J53">
+        <v>-1</v>
+      </c>
+      <c r="K53">
         <f t="shared" si="9"/>
-        <v>2.5787878787878786</v>
-      </c>
-      <c r="E53">
-        <f t="shared" si="5"/>
         <v>12.727272727272727</v>
       </c>
-      <c r="F53">
-        <f t="shared" si="6"/>
-        <v>12.727272727272727</v>
-      </c>
-      <c r="G53">
-        <f t="shared" si="7"/>
-        <v>56.36363636363636</v>
-      </c>
-      <c r="H53">
-        <v>-1</v>
-      </c>
-      <c r="I53">
-        <v>-1</v>
-      </c>
-      <c r="J53">
-        <v>-1</v>
-      </c>
-      <c r="K53">
-        <v>-1</v>
-      </c>
       <c r="L53">
         <v>-1</v>
       </c>
@@ -4098,46 +4226,47 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>53.000000000000007</v>
       </c>
       <c r="C54">
-        <f t="shared" si="8"/>
-        <v>1.4767676767676767</v>
+        <f t="shared" si="10"/>
+        <v>0.52727272727272723</v>
       </c>
       <c r="D54">
+        <f t="shared" si="11"/>
+        <v>1.3444444444444443</v>
+      </c>
+      <c r="E54">
+        <f t="shared" si="6"/>
+        <v>12.878787878787879</v>
+      </c>
+      <c r="F54">
+        <f t="shared" si="7"/>
+        <v>12.878787878787879</v>
+      </c>
+      <c r="G54">
+        <f t="shared" si="8"/>
+        <v>57.27272727272728</v>
+      </c>
+      <c r="H54">
+        <v>-1</v>
+      </c>
+      <c r="I54">
+        <v>-1</v>
+      </c>
+      <c r="J54">
+        <v>-1</v>
+      </c>
+      <c r="K54">
         <f t="shared" si="9"/>
-        <v>2.531313131313131</v>
-      </c>
-      <c r="E54">
-        <f t="shared" si="5"/>
         <v>12.878787878787879</v>
       </c>
-      <c r="F54">
-        <f t="shared" si="6"/>
-        <v>12.878787878787879</v>
-      </c>
-      <c r="G54">
-        <f t="shared" si="7"/>
-        <v>57.27272727272728</v>
-      </c>
-      <c r="H54">
-        <v>-1</v>
-      </c>
-      <c r="I54">
-        <v>-1</v>
-      </c>
-      <c r="J54">
-        <v>-1</v>
-      </c>
-      <c r="K54">
-        <v>-1</v>
-      </c>
       <c r="L54">
         <v>-1</v>
       </c>
@@ -4157,46 +4286,47 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>54</v>
       </c>
       <c r="C55">
-        <f t="shared" si="8"/>
-        <v>1.4474747474747476</v>
+        <f t="shared" si="10"/>
+        <v>0.51818181818181819</v>
       </c>
       <c r="D55">
+        <f t="shared" si="11"/>
+        <v>1.3222222222222222</v>
+      </c>
+      <c r="E55">
+        <f t="shared" si="6"/>
+        <v>13.030303030303031</v>
+      </c>
+      <c r="F55">
+        <f t="shared" si="7"/>
+        <v>13.030303030303031</v>
+      </c>
+      <c r="G55">
+        <f t="shared" si="8"/>
+        <v>58.18181818181818</v>
+      </c>
+      <c r="H55">
+        <v>-1</v>
+      </c>
+      <c r="I55">
+        <v>-1</v>
+      </c>
+      <c r="J55">
+        <v>-1</v>
+      </c>
+      <c r="K55">
         <f t="shared" si="9"/>
-        <v>2.4838383838383837</v>
-      </c>
-      <c r="E55">
-        <f t="shared" si="5"/>
         <v>13.030303030303031</v>
       </c>
-      <c r="F55">
-        <f t="shared" si="6"/>
-        <v>13.030303030303031</v>
-      </c>
-      <c r="G55">
-        <f t="shared" si="7"/>
-        <v>58.18181818181818</v>
-      </c>
-      <c r="H55">
-        <v>-1</v>
-      </c>
-      <c r="I55">
-        <v>-1</v>
-      </c>
-      <c r="J55">
-        <v>-1</v>
-      </c>
-      <c r="K55">
-        <v>-1</v>
-      </c>
       <c r="L55">
         <v>-1</v>
       </c>
@@ -4216,46 +4346,47 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>54.999999999999993</v>
       </c>
       <c r="C56">
-        <f t="shared" si="8"/>
-        <v>1.4181818181818184</v>
+        <f t="shared" si="10"/>
+        <v>0.50909090909090904</v>
       </c>
       <c r="D56">
+        <f t="shared" si="11"/>
+        <v>1.3</v>
+      </c>
+      <c r="E56">
+        <f t="shared" si="6"/>
+        <v>13.181818181818182</v>
+      </c>
+      <c r="F56">
+        <f t="shared" si="7"/>
+        <v>13.181818181818182</v>
+      </c>
+      <c r="G56">
+        <f t="shared" si="8"/>
+        <v>59.090909090909086</v>
+      </c>
+      <c r="H56">
+        <v>-1</v>
+      </c>
+      <c r="I56">
+        <v>-1</v>
+      </c>
+      <c r="J56">
+        <v>-1</v>
+      </c>
+      <c r="K56">
         <f t="shared" si="9"/>
-        <v>2.4363636363636365</v>
-      </c>
-      <c r="E56">
-        <f t="shared" si="5"/>
         <v>13.181818181818182</v>
       </c>
-      <c r="F56">
-        <f t="shared" si="6"/>
-        <v>13.181818181818182</v>
-      </c>
-      <c r="G56">
-        <f t="shared" si="7"/>
-        <v>59.090909090909086</v>
-      </c>
-      <c r="H56">
-        <v>-1</v>
-      </c>
-      <c r="I56">
-        <v>-1</v>
-      </c>
-      <c r="J56">
-        <v>-1</v>
-      </c>
-      <c r="K56">
-        <v>-1</v>
-      </c>
       <c r="L56">
         <v>-1</v>
       </c>
@@ -4275,46 +4406,47 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>56</v>
       </c>
       <c r="C57">
-        <f t="shared" si="8"/>
-        <v>1.3888888888888888</v>
+        <f t="shared" si="10"/>
+        <v>0.5</v>
       </c>
       <c r="D57">
+        <f t="shared" si="11"/>
+        <v>1.2777777777777777</v>
+      </c>
+      <c r="E57">
+        <f t="shared" si="6"/>
+        <v>13.333333333333334</v>
+      </c>
+      <c r="F57">
+        <f t="shared" si="7"/>
+        <v>13.333333333333334</v>
+      </c>
+      <c r="G57">
+        <f t="shared" si="8"/>
+        <v>60</v>
+      </c>
+      <c r="H57">
+        <v>-1</v>
+      </c>
+      <c r="I57">
+        <v>-1</v>
+      </c>
+      <c r="J57">
+        <v>-1</v>
+      </c>
+      <c r="K57">
         <f t="shared" si="9"/>
-        <v>2.3888888888888888</v>
-      </c>
-      <c r="E57">
-        <f t="shared" si="5"/>
         <v>13.333333333333334</v>
       </c>
-      <c r="F57">
-        <f t="shared" si="6"/>
-        <v>13.333333333333334</v>
-      </c>
-      <c r="G57">
-        <f t="shared" si="7"/>
-        <v>60</v>
-      </c>
-      <c r="H57">
-        <v>-1</v>
-      </c>
-      <c r="I57">
-        <v>-1</v>
-      </c>
-      <c r="J57">
-        <v>-1</v>
-      </c>
-      <c r="K57">
-        <v>-1</v>
-      </c>
       <c r="L57">
         <v>-1</v>
       </c>
@@ -4334,46 +4466,47 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>57</v>
       </c>
       <c r="C58">
-        <f t="shared" si="8"/>
-        <v>1.3595959595959597</v>
+        <f t="shared" si="10"/>
+        <v>0.49090909090909096</v>
       </c>
       <c r="D58">
+        <f t="shared" si="11"/>
+        <v>1.2555555555555555</v>
+      </c>
+      <c r="E58">
+        <f t="shared" si="6"/>
+        <v>13.484848484848484</v>
+      </c>
+      <c r="F58">
+        <f t="shared" si="7"/>
+        <v>13.484848484848484</v>
+      </c>
+      <c r="G58">
+        <f t="shared" si="8"/>
+        <v>60.909090909090907</v>
+      </c>
+      <c r="H58">
+        <v>-1</v>
+      </c>
+      <c r="I58">
+        <v>-1</v>
+      </c>
+      <c r="J58">
+        <v>-1</v>
+      </c>
+      <c r="K58">
         <f t="shared" si="9"/>
-        <v>2.3414141414141416</v>
-      </c>
-      <c r="E58">
-        <f t="shared" si="5"/>
         <v>13.484848484848484</v>
       </c>
-      <c r="F58">
-        <f t="shared" si="6"/>
-        <v>13.484848484848484</v>
-      </c>
-      <c r="G58">
-        <f t="shared" si="7"/>
-        <v>60.909090909090907</v>
-      </c>
-      <c r="H58">
-        <v>-1</v>
-      </c>
-      <c r="I58">
-        <v>-1</v>
-      </c>
-      <c r="J58">
-        <v>-1</v>
-      </c>
-      <c r="K58">
-        <v>-1</v>
-      </c>
       <c r="L58">
         <v>-1</v>
       </c>
@@ -4393,46 +4526,47 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>58.000000000000007</v>
       </c>
       <c r="C59">
-        <f t="shared" si="8"/>
-        <v>1.3303030303030303</v>
+        <f t="shared" si="10"/>
+        <v>0.48181818181818181</v>
       </c>
       <c r="D59">
+        <f t="shared" si="11"/>
+        <v>1.2333333333333332</v>
+      </c>
+      <c r="E59">
+        <f t="shared" si="6"/>
+        <v>13.636363636363637</v>
+      </c>
+      <c r="F59">
+        <f t="shared" si="7"/>
+        <v>13.636363636363637</v>
+      </c>
+      <c r="G59">
+        <f t="shared" si="8"/>
+        <v>61.81818181818182</v>
+      </c>
+      <c r="H59">
+        <v>-1</v>
+      </c>
+      <c r="I59">
+        <v>-1</v>
+      </c>
+      <c r="J59">
+        <v>-1</v>
+      </c>
+      <c r="K59">
         <f t="shared" si="9"/>
-        <v>2.2939393939393935</v>
-      </c>
-      <c r="E59">
-        <f t="shared" si="5"/>
         <v>13.636363636363637</v>
       </c>
-      <c r="F59">
-        <f t="shared" si="6"/>
-        <v>13.636363636363637</v>
-      </c>
-      <c r="G59">
-        <f t="shared" si="7"/>
-        <v>61.81818181818182</v>
-      </c>
-      <c r="H59">
-        <v>-1</v>
-      </c>
-      <c r="I59">
-        <v>-1</v>
-      </c>
-      <c r="J59">
-        <v>-1</v>
-      </c>
-      <c r="K59">
-        <v>-1</v>
-      </c>
       <c r="L59">
         <v>-1</v>
       </c>
@@ -4452,46 +4586,47 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>59</v>
       </c>
       <c r="C60">
-        <f t="shared" si="8"/>
-        <v>1.3010101010101012</v>
+        <f t="shared" si="10"/>
+        <v>0.47272727272727266</v>
       </c>
       <c r="D60">
+        <f t="shared" si="11"/>
+        <v>1.211111111111111</v>
+      </c>
+      <c r="E60">
+        <f t="shared" si="6"/>
+        <v>13.787878787878787</v>
+      </c>
+      <c r="F60">
+        <f t="shared" si="7"/>
+        <v>13.787878787878787</v>
+      </c>
+      <c r="G60">
+        <f t="shared" si="8"/>
+        <v>62.727272727272727</v>
+      </c>
+      <c r="H60">
+        <v>-1</v>
+      </c>
+      <c r="I60">
+        <v>-1</v>
+      </c>
+      <c r="J60">
+        <v>-1</v>
+      </c>
+      <c r="K60">
         <f t="shared" si="9"/>
-        <v>2.2464646464646463</v>
-      </c>
-      <c r="E60">
-        <f t="shared" si="5"/>
         <v>13.787878787878787</v>
       </c>
-      <c r="F60">
-        <f t="shared" si="6"/>
-        <v>13.787878787878787</v>
-      </c>
-      <c r="G60">
-        <f t="shared" si="7"/>
-        <v>62.727272727272727</v>
-      </c>
-      <c r="H60">
-        <v>-1</v>
-      </c>
-      <c r="I60">
-        <v>-1</v>
-      </c>
-      <c r="J60">
-        <v>-1</v>
-      </c>
-      <c r="K60">
-        <v>-1</v>
-      </c>
       <c r="L60">
         <v>-1</v>
       </c>
@@ -4511,46 +4646,47 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>59.999999999999993</v>
       </c>
       <c r="C61">
-        <f t="shared" si="8"/>
-        <v>1.2717171717171718</v>
+        <f t="shared" si="10"/>
+        <v>0.46363636363636362</v>
       </c>
       <c r="D61">
+        <f t="shared" si="11"/>
+        <v>1.1888888888888889</v>
+      </c>
+      <c r="E61">
+        <f t="shared" si="6"/>
+        <v>13.939393939393939</v>
+      </c>
+      <c r="F61">
+        <f t="shared" si="7"/>
+        <v>13.939393939393939</v>
+      </c>
+      <c r="G61">
+        <f t="shared" si="8"/>
+        <v>63.636363636363633</v>
+      </c>
+      <c r="H61">
+        <v>-1</v>
+      </c>
+      <c r="I61">
+        <v>-1</v>
+      </c>
+      <c r="J61">
+        <v>-1</v>
+      </c>
+      <c r="K61">
         <f t="shared" si="9"/>
-        <v>2.1989898989898991</v>
-      </c>
-      <c r="E61">
-        <f t="shared" si="5"/>
         <v>13.939393939393939</v>
       </c>
-      <c r="F61">
-        <f t="shared" si="6"/>
-        <v>13.939393939393939</v>
-      </c>
-      <c r="G61">
-        <f t="shared" si="7"/>
-        <v>63.636363636363633</v>
-      </c>
-      <c r="H61">
-        <v>-1</v>
-      </c>
-      <c r="I61">
-        <v>-1</v>
-      </c>
-      <c r="J61">
-        <v>-1</v>
-      </c>
-      <c r="K61">
-        <v>-1</v>
-      </c>
       <c r="L61">
         <v>-1</v>
       </c>
@@ -4570,46 +4706,47 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>61</v>
       </c>
       <c r="C62">
-        <f t="shared" si="8"/>
-        <v>1.2424242424242424</v>
+        <f t="shared" si="10"/>
+        <v>0.45454545454545447</v>
       </c>
       <c r="D62">
+        <f t="shared" si="11"/>
+        <v>1.1666666666666665</v>
+      </c>
+      <c r="E62">
+        <f t="shared" si="6"/>
+        <v>14.090909090909092</v>
+      </c>
+      <c r="F62">
+        <f t="shared" si="7"/>
+        <v>14.090909090909092</v>
+      </c>
+      <c r="G62">
+        <f t="shared" si="8"/>
+        <v>64.545454545454547</v>
+      </c>
+      <c r="H62">
+        <v>-1</v>
+      </c>
+      <c r="I62">
+        <v>-1</v>
+      </c>
+      <c r="J62">
+        <v>-1</v>
+      </c>
+      <c r="K62">
         <f t="shared" si="9"/>
-        <v>2.1515151515151514</v>
-      </c>
-      <c r="E62">
-        <f t="shared" si="5"/>
         <v>14.090909090909092</v>
       </c>
-      <c r="F62">
-        <f t="shared" si="6"/>
-        <v>14.090909090909092</v>
-      </c>
-      <c r="G62">
-        <f t="shared" si="7"/>
-        <v>64.545454545454547</v>
-      </c>
-      <c r="H62">
-        <v>-1</v>
-      </c>
-      <c r="I62">
-        <v>-1</v>
-      </c>
-      <c r="J62">
-        <v>-1</v>
-      </c>
-      <c r="K62">
-        <v>-1</v>
-      </c>
       <c r="L62">
         <v>-1</v>
       </c>
@@ -4629,46 +4766,47 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>62</v>
       </c>
       <c r="C63">
-        <f t="shared" si="8"/>
-        <v>1.2131313131313133</v>
+        <f t="shared" si="10"/>
+        <v>0.44545454545454544</v>
       </c>
       <c r="D63">
+        <f t="shared" si="11"/>
+        <v>1.1444444444444444</v>
+      </c>
+      <c r="E63">
+        <f t="shared" si="6"/>
+        <v>14.242424242424242</v>
+      </c>
+      <c r="F63">
+        <f t="shared" si="7"/>
+        <v>14.242424242424242</v>
+      </c>
+      <c r="G63">
+        <f t="shared" si="8"/>
+        <v>65.454545454545453</v>
+      </c>
+      <c r="H63">
+        <v>-1</v>
+      </c>
+      <c r="I63">
+        <v>-1</v>
+      </c>
+      <c r="J63">
+        <v>-1</v>
+      </c>
+      <c r="K63">
         <f t="shared" si="9"/>
-        <v>2.1040404040404042</v>
-      </c>
-      <c r="E63">
-        <f t="shared" si="5"/>
         <v>14.242424242424242</v>
       </c>
-      <c r="F63">
-        <f t="shared" si="6"/>
-        <v>14.242424242424242</v>
-      </c>
-      <c r="G63">
-        <f t="shared" si="7"/>
-        <v>65.454545454545453</v>
-      </c>
-      <c r="H63">
-        <v>-1</v>
-      </c>
-      <c r="I63">
-        <v>-1</v>
-      </c>
-      <c r="J63">
-        <v>-1</v>
-      </c>
-      <c r="K63">
-        <v>-1</v>
-      </c>
       <c r="L63">
         <v>-1</v>
       </c>
@@ -4688,46 +4826,47 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>63</v>
       </c>
       <c r="C64">
-        <f t="shared" si="8"/>
-        <v>1.1838383838383837</v>
+        <f t="shared" si="10"/>
+        <v>0.43636363636363629</v>
       </c>
       <c r="D64">
+        <f t="shared" si="11"/>
+        <v>1.122222222222222</v>
+      </c>
+      <c r="E64">
+        <f t="shared" si="6"/>
+        <v>14.393939393939394</v>
+      </c>
+      <c r="F64">
+        <f t="shared" si="7"/>
+        <v>14.393939393939394</v>
+      </c>
+      <c r="G64">
+        <f t="shared" si="8"/>
+        <v>66.363636363636374</v>
+      </c>
+      <c r="H64">
+        <v>-1</v>
+      </c>
+      <c r="I64">
+        <v>-1</v>
+      </c>
+      <c r="J64">
+        <v>-1</v>
+      </c>
+      <c r="K64">
         <f t="shared" si="9"/>
-        <v>2.0565656565656565</v>
-      </c>
-      <c r="E64">
-        <f t="shared" si="5"/>
         <v>14.393939393939394</v>
       </c>
-      <c r="F64">
-        <f t="shared" si="6"/>
-        <v>14.393939393939394</v>
-      </c>
-      <c r="G64">
-        <f t="shared" si="7"/>
-        <v>66.363636363636374</v>
-      </c>
-      <c r="H64">
-        <v>-1</v>
-      </c>
-      <c r="I64">
-        <v>-1</v>
-      </c>
-      <c r="J64">
-        <v>-1</v>
-      </c>
-      <c r="K64">
-        <v>-1</v>
-      </c>
       <c r="L64">
         <v>-1</v>
       </c>
@@ -4747,46 +4886,47 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>64</v>
       </c>
       <c r="C65">
-        <f t="shared" si="8"/>
-        <v>1.1545454545454545</v>
+        <f t="shared" si="10"/>
+        <v>0.42727272727272725</v>
       </c>
       <c r="D65">
+        <f t="shared" si="11"/>
+        <v>1.0999999999999999</v>
+      </c>
+      <c r="E65">
+        <f t="shared" si="6"/>
+        <v>14.545454545454545</v>
+      </c>
+      <c r="F65">
+        <f t="shared" si="7"/>
+        <v>14.545454545454545</v>
+      </c>
+      <c r="G65">
+        <f t="shared" si="8"/>
+        <v>67.27272727272728</v>
+      </c>
+      <c r="H65">
+        <v>-1</v>
+      </c>
+      <c r="I65">
+        <v>-1</v>
+      </c>
+      <c r="J65">
+        <v>-1</v>
+      </c>
+      <c r="K65">
         <f t="shared" si="9"/>
-        <v>2.0090909090909088</v>
-      </c>
-      <c r="E65">
-        <f t="shared" si="5"/>
         <v>14.545454545454545</v>
       </c>
-      <c r="F65">
-        <f t="shared" si="6"/>
-        <v>14.545454545454545</v>
-      </c>
-      <c r="G65">
-        <f t="shared" si="7"/>
-        <v>67.27272727272728</v>
-      </c>
-      <c r="H65">
-        <v>-1</v>
-      </c>
-      <c r="I65">
-        <v>-1</v>
-      </c>
-      <c r="J65">
-        <v>-1</v>
-      </c>
-      <c r="K65">
-        <v>-1</v>
-      </c>
       <c r="L65">
         <v>-1</v>
       </c>
@@ -4806,46 +4946,47 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>65</v>
       </c>
       <c r="C66">
-        <f t="shared" si="8"/>
-        <v>1.1252525252525252</v>
+        <f t="shared" si="10"/>
+        <v>0.4181818181818181</v>
       </c>
       <c r="D66">
+        <f t="shared" si="11"/>
+        <v>1.0777777777777775</v>
+      </c>
+      <c r="E66">
+        <f t="shared" si="6"/>
+        <v>14.696969696969697</v>
+      </c>
+      <c r="F66">
+        <f t="shared" si="7"/>
+        <v>14.696969696969697</v>
+      </c>
+      <c r="G66">
+        <f t="shared" si="8"/>
+        <v>68.181818181818187</v>
+      </c>
+      <c r="H66">
+        <v>-1</v>
+      </c>
+      <c r="I66">
+        <v>-1</v>
+      </c>
+      <c r="J66">
+        <v>-1</v>
+      </c>
+      <c r="K66">
         <f t="shared" si="9"/>
-        <v>1.9616161616161611</v>
-      </c>
-      <c r="E66">
-        <f t="shared" si="5"/>
         <v>14.696969696969697</v>
       </c>
-      <c r="F66">
-        <f t="shared" si="6"/>
-        <v>14.696969696969697</v>
-      </c>
-      <c r="G66">
-        <f t="shared" si="7"/>
-        <v>68.181818181818187</v>
-      </c>
-      <c r="H66">
-        <v>-1</v>
-      </c>
-      <c r="I66">
-        <v>-1</v>
-      </c>
-      <c r="J66">
-        <v>-1</v>
-      </c>
-      <c r="K66">
-        <v>-1</v>
-      </c>
       <c r="L66">
         <v>-1</v>
       </c>
@@ -4865,46 +5006,47 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>66</v>
       </c>
       <c r="C67">
-        <f t="shared" si="8"/>
-        <v>1.095959595959596</v>
+        <f t="shared" si="10"/>
+        <v>0.40909090909090906</v>
       </c>
       <c r="D67">
+        <f t="shared" si="11"/>
+        <v>1.0555555555555554</v>
+      </c>
+      <c r="E67">
+        <f t="shared" si="6"/>
+        <v>14.848484848484848</v>
+      </c>
+      <c r="F67">
+        <f t="shared" si="7"/>
+        <v>14.848484848484848</v>
+      </c>
+      <c r="G67">
+        <f t="shared" si="8"/>
+        <v>69.090909090909093</v>
+      </c>
+      <c r="H67">
+        <v>-1</v>
+      </c>
+      <c r="I67">
+        <v>-1</v>
+      </c>
+      <c r="J67">
+        <v>-1</v>
+      </c>
+      <c r="K67">
         <f t="shared" si="9"/>
-        <v>1.9141414141414139</v>
-      </c>
-      <c r="E67">
-        <f t="shared" si="5"/>
         <v>14.848484848484848</v>
       </c>
-      <c r="F67">
-        <f t="shared" si="6"/>
-        <v>14.848484848484848</v>
-      </c>
-      <c r="G67">
-        <f t="shared" si="7"/>
-        <v>69.090909090909093</v>
-      </c>
-      <c r="H67">
-        <v>-1</v>
-      </c>
-      <c r="I67">
-        <v>-1</v>
-      </c>
-      <c r="J67">
-        <v>-1</v>
-      </c>
-      <c r="K67">
-        <v>-1</v>
-      </c>
       <c r="L67">
         <v>-1</v>
       </c>
@@ -4924,46 +5066,47 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68">
-        <f t="shared" ref="B68:B100" si="10">(B$2+((SUM(A68-1)/SUM(A$101-1))*(SUM(B$101-B$2))))</f>
+        <f t="shared" ref="B68:B100" si="12">(B$2+((SUM(A68-1)/SUM(A$101-1))*(SUM(B$101-B$2))))</f>
         <v>67</v>
       </c>
       <c r="C68">
-        <f t="shared" si="8"/>
-        <v>1.0666666666666669</v>
+        <f t="shared" si="10"/>
+        <v>0.4</v>
       </c>
       <c r="D68">
+        <f t="shared" si="11"/>
+        <v>1.0333333333333332</v>
+      </c>
+      <c r="E68">
+        <f t="shared" si="6"/>
+        <v>15</v>
+      </c>
+      <c r="F68">
+        <f t="shared" si="7"/>
+        <v>15</v>
+      </c>
+      <c r="G68">
+        <f t="shared" si="8"/>
+        <v>70</v>
+      </c>
+      <c r="H68">
+        <v>-1</v>
+      </c>
+      <c r="I68">
+        <v>-1</v>
+      </c>
+      <c r="J68">
+        <v>-1</v>
+      </c>
+      <c r="K68">
         <f t="shared" si="9"/>
-        <v>1.8666666666666667</v>
-      </c>
-      <c r="E68">
-        <f t="shared" si="5"/>
         <v>15</v>
       </c>
-      <c r="F68">
-        <f t="shared" si="6"/>
-        <v>15</v>
-      </c>
-      <c r="G68">
-        <f t="shared" si="7"/>
-        <v>70</v>
-      </c>
-      <c r="H68">
-        <v>-1</v>
-      </c>
-      <c r="I68">
-        <v>-1</v>
-      </c>
-      <c r="J68">
-        <v>-1</v>
-      </c>
-      <c r="K68">
-        <v>-1</v>
-      </c>
       <c r="L68">
         <v>-1</v>
       </c>
@@ -4983,46 +5126,47 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69">
+        <f t="shared" si="12"/>
+        <v>68</v>
+      </c>
+      <c r="C69">
         <f t="shared" si="10"/>
-        <v>68</v>
-      </c>
-      <c r="C69">
-        <f t="shared" si="8"/>
-        <v>1.0373737373737373</v>
+        <v>0.39090909090909087</v>
       </c>
       <c r="D69">
+        <f t="shared" si="11"/>
+        <v>1.0111111111111108</v>
+      </c>
+      <c r="E69">
+        <f t="shared" si="6"/>
+        <v>15.151515151515152</v>
+      </c>
+      <c r="F69">
+        <f t="shared" si="7"/>
+        <v>15.151515151515152</v>
+      </c>
+      <c r="G69">
+        <f t="shared" si="8"/>
+        <v>70.909090909090907</v>
+      </c>
+      <c r="H69">
+        <v>-1</v>
+      </c>
+      <c r="I69">
+        <v>-1</v>
+      </c>
+      <c r="J69">
+        <v>-1</v>
+      </c>
+      <c r="K69">
         <f t="shared" si="9"/>
-        <v>1.819191919191919</v>
-      </c>
-      <c r="E69">
-        <f t="shared" si="5"/>
         <v>15.151515151515152</v>
       </c>
-      <c r="F69">
-        <f t="shared" si="6"/>
-        <v>15.151515151515152</v>
-      </c>
-      <c r="G69">
-        <f t="shared" si="7"/>
-        <v>70.909090909090907</v>
-      </c>
-      <c r="H69">
-        <v>-1</v>
-      </c>
-      <c r="I69">
-        <v>-1</v>
-      </c>
-      <c r="J69">
-        <v>-1</v>
-      </c>
-      <c r="K69">
-        <v>-1</v>
-      </c>
       <c r="L69">
         <v>-1</v>
       </c>
@@ -5042,46 +5186,47 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70">
+        <f t="shared" si="12"/>
+        <v>69</v>
+      </c>
+      <c r="C70">
         <f t="shared" si="10"/>
-        <v>69</v>
-      </c>
-      <c r="C70">
-        <f t="shared" si="8"/>
-        <v>1.0080808080808081</v>
+        <v>0.38181818181818183</v>
       </c>
       <c r="D70">
+        <f t="shared" si="11"/>
+        <v>0.98888888888888871</v>
+      </c>
+      <c r="E70">
+        <f t="shared" si="6"/>
+        <v>15.303030303030303</v>
+      </c>
+      <c r="F70">
+        <f t="shared" si="7"/>
+        <v>15.303030303030303</v>
+      </c>
+      <c r="G70">
+        <f t="shared" si="8"/>
+        <v>71.818181818181813</v>
+      </c>
+      <c r="H70">
+        <v>-1</v>
+      </c>
+      <c r="I70">
+        <v>-1</v>
+      </c>
+      <c r="J70">
+        <v>-1</v>
+      </c>
+      <c r="K70">
         <f t="shared" si="9"/>
-        <v>1.7717171717171718</v>
-      </c>
-      <c r="E70">
-        <f t="shared" si="5"/>
         <v>15.303030303030303</v>
       </c>
-      <c r="F70">
-        <f t="shared" si="6"/>
-        <v>15.303030303030303</v>
-      </c>
-      <c r="G70">
-        <f t="shared" si="7"/>
-        <v>71.818181818181813</v>
-      </c>
-      <c r="H70">
-        <v>-1</v>
-      </c>
-      <c r="I70">
-        <v>-1</v>
-      </c>
-      <c r="J70">
-        <v>-1</v>
-      </c>
-      <c r="K70">
-        <v>-1</v>
-      </c>
       <c r="L70">
         <v>-1</v>
       </c>
@@ -5101,46 +5246,47 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71">
+        <f t="shared" si="12"/>
+        <v>70</v>
+      </c>
+      <c r="C71">
         <f t="shared" si="10"/>
-        <v>70</v>
-      </c>
-      <c r="C71">
-        <f t="shared" si="8"/>
-        <v>0.97878787878787854</v>
+        <v>0.37272727272727268</v>
       </c>
       <c r="D71">
+        <f t="shared" si="11"/>
+        <v>0.96666666666666634</v>
+      </c>
+      <c r="E71">
+        <f t="shared" si="6"/>
+        <v>15.454545454545455</v>
+      </c>
+      <c r="F71">
+        <f t="shared" si="7"/>
+        <v>15.454545454545455</v>
+      </c>
+      <c r="G71">
+        <f t="shared" si="8"/>
+        <v>72.727272727272734</v>
+      </c>
+      <c r="H71">
+        <v>-1</v>
+      </c>
+      <c r="I71">
+        <v>-1</v>
+      </c>
+      <c r="J71">
+        <v>-1</v>
+      </c>
+      <c r="K71">
         <f t="shared" si="9"/>
-        <v>1.7242424242424237</v>
-      </c>
-      <c r="E71">
-        <f t="shared" si="5"/>
         <v>15.454545454545455</v>
       </c>
-      <c r="F71">
-        <f t="shared" si="6"/>
-        <v>15.454545454545455</v>
-      </c>
-      <c r="G71">
-        <f t="shared" si="7"/>
-        <v>72.727272727272734</v>
-      </c>
-      <c r="H71">
-        <v>-1</v>
-      </c>
-      <c r="I71">
-        <v>-1</v>
-      </c>
-      <c r="J71">
-        <v>-1</v>
-      </c>
-      <c r="K71">
-        <v>-1</v>
-      </c>
       <c r="L71">
         <v>-1</v>
       </c>
@@ -5160,46 +5306,47 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72">
+        <f t="shared" si="12"/>
+        <v>71</v>
+      </c>
+      <c r="C72">
         <f t="shared" si="10"/>
-        <v>71</v>
-      </c>
-      <c r="C72">
-        <f t="shared" si="8"/>
-        <v>0.94949494949494939</v>
+        <v>0.36363636363636365</v>
       </c>
       <c r="D72">
+        <f t="shared" si="11"/>
+        <v>0.94444444444444442</v>
+      </c>
+      <c r="E72">
+        <f t="shared" si="6"/>
+        <v>15.606060606060606</v>
+      </c>
+      <c r="F72">
+        <f t="shared" si="7"/>
+        <v>15.606060606060606</v>
+      </c>
+      <c r="G72">
+        <f t="shared" si="8"/>
+        <v>73.636363636363626</v>
+      </c>
+      <c r="H72">
+        <v>-1</v>
+      </c>
+      <c r="I72">
+        <v>-1</v>
+      </c>
+      <c r="J72">
+        <v>-1</v>
+      </c>
+      <c r="K72">
         <f t="shared" si="9"/>
-        <v>1.6767676767676765</v>
-      </c>
-      <c r="E72">
-        <f t="shared" si="5"/>
         <v>15.606060606060606</v>
       </c>
-      <c r="F72">
-        <f t="shared" si="6"/>
-        <v>15.606060606060606</v>
-      </c>
-      <c r="G72">
-        <f t="shared" si="7"/>
-        <v>73.636363636363626</v>
-      </c>
-      <c r="H72">
-        <v>-1</v>
-      </c>
-      <c r="I72">
-        <v>-1</v>
-      </c>
-      <c r="J72">
-        <v>-1</v>
-      </c>
-      <c r="K72">
-        <v>-1</v>
-      </c>
       <c r="L72">
         <v>-1</v>
       </c>
@@ -5219,46 +5366,47 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73">
+        <f t="shared" si="12"/>
+        <v>72</v>
+      </c>
+      <c r="C73">
         <f t="shared" si="10"/>
-        <v>72</v>
-      </c>
-      <c r="C73">
-        <f t="shared" si="8"/>
-        <v>0.92020202020202024</v>
+        <v>0.35454545454545461</v>
       </c>
       <c r="D73">
+        <f t="shared" si="11"/>
+        <v>0.92222222222222228</v>
+      </c>
+      <c r="E73">
+        <f t="shared" si="6"/>
+        <v>15.757575757575758</v>
+      </c>
+      <c r="F73">
+        <f t="shared" si="7"/>
+        <v>15.757575757575758</v>
+      </c>
+      <c r="G73">
+        <f t="shared" si="8"/>
+        <v>74.545454545454547</v>
+      </c>
+      <c r="H73">
+        <v>-1</v>
+      </c>
+      <c r="I73">
+        <v>-1</v>
+      </c>
+      <c r="J73">
+        <v>-1</v>
+      </c>
+      <c r="K73">
         <f t="shared" si="9"/>
-        <v>1.6292929292929292</v>
-      </c>
-      <c r="E73">
-        <f t="shared" si="5"/>
         <v>15.757575757575758</v>
       </c>
-      <c r="F73">
-        <f t="shared" si="6"/>
-        <v>15.757575757575758</v>
-      </c>
-      <c r="G73">
-        <f t="shared" si="7"/>
-        <v>74.545454545454547</v>
-      </c>
-      <c r="H73">
-        <v>-1</v>
-      </c>
-      <c r="I73">
-        <v>-1</v>
-      </c>
-      <c r="J73">
-        <v>-1</v>
-      </c>
-      <c r="K73">
-        <v>-1</v>
-      </c>
       <c r="L73">
         <v>-1</v>
       </c>
@@ -5278,46 +5426,47 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74">
+        <f t="shared" si="12"/>
+        <v>73</v>
+      </c>
+      <c r="C74">
         <f t="shared" si="10"/>
-        <v>73</v>
-      </c>
-      <c r="C74">
-        <f t="shared" si="8"/>
-        <v>0.89090909090909109</v>
+        <v>0.34545454545454546</v>
       </c>
       <c r="D74">
+        <f t="shared" si="11"/>
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="E74">
+        <f t="shared" si="6"/>
+        <v>15.90909090909091</v>
+      </c>
+      <c r="F74">
+        <f t="shared" si="7"/>
+        <v>15.90909090909091</v>
+      </c>
+      <c r="G74">
+        <f t="shared" si="8"/>
+        <v>75.454545454545453</v>
+      </c>
+      <c r="H74">
+        <v>-1</v>
+      </c>
+      <c r="I74">
+        <v>-1</v>
+      </c>
+      <c r="J74">
+        <v>-1</v>
+      </c>
+      <c r="K74">
         <f t="shared" si="9"/>
-        <v>1.5818181818181816</v>
-      </c>
-      <c r="E74">
-        <f t="shared" si="5"/>
         <v>15.90909090909091</v>
       </c>
-      <c r="F74">
-        <f t="shared" si="6"/>
-        <v>15.90909090909091</v>
-      </c>
-      <c r="G74">
-        <f t="shared" si="7"/>
-        <v>75.454545454545453</v>
-      </c>
-      <c r="H74">
-        <v>-1</v>
-      </c>
-      <c r="I74">
-        <v>-1</v>
-      </c>
-      <c r="J74">
-        <v>-1</v>
-      </c>
-      <c r="K74">
-        <v>-1</v>
-      </c>
       <c r="L74">
         <v>-1</v>
       </c>
@@ -5337,46 +5486,47 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75">
+        <f t="shared" si="12"/>
+        <v>74</v>
+      </c>
+      <c r="C75">
         <f t="shared" si="10"/>
-        <v>74</v>
-      </c>
-      <c r="C75">
-        <f t="shared" si="8"/>
-        <v>0.86161616161616195</v>
+        <v>0.33636363636363642</v>
       </c>
       <c r="D75">
+        <f t="shared" si="11"/>
+        <v>0.87777777777777777</v>
+      </c>
+      <c r="E75">
+        <f t="shared" si="6"/>
+        <v>16.060606060606062</v>
+      </c>
+      <c r="F75">
+        <f t="shared" si="7"/>
+        <v>16.060606060606062</v>
+      </c>
+      <c r="G75">
+        <f t="shared" si="8"/>
+        <v>76.36363636363636</v>
+      </c>
+      <c r="H75">
+        <v>-1</v>
+      </c>
+      <c r="I75">
+        <v>-1</v>
+      </c>
+      <c r="J75">
+        <v>-1</v>
+      </c>
+      <c r="K75">
         <f t="shared" si="9"/>
-        <v>1.5343434343434343</v>
-      </c>
-      <c r="E75">
-        <f t="shared" si="5"/>
         <v>16.060606060606062</v>
       </c>
-      <c r="F75">
-        <f t="shared" si="6"/>
-        <v>16.060606060606062</v>
-      </c>
-      <c r="G75">
-        <f t="shared" si="7"/>
-        <v>76.36363636363636</v>
-      </c>
-      <c r="H75">
-        <v>-1</v>
-      </c>
-      <c r="I75">
-        <v>-1</v>
-      </c>
-      <c r="J75">
-        <v>-1</v>
-      </c>
-      <c r="K75">
-        <v>-1</v>
-      </c>
       <c r="L75">
         <v>-1</v>
       </c>
@@ -5396,46 +5546,47 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76">
+        <f t="shared" si="12"/>
+        <v>75</v>
+      </c>
+      <c r="C76">
         <f t="shared" si="10"/>
-        <v>75</v>
-      </c>
-      <c r="C76">
-        <f t="shared" si="8"/>
-        <v>0.83232323232323235</v>
+        <v>0.32727272727272727</v>
       </c>
       <c r="D76">
+        <f t="shared" si="11"/>
+        <v>0.8555555555555554</v>
+      </c>
+      <c r="E76">
+        <f t="shared" si="6"/>
+        <v>16.212121212121211</v>
+      </c>
+      <c r="F76">
+        <f t="shared" si="7"/>
+        <v>16.212121212121211</v>
+      </c>
+      <c r="G76">
+        <f t="shared" si="8"/>
+        <v>77.27272727272728</v>
+      </c>
+      <c r="H76">
+        <v>-1</v>
+      </c>
+      <c r="I76">
+        <v>-1</v>
+      </c>
+      <c r="J76">
+        <v>-1</v>
+      </c>
+      <c r="K76">
         <f t="shared" si="9"/>
-        <v>1.4868686868686867</v>
-      </c>
-      <c r="E76">
-        <f t="shared" si="5"/>
         <v>16.212121212121211</v>
       </c>
-      <c r="F76">
-        <f t="shared" si="6"/>
-        <v>16.212121212121211</v>
-      </c>
-      <c r="G76">
-        <f t="shared" si="7"/>
-        <v>77.27272727272728</v>
-      </c>
-      <c r="H76">
-        <v>-1</v>
-      </c>
-      <c r="I76">
-        <v>-1</v>
-      </c>
-      <c r="J76">
-        <v>-1</v>
-      </c>
-      <c r="K76">
-        <v>-1</v>
-      </c>
       <c r="L76">
         <v>-1</v>
       </c>
@@ -5455,46 +5606,47 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77">
+        <f t="shared" si="12"/>
+        <v>76</v>
+      </c>
+      <c r="C77">
         <f t="shared" si="10"/>
-        <v>76</v>
-      </c>
-      <c r="C77">
-        <f t="shared" si="8"/>
-        <v>0.80303030303030321</v>
+        <v>0.31818181818181812</v>
       </c>
       <c r="D77">
+        <f t="shared" si="11"/>
+        <v>0.83333333333333326</v>
+      </c>
+      <c r="E77">
+        <f t="shared" si="6"/>
+        <v>16.363636363636363</v>
+      </c>
+      <c r="F77">
+        <f t="shared" si="7"/>
+        <v>16.363636363636363</v>
+      </c>
+      <c r="G77">
+        <f t="shared" si="8"/>
+        <v>78.181818181818187</v>
+      </c>
+      <c r="H77">
+        <v>-1</v>
+      </c>
+      <c r="I77">
+        <v>-1</v>
+      </c>
+      <c r="J77">
+        <v>-1</v>
+      </c>
+      <c r="K77">
         <f t="shared" si="9"/>
-        <v>1.4393939393939394</v>
-      </c>
-      <c r="E77">
-        <f t="shared" si="5"/>
         <v>16.363636363636363</v>
       </c>
-      <c r="F77">
-        <f t="shared" si="6"/>
-        <v>16.363636363636363</v>
-      </c>
-      <c r="G77">
-        <f t="shared" si="7"/>
-        <v>78.181818181818187</v>
-      </c>
-      <c r="H77">
-        <v>-1</v>
-      </c>
-      <c r="I77">
-        <v>-1</v>
-      </c>
-      <c r="J77">
-        <v>-1</v>
-      </c>
-      <c r="K77">
-        <v>-1</v>
-      </c>
       <c r="L77">
         <v>-1</v>
       </c>
@@ -5514,46 +5666,47 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>77</v>
       </c>
       <c r="C78">
-        <f t="shared" ref="C78:C100" si="11">(C$2+((SUM(A78-1)/SUM(A$101-1))*(SUM(C$101-C$2))))</f>
-        <v>0.77373737373737406</v>
+        <f t="shared" ref="C78:C100" si="13">(C$2+((SUM(A78-1)/SUM(A$101-1))*(SUM(C$101-C$2))))</f>
+        <v>0.30909090909090908</v>
       </c>
       <c r="D78">
+        <f t="shared" si="11"/>
+        <v>0.81111111111111112</v>
+      </c>
+      <c r="E78">
+        <f t="shared" si="6"/>
+        <v>16.515151515151516</v>
+      </c>
+      <c r="F78">
+        <f t="shared" si="7"/>
+        <v>16.515151515151516</v>
+      </c>
+      <c r="G78">
+        <f t="shared" si="8"/>
+        <v>79.090909090909079</v>
+      </c>
+      <c r="H78">
+        <v>-1</v>
+      </c>
+      <c r="I78">
+        <v>-1</v>
+      </c>
+      <c r="J78">
+        <v>-1</v>
+      </c>
+      <c r="K78">
         <f t="shared" si="9"/>
-        <v>1.3919191919191922</v>
-      </c>
-      <c r="E78">
-        <f t="shared" si="5"/>
         <v>16.515151515151516</v>
       </c>
-      <c r="F78">
-        <f t="shared" si="6"/>
-        <v>16.515151515151516</v>
-      </c>
-      <c r="G78">
-        <f t="shared" si="7"/>
-        <v>79.090909090909079</v>
-      </c>
-      <c r="H78">
-        <v>-1</v>
-      </c>
-      <c r="I78">
-        <v>-1</v>
-      </c>
-      <c r="J78">
-        <v>-1</v>
-      </c>
-      <c r="K78">
-        <v>-1</v>
-      </c>
       <c r="L78">
         <v>-1</v>
       </c>
@@ -5573,46 +5726,47 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="B79">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>78</v>
       </c>
       <c r="C79">
+        <f t="shared" si="13"/>
+        <v>0.29999999999999993</v>
+      </c>
+      <c r="D79">
         <f t="shared" si="11"/>
-        <v>0.74444444444444446</v>
-      </c>
-      <c r="D79">
+        <v>0.78888888888888875</v>
+      </c>
+      <c r="E79">
+        <f t="shared" si="6"/>
+        <v>16.666666666666664</v>
+      </c>
+      <c r="F79">
+        <f t="shared" si="7"/>
+        <v>16.666666666666664</v>
+      </c>
+      <c r="G79">
+        <f t="shared" si="8"/>
+        <v>80</v>
+      </c>
+      <c r="H79">
+        <v>-1</v>
+      </c>
+      <c r="I79">
+        <v>-1</v>
+      </c>
+      <c r="J79">
+        <v>-1</v>
+      </c>
+      <c r="K79">
         <f t="shared" si="9"/>
-        <v>1.3444444444444441</v>
-      </c>
-      <c r="E79">
-        <f t="shared" si="5"/>
         <v>16.666666666666664</v>
       </c>
-      <c r="F79">
-        <f t="shared" si="6"/>
-        <v>16.666666666666664</v>
-      </c>
-      <c r="G79">
-        <f t="shared" si="7"/>
-        <v>80</v>
-      </c>
-      <c r="H79">
-        <v>-1</v>
-      </c>
-      <c r="I79">
-        <v>-1</v>
-      </c>
-      <c r="J79">
-        <v>-1</v>
-      </c>
-      <c r="K79">
-        <v>-1</v>
-      </c>
       <c r="L79">
         <v>-1</v>
       </c>
@@ -5632,46 +5786,47 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>79</v>
       </c>
       <c r="B80">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>79</v>
       </c>
       <c r="C80">
+        <f t="shared" si="13"/>
+        <v>0.29090909090909089</v>
+      </c>
+      <c r="D80">
         <f t="shared" si="11"/>
-        <v>0.71515151515151532</v>
-      </c>
-      <c r="D80">
+        <v>0.76666666666666661</v>
+      </c>
+      <c r="E80">
+        <f t="shared" si="6"/>
+        <v>16.81818181818182</v>
+      </c>
+      <c r="F80">
+        <f t="shared" si="7"/>
+        <v>16.81818181818182</v>
+      </c>
+      <c r="G80">
+        <f t="shared" si="8"/>
+        <v>80.909090909090907</v>
+      </c>
+      <c r="H80">
+        <v>-1</v>
+      </c>
+      <c r="I80">
+        <v>-1</v>
+      </c>
+      <c r="J80">
+        <v>-1</v>
+      </c>
+      <c r="K80">
         <f t="shared" si="9"/>
-        <v>1.2969696969696969</v>
-      </c>
-      <c r="E80">
-        <f t="shared" si="5"/>
         <v>16.81818181818182</v>
       </c>
-      <c r="F80">
-        <f t="shared" si="6"/>
-        <v>16.81818181818182</v>
-      </c>
-      <c r="G80">
-        <f t="shared" si="7"/>
-        <v>80.909090909090907</v>
-      </c>
-      <c r="H80">
-        <v>-1</v>
-      </c>
-      <c r="I80">
-        <v>-1</v>
-      </c>
-      <c r="J80">
-        <v>-1</v>
-      </c>
-      <c r="K80">
-        <v>-1</v>
-      </c>
       <c r="L80">
         <v>-1</v>
       </c>
@@ -5691,46 +5846,47 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>80</v>
       </c>
       <c r="B81">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>80</v>
       </c>
       <c r="C81">
+        <f t="shared" si="13"/>
+        <v>0.28181818181818175</v>
+      </c>
+      <c r="D81">
         <f t="shared" si="11"/>
-        <v>0.68585858585858572</v>
-      </c>
-      <c r="D81">
+        <v>0.74444444444444424</v>
+      </c>
+      <c r="E81">
+        <f t="shared" si="6"/>
+        <v>16.969696969696969</v>
+      </c>
+      <c r="F81">
+        <f t="shared" si="7"/>
+        <v>16.969696969696969</v>
+      </c>
+      <c r="G81">
+        <f t="shared" si="8"/>
+        <v>81.818181818181827</v>
+      </c>
+      <c r="H81">
+        <v>-1</v>
+      </c>
+      <c r="I81">
+        <v>-1</v>
+      </c>
+      <c r="J81">
+        <v>-1</v>
+      </c>
+      <c r="K81">
         <f t="shared" si="9"/>
-        <v>1.2494949494949492</v>
-      </c>
-      <c r="E81">
-        <f t="shared" si="5"/>
         <v>16.969696969696969</v>
       </c>
-      <c r="F81">
-        <f t="shared" si="6"/>
-        <v>16.969696969696969</v>
-      </c>
-      <c r="G81">
-        <f t="shared" si="7"/>
-        <v>81.818181818181827</v>
-      </c>
-      <c r="H81">
-        <v>-1</v>
-      </c>
-      <c r="I81">
-        <v>-1</v>
-      </c>
-      <c r="J81">
-        <v>-1</v>
-      </c>
-      <c r="K81">
-        <v>-1</v>
-      </c>
       <c r="L81">
         <v>-1</v>
       </c>
@@ -5750,46 +5906,47 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>81</v>
       </c>
       <c r="B82">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>81</v>
       </c>
       <c r="C82">
+        <f t="shared" si="13"/>
+        <v>0.27272727272727271</v>
+      </c>
+      <c r="D82">
         <f t="shared" si="11"/>
-        <v>0.65656565656565657</v>
-      </c>
-      <c r="D82">
+        <v>0.7222222222222221</v>
+      </c>
+      <c r="E82">
+        <f t="shared" si="6"/>
+        <v>17.121212121212121</v>
+      </c>
+      <c r="F82">
+        <f t="shared" si="7"/>
+        <v>17.121212121212121</v>
+      </c>
+      <c r="G82">
+        <f t="shared" si="8"/>
+        <v>82.72727272727272</v>
+      </c>
+      <c r="H82">
+        <v>-1</v>
+      </c>
+      <c r="I82">
+        <v>-1</v>
+      </c>
+      <c r="J82">
+        <v>-1</v>
+      </c>
+      <c r="K82">
         <f t="shared" si="9"/>
-        <v>1.202020202020202</v>
-      </c>
-      <c r="E82">
-        <f t="shared" si="5"/>
         <v>17.121212121212121</v>
       </c>
-      <c r="F82">
-        <f t="shared" si="6"/>
-        <v>17.121212121212121</v>
-      </c>
-      <c r="G82">
-        <f t="shared" si="7"/>
-        <v>82.72727272727272</v>
-      </c>
-      <c r="H82">
-        <v>-1</v>
-      </c>
-      <c r="I82">
-        <v>-1</v>
-      </c>
-      <c r="J82">
-        <v>-1</v>
-      </c>
-      <c r="K82">
-        <v>-1</v>
-      </c>
       <c r="L82">
         <v>-1</v>
       </c>
@@ -5809,32 +5966,32 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>82</v>
       </c>
       <c r="B83">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>82</v>
       </c>
       <c r="C83">
+        <f t="shared" si="13"/>
+        <v>0.26363636363636356</v>
+      </c>
+      <c r="D83">
         <f t="shared" si="11"/>
-        <v>0.62727272727272698</v>
-      </c>
-      <c r="D83">
-        <f t="shared" si="9"/>
-        <v>1.1545454545454543</v>
+        <v>0.69999999999999973</v>
       </c>
       <c r="E83">
-        <f t="shared" ref="E83:E100" si="12">(E$2+((SUM($A83-1)/SUM($A$101-1))*(SUM(E$101-E$2))))</f>
+        <f t="shared" ref="E83:E100" si="14">(E$2+((SUM($A83-1)/SUM($A$101-1))*(SUM(E$101-E$2))))</f>
         <v>17.272727272727273</v>
       </c>
       <c r="F83">
-        <f t="shared" ref="F83:F100" si="13">(F$2+((SUM($A83-1)/SUM($A$101-1))*(SUM(F$101-F$2))))</f>
+        <f t="shared" ref="F83:F100" si="15">(F$2+((SUM($A83-1)/SUM($A$101-1))*(SUM(F$101-F$2))))</f>
         <v>17.272727272727273</v>
       </c>
       <c r="G83">
-        <f t="shared" ref="G83:G100" si="14">(G$2+((SUM($A83-1)/SUM($A$101-1))*(SUM(G$101-G$2))))</f>
+        <f t="shared" ref="G83:G100" si="16">(G$2+((SUM($A83-1)/SUM($A$101-1))*(SUM(G$101-G$2))))</f>
         <v>83.63636363636364</v>
       </c>
       <c r="H83">
@@ -5847,7 +6004,8 @@
         <v>-1</v>
       </c>
       <c r="K83">
-        <v>-1</v>
+        <f t="shared" ref="K83:K100" si="17">(K$2+((SUM($A83-1)/SUM($A$101-1))*(SUM(K$101-K$2))))</f>
+        <v>17.272727272727273</v>
       </c>
       <c r="L83">
         <v>-1</v>
@@ -5868,32 +6026,32 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>83</v>
       </c>
       <c r="B84">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>83</v>
       </c>
       <c r="C84">
+        <f t="shared" si="13"/>
+        <v>0.25454545454545452</v>
+      </c>
+      <c r="D84">
         <f t="shared" si="11"/>
-        <v>0.59797979797979783</v>
-      </c>
-      <c r="D84">
-        <f t="shared" si="9"/>
-        <v>1.1070707070707071</v>
+        <v>0.67777777777777759</v>
       </c>
       <c r="E84">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>17.424242424242422</v>
       </c>
       <c r="F84">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>17.424242424242422</v>
       </c>
       <c r="G84">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>84.545454545454547</v>
       </c>
       <c r="H84">
@@ -5906,7 +6064,8 @@
         <v>-1</v>
       </c>
       <c r="K84">
-        <v>-1</v>
+        <f t="shared" si="17"/>
+        <v>17.424242424242422</v>
       </c>
       <c r="L84">
         <v>-1</v>
@@ -5927,32 +6086,32 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>84</v>
       </c>
       <c r="B85">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>84</v>
       </c>
       <c r="C85">
+        <f t="shared" si="13"/>
+        <v>0.24545454545454548</v>
+      </c>
+      <c r="D85">
         <f t="shared" si="11"/>
-        <v>0.56868686868686869</v>
-      </c>
-      <c r="D85">
-        <f t="shared" si="9"/>
-        <v>1.0595959595959594</v>
+        <v>0.65555555555555545</v>
       </c>
       <c r="E85">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>17.575757575757574</v>
       </c>
       <c r="F85">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>17.575757575757574</v>
       </c>
       <c r="G85">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>85.454545454545453</v>
       </c>
       <c r="H85">
@@ -5965,7 +6124,8 @@
         <v>-1</v>
       </c>
       <c r="K85">
-        <v>-1</v>
+        <f t="shared" si="17"/>
+        <v>17.575757575757574</v>
       </c>
       <c r="L85">
         <v>-1</v>
@@ -5986,32 +6146,32 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>85</v>
       </c>
       <c r="B86">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>85</v>
       </c>
       <c r="C86">
+        <f t="shared" si="13"/>
+        <v>0.23636363636363633</v>
+      </c>
+      <c r="D86">
         <f t="shared" si="11"/>
-        <v>0.53939393939393954</v>
-      </c>
-      <c r="D86">
-        <f t="shared" si="9"/>
-        <v>1.0121212121212118</v>
+        <v>0.63333333333333308</v>
       </c>
       <c r="E86">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>17.727272727272727</v>
       </c>
       <c r="F86">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>17.727272727272727</v>
       </c>
       <c r="G86">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>86.36363636363636</v>
       </c>
       <c r="H86">
@@ -6024,7 +6184,8 @@
         <v>-1</v>
       </c>
       <c r="K86">
-        <v>-1</v>
+        <f t="shared" si="17"/>
+        <v>17.727272727272727</v>
       </c>
       <c r="L86">
         <v>-1</v>
@@ -6045,32 +6206,32 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>86</v>
       </c>
       <c r="B87">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>86</v>
       </c>
       <c r="C87">
+        <f t="shared" si="13"/>
+        <v>0.22727272727272729</v>
+      </c>
+      <c r="D87">
         <f t="shared" si="11"/>
-        <v>0.51010101010101039</v>
-      </c>
-      <c r="D87">
-        <f t="shared" si="9"/>
-        <v>0.96464646464646453</v>
+        <v>0.61111111111111094</v>
       </c>
       <c r="E87">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>17.878787878787879</v>
       </c>
       <c r="F87">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>17.878787878787879</v>
       </c>
       <c r="G87">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>87.272727272727266</v>
       </c>
       <c r="H87">
@@ -6083,7 +6244,8 @@
         <v>-1</v>
       </c>
       <c r="K87">
-        <v>-1</v>
+        <f t="shared" si="17"/>
+        <v>17.878787878787879</v>
       </c>
       <c r="L87">
         <v>-1</v>
@@ -6104,32 +6266,32 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>87</v>
       </c>
       <c r="B88">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>87</v>
       </c>
       <c r="C88">
+        <f t="shared" si="13"/>
+        <v>0.21818181818181814</v>
+      </c>
+      <c r="D88">
         <f t="shared" si="11"/>
-        <v>0.4808080808080808</v>
-      </c>
-      <c r="D88">
-        <f t="shared" si="9"/>
-        <v>0.91717171717171642</v>
+        <v>0.58888888888888857</v>
       </c>
       <c r="E88">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>18.030303030303031</v>
       </c>
       <c r="F88">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>18.030303030303031</v>
       </c>
       <c r="G88">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>88.181818181818187</v>
       </c>
       <c r="H88">
@@ -6142,7 +6304,8 @@
         <v>-1</v>
       </c>
       <c r="K88">
-        <v>-1</v>
+        <f t="shared" si="17"/>
+        <v>18.030303030303031</v>
       </c>
       <c r="L88">
         <v>-1</v>
@@ -6163,32 +6326,32 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>88</v>
       </c>
       <c r="B89">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>88</v>
       </c>
       <c r="C89">
+        <f t="shared" si="13"/>
+        <v>0.20909090909090911</v>
+      </c>
+      <c r="D89">
         <f t="shared" si="11"/>
-        <v>0.45151515151515165</v>
-      </c>
-      <c r="D89">
-        <f t="shared" si="9"/>
-        <v>0.86969696969696919</v>
+        <v>0.56666666666666643</v>
       </c>
       <c r="E89">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>18.18181818181818</v>
       </c>
       <c r="F89">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>18.18181818181818</v>
       </c>
       <c r="G89">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>89.090909090909093</v>
       </c>
       <c r="H89">
@@ -6201,7 +6364,8 @@
         <v>-1</v>
       </c>
       <c r="K89">
-        <v>-1</v>
+        <f t="shared" si="17"/>
+        <v>18.18181818181818</v>
       </c>
       <c r="L89">
         <v>-1</v>
@@ -6222,32 +6386,32 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>89</v>
       </c>
       <c r="B90">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>89</v>
       </c>
       <c r="C90">
+        <f t="shared" si="13"/>
+        <v>0.20000000000000007</v>
+      </c>
+      <c r="D90">
         <f t="shared" si="11"/>
-        <v>0.4222222222222225</v>
-      </c>
-      <c r="D90">
-        <f t="shared" si="9"/>
-        <v>0.82222222222222197</v>
+        <v>0.54444444444444429</v>
       </c>
       <c r="E90">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>18.333333333333332</v>
       </c>
       <c r="F90">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>18.333333333333332</v>
       </c>
       <c r="G90">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>90</v>
       </c>
       <c r="H90">
@@ -6260,7 +6424,8 @@
         <v>-1</v>
       </c>
       <c r="K90">
-        <v>-1</v>
+        <f t="shared" si="17"/>
+        <v>18.333333333333332</v>
       </c>
       <c r="L90">
         <v>-1</v>
@@ -6281,32 +6446,32 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>90</v>
       </c>
       <c r="B91">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>90</v>
       </c>
       <c r="C91">
+        <f t="shared" si="13"/>
+        <v>0.19090909090909092</v>
+      </c>
+      <c r="D91">
         <f t="shared" si="11"/>
-        <v>0.39292929292929291</v>
-      </c>
-      <c r="D91">
-        <f t="shared" si="9"/>
-        <v>0.77474747474747474</v>
+        <v>0.52222222222222192</v>
       </c>
       <c r="E91">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>18.484848484848484</v>
       </c>
       <c r="F91">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>18.484848484848484</v>
       </c>
       <c r="G91">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>90.909090909090907</v>
       </c>
       <c r="H91">
@@ -6319,7 +6484,8 @@
         <v>-1</v>
       </c>
       <c r="K91">
-        <v>-1</v>
+        <f t="shared" si="17"/>
+        <v>18.484848484848484</v>
       </c>
       <c r="L91">
         <v>-1</v>
@@ -6340,32 +6506,32 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>91</v>
       </c>
       <c r="B92">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>91</v>
       </c>
       <c r="C92">
+        <f t="shared" si="13"/>
+        <v>0.18181818181818188</v>
+      </c>
+      <c r="D92">
         <f t="shared" si="11"/>
-        <v>0.36363636363636376</v>
-      </c>
-      <c r="D92">
-        <f t="shared" si="9"/>
-        <v>0.72727272727272751</v>
+        <v>0.5</v>
       </c>
       <c r="E92">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>18.636363636363637</v>
       </c>
       <c r="F92">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>18.636363636363637</v>
       </c>
       <c r="G92">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>91.818181818181813</v>
       </c>
       <c r="H92">
@@ -6378,7 +6544,8 @@
         <v>-1</v>
       </c>
       <c r="K92">
-        <v>-1</v>
+        <f t="shared" si="17"/>
+        <v>18.636363636363637</v>
       </c>
       <c r="L92">
         <v>-1</v>
@@ -6399,32 +6566,32 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>92</v>
       </c>
       <c r="B93">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>92</v>
       </c>
       <c r="C93">
+        <f t="shared" si="13"/>
+        <v>0.17272727272727273</v>
+      </c>
+      <c r="D93">
         <f t="shared" si="11"/>
-        <v>0.33434343434343416</v>
-      </c>
-      <c r="D93">
-        <f t="shared" si="9"/>
-        <v>0.6797979797979794</v>
+        <v>0.47777777777777741</v>
       </c>
       <c r="E93">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>18.787878787878789</v>
       </c>
       <c r="F93">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>18.787878787878789</v>
       </c>
       <c r="G93">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>92.727272727272734</v>
       </c>
       <c r="H93">
@@ -6437,7 +6604,8 @@
         <v>-1</v>
       </c>
       <c r="K93">
-        <v>-1</v>
+        <f t="shared" si="17"/>
+        <v>18.787878787878789</v>
       </c>
       <c r="L93">
         <v>-1</v>
@@ -6458,32 +6626,32 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>93</v>
       </c>
       <c r="B94">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>93</v>
       </c>
       <c r="C94">
+        <f t="shared" si="13"/>
+        <v>0.16363636363636358</v>
+      </c>
+      <c r="D94">
         <f t="shared" si="11"/>
-        <v>0.30505050505050502</v>
-      </c>
-      <c r="D94">
-        <f t="shared" si="9"/>
-        <v>0.63232323232323218</v>
+        <v>0.45555555555555527</v>
       </c>
       <c r="E94">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>18.939393939393938</v>
       </c>
       <c r="F94">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>18.939393939393938</v>
       </c>
       <c r="G94">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>93.63636363636364</v>
       </c>
       <c r="H94">
@@ -6496,7 +6664,8 @@
         <v>-1</v>
       </c>
       <c r="K94">
-        <v>-1</v>
+        <f t="shared" si="17"/>
+        <v>18.939393939393938</v>
       </c>
       <c r="L94">
         <v>-1</v>
@@ -6517,32 +6686,32 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>94</v>
       </c>
       <c r="B95">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>94</v>
       </c>
       <c r="C95">
+        <f t="shared" si="13"/>
+        <v>0.15454545454545443</v>
+      </c>
+      <c r="D95">
         <f t="shared" si="11"/>
-        <v>0.27575757575757587</v>
-      </c>
-      <c r="D95">
-        <f t="shared" si="9"/>
-        <v>0.58484848484848406</v>
+        <v>0.43333333333333313</v>
       </c>
       <c r="E95">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>19.090909090909093</v>
       </c>
       <c r="F95">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>19.090909090909093</v>
       </c>
       <c r="G95">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>94.545454545454547</v>
       </c>
       <c r="H95">
@@ -6555,7 +6724,8 @@
         <v>-1</v>
       </c>
       <c r="K95">
-        <v>-1</v>
+        <f t="shared" si="17"/>
+        <v>19.090909090909093</v>
       </c>
       <c r="L95">
         <v>-1</v>
@@ -6576,32 +6746,32 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>95</v>
       </c>
       <c r="B96">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>95</v>
       </c>
       <c r="C96">
+        <f t="shared" si="13"/>
+        <v>0.14545454545454539</v>
+      </c>
+      <c r="D96">
         <f t="shared" si="11"/>
-        <v>0.24646464646464672</v>
-      </c>
-      <c r="D96">
-        <f t="shared" si="9"/>
-        <v>0.53737373737373684</v>
+        <v>0.41111111111111098</v>
       </c>
       <c r="E96">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>19.242424242424242</v>
       </c>
       <c r="F96">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>19.242424242424242</v>
       </c>
       <c r="G96">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>95.454545454545453</v>
       </c>
       <c r="H96">
@@ -6614,7 +6784,8 @@
         <v>-1</v>
       </c>
       <c r="K96">
-        <v>-1</v>
+        <f t="shared" si="17"/>
+        <v>19.242424242424242</v>
       </c>
       <c r="L96">
         <v>-1</v>
@@ -6635,32 +6806,32 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>96</v>
       </c>
       <c r="B97">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>96</v>
       </c>
       <c r="C97">
+        <f t="shared" si="13"/>
+        <v>0.13636363636363635</v>
+      </c>
+      <c r="D97">
         <f t="shared" si="11"/>
-        <v>0.21717171717171757</v>
-      </c>
-      <c r="D97">
-        <f t="shared" si="9"/>
-        <v>0.48989898989898961</v>
+        <v>0.38888888888888884</v>
       </c>
       <c r="E97">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>19.393939393939391</v>
       </c>
       <c r="F97">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>19.393939393939391</v>
       </c>
       <c r="G97">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>96.36363636363636</v>
       </c>
       <c r="H97">
@@ -6673,7 +6844,8 @@
         <v>-1</v>
       </c>
       <c r="K97">
-        <v>-1</v>
+        <f t="shared" si="17"/>
+        <v>19.393939393939391</v>
       </c>
       <c r="L97">
         <v>-1</v>
@@ -6694,32 +6866,32 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>97</v>
       </c>
       <c r="B98">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>97</v>
       </c>
       <c r="C98">
+        <f t="shared" si="13"/>
+        <v>0.1272727272727272</v>
+      </c>
+      <c r="D98">
         <f t="shared" si="11"/>
-        <v>0.18787878787878798</v>
-      </c>
-      <c r="D98">
-        <f t="shared" si="9"/>
-        <v>0.44242424242424239</v>
+        <v>0.36666666666666625</v>
       </c>
       <c r="E98">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>19.545454545454547</v>
       </c>
       <c r="F98">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>19.545454545454547</v>
       </c>
       <c r="G98">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>97.27272727272728</v>
       </c>
       <c r="H98">
@@ -6732,7 +6904,8 @@
         <v>-1</v>
       </c>
       <c r="K98">
-        <v>-1</v>
+        <f t="shared" si="17"/>
+        <v>19.545454545454547</v>
       </c>
       <c r="L98">
         <v>-1</v>
@@ -6753,32 +6926,32 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>98</v>
       </c>
       <c r="B99">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>98</v>
       </c>
       <c r="C99">
+        <f t="shared" si="13"/>
+        <v>0.11818181818181817</v>
+      </c>
+      <c r="D99">
         <f t="shared" si="11"/>
-        <v>0.15858585858585883</v>
-      </c>
-      <c r="D99">
-        <f t="shared" si="9"/>
-        <v>0.39494949494949516</v>
+        <v>0.34444444444444411</v>
       </c>
       <c r="E99">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>19.696969696969695</v>
       </c>
       <c r="F99">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>19.696969696969695</v>
       </c>
       <c r="G99">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>98.181818181818187</v>
       </c>
       <c r="H99">
@@ -6791,7 +6964,8 @@
         <v>-1</v>
       </c>
       <c r="K99">
-        <v>-1</v>
+        <f t="shared" si="17"/>
+        <v>19.696969696969695</v>
       </c>
       <c r="L99">
         <v>-1</v>
@@ -6812,32 +6986,32 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>99</v>
       </c>
       <c r="B100">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>99</v>
       </c>
       <c r="C100">
+        <f t="shared" si="13"/>
+        <v>0.10909090909090902</v>
+      </c>
+      <c r="D100">
         <f t="shared" si="11"/>
-        <v>0.12929292929292924</v>
-      </c>
-      <c r="D100">
-        <f t="shared" si="9"/>
-        <v>0.34747474747474705</v>
+        <v>0.32222222222222197</v>
       </c>
       <c r="E100">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>19.848484848484851</v>
       </c>
       <c r="F100">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>19.848484848484851</v>
       </c>
       <c r="G100">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>99.090909090909093</v>
       </c>
       <c r="H100">
@@ -6850,7 +7024,8 @@
         <v>-1</v>
       </c>
       <c r="K100">
-        <v>-1</v>
+        <f t="shared" si="17"/>
+        <v>19.848484848484851</v>
       </c>
       <c r="L100">
         <v>-1</v>
@@ -6871,7 +7046,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="101" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>100</v>
       </c>
@@ -6887,46 +7062,47 @@
       <c r="E101" s="1">
         <v>20</v>
       </c>
-      <c r="F101">
+      <c r="F101" s="1">
         <v>20</v>
       </c>
-      <c r="G101">
+      <c r="G101" s="1">
         <v>100</v>
       </c>
-      <c r="H101">
-        <v>-1</v>
-      </c>
-      <c r="I101">
-        <v>-1</v>
-      </c>
-      <c r="J101">
-        <v>-1</v>
-      </c>
-      <c r="K101">
-        <v>-1</v>
-      </c>
-      <c r="L101">
-        <v>-1</v>
-      </c>
-      <c r="M101">
-        <v>-1</v>
-      </c>
-      <c r="N101">
-        <v>-1</v>
-      </c>
-      <c r="O101">
-        <v>-1</v>
-      </c>
-      <c r="P101">
-        <v>-1</v>
-      </c>
-      <c r="Q101">
+      <c r="H101" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I101" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J101" s="1">
+        <v>-1</v>
+      </c>
+      <c r="K101" s="1">
+        <v>20</v>
+      </c>
+      <c r="L101" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M101" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N101" s="1">
+        <v>-1</v>
+      </c>
+      <c r="O101" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P101" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q101" s="1">
         <v>-1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -6938,15 +7114,15 @@
       <selection activeCell="B4" sqref="B4:R4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="20.5703125" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" customWidth="1"/>
+    <col min="3" max="4" width="20.5546875" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -6961,7 +7137,7 @@
       </c>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>100</v>
       </c>
@@ -6975,7 +7151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -7029,7 +7205,7 @@
       </c>
       <c r="R4" s="2"/>
     </row>
-    <row r="5" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -7046,7 +7222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2</v>
       </c>
@@ -7067,7 +7243,7 @@
         <v>3.0101010101010104</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>3</v>
       </c>
@@ -7088,7 +7264,7 @@
         <v>5.0202020202020208</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>4</v>
       </c>
@@ -7109,7 +7285,7 @@
         <v>7.0303030303030303</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>5</v>
       </c>
@@ -7130,7 +7306,7 @@
         <v>9.0404040404040416</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>6</v>
       </c>
@@ -7151,7 +7327,7 @@
         <v>11.05050505050505</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>7</v>
       </c>
@@ -7172,7 +7348,7 @@
         <v>13.060606060606061</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>8</v>
       </c>
@@ -7193,7 +7369,7 @@
         <v>15.070707070707071</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>9</v>
       </c>
@@ -7214,7 +7390,7 @@
         <v>17.080808080808083</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>10</v>
       </c>
@@ -7235,7 +7411,7 @@
         <v>19.09090909090909</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>11</v>
       </c>
@@ -7256,7 +7432,7 @@
         <v>21.1010101010101</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>12</v>
       </c>
@@ -7277,7 +7453,7 @@
         <v>23.111111111111111</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>13</v>
       </c>
@@ -7298,7 +7474,7 @@
         <v>25.121212121212121</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>14</v>
       </c>
@@ -7319,7 +7495,7 @@
         <v>27.131313131313135</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>15</v>
       </c>
@@ -7340,7 +7516,7 @@
         <v>29.141414141414142</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>16</v>
       </c>
@@ -7361,7 +7537,7 @@
         <v>31.151515151515152</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>17</v>
       </c>
@@ -7382,7 +7558,7 @@
         <v>33.161616161616166</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>18</v>
       </c>
@@ -7403,7 +7579,7 @@
         <v>35.171717171717169</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>19</v>
       </c>
@@ -7424,7 +7600,7 @@
         <v>37.18181818181818</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>20</v>
       </c>
@@ -7445,7 +7621,7 @@
         <v>39.19191919191919</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>21</v>
       </c>
@@ -7466,7 +7642,7 @@
         <v>41.202020202020201</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>22</v>
       </c>
@@ -7487,7 +7663,7 @@
         <v>43.212121212121211</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>23</v>
       </c>
@@ -7508,7 +7684,7 @@
         <v>45.222222222222221</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>24</v>
       </c>
@@ -7529,7 +7705,7 @@
         <v>47.232323232323232</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>25</v>
       </c>
@@ -7550,7 +7726,7 @@
         <v>49.242424242424242</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>26</v>
       </c>
@@ -7571,7 +7747,7 @@
         <v>51.252525252525253</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>27</v>
       </c>
@@ -7592,7 +7768,7 @@
         <v>53.26262626262627</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>28</v>
       </c>
@@ -7613,7 +7789,7 @@
         <v>55.272727272727266</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>29</v>
       </c>
@@ -7634,7 +7810,7 @@
         <v>57.282828282828284</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>30</v>
       </c>
@@ -7655,7 +7831,7 @@
         <v>59.292929292929294</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>31</v>
       </c>
@@ -7676,7 +7852,7 @@
         <v>61.303030303030305</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>32</v>
       </c>
@@ -7697,7 +7873,7 @@
         <v>63.313131313131315</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>33</v>
       </c>
@@ -7718,7 +7894,7 @@
         <v>65.323232323232332</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>34</v>
       </c>
@@ -7739,7 +7915,7 @@
         <v>67.333333333333329</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>35</v>
       </c>
@@ -7760,7 +7936,7 @@
         <v>69.343434343434339</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>36</v>
       </c>
@@ -7781,7 +7957,7 @@
         <v>71.353535353535349</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>37</v>
       </c>
@@ -7802,7 +7978,7 @@
         <v>73.36363636363636</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>38</v>
       </c>
@@ -7823,7 +7999,7 @@
         <v>75.373737373737384</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>39</v>
       </c>
@@ -7844,7 +8020,7 @@
         <v>77.383838383838381</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>40</v>
       </c>
@@ -7865,7 +8041,7 @@
         <v>79.393939393939391</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>41</v>
       </c>
@@ -7886,7 +8062,7 @@
         <v>81.404040404040401</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>42</v>
       </c>
@@ -7907,7 +8083,7 @@
         <v>83.414141414141412</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>43</v>
       </c>
@@ -7928,7 +8104,7 @@
         <v>85.424242424242422</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>44</v>
       </c>
@@ -7949,7 +8125,7 @@
         <v>87.434343434343432</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>45</v>
       </c>
@@ -7970,7 +8146,7 @@
         <v>89.444444444444443</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>46</v>
       </c>
@@ -7991,7 +8167,7 @@
         <v>91.454545454545453</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>47</v>
       </c>
@@ -8012,7 +8188,7 @@
         <v>93.464646464646464</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>48</v>
       </c>
@@ -8033,7 +8209,7 @@
         <v>95.474747474747474</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>49</v>
       </c>
@@ -8054,7 +8230,7 @@
         <v>97.484848484848484</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>50</v>
       </c>
@@ -8075,7 +8251,7 @@
         <v>99.494949494949495</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>51</v>
       </c>
@@ -8096,7 +8272,7 @@
         <v>101.50505050505051</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>52</v>
       </c>
@@ -8117,7 +8293,7 @@
         <v>103.51515151515152</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>53</v>
       </c>
@@ -8138,7 +8314,7 @@
         <v>105.52525252525254</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>54</v>
       </c>
@@ -8159,7 +8335,7 @@
         <v>107.53535353535354</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>55</v>
       </c>
@@ -8180,7 +8356,7 @@
         <v>109.54545454545453</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>56</v>
       </c>
@@ -8201,7 +8377,7 @@
         <v>111.55555555555556</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>57</v>
       </c>
@@ -8222,7 +8398,7 @@
         <v>113.56565656565657</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>58</v>
       </c>
@@ -8243,7 +8419,7 @@
         <v>115.57575757575758</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>59</v>
       </c>
@@ -8264,7 +8440,7 @@
         <v>117.58585858585859</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>60</v>
       </c>
@@ -8285,7 +8461,7 @@
         <v>119.59595959595958</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>61</v>
       </c>
@@ -8306,7 +8482,7 @@
         <v>121.60606060606061</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>62</v>
       </c>
@@ -8327,7 +8503,7 @@
         <v>123.61616161616161</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>63</v>
       </c>
@@ -8348,7 +8524,7 @@
         <v>125.62626262626263</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>64</v>
       </c>
@@ -8369,7 +8545,7 @@
         <v>127.63636363636364</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>65</v>
       </c>
@@ -8390,7 +8566,7 @@
         <v>129.64646464646466</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>66</v>
       </c>
@@ -8411,7 +8587,7 @@
         <v>131.65656565656565</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>67</v>
       </c>
@@ -8432,7 +8608,7 @@
         <v>133.66666666666666</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>68</v>
       </c>
@@ -8453,7 +8629,7 @@
         <v>135.6767676767677</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>69</v>
       </c>
@@ -8474,7 +8650,7 @@
         <v>137.68686868686868</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>70</v>
       </c>
@@ -8495,7 +8671,7 @@
         <v>139.69696969696972</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>71</v>
       </c>
@@ -8516,7 +8692,7 @@
         <v>141.7070707070707</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>72</v>
       </c>
@@ -8537,7 +8713,7 @@
         <v>143.71717171717171</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>73</v>
       </c>
@@ -8558,7 +8734,7 @@
         <v>145.72727272727272</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>74</v>
       </c>
@@ -8579,7 +8755,7 @@
         <v>147.73737373737373</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>75</v>
       </c>
@@ -8600,7 +8776,7 @@
         <v>149.74747474747477</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>76</v>
       </c>
@@ -8621,7 +8797,7 @@
         <v>151.75757575757575</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>77</v>
       </c>
@@ -8642,7 +8818,7 @@
         <v>153.76767676767676</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>78</v>
       </c>
@@ -8663,7 +8839,7 @@
         <v>155.77777777777777</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>79</v>
       </c>
@@ -8684,7 +8860,7 @@
         <v>157.78787878787878</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>80</v>
       </c>
@@ -8705,7 +8881,7 @@
         <v>159.79797979797979</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>81</v>
       </c>
@@ -8726,7 +8902,7 @@
         <v>161.8080808080808</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>82</v>
       </c>
@@ -8747,7 +8923,7 @@
         <v>163.81818181818184</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>83</v>
       </c>
@@ -8768,7 +8944,7 @@
         <v>165.82828282828282</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>84</v>
       </c>
@@ -8789,7 +8965,7 @@
         <v>167.83838383838383</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>85</v>
       </c>
@@ -8810,7 +8986,7 @@
         <v>169.84848484848484</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>86</v>
       </c>
@@ -8831,7 +9007,7 @@
         <v>171.85858585858585</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>87</v>
       </c>
@@ -8852,7 +9028,7 @@
         <v>173.86868686868686</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>88</v>
       </c>
@@ -8873,7 +9049,7 @@
         <v>175.87878787878788</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>89</v>
       </c>
@@ -8894,7 +9070,7 @@
         <v>177.88888888888889</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>90</v>
       </c>
@@ -8915,7 +9091,7 @@
         <v>179.8989898989899</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>91</v>
       </c>
@@ -8936,7 +9112,7 @@
         <v>181.90909090909091</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>92</v>
       </c>
@@ -8957,7 +9133,7 @@
         <v>183.91919191919192</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>93</v>
       </c>
@@ -8978,7 +9154,7 @@
         <v>185.92929292929293</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>94</v>
       </c>
@@ -8999,7 +9175,7 @@
         <v>187.93939393939394</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>95</v>
       </c>
@@ -9020,7 +9196,7 @@
         <v>189.94949494949495</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>96</v>
       </c>
@@ -9041,7 +9217,7 @@
         <v>191.95959595959596</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>97</v>
       </c>
@@ -9062,7 +9238,7 @@
         <v>193.96969696969697</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>98</v>
       </c>
@@ -9083,7 +9259,7 @@
         <v>195.97979797979798</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>99</v>
       </c>
@@ -9104,7 +9280,7 @@
         <v>197.98989898989899</v>
       </c>
     </row>
-    <row r="104" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>100</v>
       </c>
@@ -9135,14 +9311,14 @@
       <selection activeCell="B70" sqref="B70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1">
         <v>1</v>
       </c>
@@ -9156,7 +9332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>
@@ -9173,7 +9349,7 @@
         <v>3.0101010101010104</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3</v>
       </c>
@@ -9190,7 +9366,7 @@
         <v>5.0202020202020208</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>4</v>
       </c>
@@ -9207,7 +9383,7 @@
         <v>7.0303030303030303</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>5</v>
       </c>
@@ -9224,7 +9400,7 @@
         <v>9.0404040404040416</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>6</v>
       </c>
@@ -9241,7 +9417,7 @@
         <v>11.05050505050505</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>7</v>
       </c>
@@ -9258,7 +9434,7 @@
         <v>13.060606060606061</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>8</v>
       </c>
@@ -9275,7 +9451,7 @@
         <v>15.070707070707071</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>9</v>
       </c>
@@ -9292,7 +9468,7 @@
         <v>17.080808080808083</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>10</v>
       </c>
@@ -9309,7 +9485,7 @@
         <v>19.09090909090909</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>11</v>
       </c>
@@ -9326,7 +9502,7 @@
         <v>21.1010101010101</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>12</v>
       </c>
@@ -9343,7 +9519,7 @@
         <v>23.111111111111111</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>13</v>
       </c>
@@ -9360,7 +9536,7 @@
         <v>25.121212121212121</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>14</v>
       </c>
@@ -9377,7 +9553,7 @@
         <v>27.131313131313135</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>15</v>
       </c>
@@ -9394,7 +9570,7 @@
         <v>29.141414141414142</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>16</v>
       </c>
@@ -9411,7 +9587,7 @@
         <v>31.151515151515152</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>17</v>
       </c>
@@ -9428,7 +9604,7 @@
         <v>33.161616161616166</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>18</v>
       </c>
@@ -9445,7 +9621,7 @@
         <v>35.171717171717169</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>19</v>
       </c>
@@ -9462,7 +9638,7 @@
         <v>37.18181818181818</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>20</v>
       </c>
@@ -9479,7 +9655,7 @@
         <v>39.19191919191919</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>21</v>
       </c>
@@ -9496,7 +9672,7 @@
         <v>41.202020202020201</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>22</v>
       </c>
@@ -9513,7 +9689,7 @@
         <v>43.212121212121211</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>23</v>
       </c>
@@ -9530,7 +9706,7 @@
         <v>45.222222222222221</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>24</v>
       </c>
@@ -9547,7 +9723,7 @@
         <v>47.232323232323232</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>25</v>
       </c>
@@ -9564,7 +9740,7 @@
         <v>49.242424242424242</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>26</v>
       </c>
@@ -9581,7 +9757,7 @@
         <v>51.252525252525253</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>27</v>
       </c>
@@ -9598,7 +9774,7 @@
         <v>53.26262626262627</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>28</v>
       </c>
@@ -9615,7 +9791,7 @@
         <v>55.272727272727266</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>29</v>
       </c>
@@ -9632,7 +9808,7 @@
         <v>57.282828282828284</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>30</v>
       </c>
@@ -9649,7 +9825,7 @@
         <v>59.292929292929294</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>31</v>
       </c>
@@ -9666,7 +9842,7 @@
         <v>61.303030303030305</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>32</v>
       </c>
@@ -9683,7 +9859,7 @@
         <v>63.313131313131315</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>33</v>
       </c>
@@ -9700,7 +9876,7 @@
         <v>65.323232323232332</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>34</v>
       </c>
@@ -9717,7 +9893,7 @@
         <v>67.333333333333329</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>35</v>
       </c>
@@ -9734,7 +9910,7 @@
         <v>69.343434343434339</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>36</v>
       </c>
@@ -9751,7 +9927,7 @@
         <v>71.353535353535349</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>37</v>
       </c>
@@ -9768,7 +9944,7 @@
         <v>73.36363636363636</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>38</v>
       </c>
@@ -9785,7 +9961,7 @@
         <v>75.373737373737384</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>39</v>
       </c>
@@ -9802,7 +9978,7 @@
         <v>77.383838383838381</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>40</v>
       </c>
@@ -9819,7 +9995,7 @@
         <v>79.393939393939391</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>41</v>
       </c>
@@ -9836,7 +10012,7 @@
         <v>81.404040404040401</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>42</v>
       </c>
@@ -9853,7 +10029,7 @@
         <v>83.414141414141412</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>43</v>
       </c>
@@ -9870,7 +10046,7 @@
         <v>85.424242424242422</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>44</v>
       </c>
@@ -9887,7 +10063,7 @@
         <v>87.434343434343432</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>45</v>
       </c>
@@ -9904,7 +10080,7 @@
         <v>89.444444444444443</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>46</v>
       </c>
@@ -9921,7 +10097,7 @@
         <v>91.454545454545453</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>47</v>
       </c>
@@ -9938,7 +10114,7 @@
         <v>93.464646464646464</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>48</v>
       </c>
@@ -9955,7 +10131,7 @@
         <v>95.474747474747474</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>49</v>
       </c>
@@ -9972,7 +10148,7 @@
         <v>97.484848484848484</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>50</v>
       </c>
@@ -9989,7 +10165,7 @@
         <v>99.494949494949495</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>51</v>
       </c>
@@ -10006,7 +10182,7 @@
         <v>101.50505050505051</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>52</v>
       </c>
@@ -10023,7 +10199,7 @@
         <v>103.51515151515152</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>53</v>
       </c>
@@ -10040,7 +10216,7 @@
         <v>105.52525252525254</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>54</v>
       </c>
@@ -10057,7 +10233,7 @@
         <v>107.53535353535354</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>55</v>
       </c>
@@ -10074,7 +10250,7 @@
         <v>109.54545454545453</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>56</v>
       </c>
@@ -10091,7 +10267,7 @@
         <v>111.55555555555556</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>57</v>
       </c>
@@ -10108,7 +10284,7 @@
         <v>113.56565656565657</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>58</v>
       </c>
@@ -10125,7 +10301,7 @@
         <v>115.57575757575758</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>59</v>
       </c>
@@ -10142,7 +10318,7 @@
         <v>117.58585858585859</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>60</v>
       </c>
@@ -10159,7 +10335,7 @@
         <v>119.59595959595958</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>61</v>
       </c>
@@ -10176,7 +10352,7 @@
         <v>121.60606060606061</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>62</v>
       </c>
@@ -10193,7 +10369,7 @@
         <v>123.61616161616161</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>63</v>
       </c>
@@ -10210,7 +10386,7 @@
         <v>125.62626262626263</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>64</v>
       </c>
@@ -10227,7 +10403,7 @@
         <v>127.63636363636364</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>65</v>
       </c>
@@ -10244,7 +10420,7 @@
         <v>129.64646464646466</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>66</v>
       </c>
@@ -10261,7 +10437,7 @@
         <v>131.65656565656565</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>67</v>
       </c>
@@ -10278,7 +10454,7 @@
         <v>133.66666666666666</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>68</v>
       </c>
@@ -10295,7 +10471,7 @@
         <v>135.6767676767677</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>69</v>
       </c>
@@ -10312,7 +10488,7 @@
         <v>137.68686868686868</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>70</v>
       </c>
@@ -10329,7 +10505,7 @@
         <v>139.69696969696972</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>71</v>
       </c>
@@ -10346,7 +10522,7 @@
         <v>141.7070707070707</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>72</v>
       </c>
@@ -10363,7 +10539,7 @@
         <v>143.71717171717171</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>73</v>
       </c>
@@ -10380,7 +10556,7 @@
         <v>145.72727272727272</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>74</v>
       </c>
@@ -10397,7 +10573,7 @@
         <v>147.73737373737373</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>75</v>
       </c>
@@ -10414,7 +10590,7 @@
         <v>149.74747474747477</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>76</v>
       </c>
@@ -10431,7 +10607,7 @@
         <v>151.75757575757575</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>77</v>
       </c>
@@ -10448,7 +10624,7 @@
         <v>153.76767676767676</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>78</v>
       </c>
@@ -10465,7 +10641,7 @@
         <v>155.77777777777777</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>79</v>
       </c>
@@ -10482,7 +10658,7 @@
         <v>157.78787878787878</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>80</v>
       </c>
@@ -10499,7 +10675,7 @@
         <v>159.79797979797979</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>81</v>
       </c>
@@ -10516,7 +10692,7 @@
         <v>161.8080808080808</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>82</v>
       </c>
@@ -10533,7 +10709,7 @@
         <v>163.81818181818184</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>83</v>
       </c>
@@ -10550,7 +10726,7 @@
         <v>165.82828282828282</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>84</v>
       </c>
@@ -10567,7 +10743,7 @@
         <v>167.83838383838383</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>85</v>
       </c>
@@ -10584,7 +10760,7 @@
         <v>169.84848484848484</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>86</v>
       </c>
@@ -10601,7 +10777,7 @@
         <v>171.85858585858585</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>87</v>
       </c>
@@ -10618,7 +10794,7 @@
         <v>173.86868686868686</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>88</v>
       </c>
@@ -10635,7 +10811,7 @@
         <v>175.87878787878788</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>89</v>
       </c>
@@ -10652,7 +10828,7 @@
         <v>177.88888888888889</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>90</v>
       </c>
@@ -10669,7 +10845,7 @@
         <v>179.8989898989899</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>91</v>
       </c>
@@ -10686,7 +10862,7 @@
         <v>181.90909090909091</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>92</v>
       </c>
@@ -10703,7 +10879,7 @@
         <v>183.91919191919192</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>93</v>
       </c>
@@ -10720,7 +10896,7 @@
         <v>185.92929292929293</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>94</v>
       </c>
@@ -10737,7 +10913,7 @@
         <v>187.93939393939394</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>95</v>
       </c>
@@ -10754,7 +10930,7 @@
         <v>189.94949494949495</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>96</v>
       </c>
@@ -10771,7 +10947,7 @@
         <v>191.95959595959596</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>97</v>
       </c>
@@ -10788,7 +10964,7 @@
         <v>193.96969696969697</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>98</v>
       </c>
@@ -10805,7 +10981,7 @@
         <v>195.97979797979798</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>99</v>
       </c>
@@ -10822,7 +10998,7 @@
         <v>197.98989898989899</v>
       </c>
     </row>
-    <row r="100" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>100</v>
       </c>
@@ -10850,12 +11026,12 @@
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>1</v>
       </c>
@@ -10875,7 +11051,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>
@@ -10898,7 +11074,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3</v>
       </c>
@@ -10921,7 +11097,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>4</v>
       </c>
@@ -10944,7 +11120,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>5</v>
       </c>
@@ -10967,7 +11143,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>6</v>
       </c>
@@ -10988,7 +11164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>7</v>
       </c>
@@ -10997,7 +11173,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>8</v>
       </c>
@@ -11006,7 +11182,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>9</v>
       </c>
@@ -11015,7 +11191,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>10</v>
       </c>
@@ -11024,7 +11200,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>11</v>
       </c>
@@ -11033,7 +11209,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>12</v>
       </c>
@@ -11042,7 +11218,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>13</v>
       </c>
@@ -11051,7 +11227,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>14</v>
       </c>
@@ -11060,7 +11236,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>15</v>
       </c>
@@ -11069,7 +11245,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>16</v>
       </c>
@@ -11078,7 +11254,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>17</v>
       </c>
@@ -11087,7 +11263,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>18</v>
       </c>
@@ -11096,7 +11272,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>19</v>
       </c>
@@ -11105,7 +11281,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>20</v>
       </c>
@@ -11114,7 +11290,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>21</v>
       </c>
@@ -11123,7 +11299,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>22</v>
       </c>
@@ -11132,7 +11308,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>23</v>
       </c>
@@ -11141,7 +11317,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>24</v>
       </c>
@@ -11150,7 +11326,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>25</v>
       </c>
@@ -11159,7 +11335,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>26</v>
       </c>
@@ -11168,7 +11344,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>27</v>
       </c>
@@ -11177,7 +11353,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>28</v>
       </c>
@@ -11186,7 +11362,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>29</v>
       </c>
@@ -11195,7 +11371,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>30</v>
       </c>
@@ -11204,7 +11380,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>31</v>
       </c>
@@ -11213,7 +11389,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>32</v>
       </c>
@@ -11222,7 +11398,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>33</v>
       </c>
@@ -11231,7 +11407,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>34</v>
       </c>
@@ -11240,7 +11416,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>35</v>
       </c>
@@ -11249,7 +11425,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>36</v>
       </c>
@@ -11258,7 +11434,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>37</v>
       </c>
@@ -11267,7 +11443,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>38</v>
       </c>
@@ -11276,7 +11452,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>39</v>
       </c>
@@ -11285,7 +11461,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>40</v>
       </c>
@@ -11294,7 +11470,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>41</v>
       </c>
@@ -11303,7 +11479,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>42</v>
       </c>
@@ -11312,7 +11488,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>43</v>
       </c>
@@ -11321,7 +11497,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>44</v>
       </c>
@@ -11330,7 +11506,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>45</v>
       </c>
@@ -11339,7 +11515,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>46</v>
       </c>
@@ -11348,7 +11524,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>47</v>
       </c>
@@ -11357,7 +11533,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>48</v>
       </c>
@@ -11366,7 +11542,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>49</v>
       </c>
@@ -11375,7 +11551,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>50</v>
       </c>
@@ -11384,7 +11560,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>51</v>
       </c>
@@ -11393,7 +11569,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>52</v>
       </c>
@@ -11402,7 +11578,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>53</v>
       </c>
@@ -11411,7 +11587,7 @@
         <v>47.999999999999993</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>54</v>
       </c>
@@ -11420,7 +11596,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>55</v>
       </c>
@@ -11429,7 +11605,7 @@
         <v>46.000000000000007</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>56</v>
       </c>
@@ -11438,7 +11614,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>57</v>
       </c>
@@ -11447,7 +11623,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>58</v>
       </c>
@@ -11456,7 +11632,7 @@
         <v>42.999999999999993</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>59</v>
       </c>
@@ -11465,7 +11641,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>60</v>
       </c>
@@ -11474,7 +11650,7 @@
         <v>41.000000000000007</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>61</v>
       </c>
@@ -11483,7 +11659,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>62</v>
       </c>
@@ -11492,7 +11668,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>63</v>
       </c>
@@ -11501,7 +11677,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>64</v>
       </c>
@@ -11510,7 +11686,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>65</v>
       </c>
@@ -11519,7 +11695,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>66</v>
       </c>
@@ -11528,7 +11704,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>67</v>
       </c>
@@ -11537,7 +11713,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>68</v>
       </c>
@@ -11546,7 +11722,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>69</v>
       </c>
@@ -11555,7 +11731,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>70</v>
       </c>
@@ -11564,7 +11740,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>71</v>
       </c>
@@ -11573,7 +11749,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>72</v>
       </c>
@@ -11582,7 +11758,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>73</v>
       </c>
@@ -11591,7 +11767,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>74</v>
       </c>
@@ -11600,7 +11776,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>75</v>
       </c>
@@ -11609,7 +11785,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>76</v>
       </c>
@@ -11618,7 +11794,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>77</v>
       </c>
@@ -11627,7 +11803,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>78</v>
       </c>
@@ -11636,7 +11812,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>79</v>
       </c>
@@ -11645,7 +11821,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>80</v>
       </c>
@@ -11654,7 +11830,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>81</v>
       </c>
@@ -11663,7 +11839,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>82</v>
       </c>
@@ -11672,7 +11848,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>83</v>
       </c>
@@ -11681,7 +11857,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>84</v>
       </c>
@@ -11690,7 +11866,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>85</v>
       </c>
@@ -11699,7 +11875,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>86</v>
       </c>
@@ -11708,7 +11884,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>87</v>
       </c>
@@ -11717,7 +11893,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>88</v>
       </c>
@@ -11726,7 +11902,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>89</v>
       </c>
@@ -11735,7 +11911,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>90</v>
       </c>
@@ -11744,7 +11920,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>91</v>
       </c>
@@ -11753,7 +11929,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>92</v>
       </c>
@@ -11762,7 +11938,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>93</v>
       </c>
@@ -11771,7 +11947,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>94</v>
       </c>
@@ -11780,7 +11956,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>95</v>
       </c>
@@ -11789,7 +11965,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>96</v>
       </c>
@@ -11798,7 +11974,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>97</v>
       </c>
@@ -11807,7 +11983,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>98</v>
       </c>
@@ -11816,7 +11992,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>99</v>
       </c>
@@ -11825,7 +12001,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>100</v>
       </c>

--- a/RotoShootUnityProject/Assets/Resources/mySheet.xlsx
+++ b/RotoShootUnityProject/Assets/Resources/mySheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming\UnityProjects\RotoShoot\RotoShootUnityProject\Assets\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CF57760-9839-4ED8-83E0-408EEC157121}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{108EDCF5-26A3-4262-82B3-063F438999EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1068" yWindow="-108" windowWidth="45120" windowHeight="26136" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1524" yWindow="348" windowWidth="28296" windowHeight="16008" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="mySheet (4)" sheetId="4" r:id="rId1"/>
@@ -39,6 +39,8 @@
     <author>tc={38C412BA-2901-4494-B5AC-22AB50FFF3E7}</author>
     <author>tc={5AE2D4A1-3151-4D87-89F3-CF48A8FBAA4C}</author>
     <author>tc={C1B4CB3F-CDB6-445C-9C58-F04B7DD9002D}</author>
+    <author>tc={5650BE04-2F29-409B-A3DD-91817672ABCF}</author>
+    <author>tc={E9A42D45-53AC-41A0-8F77-F5C7E207EEE2}</author>
   </authors>
   <commentList>
     <comment ref="H1" authorId="0" shapeId="0" xr:uid="{38C412BA-2901-4494-B5AC-22AB50FFF3E7}">
@@ -63,6 +65,22 @@
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Same as EnemyMissileDamage</t>
+      </text>
+    </comment>
+    <comment ref="N1" authorId="3" shapeId="0" xr:uid="{5650BE04-2F29-409B-A3DD-91817672ABCF}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Handled as a EnemyMissile damage in PlayerShip.</t>
+      </text>
+    </comment>
+    <comment ref="P1" authorId="4" shapeId="0" xr:uid="{E9A42D45-53AC-41A0-8F77-F5C7E207EEE2}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Handled as a EnemyMissileMedium in PlayerShip.</t>
       </text>
     </comment>
   </commentList>
@@ -1037,6 +1055,12 @@
   <threadedComment ref="J1" dT="2021-11-23T13:29:55.69" personId="{ED208F84-4A51-4025-8EFB-2F06783E476B}" id="{C1B4CB3F-CDB6-445C-9C58-F04B7DD9002D}">
     <text>Same as EnemyMissileDamage</text>
   </threadedComment>
+  <threadedComment ref="N1" dT="2021-12-01T11:40:30.52" personId="{ED208F84-4A51-4025-8EFB-2F06783E476B}" id="{5650BE04-2F29-409B-A3DD-91817672ABCF}">
+    <text>Handled as a EnemyMissile damage in PlayerShip.</text>
+  </threadedComment>
+  <threadedComment ref="P1" dT="2021-12-01T10:04:16.92" personId="{ED208F84-4A51-4025-8EFB-2F06783E476B}" id="{E9A42D45-53AC-41A0-8F77-F5C7E207EEE2}">
+    <text>Handled as a EnemyMissileMedium in PlayerShip.</text>
+  </threadedComment>
 </ThreadedComments>
 </file>
 
@@ -1046,7 +1070,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M11" sqref="M11"/>
+      <selection pane="bottomLeft" activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1097,16 +1121,16 @@
       <c r="L1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="N1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="O1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="P1" s="4" t="s">
         <v>17</v>
       </c>
       <c r="Q1" s="5" t="s">
@@ -1136,7 +1160,7 @@
         <v>10</v>
       </c>
       <c r="H2" s="1">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I2" s="1">
         <v>-1</v>
@@ -1151,13 +1175,13 @@
         <v>-1</v>
       </c>
       <c r="M2" s="1">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N2" s="1">
         <v>-1</v>
       </c>
       <c r="O2" s="1">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="P2" s="1">
         <v>-1</v>
@@ -1175,7 +1199,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:G18" si="0">(C$2+((SUM($A3-1)/SUM($A$101-1))*(SUM(C$101-C$2))))</f>
+        <f t="shared" ref="C3:H18" si="0">(C$2+((SUM($A3-1)/SUM($A$101-1))*(SUM(C$101-C$2))))</f>
         <v>0.99090909090909096</v>
       </c>
       <c r="D3">
@@ -1195,7 +1219,8 @@
         <v>10.90909090909091</v>
       </c>
       <c r="H3">
-        <v>-1</v>
+        <f t="shared" si="0"/>
+        <v>10.90909090909091</v>
       </c>
       <c r="I3">
         <v>-1</v>
@@ -1211,13 +1236,15 @@
         <v>-1</v>
       </c>
       <c r="M3">
-        <v>-1</v>
+        <f t="shared" ref="M3:O66" si="2">(M$2+((SUM($A3-1)/SUM($A$101-1))*(SUM(M$101-M$2))))</f>
+        <v>10.1010101010101</v>
       </c>
       <c r="N3">
         <v>-1</v>
       </c>
       <c r="O3">
-        <v>-1</v>
+        <f t="shared" si="2"/>
+        <v>10.1010101010101</v>
       </c>
       <c r="P3">
         <v>-1</v>
@@ -1231,7 +1258,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <f t="shared" ref="B4:B5" si="2">(B$2+((SUM($A4-1)/SUM($A$101-1))*(SUM(B$101-B$2))))</f>
+        <f t="shared" ref="B4:B5" si="3">(B$2+((SUM($A4-1)/SUM($A$101-1))*(SUM(B$101-B$2))))</f>
         <v>3</v>
       </c>
       <c r="C4">
@@ -1255,7 +1282,8 @@
         <v>11.818181818181818</v>
       </c>
       <c r="H4">
-        <v>-1</v>
+        <f t="shared" si="0"/>
+        <v>11.818181818181818</v>
       </c>
       <c r="I4">
         <v>-1</v>
@@ -1271,13 +1299,15 @@
         <v>-1</v>
       </c>
       <c r="M4">
-        <v>-1</v>
+        <f t="shared" si="2"/>
+        <v>10.202020202020202</v>
       </c>
       <c r="N4">
         <v>-1</v>
       </c>
       <c r="O4">
-        <v>-1</v>
+        <f t="shared" si="2"/>
+        <v>10.202020202020202</v>
       </c>
       <c r="P4">
         <v>-1</v>
@@ -1291,7 +1321,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="C5">
@@ -1315,7 +1345,8 @@
         <v>12.727272727272727</v>
       </c>
       <c r="H5">
-        <v>-1</v>
+        <f t="shared" si="0"/>
+        <v>12.727272727272727</v>
       </c>
       <c r="I5">
         <v>-1</v>
@@ -1331,13 +1362,15 @@
         <v>-1</v>
       </c>
       <c r="M5">
-        <v>-1</v>
+        <f t="shared" si="2"/>
+        <v>10.303030303030303</v>
       </c>
       <c r="N5">
         <v>-1</v>
       </c>
       <c r="O5">
-        <v>-1</v>
+        <f t="shared" si="2"/>
+        <v>10.303030303030303</v>
       </c>
       <c r="P5">
         <v>-1</v>
@@ -1351,7 +1384,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <f t="shared" ref="B6" si="3">(B$2+((SUM(A6-1)/SUM(A$101-1))*(SUM(B$101-B$2))))</f>
+        <f t="shared" ref="B6" si="4">(B$2+((SUM(A6-1)/SUM(A$101-1))*(SUM(B$101-B$2))))</f>
         <v>5</v>
       </c>
       <c r="C6">
@@ -1375,7 +1408,8 @@
         <v>13.636363636363637</v>
       </c>
       <c r="H6">
-        <v>-1</v>
+        <f t="shared" si="0"/>
+        <v>13.636363636363637</v>
       </c>
       <c r="I6">
         <v>-1</v>
@@ -1391,13 +1425,15 @@
         <v>-1</v>
       </c>
       <c r="M6">
-        <v>-1</v>
+        <f t="shared" si="2"/>
+        <v>10.404040404040405</v>
       </c>
       <c r="N6">
         <v>-1</v>
       </c>
       <c r="O6">
-        <v>-1</v>
+        <f t="shared" si="2"/>
+        <v>10.404040404040405</v>
       </c>
       <c r="P6">
         <v>-1</v>
@@ -1411,7 +1447,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <f t="shared" ref="B7:B67" si="4">(B$2+((SUM(A7-1)/SUM(A$101-1))*(SUM(B$101-B$2))))</f>
+        <f t="shared" ref="B7:B67" si="5">(B$2+((SUM(A7-1)/SUM(A$101-1))*(SUM(B$101-B$2))))</f>
         <v>6</v>
       </c>
       <c r="C7">
@@ -1435,7 +1471,8 @@
         <v>14.545454545454545</v>
       </c>
       <c r="H7">
-        <v>-1</v>
+        <f t="shared" si="0"/>
+        <v>14.545454545454545</v>
       </c>
       <c r="I7">
         <v>-1</v>
@@ -1451,13 +1488,15 @@
         <v>-1</v>
       </c>
       <c r="M7">
-        <v>-1</v>
+        <f t="shared" si="2"/>
+        <v>10.505050505050505</v>
       </c>
       <c r="N7">
         <v>-1</v>
       </c>
       <c r="O7">
-        <v>-1</v>
+        <f t="shared" si="2"/>
+        <v>10.505050505050505</v>
       </c>
       <c r="P7">
         <v>-1</v>
@@ -1471,7 +1510,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="C8">
@@ -1495,7 +1534,8 @@
         <v>15.454545454545455</v>
       </c>
       <c r="H8">
-        <v>-1</v>
+        <f t="shared" si="0"/>
+        <v>15.454545454545455</v>
       </c>
       <c r="I8">
         <v>-1</v>
@@ -1511,13 +1551,15 @@
         <v>-1</v>
       </c>
       <c r="M8">
-        <v>-1</v>
+        <f t="shared" si="2"/>
+        <v>10.606060606060606</v>
       </c>
       <c r="N8">
         <v>-1</v>
       </c>
       <c r="O8">
-        <v>-1</v>
+        <f t="shared" si="2"/>
+        <v>10.606060606060606</v>
       </c>
       <c r="P8">
         <v>-1</v>
@@ -1531,7 +1573,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="C9">
@@ -1555,7 +1597,8 @@
         <v>16.363636363636363</v>
       </c>
       <c r="H9">
-        <v>-1</v>
+        <f t="shared" si="0"/>
+        <v>16.363636363636363</v>
       </c>
       <c r="I9">
         <v>-1</v>
@@ -1571,13 +1614,15 @@
         <v>-1</v>
       </c>
       <c r="M9">
-        <v>-1</v>
+        <f t="shared" si="2"/>
+        <v>10.707070707070708</v>
       </c>
       <c r="N9">
         <v>-1</v>
       </c>
       <c r="O9">
-        <v>-1</v>
+        <f t="shared" si="2"/>
+        <v>10.707070707070708</v>
       </c>
       <c r="P9">
         <v>-1</v>
@@ -1591,7 +1636,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
       <c r="C10">
@@ -1615,7 +1660,8 @@
         <v>17.272727272727273</v>
       </c>
       <c r="H10">
-        <v>-1</v>
+        <f t="shared" si="0"/>
+        <v>17.272727272727273</v>
       </c>
       <c r="I10">
         <v>-1</v>
@@ -1631,13 +1677,15 @@
         <v>-1</v>
       </c>
       <c r="M10">
-        <v>-1</v>
+        <f t="shared" si="2"/>
+        <v>10.808080808080808</v>
       </c>
       <c r="N10">
         <v>-1</v>
       </c>
       <c r="O10">
-        <v>-1</v>
+        <f t="shared" si="2"/>
+        <v>10.808080808080808</v>
       </c>
       <c r="P10">
         <v>-1</v>
@@ -1651,7 +1699,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="C11">
@@ -1675,7 +1723,8 @@
         <v>18.18181818181818</v>
       </c>
       <c r="H11">
-        <v>-1</v>
+        <f t="shared" si="0"/>
+        <v>18.18181818181818</v>
       </c>
       <c r="I11">
         <v>-1</v>
@@ -1691,13 +1740,15 @@
         <v>-1</v>
       </c>
       <c r="M11">
-        <v>-1</v>
+        <f t="shared" si="2"/>
+        <v>10.90909090909091</v>
       </c>
       <c r="N11">
         <v>-1</v>
       </c>
       <c r="O11">
-        <v>-1</v>
+        <f t="shared" si="2"/>
+        <v>10.90909090909091</v>
       </c>
       <c r="P11">
         <v>-1</v>
@@ -1711,7 +1762,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
       <c r="C12">
@@ -1735,7 +1786,8 @@
         <v>19.09090909090909</v>
       </c>
       <c r="H12">
-        <v>-1</v>
+        <f t="shared" si="0"/>
+        <v>19.09090909090909</v>
       </c>
       <c r="I12">
         <v>-1</v>
@@ -1751,13 +1803,15 @@
         <v>-1</v>
       </c>
       <c r="M12">
-        <v>-1</v>
+        <f t="shared" si="2"/>
+        <v>11.01010101010101</v>
       </c>
       <c r="N12">
         <v>-1</v>
       </c>
       <c r="O12">
-        <v>-1</v>
+        <f t="shared" si="2"/>
+        <v>11.01010101010101</v>
       </c>
       <c r="P12">
         <v>-1</v>
@@ -1771,7 +1825,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="C13">
@@ -1795,7 +1849,8 @@
         <v>20</v>
       </c>
       <c r="H13">
-        <v>-1</v>
+        <f t="shared" si="0"/>
+        <v>20</v>
       </c>
       <c r="I13">
         <v>-1</v>
@@ -1811,13 +1866,15 @@
         <v>-1</v>
       </c>
       <c r="M13">
-        <v>-1</v>
+        <f t="shared" si="2"/>
+        <v>11.111111111111111</v>
       </c>
       <c r="N13">
         <v>-1</v>
       </c>
       <c r="O13">
-        <v>-1</v>
+        <f t="shared" si="2"/>
+        <v>11.111111111111111</v>
       </c>
       <c r="P13">
         <v>-1</v>
@@ -1831,7 +1888,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
       <c r="C14">
@@ -1855,7 +1912,8 @@
         <v>20.90909090909091</v>
       </c>
       <c r="H14">
-        <v>-1</v>
+        <f t="shared" si="0"/>
+        <v>20.90909090909091</v>
       </c>
       <c r="I14">
         <v>-1</v>
@@ -1871,13 +1929,15 @@
         <v>-1</v>
       </c>
       <c r="M14">
-        <v>-1</v>
+        <f t="shared" si="2"/>
+        <v>11.212121212121213</v>
       </c>
       <c r="N14">
         <v>-1</v>
       </c>
       <c r="O14">
-        <v>-1</v>
+        <f t="shared" si="2"/>
+        <v>11.212121212121213</v>
       </c>
       <c r="P14">
         <v>-1</v>
@@ -1891,7 +1951,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>14.000000000000002</v>
       </c>
       <c r="C15">
@@ -1915,7 +1975,8 @@
         <v>21.81818181818182</v>
       </c>
       <c r="H15">
-        <v>-1</v>
+        <f t="shared" si="0"/>
+        <v>21.81818181818182</v>
       </c>
       <c r="I15">
         <v>-1</v>
@@ -1931,13 +1992,15 @@
         <v>-1</v>
       </c>
       <c r="M15">
-        <v>-1</v>
+        <f t="shared" si="2"/>
+        <v>11.313131313131313</v>
       </c>
       <c r="N15">
         <v>-1</v>
       </c>
       <c r="O15">
-        <v>-1</v>
+        <f t="shared" si="2"/>
+        <v>11.313131313131313</v>
       </c>
       <c r="P15">
         <v>-1</v>
@@ -1951,7 +2014,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>15</v>
       </c>
       <c r="C16">
@@ -1975,7 +2038,8 @@
         <v>22.727272727272727</v>
       </c>
       <c r="H16">
-        <v>-1</v>
+        <f t="shared" si="0"/>
+        <v>22.727272727272727</v>
       </c>
       <c r="I16">
         <v>-1</v>
@@ -1991,13 +2055,15 @@
         <v>-1</v>
       </c>
       <c r="M16">
-        <v>-1</v>
+        <f t="shared" si="2"/>
+        <v>11.414141414141413</v>
       </c>
       <c r="N16">
         <v>-1</v>
       </c>
       <c r="O16">
-        <v>-1</v>
+        <f t="shared" si="2"/>
+        <v>11.414141414141413</v>
       </c>
       <c r="P16">
         <v>-1</v>
@@ -2011,7 +2077,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>16</v>
       </c>
       <c r="C17">
@@ -2035,7 +2101,8 @@
         <v>23.636363636363637</v>
       </c>
       <c r="H17">
-        <v>-1</v>
+        <f t="shared" si="0"/>
+        <v>23.636363636363637</v>
       </c>
       <c r="I17">
         <v>-1</v>
@@ -2051,13 +2118,15 @@
         <v>-1</v>
       </c>
       <c r="M17">
-        <v>-1</v>
+        <f t="shared" si="2"/>
+        <v>11.515151515151516</v>
       </c>
       <c r="N17">
         <v>-1</v>
       </c>
       <c r="O17">
-        <v>-1</v>
+        <f t="shared" si="2"/>
+        <v>11.515151515151516</v>
       </c>
       <c r="P17">
         <v>-1</v>
@@ -2071,7 +2140,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>17</v>
       </c>
       <c r="C18">
@@ -2095,7 +2164,8 @@
         <v>24.545454545454547</v>
       </c>
       <c r="H18">
-        <v>-1</v>
+        <f t="shared" si="0"/>
+        <v>24.545454545454547</v>
       </c>
       <c r="I18">
         <v>-1</v>
@@ -2111,13 +2181,15 @@
         <v>-1</v>
       </c>
       <c r="M18">
-        <v>-1</v>
+        <f t="shared" si="2"/>
+        <v>11.616161616161616</v>
       </c>
       <c r="N18">
         <v>-1</v>
       </c>
       <c r="O18">
-        <v>-1</v>
+        <f t="shared" si="2"/>
+        <v>11.616161616161616</v>
       </c>
       <c r="P18">
         <v>-1</v>
@@ -2131,31 +2203,32 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>18</v>
       </c>
       <c r="C19">
-        <f t="shared" ref="C19:D46" si="5">(C$2+((SUM($A19-1)/SUM($A$101-1))*(SUM(C$101-C$2))))</f>
+        <f t="shared" ref="C19:D46" si="6">(C$2+((SUM($A19-1)/SUM($A$101-1))*(SUM(C$101-C$2))))</f>
         <v>0.84545454545454546</v>
       </c>
       <c r="D19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.1222222222222222</v>
       </c>
       <c r="E19">
-        <f t="shared" ref="E19:E82" si="6">(E$2+((SUM($A19-1)/SUM($A$101-1))*(SUM(E$101-E$2))))</f>
+        <f t="shared" ref="E19:E82" si="7">(E$2+((SUM($A19-1)/SUM($A$101-1))*(SUM(E$101-E$2))))</f>
         <v>7.5757575757575761</v>
       </c>
       <c r="F19">
-        <f t="shared" ref="F19:F82" si="7">(F$2+((SUM($A19-1)/SUM($A$101-1))*(SUM(F$101-F$2))))</f>
+        <f t="shared" ref="F19:F82" si="8">(F$2+((SUM($A19-1)/SUM($A$101-1))*(SUM(F$101-F$2))))</f>
         <v>7.5757575757575761</v>
       </c>
       <c r="G19">
-        <f t="shared" ref="G19:G82" si="8">(G$2+((SUM($A19-1)/SUM($A$101-1))*(SUM(G$101-G$2))))</f>
+        <f t="shared" ref="G19:H82" si="9">(G$2+((SUM($A19-1)/SUM($A$101-1))*(SUM(G$101-G$2))))</f>
         <v>25.454545454545453</v>
       </c>
       <c r="H19">
-        <v>-1</v>
+        <f t="shared" si="9"/>
+        <v>25.454545454545453</v>
       </c>
       <c r="I19">
         <v>-1</v>
@@ -2164,20 +2237,22 @@
         <v>-1</v>
       </c>
       <c r="K19">
-        <f t="shared" ref="K19:K82" si="9">(K$2+((SUM($A19-1)/SUM($A$101-1))*(SUM(K$101-K$2))))</f>
+        <f t="shared" ref="K19:K82" si="10">(K$2+((SUM($A19-1)/SUM($A$101-1))*(SUM(K$101-K$2))))</f>
         <v>7.5757575757575761</v>
       </c>
       <c r="L19">
         <v>-1</v>
       </c>
       <c r="M19">
-        <v>-1</v>
+        <f t="shared" si="2"/>
+        <v>11.717171717171716</v>
       </c>
       <c r="N19">
         <v>-1</v>
       </c>
       <c r="O19">
-        <v>-1</v>
+        <f t="shared" si="2"/>
+        <v>11.717171717171716</v>
       </c>
       <c r="P19">
         <v>-1</v>
@@ -2191,31 +2266,32 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>19</v>
       </c>
       <c r="C20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.83636363636363642</v>
       </c>
       <c r="D20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.1</v>
       </c>
       <c r="E20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>7.7272727272727275</v>
       </c>
       <c r="F20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>7.7272727272727275</v>
       </c>
       <c r="G20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>26.363636363636363</v>
       </c>
       <c r="H20">
-        <v>-1</v>
+        <f t="shared" si="9"/>
+        <v>26.363636363636363</v>
       </c>
       <c r="I20">
         <v>-1</v>
@@ -2224,20 +2300,22 @@
         <v>-1</v>
       </c>
       <c r="K20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>7.7272727272727275</v>
       </c>
       <c r="L20">
         <v>-1</v>
       </c>
       <c r="M20">
-        <v>-1</v>
+        <f t="shared" si="2"/>
+        <v>11.818181818181818</v>
       </c>
       <c r="N20">
         <v>-1</v>
       </c>
       <c r="O20">
-        <v>-1</v>
+        <f t="shared" si="2"/>
+        <v>11.818181818181818</v>
       </c>
       <c r="P20">
         <v>-1</v>
@@ -2251,31 +2329,32 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>20</v>
       </c>
       <c r="C21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.82727272727272727</v>
       </c>
       <c r="D21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.0777777777777779</v>
       </c>
       <c r="E21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>7.8787878787878789</v>
       </c>
       <c r="F21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>7.8787878787878789</v>
       </c>
       <c r="G21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>27.27272727272727</v>
       </c>
       <c r="H21">
-        <v>-1</v>
+        <f t="shared" si="9"/>
+        <v>27.27272727272727</v>
       </c>
       <c r="I21">
         <v>-1</v>
@@ -2284,20 +2363,22 @@
         <v>-1</v>
       </c>
       <c r="K21">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>7.8787878787878789</v>
       </c>
       <c r="L21">
         <v>-1</v>
       </c>
       <c r="M21">
-        <v>-1</v>
+        <f t="shared" si="2"/>
+        <v>11.919191919191919</v>
       </c>
       <c r="N21">
         <v>-1</v>
       </c>
       <c r="O21">
-        <v>-1</v>
+        <f t="shared" si="2"/>
+        <v>11.919191919191919</v>
       </c>
       <c r="P21">
         <v>-1</v>
@@ -2311,31 +2392,32 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>21</v>
       </c>
       <c r="C22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.81818181818181812</v>
       </c>
       <c r="D22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.0555555555555554</v>
       </c>
       <c r="E22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>8.0303030303030312</v>
       </c>
       <c r="F22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>8.0303030303030312</v>
       </c>
       <c r="G22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>28.18181818181818</v>
       </c>
       <c r="H22">
-        <v>-1</v>
+        <f t="shared" si="9"/>
+        <v>28.18181818181818</v>
       </c>
       <c r="I22">
         <v>-1</v>
@@ -2344,20 +2426,22 @@
         <v>-1</v>
       </c>
       <c r="K22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>8.0303030303030312</v>
       </c>
       <c r="L22">
         <v>-1</v>
       </c>
       <c r="M22">
-        <v>-1</v>
+        <f t="shared" si="2"/>
+        <v>12.020202020202021</v>
       </c>
       <c r="N22">
         <v>-1</v>
       </c>
       <c r="O22">
-        <v>-1</v>
+        <f t="shared" si="2"/>
+        <v>12.020202020202021</v>
       </c>
       <c r="P22">
         <v>-1</v>
@@ -2371,31 +2455,32 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>22</v>
       </c>
       <c r="C23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.80909090909090908</v>
       </c>
       <c r="D23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.0333333333333332</v>
       </c>
       <c r="E23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>8.1818181818181817</v>
       </c>
       <c r="F23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>8.1818181818181817</v>
       </c>
       <c r="G23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>29.09090909090909</v>
       </c>
       <c r="H23">
-        <v>-1</v>
+        <f t="shared" si="9"/>
+        <v>29.09090909090909</v>
       </c>
       <c r="I23">
         <v>-1</v>
@@ -2404,20 +2489,22 @@
         <v>-1</v>
       </c>
       <c r="K23">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>8.1818181818181817</v>
       </c>
       <c r="L23">
         <v>-1</v>
       </c>
       <c r="M23">
-        <v>-1</v>
+        <f t="shared" si="2"/>
+        <v>12.121212121212121</v>
       </c>
       <c r="N23">
         <v>-1</v>
       </c>
       <c r="O23">
-        <v>-1</v>
+        <f t="shared" si="2"/>
+        <v>12.121212121212121</v>
       </c>
       <c r="P23">
         <v>-1</v>
@@ -2431,31 +2518,32 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>23</v>
       </c>
       <c r="C24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.8</v>
       </c>
       <c r="D24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.0111111111111111</v>
       </c>
       <c r="E24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>8.3333333333333321</v>
       </c>
       <c r="F24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>8.3333333333333321</v>
       </c>
       <c r="G24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>30</v>
       </c>
       <c r="H24">
-        <v>-1</v>
+        <f t="shared" si="9"/>
+        <v>30</v>
       </c>
       <c r="I24">
         <v>-1</v>
@@ -2464,20 +2552,22 @@
         <v>-1</v>
       </c>
       <c r="K24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>8.3333333333333321</v>
       </c>
       <c r="L24">
         <v>-1</v>
       </c>
       <c r="M24">
-        <v>-1</v>
+        <f t="shared" si="2"/>
+        <v>12.222222222222221</v>
       </c>
       <c r="N24">
         <v>-1</v>
       </c>
       <c r="O24">
-        <v>-1</v>
+        <f t="shared" si="2"/>
+        <v>12.222222222222221</v>
       </c>
       <c r="P24">
         <v>-1</v>
@@ -2491,31 +2581,32 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>24</v>
       </c>
       <c r="C25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.79090909090909089</v>
       </c>
       <c r="D25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.9888888888888889</v>
       </c>
       <c r="E25">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>8.4848484848484844</v>
       </c>
       <c r="F25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>8.4848484848484844</v>
       </c>
       <c r="G25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>30.90909090909091</v>
       </c>
       <c r="H25">
-        <v>-1</v>
+        <f t="shared" si="9"/>
+        <v>30.90909090909091</v>
       </c>
       <c r="I25">
         <v>-1</v>
@@ -2524,20 +2615,22 @@
         <v>-1</v>
       </c>
       <c r="K25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>8.4848484848484844</v>
       </c>
       <c r="L25">
         <v>-1</v>
       </c>
       <c r="M25">
-        <v>-1</v>
+        <f t="shared" si="2"/>
+        <v>12.323232323232324</v>
       </c>
       <c r="N25">
         <v>-1</v>
       </c>
       <c r="O25">
-        <v>-1</v>
+        <f t="shared" si="2"/>
+        <v>12.323232323232324</v>
       </c>
       <c r="P25">
         <v>-1</v>
@@ -2551,31 +2644,32 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>25</v>
       </c>
       <c r="C26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.78181818181818175</v>
       </c>
       <c r="D26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.9666666666666666</v>
       </c>
       <c r="E26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>8.6363636363636367</v>
       </c>
       <c r="F26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>8.6363636363636367</v>
       </c>
       <c r="G26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>31.81818181818182</v>
       </c>
       <c r="H26">
-        <v>-1</v>
+        <f t="shared" si="9"/>
+        <v>31.81818181818182</v>
       </c>
       <c r="I26">
         <v>-1</v>
@@ -2584,20 +2678,22 @@
         <v>-1</v>
       </c>
       <c r="K26">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>8.6363636363636367</v>
       </c>
       <c r="L26">
         <v>-1</v>
       </c>
       <c r="M26">
-        <v>-1</v>
+        <f t="shared" si="2"/>
+        <v>12.424242424242424</v>
       </c>
       <c r="N26">
         <v>-1</v>
       </c>
       <c r="O26">
-        <v>-1</v>
+        <f t="shared" si="2"/>
+        <v>12.424242424242424</v>
       </c>
       <c r="P26">
         <v>-1</v>
@@ -2611,31 +2707,32 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>26</v>
       </c>
       <c r="C27">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.77272727272727271</v>
       </c>
       <c r="D27">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.9444444444444442</v>
       </c>
       <c r="E27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>8.787878787878789</v>
       </c>
       <c r="F27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>8.787878787878789</v>
       </c>
       <c r="G27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>32.727272727272734</v>
       </c>
       <c r="H27">
-        <v>-1</v>
+        <f t="shared" si="9"/>
+        <v>32.727272727272734</v>
       </c>
       <c r="I27">
         <v>-1</v>
@@ -2644,20 +2741,22 @@
         <v>-1</v>
       </c>
       <c r="K27">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>8.787878787878789</v>
       </c>
       <c r="L27">
         <v>-1</v>
       </c>
       <c r="M27">
-        <v>-1</v>
+        <f t="shared" si="2"/>
+        <v>12.525252525252526</v>
       </c>
       <c r="N27">
         <v>-1</v>
       </c>
       <c r="O27">
-        <v>-1</v>
+        <f t="shared" si="2"/>
+        <v>12.525252525252526</v>
       </c>
       <c r="P27">
         <v>-1</v>
@@ -2671,31 +2770,32 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>27.000000000000004</v>
       </c>
       <c r="C28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.76363636363636367</v>
       </c>
       <c r="D28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.9222222222222221</v>
       </c>
       <c r="E28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>8.9393939393939394</v>
       </c>
       <c r="F28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>8.9393939393939394</v>
       </c>
       <c r="G28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>33.63636363636364</v>
       </c>
       <c r="H28">
-        <v>-1</v>
+        <f t="shared" si="9"/>
+        <v>33.63636363636364</v>
       </c>
       <c r="I28">
         <v>-1</v>
@@ -2704,20 +2804,22 @@
         <v>-1</v>
       </c>
       <c r="K28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>8.9393939393939394</v>
       </c>
       <c r="L28">
         <v>-1</v>
       </c>
       <c r="M28">
-        <v>-1</v>
+        <f t="shared" si="2"/>
+        <v>12.626262626262626</v>
       </c>
       <c r="N28">
         <v>-1</v>
       </c>
       <c r="O28">
-        <v>-1</v>
+        <f t="shared" si="2"/>
+        <v>12.626262626262626</v>
       </c>
       <c r="P28">
         <v>-1</v>
@@ -2731,31 +2833,32 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>27.999999999999996</v>
       </c>
       <c r="C29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.75454545454545452</v>
       </c>
       <c r="D29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.9</v>
       </c>
       <c r="E29">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>9.0909090909090899</v>
       </c>
       <c r="F29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>9.0909090909090899</v>
       </c>
       <c r="G29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>34.545454545454547</v>
       </c>
       <c r="H29">
-        <v>-1</v>
+        <f t="shared" si="9"/>
+        <v>34.545454545454547</v>
       </c>
       <c r="I29">
         <v>-1</v>
@@ -2764,20 +2867,22 @@
         <v>-1</v>
       </c>
       <c r="K29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>9.0909090909090899</v>
       </c>
       <c r="L29">
         <v>-1</v>
       </c>
       <c r="M29">
-        <v>-1</v>
+        <f t="shared" si="2"/>
+        <v>12.727272727272727</v>
       </c>
       <c r="N29">
         <v>-1</v>
       </c>
       <c r="O29">
-        <v>-1</v>
+        <f t="shared" si="2"/>
+        <v>12.727272727272727</v>
       </c>
       <c r="P29">
         <v>-1</v>
@@ -2791,31 +2896,32 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>29</v>
       </c>
       <c r="C30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.74545454545454548</v>
       </c>
       <c r="D30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.8777777777777778</v>
       </c>
       <c r="E30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>9.2424242424242422</v>
       </c>
       <c r="F30">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>9.2424242424242422</v>
       </c>
       <c r="G30">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>35.454545454545453</v>
       </c>
       <c r="H30">
-        <v>-1</v>
+        <f t="shared" si="9"/>
+        <v>35.454545454545453</v>
       </c>
       <c r="I30">
         <v>-1</v>
@@ -2824,20 +2930,22 @@
         <v>-1</v>
       </c>
       <c r="K30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>9.2424242424242422</v>
       </c>
       <c r="L30">
         <v>-1</v>
       </c>
       <c r="M30">
-        <v>-1</v>
+        <f t="shared" si="2"/>
+        <v>12.828282828282829</v>
       </c>
       <c r="N30">
         <v>-1</v>
       </c>
       <c r="O30">
-        <v>-1</v>
+        <f t="shared" si="2"/>
+        <v>12.828282828282829</v>
       </c>
       <c r="P30">
         <v>-1</v>
@@ -2851,31 +2959,32 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>30</v>
       </c>
       <c r="C31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.73636363636363633</v>
       </c>
       <c r="D31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.8555555555555556</v>
       </c>
       <c r="E31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>9.3939393939393945</v>
       </c>
       <c r="F31">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>9.3939393939393945</v>
       </c>
       <c r="G31">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>36.36363636363636</v>
       </c>
       <c r="H31">
-        <v>-1</v>
+        <f t="shared" si="9"/>
+        <v>36.36363636363636</v>
       </c>
       <c r="I31">
         <v>-1</v>
@@ -2884,20 +2993,22 @@
         <v>-1</v>
       </c>
       <c r="K31">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>9.3939393939393945</v>
       </c>
       <c r="L31">
         <v>-1</v>
       </c>
       <c r="M31">
-        <v>-1</v>
+        <f t="shared" si="2"/>
+        <v>12.929292929292929</v>
       </c>
       <c r="N31">
         <v>-1</v>
       </c>
       <c r="O31">
-        <v>-1</v>
+        <f t="shared" si="2"/>
+        <v>12.929292929292929</v>
       </c>
       <c r="P31">
         <v>-1</v>
@@ -2911,31 +3022,32 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>31</v>
       </c>
       <c r="C32">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.72727272727272729</v>
       </c>
       <c r="D32">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.8333333333333333</v>
       </c>
       <c r="E32">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>9.5454545454545467</v>
       </c>
       <c r="F32">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>9.5454545454545467</v>
       </c>
       <c r="G32">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>37.272727272727273</v>
       </c>
       <c r="H32">
-        <v>-1</v>
+        <f t="shared" si="9"/>
+        <v>37.272727272727273</v>
       </c>
       <c r="I32">
         <v>-1</v>
@@ -2944,20 +3056,22 @@
         <v>-1</v>
       </c>
       <c r="K32">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>9.5454545454545467</v>
       </c>
       <c r="L32">
         <v>-1</v>
       </c>
       <c r="M32">
-        <v>-1</v>
+        <f t="shared" si="2"/>
+        <v>13.030303030303031</v>
       </c>
       <c r="N32">
         <v>-1</v>
       </c>
       <c r="O32">
-        <v>-1</v>
+        <f t="shared" si="2"/>
+        <v>13.030303030303031</v>
       </c>
       <c r="P32">
         <v>-1</v>
@@ -2971,31 +3085,32 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>32</v>
       </c>
       <c r="C33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.71818181818181814</v>
       </c>
       <c r="D33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.8111111111111109</v>
       </c>
       <c r="E33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>9.6969696969696972</v>
       </c>
       <c r="F33">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>9.6969696969696972</v>
       </c>
       <c r="G33">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>38.181818181818187</v>
       </c>
       <c r="H33">
-        <v>-1</v>
+        <f t="shared" si="9"/>
+        <v>38.181818181818187</v>
       </c>
       <c r="I33">
         <v>-1</v>
@@ -3004,20 +3119,22 @@
         <v>-1</v>
       </c>
       <c r="K33">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>9.6969696969696972</v>
       </c>
       <c r="L33">
         <v>-1</v>
       </c>
       <c r="M33">
-        <v>-1</v>
+        <f t="shared" si="2"/>
+        <v>13.131313131313131</v>
       </c>
       <c r="N33">
         <v>-1</v>
       </c>
       <c r="O33">
-        <v>-1</v>
+        <f t="shared" si="2"/>
+        <v>13.131313131313131</v>
       </c>
       <c r="P33">
         <v>-1</v>
@@ -3031,31 +3148,32 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>33</v>
       </c>
       <c r="C34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.70909090909090899</v>
       </c>
       <c r="D34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.7888888888888888</v>
       </c>
       <c r="E34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>9.8484848484848477</v>
       </c>
       <c r="F34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>9.8484848484848477</v>
       </c>
       <c r="G34">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>39.090909090909093</v>
       </c>
       <c r="H34">
-        <v>-1</v>
+        <f t="shared" si="9"/>
+        <v>39.090909090909093</v>
       </c>
       <c r="I34">
         <v>-1</v>
@@ -3064,20 +3182,22 @@
         <v>-1</v>
       </c>
       <c r="K34">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>9.8484848484848477</v>
       </c>
       <c r="L34">
         <v>-1</v>
       </c>
       <c r="M34">
-        <v>-1</v>
+        <f t="shared" si="2"/>
+        <v>13.232323232323232</v>
       </c>
       <c r="N34">
         <v>-1</v>
       </c>
       <c r="O34">
-        <v>-1</v>
+        <f t="shared" si="2"/>
+        <v>13.232323232323232</v>
       </c>
       <c r="P34">
         <v>-1</v>
@@ -3091,31 +3211,32 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>34</v>
       </c>
       <c r="C35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.7</v>
       </c>
       <c r="D35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.7666666666666666</v>
       </c>
       <c r="E35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="F35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="G35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>40</v>
       </c>
       <c r="H35">
-        <v>-1</v>
+        <f t="shared" si="9"/>
+        <v>40</v>
       </c>
       <c r="I35">
         <v>-1</v>
@@ -3124,20 +3245,22 @@
         <v>-1</v>
       </c>
       <c r="K35">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="L35">
         <v>-1</v>
       </c>
       <c r="M35">
-        <v>-1</v>
+        <f t="shared" si="2"/>
+        <v>13.333333333333332</v>
       </c>
       <c r="N35">
         <v>-1</v>
       </c>
       <c r="O35">
-        <v>-1</v>
+        <f t="shared" si="2"/>
+        <v>13.333333333333332</v>
       </c>
       <c r="P35">
         <v>-1</v>
@@ -3151,31 +3274,32 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>35</v>
       </c>
       <c r="C36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.69090909090909092</v>
       </c>
       <c r="D36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.7444444444444445</v>
       </c>
       <c r="E36">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10.151515151515152</v>
       </c>
       <c r="F36">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10.151515151515152</v>
       </c>
       <c r="G36">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>40.909090909090907</v>
       </c>
       <c r="H36">
-        <v>-1</v>
+        <f t="shared" si="9"/>
+        <v>40.909090909090907</v>
       </c>
       <c r="I36">
         <v>-1</v>
@@ -3184,20 +3308,22 @@
         <v>-1</v>
       </c>
       <c r="K36">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>10.151515151515152</v>
       </c>
       <c r="L36">
         <v>-1</v>
       </c>
       <c r="M36">
-        <v>-1</v>
+        <f t="shared" si="2"/>
+        <v>13.434343434343434</v>
       </c>
       <c r="N36">
         <v>-1</v>
       </c>
       <c r="O36">
-        <v>-1</v>
+        <f t="shared" si="2"/>
+        <v>13.434343434343434</v>
       </c>
       <c r="P36">
         <v>-1</v>
@@ -3211,31 +3337,32 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>36</v>
       </c>
       <c r="C37">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.68181818181818188</v>
       </c>
       <c r="D37">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.7222222222222223</v>
       </c>
       <c r="E37">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10.303030303030303</v>
       </c>
       <c r="F37">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10.303030303030303</v>
       </c>
       <c r="G37">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>41.818181818181813</v>
       </c>
       <c r="H37">
-        <v>-1</v>
+        <f t="shared" si="9"/>
+        <v>41.818181818181813</v>
       </c>
       <c r="I37">
         <v>-1</v>
@@ -3244,20 +3371,22 @@
         <v>-1</v>
       </c>
       <c r="K37">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>10.303030303030303</v>
       </c>
       <c r="L37">
         <v>-1</v>
       </c>
       <c r="M37">
-        <v>-1</v>
+        <f t="shared" si="2"/>
+        <v>13.535353535353536</v>
       </c>
       <c r="N37">
         <v>-1</v>
       </c>
       <c r="O37">
-        <v>-1</v>
+        <f t="shared" si="2"/>
+        <v>13.535353535353536</v>
       </c>
       <c r="P37">
         <v>-1</v>
@@ -3271,31 +3400,32 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>37</v>
       </c>
       <c r="C38">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.67272727272727273</v>
       </c>
       <c r="D38">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.7</v>
       </c>
       <c r="E38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10.454545454545455</v>
       </c>
       <c r="F38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10.454545454545455</v>
       </c>
       <c r="G38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>42.727272727272727</v>
       </c>
       <c r="H38">
-        <v>-1</v>
+        <f t="shared" si="9"/>
+        <v>42.727272727272727</v>
       </c>
       <c r="I38">
         <v>-1</v>
@@ -3304,20 +3434,22 @@
         <v>-1</v>
       </c>
       <c r="K38">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>10.454545454545455</v>
       </c>
       <c r="L38">
         <v>-1</v>
       </c>
       <c r="M38">
-        <v>-1</v>
+        <f t="shared" si="2"/>
+        <v>13.636363636363637</v>
       </c>
       <c r="N38">
         <v>-1</v>
       </c>
       <c r="O38">
-        <v>-1</v>
+        <f t="shared" si="2"/>
+        <v>13.636363636363637</v>
       </c>
       <c r="P38">
         <v>-1</v>
@@ -3331,31 +3463,32 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>38</v>
       </c>
       <c r="C39">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.66363636363636358</v>
       </c>
       <c r="D39">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.6777777777777776</v>
       </c>
       <c r="E39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10.606060606060606</v>
       </c>
       <c r="F39">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10.606060606060606</v>
       </c>
       <c r="G39">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>43.63636363636364</v>
       </c>
       <c r="H39">
-        <v>-1</v>
+        <f t="shared" si="9"/>
+        <v>43.63636363636364</v>
       </c>
       <c r="I39">
         <v>-1</v>
@@ -3364,20 +3497,22 @@
         <v>-1</v>
       </c>
       <c r="K39">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>10.606060606060606</v>
       </c>
       <c r="L39">
         <v>-1</v>
       </c>
       <c r="M39">
-        <v>-1</v>
+        <f t="shared" si="2"/>
+        <v>13.737373737373737</v>
       </c>
       <c r="N39">
         <v>-1</v>
       </c>
       <c r="O39">
-        <v>-1</v>
+        <f t="shared" si="2"/>
+        <v>13.737373737373737</v>
       </c>
       <c r="P39">
         <v>-1</v>
@@ -3391,31 +3526,32 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>39</v>
       </c>
       <c r="C40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.65454545454545454</v>
       </c>
       <c r="D40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.6555555555555554</v>
       </c>
       <c r="E40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10.757575757575758</v>
       </c>
       <c r="F40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10.757575757575758</v>
       </c>
       <c r="G40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>44.54545454545454</v>
       </c>
       <c r="H40">
-        <v>-1</v>
+        <f t="shared" si="9"/>
+        <v>44.54545454545454</v>
       </c>
       <c r="I40">
         <v>-1</v>
@@ -3424,20 +3560,22 @@
         <v>-1</v>
       </c>
       <c r="K40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>10.757575757575758</v>
       </c>
       <c r="L40">
         <v>-1</v>
       </c>
       <c r="M40">
-        <v>-1</v>
+        <f t="shared" si="2"/>
+        <v>13.838383838383837</v>
       </c>
       <c r="N40">
         <v>-1</v>
       </c>
       <c r="O40">
-        <v>-1</v>
+        <f t="shared" si="2"/>
+        <v>13.838383838383837</v>
       </c>
       <c r="P40">
         <v>-1</v>
@@ -3451,31 +3589,32 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>40</v>
       </c>
       <c r="C41">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.6454545454545455</v>
       </c>
       <c r="D41">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.6333333333333333</v>
       </c>
       <c r="E41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10.90909090909091</v>
       </c>
       <c r="F41">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10.90909090909091</v>
       </c>
       <c r="G41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>45.454545454545453</v>
       </c>
       <c r="H41">
-        <v>-1</v>
+        <f t="shared" si="9"/>
+        <v>45.454545454545453</v>
       </c>
       <c r="I41">
         <v>-1</v>
@@ -3484,20 +3623,22 @@
         <v>-1</v>
       </c>
       <c r="K41">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>10.90909090909091</v>
       </c>
       <c r="L41">
         <v>-1</v>
       </c>
       <c r="M41">
-        <v>-1</v>
+        <f t="shared" si="2"/>
+        <v>13.939393939393939</v>
       </c>
       <c r="N41">
         <v>-1</v>
       </c>
       <c r="O41">
-        <v>-1</v>
+        <f t="shared" si="2"/>
+        <v>13.939393939393939</v>
       </c>
       <c r="P41">
         <v>-1</v>
@@ -3511,31 +3652,32 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>41</v>
       </c>
       <c r="C42">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.63636363636363635</v>
       </c>
       <c r="D42">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.6111111111111112</v>
       </c>
       <c r="E42">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>11.060606060606061</v>
       </c>
       <c r="F42">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>11.060606060606061</v>
       </c>
       <c r="G42">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>46.36363636363636</v>
       </c>
       <c r="H42">
-        <v>-1</v>
+        <f t="shared" si="9"/>
+        <v>46.36363636363636</v>
       </c>
       <c r="I42">
         <v>-1</v>
@@ -3544,20 +3686,22 @@
         <v>-1</v>
       </c>
       <c r="K42">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>11.060606060606061</v>
       </c>
       <c r="L42">
         <v>-1</v>
       </c>
       <c r="M42">
-        <v>-1</v>
+        <f t="shared" si="2"/>
+        <v>14.040404040404042</v>
       </c>
       <c r="N42">
         <v>-1</v>
       </c>
       <c r="O42">
-        <v>-1</v>
+        <f t="shared" si="2"/>
+        <v>14.040404040404042</v>
       </c>
       <c r="P42">
         <v>-1</v>
@@ -3571,31 +3715,32 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>42</v>
       </c>
       <c r="C43">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.6272727272727272</v>
       </c>
       <c r="D43">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.5888888888888888</v>
       </c>
       <c r="E43">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>11.212121212121211</v>
       </c>
       <c r="F43">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>11.212121212121211</v>
       </c>
       <c r="G43">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>47.272727272727273</v>
       </c>
       <c r="H43">
-        <v>-1</v>
+        <f t="shared" si="9"/>
+        <v>47.272727272727273</v>
       </c>
       <c r="I43">
         <v>-1</v>
@@ -3604,20 +3749,22 @@
         <v>-1</v>
       </c>
       <c r="K43">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>11.212121212121211</v>
       </c>
       <c r="L43">
         <v>-1</v>
       </c>
       <c r="M43">
-        <v>-1</v>
+        <f t="shared" si="2"/>
+        <v>14.141414141414142</v>
       </c>
       <c r="N43">
         <v>-1</v>
       </c>
       <c r="O43">
-        <v>-1</v>
+        <f t="shared" si="2"/>
+        <v>14.141414141414142</v>
       </c>
       <c r="P43">
         <v>-1</v>
@@ -3631,31 +3778,32 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>43</v>
       </c>
       <c r="C44">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.61818181818181817</v>
       </c>
       <c r="D44">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.5666666666666664</v>
       </c>
       <c r="E44">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>11.363636363636363</v>
       </c>
       <c r="F44">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>11.363636363636363</v>
       </c>
       <c r="G44">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>48.18181818181818</v>
       </c>
       <c r="H44">
-        <v>-1</v>
+        <f t="shared" si="9"/>
+        <v>48.18181818181818</v>
       </c>
       <c r="I44">
         <v>-1</v>
@@ -3664,20 +3812,22 @@
         <v>-1</v>
       </c>
       <c r="K44">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>11.363636363636363</v>
       </c>
       <c r="L44">
         <v>-1</v>
       </c>
       <c r="M44">
-        <v>-1</v>
+        <f t="shared" si="2"/>
+        <v>14.242424242424242</v>
       </c>
       <c r="N44">
         <v>-1</v>
       </c>
       <c r="O44">
-        <v>-1</v>
+        <f t="shared" si="2"/>
+        <v>14.242424242424242</v>
       </c>
       <c r="P44">
         <v>-1</v>
@@ -3691,31 +3841,32 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>44</v>
       </c>
       <c r="C45">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.60909090909090913</v>
       </c>
       <c r="D45">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.5444444444444443</v>
       </c>
       <c r="E45">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>11.515151515151516</v>
       </c>
       <c r="F45">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>11.515151515151516</v>
       </c>
       <c r="G45">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>49.090909090909093</v>
       </c>
       <c r="H45">
-        <v>-1</v>
+        <f t="shared" si="9"/>
+        <v>49.090909090909093</v>
       </c>
       <c r="I45">
         <v>-1</v>
@@ -3724,20 +3875,22 @@
         <v>-1</v>
       </c>
       <c r="K45">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>11.515151515151516</v>
       </c>
       <c r="L45">
         <v>-1</v>
       </c>
       <c r="M45">
-        <v>-1</v>
+        <f t="shared" si="2"/>
+        <v>14.343434343434343</v>
       </c>
       <c r="N45">
         <v>-1</v>
       </c>
       <c r="O45">
-        <v>-1</v>
+        <f t="shared" si="2"/>
+        <v>14.343434343434343</v>
       </c>
       <c r="P45">
         <v>-1</v>
@@ -3751,31 +3904,32 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>45</v>
       </c>
       <c r="C46">
-        <f t="shared" ref="C46:C77" si="10">(C$2+((SUM(A46-1)/SUM(A$101-1))*(SUM(C$101-C$2))))</f>
+        <f t="shared" ref="C46:C77" si="11">(C$2+((SUM(A46-1)/SUM(A$101-1))*(SUM(C$101-C$2))))</f>
         <v>0.60000000000000009</v>
       </c>
       <c r="D46">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.5222222222222221</v>
       </c>
       <c r="E46">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>11.666666666666666</v>
       </c>
       <c r="F46">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>11.666666666666666</v>
       </c>
       <c r="G46">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>50</v>
       </c>
       <c r="H46">
-        <v>-1</v>
+        <f t="shared" si="9"/>
+        <v>50</v>
       </c>
       <c r="I46">
         <v>-1</v>
@@ -3784,20 +3938,22 @@
         <v>-1</v>
       </c>
       <c r="K46">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>11.666666666666666</v>
       </c>
       <c r="L46">
         <v>-1</v>
       </c>
       <c r="M46">
-        <v>-1</v>
+        <f t="shared" si="2"/>
+        <v>14.444444444444445</v>
       </c>
       <c r="N46">
         <v>-1</v>
       </c>
       <c r="O46">
-        <v>-1</v>
+        <f t="shared" si="2"/>
+        <v>14.444444444444445</v>
       </c>
       <c r="P46">
         <v>-1</v>
@@ -3811,53 +3967,56 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>46</v>
       </c>
       <c r="C47">
+        <f t="shared" si="11"/>
+        <v>0.59090909090909094</v>
+      </c>
+      <c r="D47">
+        <f t="shared" ref="D47:D100" si="12">(D$2+((SUM($A47-1)/SUM($A$101-1))*(SUM(D$101-D$2))))</f>
+        <v>1.5</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="7"/>
+        <v>11.818181818181818</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="8"/>
+        <v>11.818181818181818</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="9"/>
+        <v>50.909090909090907</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="9"/>
+        <v>50.909090909090907</v>
+      </c>
+      <c r="I47">
+        <v>-1</v>
+      </c>
+      <c r="J47">
+        <v>-1</v>
+      </c>
+      <c r="K47">
         <f t="shared" si="10"/>
-        <v>0.59090909090909094</v>
-      </c>
-      <c r="D47">
-        <f t="shared" ref="D47:D100" si="11">(D$2+((SUM($A47-1)/SUM($A$101-1))*(SUM(D$101-D$2))))</f>
-        <v>1.5</v>
-      </c>
-      <c r="E47">
-        <f t="shared" si="6"/>
         <v>11.818181818181818</v>
       </c>
-      <c r="F47">
-        <f t="shared" si="7"/>
-        <v>11.818181818181818</v>
-      </c>
-      <c r="G47">
-        <f t="shared" si="8"/>
-        <v>50.909090909090907</v>
-      </c>
-      <c r="H47">
-        <v>-1</v>
-      </c>
-      <c r="I47">
-        <v>-1</v>
-      </c>
-      <c r="J47">
-        <v>-1</v>
-      </c>
-      <c r="K47">
-        <f t="shared" si="9"/>
-        <v>11.818181818181818</v>
-      </c>
       <c r="L47">
         <v>-1</v>
       </c>
       <c r="M47">
-        <v>-1</v>
+        <f t="shared" si="2"/>
+        <v>14.545454545454545</v>
       </c>
       <c r="N47">
         <v>-1</v>
       </c>
       <c r="O47">
-        <v>-1</v>
+        <f t="shared" si="2"/>
+        <v>14.545454545454545</v>
       </c>
       <c r="P47">
         <v>-1</v>
@@ -3871,53 +4030,56 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>47</v>
       </c>
       <c r="C48">
+        <f t="shared" si="11"/>
+        <v>0.58181818181818179</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="12"/>
+        <v>1.4777777777777776</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="7"/>
+        <v>11.969696969696969</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="8"/>
+        <v>11.969696969696969</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="9"/>
+        <v>51.81818181818182</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="9"/>
+        <v>51.81818181818182</v>
+      </c>
+      <c r="I48">
+        <v>-1</v>
+      </c>
+      <c r="J48">
+        <v>-1</v>
+      </c>
+      <c r="K48">
         <f t="shared" si="10"/>
-        <v>0.58181818181818179</v>
-      </c>
-      <c r="D48">
-        <f t="shared" si="11"/>
-        <v>1.4777777777777776</v>
-      </c>
-      <c r="E48">
-        <f t="shared" si="6"/>
         <v>11.969696969696969</v>
       </c>
-      <c r="F48">
-        <f t="shared" si="7"/>
-        <v>11.969696969696969</v>
-      </c>
-      <c r="G48">
-        <f t="shared" si="8"/>
-        <v>51.81818181818182</v>
-      </c>
-      <c r="H48">
-        <v>-1</v>
-      </c>
-      <c r="I48">
-        <v>-1</v>
-      </c>
-      <c r="J48">
-        <v>-1</v>
-      </c>
-      <c r="K48">
-        <f t="shared" si="9"/>
-        <v>11.969696969696969</v>
-      </c>
       <c r="L48">
         <v>-1</v>
       </c>
       <c r="M48">
-        <v>-1</v>
+        <f t="shared" si="2"/>
+        <v>14.646464646464647</v>
       </c>
       <c r="N48">
         <v>-1</v>
       </c>
       <c r="O48">
-        <v>-1</v>
+        <f t="shared" si="2"/>
+        <v>14.646464646464647</v>
       </c>
       <c r="P48">
         <v>-1</v>
@@ -3931,53 +4093,56 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>48</v>
       </c>
       <c r="C49">
+        <f t="shared" si="11"/>
+        <v>0.57272727272727275</v>
+      </c>
+      <c r="D49">
+        <f t="shared" si="12"/>
+        <v>1.4555555555555555</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="7"/>
+        <v>12.121212121212121</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="8"/>
+        <v>12.121212121212121</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="9"/>
+        <v>52.727272727272727</v>
+      </c>
+      <c r="H49">
+        <f t="shared" si="9"/>
+        <v>52.727272727272727</v>
+      </c>
+      <c r="I49">
+        <v>-1</v>
+      </c>
+      <c r="J49">
+        <v>-1</v>
+      </c>
+      <c r="K49">
         <f t="shared" si="10"/>
-        <v>0.57272727272727275</v>
-      </c>
-      <c r="D49">
-        <f t="shared" si="11"/>
-        <v>1.4555555555555555</v>
-      </c>
-      <c r="E49">
-        <f t="shared" si="6"/>
         <v>12.121212121212121</v>
       </c>
-      <c r="F49">
-        <f t="shared" si="7"/>
-        <v>12.121212121212121</v>
-      </c>
-      <c r="G49">
-        <f t="shared" si="8"/>
-        <v>52.727272727272727</v>
-      </c>
-      <c r="H49">
-        <v>-1</v>
-      </c>
-      <c r="I49">
-        <v>-1</v>
-      </c>
-      <c r="J49">
-        <v>-1</v>
-      </c>
-      <c r="K49">
-        <f t="shared" si="9"/>
-        <v>12.121212121212121</v>
-      </c>
       <c r="L49">
         <v>-1</v>
       </c>
       <c r="M49">
-        <v>-1</v>
+        <f t="shared" si="2"/>
+        <v>14.747474747474747</v>
       </c>
       <c r="N49">
         <v>-1</v>
       </c>
       <c r="O49">
-        <v>-1</v>
+        <f t="shared" si="2"/>
+        <v>14.747474747474747</v>
       </c>
       <c r="P49">
         <v>-1</v>
@@ -3991,53 +4156,56 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>49</v>
       </c>
       <c r="C50">
+        <f t="shared" si="11"/>
+        <v>0.5636363636363636</v>
+      </c>
+      <c r="D50">
+        <f t="shared" si="12"/>
+        <v>1.4333333333333331</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="7"/>
+        <v>12.272727272727273</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="8"/>
+        <v>12.272727272727273</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="9"/>
+        <v>53.63636363636364</v>
+      </c>
+      <c r="H50">
+        <f t="shared" si="9"/>
+        <v>53.63636363636364</v>
+      </c>
+      <c r="I50">
+        <v>-1</v>
+      </c>
+      <c r="J50">
+        <v>-1</v>
+      </c>
+      <c r="K50">
         <f t="shared" si="10"/>
-        <v>0.5636363636363636</v>
-      </c>
-      <c r="D50">
-        <f t="shared" si="11"/>
-        <v>1.4333333333333331</v>
-      </c>
-      <c r="E50">
-        <f t="shared" si="6"/>
         <v>12.272727272727273</v>
       </c>
-      <c r="F50">
-        <f t="shared" si="7"/>
-        <v>12.272727272727273</v>
-      </c>
-      <c r="G50">
-        <f t="shared" si="8"/>
-        <v>53.63636363636364</v>
-      </c>
-      <c r="H50">
-        <v>-1</v>
-      </c>
-      <c r="I50">
-        <v>-1</v>
-      </c>
-      <c r="J50">
-        <v>-1</v>
-      </c>
-      <c r="K50">
-        <f t="shared" si="9"/>
-        <v>12.272727272727273</v>
-      </c>
       <c r="L50">
         <v>-1</v>
       </c>
       <c r="M50">
-        <v>-1</v>
+        <f t="shared" si="2"/>
+        <v>14.848484848484848</v>
       </c>
       <c r="N50">
         <v>-1</v>
       </c>
       <c r="O50">
-        <v>-1</v>
+        <f t="shared" si="2"/>
+        <v>14.848484848484848</v>
       </c>
       <c r="P50">
         <v>-1</v>
@@ -4051,53 +4219,56 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>50</v>
       </c>
       <c r="C51">
+        <f t="shared" si="11"/>
+        <v>0.55454545454545445</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="12"/>
+        <v>1.411111111111111</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="7"/>
+        <v>12.424242424242426</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="8"/>
+        <v>12.424242424242426</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="9"/>
+        <v>54.545454545454547</v>
+      </c>
+      <c r="H51">
+        <f t="shared" si="9"/>
+        <v>54.545454545454547</v>
+      </c>
+      <c r="I51">
+        <v>-1</v>
+      </c>
+      <c r="J51">
+        <v>-1</v>
+      </c>
+      <c r="K51">
         <f t="shared" si="10"/>
-        <v>0.55454545454545445</v>
-      </c>
-      <c r="D51">
-        <f t="shared" si="11"/>
-        <v>1.411111111111111</v>
-      </c>
-      <c r="E51">
-        <f t="shared" si="6"/>
         <v>12.424242424242426</v>
       </c>
-      <c r="F51">
-        <f t="shared" si="7"/>
-        <v>12.424242424242426</v>
-      </c>
-      <c r="G51">
-        <f t="shared" si="8"/>
-        <v>54.545454545454547</v>
-      </c>
-      <c r="H51">
-        <v>-1</v>
-      </c>
-      <c r="I51">
-        <v>-1</v>
-      </c>
-      <c r="J51">
-        <v>-1</v>
-      </c>
-      <c r="K51">
-        <f t="shared" si="9"/>
-        <v>12.424242424242426</v>
-      </c>
       <c r="L51">
         <v>-1</v>
       </c>
       <c r="M51">
-        <v>-1</v>
+        <f t="shared" si="2"/>
+        <v>14.94949494949495</v>
       </c>
       <c r="N51">
         <v>-1</v>
       </c>
       <c r="O51">
-        <v>-1</v>
+        <f t="shared" si="2"/>
+        <v>14.94949494949495</v>
       </c>
       <c r="P51">
         <v>-1</v>
@@ -4111,53 +4282,56 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>51</v>
       </c>
       <c r="C52">
+        <f t="shared" si="11"/>
+        <v>0.54545454545454541</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="12"/>
+        <v>1.3888888888888886</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="7"/>
+        <v>12.575757575757576</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="8"/>
+        <v>12.575757575757576</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="9"/>
+        <v>55.45454545454546</v>
+      </c>
+      <c r="H52">
+        <f t="shared" si="9"/>
+        <v>55.45454545454546</v>
+      </c>
+      <c r="I52">
+        <v>-1</v>
+      </c>
+      <c r="J52">
+        <v>-1</v>
+      </c>
+      <c r="K52">
         <f t="shared" si="10"/>
-        <v>0.54545454545454541</v>
-      </c>
-      <c r="D52">
-        <f t="shared" si="11"/>
-        <v>1.3888888888888886</v>
-      </c>
-      <c r="E52">
-        <f t="shared" si="6"/>
         <v>12.575757575757576</v>
       </c>
-      <c r="F52">
-        <f t="shared" si="7"/>
-        <v>12.575757575757576</v>
-      </c>
-      <c r="G52">
-        <f t="shared" si="8"/>
-        <v>55.45454545454546</v>
-      </c>
-      <c r="H52">
-        <v>-1</v>
-      </c>
-      <c r="I52">
-        <v>-1</v>
-      </c>
-      <c r="J52">
-        <v>-1</v>
-      </c>
-      <c r="K52">
-        <f t="shared" si="9"/>
-        <v>12.575757575757576</v>
-      </c>
       <c r="L52">
         <v>-1</v>
       </c>
       <c r="M52">
-        <v>-1</v>
+        <f t="shared" si="2"/>
+        <v>15.050505050505052</v>
       </c>
       <c r="N52">
         <v>-1</v>
       </c>
       <c r="O52">
-        <v>-1</v>
+        <f t="shared" si="2"/>
+        <v>15.050505050505052</v>
       </c>
       <c r="P52">
         <v>-1</v>
@@ -4171,53 +4345,56 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>52</v>
       </c>
       <c r="C53">
+        <f t="shared" si="11"/>
+        <v>0.53636363636363638</v>
+      </c>
+      <c r="D53">
+        <f t="shared" si="12"/>
+        <v>1.3666666666666667</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="7"/>
+        <v>12.727272727272727</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="8"/>
+        <v>12.727272727272727</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="9"/>
+        <v>56.36363636363636</v>
+      </c>
+      <c r="H53">
+        <f t="shared" si="9"/>
+        <v>56.36363636363636</v>
+      </c>
+      <c r="I53">
+        <v>-1</v>
+      </c>
+      <c r="J53">
+        <v>-1</v>
+      </c>
+      <c r="K53">
         <f t="shared" si="10"/>
-        <v>0.53636363636363638</v>
-      </c>
-      <c r="D53">
-        <f t="shared" si="11"/>
-        <v>1.3666666666666667</v>
-      </c>
-      <c r="E53">
-        <f t="shared" si="6"/>
         <v>12.727272727272727</v>
       </c>
-      <c r="F53">
-        <f t="shared" si="7"/>
-        <v>12.727272727272727</v>
-      </c>
-      <c r="G53">
-        <f t="shared" si="8"/>
-        <v>56.36363636363636</v>
-      </c>
-      <c r="H53">
-        <v>-1</v>
-      </c>
-      <c r="I53">
-        <v>-1</v>
-      </c>
-      <c r="J53">
-        <v>-1</v>
-      </c>
-      <c r="K53">
-        <f t="shared" si="9"/>
-        <v>12.727272727272727</v>
-      </c>
       <c r="L53">
         <v>-1</v>
       </c>
       <c r="M53">
-        <v>-1</v>
+        <f t="shared" si="2"/>
+        <v>15.151515151515152</v>
       </c>
       <c r="N53">
         <v>-1</v>
       </c>
       <c r="O53">
-        <v>-1</v>
+        <f t="shared" si="2"/>
+        <v>15.151515151515152</v>
       </c>
       <c r="P53">
         <v>-1</v>
@@ -4231,53 +4408,56 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>53.000000000000007</v>
       </c>
       <c r="C54">
+        <f t="shared" si="11"/>
+        <v>0.52727272727272723</v>
+      </c>
+      <c r="D54">
+        <f t="shared" si="12"/>
+        <v>1.3444444444444443</v>
+      </c>
+      <c r="E54">
+        <f t="shared" si="7"/>
+        <v>12.878787878787879</v>
+      </c>
+      <c r="F54">
+        <f t="shared" si="8"/>
+        <v>12.878787878787879</v>
+      </c>
+      <c r="G54">
+        <f t="shared" si="9"/>
+        <v>57.27272727272728</v>
+      </c>
+      <c r="H54">
+        <f t="shared" si="9"/>
+        <v>57.27272727272728</v>
+      </c>
+      <c r="I54">
+        <v>-1</v>
+      </c>
+      <c r="J54">
+        <v>-1</v>
+      </c>
+      <c r="K54">
         <f t="shared" si="10"/>
-        <v>0.52727272727272723</v>
-      </c>
-      <c r="D54">
-        <f t="shared" si="11"/>
-        <v>1.3444444444444443</v>
-      </c>
-      <c r="E54">
-        <f t="shared" si="6"/>
         <v>12.878787878787879</v>
       </c>
-      <c r="F54">
-        <f t="shared" si="7"/>
-        <v>12.878787878787879</v>
-      </c>
-      <c r="G54">
-        <f t="shared" si="8"/>
-        <v>57.27272727272728</v>
-      </c>
-      <c r="H54">
-        <v>-1</v>
-      </c>
-      <c r="I54">
-        <v>-1</v>
-      </c>
-      <c r="J54">
-        <v>-1</v>
-      </c>
-      <c r="K54">
-        <f t="shared" si="9"/>
-        <v>12.878787878787879</v>
-      </c>
       <c r="L54">
         <v>-1</v>
       </c>
       <c r="M54">
-        <v>-1</v>
+        <f t="shared" si="2"/>
+        <v>15.252525252525253</v>
       </c>
       <c r="N54">
         <v>-1</v>
       </c>
       <c r="O54">
-        <v>-1</v>
+        <f t="shared" si="2"/>
+        <v>15.252525252525253</v>
       </c>
       <c r="P54">
         <v>-1</v>
@@ -4291,53 +4471,56 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>54</v>
       </c>
       <c r="C55">
+        <f t="shared" si="11"/>
+        <v>0.51818181818181819</v>
+      </c>
+      <c r="D55">
+        <f t="shared" si="12"/>
+        <v>1.3222222222222222</v>
+      </c>
+      <c r="E55">
+        <f t="shared" si="7"/>
+        <v>13.030303030303031</v>
+      </c>
+      <c r="F55">
+        <f t="shared" si="8"/>
+        <v>13.030303030303031</v>
+      </c>
+      <c r="G55">
+        <f t="shared" si="9"/>
+        <v>58.18181818181818</v>
+      </c>
+      <c r="H55">
+        <f t="shared" si="9"/>
+        <v>58.18181818181818</v>
+      </c>
+      <c r="I55">
+        <v>-1</v>
+      </c>
+      <c r="J55">
+        <v>-1</v>
+      </c>
+      <c r="K55">
         <f t="shared" si="10"/>
-        <v>0.51818181818181819</v>
-      </c>
-      <c r="D55">
-        <f t="shared" si="11"/>
-        <v>1.3222222222222222</v>
-      </c>
-      <c r="E55">
-        <f t="shared" si="6"/>
         <v>13.030303030303031</v>
       </c>
-      <c r="F55">
-        <f t="shared" si="7"/>
-        <v>13.030303030303031</v>
-      </c>
-      <c r="G55">
-        <f t="shared" si="8"/>
-        <v>58.18181818181818</v>
-      </c>
-      <c r="H55">
-        <v>-1</v>
-      </c>
-      <c r="I55">
-        <v>-1</v>
-      </c>
-      <c r="J55">
-        <v>-1</v>
-      </c>
-      <c r="K55">
-        <f t="shared" si="9"/>
-        <v>13.030303030303031</v>
-      </c>
       <c r="L55">
         <v>-1</v>
       </c>
       <c r="M55">
-        <v>-1</v>
+        <f t="shared" si="2"/>
+        <v>15.353535353535353</v>
       </c>
       <c r="N55">
         <v>-1</v>
       </c>
       <c r="O55">
-        <v>-1</v>
+        <f t="shared" si="2"/>
+        <v>15.353535353535353</v>
       </c>
       <c r="P55">
         <v>-1</v>
@@ -4351,53 +4534,56 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>54.999999999999993</v>
       </c>
       <c r="C56">
+        <f t="shared" si="11"/>
+        <v>0.50909090909090904</v>
+      </c>
+      <c r="D56">
+        <f t="shared" si="12"/>
+        <v>1.3</v>
+      </c>
+      <c r="E56">
+        <f t="shared" si="7"/>
+        <v>13.181818181818182</v>
+      </c>
+      <c r="F56">
+        <f t="shared" si="8"/>
+        <v>13.181818181818182</v>
+      </c>
+      <c r="G56">
+        <f t="shared" si="9"/>
+        <v>59.090909090909086</v>
+      </c>
+      <c r="H56">
+        <f t="shared" si="9"/>
+        <v>59.090909090909086</v>
+      </c>
+      <c r="I56">
+        <v>-1</v>
+      </c>
+      <c r="J56">
+        <v>-1</v>
+      </c>
+      <c r="K56">
         <f t="shared" si="10"/>
-        <v>0.50909090909090904</v>
-      </c>
-      <c r="D56">
-        <f t="shared" si="11"/>
-        <v>1.3</v>
-      </c>
-      <c r="E56">
-        <f t="shared" si="6"/>
         <v>13.181818181818182</v>
       </c>
-      <c r="F56">
-        <f t="shared" si="7"/>
-        <v>13.181818181818182</v>
-      </c>
-      <c r="G56">
-        <f t="shared" si="8"/>
-        <v>59.090909090909086</v>
-      </c>
-      <c r="H56">
-        <v>-1</v>
-      </c>
-      <c r="I56">
-        <v>-1</v>
-      </c>
-      <c r="J56">
-        <v>-1</v>
-      </c>
-      <c r="K56">
-        <f t="shared" si="9"/>
-        <v>13.181818181818182</v>
-      </c>
       <c r="L56">
         <v>-1</v>
       </c>
       <c r="M56">
-        <v>-1</v>
+        <f t="shared" si="2"/>
+        <v>15.454545454545453</v>
       </c>
       <c r="N56">
         <v>-1</v>
       </c>
       <c r="O56">
-        <v>-1</v>
+        <f t="shared" si="2"/>
+        <v>15.454545454545453</v>
       </c>
       <c r="P56">
         <v>-1</v>
@@ -4411,53 +4597,56 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>56</v>
       </c>
       <c r="C57">
+        <f t="shared" si="11"/>
+        <v>0.5</v>
+      </c>
+      <c r="D57">
+        <f t="shared" si="12"/>
+        <v>1.2777777777777777</v>
+      </c>
+      <c r="E57">
+        <f t="shared" si="7"/>
+        <v>13.333333333333334</v>
+      </c>
+      <c r="F57">
+        <f t="shared" si="8"/>
+        <v>13.333333333333334</v>
+      </c>
+      <c r="G57">
+        <f t="shared" si="9"/>
+        <v>60</v>
+      </c>
+      <c r="H57">
+        <f t="shared" si="9"/>
+        <v>60</v>
+      </c>
+      <c r="I57">
+        <v>-1</v>
+      </c>
+      <c r="J57">
+        <v>-1</v>
+      </c>
+      <c r="K57">
         <f t="shared" si="10"/>
-        <v>0.5</v>
-      </c>
-      <c r="D57">
-        <f t="shared" si="11"/>
-        <v>1.2777777777777777</v>
-      </c>
-      <c r="E57">
-        <f t="shared" si="6"/>
         <v>13.333333333333334</v>
       </c>
-      <c r="F57">
-        <f t="shared" si="7"/>
-        <v>13.333333333333334</v>
-      </c>
-      <c r="G57">
-        <f t="shared" si="8"/>
-        <v>60</v>
-      </c>
-      <c r="H57">
-        <v>-1</v>
-      </c>
-      <c r="I57">
-        <v>-1</v>
-      </c>
-      <c r="J57">
-        <v>-1</v>
-      </c>
-      <c r="K57">
-        <f t="shared" si="9"/>
-        <v>13.333333333333334</v>
-      </c>
       <c r="L57">
         <v>-1</v>
       </c>
       <c r="M57">
-        <v>-1</v>
+        <f t="shared" si="2"/>
+        <v>15.555555555555555</v>
       </c>
       <c r="N57">
         <v>-1</v>
       </c>
       <c r="O57">
-        <v>-1</v>
+        <f t="shared" si="2"/>
+        <v>15.555555555555555</v>
       </c>
       <c r="P57">
         <v>-1</v>
@@ -4471,53 +4660,56 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>57</v>
       </c>
       <c r="C58">
+        <f t="shared" si="11"/>
+        <v>0.49090909090909096</v>
+      </c>
+      <c r="D58">
+        <f t="shared" si="12"/>
+        <v>1.2555555555555555</v>
+      </c>
+      <c r="E58">
+        <f t="shared" si="7"/>
+        <v>13.484848484848484</v>
+      </c>
+      <c r="F58">
+        <f t="shared" si="8"/>
+        <v>13.484848484848484</v>
+      </c>
+      <c r="G58">
+        <f t="shared" si="9"/>
+        <v>60.909090909090907</v>
+      </c>
+      <c r="H58">
+        <f t="shared" si="9"/>
+        <v>60.909090909090907</v>
+      </c>
+      <c r="I58">
+        <v>-1</v>
+      </c>
+      <c r="J58">
+        <v>-1</v>
+      </c>
+      <c r="K58">
         <f t="shared" si="10"/>
-        <v>0.49090909090909096</v>
-      </c>
-      <c r="D58">
-        <f t="shared" si="11"/>
-        <v>1.2555555555555555</v>
-      </c>
-      <c r="E58">
-        <f t="shared" si="6"/>
         <v>13.484848484848484</v>
       </c>
-      <c r="F58">
-        <f t="shared" si="7"/>
-        <v>13.484848484848484</v>
-      </c>
-      <c r="G58">
-        <f t="shared" si="8"/>
-        <v>60.909090909090907</v>
-      </c>
-      <c r="H58">
-        <v>-1</v>
-      </c>
-      <c r="I58">
-        <v>-1</v>
-      </c>
-      <c r="J58">
-        <v>-1</v>
-      </c>
-      <c r="K58">
-        <f t="shared" si="9"/>
-        <v>13.484848484848484</v>
-      </c>
       <c r="L58">
         <v>-1</v>
       </c>
       <c r="M58">
-        <v>-1</v>
+        <f t="shared" si="2"/>
+        <v>15.656565656565657</v>
       </c>
       <c r="N58">
         <v>-1</v>
       </c>
       <c r="O58">
-        <v>-1</v>
+        <f t="shared" si="2"/>
+        <v>15.656565656565657</v>
       </c>
       <c r="P58">
         <v>-1</v>
@@ -4531,53 +4723,56 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>58.000000000000007</v>
       </c>
       <c r="C59">
+        <f t="shared" si="11"/>
+        <v>0.48181818181818181</v>
+      </c>
+      <c r="D59">
+        <f t="shared" si="12"/>
+        <v>1.2333333333333332</v>
+      </c>
+      <c r="E59">
+        <f t="shared" si="7"/>
+        <v>13.636363636363637</v>
+      </c>
+      <c r="F59">
+        <f t="shared" si="8"/>
+        <v>13.636363636363637</v>
+      </c>
+      <c r="G59">
+        <f t="shared" si="9"/>
+        <v>61.81818181818182</v>
+      </c>
+      <c r="H59">
+        <f t="shared" si="9"/>
+        <v>61.81818181818182</v>
+      </c>
+      <c r="I59">
+        <v>-1</v>
+      </c>
+      <c r="J59">
+        <v>-1</v>
+      </c>
+      <c r="K59">
         <f t="shared" si="10"/>
-        <v>0.48181818181818181</v>
-      </c>
-      <c r="D59">
-        <f t="shared" si="11"/>
-        <v>1.2333333333333332</v>
-      </c>
-      <c r="E59">
-        <f t="shared" si="6"/>
         <v>13.636363636363637</v>
       </c>
-      <c r="F59">
-        <f t="shared" si="7"/>
-        <v>13.636363636363637</v>
-      </c>
-      <c r="G59">
-        <f t="shared" si="8"/>
-        <v>61.81818181818182</v>
-      </c>
-      <c r="H59">
-        <v>-1</v>
-      </c>
-      <c r="I59">
-        <v>-1</v>
-      </c>
-      <c r="J59">
-        <v>-1</v>
-      </c>
-      <c r="K59">
-        <f t="shared" si="9"/>
-        <v>13.636363636363637</v>
-      </c>
       <c r="L59">
         <v>-1</v>
       </c>
       <c r="M59">
-        <v>-1</v>
+        <f t="shared" si="2"/>
+        <v>15.757575757575758</v>
       </c>
       <c r="N59">
         <v>-1</v>
       </c>
       <c r="O59">
-        <v>-1</v>
+        <f t="shared" si="2"/>
+        <v>15.757575757575758</v>
       </c>
       <c r="P59">
         <v>-1</v>
@@ -4591,53 +4786,56 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>59</v>
       </c>
       <c r="C60">
+        <f t="shared" si="11"/>
+        <v>0.47272727272727266</v>
+      </c>
+      <c r="D60">
+        <f t="shared" si="12"/>
+        <v>1.211111111111111</v>
+      </c>
+      <c r="E60">
+        <f t="shared" si="7"/>
+        <v>13.787878787878787</v>
+      </c>
+      <c r="F60">
+        <f t="shared" si="8"/>
+        <v>13.787878787878787</v>
+      </c>
+      <c r="G60">
+        <f t="shared" si="9"/>
+        <v>62.727272727272727</v>
+      </c>
+      <c r="H60">
+        <f t="shared" si="9"/>
+        <v>62.727272727272727</v>
+      </c>
+      <c r="I60">
+        <v>-1</v>
+      </c>
+      <c r="J60">
+        <v>-1</v>
+      </c>
+      <c r="K60">
         <f t="shared" si="10"/>
-        <v>0.47272727272727266</v>
-      </c>
-      <c r="D60">
-        <f t="shared" si="11"/>
-        <v>1.211111111111111</v>
-      </c>
-      <c r="E60">
-        <f t="shared" si="6"/>
         <v>13.787878787878787</v>
       </c>
-      <c r="F60">
-        <f t="shared" si="7"/>
-        <v>13.787878787878787</v>
-      </c>
-      <c r="G60">
-        <f t="shared" si="8"/>
-        <v>62.727272727272727</v>
-      </c>
-      <c r="H60">
-        <v>-1</v>
-      </c>
-      <c r="I60">
-        <v>-1</v>
-      </c>
-      <c r="J60">
-        <v>-1</v>
-      </c>
-      <c r="K60">
-        <f t="shared" si="9"/>
-        <v>13.787878787878787</v>
-      </c>
       <c r="L60">
         <v>-1</v>
       </c>
       <c r="M60">
-        <v>-1</v>
+        <f t="shared" si="2"/>
+        <v>15.858585858585858</v>
       </c>
       <c r="N60">
         <v>-1</v>
       </c>
       <c r="O60">
-        <v>-1</v>
+        <f t="shared" si="2"/>
+        <v>15.858585858585858</v>
       </c>
       <c r="P60">
         <v>-1</v>
@@ -4651,53 +4849,56 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>59.999999999999993</v>
       </c>
       <c r="C61">
+        <f t="shared" si="11"/>
+        <v>0.46363636363636362</v>
+      </c>
+      <c r="D61">
+        <f t="shared" si="12"/>
+        <v>1.1888888888888889</v>
+      </c>
+      <c r="E61">
+        <f t="shared" si="7"/>
+        <v>13.939393939393939</v>
+      </c>
+      <c r="F61">
+        <f t="shared" si="8"/>
+        <v>13.939393939393939</v>
+      </c>
+      <c r="G61">
+        <f t="shared" si="9"/>
+        <v>63.636363636363633</v>
+      </c>
+      <c r="H61">
+        <f t="shared" si="9"/>
+        <v>63.636363636363633</v>
+      </c>
+      <c r="I61">
+        <v>-1</v>
+      </c>
+      <c r="J61">
+        <v>-1</v>
+      </c>
+      <c r="K61">
         <f t="shared" si="10"/>
-        <v>0.46363636363636362</v>
-      </c>
-      <c r="D61">
-        <f t="shared" si="11"/>
-        <v>1.1888888888888889</v>
-      </c>
-      <c r="E61">
-        <f t="shared" si="6"/>
         <v>13.939393939393939</v>
       </c>
-      <c r="F61">
-        <f t="shared" si="7"/>
-        <v>13.939393939393939</v>
-      </c>
-      <c r="G61">
-        <f t="shared" si="8"/>
-        <v>63.636363636363633</v>
-      </c>
-      <c r="H61">
-        <v>-1</v>
-      </c>
-      <c r="I61">
-        <v>-1</v>
-      </c>
-      <c r="J61">
-        <v>-1</v>
-      </c>
-      <c r="K61">
-        <f t="shared" si="9"/>
-        <v>13.939393939393939</v>
-      </c>
       <c r="L61">
         <v>-1</v>
       </c>
       <c r="M61">
-        <v>-1</v>
+        <f t="shared" si="2"/>
+        <v>15.959595959595958</v>
       </c>
       <c r="N61">
         <v>-1</v>
       </c>
       <c r="O61">
-        <v>-1</v>
+        <f t="shared" si="2"/>
+        <v>15.959595959595958</v>
       </c>
       <c r="P61">
         <v>-1</v>
@@ -4711,53 +4912,56 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>61</v>
       </c>
       <c r="C62">
+        <f t="shared" si="11"/>
+        <v>0.45454545454545447</v>
+      </c>
+      <c r="D62">
+        <f t="shared" si="12"/>
+        <v>1.1666666666666665</v>
+      </c>
+      <c r="E62">
+        <f t="shared" si="7"/>
+        <v>14.090909090909092</v>
+      </c>
+      <c r="F62">
+        <f t="shared" si="8"/>
+        <v>14.090909090909092</v>
+      </c>
+      <c r="G62">
+        <f t="shared" si="9"/>
+        <v>64.545454545454547</v>
+      </c>
+      <c r="H62">
+        <f t="shared" si="9"/>
+        <v>64.545454545454547</v>
+      </c>
+      <c r="I62">
+        <v>-1</v>
+      </c>
+      <c r="J62">
+        <v>-1</v>
+      </c>
+      <c r="K62">
         <f t="shared" si="10"/>
-        <v>0.45454545454545447</v>
-      </c>
-      <c r="D62">
-        <f t="shared" si="11"/>
-        <v>1.1666666666666665</v>
-      </c>
-      <c r="E62">
-        <f t="shared" si="6"/>
         <v>14.090909090909092</v>
       </c>
-      <c r="F62">
-        <f t="shared" si="7"/>
-        <v>14.090909090909092</v>
-      </c>
-      <c r="G62">
-        <f t="shared" si="8"/>
-        <v>64.545454545454547</v>
-      </c>
-      <c r="H62">
-        <v>-1</v>
-      </c>
-      <c r="I62">
-        <v>-1</v>
-      </c>
-      <c r="J62">
-        <v>-1</v>
-      </c>
-      <c r="K62">
-        <f t="shared" si="9"/>
-        <v>14.090909090909092</v>
-      </c>
       <c r="L62">
         <v>-1</v>
       </c>
       <c r="M62">
-        <v>-1</v>
+        <f t="shared" si="2"/>
+        <v>16.060606060606062</v>
       </c>
       <c r="N62">
         <v>-1</v>
       </c>
       <c r="O62">
-        <v>-1</v>
+        <f t="shared" si="2"/>
+        <v>16.060606060606062</v>
       </c>
       <c r="P62">
         <v>-1</v>
@@ -4771,53 +4975,56 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>62</v>
       </c>
       <c r="C63">
+        <f t="shared" si="11"/>
+        <v>0.44545454545454544</v>
+      </c>
+      <c r="D63">
+        <f t="shared" si="12"/>
+        <v>1.1444444444444444</v>
+      </c>
+      <c r="E63">
+        <f t="shared" si="7"/>
+        <v>14.242424242424242</v>
+      </c>
+      <c r="F63">
+        <f t="shared" si="8"/>
+        <v>14.242424242424242</v>
+      </c>
+      <c r="G63">
+        <f t="shared" si="9"/>
+        <v>65.454545454545453</v>
+      </c>
+      <c r="H63">
+        <f t="shared" si="9"/>
+        <v>65.454545454545453</v>
+      </c>
+      <c r="I63">
+        <v>-1</v>
+      </c>
+      <c r="J63">
+        <v>-1</v>
+      </c>
+      <c r="K63">
         <f t="shared" si="10"/>
-        <v>0.44545454545454544</v>
-      </c>
-      <c r="D63">
-        <f t="shared" si="11"/>
-        <v>1.1444444444444444</v>
-      </c>
-      <c r="E63">
-        <f t="shared" si="6"/>
         <v>14.242424242424242</v>
       </c>
-      <c r="F63">
-        <f t="shared" si="7"/>
-        <v>14.242424242424242</v>
-      </c>
-      <c r="G63">
-        <f t="shared" si="8"/>
-        <v>65.454545454545453</v>
-      </c>
-      <c r="H63">
-        <v>-1</v>
-      </c>
-      <c r="I63">
-        <v>-1</v>
-      </c>
-      <c r="J63">
-        <v>-1</v>
-      </c>
-      <c r="K63">
-        <f t="shared" si="9"/>
-        <v>14.242424242424242</v>
-      </c>
       <c r="L63">
         <v>-1</v>
       </c>
       <c r="M63">
-        <v>-1</v>
+        <f t="shared" si="2"/>
+        <v>16.161616161616159</v>
       </c>
       <c r="N63">
         <v>-1</v>
       </c>
       <c r="O63">
-        <v>-1</v>
+        <f t="shared" si="2"/>
+        <v>16.161616161616159</v>
       </c>
       <c r="P63">
         <v>-1</v>
@@ -4831,53 +5038,56 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>63</v>
       </c>
       <c r="C64">
+        <f t="shared" si="11"/>
+        <v>0.43636363636363629</v>
+      </c>
+      <c r="D64">
+        <f t="shared" si="12"/>
+        <v>1.122222222222222</v>
+      </c>
+      <c r="E64">
+        <f t="shared" si="7"/>
+        <v>14.393939393939394</v>
+      </c>
+      <c r="F64">
+        <f t="shared" si="8"/>
+        <v>14.393939393939394</v>
+      </c>
+      <c r="G64">
+        <f t="shared" si="9"/>
+        <v>66.363636363636374</v>
+      </c>
+      <c r="H64">
+        <f t="shared" si="9"/>
+        <v>66.363636363636374</v>
+      </c>
+      <c r="I64">
+        <v>-1</v>
+      </c>
+      <c r="J64">
+        <v>-1</v>
+      </c>
+      <c r="K64">
         <f t="shared" si="10"/>
-        <v>0.43636363636363629</v>
-      </c>
-      <c r="D64">
-        <f t="shared" si="11"/>
-        <v>1.122222222222222</v>
-      </c>
-      <c r="E64">
-        <f t="shared" si="6"/>
         <v>14.393939393939394</v>
       </c>
-      <c r="F64">
-        <f t="shared" si="7"/>
-        <v>14.393939393939394</v>
-      </c>
-      <c r="G64">
-        <f t="shared" si="8"/>
-        <v>66.363636363636374</v>
-      </c>
-      <c r="H64">
-        <v>-1</v>
-      </c>
-      <c r="I64">
-        <v>-1</v>
-      </c>
-      <c r="J64">
-        <v>-1</v>
-      </c>
-      <c r="K64">
-        <f t="shared" si="9"/>
-        <v>14.393939393939394</v>
-      </c>
       <c r="L64">
         <v>-1</v>
       </c>
       <c r="M64">
-        <v>-1</v>
+        <f t="shared" si="2"/>
+        <v>16.262626262626263</v>
       </c>
       <c r="N64">
         <v>-1</v>
       </c>
       <c r="O64">
-        <v>-1</v>
+        <f t="shared" si="2"/>
+        <v>16.262626262626263</v>
       </c>
       <c r="P64">
         <v>-1</v>
@@ -4891,53 +5101,56 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>64</v>
       </c>
       <c r="C65">
+        <f t="shared" si="11"/>
+        <v>0.42727272727272725</v>
+      </c>
+      <c r="D65">
+        <f t="shared" si="12"/>
+        <v>1.0999999999999999</v>
+      </c>
+      <c r="E65">
+        <f t="shared" si="7"/>
+        <v>14.545454545454545</v>
+      </c>
+      <c r="F65">
+        <f t="shared" si="8"/>
+        <v>14.545454545454545</v>
+      </c>
+      <c r="G65">
+        <f t="shared" si="9"/>
+        <v>67.27272727272728</v>
+      </c>
+      <c r="H65">
+        <f t="shared" si="9"/>
+        <v>67.27272727272728</v>
+      </c>
+      <c r="I65">
+        <v>-1</v>
+      </c>
+      <c r="J65">
+        <v>-1</v>
+      </c>
+      <c r="K65">
         <f t="shared" si="10"/>
-        <v>0.42727272727272725</v>
-      </c>
-      <c r="D65">
-        <f t="shared" si="11"/>
-        <v>1.0999999999999999</v>
-      </c>
-      <c r="E65">
-        <f t="shared" si="6"/>
         <v>14.545454545454545</v>
       </c>
-      <c r="F65">
-        <f t="shared" si="7"/>
-        <v>14.545454545454545</v>
-      </c>
-      <c r="G65">
-        <f t="shared" si="8"/>
-        <v>67.27272727272728</v>
-      </c>
-      <c r="H65">
-        <v>-1</v>
-      </c>
-      <c r="I65">
-        <v>-1</v>
-      </c>
-      <c r="J65">
-        <v>-1</v>
-      </c>
-      <c r="K65">
-        <f t="shared" si="9"/>
-        <v>14.545454545454545</v>
-      </c>
       <c r="L65">
         <v>-1</v>
       </c>
       <c r="M65">
-        <v>-1</v>
+        <f t="shared" si="2"/>
+        <v>16.363636363636363</v>
       </c>
       <c r="N65">
         <v>-1</v>
       </c>
       <c r="O65">
-        <v>-1</v>
+        <f t="shared" si="2"/>
+        <v>16.363636363636363</v>
       </c>
       <c r="P65">
         <v>-1</v>
@@ -4951,53 +5164,56 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>65</v>
       </c>
       <c r="C66">
+        <f t="shared" si="11"/>
+        <v>0.4181818181818181</v>
+      </c>
+      <c r="D66">
+        <f t="shared" si="12"/>
+        <v>1.0777777777777775</v>
+      </c>
+      <c r="E66">
+        <f t="shared" si="7"/>
+        <v>14.696969696969697</v>
+      </c>
+      <c r="F66">
+        <f t="shared" si="8"/>
+        <v>14.696969696969697</v>
+      </c>
+      <c r="G66">
+        <f t="shared" si="9"/>
+        <v>68.181818181818187</v>
+      </c>
+      <c r="H66">
+        <f t="shared" si="9"/>
+        <v>68.181818181818187</v>
+      </c>
+      <c r="I66">
+        <v>-1</v>
+      </c>
+      <c r="J66">
+        <v>-1</v>
+      </c>
+      <c r="K66">
         <f t="shared" si="10"/>
-        <v>0.4181818181818181</v>
-      </c>
-      <c r="D66">
-        <f t="shared" si="11"/>
-        <v>1.0777777777777775</v>
-      </c>
-      <c r="E66">
-        <f t="shared" si="6"/>
         <v>14.696969696969697</v>
       </c>
-      <c r="F66">
-        <f t="shared" si="7"/>
-        <v>14.696969696969697</v>
-      </c>
-      <c r="G66">
-        <f t="shared" si="8"/>
-        <v>68.181818181818187</v>
-      </c>
-      <c r="H66">
-        <v>-1</v>
-      </c>
-      <c r="I66">
-        <v>-1</v>
-      </c>
-      <c r="J66">
-        <v>-1</v>
-      </c>
-      <c r="K66">
-        <f t="shared" si="9"/>
-        <v>14.696969696969697</v>
-      </c>
       <c r="L66">
         <v>-1</v>
       </c>
       <c r="M66">
-        <v>-1</v>
+        <f t="shared" si="2"/>
+        <v>16.464646464646464</v>
       </c>
       <c r="N66">
         <v>-1</v>
       </c>
       <c r="O66">
-        <v>-1</v>
+        <f t="shared" si="2"/>
+        <v>16.464646464646464</v>
       </c>
       <c r="P66">
         <v>-1</v>
@@ -5011,53 +5227,56 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>66</v>
       </c>
       <c r="C67">
+        <f t="shared" si="11"/>
+        <v>0.40909090909090906</v>
+      </c>
+      <c r="D67">
+        <f t="shared" si="12"/>
+        <v>1.0555555555555554</v>
+      </c>
+      <c r="E67">
+        <f t="shared" si="7"/>
+        <v>14.848484848484848</v>
+      </c>
+      <c r="F67">
+        <f t="shared" si="8"/>
+        <v>14.848484848484848</v>
+      </c>
+      <c r="G67">
+        <f t="shared" si="9"/>
+        <v>69.090909090909093</v>
+      </c>
+      <c r="H67">
+        <f t="shared" si="9"/>
+        <v>69.090909090909093</v>
+      </c>
+      <c r="I67">
+        <v>-1</v>
+      </c>
+      <c r="J67">
+        <v>-1</v>
+      </c>
+      <c r="K67">
         <f t="shared" si="10"/>
-        <v>0.40909090909090906</v>
-      </c>
-      <c r="D67">
-        <f t="shared" si="11"/>
-        <v>1.0555555555555554</v>
-      </c>
-      <c r="E67">
-        <f t="shared" si="6"/>
         <v>14.848484848484848</v>
       </c>
-      <c r="F67">
-        <f t="shared" si="7"/>
-        <v>14.848484848484848</v>
-      </c>
-      <c r="G67">
-        <f t="shared" si="8"/>
-        <v>69.090909090909093</v>
-      </c>
-      <c r="H67">
-        <v>-1</v>
-      </c>
-      <c r="I67">
-        <v>-1</v>
-      </c>
-      <c r="J67">
-        <v>-1</v>
-      </c>
-      <c r="K67">
-        <f t="shared" si="9"/>
-        <v>14.848484848484848</v>
-      </c>
       <c r="L67">
         <v>-1</v>
       </c>
       <c r="M67">
-        <v>-1</v>
+        <f t="shared" ref="M67:O101" si="13">(M$2+((SUM($A67-1)/SUM($A$101-1))*(SUM(M$101-M$2))))</f>
+        <v>16.565656565656568</v>
       </c>
       <c r="N67">
         <v>-1</v>
       </c>
       <c r="O67">
-        <v>-1</v>
+        <f t="shared" si="13"/>
+        <v>16.565656565656568</v>
       </c>
       <c r="P67">
         <v>-1</v>
@@ -5071,53 +5290,56 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <f t="shared" ref="B68:B100" si="12">(B$2+((SUM(A68-1)/SUM(A$101-1))*(SUM(B$101-B$2))))</f>
+        <f t="shared" ref="B68:B100" si="14">(B$2+((SUM(A68-1)/SUM(A$101-1))*(SUM(B$101-B$2))))</f>
         <v>67</v>
       </c>
       <c r="C68">
+        <f t="shared" si="11"/>
+        <v>0.4</v>
+      </c>
+      <c r="D68">
+        <f t="shared" si="12"/>
+        <v>1.0333333333333332</v>
+      </c>
+      <c r="E68">
+        <f t="shared" si="7"/>
+        <v>15</v>
+      </c>
+      <c r="F68">
+        <f t="shared" si="8"/>
+        <v>15</v>
+      </c>
+      <c r="G68">
+        <f t="shared" si="9"/>
+        <v>70</v>
+      </c>
+      <c r="H68">
+        <f t="shared" si="9"/>
+        <v>70</v>
+      </c>
+      <c r="I68">
+        <v>-1</v>
+      </c>
+      <c r="J68">
+        <v>-1</v>
+      </c>
+      <c r="K68">
         <f t="shared" si="10"/>
-        <v>0.4</v>
-      </c>
-      <c r="D68">
-        <f t="shared" si="11"/>
-        <v>1.0333333333333332</v>
-      </c>
-      <c r="E68">
-        <f t="shared" si="6"/>
         <v>15</v>
       </c>
-      <c r="F68">
-        <f t="shared" si="7"/>
-        <v>15</v>
-      </c>
-      <c r="G68">
-        <f t="shared" si="8"/>
-        <v>70</v>
-      </c>
-      <c r="H68">
-        <v>-1</v>
-      </c>
-      <c r="I68">
-        <v>-1</v>
-      </c>
-      <c r="J68">
-        <v>-1</v>
-      </c>
-      <c r="K68">
-        <f t="shared" si="9"/>
-        <v>15</v>
-      </c>
       <c r="L68">
         <v>-1</v>
       </c>
       <c r="M68">
-        <v>-1</v>
+        <f t="shared" si="13"/>
+        <v>16.666666666666664</v>
       </c>
       <c r="N68">
         <v>-1</v>
       </c>
       <c r="O68">
-        <v>-1</v>
+        <f t="shared" si="13"/>
+        <v>16.666666666666664</v>
       </c>
       <c r="P68">
         <v>-1</v>
@@ -5131,53 +5353,56 @@
         <v>68</v>
       </c>
       <c r="B69">
+        <f t="shared" si="14"/>
+        <v>68</v>
+      </c>
+      <c r="C69">
+        <f t="shared" si="11"/>
+        <v>0.39090909090909087</v>
+      </c>
+      <c r="D69">
         <f t="shared" si="12"/>
-        <v>68</v>
-      </c>
-      <c r="C69">
+        <v>1.0111111111111108</v>
+      </c>
+      <c r="E69">
+        <f t="shared" si="7"/>
+        <v>15.151515151515152</v>
+      </c>
+      <c r="F69">
+        <f t="shared" si="8"/>
+        <v>15.151515151515152</v>
+      </c>
+      <c r="G69">
+        <f t="shared" si="9"/>
+        <v>70.909090909090907</v>
+      </c>
+      <c r="H69">
+        <f t="shared" si="9"/>
+        <v>70.909090909090907</v>
+      </c>
+      <c r="I69">
+        <v>-1</v>
+      </c>
+      <c r="J69">
+        <v>-1</v>
+      </c>
+      <c r="K69">
         <f t="shared" si="10"/>
-        <v>0.39090909090909087</v>
-      </c>
-      <c r="D69">
-        <f t="shared" si="11"/>
-        <v>1.0111111111111108</v>
-      </c>
-      <c r="E69">
-        <f t="shared" si="6"/>
         <v>15.151515151515152</v>
       </c>
-      <c r="F69">
-        <f t="shared" si="7"/>
-        <v>15.151515151515152</v>
-      </c>
-      <c r="G69">
-        <f t="shared" si="8"/>
-        <v>70.909090909090907</v>
-      </c>
-      <c r="H69">
-        <v>-1</v>
-      </c>
-      <c r="I69">
-        <v>-1</v>
-      </c>
-      <c r="J69">
-        <v>-1</v>
-      </c>
-      <c r="K69">
-        <f t="shared" si="9"/>
-        <v>15.151515151515152</v>
-      </c>
       <c r="L69">
         <v>-1</v>
       </c>
       <c r="M69">
-        <v>-1</v>
+        <f t="shared" si="13"/>
+        <v>16.767676767676768</v>
       </c>
       <c r="N69">
         <v>-1</v>
       </c>
       <c r="O69">
-        <v>-1</v>
+        <f t="shared" si="13"/>
+        <v>16.767676767676768</v>
       </c>
       <c r="P69">
         <v>-1</v>
@@ -5191,53 +5416,56 @@
         <v>69</v>
       </c>
       <c r="B70">
+        <f t="shared" si="14"/>
+        <v>69</v>
+      </c>
+      <c r="C70">
+        <f t="shared" si="11"/>
+        <v>0.38181818181818183</v>
+      </c>
+      <c r="D70">
         <f t="shared" si="12"/>
-        <v>69</v>
-      </c>
-      <c r="C70">
+        <v>0.98888888888888871</v>
+      </c>
+      <c r="E70">
+        <f t="shared" si="7"/>
+        <v>15.303030303030303</v>
+      </c>
+      <c r="F70">
+        <f t="shared" si="8"/>
+        <v>15.303030303030303</v>
+      </c>
+      <c r="G70">
+        <f t="shared" si="9"/>
+        <v>71.818181818181813</v>
+      </c>
+      <c r="H70">
+        <f t="shared" si="9"/>
+        <v>71.818181818181813</v>
+      </c>
+      <c r="I70">
+        <v>-1</v>
+      </c>
+      <c r="J70">
+        <v>-1</v>
+      </c>
+      <c r="K70">
         <f t="shared" si="10"/>
-        <v>0.38181818181818183</v>
-      </c>
-      <c r="D70">
-        <f t="shared" si="11"/>
-        <v>0.98888888888888871</v>
-      </c>
-      <c r="E70">
-        <f t="shared" si="6"/>
         <v>15.303030303030303</v>
       </c>
-      <c r="F70">
-        <f t="shared" si="7"/>
-        <v>15.303030303030303</v>
-      </c>
-      <c r="G70">
-        <f t="shared" si="8"/>
-        <v>71.818181818181813</v>
-      </c>
-      <c r="H70">
-        <v>-1</v>
-      </c>
-      <c r="I70">
-        <v>-1</v>
-      </c>
-      <c r="J70">
-        <v>-1</v>
-      </c>
-      <c r="K70">
-        <f t="shared" si="9"/>
-        <v>15.303030303030303</v>
-      </c>
       <c r="L70">
         <v>-1</v>
       </c>
       <c r="M70">
-        <v>-1</v>
+        <f t="shared" si="13"/>
+        <v>16.868686868686869</v>
       </c>
       <c r="N70">
         <v>-1</v>
       </c>
       <c r="O70">
-        <v>-1</v>
+        <f t="shared" si="13"/>
+        <v>16.868686868686869</v>
       </c>
       <c r="P70">
         <v>-1</v>
@@ -5251,53 +5479,56 @@
         <v>70</v>
       </c>
       <c r="B71">
+        <f t="shared" si="14"/>
+        <v>70</v>
+      </c>
+      <c r="C71">
+        <f t="shared" si="11"/>
+        <v>0.37272727272727268</v>
+      </c>
+      <c r="D71">
         <f t="shared" si="12"/>
-        <v>70</v>
-      </c>
-      <c r="C71">
+        <v>0.96666666666666634</v>
+      </c>
+      <c r="E71">
+        <f t="shared" si="7"/>
+        <v>15.454545454545455</v>
+      </c>
+      <c r="F71">
+        <f t="shared" si="8"/>
+        <v>15.454545454545455</v>
+      </c>
+      <c r="G71">
+        <f t="shared" si="9"/>
+        <v>72.727272727272734</v>
+      </c>
+      <c r="H71">
+        <f t="shared" si="9"/>
+        <v>72.727272727272734</v>
+      </c>
+      <c r="I71">
+        <v>-1</v>
+      </c>
+      <c r="J71">
+        <v>-1</v>
+      </c>
+      <c r="K71">
         <f t="shared" si="10"/>
-        <v>0.37272727272727268</v>
-      </c>
-      <c r="D71">
-        <f t="shared" si="11"/>
-        <v>0.96666666666666634</v>
-      </c>
-      <c r="E71">
-        <f t="shared" si="6"/>
         <v>15.454545454545455</v>
       </c>
-      <c r="F71">
-        <f t="shared" si="7"/>
-        <v>15.454545454545455</v>
-      </c>
-      <c r="G71">
-        <f t="shared" si="8"/>
-        <v>72.727272727272734</v>
-      </c>
-      <c r="H71">
-        <v>-1</v>
-      </c>
-      <c r="I71">
-        <v>-1</v>
-      </c>
-      <c r="J71">
-        <v>-1</v>
-      </c>
-      <c r="K71">
-        <f t="shared" si="9"/>
-        <v>15.454545454545455</v>
-      </c>
       <c r="L71">
         <v>-1</v>
       </c>
       <c r="M71">
-        <v>-1</v>
+        <f t="shared" si="13"/>
+        <v>16.969696969696969</v>
       </c>
       <c r="N71">
         <v>-1</v>
       </c>
       <c r="O71">
-        <v>-1</v>
+        <f t="shared" si="13"/>
+        <v>16.969696969696969</v>
       </c>
       <c r="P71">
         <v>-1</v>
@@ -5311,53 +5542,56 @@
         <v>71</v>
       </c>
       <c r="B72">
+        <f t="shared" si="14"/>
+        <v>71</v>
+      </c>
+      <c r="C72">
+        <f t="shared" si="11"/>
+        <v>0.36363636363636365</v>
+      </c>
+      <c r="D72">
         <f t="shared" si="12"/>
-        <v>71</v>
-      </c>
-      <c r="C72">
+        <v>0.94444444444444442</v>
+      </c>
+      <c r="E72">
+        <f t="shared" si="7"/>
+        <v>15.606060606060606</v>
+      </c>
+      <c r="F72">
+        <f t="shared" si="8"/>
+        <v>15.606060606060606</v>
+      </c>
+      <c r="G72">
+        <f t="shared" si="9"/>
+        <v>73.636363636363626</v>
+      </c>
+      <c r="H72">
+        <f t="shared" si="9"/>
+        <v>73.636363636363626</v>
+      </c>
+      <c r="I72">
+        <v>-1</v>
+      </c>
+      <c r="J72">
+        <v>-1</v>
+      </c>
+      <c r="K72">
         <f t="shared" si="10"/>
-        <v>0.36363636363636365</v>
-      </c>
-      <c r="D72">
-        <f t="shared" si="11"/>
-        <v>0.94444444444444442</v>
-      </c>
-      <c r="E72">
-        <f t="shared" si="6"/>
         <v>15.606060606060606</v>
       </c>
-      <c r="F72">
-        <f t="shared" si="7"/>
-        <v>15.606060606060606</v>
-      </c>
-      <c r="G72">
-        <f t="shared" si="8"/>
-        <v>73.636363636363626</v>
-      </c>
-      <c r="H72">
-        <v>-1</v>
-      </c>
-      <c r="I72">
-        <v>-1</v>
-      </c>
-      <c r="J72">
-        <v>-1</v>
-      </c>
-      <c r="K72">
-        <f t="shared" si="9"/>
-        <v>15.606060606060606</v>
-      </c>
       <c r="L72">
         <v>-1</v>
       </c>
       <c r="M72">
-        <v>-1</v>
+        <f t="shared" si="13"/>
+        <v>17.070707070707073</v>
       </c>
       <c r="N72">
         <v>-1</v>
       </c>
       <c r="O72">
-        <v>-1</v>
+        <f t="shared" si="13"/>
+        <v>17.070707070707073</v>
       </c>
       <c r="P72">
         <v>-1</v>
@@ -5371,53 +5605,56 @@
         <v>72</v>
       </c>
       <c r="B73">
+        <f t="shared" si="14"/>
+        <v>72</v>
+      </c>
+      <c r="C73">
+        <f t="shared" si="11"/>
+        <v>0.35454545454545461</v>
+      </c>
+      <c r="D73">
         <f t="shared" si="12"/>
-        <v>72</v>
-      </c>
-      <c r="C73">
+        <v>0.92222222222222228</v>
+      </c>
+      <c r="E73">
+        <f t="shared" si="7"/>
+        <v>15.757575757575758</v>
+      </c>
+      <c r="F73">
+        <f t="shared" si="8"/>
+        <v>15.757575757575758</v>
+      </c>
+      <c r="G73">
+        <f t="shared" si="9"/>
+        <v>74.545454545454547</v>
+      </c>
+      <c r="H73">
+        <f t="shared" si="9"/>
+        <v>74.545454545454547</v>
+      </c>
+      <c r="I73">
+        <v>-1</v>
+      </c>
+      <c r="J73">
+        <v>-1</v>
+      </c>
+      <c r="K73">
         <f t="shared" si="10"/>
-        <v>0.35454545454545461</v>
-      </c>
-      <c r="D73">
-        <f t="shared" si="11"/>
-        <v>0.92222222222222228</v>
-      </c>
-      <c r="E73">
-        <f t="shared" si="6"/>
         <v>15.757575757575758</v>
       </c>
-      <c r="F73">
-        <f t="shared" si="7"/>
-        <v>15.757575757575758</v>
-      </c>
-      <c r="G73">
-        <f t="shared" si="8"/>
-        <v>74.545454545454547</v>
-      </c>
-      <c r="H73">
-        <v>-1</v>
-      </c>
-      <c r="I73">
-        <v>-1</v>
-      </c>
-      <c r="J73">
-        <v>-1</v>
-      </c>
-      <c r="K73">
-        <f t="shared" si="9"/>
-        <v>15.757575757575758</v>
-      </c>
       <c r="L73">
         <v>-1</v>
       </c>
       <c r="M73">
-        <v>-1</v>
+        <f t="shared" si="13"/>
+        <v>17.171717171717169</v>
       </c>
       <c r="N73">
         <v>-1</v>
       </c>
       <c r="O73">
-        <v>-1</v>
+        <f t="shared" si="13"/>
+        <v>17.171717171717169</v>
       </c>
       <c r="P73">
         <v>-1</v>
@@ -5431,53 +5668,56 @@
         <v>73</v>
       </c>
       <c r="B74">
+        <f t="shared" si="14"/>
+        <v>73</v>
+      </c>
+      <c r="C74">
+        <f t="shared" si="11"/>
+        <v>0.34545454545454546</v>
+      </c>
+      <c r="D74">
         <f t="shared" si="12"/>
-        <v>73</v>
-      </c>
-      <c r="C74">
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="E74">
+        <f t="shared" si="7"/>
+        <v>15.90909090909091</v>
+      </c>
+      <c r="F74">
+        <f t="shared" si="8"/>
+        <v>15.90909090909091</v>
+      </c>
+      <c r="G74">
+        <f t="shared" si="9"/>
+        <v>75.454545454545453</v>
+      </c>
+      <c r="H74">
+        <f t="shared" si="9"/>
+        <v>75.454545454545453</v>
+      </c>
+      <c r="I74">
+        <v>-1</v>
+      </c>
+      <c r="J74">
+        <v>-1</v>
+      </c>
+      <c r="K74">
         <f t="shared" si="10"/>
-        <v>0.34545454545454546</v>
-      </c>
-      <c r="D74">
-        <f t="shared" si="11"/>
-        <v>0.89999999999999991</v>
-      </c>
-      <c r="E74">
-        <f t="shared" si="6"/>
         <v>15.90909090909091</v>
       </c>
-      <c r="F74">
-        <f t="shared" si="7"/>
-        <v>15.90909090909091</v>
-      </c>
-      <c r="G74">
-        <f t="shared" si="8"/>
-        <v>75.454545454545453</v>
-      </c>
-      <c r="H74">
-        <v>-1</v>
-      </c>
-      <c r="I74">
-        <v>-1</v>
-      </c>
-      <c r="J74">
-        <v>-1</v>
-      </c>
-      <c r="K74">
-        <f t="shared" si="9"/>
-        <v>15.90909090909091</v>
-      </c>
       <c r="L74">
         <v>-1</v>
       </c>
       <c r="M74">
-        <v>-1</v>
+        <f t="shared" si="13"/>
+        <v>17.272727272727273</v>
       </c>
       <c r="N74">
         <v>-1</v>
       </c>
       <c r="O74">
-        <v>-1</v>
+        <f t="shared" si="13"/>
+        <v>17.272727272727273</v>
       </c>
       <c r="P74">
         <v>-1</v>
@@ -5491,53 +5731,56 @@
         <v>74</v>
       </c>
       <c r="B75">
+        <f t="shared" si="14"/>
+        <v>74</v>
+      </c>
+      <c r="C75">
+        <f t="shared" si="11"/>
+        <v>0.33636363636363642</v>
+      </c>
+      <c r="D75">
         <f t="shared" si="12"/>
-        <v>74</v>
-      </c>
-      <c r="C75">
+        <v>0.87777777777777777</v>
+      </c>
+      <c r="E75">
+        <f t="shared" si="7"/>
+        <v>16.060606060606062</v>
+      </c>
+      <c r="F75">
+        <f t="shared" si="8"/>
+        <v>16.060606060606062</v>
+      </c>
+      <c r="G75">
+        <f t="shared" si="9"/>
+        <v>76.36363636363636</v>
+      </c>
+      <c r="H75">
+        <f t="shared" si="9"/>
+        <v>76.36363636363636</v>
+      </c>
+      <c r="I75">
+        <v>-1</v>
+      </c>
+      <c r="J75">
+        <v>-1</v>
+      </c>
+      <c r="K75">
         <f t="shared" si="10"/>
-        <v>0.33636363636363642</v>
-      </c>
-      <c r="D75">
-        <f t="shared" si="11"/>
-        <v>0.87777777777777777</v>
-      </c>
-      <c r="E75">
-        <f t="shared" si="6"/>
         <v>16.060606060606062</v>
       </c>
-      <c r="F75">
-        <f t="shared" si="7"/>
-        <v>16.060606060606062</v>
-      </c>
-      <c r="G75">
-        <f t="shared" si="8"/>
-        <v>76.36363636363636</v>
-      </c>
-      <c r="H75">
-        <v>-1</v>
-      </c>
-      <c r="I75">
-        <v>-1</v>
-      </c>
-      <c r="J75">
-        <v>-1</v>
-      </c>
-      <c r="K75">
-        <f t="shared" si="9"/>
-        <v>16.060606060606062</v>
-      </c>
       <c r="L75">
         <v>-1</v>
       </c>
       <c r="M75">
-        <v>-1</v>
+        <f t="shared" si="13"/>
+        <v>17.373737373737374</v>
       </c>
       <c r="N75">
         <v>-1</v>
       </c>
       <c r="O75">
-        <v>-1</v>
+        <f t="shared" si="13"/>
+        <v>17.373737373737374</v>
       </c>
       <c r="P75">
         <v>-1</v>
@@ -5551,53 +5794,56 @@
         <v>75</v>
       </c>
       <c r="B76">
+        <f t="shared" si="14"/>
+        <v>75</v>
+      </c>
+      <c r="C76">
+        <f t="shared" si="11"/>
+        <v>0.32727272727272727</v>
+      </c>
+      <c r="D76">
         <f t="shared" si="12"/>
-        <v>75</v>
-      </c>
-      <c r="C76">
+        <v>0.8555555555555554</v>
+      </c>
+      <c r="E76">
+        <f t="shared" si="7"/>
+        <v>16.212121212121211</v>
+      </c>
+      <c r="F76">
+        <f t="shared" si="8"/>
+        <v>16.212121212121211</v>
+      </c>
+      <c r="G76">
+        <f t="shared" si="9"/>
+        <v>77.27272727272728</v>
+      </c>
+      <c r="H76">
+        <f t="shared" si="9"/>
+        <v>77.27272727272728</v>
+      </c>
+      <c r="I76">
+        <v>-1</v>
+      </c>
+      <c r="J76">
+        <v>-1</v>
+      </c>
+      <c r="K76">
         <f t="shared" si="10"/>
-        <v>0.32727272727272727</v>
-      </c>
-      <c r="D76">
-        <f t="shared" si="11"/>
-        <v>0.8555555555555554</v>
-      </c>
-      <c r="E76">
-        <f t="shared" si="6"/>
         <v>16.212121212121211</v>
       </c>
-      <c r="F76">
-        <f t="shared" si="7"/>
-        <v>16.212121212121211</v>
-      </c>
-      <c r="G76">
-        <f t="shared" si="8"/>
-        <v>77.27272727272728</v>
-      </c>
-      <c r="H76">
-        <v>-1</v>
-      </c>
-      <c r="I76">
-        <v>-1</v>
-      </c>
-      <c r="J76">
-        <v>-1</v>
-      </c>
-      <c r="K76">
-        <f t="shared" si="9"/>
-        <v>16.212121212121211</v>
-      </c>
       <c r="L76">
         <v>-1</v>
       </c>
       <c r="M76">
-        <v>-1</v>
+        <f t="shared" si="13"/>
+        <v>17.474747474747474</v>
       </c>
       <c r="N76">
         <v>-1</v>
       </c>
       <c r="O76">
-        <v>-1</v>
+        <f t="shared" si="13"/>
+        <v>17.474747474747474</v>
       </c>
       <c r="P76">
         <v>-1</v>
@@ -5611,53 +5857,56 @@
         <v>76</v>
       </c>
       <c r="B77">
+        <f t="shared" si="14"/>
+        <v>76</v>
+      </c>
+      <c r="C77">
+        <f t="shared" si="11"/>
+        <v>0.31818181818181812</v>
+      </c>
+      <c r="D77">
         <f t="shared" si="12"/>
-        <v>76</v>
-      </c>
-      <c r="C77">
+        <v>0.83333333333333326</v>
+      </c>
+      <c r="E77">
+        <f t="shared" si="7"/>
+        <v>16.363636363636363</v>
+      </c>
+      <c r="F77">
+        <f t="shared" si="8"/>
+        <v>16.363636363636363</v>
+      </c>
+      <c r="G77">
+        <f t="shared" si="9"/>
+        <v>78.181818181818187</v>
+      </c>
+      <c r="H77">
+        <f t="shared" si="9"/>
+        <v>78.181818181818187</v>
+      </c>
+      <c r="I77">
+        <v>-1</v>
+      </c>
+      <c r="J77">
+        <v>-1</v>
+      </c>
+      <c r="K77">
         <f t="shared" si="10"/>
-        <v>0.31818181818181812</v>
-      </c>
-      <c r="D77">
-        <f t="shared" si="11"/>
-        <v>0.83333333333333326</v>
-      </c>
-      <c r="E77">
-        <f t="shared" si="6"/>
         <v>16.363636363636363</v>
       </c>
-      <c r="F77">
-        <f t="shared" si="7"/>
-        <v>16.363636363636363</v>
-      </c>
-      <c r="G77">
-        <f t="shared" si="8"/>
-        <v>78.181818181818187</v>
-      </c>
-      <c r="H77">
-        <v>-1</v>
-      </c>
-      <c r="I77">
-        <v>-1</v>
-      </c>
-      <c r="J77">
-        <v>-1</v>
-      </c>
-      <c r="K77">
-        <f t="shared" si="9"/>
-        <v>16.363636363636363</v>
-      </c>
       <c r="L77">
         <v>-1</v>
       </c>
       <c r="M77">
-        <v>-1</v>
+        <f t="shared" si="13"/>
+        <v>17.575757575757578</v>
       </c>
       <c r="N77">
         <v>-1</v>
       </c>
       <c r="O77">
-        <v>-1</v>
+        <f t="shared" si="13"/>
+        <v>17.575757575757578</v>
       </c>
       <c r="P77">
         <v>-1</v>
@@ -5671,31 +5920,32 @@
         <v>77</v>
       </c>
       <c r="B78">
+        <f t="shared" si="14"/>
+        <v>77</v>
+      </c>
+      <c r="C78">
+        <f t="shared" ref="C78:C100" si="15">(C$2+((SUM(A78-1)/SUM(A$101-1))*(SUM(C$101-C$2))))</f>
+        <v>0.30909090909090908</v>
+      </c>
+      <c r="D78">
         <f t="shared" si="12"/>
-        <v>77</v>
-      </c>
-      <c r="C78">
-        <f t="shared" ref="C78:C100" si="13">(C$2+((SUM(A78-1)/SUM(A$101-1))*(SUM(C$101-C$2))))</f>
-        <v>0.30909090909090908</v>
-      </c>
-      <c r="D78">
-        <f t="shared" si="11"/>
         <v>0.81111111111111112</v>
       </c>
       <c r="E78">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>16.515151515151516</v>
       </c>
       <c r="F78">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>16.515151515151516</v>
       </c>
       <c r="G78">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>79.090909090909079</v>
       </c>
       <c r="H78">
-        <v>-1</v>
+        <f t="shared" si="9"/>
+        <v>79.090909090909079</v>
       </c>
       <c r="I78">
         <v>-1</v>
@@ -5704,20 +5954,22 @@
         <v>-1</v>
       </c>
       <c r="K78">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>16.515151515151516</v>
       </c>
       <c r="L78">
         <v>-1</v>
       </c>
       <c r="M78">
-        <v>-1</v>
+        <f t="shared" si="13"/>
+        <v>17.676767676767675</v>
       </c>
       <c r="N78">
         <v>-1</v>
       </c>
       <c r="O78">
-        <v>-1</v>
+        <f t="shared" si="13"/>
+        <v>17.676767676767675</v>
       </c>
       <c r="P78">
         <v>-1</v>
@@ -5731,53 +5983,56 @@
         <v>78</v>
       </c>
       <c r="B79">
+        <f t="shared" si="14"/>
+        <v>78</v>
+      </c>
+      <c r="C79">
+        <f t="shared" si="15"/>
+        <v>0.29999999999999993</v>
+      </c>
+      <c r="D79">
         <f t="shared" si="12"/>
-        <v>78</v>
-      </c>
-      <c r="C79">
+        <v>0.78888888888888875</v>
+      </c>
+      <c r="E79">
+        <f t="shared" si="7"/>
+        <v>16.666666666666664</v>
+      </c>
+      <c r="F79">
+        <f t="shared" si="8"/>
+        <v>16.666666666666664</v>
+      </c>
+      <c r="G79">
+        <f t="shared" si="9"/>
+        <v>80</v>
+      </c>
+      <c r="H79">
+        <f t="shared" si="9"/>
+        <v>80</v>
+      </c>
+      <c r="I79">
+        <v>-1</v>
+      </c>
+      <c r="J79">
+        <v>-1</v>
+      </c>
+      <c r="K79">
+        <f t="shared" si="10"/>
+        <v>16.666666666666664</v>
+      </c>
+      <c r="L79">
+        <v>-1</v>
+      </c>
+      <c r="M79">
         <f t="shared" si="13"/>
-        <v>0.29999999999999993</v>
-      </c>
-      <c r="D79">
-        <f t="shared" si="11"/>
-        <v>0.78888888888888875</v>
-      </c>
-      <c r="E79">
-        <f t="shared" si="6"/>
-        <v>16.666666666666664</v>
-      </c>
-      <c r="F79">
-        <f t="shared" si="7"/>
-        <v>16.666666666666664</v>
-      </c>
-      <c r="G79">
-        <f t="shared" si="8"/>
-        <v>80</v>
-      </c>
-      <c r="H79">
-        <v>-1</v>
-      </c>
-      <c r="I79">
-        <v>-1</v>
-      </c>
-      <c r="J79">
-        <v>-1</v>
-      </c>
-      <c r="K79">
-        <f t="shared" si="9"/>
-        <v>16.666666666666664</v>
-      </c>
-      <c r="L79">
-        <v>-1</v>
-      </c>
-      <c r="M79">
-        <v>-1</v>
+        <v>17.777777777777779</v>
       </c>
       <c r="N79">
         <v>-1</v>
       </c>
       <c r="O79">
-        <v>-1</v>
+        <f t="shared" si="13"/>
+        <v>17.777777777777779</v>
       </c>
       <c r="P79">
         <v>-1</v>
@@ -5791,53 +6046,56 @@
         <v>79</v>
       </c>
       <c r="B80">
+        <f t="shared" si="14"/>
+        <v>79</v>
+      </c>
+      <c r="C80">
+        <f t="shared" si="15"/>
+        <v>0.29090909090909089</v>
+      </c>
+      <c r="D80">
         <f t="shared" si="12"/>
-        <v>79</v>
-      </c>
-      <c r="C80">
+        <v>0.76666666666666661</v>
+      </c>
+      <c r="E80">
+        <f t="shared" si="7"/>
+        <v>16.81818181818182</v>
+      </c>
+      <c r="F80">
+        <f t="shared" si="8"/>
+        <v>16.81818181818182</v>
+      </c>
+      <c r="G80">
+        <f t="shared" si="9"/>
+        <v>80.909090909090907</v>
+      </c>
+      <c r="H80">
+        <f t="shared" si="9"/>
+        <v>80.909090909090907</v>
+      </c>
+      <c r="I80">
+        <v>-1</v>
+      </c>
+      <c r="J80">
+        <v>-1</v>
+      </c>
+      <c r="K80">
+        <f t="shared" si="10"/>
+        <v>16.81818181818182</v>
+      </c>
+      <c r="L80">
+        <v>-1</v>
+      </c>
+      <c r="M80">
         <f t="shared" si="13"/>
-        <v>0.29090909090909089</v>
-      </c>
-      <c r="D80">
-        <f t="shared" si="11"/>
-        <v>0.76666666666666661</v>
-      </c>
-      <c r="E80">
-        <f t="shared" si="6"/>
-        <v>16.81818181818182</v>
-      </c>
-      <c r="F80">
-        <f t="shared" si="7"/>
-        <v>16.81818181818182</v>
-      </c>
-      <c r="G80">
-        <f t="shared" si="8"/>
-        <v>80.909090909090907</v>
-      </c>
-      <c r="H80">
-        <v>-1</v>
-      </c>
-      <c r="I80">
-        <v>-1</v>
-      </c>
-      <c r="J80">
-        <v>-1</v>
-      </c>
-      <c r="K80">
-        <f t="shared" si="9"/>
-        <v>16.81818181818182</v>
-      </c>
-      <c r="L80">
-        <v>-1</v>
-      </c>
-      <c r="M80">
-        <v>-1</v>
+        <v>17.878787878787879</v>
       </c>
       <c r="N80">
         <v>-1</v>
       </c>
       <c r="O80">
-        <v>-1</v>
+        <f t="shared" si="13"/>
+        <v>17.878787878787879</v>
       </c>
       <c r="P80">
         <v>-1</v>
@@ -5851,53 +6109,56 @@
         <v>80</v>
       </c>
       <c r="B81">
+        <f t="shared" si="14"/>
+        <v>80</v>
+      </c>
+      <c r="C81">
+        <f t="shared" si="15"/>
+        <v>0.28181818181818175</v>
+      </c>
+      <c r="D81">
         <f t="shared" si="12"/>
-        <v>80</v>
-      </c>
-      <c r="C81">
+        <v>0.74444444444444424</v>
+      </c>
+      <c r="E81">
+        <f t="shared" si="7"/>
+        <v>16.969696969696969</v>
+      </c>
+      <c r="F81">
+        <f t="shared" si="8"/>
+        <v>16.969696969696969</v>
+      </c>
+      <c r="G81">
+        <f t="shared" si="9"/>
+        <v>81.818181818181827</v>
+      </c>
+      <c r="H81">
+        <f t="shared" si="9"/>
+        <v>81.818181818181827</v>
+      </c>
+      <c r="I81">
+        <v>-1</v>
+      </c>
+      <c r="J81">
+        <v>-1</v>
+      </c>
+      <c r="K81">
+        <f t="shared" si="10"/>
+        <v>16.969696969696969</v>
+      </c>
+      <c r="L81">
+        <v>-1</v>
+      </c>
+      <c r="M81">
         <f t="shared" si="13"/>
-        <v>0.28181818181818175</v>
-      </c>
-      <c r="D81">
-        <f t="shared" si="11"/>
-        <v>0.74444444444444424</v>
-      </c>
-      <c r="E81">
-        <f t="shared" si="6"/>
-        <v>16.969696969696969</v>
-      </c>
-      <c r="F81">
-        <f t="shared" si="7"/>
-        <v>16.969696969696969</v>
-      </c>
-      <c r="G81">
-        <f t="shared" si="8"/>
-        <v>81.818181818181827</v>
-      </c>
-      <c r="H81">
-        <v>-1</v>
-      </c>
-      <c r="I81">
-        <v>-1</v>
-      </c>
-      <c r="J81">
-        <v>-1</v>
-      </c>
-      <c r="K81">
-        <f t="shared" si="9"/>
-        <v>16.969696969696969</v>
-      </c>
-      <c r="L81">
-        <v>-1</v>
-      </c>
-      <c r="M81">
-        <v>-1</v>
+        <v>17.979797979797979</v>
       </c>
       <c r="N81">
         <v>-1</v>
       </c>
       <c r="O81">
-        <v>-1</v>
+        <f t="shared" si="13"/>
+        <v>17.979797979797979</v>
       </c>
       <c r="P81">
         <v>-1</v>
@@ -5911,53 +6172,56 @@
         <v>81</v>
       </c>
       <c r="B82">
+        <f t="shared" si="14"/>
+        <v>81</v>
+      </c>
+      <c r="C82">
+        <f t="shared" si="15"/>
+        <v>0.27272727272727271</v>
+      </c>
+      <c r="D82">
         <f t="shared" si="12"/>
-        <v>81</v>
-      </c>
-      <c r="C82">
+        <v>0.7222222222222221</v>
+      </c>
+      <c r="E82">
+        <f t="shared" si="7"/>
+        <v>17.121212121212121</v>
+      </c>
+      <c r="F82">
+        <f t="shared" si="8"/>
+        <v>17.121212121212121</v>
+      </c>
+      <c r="G82">
+        <f t="shared" si="9"/>
+        <v>82.72727272727272</v>
+      </c>
+      <c r="H82">
+        <f t="shared" si="9"/>
+        <v>82.72727272727272</v>
+      </c>
+      <c r="I82">
+        <v>-1</v>
+      </c>
+      <c r="J82">
+        <v>-1</v>
+      </c>
+      <c r="K82">
+        <f t="shared" si="10"/>
+        <v>17.121212121212121</v>
+      </c>
+      <c r="L82">
+        <v>-1</v>
+      </c>
+      <c r="M82">
         <f t="shared" si="13"/>
-        <v>0.27272727272727271</v>
-      </c>
-      <c r="D82">
-        <f t="shared" si="11"/>
-        <v>0.7222222222222221</v>
-      </c>
-      <c r="E82">
-        <f t="shared" si="6"/>
-        <v>17.121212121212121</v>
-      </c>
-      <c r="F82">
-        <f t="shared" si="7"/>
-        <v>17.121212121212121</v>
-      </c>
-      <c r="G82">
-        <f t="shared" si="8"/>
-        <v>82.72727272727272</v>
-      </c>
-      <c r="H82">
-        <v>-1</v>
-      </c>
-      <c r="I82">
-        <v>-1</v>
-      </c>
-      <c r="J82">
-        <v>-1</v>
-      </c>
-      <c r="K82">
-        <f t="shared" si="9"/>
-        <v>17.121212121212121</v>
-      </c>
-      <c r="L82">
-        <v>-1</v>
-      </c>
-      <c r="M82">
-        <v>-1</v>
+        <v>18.080808080808083</v>
       </c>
       <c r="N82">
         <v>-1</v>
       </c>
       <c r="O82">
-        <v>-1</v>
+        <f t="shared" si="13"/>
+        <v>18.080808080808083</v>
       </c>
       <c r="P82">
         <v>-1</v>
@@ -5971,53 +6235,56 @@
         <v>82</v>
       </c>
       <c r="B83">
+        <f t="shared" si="14"/>
+        <v>82</v>
+      </c>
+      <c r="C83">
+        <f t="shared" si="15"/>
+        <v>0.26363636363636356</v>
+      </c>
+      <c r="D83">
         <f t="shared" si="12"/>
-        <v>82</v>
-      </c>
-      <c r="C83">
+        <v>0.69999999999999973</v>
+      </c>
+      <c r="E83">
+        <f t="shared" ref="E83:E100" si="16">(E$2+((SUM($A83-1)/SUM($A$101-1))*(SUM(E$101-E$2))))</f>
+        <v>17.272727272727273</v>
+      </c>
+      <c r="F83">
+        <f t="shared" ref="F83:F100" si="17">(F$2+((SUM($A83-1)/SUM($A$101-1))*(SUM(F$101-F$2))))</f>
+        <v>17.272727272727273</v>
+      </c>
+      <c r="G83">
+        <f t="shared" ref="G83:H100" si="18">(G$2+((SUM($A83-1)/SUM($A$101-1))*(SUM(G$101-G$2))))</f>
+        <v>83.63636363636364</v>
+      </c>
+      <c r="H83">
+        <f t="shared" si="18"/>
+        <v>83.63636363636364</v>
+      </c>
+      <c r="I83">
+        <v>-1</v>
+      </c>
+      <c r="J83">
+        <v>-1</v>
+      </c>
+      <c r="K83">
+        <f t="shared" ref="K83:K100" si="19">(K$2+((SUM($A83-1)/SUM($A$101-1))*(SUM(K$101-K$2))))</f>
+        <v>17.272727272727273</v>
+      </c>
+      <c r="L83">
+        <v>-1</v>
+      </c>
+      <c r="M83">
         <f t="shared" si="13"/>
-        <v>0.26363636363636356</v>
-      </c>
-      <c r="D83">
-        <f t="shared" si="11"/>
-        <v>0.69999999999999973</v>
-      </c>
-      <c r="E83">
-        <f t="shared" ref="E83:E100" si="14">(E$2+((SUM($A83-1)/SUM($A$101-1))*(SUM(E$101-E$2))))</f>
-        <v>17.272727272727273</v>
-      </c>
-      <c r="F83">
-        <f t="shared" ref="F83:F100" si="15">(F$2+((SUM($A83-1)/SUM($A$101-1))*(SUM(F$101-F$2))))</f>
-        <v>17.272727272727273</v>
-      </c>
-      <c r="G83">
-        <f t="shared" ref="G83:G100" si="16">(G$2+((SUM($A83-1)/SUM($A$101-1))*(SUM(G$101-G$2))))</f>
-        <v>83.63636363636364</v>
-      </c>
-      <c r="H83">
-        <v>-1</v>
-      </c>
-      <c r="I83">
-        <v>-1</v>
-      </c>
-      <c r="J83">
-        <v>-1</v>
-      </c>
-      <c r="K83">
-        <f t="shared" ref="K83:K100" si="17">(K$2+((SUM($A83-1)/SUM($A$101-1))*(SUM(K$101-K$2))))</f>
-        <v>17.272727272727273</v>
-      </c>
-      <c r="L83">
-        <v>-1</v>
-      </c>
-      <c r="M83">
-        <v>-1</v>
+        <v>18.18181818181818</v>
       </c>
       <c r="N83">
         <v>-1</v>
       </c>
       <c r="O83">
-        <v>-1</v>
+        <f t="shared" si="13"/>
+        <v>18.18181818181818</v>
       </c>
       <c r="P83">
         <v>-1</v>
@@ -6031,53 +6298,56 @@
         <v>83</v>
       </c>
       <c r="B84">
+        <f t="shared" si="14"/>
+        <v>83</v>
+      </c>
+      <c r="C84">
+        <f t="shared" si="15"/>
+        <v>0.25454545454545452</v>
+      </c>
+      <c r="D84">
         <f t="shared" si="12"/>
-        <v>83</v>
-      </c>
-      <c r="C84">
-        <f t="shared" si="13"/>
-        <v>0.25454545454545452</v>
-      </c>
-      <c r="D84">
-        <f t="shared" si="11"/>
         <v>0.67777777777777759</v>
       </c>
       <c r="E84">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>17.424242424242422</v>
       </c>
       <c r="F84">
-        <f t="shared" si="15"/>
-        <v>17.424242424242422</v>
-      </c>
-      <c r="G84">
-        <f t="shared" si="16"/>
-        <v>84.545454545454547</v>
-      </c>
-      <c r="H84">
-        <v>-1</v>
-      </c>
-      <c r="I84">
-        <v>-1</v>
-      </c>
-      <c r="J84">
-        <v>-1</v>
-      </c>
-      <c r="K84">
         <f t="shared" si="17"/>
         <v>17.424242424242422</v>
       </c>
+      <c r="G84">
+        <f t="shared" si="18"/>
+        <v>84.545454545454547</v>
+      </c>
+      <c r="H84">
+        <f t="shared" si="18"/>
+        <v>84.545454545454547</v>
+      </c>
+      <c r="I84">
+        <v>-1</v>
+      </c>
+      <c r="J84">
+        <v>-1</v>
+      </c>
+      <c r="K84">
+        <f t="shared" si="19"/>
+        <v>17.424242424242422</v>
+      </c>
       <c r="L84">
         <v>-1</v>
       </c>
       <c r="M84">
-        <v>-1</v>
+        <f t="shared" si="13"/>
+        <v>18.282828282828284</v>
       </c>
       <c r="N84">
         <v>-1</v>
       </c>
       <c r="O84">
-        <v>-1</v>
+        <f t="shared" si="13"/>
+        <v>18.282828282828284</v>
       </c>
       <c r="P84">
         <v>-1</v>
@@ -6091,53 +6361,56 @@
         <v>84</v>
       </c>
       <c r="B85">
+        <f t="shared" si="14"/>
+        <v>84</v>
+      </c>
+      <c r="C85">
+        <f t="shared" si="15"/>
+        <v>0.24545454545454548</v>
+      </c>
+      <c r="D85">
         <f t="shared" si="12"/>
-        <v>84</v>
-      </c>
-      <c r="C85">
-        <f t="shared" si="13"/>
-        <v>0.24545454545454548</v>
-      </c>
-      <c r="D85">
-        <f t="shared" si="11"/>
         <v>0.65555555555555545</v>
       </c>
       <c r="E85">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>17.575757575757574</v>
       </c>
       <c r="F85">
-        <f t="shared" si="15"/>
-        <v>17.575757575757574</v>
-      </c>
-      <c r="G85">
-        <f t="shared" si="16"/>
-        <v>85.454545454545453</v>
-      </c>
-      <c r="H85">
-        <v>-1</v>
-      </c>
-      <c r="I85">
-        <v>-1</v>
-      </c>
-      <c r="J85">
-        <v>-1</v>
-      </c>
-      <c r="K85">
         <f t="shared" si="17"/>
         <v>17.575757575757574</v>
       </c>
+      <c r="G85">
+        <f t="shared" si="18"/>
+        <v>85.454545454545453</v>
+      </c>
+      <c r="H85">
+        <f t="shared" si="18"/>
+        <v>85.454545454545453</v>
+      </c>
+      <c r="I85">
+        <v>-1</v>
+      </c>
+      <c r="J85">
+        <v>-1</v>
+      </c>
+      <c r="K85">
+        <f t="shared" si="19"/>
+        <v>17.575757575757574</v>
+      </c>
       <c r="L85">
         <v>-1</v>
       </c>
       <c r="M85">
-        <v>-1</v>
+        <f t="shared" si="13"/>
+        <v>18.383838383838384</v>
       </c>
       <c r="N85">
         <v>-1</v>
       </c>
       <c r="O85">
-        <v>-1</v>
+        <f t="shared" si="13"/>
+        <v>18.383838383838384</v>
       </c>
       <c r="P85">
         <v>-1</v>
@@ -6151,53 +6424,56 @@
         <v>85</v>
       </c>
       <c r="B86">
+        <f t="shared" si="14"/>
+        <v>85</v>
+      </c>
+      <c r="C86">
+        <f t="shared" si="15"/>
+        <v>0.23636363636363633</v>
+      </c>
+      <c r="D86">
         <f t="shared" si="12"/>
-        <v>85</v>
-      </c>
-      <c r="C86">
-        <f t="shared" si="13"/>
-        <v>0.23636363636363633</v>
-      </c>
-      <c r="D86">
-        <f t="shared" si="11"/>
         <v>0.63333333333333308</v>
       </c>
       <c r="E86">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>17.727272727272727</v>
       </c>
       <c r="F86">
-        <f t="shared" si="15"/>
-        <v>17.727272727272727</v>
-      </c>
-      <c r="G86">
-        <f t="shared" si="16"/>
-        <v>86.36363636363636</v>
-      </c>
-      <c r="H86">
-        <v>-1</v>
-      </c>
-      <c r="I86">
-        <v>-1</v>
-      </c>
-      <c r="J86">
-        <v>-1</v>
-      </c>
-      <c r="K86">
         <f t="shared" si="17"/>
         <v>17.727272727272727</v>
       </c>
+      <c r="G86">
+        <f t="shared" si="18"/>
+        <v>86.36363636363636</v>
+      </c>
+      <c r="H86">
+        <f t="shared" si="18"/>
+        <v>86.36363636363636</v>
+      </c>
+      <c r="I86">
+        <v>-1</v>
+      </c>
+      <c r="J86">
+        <v>-1</v>
+      </c>
+      <c r="K86">
+        <f t="shared" si="19"/>
+        <v>17.727272727272727</v>
+      </c>
       <c r="L86">
         <v>-1</v>
       </c>
       <c r="M86">
-        <v>-1</v>
+        <f t="shared" si="13"/>
+        <v>18.484848484848484</v>
       </c>
       <c r="N86">
         <v>-1</v>
       </c>
       <c r="O86">
-        <v>-1</v>
+        <f t="shared" si="13"/>
+        <v>18.484848484848484</v>
       </c>
       <c r="P86">
         <v>-1</v>
@@ -6211,53 +6487,56 @@
         <v>86</v>
       </c>
       <c r="B87">
+        <f t="shared" si="14"/>
+        <v>86</v>
+      </c>
+      <c r="C87">
+        <f t="shared" si="15"/>
+        <v>0.22727272727272729</v>
+      </c>
+      <c r="D87">
         <f t="shared" si="12"/>
-        <v>86</v>
-      </c>
-      <c r="C87">
-        <f t="shared" si="13"/>
-        <v>0.22727272727272729</v>
-      </c>
-      <c r="D87">
-        <f t="shared" si="11"/>
         <v>0.61111111111111094</v>
       </c>
       <c r="E87">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>17.878787878787879</v>
       </c>
       <c r="F87">
-        <f t="shared" si="15"/>
-        <v>17.878787878787879</v>
-      </c>
-      <c r="G87">
-        <f t="shared" si="16"/>
-        <v>87.272727272727266</v>
-      </c>
-      <c r="H87">
-        <v>-1</v>
-      </c>
-      <c r="I87">
-        <v>-1</v>
-      </c>
-      <c r="J87">
-        <v>-1</v>
-      </c>
-      <c r="K87">
         <f t="shared" si="17"/>
         <v>17.878787878787879</v>
       </c>
+      <c r="G87">
+        <f t="shared" si="18"/>
+        <v>87.272727272727266</v>
+      </c>
+      <c r="H87">
+        <f t="shared" si="18"/>
+        <v>87.272727272727266</v>
+      </c>
+      <c r="I87">
+        <v>-1</v>
+      </c>
+      <c r="J87">
+        <v>-1</v>
+      </c>
+      <c r="K87">
+        <f t="shared" si="19"/>
+        <v>17.878787878787879</v>
+      </c>
       <c r="L87">
         <v>-1</v>
       </c>
       <c r="M87">
-        <v>-1</v>
+        <f t="shared" si="13"/>
+        <v>18.585858585858585</v>
       </c>
       <c r="N87">
         <v>-1</v>
       </c>
       <c r="O87">
-        <v>-1</v>
+        <f t="shared" si="13"/>
+        <v>18.585858585858585</v>
       </c>
       <c r="P87">
         <v>-1</v>
@@ -6271,53 +6550,56 @@
         <v>87</v>
       </c>
       <c r="B88">
+        <f t="shared" si="14"/>
+        <v>87</v>
+      </c>
+      <c r="C88">
+        <f t="shared" si="15"/>
+        <v>0.21818181818181814</v>
+      </c>
+      <c r="D88">
         <f t="shared" si="12"/>
-        <v>87</v>
-      </c>
-      <c r="C88">
-        <f t="shared" si="13"/>
-        <v>0.21818181818181814</v>
-      </c>
-      <c r="D88">
-        <f t="shared" si="11"/>
         <v>0.58888888888888857</v>
       </c>
       <c r="E88">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>18.030303030303031</v>
       </c>
       <c r="F88">
-        <f t="shared" si="15"/>
-        <v>18.030303030303031</v>
-      </c>
-      <c r="G88">
-        <f t="shared" si="16"/>
-        <v>88.181818181818187</v>
-      </c>
-      <c r="H88">
-        <v>-1</v>
-      </c>
-      <c r="I88">
-        <v>-1</v>
-      </c>
-      <c r="J88">
-        <v>-1</v>
-      </c>
-      <c r="K88">
         <f t="shared" si="17"/>
         <v>18.030303030303031</v>
       </c>
+      <c r="G88">
+        <f t="shared" si="18"/>
+        <v>88.181818181818187</v>
+      </c>
+      <c r="H88">
+        <f t="shared" si="18"/>
+        <v>88.181818181818187</v>
+      </c>
+      <c r="I88">
+        <v>-1</v>
+      </c>
+      <c r="J88">
+        <v>-1</v>
+      </c>
+      <c r="K88">
+        <f t="shared" si="19"/>
+        <v>18.030303030303031</v>
+      </c>
       <c r="L88">
         <v>-1</v>
       </c>
       <c r="M88">
-        <v>-1</v>
+        <f t="shared" si="13"/>
+        <v>18.686868686868685</v>
       </c>
       <c r="N88">
         <v>-1</v>
       </c>
       <c r="O88">
-        <v>-1</v>
+        <f t="shared" si="13"/>
+        <v>18.686868686868685</v>
       </c>
       <c r="P88">
         <v>-1</v>
@@ -6331,53 +6613,56 @@
         <v>88</v>
       </c>
       <c r="B89">
+        <f t="shared" si="14"/>
+        <v>88</v>
+      </c>
+      <c r="C89">
+        <f t="shared" si="15"/>
+        <v>0.20909090909090911</v>
+      </c>
+      <c r="D89">
         <f t="shared" si="12"/>
-        <v>88</v>
-      </c>
-      <c r="C89">
-        <f t="shared" si="13"/>
-        <v>0.20909090909090911</v>
-      </c>
-      <c r="D89">
-        <f t="shared" si="11"/>
         <v>0.56666666666666643</v>
       </c>
       <c r="E89">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>18.18181818181818</v>
       </c>
       <c r="F89">
-        <f t="shared" si="15"/>
-        <v>18.18181818181818</v>
-      </c>
-      <c r="G89">
-        <f t="shared" si="16"/>
-        <v>89.090909090909093</v>
-      </c>
-      <c r="H89">
-        <v>-1</v>
-      </c>
-      <c r="I89">
-        <v>-1</v>
-      </c>
-      <c r="J89">
-        <v>-1</v>
-      </c>
-      <c r="K89">
         <f t="shared" si="17"/>
         <v>18.18181818181818</v>
       </c>
+      <c r="G89">
+        <f t="shared" si="18"/>
+        <v>89.090909090909093</v>
+      </c>
+      <c r="H89">
+        <f t="shared" si="18"/>
+        <v>89.090909090909093</v>
+      </c>
+      <c r="I89">
+        <v>-1</v>
+      </c>
+      <c r="J89">
+        <v>-1</v>
+      </c>
+      <c r="K89">
+        <f t="shared" si="19"/>
+        <v>18.18181818181818</v>
+      </c>
       <c r="L89">
         <v>-1</v>
       </c>
       <c r="M89">
-        <v>-1</v>
+        <f t="shared" si="13"/>
+        <v>18.787878787878789</v>
       </c>
       <c r="N89">
         <v>-1</v>
       </c>
       <c r="O89">
-        <v>-1</v>
+        <f t="shared" si="13"/>
+        <v>18.787878787878789</v>
       </c>
       <c r="P89">
         <v>-1</v>
@@ -6391,53 +6676,56 @@
         <v>89</v>
       </c>
       <c r="B90">
+        <f t="shared" si="14"/>
+        <v>89</v>
+      </c>
+      <c r="C90">
+        <f t="shared" si="15"/>
+        <v>0.20000000000000007</v>
+      </c>
+      <c r="D90">
         <f t="shared" si="12"/>
-        <v>89</v>
-      </c>
-      <c r="C90">
-        <f t="shared" si="13"/>
-        <v>0.20000000000000007</v>
-      </c>
-      <c r="D90">
-        <f t="shared" si="11"/>
         <v>0.54444444444444429</v>
       </c>
       <c r="E90">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>18.333333333333332</v>
       </c>
       <c r="F90">
-        <f t="shared" si="15"/>
-        <v>18.333333333333332</v>
-      </c>
-      <c r="G90">
-        <f t="shared" si="16"/>
-        <v>90</v>
-      </c>
-      <c r="H90">
-        <v>-1</v>
-      </c>
-      <c r="I90">
-        <v>-1</v>
-      </c>
-      <c r="J90">
-        <v>-1</v>
-      </c>
-      <c r="K90">
         <f t="shared" si="17"/>
         <v>18.333333333333332</v>
       </c>
+      <c r="G90">
+        <f t="shared" si="18"/>
+        <v>90</v>
+      </c>
+      <c r="H90">
+        <f t="shared" si="18"/>
+        <v>90</v>
+      </c>
+      <c r="I90">
+        <v>-1</v>
+      </c>
+      <c r="J90">
+        <v>-1</v>
+      </c>
+      <c r="K90">
+        <f t="shared" si="19"/>
+        <v>18.333333333333332</v>
+      </c>
       <c r="L90">
         <v>-1</v>
       </c>
       <c r="M90">
-        <v>-1</v>
+        <f t="shared" si="13"/>
+        <v>18.888888888888889</v>
       </c>
       <c r="N90">
         <v>-1</v>
       </c>
       <c r="O90">
-        <v>-1</v>
+        <f t="shared" si="13"/>
+        <v>18.888888888888889</v>
       </c>
       <c r="P90">
         <v>-1</v>
@@ -6451,53 +6739,56 @@
         <v>90</v>
       </c>
       <c r="B91">
+        <f t="shared" si="14"/>
+        <v>90</v>
+      </c>
+      <c r="C91">
+        <f t="shared" si="15"/>
+        <v>0.19090909090909092</v>
+      </c>
+      <c r="D91">
         <f t="shared" si="12"/>
-        <v>90</v>
-      </c>
-      <c r="C91">
-        <f t="shared" si="13"/>
-        <v>0.19090909090909092</v>
-      </c>
-      <c r="D91">
-        <f t="shared" si="11"/>
         <v>0.52222222222222192</v>
       </c>
       <c r="E91">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>18.484848484848484</v>
       </c>
       <c r="F91">
-        <f t="shared" si="15"/>
-        <v>18.484848484848484</v>
-      </c>
-      <c r="G91">
-        <f t="shared" si="16"/>
-        <v>90.909090909090907</v>
-      </c>
-      <c r="H91">
-        <v>-1</v>
-      </c>
-      <c r="I91">
-        <v>-1</v>
-      </c>
-      <c r="J91">
-        <v>-1</v>
-      </c>
-      <c r="K91">
         <f t="shared" si="17"/>
         <v>18.484848484848484</v>
       </c>
+      <c r="G91">
+        <f t="shared" si="18"/>
+        <v>90.909090909090907</v>
+      </c>
+      <c r="H91">
+        <f t="shared" si="18"/>
+        <v>90.909090909090907</v>
+      </c>
+      <c r="I91">
+        <v>-1</v>
+      </c>
+      <c r="J91">
+        <v>-1</v>
+      </c>
+      <c r="K91">
+        <f t="shared" si="19"/>
+        <v>18.484848484848484</v>
+      </c>
       <c r="L91">
         <v>-1</v>
       </c>
       <c r="M91">
-        <v>-1</v>
+        <f t="shared" si="13"/>
+        <v>18.98989898989899</v>
       </c>
       <c r="N91">
         <v>-1</v>
       </c>
       <c r="O91">
-        <v>-1</v>
+        <f t="shared" si="13"/>
+        <v>18.98989898989899</v>
       </c>
       <c r="P91">
         <v>-1</v>
@@ -6511,53 +6802,56 @@
         <v>91</v>
       </c>
       <c r="B92">
+        <f t="shared" si="14"/>
+        <v>91</v>
+      </c>
+      <c r="C92">
+        <f t="shared" si="15"/>
+        <v>0.18181818181818188</v>
+      </c>
+      <c r="D92">
         <f t="shared" si="12"/>
-        <v>91</v>
-      </c>
-      <c r="C92">
-        <f t="shared" si="13"/>
-        <v>0.18181818181818188</v>
-      </c>
-      <c r="D92">
-        <f t="shared" si="11"/>
         <v>0.5</v>
       </c>
       <c r="E92">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>18.636363636363637</v>
       </c>
       <c r="F92">
-        <f t="shared" si="15"/>
-        <v>18.636363636363637</v>
-      </c>
-      <c r="G92">
-        <f t="shared" si="16"/>
-        <v>91.818181818181813</v>
-      </c>
-      <c r="H92">
-        <v>-1</v>
-      </c>
-      <c r="I92">
-        <v>-1</v>
-      </c>
-      <c r="J92">
-        <v>-1</v>
-      </c>
-      <c r="K92">
         <f t="shared" si="17"/>
         <v>18.636363636363637</v>
       </c>
+      <c r="G92">
+        <f t="shared" si="18"/>
+        <v>91.818181818181813</v>
+      </c>
+      <c r="H92">
+        <f t="shared" si="18"/>
+        <v>91.818181818181813</v>
+      </c>
+      <c r="I92">
+        <v>-1</v>
+      </c>
+      <c r="J92">
+        <v>-1</v>
+      </c>
+      <c r="K92">
+        <f t="shared" si="19"/>
+        <v>18.636363636363637</v>
+      </c>
       <c r="L92">
         <v>-1</v>
       </c>
       <c r="M92">
-        <v>-1</v>
+        <f t="shared" si="13"/>
+        <v>19.09090909090909</v>
       </c>
       <c r="N92">
         <v>-1</v>
       </c>
       <c r="O92">
-        <v>-1</v>
+        <f t="shared" si="13"/>
+        <v>19.09090909090909</v>
       </c>
       <c r="P92">
         <v>-1</v>
@@ -6571,53 +6865,56 @@
         <v>92</v>
       </c>
       <c r="B93">
+        <f t="shared" si="14"/>
+        <v>92</v>
+      </c>
+      <c r="C93">
+        <f t="shared" si="15"/>
+        <v>0.17272727272727273</v>
+      </c>
+      <c r="D93">
         <f t="shared" si="12"/>
-        <v>92</v>
-      </c>
-      <c r="C93">
-        <f t="shared" si="13"/>
-        <v>0.17272727272727273</v>
-      </c>
-      <c r="D93">
-        <f t="shared" si="11"/>
         <v>0.47777777777777741</v>
       </c>
       <c r="E93">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>18.787878787878789</v>
       </c>
       <c r="F93">
-        <f t="shared" si="15"/>
-        <v>18.787878787878789</v>
-      </c>
-      <c r="G93">
-        <f t="shared" si="16"/>
-        <v>92.727272727272734</v>
-      </c>
-      <c r="H93">
-        <v>-1</v>
-      </c>
-      <c r="I93">
-        <v>-1</v>
-      </c>
-      <c r="J93">
-        <v>-1</v>
-      </c>
-      <c r="K93">
         <f t="shared" si="17"/>
         <v>18.787878787878789</v>
       </c>
+      <c r="G93">
+        <f t="shared" si="18"/>
+        <v>92.727272727272734</v>
+      </c>
+      <c r="H93">
+        <f t="shared" si="18"/>
+        <v>92.727272727272734</v>
+      </c>
+      <c r="I93">
+        <v>-1</v>
+      </c>
+      <c r="J93">
+        <v>-1</v>
+      </c>
+      <c r="K93">
+        <f t="shared" si="19"/>
+        <v>18.787878787878789</v>
+      </c>
       <c r="L93">
         <v>-1</v>
       </c>
       <c r="M93">
-        <v>-1</v>
+        <f t="shared" si="13"/>
+        <v>19.19191919191919</v>
       </c>
       <c r="N93">
         <v>-1</v>
       </c>
       <c r="O93">
-        <v>-1</v>
+        <f t="shared" si="13"/>
+        <v>19.19191919191919</v>
       </c>
       <c r="P93">
         <v>-1</v>
@@ -6631,53 +6928,56 @@
         <v>93</v>
       </c>
       <c r="B94">
+        <f t="shared" si="14"/>
+        <v>93</v>
+      </c>
+      <c r="C94">
+        <f t="shared" si="15"/>
+        <v>0.16363636363636358</v>
+      </c>
+      <c r="D94">
         <f t="shared" si="12"/>
-        <v>93</v>
-      </c>
-      <c r="C94">
-        <f t="shared" si="13"/>
-        <v>0.16363636363636358</v>
-      </c>
-      <c r="D94">
-        <f t="shared" si="11"/>
         <v>0.45555555555555527</v>
       </c>
       <c r="E94">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>18.939393939393938</v>
       </c>
       <c r="F94">
-        <f t="shared" si="15"/>
-        <v>18.939393939393938</v>
-      </c>
-      <c r="G94">
-        <f t="shared" si="16"/>
-        <v>93.63636363636364</v>
-      </c>
-      <c r="H94">
-        <v>-1</v>
-      </c>
-      <c r="I94">
-        <v>-1</v>
-      </c>
-      <c r="J94">
-        <v>-1</v>
-      </c>
-      <c r="K94">
         <f t="shared" si="17"/>
         <v>18.939393939393938</v>
       </c>
+      <c r="G94">
+        <f t="shared" si="18"/>
+        <v>93.63636363636364</v>
+      </c>
+      <c r="H94">
+        <f t="shared" si="18"/>
+        <v>93.63636363636364</v>
+      </c>
+      <c r="I94">
+        <v>-1</v>
+      </c>
+      <c r="J94">
+        <v>-1</v>
+      </c>
+      <c r="K94">
+        <f t="shared" si="19"/>
+        <v>18.939393939393938</v>
+      </c>
       <c r="L94">
         <v>-1</v>
       </c>
       <c r="M94">
-        <v>-1</v>
+        <f t="shared" si="13"/>
+        <v>19.292929292929294</v>
       </c>
       <c r="N94">
         <v>-1</v>
       </c>
       <c r="O94">
-        <v>-1</v>
+        <f t="shared" si="13"/>
+        <v>19.292929292929294</v>
       </c>
       <c r="P94">
         <v>-1</v>
@@ -6691,53 +6991,56 @@
         <v>94</v>
       </c>
       <c r="B95">
+        <f t="shared" si="14"/>
+        <v>94</v>
+      </c>
+      <c r="C95">
+        <f t="shared" si="15"/>
+        <v>0.15454545454545443</v>
+      </c>
+      <c r="D95">
         <f t="shared" si="12"/>
-        <v>94</v>
-      </c>
-      <c r="C95">
-        <f t="shared" si="13"/>
-        <v>0.15454545454545443</v>
-      </c>
-      <c r="D95">
-        <f t="shared" si="11"/>
         <v>0.43333333333333313</v>
       </c>
       <c r="E95">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>19.090909090909093</v>
       </c>
       <c r="F95">
-        <f t="shared" si="15"/>
-        <v>19.090909090909093</v>
-      </c>
-      <c r="G95">
-        <f t="shared" si="16"/>
-        <v>94.545454545454547</v>
-      </c>
-      <c r="H95">
-        <v>-1</v>
-      </c>
-      <c r="I95">
-        <v>-1</v>
-      </c>
-      <c r="J95">
-        <v>-1</v>
-      </c>
-      <c r="K95">
         <f t="shared" si="17"/>
         <v>19.090909090909093</v>
       </c>
+      <c r="G95">
+        <f t="shared" si="18"/>
+        <v>94.545454545454547</v>
+      </c>
+      <c r="H95">
+        <f t="shared" si="18"/>
+        <v>94.545454545454547</v>
+      </c>
+      <c r="I95">
+        <v>-1</v>
+      </c>
+      <c r="J95">
+        <v>-1</v>
+      </c>
+      <c r="K95">
+        <f t="shared" si="19"/>
+        <v>19.090909090909093</v>
+      </c>
       <c r="L95">
         <v>-1</v>
       </c>
       <c r="M95">
-        <v>-1</v>
+        <f t="shared" si="13"/>
+        <v>19.393939393939394</v>
       </c>
       <c r="N95">
         <v>-1</v>
       </c>
       <c r="O95">
-        <v>-1</v>
+        <f t="shared" si="13"/>
+        <v>19.393939393939394</v>
       </c>
       <c r="P95">
         <v>-1</v>
@@ -6751,53 +7054,56 @@
         <v>95</v>
       </c>
       <c r="B96">
+        <f t="shared" si="14"/>
+        <v>95</v>
+      </c>
+      <c r="C96">
+        <f t="shared" si="15"/>
+        <v>0.14545454545454539</v>
+      </c>
+      <c r="D96">
         <f t="shared" si="12"/>
-        <v>95</v>
-      </c>
-      <c r="C96">
-        <f t="shared" si="13"/>
-        <v>0.14545454545454539</v>
-      </c>
-      <c r="D96">
-        <f t="shared" si="11"/>
         <v>0.41111111111111098</v>
       </c>
       <c r="E96">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>19.242424242424242</v>
       </c>
       <c r="F96">
-        <f t="shared" si="15"/>
-        <v>19.242424242424242</v>
-      </c>
-      <c r="G96">
-        <f t="shared" si="16"/>
-        <v>95.454545454545453</v>
-      </c>
-      <c r="H96">
-        <v>-1</v>
-      </c>
-      <c r="I96">
-        <v>-1</v>
-      </c>
-      <c r="J96">
-        <v>-1</v>
-      </c>
-      <c r="K96">
         <f t="shared" si="17"/>
         <v>19.242424242424242</v>
       </c>
+      <c r="G96">
+        <f t="shared" si="18"/>
+        <v>95.454545454545453</v>
+      </c>
+      <c r="H96">
+        <f t="shared" si="18"/>
+        <v>95.454545454545453</v>
+      </c>
+      <c r="I96">
+        <v>-1</v>
+      </c>
+      <c r="J96">
+        <v>-1</v>
+      </c>
+      <c r="K96">
+        <f t="shared" si="19"/>
+        <v>19.242424242424242</v>
+      </c>
       <c r="L96">
         <v>-1</v>
       </c>
       <c r="M96">
-        <v>-1</v>
+        <f t="shared" si="13"/>
+        <v>19.494949494949495</v>
       </c>
       <c r="N96">
         <v>-1</v>
       </c>
       <c r="O96">
-        <v>-1</v>
+        <f t="shared" si="13"/>
+        <v>19.494949494949495</v>
       </c>
       <c r="P96">
         <v>-1</v>
@@ -6811,53 +7117,56 @@
         <v>96</v>
       </c>
       <c r="B97">
+        <f t="shared" si="14"/>
+        <v>96</v>
+      </c>
+      <c r="C97">
+        <f t="shared" si="15"/>
+        <v>0.13636363636363635</v>
+      </c>
+      <c r="D97">
         <f t="shared" si="12"/>
-        <v>96</v>
-      </c>
-      <c r="C97">
-        <f t="shared" si="13"/>
-        <v>0.13636363636363635</v>
-      </c>
-      <c r="D97">
-        <f t="shared" si="11"/>
         <v>0.38888888888888884</v>
       </c>
       <c r="E97">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>19.393939393939391</v>
       </c>
       <c r="F97">
-        <f t="shared" si="15"/>
-        <v>19.393939393939391</v>
-      </c>
-      <c r="G97">
-        <f t="shared" si="16"/>
-        <v>96.36363636363636</v>
-      </c>
-      <c r="H97">
-        <v>-1</v>
-      </c>
-      <c r="I97">
-        <v>-1</v>
-      </c>
-      <c r="J97">
-        <v>-1</v>
-      </c>
-      <c r="K97">
         <f t="shared" si="17"/>
         <v>19.393939393939391</v>
       </c>
+      <c r="G97">
+        <f t="shared" si="18"/>
+        <v>96.36363636363636</v>
+      </c>
+      <c r="H97">
+        <f t="shared" si="18"/>
+        <v>96.36363636363636</v>
+      </c>
+      <c r="I97">
+        <v>-1</v>
+      </c>
+      <c r="J97">
+        <v>-1</v>
+      </c>
+      <c r="K97">
+        <f t="shared" si="19"/>
+        <v>19.393939393939391</v>
+      </c>
       <c r="L97">
         <v>-1</v>
       </c>
       <c r="M97">
-        <v>-1</v>
+        <f t="shared" si="13"/>
+        <v>19.595959595959595</v>
       </c>
       <c r="N97">
         <v>-1</v>
       </c>
       <c r="O97">
-        <v>-1</v>
+        <f t="shared" si="13"/>
+        <v>19.595959595959595</v>
       </c>
       <c r="P97">
         <v>-1</v>
@@ -6871,53 +7180,56 @@
         <v>97</v>
       </c>
       <c r="B98">
+        <f t="shared" si="14"/>
+        <v>97</v>
+      </c>
+      <c r="C98">
+        <f t="shared" si="15"/>
+        <v>0.1272727272727272</v>
+      </c>
+      <c r="D98">
         <f t="shared" si="12"/>
-        <v>97</v>
-      </c>
-      <c r="C98">
-        <f t="shared" si="13"/>
-        <v>0.1272727272727272</v>
-      </c>
-      <c r="D98">
-        <f t="shared" si="11"/>
         <v>0.36666666666666625</v>
       </c>
       <c r="E98">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>19.545454545454547</v>
       </c>
       <c r="F98">
-        <f t="shared" si="15"/>
-        <v>19.545454545454547</v>
-      </c>
-      <c r="G98">
-        <f t="shared" si="16"/>
-        <v>97.27272727272728</v>
-      </c>
-      <c r="H98">
-        <v>-1</v>
-      </c>
-      <c r="I98">
-        <v>-1</v>
-      </c>
-      <c r="J98">
-        <v>-1</v>
-      </c>
-      <c r="K98">
         <f t="shared" si="17"/>
         <v>19.545454545454547</v>
       </c>
+      <c r="G98">
+        <f t="shared" si="18"/>
+        <v>97.27272727272728</v>
+      </c>
+      <c r="H98">
+        <f t="shared" si="18"/>
+        <v>97.27272727272728</v>
+      </c>
+      <c r="I98">
+        <v>-1</v>
+      </c>
+      <c r="J98">
+        <v>-1</v>
+      </c>
+      <c r="K98">
+        <f t="shared" si="19"/>
+        <v>19.545454545454547</v>
+      </c>
       <c r="L98">
         <v>-1</v>
       </c>
       <c r="M98">
-        <v>-1</v>
+        <f t="shared" si="13"/>
+        <v>19.696969696969695</v>
       </c>
       <c r="N98">
         <v>-1</v>
       </c>
       <c r="O98">
-        <v>-1</v>
+        <f t="shared" si="13"/>
+        <v>19.696969696969695</v>
       </c>
       <c r="P98">
         <v>-1</v>
@@ -6931,53 +7243,56 @@
         <v>98</v>
       </c>
       <c r="B99">
+        <f t="shared" si="14"/>
+        <v>98</v>
+      </c>
+      <c r="C99">
+        <f t="shared" si="15"/>
+        <v>0.11818181818181817</v>
+      </c>
+      <c r="D99">
         <f t="shared" si="12"/>
-        <v>98</v>
-      </c>
-      <c r="C99">
-        <f t="shared" si="13"/>
-        <v>0.11818181818181817</v>
-      </c>
-      <c r="D99">
-        <f t="shared" si="11"/>
         <v>0.34444444444444411</v>
       </c>
       <c r="E99">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>19.696969696969695</v>
       </c>
       <c r="F99">
-        <f t="shared" si="15"/>
-        <v>19.696969696969695</v>
-      </c>
-      <c r="G99">
-        <f t="shared" si="16"/>
-        <v>98.181818181818187</v>
-      </c>
-      <c r="H99">
-        <v>-1</v>
-      </c>
-      <c r="I99">
-        <v>-1</v>
-      </c>
-      <c r="J99">
-        <v>-1</v>
-      </c>
-      <c r="K99">
         <f t="shared" si="17"/>
         <v>19.696969696969695</v>
       </c>
+      <c r="G99">
+        <f t="shared" si="18"/>
+        <v>98.181818181818187</v>
+      </c>
+      <c r="H99">
+        <f t="shared" si="18"/>
+        <v>98.181818181818187</v>
+      </c>
+      <c r="I99">
+        <v>-1</v>
+      </c>
+      <c r="J99">
+        <v>-1</v>
+      </c>
+      <c r="K99">
+        <f t="shared" si="19"/>
+        <v>19.696969696969695</v>
+      </c>
       <c r="L99">
         <v>-1</v>
       </c>
       <c r="M99">
-        <v>-1</v>
+        <f t="shared" si="13"/>
+        <v>19.797979797979799</v>
       </c>
       <c r="N99">
         <v>-1</v>
       </c>
       <c r="O99">
-        <v>-1</v>
+        <f t="shared" si="13"/>
+        <v>19.797979797979799</v>
       </c>
       <c r="P99">
         <v>-1</v>
@@ -6991,53 +7306,56 @@
         <v>99</v>
       </c>
       <c r="B100">
+        <f t="shared" si="14"/>
+        <v>99</v>
+      </c>
+      <c r="C100">
+        <f t="shared" si="15"/>
+        <v>0.10909090909090902</v>
+      </c>
+      <c r="D100">
         <f t="shared" si="12"/>
-        <v>99</v>
-      </c>
-      <c r="C100">
-        <f t="shared" si="13"/>
-        <v>0.10909090909090902</v>
-      </c>
-      <c r="D100">
-        <f t="shared" si="11"/>
         <v>0.32222222222222197</v>
       </c>
       <c r="E100">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>19.848484848484851</v>
       </c>
       <c r="F100">
-        <f t="shared" si="15"/>
-        <v>19.848484848484851</v>
-      </c>
-      <c r="G100">
-        <f t="shared" si="16"/>
-        <v>99.090909090909093</v>
-      </c>
-      <c r="H100">
-        <v>-1</v>
-      </c>
-      <c r="I100">
-        <v>-1</v>
-      </c>
-      <c r="J100">
-        <v>-1</v>
-      </c>
-      <c r="K100">
         <f t="shared" si="17"/>
         <v>19.848484848484851</v>
       </c>
+      <c r="G100">
+        <f t="shared" si="18"/>
+        <v>99.090909090909093</v>
+      </c>
+      <c r="H100">
+        <f t="shared" si="18"/>
+        <v>99.090909090909093</v>
+      </c>
+      <c r="I100">
+        <v>-1</v>
+      </c>
+      <c r="J100">
+        <v>-1</v>
+      </c>
+      <c r="K100">
+        <f t="shared" si="19"/>
+        <v>19.848484848484851</v>
+      </c>
       <c r="L100">
         <v>-1</v>
       </c>
       <c r="M100">
-        <v>-1</v>
+        <f t="shared" si="13"/>
+        <v>19.8989898989899</v>
       </c>
       <c r="N100">
         <v>-1</v>
       </c>
       <c r="O100">
-        <v>-1</v>
+        <f t="shared" si="13"/>
+        <v>19.8989898989899</v>
       </c>
       <c r="P100">
         <v>-1</v>
@@ -7069,7 +7387,7 @@
         <v>100</v>
       </c>
       <c r="H101" s="1">
-        <v>-1</v>
+        <v>100</v>
       </c>
       <c r="I101" s="1">
         <v>-1</v>
@@ -7084,13 +7402,13 @@
         <v>-1</v>
       </c>
       <c r="M101" s="1">
-        <v>-1</v>
+        <v>20</v>
       </c>
       <c r="N101" s="1">
         <v>-1</v>
       </c>
       <c r="O101" s="1">
-        <v>-1</v>
+        <v>20</v>
       </c>
       <c r="P101" s="1">
         <v>-1</v>

--- a/RotoShootUnityProject/Assets/Resources/mySheet.xlsx
+++ b/RotoShootUnityProject/Assets/Resources/mySheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming\UnityProjects\RotoShoot\RotoShootUnityProject\Assets\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{108EDCF5-26A3-4262-82B3-063F438999EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A5ABA52-55EF-47DB-81A7-5F1E1CD1B658}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1524" yWindow="348" windowWidth="28296" windowHeight="16008" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1068" yWindow="-108" windowWidth="45120" windowHeight="26136" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="mySheet (4)" sheetId="4" r:id="rId1"/>
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="22">
   <si>
     <t>BasePlayerHP</t>
   </si>
@@ -152,12 +152,15 @@
   <si>
     <t>EnemyRateOfFireMax</t>
   </si>
+  <si>
+    <t>Level</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -291,12 +294,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="39">
@@ -1070,7 +1067,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H1" sqref="H1"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1086,7 +1083,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>5</v>
@@ -5268,7 +5265,7 @@
         <v>-1</v>
       </c>
       <c r="M67">
-        <f t="shared" ref="M67:O101" si="13">(M$2+((SUM($A67-1)/SUM($A$101-1))*(SUM(M$101-M$2))))</f>
+        <f t="shared" ref="M67:O100" si="13">(M$2+((SUM($A67-1)/SUM($A$101-1))*(SUM(M$101-M$2))))</f>
         <v>16.565656565656568</v>
       </c>
       <c r="N67">

--- a/RotoShootUnityProject/Assets/Resources/mySheet.xlsx
+++ b/RotoShootUnityProject/Assets/Resources/mySheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming\UnityProjects\RotoShoot\RotoShootUnityProject\Assets\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A5ABA52-55EF-47DB-81A7-5F1E1CD1B658}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6098FE16-44F7-4BCB-ACA3-1EB818ACF06C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1068" yWindow="-108" windowWidth="45120" windowHeight="26136" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2688" yWindow="2472" windowWidth="28728" windowHeight="22608" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="mySheet (4)" sheetId="4" r:id="rId1"/>
@@ -1067,7 +1067,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1139,19 +1139,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="C2" s="1">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="D2" s="1">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="E2" s="1">
         <v>5</v>
       </c>
       <c r="F2" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G2" s="1">
         <v>10</v>
@@ -1172,7 +1172,7 @@
         <v>-1</v>
       </c>
       <c r="M2" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="N2" s="1">
         <v>-1</v>
@@ -1193,15 +1193,15 @@
       </c>
       <c r="B3">
         <f>(B$2+((SUM($A3-1)/SUM($A$101-1))*(SUM(B$101-B$2))))</f>
-        <v>2</v>
+        <v>0.60404040404040404</v>
       </c>
       <c r="C3">
         <f t="shared" ref="C3:H18" si="0">(C$2+((SUM($A3-1)/SUM($A$101-1))*(SUM(C$101-C$2))))</f>
-        <v>0.99090909090909096</v>
+        <v>0.19898989898989899</v>
       </c>
       <c r="D3">
         <f t="shared" si="0"/>
-        <v>2.4777777777777779</v>
+        <v>1.9828282828282828</v>
       </c>
       <c r="E3">
         <f t="shared" si="0"/>
@@ -1209,7 +1209,7 @@
       </c>
       <c r="F3">
         <f t="shared" si="0"/>
-        <v>5.1515151515151514</v>
+        <v>10.1010101010101</v>
       </c>
       <c r="G3">
         <f t="shared" si="0"/>
@@ -1234,14 +1234,14 @@
       </c>
       <c r="M3">
         <f t="shared" ref="M3:O66" si="2">(M$2+((SUM($A3-1)/SUM($A$101-1))*(SUM(M$101-M$2))))</f>
-        <v>10.1010101010101</v>
+        <v>10</v>
       </c>
       <c r="N3">
         <v>-1</v>
       </c>
       <c r="O3">
         <f t="shared" si="2"/>
-        <v>10.1010101010101</v>
+        <v>14.94949494949495</v>
       </c>
       <c r="P3">
         <v>-1</v>
@@ -1256,15 +1256,15 @@
       </c>
       <c r="B4">
         <f t="shared" ref="B4:B5" si="3">(B$2+((SUM($A4-1)/SUM($A$101-1))*(SUM(B$101-B$2))))</f>
-        <v>3</v>
+        <v>1.1080808080808082</v>
       </c>
       <c r="C4">
         <f t="shared" si="0"/>
-        <v>0.98181818181818181</v>
+        <v>0.19797979797979798</v>
       </c>
       <c r="D4">
         <f t="shared" si="0"/>
-        <v>2.4555555555555557</v>
+        <v>1.9656565656565657</v>
       </c>
       <c r="E4">
         <f t="shared" si="0"/>
@@ -1272,7 +1272,7 @@
       </c>
       <c r="F4">
         <f t="shared" si="0"/>
-        <v>5.3030303030303028</v>
+        <v>10.202020202020202</v>
       </c>
       <c r="G4">
         <f t="shared" si="0"/>
@@ -1297,14 +1297,14 @@
       </c>
       <c r="M4">
         <f t="shared" si="2"/>
-        <v>10.202020202020202</v>
+        <v>15</v>
       </c>
       <c r="N4">
         <v>-1</v>
       </c>
       <c r="O4">
         <f t="shared" si="2"/>
-        <v>10.202020202020202</v>
+        <v>19.8989898989899</v>
       </c>
       <c r="P4">
         <v>-1</v>
@@ -1319,15 +1319,15 @@
       </c>
       <c r="B5">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>1.6121212121212123</v>
       </c>
       <c r="C5">
         <f t="shared" si="0"/>
-        <v>0.97272727272727277</v>
+        <v>0.19696969696969699</v>
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
-        <v>2.4333333333333331</v>
+        <v>1.9484848484848485</v>
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
@@ -1335,7 +1335,7 @@
       </c>
       <c r="F5">
         <f t="shared" si="0"/>
-        <v>5.454545454545455</v>
+        <v>10.303030303030303</v>
       </c>
       <c r="G5">
         <f t="shared" si="0"/>
@@ -1360,14 +1360,14 @@
       </c>
       <c r="M5">
         <f t="shared" si="2"/>
-        <v>10.303030303030303</v>
+        <v>20</v>
       </c>
       <c r="N5">
         <v>-1</v>
       </c>
       <c r="O5">
         <f t="shared" si="2"/>
-        <v>10.303030303030303</v>
+        <v>24.848484848484851</v>
       </c>
       <c r="P5">
         <v>-1</v>
@@ -1382,15 +1382,15 @@
       </c>
       <c r="B6">
         <f t="shared" ref="B6" si="4">(B$2+((SUM(A6-1)/SUM(A$101-1))*(SUM(B$101-B$2))))</f>
-        <v>5</v>
+        <v>2.1161616161616164</v>
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
-        <v>0.96363636363636362</v>
+        <v>0.19595959595959597</v>
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
-        <v>2.411111111111111</v>
+        <v>1.9313131313131313</v>
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
@@ -1398,7 +1398,7 @@
       </c>
       <c r="F6">
         <f t="shared" si="0"/>
-        <v>5.6060606060606064</v>
+        <v>10.404040404040405</v>
       </c>
       <c r="G6">
         <f t="shared" si="0"/>
@@ -1423,14 +1423,14 @@
       </c>
       <c r="M6">
         <f t="shared" si="2"/>
-        <v>10.404040404040405</v>
+        <v>25</v>
       </c>
       <c r="N6">
         <v>-1</v>
       </c>
       <c r="O6">
         <f t="shared" si="2"/>
-        <v>10.404040404040405</v>
+        <v>29.797979797979799</v>
       </c>
       <c r="P6">
         <v>-1</v>
@@ -1445,15 +1445,15 @@
       </c>
       <c r="B7">
         <f t="shared" ref="B7:B67" si="5">(B$2+((SUM(A7-1)/SUM(A$101-1))*(SUM(B$101-B$2))))</f>
-        <v>6</v>
+        <v>2.62020202020202</v>
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
-        <v>0.95454545454545459</v>
+        <v>0.19494949494949496</v>
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>2.3888888888888888</v>
+        <v>1.9141414141414141</v>
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
@@ -1461,7 +1461,7 @@
       </c>
       <c r="F7">
         <f t="shared" si="0"/>
-        <v>5.7575757575757578</v>
+        <v>10.505050505050505</v>
       </c>
       <c r="G7">
         <f t="shared" si="0"/>
@@ -1486,14 +1486,14 @@
       </c>
       <c r="M7">
         <f t="shared" si="2"/>
-        <v>10.505050505050505</v>
+        <v>30</v>
       </c>
       <c r="N7">
         <v>-1</v>
       </c>
       <c r="O7">
         <f t="shared" si="2"/>
-        <v>10.505050505050505</v>
+        <v>34.747474747474747</v>
       </c>
       <c r="P7">
         <v>-1</v>
@@ -1508,15 +1508,15 @@
       </c>
       <c r="B8">
         <f t="shared" si="5"/>
-        <v>7</v>
+        <v>3.1242424242424245</v>
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
-        <v>0.94545454545454544</v>
+        <v>0.19393939393939394</v>
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>2.3666666666666667</v>
+        <v>1.896969696969697</v>
       </c>
       <c r="E8">
         <f t="shared" si="0"/>
@@ -1524,7 +1524,7 @@
       </c>
       <c r="F8">
         <f t="shared" si="0"/>
-        <v>5.9090909090909092</v>
+        <v>10.606060606060606</v>
       </c>
       <c r="G8">
         <f t="shared" si="0"/>
@@ -1549,14 +1549,14 @@
       </c>
       <c r="M8">
         <f t="shared" si="2"/>
-        <v>10.606060606060606</v>
+        <v>35</v>
       </c>
       <c r="N8">
         <v>-1</v>
       </c>
       <c r="O8">
         <f t="shared" si="2"/>
-        <v>10.606060606060606</v>
+        <v>39.696969696969703</v>
       </c>
       <c r="P8">
         <v>-1</v>
@@ -1571,15 +1571,15 @@
       </c>
       <c r="B9">
         <f t="shared" si="5"/>
-        <v>8</v>
+        <v>3.6282828282828281</v>
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
-        <v>0.9363636363636364</v>
+        <v>0.19292929292929295</v>
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
-        <v>2.3444444444444446</v>
+        <v>1.8797979797979798</v>
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
@@ -1587,7 +1587,7 @@
       </c>
       <c r="F9">
         <f t="shared" si="0"/>
-        <v>6.0606060606060606</v>
+        <v>10.707070707070708</v>
       </c>
       <c r="G9">
         <f t="shared" si="0"/>
@@ -1612,14 +1612,14 @@
       </c>
       <c r="M9">
         <f t="shared" si="2"/>
-        <v>10.707070707070708</v>
+        <v>40</v>
       </c>
       <c r="N9">
         <v>-1</v>
       </c>
       <c r="O9">
         <f t="shared" si="2"/>
-        <v>10.707070707070708</v>
+        <v>44.646464646464644</v>
       </c>
       <c r="P9">
         <v>-1</v>
@@ -1634,15 +1634,15 @@
       </c>
       <c r="B10">
         <f t="shared" si="5"/>
-        <v>9</v>
+        <v>4.1323232323232322</v>
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
-        <v>0.92727272727272725</v>
+        <v>0.19191919191919193</v>
       </c>
       <c r="D10">
         <f t="shared" si="0"/>
-        <v>2.322222222222222</v>
+        <v>1.8626262626262626</v>
       </c>
       <c r="E10">
         <f t="shared" si="0"/>
@@ -1650,7 +1650,7 @@
       </c>
       <c r="F10">
         <f t="shared" si="0"/>
-        <v>6.2121212121212119</v>
+        <v>10.808080808080808</v>
       </c>
       <c r="G10">
         <f t="shared" si="0"/>
@@ -1675,14 +1675,14 @@
       </c>
       <c r="M10">
         <f t="shared" si="2"/>
-        <v>10.808080808080808</v>
+        <v>45</v>
       </c>
       <c r="N10">
         <v>-1</v>
       </c>
       <c r="O10">
         <f t="shared" si="2"/>
-        <v>10.808080808080808</v>
+        <v>49.595959595959599</v>
       </c>
       <c r="P10">
         <v>-1</v>
@@ -1697,15 +1697,15 @@
       </c>
       <c r="B11">
         <f t="shared" si="5"/>
-        <v>10</v>
+        <v>4.6363636363636358</v>
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
-        <v>0.91818181818181821</v>
+        <v>0.19090909090909092</v>
       </c>
       <c r="D11">
         <f t="shared" si="0"/>
-        <v>2.2999999999999998</v>
+        <v>1.8454545454545455</v>
       </c>
       <c r="E11">
         <f t="shared" si="0"/>
@@ -1713,7 +1713,7 @@
       </c>
       <c r="F11">
         <f t="shared" si="0"/>
-        <v>6.3636363636363633</v>
+        <v>10.90909090909091</v>
       </c>
       <c r="G11">
         <f t="shared" si="0"/>
@@ -1738,14 +1738,14 @@
       </c>
       <c r="M11">
         <f t="shared" si="2"/>
-        <v>10.90909090909091</v>
+        <v>50</v>
       </c>
       <c r="N11">
         <v>-1</v>
       </c>
       <c r="O11">
         <f t="shared" si="2"/>
-        <v>10.90909090909091</v>
+        <v>54.545454545454547</v>
       </c>
       <c r="P11">
         <v>-1</v>
@@ -1760,15 +1760,15 @@
       </c>
       <c r="B12">
         <f t="shared" si="5"/>
-        <v>11</v>
+        <v>5.1404040404040394</v>
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
-        <v>0.90909090909090906</v>
+        <v>0.1898989898989899</v>
       </c>
       <c r="D12">
         <f t="shared" si="0"/>
-        <v>2.2777777777777777</v>
+        <v>1.8282828282828283</v>
       </c>
       <c r="E12">
         <f t="shared" si="0"/>
@@ -1776,7 +1776,7 @@
       </c>
       <c r="F12">
         <f t="shared" si="0"/>
-        <v>6.5151515151515156</v>
+        <v>11.01010101010101</v>
       </c>
       <c r="G12">
         <f t="shared" si="0"/>
@@ -1801,14 +1801,14 @@
       </c>
       <c r="M12">
         <f t="shared" si="2"/>
-        <v>11.01010101010101</v>
+        <v>55</v>
       </c>
       <c r="N12">
         <v>-1</v>
       </c>
       <c r="O12">
         <f t="shared" si="2"/>
-        <v>11.01010101010101</v>
+        <v>59.494949494949495</v>
       </c>
       <c r="P12">
         <v>-1</v>
@@ -1823,15 +1823,15 @@
       </c>
       <c r="B13">
         <f t="shared" si="5"/>
-        <v>12</v>
+        <v>5.6444444444444439</v>
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
-        <v>0.9</v>
+        <v>0.18888888888888891</v>
       </c>
       <c r="D13">
         <f t="shared" si="0"/>
-        <v>2.2555555555555555</v>
+        <v>1.8111111111111111</v>
       </c>
       <c r="E13">
         <f t="shared" si="0"/>
@@ -1839,7 +1839,7 @@
       </c>
       <c r="F13">
         <f t="shared" si="0"/>
-        <v>6.6666666666666661</v>
+        <v>11.111111111111111</v>
       </c>
       <c r="G13">
         <f t="shared" si="0"/>
@@ -1864,14 +1864,14 @@
       </c>
       <c r="M13">
         <f t="shared" si="2"/>
-        <v>11.111111111111111</v>
+        <v>60</v>
       </c>
       <c r="N13">
         <v>-1</v>
       </c>
       <c r="O13">
         <f t="shared" si="2"/>
-        <v>11.111111111111111</v>
+        <v>64.444444444444443</v>
       </c>
       <c r="P13">
         <v>-1</v>
@@ -1886,15 +1886,15 @@
       </c>
       <c r="B14">
         <f t="shared" si="5"/>
-        <v>13</v>
+        <v>6.1484848484848484</v>
       </c>
       <c r="C14">
         <f t="shared" si="0"/>
-        <v>0.89090909090909087</v>
+        <v>0.1878787878787879</v>
       </c>
       <c r="D14">
         <f t="shared" si="0"/>
-        <v>2.2333333333333334</v>
+        <v>1.7939393939393939</v>
       </c>
       <c r="E14">
         <f t="shared" si="0"/>
@@ -1902,7 +1902,7 @@
       </c>
       <c r="F14">
         <f t="shared" si="0"/>
-        <v>6.8181818181818183</v>
+        <v>11.212121212121213</v>
       </c>
       <c r="G14">
         <f t="shared" si="0"/>
@@ -1927,14 +1927,14 @@
       </c>
       <c r="M14">
         <f t="shared" si="2"/>
-        <v>11.212121212121213</v>
+        <v>65</v>
       </c>
       <c r="N14">
         <v>-1</v>
       </c>
       <c r="O14">
         <f t="shared" si="2"/>
-        <v>11.212121212121213</v>
+        <v>69.393939393939405</v>
       </c>
       <c r="P14">
         <v>-1</v>
@@ -1949,15 +1949,15 @@
       </c>
       <c r="B15">
         <f t="shared" si="5"/>
-        <v>14.000000000000002</v>
+        <v>6.652525252525253</v>
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
-        <v>0.88181818181818183</v>
+        <v>0.18686868686868688</v>
       </c>
       <c r="D15">
         <f t="shared" si="0"/>
-        <v>2.2111111111111112</v>
+        <v>1.7767676767676768</v>
       </c>
       <c r="E15">
         <f t="shared" si="0"/>
@@ -1965,7 +1965,7 @@
       </c>
       <c r="F15">
         <f t="shared" si="0"/>
-        <v>6.9696969696969697</v>
+        <v>11.313131313131313</v>
       </c>
       <c r="G15">
         <f t="shared" si="0"/>
@@ -1990,14 +1990,14 @@
       </c>
       <c r="M15">
         <f t="shared" si="2"/>
-        <v>11.313131313131313</v>
+        <v>70</v>
       </c>
       <c r="N15">
         <v>-1</v>
       </c>
       <c r="O15">
         <f t="shared" si="2"/>
-        <v>11.313131313131313</v>
+        <v>74.343434343434353</v>
       </c>
       <c r="P15">
         <v>-1</v>
@@ -2012,15 +2012,15 @@
       </c>
       <c r="B16">
         <f t="shared" si="5"/>
-        <v>15</v>
+        <v>7.1565656565656557</v>
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
-        <v>0.8727272727272728</v>
+        <v>0.18585858585858586</v>
       </c>
       <c r="D16">
         <f t="shared" si="0"/>
-        <v>2.1888888888888891</v>
+        <v>1.7595959595959596</v>
       </c>
       <c r="E16">
         <f t="shared" si="0"/>
@@ -2028,7 +2028,7 @@
       </c>
       <c r="F16">
         <f t="shared" si="0"/>
-        <v>7.1212121212121211</v>
+        <v>11.414141414141413</v>
       </c>
       <c r="G16">
         <f t="shared" si="0"/>
@@ -2053,14 +2053,14 @@
       </c>
       <c r="M16">
         <f t="shared" si="2"/>
-        <v>11.414141414141413</v>
+        <v>75</v>
       </c>
       <c r="N16">
         <v>-1</v>
       </c>
       <c r="O16">
         <f t="shared" si="2"/>
-        <v>11.414141414141413</v>
+        <v>79.292929292929287</v>
       </c>
       <c r="P16">
         <v>-1</v>
@@ -2075,15 +2075,15 @@
       </c>
       <c r="B17">
         <f t="shared" si="5"/>
-        <v>16</v>
+        <v>7.6606060606060602</v>
       </c>
       <c r="C17">
         <f t="shared" si="0"/>
-        <v>0.86363636363636365</v>
+        <v>0.18484848484848487</v>
       </c>
       <c r="D17">
         <f t="shared" si="0"/>
-        <v>2.1666666666666665</v>
+        <v>1.7424242424242424</v>
       </c>
       <c r="E17">
         <f t="shared" si="0"/>
@@ -2091,7 +2091,7 @@
       </c>
       <c r="F17">
         <f t="shared" si="0"/>
-        <v>7.2727272727272734</v>
+        <v>11.515151515151516</v>
       </c>
       <c r="G17">
         <f t="shared" si="0"/>
@@ -2116,14 +2116,14 @@
       </c>
       <c r="M17">
         <f t="shared" si="2"/>
-        <v>11.515151515151516</v>
+        <v>80</v>
       </c>
       <c r="N17">
         <v>-1</v>
       </c>
       <c r="O17">
         <f t="shared" si="2"/>
-        <v>11.515151515151516</v>
+        <v>84.242424242424249</v>
       </c>
       <c r="P17">
         <v>-1</v>
@@ -2138,15 +2138,15 @@
       </c>
       <c r="B18">
         <f t="shared" si="5"/>
-        <v>17</v>
+        <v>8.1646464646464647</v>
       </c>
       <c r="C18">
         <f t="shared" si="0"/>
-        <v>0.8545454545454545</v>
+        <v>0.18383838383838386</v>
       </c>
       <c r="D18">
         <f t="shared" si="0"/>
-        <v>2.1444444444444444</v>
+        <v>1.7252525252525253</v>
       </c>
       <c r="E18">
         <f t="shared" si="0"/>
@@ -2154,7 +2154,7 @@
       </c>
       <c r="F18">
         <f t="shared" si="0"/>
-        <v>7.4242424242424239</v>
+        <v>11.616161616161616</v>
       </c>
       <c r="G18">
         <f t="shared" si="0"/>
@@ -2179,14 +2179,14 @@
       </c>
       <c r="M18">
         <f t="shared" si="2"/>
-        <v>11.616161616161616</v>
+        <v>85</v>
       </c>
       <c r="N18">
         <v>-1</v>
       </c>
       <c r="O18">
         <f t="shared" si="2"/>
-        <v>11.616161616161616</v>
+        <v>89.191919191919197</v>
       </c>
       <c r="P18">
         <v>-1</v>
@@ -2201,15 +2201,15 @@
       </c>
       <c r="B19">
         <f t="shared" si="5"/>
-        <v>18</v>
+        <v>8.6686868686868674</v>
       </c>
       <c r="C19">
         <f t="shared" ref="C19:D46" si="6">(C$2+((SUM($A19-1)/SUM($A$101-1))*(SUM(C$101-C$2))))</f>
-        <v>0.84545454545454546</v>
+        <v>0.18282828282828284</v>
       </c>
       <c r="D19">
         <f t="shared" si="6"/>
-        <v>2.1222222222222222</v>
+        <v>1.7080808080808081</v>
       </c>
       <c r="E19">
         <f t="shared" ref="E19:E82" si="7">(E$2+((SUM($A19-1)/SUM($A$101-1))*(SUM(E$101-E$2))))</f>
@@ -2217,7 +2217,7 @@
       </c>
       <c r="F19">
         <f t="shared" ref="F19:F82" si="8">(F$2+((SUM($A19-1)/SUM($A$101-1))*(SUM(F$101-F$2))))</f>
-        <v>7.5757575757575761</v>
+        <v>11.717171717171716</v>
       </c>
       <c r="G19">
         <f t="shared" ref="G19:H82" si="9">(G$2+((SUM($A19-1)/SUM($A$101-1))*(SUM(G$101-G$2))))</f>
@@ -2242,14 +2242,14 @@
       </c>
       <c r="M19">
         <f t="shared" si="2"/>
-        <v>11.717171717171716</v>
+        <v>90</v>
       </c>
       <c r="N19">
         <v>-1</v>
       </c>
       <c r="O19">
         <f t="shared" si="2"/>
-        <v>11.717171717171716</v>
+        <v>94.141414141414145</v>
       </c>
       <c r="P19">
         <v>-1</v>
@@ -2264,15 +2264,15 @@
       </c>
       <c r="B20">
         <f t="shared" si="5"/>
-        <v>19</v>
+        <v>9.172727272727272</v>
       </c>
       <c r="C20">
         <f t="shared" si="6"/>
-        <v>0.83636363636363642</v>
+        <v>0.18181818181818182</v>
       </c>
       <c r="D20">
         <f t="shared" si="6"/>
-        <v>2.1</v>
+        <v>1.6909090909090909</v>
       </c>
       <c r="E20">
         <f t="shared" si="7"/>
@@ -2280,7 +2280,7 @@
       </c>
       <c r="F20">
         <f t="shared" si="8"/>
-        <v>7.7272727272727275</v>
+        <v>11.818181818181818</v>
       </c>
       <c r="G20">
         <f t="shared" si="9"/>
@@ -2305,14 +2305,14 @@
       </c>
       <c r="M20">
         <f t="shared" si="2"/>
-        <v>11.818181818181818</v>
+        <v>95</v>
       </c>
       <c r="N20">
         <v>-1</v>
       </c>
       <c r="O20">
         <f t="shared" si="2"/>
-        <v>11.818181818181818</v>
+        <v>99.090909090909093</v>
       </c>
       <c r="P20">
         <v>-1</v>
@@ -2327,15 +2327,15 @@
       </c>
       <c r="B21">
         <f t="shared" si="5"/>
-        <v>20</v>
+        <v>9.6767676767676747</v>
       </c>
       <c r="C21">
         <f t="shared" si="6"/>
-        <v>0.82727272727272727</v>
+        <v>0.18080808080808081</v>
       </c>
       <c r="D21">
         <f t="shared" si="6"/>
-        <v>2.0777777777777779</v>
+        <v>1.6737373737373737</v>
       </c>
       <c r="E21">
         <f t="shared" si="7"/>
@@ -2343,7 +2343,7 @@
       </c>
       <c r="F21">
         <f t="shared" si="8"/>
-        <v>7.8787878787878789</v>
+        <v>11.919191919191919</v>
       </c>
       <c r="G21">
         <f t="shared" si="9"/>
@@ -2368,14 +2368,14 @@
       </c>
       <c r="M21">
         <f t="shared" si="2"/>
-        <v>11.919191919191919</v>
+        <v>100</v>
       </c>
       <c r="N21">
         <v>-1</v>
       </c>
       <c r="O21">
         <f t="shared" si="2"/>
-        <v>11.919191919191919</v>
+        <v>104.04040404040403</v>
       </c>
       <c r="P21">
         <v>-1</v>
@@ -2390,15 +2390,15 @@
       </c>
       <c r="B22">
         <f t="shared" si="5"/>
-        <v>21</v>
+        <v>10.180808080808079</v>
       </c>
       <c r="C22">
         <f t="shared" si="6"/>
-        <v>0.81818181818181812</v>
+        <v>0.17979797979797982</v>
       </c>
       <c r="D22">
         <f t="shared" si="6"/>
-        <v>2.0555555555555554</v>
+        <v>1.6565656565656566</v>
       </c>
       <c r="E22">
         <f t="shared" si="7"/>
@@ -2406,7 +2406,7 @@
       </c>
       <c r="F22">
         <f t="shared" si="8"/>
-        <v>8.0303030303030312</v>
+        <v>12.020202020202021</v>
       </c>
       <c r="G22">
         <f t="shared" si="9"/>
@@ -2431,14 +2431,14 @@
       </c>
       <c r="M22">
         <f t="shared" si="2"/>
-        <v>12.020202020202021</v>
+        <v>105</v>
       </c>
       <c r="N22">
         <v>-1</v>
       </c>
       <c r="O22">
         <f t="shared" si="2"/>
-        <v>12.020202020202021</v>
+        <v>108.98989898989899</v>
       </c>
       <c r="P22">
         <v>-1</v>
@@ -2453,15 +2453,15 @@
       </c>
       <c r="B23">
         <f t="shared" si="5"/>
-        <v>22</v>
+        <v>10.684848484848484</v>
       </c>
       <c r="C23">
         <f t="shared" si="6"/>
-        <v>0.80909090909090908</v>
+        <v>0.1787878787878788</v>
       </c>
       <c r="D23">
         <f t="shared" si="6"/>
-        <v>2.0333333333333332</v>
+        <v>1.6393939393939394</v>
       </c>
       <c r="E23">
         <f t="shared" si="7"/>
@@ -2469,7 +2469,7 @@
       </c>
       <c r="F23">
         <f t="shared" si="8"/>
-        <v>8.1818181818181817</v>
+        <v>12.121212121212121</v>
       </c>
       <c r="G23">
         <f t="shared" si="9"/>
@@ -2494,14 +2494,14 @@
       </c>
       <c r="M23">
         <f t="shared" si="2"/>
-        <v>12.121212121212121</v>
+        <v>110</v>
       </c>
       <c r="N23">
         <v>-1</v>
       </c>
       <c r="O23">
         <f t="shared" si="2"/>
-        <v>12.121212121212121</v>
+        <v>113.93939393939394</v>
       </c>
       <c r="P23">
         <v>-1</v>
@@ -2516,15 +2516,15 @@
       </c>
       <c r="B24">
         <f t="shared" si="5"/>
-        <v>23</v>
+        <v>11.188888888888888</v>
       </c>
       <c r="C24">
         <f t="shared" si="6"/>
-        <v>0.8</v>
+        <v>0.17777777777777778</v>
       </c>
       <c r="D24">
         <f t="shared" si="6"/>
-        <v>2.0111111111111111</v>
+        <v>1.6222222222222222</v>
       </c>
       <c r="E24">
         <f t="shared" si="7"/>
@@ -2532,7 +2532,7 @@
       </c>
       <c r="F24">
         <f t="shared" si="8"/>
-        <v>8.3333333333333321</v>
+        <v>12.222222222222221</v>
       </c>
       <c r="G24">
         <f t="shared" si="9"/>
@@ -2557,14 +2557,14 @@
       </c>
       <c r="M24">
         <f t="shared" si="2"/>
-        <v>12.222222222222221</v>
+        <v>115</v>
       </c>
       <c r="N24">
         <v>-1</v>
       </c>
       <c r="O24">
         <f t="shared" si="2"/>
-        <v>12.222222222222221</v>
+        <v>118.88888888888889</v>
       </c>
       <c r="P24">
         <v>-1</v>
@@ -2579,15 +2579,15 @@
       </c>
       <c r="B25">
         <f t="shared" si="5"/>
-        <v>24</v>
+        <v>11.692929292929293</v>
       </c>
       <c r="C25">
         <f t="shared" si="6"/>
-        <v>0.79090909090909089</v>
+        <v>0.17676767676767677</v>
       </c>
       <c r="D25">
         <f t="shared" si="6"/>
-        <v>1.9888888888888889</v>
+        <v>1.6050505050505051</v>
       </c>
       <c r="E25">
         <f t="shared" si="7"/>
@@ -2595,7 +2595,7 @@
       </c>
       <c r="F25">
         <f t="shared" si="8"/>
-        <v>8.4848484848484844</v>
+        <v>12.323232323232324</v>
       </c>
       <c r="G25">
         <f t="shared" si="9"/>
@@ -2620,14 +2620,14 @@
       </c>
       <c r="M25">
         <f t="shared" si="2"/>
-        <v>12.323232323232324</v>
+        <v>120</v>
       </c>
       <c r="N25">
         <v>-1</v>
       </c>
       <c r="O25">
         <f t="shared" si="2"/>
-        <v>12.323232323232324</v>
+        <v>123.83838383838383</v>
       </c>
       <c r="P25">
         <v>-1</v>
@@ -2642,15 +2642,15 @@
       </c>
       <c r="B26">
         <f t="shared" si="5"/>
-        <v>25</v>
+        <v>12.196969696969697</v>
       </c>
       <c r="C26">
         <f t="shared" si="6"/>
-        <v>0.78181818181818175</v>
+        <v>0.17575757575757578</v>
       </c>
       <c r="D26">
         <f t="shared" si="6"/>
-        <v>1.9666666666666666</v>
+        <v>1.5878787878787879</v>
       </c>
       <c r="E26">
         <f t="shared" si="7"/>
@@ -2658,7 +2658,7 @@
       </c>
       <c r="F26">
         <f t="shared" si="8"/>
-        <v>8.6363636363636367</v>
+        <v>12.424242424242424</v>
       </c>
       <c r="G26">
         <f t="shared" si="9"/>
@@ -2683,14 +2683,14 @@
       </c>
       <c r="M26">
         <f t="shared" si="2"/>
-        <v>12.424242424242424</v>
+        <v>125</v>
       </c>
       <c r="N26">
         <v>-1</v>
       </c>
       <c r="O26">
         <f t="shared" si="2"/>
-        <v>12.424242424242424</v>
+        <v>128.78787878787881</v>
       </c>
       <c r="P26">
         <v>-1</v>
@@ -2705,15 +2705,15 @@
       </c>
       <c r="B27">
         <f t="shared" si="5"/>
-        <v>26</v>
+        <v>12.701010101010102</v>
       </c>
       <c r="C27">
         <f t="shared" si="6"/>
-        <v>0.77272727272727271</v>
+        <v>0.17474747474747476</v>
       </c>
       <c r="D27">
         <f t="shared" si="6"/>
-        <v>1.9444444444444442</v>
+        <v>1.5707070707070707</v>
       </c>
       <c r="E27">
         <f t="shared" si="7"/>
@@ -2721,7 +2721,7 @@
       </c>
       <c r="F27">
         <f t="shared" si="8"/>
-        <v>8.787878787878789</v>
+        <v>12.525252525252526</v>
       </c>
       <c r="G27">
         <f t="shared" si="9"/>
@@ -2746,14 +2746,14 @@
       </c>
       <c r="M27">
         <f t="shared" si="2"/>
-        <v>12.525252525252526</v>
+        <v>130</v>
       </c>
       <c r="N27">
         <v>-1</v>
       </c>
       <c r="O27">
         <f t="shared" si="2"/>
-        <v>12.525252525252526</v>
+        <v>133.73737373737373</v>
       </c>
       <c r="P27">
         <v>-1</v>
@@ -2768,15 +2768,15 @@
       </c>
       <c r="B28">
         <f t="shared" si="5"/>
-        <v>27.000000000000004</v>
+        <v>13.205050505050506</v>
       </c>
       <c r="C28">
         <f t="shared" si="6"/>
-        <v>0.76363636363636367</v>
+        <v>0.17373737373737375</v>
       </c>
       <c r="D28">
         <f t="shared" si="6"/>
-        <v>1.9222222222222221</v>
+        <v>1.5535353535353535</v>
       </c>
       <c r="E28">
         <f t="shared" si="7"/>
@@ -2784,7 +2784,7 @@
       </c>
       <c r="F28">
         <f t="shared" si="8"/>
-        <v>8.9393939393939394</v>
+        <v>12.626262626262626</v>
       </c>
       <c r="G28">
         <f t="shared" si="9"/>
@@ -2809,14 +2809,14 @@
       </c>
       <c r="M28">
         <f t="shared" si="2"/>
-        <v>12.626262626262626</v>
+        <v>135</v>
       </c>
       <c r="N28">
         <v>-1</v>
       </c>
       <c r="O28">
         <f t="shared" si="2"/>
-        <v>12.626262626262626</v>
+        <v>138.68686868686871</v>
       </c>
       <c r="P28">
         <v>-1</v>
@@ -2831,15 +2831,15 @@
       </c>
       <c r="B29">
         <f t="shared" si="5"/>
-        <v>27.999999999999996</v>
+        <v>13.709090909090907</v>
       </c>
       <c r="C29">
         <f t="shared" si="6"/>
-        <v>0.75454545454545452</v>
+        <v>0.17272727272727273</v>
       </c>
       <c r="D29">
         <f t="shared" si="6"/>
-        <v>1.9</v>
+        <v>1.5363636363636364</v>
       </c>
       <c r="E29">
         <f t="shared" si="7"/>
@@ -2847,7 +2847,7 @@
       </c>
       <c r="F29">
         <f t="shared" si="8"/>
-        <v>9.0909090909090899</v>
+        <v>12.727272727272727</v>
       </c>
       <c r="G29">
         <f t="shared" si="9"/>
@@ -2872,14 +2872,14 @@
       </c>
       <c r="M29">
         <f t="shared" si="2"/>
-        <v>12.727272727272727</v>
+        <v>140</v>
       </c>
       <c r="N29">
         <v>-1</v>
       </c>
       <c r="O29">
         <f t="shared" si="2"/>
-        <v>12.727272727272727</v>
+        <v>143.63636363636363</v>
       </c>
       <c r="P29">
         <v>-1</v>
@@ -2894,15 +2894,15 @@
       </c>
       <c r="B30">
         <f t="shared" si="5"/>
-        <v>29</v>
+        <v>14.213131313131312</v>
       </c>
       <c r="C30">
         <f t="shared" si="6"/>
-        <v>0.74545454545454548</v>
+        <v>0.17171717171717171</v>
       </c>
       <c r="D30">
         <f t="shared" si="6"/>
-        <v>1.8777777777777778</v>
+        <v>1.5191919191919192</v>
       </c>
       <c r="E30">
         <f t="shared" si="7"/>
@@ -2910,7 +2910,7 @@
       </c>
       <c r="F30">
         <f t="shared" si="8"/>
-        <v>9.2424242424242422</v>
+        <v>12.828282828282829</v>
       </c>
       <c r="G30">
         <f t="shared" si="9"/>
@@ -2935,14 +2935,14 @@
       </c>
       <c r="M30">
         <f t="shared" si="2"/>
-        <v>12.828282828282829</v>
+        <v>145</v>
       </c>
       <c r="N30">
         <v>-1</v>
       </c>
       <c r="O30">
         <f t="shared" si="2"/>
-        <v>12.828282828282829</v>
+        <v>148.58585858585857</v>
       </c>
       <c r="P30">
         <v>-1</v>
@@ -2957,15 +2957,15 @@
       </c>
       <c r="B31">
         <f t="shared" si="5"/>
-        <v>30</v>
+        <v>14.717171717171716</v>
       </c>
       <c r="C31">
         <f t="shared" si="6"/>
-        <v>0.73636363636363633</v>
+        <v>0.17070707070707072</v>
       </c>
       <c r="D31">
         <f t="shared" si="6"/>
-        <v>1.8555555555555556</v>
+        <v>1.502020202020202</v>
       </c>
       <c r="E31">
         <f t="shared" si="7"/>
@@ -2973,7 +2973,7 @@
       </c>
       <c r="F31">
         <f t="shared" si="8"/>
-        <v>9.3939393939393945</v>
+        <v>12.929292929292929</v>
       </c>
       <c r="G31">
         <f t="shared" si="9"/>
@@ -2998,14 +2998,14 @@
       </c>
       <c r="M31">
         <f t="shared" si="2"/>
-        <v>12.929292929292929</v>
+        <v>150</v>
       </c>
       <c r="N31">
         <v>-1</v>
       </c>
       <c r="O31">
         <f t="shared" si="2"/>
-        <v>12.929292929292929</v>
+        <v>153.53535353535352</v>
       </c>
       <c r="P31">
         <v>-1</v>
@@ -3020,15 +3020,15 @@
       </c>
       <c r="B32">
         <f t="shared" si="5"/>
-        <v>31</v>
+        <v>15.221212121212121</v>
       </c>
       <c r="C32">
         <f t="shared" si="6"/>
-        <v>0.72727272727272729</v>
+        <v>0.16969696969696971</v>
       </c>
       <c r="D32">
         <f t="shared" si="6"/>
-        <v>1.8333333333333333</v>
+        <v>1.4848484848484849</v>
       </c>
       <c r="E32">
         <f t="shared" si="7"/>
@@ -3036,7 +3036,7 @@
       </c>
       <c r="F32">
         <f t="shared" si="8"/>
-        <v>9.5454545454545467</v>
+        <v>13.030303030303031</v>
       </c>
       <c r="G32">
         <f t="shared" si="9"/>
@@ -3061,14 +3061,14 @@
       </c>
       <c r="M32">
         <f t="shared" si="2"/>
-        <v>13.030303030303031</v>
+        <v>155</v>
       </c>
       <c r="N32">
         <v>-1</v>
       </c>
       <c r="O32">
         <f t="shared" si="2"/>
-        <v>13.030303030303031</v>
+        <v>158.4848484848485</v>
       </c>
       <c r="P32">
         <v>-1</v>
@@ -3083,15 +3083,15 @@
       </c>
       <c r="B33">
         <f t="shared" si="5"/>
-        <v>32</v>
+        <v>15.725252525252525</v>
       </c>
       <c r="C33">
         <f t="shared" si="6"/>
-        <v>0.71818181818181814</v>
+        <v>0.16868686868686869</v>
       </c>
       <c r="D33">
         <f t="shared" si="6"/>
-        <v>1.8111111111111109</v>
+        <v>1.4676767676767677</v>
       </c>
       <c r="E33">
         <f t="shared" si="7"/>
@@ -3099,7 +3099,7 @@
       </c>
       <c r="F33">
         <f t="shared" si="8"/>
-        <v>9.6969696969696972</v>
+        <v>13.131313131313131</v>
       </c>
       <c r="G33">
         <f t="shared" si="9"/>
@@ -3124,14 +3124,14 @@
       </c>
       <c r="M33">
         <f t="shared" si="2"/>
-        <v>13.131313131313131</v>
+        <v>160</v>
       </c>
       <c r="N33">
         <v>-1</v>
       </c>
       <c r="O33">
         <f t="shared" si="2"/>
-        <v>13.131313131313131</v>
+        <v>163.43434343434345</v>
       </c>
       <c r="P33">
         <v>-1</v>
@@ -3146,15 +3146,15 @@
       </c>
       <c r="B34">
         <f t="shared" si="5"/>
-        <v>33</v>
+        <v>16.229292929292932</v>
       </c>
       <c r="C34">
         <f t="shared" si="6"/>
-        <v>0.70909090909090899</v>
+        <v>0.16767676767676767</v>
       </c>
       <c r="D34">
         <f t="shared" si="6"/>
-        <v>1.7888888888888888</v>
+        <v>1.4505050505050505</v>
       </c>
       <c r="E34">
         <f t="shared" si="7"/>
@@ -3162,7 +3162,7 @@
       </c>
       <c r="F34">
         <f t="shared" si="8"/>
-        <v>9.8484848484848477</v>
+        <v>13.232323232323232</v>
       </c>
       <c r="G34">
         <f t="shared" si="9"/>
@@ -3187,14 +3187,14 @@
       </c>
       <c r="M34">
         <f t="shared" si="2"/>
-        <v>13.232323232323232</v>
+        <v>165</v>
       </c>
       <c r="N34">
         <v>-1</v>
       </c>
       <c r="O34">
         <f t="shared" si="2"/>
-        <v>13.232323232323232</v>
+        <v>168.38383838383839</v>
       </c>
       <c r="P34">
         <v>-1</v>
@@ -3209,15 +3209,15 @@
       </c>
       <c r="B35">
         <f t="shared" si="5"/>
-        <v>34</v>
+        <v>16.733333333333334</v>
       </c>
       <c r="C35">
         <f t="shared" si="6"/>
-        <v>0.7</v>
+        <v>0.16666666666666669</v>
       </c>
       <c r="D35">
         <f t="shared" si="6"/>
-        <v>1.7666666666666666</v>
+        <v>1.4333333333333333</v>
       </c>
       <c r="E35">
         <f t="shared" si="7"/>
@@ -3225,7 +3225,7 @@
       </c>
       <c r="F35">
         <f t="shared" si="8"/>
-        <v>10</v>
+        <v>13.333333333333332</v>
       </c>
       <c r="G35">
         <f t="shared" si="9"/>
@@ -3250,14 +3250,14 @@
       </c>
       <c r="M35">
         <f t="shared" si="2"/>
-        <v>13.333333333333332</v>
+        <v>170</v>
       </c>
       <c r="N35">
         <v>-1</v>
       </c>
       <c r="O35">
         <f t="shared" si="2"/>
-        <v>13.333333333333332</v>
+        <v>173.33333333333331</v>
       </c>
       <c r="P35">
         <v>-1</v>
@@ -3272,15 +3272,15 @@
       </c>
       <c r="B36">
         <f t="shared" si="5"/>
-        <v>35</v>
+        <v>17.237373737373737</v>
       </c>
       <c r="C36">
         <f t="shared" si="6"/>
-        <v>0.69090909090909092</v>
+        <v>0.16565656565656567</v>
       </c>
       <c r="D36">
         <f t="shared" si="6"/>
-        <v>1.7444444444444445</v>
+        <v>1.4161616161616162</v>
       </c>
       <c r="E36">
         <f t="shared" si="7"/>
@@ -3288,7 +3288,7 @@
       </c>
       <c r="F36">
         <f t="shared" si="8"/>
-        <v>10.151515151515152</v>
+        <v>13.434343434343434</v>
       </c>
       <c r="G36">
         <f t="shared" si="9"/>
@@ -3313,14 +3313,14 @@
       </c>
       <c r="M36">
         <f t="shared" si="2"/>
-        <v>13.434343434343434</v>
+        <v>175</v>
       </c>
       <c r="N36">
         <v>-1</v>
       </c>
       <c r="O36">
         <f t="shared" si="2"/>
-        <v>13.434343434343434</v>
+        <v>178.28282828282829</v>
       </c>
       <c r="P36">
         <v>-1</v>
@@ -3335,15 +3335,15 @@
       </c>
       <c r="B37">
         <f t="shared" si="5"/>
-        <v>36</v>
+        <v>17.741414141414143</v>
       </c>
       <c r="C37">
         <f t="shared" si="6"/>
-        <v>0.68181818181818188</v>
+        <v>0.16464646464646465</v>
       </c>
       <c r="D37">
         <f t="shared" si="6"/>
-        <v>1.7222222222222223</v>
+        <v>1.398989898989899</v>
       </c>
       <c r="E37">
         <f t="shared" si="7"/>
@@ -3351,7 +3351,7 @@
       </c>
       <c r="F37">
         <f t="shared" si="8"/>
-        <v>10.303030303030303</v>
+        <v>13.535353535353536</v>
       </c>
       <c r="G37">
         <f t="shared" si="9"/>
@@ -3376,14 +3376,14 @@
       </c>
       <c r="M37">
         <f t="shared" si="2"/>
-        <v>13.535353535353536</v>
+        <v>180</v>
       </c>
       <c r="N37">
         <v>-1</v>
       </c>
       <c r="O37">
         <f t="shared" si="2"/>
-        <v>13.535353535353536</v>
+        <v>183.23232323232324</v>
       </c>
       <c r="P37">
         <v>-1</v>
@@ -3398,15 +3398,15 @@
       </c>
       <c r="B38">
         <f t="shared" si="5"/>
-        <v>37</v>
+        <v>18.245454545454546</v>
       </c>
       <c r="C38">
         <f t="shared" si="6"/>
-        <v>0.67272727272727273</v>
+        <v>0.16363636363636364</v>
       </c>
       <c r="D38">
         <f t="shared" si="6"/>
-        <v>1.7</v>
+        <v>1.3818181818181818</v>
       </c>
       <c r="E38">
         <f t="shared" si="7"/>
@@ -3414,7 +3414,7 @@
       </c>
       <c r="F38">
         <f t="shared" si="8"/>
-        <v>10.454545454545455</v>
+        <v>13.636363636363637</v>
       </c>
       <c r="G38">
         <f t="shared" si="9"/>
@@ -3439,14 +3439,14 @@
       </c>
       <c r="M38">
         <f t="shared" si="2"/>
-        <v>13.636363636363637</v>
+        <v>185</v>
       </c>
       <c r="N38">
         <v>-1</v>
       </c>
       <c r="O38">
         <f t="shared" si="2"/>
-        <v>13.636363636363637</v>
+        <v>188.18181818181819</v>
       </c>
       <c r="P38">
         <v>-1</v>
@@ -3461,15 +3461,15 @@
       </c>
       <c r="B39">
         <f t="shared" si="5"/>
-        <v>38</v>
+        <v>18.749494949494952</v>
       </c>
       <c r="C39">
         <f t="shared" si="6"/>
-        <v>0.66363636363636358</v>
+        <v>0.16262626262626262</v>
       </c>
       <c r="D39">
         <f t="shared" si="6"/>
-        <v>1.6777777777777776</v>
+        <v>1.3646464646464647</v>
       </c>
       <c r="E39">
         <f t="shared" si="7"/>
@@ -3477,7 +3477,7 @@
       </c>
       <c r="F39">
         <f t="shared" si="8"/>
-        <v>10.606060606060606</v>
+        <v>13.737373737373737</v>
       </c>
       <c r="G39">
         <f t="shared" si="9"/>
@@ -3502,14 +3502,14 @@
       </c>
       <c r="M39">
         <f t="shared" si="2"/>
-        <v>13.737373737373737</v>
+        <v>190</v>
       </c>
       <c r="N39">
         <v>-1</v>
       </c>
       <c r="O39">
         <f t="shared" si="2"/>
-        <v>13.737373737373737</v>
+        <v>193.13131313131314</v>
       </c>
       <c r="P39">
         <v>-1</v>
@@ -3524,15 +3524,15 @@
       </c>
       <c r="B40">
         <f t="shared" si="5"/>
-        <v>39</v>
+        <v>19.253535353535352</v>
       </c>
       <c r="C40">
         <f t="shared" si="6"/>
-        <v>0.65454545454545454</v>
+        <v>0.16161616161616163</v>
       </c>
       <c r="D40">
         <f t="shared" si="6"/>
-        <v>1.6555555555555554</v>
+        <v>1.3474747474747475</v>
       </c>
       <c r="E40">
         <f t="shared" si="7"/>
@@ -3540,7 +3540,7 @@
       </c>
       <c r="F40">
         <f t="shared" si="8"/>
-        <v>10.757575757575758</v>
+        <v>13.838383838383837</v>
       </c>
       <c r="G40">
         <f t="shared" si="9"/>
@@ -3565,14 +3565,14 @@
       </c>
       <c r="M40">
         <f t="shared" si="2"/>
-        <v>13.838383838383837</v>
+        <v>195</v>
       </c>
       <c r="N40">
         <v>-1</v>
       </c>
       <c r="O40">
         <f t="shared" si="2"/>
-        <v>13.838383838383837</v>
+        <v>198.08080808080805</v>
       </c>
       <c r="P40">
         <v>-1</v>
@@ -3587,15 +3587,15 @@
       </c>
       <c r="B41">
         <f t="shared" si="5"/>
-        <v>40</v>
+        <v>19.757575757575758</v>
       </c>
       <c r="C41">
         <f t="shared" si="6"/>
-        <v>0.6454545454545455</v>
+        <v>0.16060606060606061</v>
       </c>
       <c r="D41">
         <f t="shared" si="6"/>
-        <v>1.6333333333333333</v>
+        <v>1.3303030303030303</v>
       </c>
       <c r="E41">
         <f t="shared" si="7"/>
@@ -3603,7 +3603,7 @@
       </c>
       <c r="F41">
         <f t="shared" si="8"/>
-        <v>10.90909090909091</v>
+        <v>13.939393939393939</v>
       </c>
       <c r="G41">
         <f t="shared" si="9"/>
@@ -3628,14 +3628,14 @@
       </c>
       <c r="M41">
         <f t="shared" si="2"/>
-        <v>13.939393939393939</v>
+        <v>200</v>
       </c>
       <c r="N41">
         <v>-1</v>
       </c>
       <c r="O41">
         <f t="shared" si="2"/>
-        <v>13.939393939393939</v>
+        <v>203.03030303030303</v>
       </c>
       <c r="P41">
         <v>-1</v>
@@ -3650,15 +3650,15 @@
       </c>
       <c r="B42">
         <f t="shared" si="5"/>
-        <v>41</v>
+        <v>20.261616161616161</v>
       </c>
       <c r="C42">
         <f t="shared" si="6"/>
-        <v>0.63636363636363635</v>
+        <v>0.1595959595959596</v>
       </c>
       <c r="D42">
         <f t="shared" si="6"/>
-        <v>1.6111111111111112</v>
+        <v>1.3131313131313131</v>
       </c>
       <c r="E42">
         <f t="shared" si="7"/>
@@ -3666,7 +3666,7 @@
       </c>
       <c r="F42">
         <f t="shared" si="8"/>
-        <v>11.060606060606061</v>
+        <v>14.040404040404042</v>
       </c>
       <c r="G42">
         <f t="shared" si="9"/>
@@ -3691,14 +3691,14 @@
       </c>
       <c r="M42">
         <f t="shared" si="2"/>
-        <v>14.040404040404042</v>
+        <v>205</v>
       </c>
       <c r="N42">
         <v>-1</v>
       </c>
       <c r="O42">
         <f t="shared" si="2"/>
-        <v>14.040404040404042</v>
+        <v>207.97979797979798</v>
       </c>
       <c r="P42">
         <v>-1</v>
@@ -3713,15 +3713,15 @@
       </c>
       <c r="B43">
         <f t="shared" si="5"/>
-        <v>42</v>
+        <v>20.765656565656567</v>
       </c>
       <c r="C43">
         <f t="shared" si="6"/>
-        <v>0.6272727272727272</v>
+        <v>0.15858585858585861</v>
       </c>
       <c r="D43">
         <f t="shared" si="6"/>
-        <v>1.5888888888888888</v>
+        <v>1.295959595959596</v>
       </c>
       <c r="E43">
         <f t="shared" si="7"/>
@@ -3729,7 +3729,7 @@
       </c>
       <c r="F43">
         <f t="shared" si="8"/>
-        <v>11.212121212121211</v>
+        <v>14.141414141414142</v>
       </c>
       <c r="G43">
         <f t="shared" si="9"/>
@@ -3754,14 +3754,14 @@
       </c>
       <c r="M43">
         <f t="shared" si="2"/>
-        <v>14.141414141414142</v>
+        <v>210</v>
       </c>
       <c r="N43">
         <v>-1</v>
       </c>
       <c r="O43">
         <f t="shared" si="2"/>
-        <v>14.141414141414142</v>
+        <v>212.92929292929293</v>
       </c>
       <c r="P43">
         <v>-1</v>
@@ -3776,15 +3776,15 @@
       </c>
       <c r="B44">
         <f t="shared" si="5"/>
-        <v>43</v>
+        <v>21.26969696969697</v>
       </c>
       <c r="C44">
         <f t="shared" si="6"/>
-        <v>0.61818181818181817</v>
+        <v>0.15757575757575759</v>
       </c>
       <c r="D44">
         <f t="shared" si="6"/>
-        <v>1.5666666666666664</v>
+        <v>1.2787878787878788</v>
       </c>
       <c r="E44">
         <f t="shared" si="7"/>
@@ -3792,7 +3792,7 @@
       </c>
       <c r="F44">
         <f t="shared" si="8"/>
-        <v>11.363636363636363</v>
+        <v>14.242424242424242</v>
       </c>
       <c r="G44">
         <f t="shared" si="9"/>
@@ -3817,14 +3817,14 @@
       </c>
       <c r="M44">
         <f t="shared" si="2"/>
-        <v>14.242424242424242</v>
+        <v>215</v>
       </c>
       <c r="N44">
         <v>-1</v>
       </c>
       <c r="O44">
         <f t="shared" si="2"/>
-        <v>14.242424242424242</v>
+        <v>217.87878787878788</v>
       </c>
       <c r="P44">
         <v>-1</v>
@@ -3839,15 +3839,15 @@
       </c>
       <c r="B45">
         <f t="shared" si="5"/>
-        <v>44</v>
+        <v>21.773737373737376</v>
       </c>
       <c r="C45">
         <f t="shared" si="6"/>
-        <v>0.60909090909090913</v>
+        <v>0.15656565656565657</v>
       </c>
       <c r="D45">
         <f t="shared" si="6"/>
-        <v>1.5444444444444443</v>
+        <v>1.2616161616161616</v>
       </c>
       <c r="E45">
         <f t="shared" si="7"/>
@@ -3855,7 +3855,7 @@
       </c>
       <c r="F45">
         <f t="shared" si="8"/>
-        <v>11.515151515151516</v>
+        <v>14.343434343434343</v>
       </c>
       <c r="G45">
         <f t="shared" si="9"/>
@@ -3880,14 +3880,14 @@
       </c>
       <c r="M45">
         <f t="shared" si="2"/>
-        <v>14.343434343434343</v>
+        <v>220</v>
       </c>
       <c r="N45">
         <v>-1</v>
       </c>
       <c r="O45">
         <f t="shared" si="2"/>
-        <v>14.343434343434343</v>
+        <v>222.82828282828285</v>
       </c>
       <c r="P45">
         <v>-1</v>
@@ -3902,15 +3902,15 @@
       </c>
       <c r="B46">
         <f t="shared" si="5"/>
-        <v>45</v>
+        <v>22.277777777777779</v>
       </c>
       <c r="C46">
         <f t="shared" ref="C46:C77" si="11">(C$2+((SUM(A46-1)/SUM(A$101-1))*(SUM(C$101-C$2))))</f>
-        <v>0.60000000000000009</v>
+        <v>0.15555555555555556</v>
       </c>
       <c r="D46">
         <f t="shared" si="6"/>
-        <v>1.5222222222222221</v>
+        <v>1.2444444444444445</v>
       </c>
       <c r="E46">
         <f t="shared" si="7"/>
@@ -3918,7 +3918,7 @@
       </c>
       <c r="F46">
         <f t="shared" si="8"/>
-        <v>11.666666666666666</v>
+        <v>14.444444444444445</v>
       </c>
       <c r="G46">
         <f t="shared" si="9"/>
@@ -3943,14 +3943,14 @@
       </c>
       <c r="M46">
         <f t="shared" si="2"/>
-        <v>14.444444444444445</v>
+        <v>225</v>
       </c>
       <c r="N46">
         <v>-1</v>
       </c>
       <c r="O46">
         <f t="shared" si="2"/>
-        <v>14.444444444444445</v>
+        <v>227.77777777777777</v>
       </c>
       <c r="P46">
         <v>-1</v>
@@ -3965,15 +3965,15 @@
       </c>
       <c r="B47">
         <f t="shared" si="5"/>
-        <v>46</v>
+        <v>22.781818181818181</v>
       </c>
       <c r="C47">
         <f t="shared" si="11"/>
-        <v>0.59090909090909094</v>
+        <v>0.15454545454545454</v>
       </c>
       <c r="D47">
         <f t="shared" ref="D47:D100" si="12">(D$2+((SUM($A47-1)/SUM($A$101-1))*(SUM(D$101-D$2))))</f>
-        <v>1.5</v>
+        <v>1.2272727272727273</v>
       </c>
       <c r="E47">
         <f t="shared" si="7"/>
@@ -3981,7 +3981,7 @@
       </c>
       <c r="F47">
         <f t="shared" si="8"/>
-        <v>11.818181818181818</v>
+        <v>14.545454545454545</v>
       </c>
       <c r="G47">
         <f t="shared" si="9"/>
@@ -4006,14 +4006,14 @@
       </c>
       <c r="M47">
         <f t="shared" si="2"/>
-        <v>14.545454545454545</v>
+        <v>230</v>
       </c>
       <c r="N47">
         <v>-1</v>
       </c>
       <c r="O47">
         <f t="shared" si="2"/>
-        <v>14.545454545454545</v>
+        <v>232.72727272727272</v>
       </c>
       <c r="P47">
         <v>-1</v>
@@ -4028,15 +4028,15 @@
       </c>
       <c r="B48">
         <f t="shared" si="5"/>
-        <v>47</v>
+        <v>23.285858585858588</v>
       </c>
       <c r="C48">
         <f t="shared" si="11"/>
-        <v>0.58181818181818179</v>
+        <v>0.15353535353535355</v>
       </c>
       <c r="D48">
         <f t="shared" si="12"/>
-        <v>1.4777777777777776</v>
+        <v>1.2101010101010101</v>
       </c>
       <c r="E48">
         <f t="shared" si="7"/>
@@ -4044,7 +4044,7 @@
       </c>
       <c r="F48">
         <f t="shared" si="8"/>
-        <v>11.969696969696969</v>
+        <v>14.646464646464647</v>
       </c>
       <c r="G48">
         <f t="shared" si="9"/>
@@ -4069,14 +4069,14 @@
       </c>
       <c r="M48">
         <f t="shared" si="2"/>
-        <v>14.646464646464647</v>
+        <v>235</v>
       </c>
       <c r="N48">
         <v>-1</v>
       </c>
       <c r="O48">
         <f t="shared" si="2"/>
-        <v>14.646464646464647</v>
+        <v>237.67676767676767</v>
       </c>
       <c r="P48">
         <v>-1</v>
@@ -4091,15 +4091,15 @@
       </c>
       <c r="B49">
         <f t="shared" si="5"/>
-        <v>48</v>
+        <v>23.78989898989899</v>
       </c>
       <c r="C49">
         <f t="shared" si="11"/>
-        <v>0.57272727272727275</v>
+        <v>0.15252525252525254</v>
       </c>
       <c r="D49">
         <f t="shared" si="12"/>
-        <v>1.4555555555555555</v>
+        <v>1.192929292929293</v>
       </c>
       <c r="E49">
         <f t="shared" si="7"/>
@@ -4107,7 +4107,7 @@
       </c>
       <c r="F49">
         <f t="shared" si="8"/>
-        <v>12.121212121212121</v>
+        <v>14.747474747474747</v>
       </c>
       <c r="G49">
         <f t="shared" si="9"/>
@@ -4132,14 +4132,14 @@
       </c>
       <c r="M49">
         <f t="shared" si="2"/>
-        <v>14.747474747474747</v>
+        <v>240</v>
       </c>
       <c r="N49">
         <v>-1</v>
       </c>
       <c r="O49">
         <f t="shared" si="2"/>
-        <v>14.747474747474747</v>
+        <v>242.62626262626262</v>
       </c>
       <c r="P49">
         <v>-1</v>
@@ -4154,15 +4154,15 @@
       </c>
       <c r="B50">
         <f t="shared" si="5"/>
-        <v>49</v>
+        <v>24.293939393939397</v>
       </c>
       <c r="C50">
         <f t="shared" si="11"/>
-        <v>0.5636363636363636</v>
+        <v>0.15151515151515152</v>
       </c>
       <c r="D50">
         <f t="shared" si="12"/>
-        <v>1.4333333333333331</v>
+        <v>1.1757575757575758</v>
       </c>
       <c r="E50">
         <f t="shared" si="7"/>
@@ -4170,7 +4170,7 @@
       </c>
       <c r="F50">
         <f t="shared" si="8"/>
-        <v>12.272727272727273</v>
+        <v>14.848484848484848</v>
       </c>
       <c r="G50">
         <f t="shared" si="9"/>
@@ -4195,14 +4195,14 @@
       </c>
       <c r="M50">
         <f t="shared" si="2"/>
-        <v>14.848484848484848</v>
+        <v>245</v>
       </c>
       <c r="N50">
         <v>-1</v>
       </c>
       <c r="O50">
         <f t="shared" si="2"/>
-        <v>14.848484848484848</v>
+        <v>247.57575757575759</v>
       </c>
       <c r="P50">
         <v>-1</v>
@@ -4217,15 +4217,15 @@
       </c>
       <c r="B51">
         <f t="shared" si="5"/>
-        <v>50</v>
+        <v>24.797979797979799</v>
       </c>
       <c r="C51">
         <f t="shared" si="11"/>
-        <v>0.55454545454545445</v>
+        <v>0.1505050505050505</v>
       </c>
       <c r="D51">
         <f t="shared" si="12"/>
-        <v>1.411111111111111</v>
+        <v>1.1585858585858586</v>
       </c>
       <c r="E51">
         <f t="shared" si="7"/>
@@ -4233,7 +4233,7 @@
       </c>
       <c r="F51">
         <f t="shared" si="8"/>
-        <v>12.424242424242426</v>
+        <v>14.94949494949495</v>
       </c>
       <c r="G51">
         <f t="shared" si="9"/>
@@ -4258,14 +4258,14 @@
       </c>
       <c r="M51">
         <f t="shared" si="2"/>
-        <v>14.94949494949495</v>
+        <v>250</v>
       </c>
       <c r="N51">
         <v>-1</v>
       </c>
       <c r="O51">
         <f t="shared" si="2"/>
-        <v>14.94949494949495</v>
+        <v>252.52525252525254</v>
       </c>
       <c r="P51">
         <v>-1</v>
@@ -4280,15 +4280,15 @@
       </c>
       <c r="B52">
         <f t="shared" si="5"/>
-        <v>51</v>
+        <v>25.302020202020206</v>
       </c>
       <c r="C52">
         <f t="shared" si="11"/>
-        <v>0.54545454545454541</v>
+        <v>0.14949494949494951</v>
       </c>
       <c r="D52">
         <f t="shared" si="12"/>
-        <v>1.3888888888888886</v>
+        <v>1.1414141414141414</v>
       </c>
       <c r="E52">
         <f t="shared" si="7"/>
@@ -4296,7 +4296,7 @@
       </c>
       <c r="F52">
         <f t="shared" si="8"/>
-        <v>12.575757575757576</v>
+        <v>15.050505050505052</v>
       </c>
       <c r="G52">
         <f t="shared" si="9"/>
@@ -4321,14 +4321,14 @@
       </c>
       <c r="M52">
         <f t="shared" si="2"/>
-        <v>15.050505050505052</v>
+        <v>255.00000000000003</v>
       </c>
       <c r="N52">
         <v>-1</v>
       </c>
       <c r="O52">
         <f t="shared" si="2"/>
-        <v>15.050505050505052</v>
+        <v>257.47474747474746</v>
       </c>
       <c r="P52">
         <v>-1</v>
@@ -4343,15 +4343,15 @@
       </c>
       <c r="B53">
         <f t="shared" si="5"/>
-        <v>52</v>
+        <v>25.806060606060605</v>
       </c>
       <c r="C53">
         <f t="shared" si="11"/>
-        <v>0.53636363636363638</v>
+        <v>0.1484848484848485</v>
       </c>
       <c r="D53">
         <f t="shared" si="12"/>
-        <v>1.3666666666666667</v>
+        <v>1.1242424242424243</v>
       </c>
       <c r="E53">
         <f t="shared" si="7"/>
@@ -4359,7 +4359,7 @@
       </c>
       <c r="F53">
         <f t="shared" si="8"/>
-        <v>12.727272727272727</v>
+        <v>15.151515151515152</v>
       </c>
       <c r="G53">
         <f t="shared" si="9"/>
@@ -4384,14 +4384,14 @@
       </c>
       <c r="M53">
         <f t="shared" si="2"/>
-        <v>15.151515151515152</v>
+        <v>260</v>
       </c>
       <c r="N53">
         <v>-1</v>
       </c>
       <c r="O53">
         <f t="shared" si="2"/>
-        <v>15.151515151515152</v>
+        <v>262.42424242424238</v>
       </c>
       <c r="P53">
         <v>-1</v>
@@ -4406,15 +4406,15 @@
       </c>
       <c r="B54">
         <f t="shared" si="5"/>
-        <v>53.000000000000007</v>
+        <v>26.310101010101015</v>
       </c>
       <c r="C54">
         <f t="shared" si="11"/>
-        <v>0.52727272727272723</v>
+        <v>0.14747474747474748</v>
       </c>
       <c r="D54">
         <f t="shared" si="12"/>
-        <v>1.3444444444444443</v>
+        <v>1.1070707070707071</v>
       </c>
       <c r="E54">
         <f t="shared" si="7"/>
@@ -4422,7 +4422,7 @@
       </c>
       <c r="F54">
         <f t="shared" si="8"/>
-        <v>12.878787878787879</v>
+        <v>15.252525252525253</v>
       </c>
       <c r="G54">
         <f t="shared" si="9"/>
@@ -4447,14 +4447,14 @@
       </c>
       <c r="M54">
         <f t="shared" si="2"/>
-        <v>15.252525252525253</v>
+        <v>265</v>
       </c>
       <c r="N54">
         <v>-1</v>
       </c>
       <c r="O54">
         <f t="shared" si="2"/>
-        <v>15.252525252525253</v>
+        <v>267.37373737373741</v>
       </c>
       <c r="P54">
         <v>-1</v>
@@ -4469,15 +4469,15 @@
       </c>
       <c r="B55">
         <f t="shared" si="5"/>
-        <v>54</v>
+        <v>26.814141414141414</v>
       </c>
       <c r="C55">
         <f t="shared" si="11"/>
-        <v>0.51818181818181819</v>
+        <v>0.14646464646464646</v>
       </c>
       <c r="D55">
         <f t="shared" si="12"/>
-        <v>1.3222222222222222</v>
+        <v>1.0898989898989899</v>
       </c>
       <c r="E55">
         <f t="shared" si="7"/>
@@ -4485,7 +4485,7 @@
       </c>
       <c r="F55">
         <f t="shared" si="8"/>
-        <v>13.030303030303031</v>
+        <v>15.353535353535353</v>
       </c>
       <c r="G55">
         <f t="shared" si="9"/>
@@ -4510,14 +4510,14 @@
       </c>
       <c r="M55">
         <f t="shared" si="2"/>
-        <v>15.353535353535353</v>
+        <v>270</v>
       </c>
       <c r="N55">
         <v>-1</v>
       </c>
       <c r="O55">
         <f t="shared" si="2"/>
-        <v>15.353535353535353</v>
+        <v>272.32323232323233</v>
       </c>
       <c r="P55">
         <v>-1</v>
@@ -4532,15 +4532,15 @@
       </c>
       <c r="B56">
         <f t="shared" si="5"/>
-        <v>54.999999999999993</v>
+        <v>27.318181818181817</v>
       </c>
       <c r="C56">
         <f t="shared" si="11"/>
-        <v>0.50909090909090904</v>
+        <v>0.14545454545454548</v>
       </c>
       <c r="D56">
         <f t="shared" si="12"/>
-        <v>1.3</v>
+        <v>1.0727272727272728</v>
       </c>
       <c r="E56">
         <f t="shared" si="7"/>
@@ -4548,7 +4548,7 @@
       </c>
       <c r="F56">
         <f t="shared" si="8"/>
-        <v>13.181818181818182</v>
+        <v>15.454545454545453</v>
       </c>
       <c r="G56">
         <f t="shared" si="9"/>
@@ -4573,14 +4573,14 @@
       </c>
       <c r="M56">
         <f t="shared" si="2"/>
-        <v>15.454545454545453</v>
+        <v>275</v>
       </c>
       <c r="N56">
         <v>-1</v>
       </c>
       <c r="O56">
         <f t="shared" si="2"/>
-        <v>15.454545454545453</v>
+        <v>277.27272727272725</v>
       </c>
       <c r="P56">
         <v>-1</v>
@@ -4595,15 +4595,15 @@
       </c>
       <c r="B57">
         <f t="shared" si="5"/>
-        <v>56</v>
+        <v>27.822222222222223</v>
       </c>
       <c r="C57">
         <f t="shared" si="11"/>
-        <v>0.5</v>
+        <v>0.14444444444444446</v>
       </c>
       <c r="D57">
         <f t="shared" si="12"/>
-        <v>1.2777777777777777</v>
+        <v>1.0555555555555556</v>
       </c>
       <c r="E57">
         <f t="shared" si="7"/>
@@ -4611,7 +4611,7 @@
       </c>
       <c r="F57">
         <f t="shared" si="8"/>
-        <v>13.333333333333334</v>
+        <v>15.555555555555555</v>
       </c>
       <c r="G57">
         <f t="shared" si="9"/>
@@ -4636,14 +4636,14 @@
       </c>
       <c r="M57">
         <f t="shared" si="2"/>
-        <v>15.555555555555555</v>
+        <v>280</v>
       </c>
       <c r="N57">
         <v>-1</v>
       </c>
       <c r="O57">
         <f t="shared" si="2"/>
-        <v>15.555555555555555</v>
+        <v>282.22222222222223</v>
       </c>
       <c r="P57">
         <v>-1</v>
@@ -4658,15 +4658,15 @@
       </c>
       <c r="B58">
         <f t="shared" si="5"/>
-        <v>57</v>
+        <v>28.326262626262626</v>
       </c>
       <c r="C58">
         <f t="shared" si="11"/>
-        <v>0.49090909090909096</v>
+        <v>0.14343434343434344</v>
       </c>
       <c r="D58">
         <f t="shared" si="12"/>
-        <v>1.2555555555555555</v>
+        <v>1.0383838383838384</v>
       </c>
       <c r="E58">
         <f t="shared" si="7"/>
@@ -4674,7 +4674,7 @@
       </c>
       <c r="F58">
         <f t="shared" si="8"/>
-        <v>13.484848484848484</v>
+        <v>15.656565656565657</v>
       </c>
       <c r="G58">
         <f t="shared" si="9"/>
@@ -4699,14 +4699,14 @@
       </c>
       <c r="M58">
         <f t="shared" si="2"/>
-        <v>15.656565656565657</v>
+        <v>285</v>
       </c>
       <c r="N58">
         <v>-1</v>
       </c>
       <c r="O58">
         <f t="shared" si="2"/>
-        <v>15.656565656565657</v>
+        <v>287.17171717171715</v>
       </c>
       <c r="P58">
         <v>-1</v>
@@ -4721,15 +4721,15 @@
       </c>
       <c r="B59">
         <f t="shared" si="5"/>
-        <v>58.000000000000007</v>
+        <v>28.830303030303032</v>
       </c>
       <c r="C59">
         <f t="shared" si="11"/>
-        <v>0.48181818181818181</v>
+        <v>0.14242424242424243</v>
       </c>
       <c r="D59">
         <f t="shared" si="12"/>
-        <v>1.2333333333333332</v>
+        <v>1.021212121212121</v>
       </c>
       <c r="E59">
         <f t="shared" si="7"/>
@@ -4737,7 +4737,7 @@
       </c>
       <c r="F59">
         <f t="shared" si="8"/>
-        <v>13.636363636363637</v>
+        <v>15.757575757575758</v>
       </c>
       <c r="G59">
         <f t="shared" si="9"/>
@@ -4762,14 +4762,14 @@
       </c>
       <c r="M59">
         <f t="shared" si="2"/>
-        <v>15.757575757575758</v>
+        <v>290</v>
       </c>
       <c r="N59">
         <v>-1</v>
       </c>
       <c r="O59">
         <f t="shared" si="2"/>
-        <v>15.757575757575758</v>
+        <v>292.12121212121212</v>
       </c>
       <c r="P59">
         <v>-1</v>
@@ -4784,15 +4784,15 @@
       </c>
       <c r="B60">
         <f t="shared" si="5"/>
-        <v>59</v>
+        <v>29.334343434343435</v>
       </c>
       <c r="C60">
         <f t="shared" si="11"/>
-        <v>0.47272727272727266</v>
+        <v>0.14141414141414144</v>
       </c>
       <c r="D60">
         <f t="shared" si="12"/>
-        <v>1.211111111111111</v>
+        <v>1.0040404040404041</v>
       </c>
       <c r="E60">
         <f t="shared" si="7"/>
@@ -4800,7 +4800,7 @@
       </c>
       <c r="F60">
         <f t="shared" si="8"/>
-        <v>13.787878787878787</v>
+        <v>15.858585858585858</v>
       </c>
       <c r="G60">
         <f t="shared" si="9"/>
@@ -4825,14 +4825,14 @@
       </c>
       <c r="M60">
         <f t="shared" si="2"/>
-        <v>15.858585858585858</v>
+        <v>295</v>
       </c>
       <c r="N60">
         <v>-1</v>
       </c>
       <c r="O60">
         <f t="shared" si="2"/>
-        <v>15.858585858585858</v>
+        <v>297.07070707070704</v>
       </c>
       <c r="P60">
         <v>-1</v>
@@ -4847,15 +4847,15 @@
       </c>
       <c r="B61">
         <f t="shared" si="5"/>
-        <v>59.999999999999993</v>
+        <v>29.838383838383837</v>
       </c>
       <c r="C61">
         <f t="shared" si="11"/>
-        <v>0.46363636363636362</v>
+        <v>0.14040404040404042</v>
       </c>
       <c r="D61">
         <f t="shared" si="12"/>
-        <v>1.1888888888888889</v>
+        <v>0.9868686868686869</v>
       </c>
       <c r="E61">
         <f t="shared" si="7"/>
@@ -4863,7 +4863,7 @@
       </c>
       <c r="F61">
         <f t="shared" si="8"/>
-        <v>13.939393939393939</v>
+        <v>15.959595959595958</v>
       </c>
       <c r="G61">
         <f t="shared" si="9"/>
@@ -4888,14 +4888,14 @@
       </c>
       <c r="M61">
         <f t="shared" si="2"/>
-        <v>15.959595959595958</v>
+        <v>300</v>
       </c>
       <c r="N61">
         <v>-1</v>
       </c>
       <c r="O61">
         <f t="shared" si="2"/>
-        <v>15.959595959595958</v>
+        <v>302.02020202020202</v>
       </c>
       <c r="P61">
         <v>-1</v>
@@ -4910,15 +4910,15 @@
       </c>
       <c r="B62">
         <f t="shared" si="5"/>
-        <v>61</v>
+        <v>30.342424242424244</v>
       </c>
       <c r="C62">
         <f t="shared" si="11"/>
-        <v>0.45454545454545447</v>
+        <v>0.1393939393939394</v>
       </c>
       <c r="D62">
         <f t="shared" si="12"/>
-        <v>1.1666666666666665</v>
+        <v>0.96969696969696972</v>
       </c>
       <c r="E62">
         <f t="shared" si="7"/>
@@ -4926,7 +4926,7 @@
       </c>
       <c r="F62">
         <f t="shared" si="8"/>
-        <v>14.090909090909092</v>
+        <v>16.060606060606062</v>
       </c>
       <c r="G62">
         <f t="shared" si="9"/>
@@ -4951,14 +4951,14 @@
       </c>
       <c r="M62">
         <f t="shared" si="2"/>
-        <v>16.060606060606062</v>
+        <v>305</v>
       </c>
       <c r="N62">
         <v>-1</v>
       </c>
       <c r="O62">
         <f t="shared" si="2"/>
-        <v>16.060606060606062</v>
+        <v>306.969696969697</v>
       </c>
       <c r="P62">
         <v>-1</v>
@@ -4973,15 +4973,15 @@
       </c>
       <c r="B63">
         <f t="shared" si="5"/>
-        <v>62</v>
+        <v>30.846464646464646</v>
       </c>
       <c r="C63">
         <f t="shared" si="11"/>
-        <v>0.44545454545454544</v>
+        <v>0.13838383838383839</v>
       </c>
       <c r="D63">
         <f t="shared" si="12"/>
-        <v>1.1444444444444444</v>
+        <v>0.95252525252525255</v>
       </c>
       <c r="E63">
         <f t="shared" si="7"/>
@@ -4989,7 +4989,7 @@
       </c>
       <c r="F63">
         <f t="shared" si="8"/>
-        <v>14.242424242424242</v>
+        <v>16.161616161616159</v>
       </c>
       <c r="G63">
         <f t="shared" si="9"/>
@@ -5014,14 +5014,14 @@
       </c>
       <c r="M63">
         <f t="shared" si="2"/>
-        <v>16.161616161616159</v>
+        <v>310</v>
       </c>
       <c r="N63">
         <v>-1</v>
       </c>
       <c r="O63">
         <f t="shared" si="2"/>
-        <v>16.161616161616159</v>
+        <v>311.91919191919192</v>
       </c>
       <c r="P63">
         <v>-1</v>
@@ -5036,15 +5036,15 @@
       </c>
       <c r="B64">
         <f t="shared" si="5"/>
-        <v>63</v>
+        <v>31.350505050505053</v>
       </c>
       <c r="C64">
         <f t="shared" si="11"/>
-        <v>0.43636363636363629</v>
+        <v>0.13737373737373737</v>
       </c>
       <c r="D64">
         <f t="shared" si="12"/>
-        <v>1.122222222222222</v>
+        <v>0.93535353535353538</v>
       </c>
       <c r="E64">
         <f t="shared" si="7"/>
@@ -5052,7 +5052,7 @@
       </c>
       <c r="F64">
         <f t="shared" si="8"/>
-        <v>14.393939393939394</v>
+        <v>16.262626262626263</v>
       </c>
       <c r="G64">
         <f t="shared" si="9"/>
@@ -5077,14 +5077,14 @@
       </c>
       <c r="M64">
         <f t="shared" si="2"/>
-        <v>16.262626262626263</v>
+        <v>315</v>
       </c>
       <c r="N64">
         <v>-1</v>
       </c>
       <c r="O64">
         <f t="shared" si="2"/>
-        <v>16.262626262626263</v>
+        <v>316.86868686868689</v>
       </c>
       <c r="P64">
         <v>-1</v>
@@ -5099,15 +5099,15 @@
       </c>
       <c r="B65">
         <f t="shared" si="5"/>
-        <v>64</v>
+        <v>31.854545454545455</v>
       </c>
       <c r="C65">
         <f t="shared" si="11"/>
-        <v>0.42727272727272725</v>
+        <v>0.13636363636363635</v>
       </c>
       <c r="D65">
         <f t="shared" si="12"/>
-        <v>1.0999999999999999</v>
+        <v>0.91818181818181821</v>
       </c>
       <c r="E65">
         <f t="shared" si="7"/>
@@ -5115,7 +5115,7 @@
       </c>
       <c r="F65">
         <f t="shared" si="8"/>
-        <v>14.545454545454545</v>
+        <v>16.363636363636363</v>
       </c>
       <c r="G65">
         <f t="shared" si="9"/>
@@ -5140,14 +5140,14 @@
       </c>
       <c r="M65">
         <f t="shared" si="2"/>
-        <v>16.363636363636363</v>
+        <v>320</v>
       </c>
       <c r="N65">
         <v>-1</v>
       </c>
       <c r="O65">
         <f t="shared" si="2"/>
-        <v>16.363636363636363</v>
+        <v>321.81818181818181</v>
       </c>
       <c r="P65">
         <v>-1</v>
@@ -5162,15 +5162,15 @@
       </c>
       <c r="B66">
         <f t="shared" si="5"/>
-        <v>65</v>
+        <v>32.358585858585862</v>
       </c>
       <c r="C66">
         <f t="shared" si="11"/>
-        <v>0.4181818181818181</v>
+        <v>0.13535353535353534</v>
       </c>
       <c r="D66">
         <f t="shared" si="12"/>
-        <v>1.0777777777777775</v>
+        <v>0.90101010101010104</v>
       </c>
       <c r="E66">
         <f t="shared" si="7"/>
@@ -5178,7 +5178,7 @@
       </c>
       <c r="F66">
         <f t="shared" si="8"/>
-        <v>14.696969696969697</v>
+        <v>16.464646464646464</v>
       </c>
       <c r="G66">
         <f t="shared" si="9"/>
@@ -5203,14 +5203,14 @@
       </c>
       <c r="M66">
         <f t="shared" si="2"/>
-        <v>16.464646464646464</v>
+        <v>325</v>
       </c>
       <c r="N66">
         <v>-1</v>
       </c>
       <c r="O66">
         <f t="shared" si="2"/>
-        <v>16.464646464646464</v>
+        <v>326.76767676767679</v>
       </c>
       <c r="P66">
         <v>-1</v>
@@ -5225,15 +5225,15 @@
       </c>
       <c r="B67">
         <f t="shared" si="5"/>
-        <v>66</v>
+        <v>32.862626262626264</v>
       </c>
       <c r="C67">
         <f t="shared" si="11"/>
-        <v>0.40909090909090906</v>
+        <v>0.13434343434343435</v>
       </c>
       <c r="D67">
         <f t="shared" si="12"/>
-        <v>1.0555555555555554</v>
+        <v>0.88383838383838387</v>
       </c>
       <c r="E67">
         <f t="shared" si="7"/>
@@ -5241,7 +5241,7 @@
       </c>
       <c r="F67">
         <f t="shared" si="8"/>
-        <v>14.848484848484848</v>
+        <v>16.565656565656568</v>
       </c>
       <c r="G67">
         <f t="shared" si="9"/>
@@ -5266,14 +5266,14 @@
       </c>
       <c r="M67">
         <f t="shared" ref="M67:O100" si="13">(M$2+((SUM($A67-1)/SUM($A$101-1))*(SUM(M$101-M$2))))</f>
-        <v>16.565656565656568</v>
+        <v>330</v>
       </c>
       <c r="N67">
         <v>-1</v>
       </c>
       <c r="O67">
         <f t="shared" si="13"/>
-        <v>16.565656565656568</v>
+        <v>331.71717171717171</v>
       </c>
       <c r="P67">
         <v>-1</v>
@@ -5288,15 +5288,15 @@
       </c>
       <c r="B68">
         <f t="shared" ref="B68:B100" si="14">(B$2+((SUM(A68-1)/SUM(A$101-1))*(SUM(B$101-B$2))))</f>
-        <v>67</v>
+        <v>33.366666666666667</v>
       </c>
       <c r="C68">
         <f t="shared" si="11"/>
-        <v>0.4</v>
+        <v>0.13333333333333336</v>
       </c>
       <c r="D68">
         <f t="shared" si="12"/>
-        <v>1.0333333333333332</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="E68">
         <f t="shared" si="7"/>
@@ -5304,7 +5304,7 @@
       </c>
       <c r="F68">
         <f t="shared" si="8"/>
-        <v>15</v>
+        <v>16.666666666666664</v>
       </c>
       <c r="G68">
         <f t="shared" si="9"/>
@@ -5329,14 +5329,14 @@
       </c>
       <c r="M68">
         <f t="shared" si="13"/>
-        <v>16.666666666666664</v>
+        <v>335</v>
       </c>
       <c r="N68">
         <v>-1</v>
       </c>
       <c r="O68">
         <f t="shared" si="13"/>
-        <v>16.666666666666664</v>
+        <v>336.66666666666663</v>
       </c>
       <c r="P68">
         <v>-1</v>
@@ -5351,15 +5351,15 @@
       </c>
       <c r="B69">
         <f t="shared" si="14"/>
-        <v>68</v>
+        <v>33.87070707070707</v>
       </c>
       <c r="C69">
         <f t="shared" si="11"/>
-        <v>0.39090909090909087</v>
+        <v>0.13232323232323234</v>
       </c>
       <c r="D69">
         <f t="shared" si="12"/>
-        <v>1.0111111111111108</v>
+        <v>0.84949494949494953</v>
       </c>
       <c r="E69">
         <f t="shared" si="7"/>
@@ -5367,7 +5367,7 @@
       </c>
       <c r="F69">
         <f t="shared" si="8"/>
-        <v>15.151515151515152</v>
+        <v>16.767676767676768</v>
       </c>
       <c r="G69">
         <f t="shared" si="9"/>
@@ -5392,14 +5392,14 @@
       </c>
       <c r="M69">
         <f t="shared" si="13"/>
-        <v>16.767676767676768</v>
+        <v>340</v>
       </c>
       <c r="N69">
         <v>-1</v>
       </c>
       <c r="O69">
         <f t="shared" si="13"/>
-        <v>16.767676767676768</v>
+        <v>341.61616161616161</v>
       </c>
       <c r="P69">
         <v>-1</v>
@@ -5414,15 +5414,15 @@
       </c>
       <c r="B70">
         <f t="shared" si="14"/>
-        <v>69</v>
+        <v>34.374747474747473</v>
       </c>
       <c r="C70">
         <f t="shared" si="11"/>
-        <v>0.38181818181818183</v>
+        <v>0.13131313131313133</v>
       </c>
       <c r="D70">
         <f t="shared" si="12"/>
-        <v>0.98888888888888871</v>
+        <v>0.83232323232323235</v>
       </c>
       <c r="E70">
         <f t="shared" si="7"/>
@@ -5430,7 +5430,7 @@
       </c>
       <c r="F70">
         <f t="shared" si="8"/>
-        <v>15.303030303030303</v>
+        <v>16.868686868686869</v>
       </c>
       <c r="G70">
         <f t="shared" si="9"/>
@@ -5455,14 +5455,14 @@
       </c>
       <c r="M70">
         <f t="shared" si="13"/>
-        <v>16.868686868686869</v>
+        <v>345</v>
       </c>
       <c r="N70">
         <v>-1</v>
       </c>
       <c r="O70">
         <f t="shared" si="13"/>
-        <v>16.868686868686869</v>
+        <v>346.56565656565658</v>
       </c>
       <c r="P70">
         <v>-1</v>
@@ -5477,15 +5477,15 @@
       </c>
       <c r="B71">
         <f t="shared" si="14"/>
-        <v>70</v>
+        <v>34.878787878787882</v>
       </c>
       <c r="C71">
         <f t="shared" si="11"/>
-        <v>0.37272727272727268</v>
+        <v>0.13030303030303031</v>
       </c>
       <c r="D71">
         <f t="shared" si="12"/>
-        <v>0.96666666666666634</v>
+        <v>0.81515151515151518</v>
       </c>
       <c r="E71">
         <f t="shared" si="7"/>
@@ -5493,7 +5493,7 @@
       </c>
       <c r="F71">
         <f t="shared" si="8"/>
-        <v>15.454545454545455</v>
+        <v>16.969696969696969</v>
       </c>
       <c r="G71">
         <f t="shared" si="9"/>
@@ -5518,14 +5518,14 @@
       </c>
       <c r="M71">
         <f t="shared" si="13"/>
-        <v>16.969696969696969</v>
+        <v>350</v>
       </c>
       <c r="N71">
         <v>-1</v>
       </c>
       <c r="O71">
         <f t="shared" si="13"/>
-        <v>16.969696969696969</v>
+        <v>351.51515151515156</v>
       </c>
       <c r="P71">
         <v>-1</v>
@@ -5540,15 +5540,15 @@
       </c>
       <c r="B72">
         <f t="shared" si="14"/>
-        <v>71</v>
+        <v>35.382828282828285</v>
       </c>
       <c r="C72">
         <f t="shared" si="11"/>
-        <v>0.36363636363636365</v>
+        <v>0.12929292929292929</v>
       </c>
       <c r="D72">
         <f t="shared" si="12"/>
-        <v>0.94444444444444442</v>
+        <v>0.79797979797979801</v>
       </c>
       <c r="E72">
         <f t="shared" si="7"/>
@@ -5556,7 +5556,7 @@
       </c>
       <c r="F72">
         <f t="shared" si="8"/>
-        <v>15.606060606060606</v>
+        <v>17.070707070707073</v>
       </c>
       <c r="G72">
         <f t="shared" si="9"/>
@@ -5581,14 +5581,14 @@
       </c>
       <c r="M72">
         <f t="shared" si="13"/>
-        <v>17.070707070707073</v>
+        <v>355</v>
       </c>
       <c r="N72">
         <v>-1</v>
       </c>
       <c r="O72">
         <f t="shared" si="13"/>
-        <v>17.070707070707073</v>
+        <v>356.46464646464648</v>
       </c>
       <c r="P72">
         <v>-1</v>
@@ -5603,15 +5603,15 @@
       </c>
       <c r="B73">
         <f t="shared" si="14"/>
-        <v>72</v>
+        <v>35.886868686868688</v>
       </c>
       <c r="C73">
         <f t="shared" si="11"/>
-        <v>0.35454545454545461</v>
+        <v>0.12828282828282828</v>
       </c>
       <c r="D73">
         <f t="shared" si="12"/>
-        <v>0.92222222222222228</v>
+        <v>0.78080808080808084</v>
       </c>
       <c r="E73">
         <f t="shared" si="7"/>
@@ -5619,7 +5619,7 @@
       </c>
       <c r="F73">
         <f t="shared" si="8"/>
-        <v>15.757575757575758</v>
+        <v>17.171717171717169</v>
       </c>
       <c r="G73">
         <f t="shared" si="9"/>
@@ -5644,14 +5644,14 @@
       </c>
       <c r="M73">
         <f t="shared" si="13"/>
-        <v>17.171717171717169</v>
+        <v>360</v>
       </c>
       <c r="N73">
         <v>-1</v>
       </c>
       <c r="O73">
         <f t="shared" si="13"/>
-        <v>17.171717171717169</v>
+        <v>361.4141414141414</v>
       </c>
       <c r="P73">
         <v>-1</v>
@@ -5666,15 +5666,15 @@
       </c>
       <c r="B74">
         <f t="shared" si="14"/>
-        <v>73</v>
+        <v>36.390909090909091</v>
       </c>
       <c r="C74">
         <f t="shared" si="11"/>
-        <v>0.34545454545454546</v>
+        <v>0.12727272727272726</v>
       </c>
       <c r="D74">
         <f t="shared" si="12"/>
-        <v>0.89999999999999991</v>
+        <v>0.76363636363636367</v>
       </c>
       <c r="E74">
         <f t="shared" si="7"/>
@@ -5682,7 +5682,7 @@
       </c>
       <c r="F74">
         <f t="shared" si="8"/>
-        <v>15.90909090909091</v>
+        <v>17.272727272727273</v>
       </c>
       <c r="G74">
         <f t="shared" si="9"/>
@@ -5707,14 +5707,14 @@
       </c>
       <c r="M74">
         <f t="shared" si="13"/>
-        <v>17.272727272727273</v>
+        <v>365</v>
       </c>
       <c r="N74">
         <v>-1</v>
       </c>
       <c r="O74">
         <f t="shared" si="13"/>
-        <v>17.272727272727273</v>
+        <v>366.36363636363637</v>
       </c>
       <c r="P74">
         <v>-1</v>
@@ -5729,15 +5729,15 @@
       </c>
       <c r="B75">
         <f t="shared" si="14"/>
-        <v>74</v>
+        <v>36.894949494949493</v>
       </c>
       <c r="C75">
         <f t="shared" si="11"/>
-        <v>0.33636363636363642</v>
+        <v>0.12626262626262627</v>
       </c>
       <c r="D75">
         <f t="shared" si="12"/>
-        <v>0.87777777777777777</v>
+        <v>0.7464646464646465</v>
       </c>
       <c r="E75">
         <f t="shared" si="7"/>
@@ -5745,7 +5745,7 @@
       </c>
       <c r="F75">
         <f t="shared" si="8"/>
-        <v>16.060606060606062</v>
+        <v>17.373737373737374</v>
       </c>
       <c r="G75">
         <f t="shared" si="9"/>
@@ -5770,14 +5770,14 @@
       </c>
       <c r="M75">
         <f t="shared" si="13"/>
-        <v>17.373737373737374</v>
+        <v>370</v>
       </c>
       <c r="N75">
         <v>-1</v>
       </c>
       <c r="O75">
         <f t="shared" si="13"/>
-        <v>17.373737373737374</v>
+        <v>371.31313131313129</v>
       </c>
       <c r="P75">
         <v>-1</v>
@@ -5792,15 +5792,15 @@
       </c>
       <c r="B76">
         <f t="shared" si="14"/>
-        <v>75</v>
+        <v>37.398989898989903</v>
       </c>
       <c r="C76">
         <f t="shared" si="11"/>
-        <v>0.32727272727272727</v>
+        <v>0.12525252525252525</v>
       </c>
       <c r="D76">
         <f t="shared" si="12"/>
-        <v>0.8555555555555554</v>
+        <v>0.72929292929292933</v>
       </c>
       <c r="E76">
         <f t="shared" si="7"/>
@@ -5808,7 +5808,7 @@
       </c>
       <c r="F76">
         <f t="shared" si="8"/>
-        <v>16.212121212121211</v>
+        <v>17.474747474747474</v>
       </c>
       <c r="G76">
         <f t="shared" si="9"/>
@@ -5833,14 +5833,14 @@
       </c>
       <c r="M76">
         <f t="shared" si="13"/>
-        <v>17.474747474747474</v>
+        <v>375</v>
       </c>
       <c r="N76">
         <v>-1</v>
       </c>
       <c r="O76">
         <f t="shared" si="13"/>
-        <v>17.474747474747474</v>
+        <v>376.26262626262627</v>
       </c>
       <c r="P76">
         <v>-1</v>
@@ -5855,15 +5855,15 @@
       </c>
       <c r="B77">
         <f t="shared" si="14"/>
-        <v>76</v>
+        <v>37.903030303030306</v>
       </c>
       <c r="C77">
         <f t="shared" si="11"/>
-        <v>0.31818181818181812</v>
+        <v>0.12424242424242425</v>
       </c>
       <c r="D77">
         <f t="shared" si="12"/>
-        <v>0.83333333333333326</v>
+        <v>0.71212121212121215</v>
       </c>
       <c r="E77">
         <f t="shared" si="7"/>
@@ -5871,7 +5871,7 @@
       </c>
       <c r="F77">
         <f t="shared" si="8"/>
-        <v>16.363636363636363</v>
+        <v>17.575757575757578</v>
       </c>
       <c r="G77">
         <f t="shared" si="9"/>
@@ -5896,14 +5896,14 @@
       </c>
       <c r="M77">
         <f t="shared" si="13"/>
-        <v>17.575757575757578</v>
+        <v>380</v>
       </c>
       <c r="N77">
         <v>-1</v>
       </c>
       <c r="O77">
         <f t="shared" si="13"/>
-        <v>17.575757575757578</v>
+        <v>381.21212121212119</v>
       </c>
       <c r="P77">
         <v>-1</v>
@@ -5918,15 +5918,15 @@
       </c>
       <c r="B78">
         <f t="shared" si="14"/>
-        <v>77</v>
+        <v>38.407070707070702</v>
       </c>
       <c r="C78">
         <f t="shared" ref="C78:C100" si="15">(C$2+((SUM(A78-1)/SUM(A$101-1))*(SUM(C$101-C$2))))</f>
-        <v>0.30909090909090908</v>
+        <v>0.12323232323232325</v>
       </c>
       <c r="D78">
         <f t="shared" si="12"/>
-        <v>0.81111111111111112</v>
+        <v>0.69494949494949498</v>
       </c>
       <c r="E78">
         <f t="shared" si="7"/>
@@ -5934,7 +5934,7 @@
       </c>
       <c r="F78">
         <f t="shared" si="8"/>
-        <v>16.515151515151516</v>
+        <v>17.676767676767675</v>
       </c>
       <c r="G78">
         <f t="shared" si="9"/>
@@ -5959,14 +5959,14 @@
       </c>
       <c r="M78">
         <f t="shared" si="13"/>
-        <v>17.676767676767675</v>
+        <v>385</v>
       </c>
       <c r="N78">
         <v>-1</v>
       </c>
       <c r="O78">
         <f t="shared" si="13"/>
-        <v>17.676767676767675</v>
+        <v>386.16161616161611</v>
       </c>
       <c r="P78">
         <v>-1</v>
@@ -5981,15 +5981,15 @@
       </c>
       <c r="B79">
         <f t="shared" si="14"/>
-        <v>78</v>
+        <v>38.911111111111111</v>
       </c>
       <c r="C79">
         <f t="shared" si="15"/>
-        <v>0.29999999999999993</v>
+        <v>0.12222222222222223</v>
       </c>
       <c r="D79">
         <f t="shared" si="12"/>
-        <v>0.78888888888888875</v>
+        <v>0.67777777777777781</v>
       </c>
       <c r="E79">
         <f t="shared" si="7"/>
@@ -5997,7 +5997,7 @@
       </c>
       <c r="F79">
         <f t="shared" si="8"/>
-        <v>16.666666666666664</v>
+        <v>17.777777777777779</v>
       </c>
       <c r="G79">
         <f t="shared" si="9"/>
@@ -6022,14 +6022,14 @@
       </c>
       <c r="M79">
         <f t="shared" si="13"/>
-        <v>17.777777777777779</v>
+        <v>390</v>
       </c>
       <c r="N79">
         <v>-1</v>
       </c>
       <c r="O79">
         <f t="shared" si="13"/>
-        <v>17.777777777777779</v>
+        <v>391.11111111111114</v>
       </c>
       <c r="P79">
         <v>-1</v>
@@ -6044,15 +6044,15 @@
       </c>
       <c r="B80">
         <f t="shared" si="14"/>
-        <v>79</v>
+        <v>39.415151515151514</v>
       </c>
       <c r="C80">
         <f t="shared" si="15"/>
-        <v>0.29090909090909089</v>
+        <v>0.12121212121212122</v>
       </c>
       <c r="D80">
         <f t="shared" si="12"/>
-        <v>0.76666666666666661</v>
+        <v>0.66060606060606064</v>
       </c>
       <c r="E80">
         <f t="shared" si="7"/>
@@ -6060,7 +6060,7 @@
       </c>
       <c r="F80">
         <f t="shared" si="8"/>
-        <v>16.81818181818182</v>
+        <v>17.878787878787879</v>
       </c>
       <c r="G80">
         <f t="shared" si="9"/>
@@ -6085,14 +6085,14 @@
       </c>
       <c r="M80">
         <f t="shared" si="13"/>
-        <v>17.878787878787879</v>
+        <v>395</v>
       </c>
       <c r="N80">
         <v>-1</v>
       </c>
       <c r="O80">
         <f t="shared" si="13"/>
-        <v>17.878787878787879</v>
+        <v>396.06060606060606</v>
       </c>
       <c r="P80">
         <v>-1</v>
@@ -6107,15 +6107,15 @@
       </c>
       <c r="B81">
         <f t="shared" si="14"/>
-        <v>80</v>
+        <v>39.919191919191924</v>
       </c>
       <c r="C81">
         <f t="shared" si="15"/>
-        <v>0.28181818181818175</v>
+        <v>0.1202020202020202</v>
       </c>
       <c r="D81">
         <f t="shared" si="12"/>
-        <v>0.74444444444444424</v>
+        <v>0.64343434343434347</v>
       </c>
       <c r="E81">
         <f t="shared" si="7"/>
@@ -6123,7 +6123,7 @@
       </c>
       <c r="F81">
         <f t="shared" si="8"/>
-        <v>16.969696969696969</v>
+        <v>17.979797979797979</v>
       </c>
       <c r="G81">
         <f t="shared" si="9"/>
@@ -6148,14 +6148,14 @@
       </c>
       <c r="M81">
         <f t="shared" si="13"/>
-        <v>17.979797979797979</v>
+        <v>400</v>
       </c>
       <c r="N81">
         <v>-1</v>
       </c>
       <c r="O81">
         <f t="shared" si="13"/>
-        <v>17.979797979797979</v>
+        <v>401.01010101010104</v>
       </c>
       <c r="P81">
         <v>-1</v>
@@ -6170,15 +6170,15 @@
       </c>
       <c r="B82">
         <f t="shared" si="14"/>
-        <v>81</v>
+        <v>40.42323232323232</v>
       </c>
       <c r="C82">
         <f t="shared" si="15"/>
-        <v>0.27272727272727271</v>
+        <v>0.1191919191919192</v>
       </c>
       <c r="D82">
         <f t="shared" si="12"/>
-        <v>0.7222222222222221</v>
+        <v>0.6262626262626263</v>
       </c>
       <c r="E82">
         <f t="shared" si="7"/>
@@ -6186,7 +6186,7 @@
       </c>
       <c r="F82">
         <f t="shared" si="8"/>
-        <v>17.121212121212121</v>
+        <v>18.080808080808083</v>
       </c>
       <c r="G82">
         <f t="shared" si="9"/>
@@ -6211,14 +6211,14 @@
       </c>
       <c r="M82">
         <f t="shared" si="13"/>
-        <v>18.080808080808083</v>
+        <v>405</v>
       </c>
       <c r="N82">
         <v>-1</v>
       </c>
       <c r="O82">
         <f t="shared" si="13"/>
-        <v>18.080808080808083</v>
+        <v>405.95959595959596</v>
       </c>
       <c r="P82">
         <v>-1</v>
@@ -6233,15 +6233,15 @@
       </c>
       <c r="B83">
         <f t="shared" si="14"/>
-        <v>82</v>
+        <v>40.927272727272729</v>
       </c>
       <c r="C83">
         <f t="shared" si="15"/>
-        <v>0.26363636363636356</v>
+        <v>0.11818181818181818</v>
       </c>
       <c r="D83">
         <f t="shared" si="12"/>
-        <v>0.69999999999999973</v>
+        <v>0.60909090909090913</v>
       </c>
       <c r="E83">
         <f t="shared" ref="E83:E100" si="16">(E$2+((SUM($A83-1)/SUM($A$101-1))*(SUM(E$101-E$2))))</f>
@@ -6249,7 +6249,7 @@
       </c>
       <c r="F83">
         <f t="shared" ref="F83:F100" si="17">(F$2+((SUM($A83-1)/SUM($A$101-1))*(SUM(F$101-F$2))))</f>
-        <v>17.272727272727273</v>
+        <v>18.18181818181818</v>
       </c>
       <c r="G83">
         <f t="shared" ref="G83:H100" si="18">(G$2+((SUM($A83-1)/SUM($A$101-1))*(SUM(G$101-G$2))))</f>
@@ -6274,14 +6274,14 @@
       </c>
       <c r="M83">
         <f t="shared" si="13"/>
-        <v>18.18181818181818</v>
+        <v>410</v>
       </c>
       <c r="N83">
         <v>-1</v>
       </c>
       <c r="O83">
         <f t="shared" si="13"/>
-        <v>18.18181818181818</v>
+        <v>410.90909090909093</v>
       </c>
       <c r="P83">
         <v>-1</v>
@@ -6296,15 +6296,15 @@
       </c>
       <c r="B84">
         <f t="shared" si="14"/>
-        <v>83</v>
+        <v>41.431313131313132</v>
       </c>
       <c r="C84">
         <f t="shared" si="15"/>
-        <v>0.25454545454545452</v>
+        <v>0.11717171717171718</v>
       </c>
       <c r="D84">
         <f t="shared" si="12"/>
-        <v>0.67777777777777759</v>
+        <v>0.59191919191919196</v>
       </c>
       <c r="E84">
         <f t="shared" si="16"/>
@@ -6312,7 +6312,7 @@
       </c>
       <c r="F84">
         <f t="shared" si="17"/>
-        <v>17.424242424242422</v>
+        <v>18.282828282828284</v>
       </c>
       <c r="G84">
         <f t="shared" si="18"/>
@@ -6337,14 +6337,14 @@
       </c>
       <c r="M84">
         <f t="shared" si="13"/>
-        <v>18.282828282828284</v>
+        <v>415</v>
       </c>
       <c r="N84">
         <v>-1</v>
       </c>
       <c r="O84">
         <f t="shared" si="13"/>
-        <v>18.282828282828284</v>
+        <v>415.85858585858585</v>
       </c>
       <c r="P84">
         <v>-1</v>
@@ -6359,15 +6359,15 @@
       </c>
       <c r="B85">
         <f t="shared" si="14"/>
-        <v>84</v>
+        <v>41.935353535353535</v>
       </c>
       <c r="C85">
         <f t="shared" si="15"/>
-        <v>0.24545454545454548</v>
+        <v>0.11616161616161617</v>
       </c>
       <c r="D85">
         <f t="shared" si="12"/>
-        <v>0.65555555555555545</v>
+        <v>0.57474747474747478</v>
       </c>
       <c r="E85">
         <f t="shared" si="16"/>
@@ -6375,7 +6375,7 @@
       </c>
       <c r="F85">
         <f t="shared" si="17"/>
-        <v>17.575757575757574</v>
+        <v>18.383838383838384</v>
       </c>
       <c r="G85">
         <f t="shared" si="18"/>
@@ -6400,14 +6400,14 @@
       </c>
       <c r="M85">
         <f t="shared" si="13"/>
-        <v>18.383838383838384</v>
+        <v>420</v>
       </c>
       <c r="N85">
         <v>-1</v>
       </c>
       <c r="O85">
         <f t="shared" si="13"/>
-        <v>18.383838383838384</v>
+        <v>420.80808080808077</v>
       </c>
       <c r="P85">
         <v>-1</v>
@@ -6422,15 +6422,15 @@
       </c>
       <c r="B86">
         <f t="shared" si="14"/>
-        <v>85</v>
+        <v>42.439393939393938</v>
       </c>
       <c r="C86">
         <f t="shared" si="15"/>
-        <v>0.23636363636363633</v>
+        <v>0.11515151515151516</v>
       </c>
       <c r="D86">
         <f t="shared" si="12"/>
-        <v>0.63333333333333308</v>
+        <v>0.55757575757575761</v>
       </c>
       <c r="E86">
         <f t="shared" si="16"/>
@@ -6438,7 +6438,7 @@
       </c>
       <c r="F86">
         <f t="shared" si="17"/>
-        <v>17.727272727272727</v>
+        <v>18.484848484848484</v>
       </c>
       <c r="G86">
         <f t="shared" si="18"/>
@@ -6463,14 +6463,14 @@
       </c>
       <c r="M86">
         <f t="shared" si="13"/>
-        <v>18.484848484848484</v>
+        <v>425</v>
       </c>
       <c r="N86">
         <v>-1</v>
       </c>
       <c r="O86">
         <f t="shared" si="13"/>
-        <v>18.484848484848484</v>
+        <v>425.75757575757575</v>
       </c>
       <c r="P86">
         <v>-1</v>
@@ -6485,15 +6485,15 @@
       </c>
       <c r="B87">
         <f t="shared" si="14"/>
-        <v>86</v>
+        <v>42.94343434343434</v>
       </c>
       <c r="C87">
         <f t="shared" si="15"/>
-        <v>0.22727272727272729</v>
+        <v>0.11414141414141415</v>
       </c>
       <c r="D87">
         <f t="shared" si="12"/>
-        <v>0.61111111111111094</v>
+        <v>0.54040404040404044</v>
       </c>
       <c r="E87">
         <f t="shared" si="16"/>
@@ -6501,7 +6501,7 @@
       </c>
       <c r="F87">
         <f t="shared" si="17"/>
-        <v>17.878787878787879</v>
+        <v>18.585858585858585</v>
       </c>
       <c r="G87">
         <f t="shared" si="18"/>
@@ -6526,14 +6526,14 @@
       </c>
       <c r="M87">
         <f t="shared" si="13"/>
-        <v>18.585858585858585</v>
+        <v>430</v>
       </c>
       <c r="N87">
         <v>-1</v>
       </c>
       <c r="O87">
         <f t="shared" si="13"/>
-        <v>18.585858585858585</v>
+        <v>430.70707070707067</v>
       </c>
       <c r="P87">
         <v>-1</v>
@@ -6548,15 +6548,15 @@
       </c>
       <c r="B88">
         <f t="shared" si="14"/>
-        <v>87</v>
+        <v>43.44747474747475</v>
       </c>
       <c r="C88">
         <f t="shared" si="15"/>
-        <v>0.21818181818181814</v>
+        <v>0.11313131313131314</v>
       </c>
       <c r="D88">
         <f t="shared" si="12"/>
-        <v>0.58888888888888857</v>
+        <v>0.52323232323232327</v>
       </c>
       <c r="E88">
         <f t="shared" si="16"/>
@@ -6564,7 +6564,7 @@
       </c>
       <c r="F88">
         <f t="shared" si="17"/>
-        <v>18.030303030303031</v>
+        <v>18.686868686868685</v>
       </c>
       <c r="G88">
         <f t="shared" si="18"/>
@@ -6589,14 +6589,14 @@
       </c>
       <c r="M88">
         <f t="shared" si="13"/>
-        <v>18.686868686868685</v>
+        <v>435</v>
       </c>
       <c r="N88">
         <v>-1</v>
       </c>
       <c r="O88">
         <f t="shared" si="13"/>
-        <v>18.686868686868685</v>
+        <v>435.6565656565657</v>
       </c>
       <c r="P88">
         <v>-1</v>
@@ -6611,15 +6611,15 @@
       </c>
       <c r="B89">
         <f t="shared" si="14"/>
-        <v>88</v>
+        <v>43.951515151515153</v>
       </c>
       <c r="C89">
         <f t="shared" si="15"/>
-        <v>0.20909090909090911</v>
+        <v>0.11212121212121212</v>
       </c>
       <c r="D89">
         <f t="shared" si="12"/>
-        <v>0.56666666666666643</v>
+        <v>0.5060606060606061</v>
       </c>
       <c r="E89">
         <f t="shared" si="16"/>
@@ -6627,7 +6627,7 @@
       </c>
       <c r="F89">
         <f t="shared" si="17"/>
-        <v>18.18181818181818</v>
+        <v>18.787878787878789</v>
       </c>
       <c r="G89">
         <f t="shared" si="18"/>
@@ -6652,14 +6652,14 @@
       </c>
       <c r="M89">
         <f t="shared" si="13"/>
-        <v>18.787878787878789</v>
+        <v>440</v>
       </c>
       <c r="N89">
         <v>-1</v>
       </c>
       <c r="O89">
         <f t="shared" si="13"/>
-        <v>18.787878787878789</v>
+        <v>440.60606060606062</v>
       </c>
       <c r="P89">
         <v>-1</v>
@@ -6674,15 +6674,15 @@
       </c>
       <c r="B90">
         <f t="shared" si="14"/>
-        <v>89</v>
+        <v>44.455555555555556</v>
       </c>
       <c r="C90">
         <f t="shared" si="15"/>
-        <v>0.20000000000000007</v>
+        <v>0.11111111111111112</v>
       </c>
       <c r="D90">
         <f t="shared" si="12"/>
-        <v>0.54444444444444429</v>
+        <v>0.48888888888888893</v>
       </c>
       <c r="E90">
         <f t="shared" si="16"/>
@@ -6690,7 +6690,7 @@
       </c>
       <c r="F90">
         <f t="shared" si="17"/>
-        <v>18.333333333333332</v>
+        <v>18.888888888888889</v>
       </c>
       <c r="G90">
         <f t="shared" si="18"/>
@@ -6715,14 +6715,14 @@
       </c>
       <c r="M90">
         <f t="shared" si="13"/>
-        <v>18.888888888888889</v>
+        <v>445</v>
       </c>
       <c r="N90">
         <v>-1</v>
       </c>
       <c r="O90">
         <f t="shared" si="13"/>
-        <v>18.888888888888889</v>
+        <v>445.55555555555554</v>
       </c>
       <c r="P90">
         <v>-1</v>
@@ -6737,15 +6737,15 @@
       </c>
       <c r="B91">
         <f t="shared" si="14"/>
-        <v>90</v>
+        <v>44.959595959595958</v>
       </c>
       <c r="C91">
         <f t="shared" si="15"/>
-        <v>0.19090909090909092</v>
+        <v>0.1101010101010101</v>
       </c>
       <c r="D91">
         <f t="shared" si="12"/>
-        <v>0.52222222222222192</v>
+        <v>0.47171717171717176</v>
       </c>
       <c r="E91">
         <f t="shared" si="16"/>
@@ -6753,7 +6753,7 @@
       </c>
       <c r="F91">
         <f t="shared" si="17"/>
-        <v>18.484848484848484</v>
+        <v>18.98989898989899</v>
       </c>
       <c r="G91">
         <f t="shared" si="18"/>
@@ -6778,14 +6778,14 @@
       </c>
       <c r="M91">
         <f t="shared" si="13"/>
-        <v>18.98989898989899</v>
+        <v>450</v>
       </c>
       <c r="N91">
         <v>-1</v>
       </c>
       <c r="O91">
         <f t="shared" si="13"/>
-        <v>18.98989898989899</v>
+        <v>450.50505050505052</v>
       </c>
       <c r="P91">
         <v>-1</v>
@@ -6800,15 +6800,15 @@
       </c>
       <c r="B92">
         <f t="shared" si="14"/>
-        <v>91</v>
+        <v>45.463636363636361</v>
       </c>
       <c r="C92">
         <f t="shared" si="15"/>
-        <v>0.18181818181818188</v>
+        <v>0.1090909090909091</v>
       </c>
       <c r="D92">
         <f t="shared" si="12"/>
-        <v>0.5</v>
+        <v>0.45454545454545459</v>
       </c>
       <c r="E92">
         <f t="shared" si="16"/>
@@ -6816,7 +6816,7 @@
       </c>
       <c r="F92">
         <f t="shared" si="17"/>
-        <v>18.636363636363637</v>
+        <v>19.09090909090909</v>
       </c>
       <c r="G92">
         <f t="shared" si="18"/>
@@ -6841,14 +6841,14 @@
       </c>
       <c r="M92">
         <f t="shared" si="13"/>
-        <v>19.09090909090909</v>
+        <v>455</v>
       </c>
       <c r="N92">
         <v>-1</v>
       </c>
       <c r="O92">
         <f t="shared" si="13"/>
-        <v>19.09090909090909</v>
+        <v>455.45454545454544</v>
       </c>
       <c r="P92">
         <v>-1</v>
@@ -6863,15 +6863,15 @@
       </c>
       <c r="B93">
         <f t="shared" si="14"/>
-        <v>92</v>
+        <v>45.967676767676771</v>
       </c>
       <c r="C93">
         <f t="shared" si="15"/>
-        <v>0.17272727272727273</v>
+        <v>0.10808080808080808</v>
       </c>
       <c r="D93">
         <f t="shared" si="12"/>
-        <v>0.47777777777777741</v>
+        <v>0.43737373737373741</v>
       </c>
       <c r="E93">
         <f t="shared" si="16"/>
@@ -6879,7 +6879,7 @@
       </c>
       <c r="F93">
         <f t="shared" si="17"/>
-        <v>18.787878787878789</v>
+        <v>19.19191919191919</v>
       </c>
       <c r="G93">
         <f t="shared" si="18"/>
@@ -6904,14 +6904,14 @@
       </c>
       <c r="M93">
         <f t="shared" si="13"/>
-        <v>19.19191919191919</v>
+        <v>460</v>
       </c>
       <c r="N93">
         <v>-1</v>
       </c>
       <c r="O93">
         <f t="shared" si="13"/>
-        <v>19.19191919191919</v>
+        <v>460.40404040404042</v>
       </c>
       <c r="P93">
         <v>-1</v>
@@ -6926,15 +6926,15 @@
       </c>
       <c r="B94">
         <f t="shared" si="14"/>
-        <v>93</v>
+        <v>46.471717171717174</v>
       </c>
       <c r="C94">
         <f t="shared" si="15"/>
-        <v>0.16363636363636358</v>
+        <v>0.10707070707070708</v>
       </c>
       <c r="D94">
         <f t="shared" si="12"/>
-        <v>0.45555555555555527</v>
+        <v>0.42020202020202024</v>
       </c>
       <c r="E94">
         <f t="shared" si="16"/>
@@ -6942,7 +6942,7 @@
       </c>
       <c r="F94">
         <f t="shared" si="17"/>
-        <v>18.939393939393938</v>
+        <v>19.292929292929294</v>
       </c>
       <c r="G94">
         <f t="shared" si="18"/>
@@ -6967,14 +6967,14 @@
       </c>
       <c r="M94">
         <f t="shared" si="13"/>
-        <v>19.292929292929294</v>
+        <v>465</v>
       </c>
       <c r="N94">
         <v>-1</v>
       </c>
       <c r="O94">
         <f t="shared" si="13"/>
-        <v>19.292929292929294</v>
+        <v>465.35353535353534</v>
       </c>
       <c r="P94">
         <v>-1</v>
@@ -6989,15 +6989,15 @@
       </c>
       <c r="B95">
         <f t="shared" si="14"/>
-        <v>94</v>
+        <v>46.975757575757576</v>
       </c>
       <c r="C95">
         <f t="shared" si="15"/>
-        <v>0.15454545454545443</v>
+        <v>0.10606060606060606</v>
       </c>
       <c r="D95">
         <f t="shared" si="12"/>
-        <v>0.43333333333333313</v>
+        <v>0.40303030303030307</v>
       </c>
       <c r="E95">
         <f t="shared" si="16"/>
@@ -7005,7 +7005,7 @@
       </c>
       <c r="F95">
         <f t="shared" si="17"/>
-        <v>19.090909090909093</v>
+        <v>19.393939393939394</v>
       </c>
       <c r="G95">
         <f t="shared" si="18"/>
@@ -7030,14 +7030,14 @@
       </c>
       <c r="M95">
         <f t="shared" si="13"/>
-        <v>19.393939393939394</v>
+        <v>470</v>
       </c>
       <c r="N95">
         <v>-1</v>
       </c>
       <c r="O95">
         <f t="shared" si="13"/>
-        <v>19.393939393939394</v>
+        <v>470.30303030303031</v>
       </c>
       <c r="P95">
         <v>-1</v>
@@ -7052,15 +7052,15 @@
       </c>
       <c r="B96">
         <f t="shared" si="14"/>
-        <v>95</v>
+        <v>47.479797979797979</v>
       </c>
       <c r="C96">
         <f t="shared" si="15"/>
-        <v>0.14545454545454539</v>
+        <v>0.10505050505050506</v>
       </c>
       <c r="D96">
         <f t="shared" si="12"/>
-        <v>0.41111111111111098</v>
+        <v>0.3858585858585859</v>
       </c>
       <c r="E96">
         <f t="shared" si="16"/>
@@ -7068,7 +7068,7 @@
       </c>
       <c r="F96">
         <f t="shared" si="17"/>
-        <v>19.242424242424242</v>
+        <v>19.494949494949495</v>
       </c>
       <c r="G96">
         <f t="shared" si="18"/>
@@ -7093,14 +7093,14 @@
       </c>
       <c r="M96">
         <f t="shared" si="13"/>
-        <v>19.494949494949495</v>
+        <v>475</v>
       </c>
       <c r="N96">
         <v>-1</v>
       </c>
       <c r="O96">
         <f t="shared" si="13"/>
-        <v>19.494949494949495</v>
+        <v>475.25252525252523</v>
       </c>
       <c r="P96">
         <v>-1</v>
@@ -7115,15 +7115,15 @@
       </c>
       <c r="B97">
         <f t="shared" si="14"/>
-        <v>96</v>
+        <v>47.983838383838382</v>
       </c>
       <c r="C97">
         <f t="shared" si="15"/>
-        <v>0.13636363636363635</v>
+        <v>0.10404040404040404</v>
       </c>
       <c r="D97">
         <f t="shared" si="12"/>
-        <v>0.38888888888888884</v>
+        <v>0.36868686868686873</v>
       </c>
       <c r="E97">
         <f t="shared" si="16"/>
@@ -7131,7 +7131,7 @@
       </c>
       <c r="F97">
         <f t="shared" si="17"/>
-        <v>19.393939393939391</v>
+        <v>19.595959595959595</v>
       </c>
       <c r="G97">
         <f t="shared" si="18"/>
@@ -7156,14 +7156,14 @@
       </c>
       <c r="M97">
         <f t="shared" si="13"/>
-        <v>19.595959595959595</v>
+        <v>480</v>
       </c>
       <c r="N97">
         <v>-1</v>
       </c>
       <c r="O97">
         <f t="shared" si="13"/>
-        <v>19.595959595959595</v>
+        <v>480.20202020202021</v>
       </c>
       <c r="P97">
         <v>-1</v>
@@ -7178,15 +7178,15 @@
       </c>
       <c r="B98">
         <f t="shared" si="14"/>
-        <v>97</v>
+        <v>48.487878787878792</v>
       </c>
       <c r="C98">
         <f t="shared" si="15"/>
-        <v>0.1272727272727272</v>
+        <v>0.10303030303030303</v>
       </c>
       <c r="D98">
         <f t="shared" si="12"/>
-        <v>0.36666666666666625</v>
+        <v>0.35151515151515156</v>
       </c>
       <c r="E98">
         <f t="shared" si="16"/>
@@ -7194,7 +7194,7 @@
       </c>
       <c r="F98">
         <f t="shared" si="17"/>
-        <v>19.545454545454547</v>
+        <v>19.696969696969695</v>
       </c>
       <c r="G98">
         <f t="shared" si="18"/>
@@ -7219,14 +7219,14 @@
       </c>
       <c r="M98">
         <f t="shared" si="13"/>
-        <v>19.696969696969695</v>
+        <v>485</v>
       </c>
       <c r="N98">
         <v>-1</v>
       </c>
       <c r="O98">
         <f t="shared" si="13"/>
-        <v>19.696969696969695</v>
+        <v>485.15151515151518</v>
       </c>
       <c r="P98">
         <v>-1</v>
@@ -7241,15 +7241,15 @@
       </c>
       <c r="B99">
         <f t="shared" si="14"/>
-        <v>98</v>
+        <v>48.991919191919195</v>
       </c>
       <c r="C99">
         <f t="shared" si="15"/>
-        <v>0.11818181818181817</v>
+        <v>0.10202020202020202</v>
       </c>
       <c r="D99">
         <f t="shared" si="12"/>
-        <v>0.34444444444444411</v>
+        <v>0.33434343434343439</v>
       </c>
       <c r="E99">
         <f t="shared" si="16"/>
@@ -7257,7 +7257,7 @@
       </c>
       <c r="F99">
         <f t="shared" si="17"/>
-        <v>19.696969696969695</v>
+        <v>19.797979797979799</v>
       </c>
       <c r="G99">
         <f t="shared" si="18"/>
@@ -7282,14 +7282,14 @@
       </c>
       <c r="M99">
         <f t="shared" si="13"/>
-        <v>19.797979797979799</v>
+        <v>490</v>
       </c>
       <c r="N99">
         <v>-1</v>
       </c>
       <c r="O99">
         <f t="shared" si="13"/>
-        <v>19.797979797979799</v>
+        <v>490.1010101010101</v>
       </c>
       <c r="P99">
         <v>-1</v>
@@ -7304,15 +7304,15 @@
       </c>
       <c r="B100">
         <f t="shared" si="14"/>
-        <v>99</v>
+        <v>49.495959595959597</v>
       </c>
       <c r="C100">
         <f t="shared" si="15"/>
-        <v>0.10909090909090902</v>
+        <v>0.10101010101010101</v>
       </c>
       <c r="D100">
         <f t="shared" si="12"/>
-        <v>0.32222222222222197</v>
+        <v>0.31717171717171722</v>
       </c>
       <c r="E100">
         <f t="shared" si="16"/>
@@ -7320,7 +7320,7 @@
       </c>
       <c r="F100">
         <f t="shared" si="17"/>
-        <v>19.848484848484851</v>
+        <v>19.8989898989899</v>
       </c>
       <c r="G100">
         <f t="shared" si="18"/>
@@ -7345,14 +7345,14 @@
       </c>
       <c r="M100">
         <f t="shared" si="13"/>
-        <v>19.8989898989899</v>
+        <v>495</v>
       </c>
       <c r="N100">
         <v>-1</v>
       </c>
       <c r="O100">
         <f t="shared" si="13"/>
-        <v>19.8989898989899</v>
+        <v>495.05050505050508</v>
       </c>
       <c r="P100">
         <v>-1</v>
@@ -7366,7 +7366,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="C101" s="1">
         <v>0.1</v>
@@ -7399,13 +7399,13 @@
         <v>-1</v>
       </c>
       <c r="M101" s="1">
-        <v>20</v>
+        <v>500</v>
       </c>
       <c r="N101" s="1">
         <v>-1</v>
       </c>
       <c r="O101" s="1">
-        <v>20</v>
+        <v>500</v>
       </c>
       <c r="P101" s="1">
         <v>-1</v>

--- a/RotoShootUnityProject/Assets/Resources/mySheet.xlsx
+++ b/RotoShootUnityProject/Assets/Resources/mySheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming\UnityProjects\RotoShoot\RotoShootUnityProject\Assets\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6098FE16-44F7-4BCB-ACA3-1EB818ACF06C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{211EEB43-C534-46BC-AF78-9A228DA2D5A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2688" yWindow="2472" windowWidth="28728" windowHeight="22608" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25490" yWindow="90" windowWidth="38620" windowHeight="21820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="mySheet (4)" sheetId="4" r:id="rId1"/>
@@ -1067,21 +1067,21 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
+      <selection pane="bottomLeft" activeCell="O102" sqref="O102"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="20.5546875" customWidth="1"/>
-    <col min="5" max="5" width="18.6640625" customWidth="1"/>
-    <col min="6" max="6" width="19.88671875" customWidth="1"/>
-    <col min="7" max="7" width="18.5546875" customWidth="1"/>
-    <col min="8" max="8" width="12.77734375" customWidth="1"/>
-    <col min="17" max="17" width="21.6640625" customWidth="1"/>
+    <col min="3" max="4" width="20.5703125" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" customWidth="1"/>
+    <col min="6" max="6" width="19.85546875" customWidth="1"/>
+    <col min="7" max="7" width="18.5703125" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" customWidth="1"/>
+    <col min="17" max="17" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>21</v>
       </c>
@@ -1134,7 +1134,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1172,13 +1172,13 @@
         <v>-1</v>
       </c>
       <c r="M2" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N2" s="1">
         <v>-1</v>
       </c>
       <c r="O2" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="P2" s="1">
         <v>-1</v>
@@ -1187,7 +1187,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1234,14 +1234,14 @@
       </c>
       <c r="M3">
         <f t="shared" ref="M3:O66" si="2">(M$2+((SUM($A3-1)/SUM($A$101-1))*(SUM(M$101-M$2))))</f>
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="N3">
         <v>-1</v>
       </c>
       <c r="O3">
         <f t="shared" si="2"/>
-        <v>14.94949494949495</v>
+        <v>3.0101010101010104</v>
       </c>
       <c r="P3">
         <v>-1</v>
@@ -1250,7 +1250,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1297,14 +1297,14 @@
       </c>
       <c r="M4">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="N4">
         <v>-1</v>
       </c>
       <c r="O4">
         <f t="shared" si="2"/>
-        <v>19.8989898989899</v>
+        <v>5.0202020202020208</v>
       </c>
       <c r="P4">
         <v>-1</v>
@@ -1313,7 +1313,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1360,14 +1360,14 @@
       </c>
       <c r="M5">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="N5">
         <v>-1</v>
       </c>
       <c r="O5">
         <f t="shared" si="2"/>
-        <v>24.848484848484851</v>
+        <v>7.0303030303030303</v>
       </c>
       <c r="P5">
         <v>-1</v>
@@ -1376,7 +1376,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1423,14 +1423,14 @@
       </c>
       <c r="M6">
         <f t="shared" si="2"/>
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="N6">
         <v>-1</v>
       </c>
       <c r="O6">
         <f t="shared" si="2"/>
-        <v>29.797979797979799</v>
+        <v>9.0404040404040416</v>
       </c>
       <c r="P6">
         <v>-1</v>
@@ -1439,7 +1439,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1486,14 +1486,14 @@
       </c>
       <c r="M7">
         <f t="shared" si="2"/>
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="N7">
         <v>-1</v>
       </c>
       <c r="O7">
         <f t="shared" si="2"/>
-        <v>34.747474747474747</v>
+        <v>11.05050505050505</v>
       </c>
       <c r="P7">
         <v>-1</v>
@@ -1502,7 +1502,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1549,14 +1549,14 @@
       </c>
       <c r="M8">
         <f t="shared" si="2"/>
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="N8">
         <v>-1</v>
       </c>
       <c r="O8">
         <f t="shared" si="2"/>
-        <v>39.696969696969703</v>
+        <v>13.060606060606061</v>
       </c>
       <c r="P8">
         <v>-1</v>
@@ -1565,7 +1565,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1612,14 +1612,14 @@
       </c>
       <c r="M9">
         <f t="shared" si="2"/>
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="N9">
         <v>-1</v>
       </c>
       <c r="O9">
         <f t="shared" si="2"/>
-        <v>44.646464646464644</v>
+        <v>15.070707070707071</v>
       </c>
       <c r="P9">
         <v>-1</v>
@@ -1628,7 +1628,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1675,14 +1675,14 @@
       </c>
       <c r="M10">
         <f t="shared" si="2"/>
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="N10">
         <v>-1</v>
       </c>
       <c r="O10">
         <f t="shared" si="2"/>
-        <v>49.595959595959599</v>
+        <v>17.080808080808083</v>
       </c>
       <c r="P10">
         <v>-1</v>
@@ -1691,7 +1691,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1738,14 +1738,14 @@
       </c>
       <c r="M11">
         <f t="shared" si="2"/>
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="N11">
         <v>-1</v>
       </c>
       <c r="O11">
         <f t="shared" si="2"/>
-        <v>54.545454545454547</v>
+        <v>19.09090909090909</v>
       </c>
       <c r="P11">
         <v>-1</v>
@@ -1754,7 +1754,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1801,14 +1801,14 @@
       </c>
       <c r="M12">
         <f t="shared" si="2"/>
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="N12">
         <v>-1</v>
       </c>
       <c r="O12">
         <f t="shared" si="2"/>
-        <v>59.494949494949495</v>
+        <v>21.1010101010101</v>
       </c>
       <c r="P12">
         <v>-1</v>
@@ -1817,7 +1817,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1864,14 +1864,14 @@
       </c>
       <c r="M13">
         <f t="shared" si="2"/>
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="N13">
         <v>-1</v>
       </c>
       <c r="O13">
         <f t="shared" si="2"/>
-        <v>64.444444444444443</v>
+        <v>23.111111111111111</v>
       </c>
       <c r="P13">
         <v>-1</v>
@@ -1880,7 +1880,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1927,14 +1927,14 @@
       </c>
       <c r="M14">
         <f t="shared" si="2"/>
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="N14">
         <v>-1</v>
       </c>
       <c r="O14">
         <f t="shared" si="2"/>
-        <v>69.393939393939405</v>
+        <v>25.121212121212121</v>
       </c>
       <c r="P14">
         <v>-1</v>
@@ -1943,7 +1943,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1990,14 +1990,14 @@
       </c>
       <c r="M15">
         <f t="shared" si="2"/>
-        <v>70</v>
+        <v>14.000000000000002</v>
       </c>
       <c r="N15">
         <v>-1</v>
       </c>
       <c r="O15">
         <f t="shared" si="2"/>
-        <v>74.343434343434353</v>
+        <v>27.131313131313135</v>
       </c>
       <c r="P15">
         <v>-1</v>
@@ -2006,7 +2006,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2053,14 +2053,14 @@
       </c>
       <c r="M16">
         <f t="shared" si="2"/>
-        <v>75</v>
+        <v>15</v>
       </c>
       <c r="N16">
         <v>-1</v>
       </c>
       <c r="O16">
         <f t="shared" si="2"/>
-        <v>79.292929292929287</v>
+        <v>29.141414141414142</v>
       </c>
       <c r="P16">
         <v>-1</v>
@@ -2069,7 +2069,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2116,14 +2116,14 @@
       </c>
       <c r="M17">
         <f t="shared" si="2"/>
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="N17">
         <v>-1</v>
       </c>
       <c r="O17">
         <f t="shared" si="2"/>
-        <v>84.242424242424249</v>
+        <v>31.151515151515152</v>
       </c>
       <c r="P17">
         <v>-1</v>
@@ -2132,7 +2132,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2179,14 +2179,14 @@
       </c>
       <c r="M18">
         <f t="shared" si="2"/>
-        <v>85</v>
+        <v>17</v>
       </c>
       <c r="N18">
         <v>-1</v>
       </c>
       <c r="O18">
         <f t="shared" si="2"/>
-        <v>89.191919191919197</v>
+        <v>33.161616161616166</v>
       </c>
       <c r="P18">
         <v>-1</v>
@@ -2195,7 +2195,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2242,14 +2242,14 @@
       </c>
       <c r="M19">
         <f t="shared" si="2"/>
-        <v>90</v>
+        <v>18</v>
       </c>
       <c r="N19">
         <v>-1</v>
       </c>
       <c r="O19">
         <f t="shared" si="2"/>
-        <v>94.141414141414145</v>
+        <v>35.171717171717169</v>
       </c>
       <c r="P19">
         <v>-1</v>
@@ -2258,7 +2258,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2305,14 +2305,14 @@
       </c>
       <c r="M20">
         <f t="shared" si="2"/>
-        <v>95</v>
+        <v>19</v>
       </c>
       <c r="N20">
         <v>-1</v>
       </c>
       <c r="O20">
         <f t="shared" si="2"/>
-        <v>99.090909090909093</v>
+        <v>37.18181818181818</v>
       </c>
       <c r="P20">
         <v>-1</v>
@@ -2321,7 +2321,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2368,14 +2368,14 @@
       </c>
       <c r="M21">
         <f t="shared" si="2"/>
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="N21">
         <v>-1</v>
       </c>
       <c r="O21">
         <f t="shared" si="2"/>
-        <v>104.04040404040403</v>
+        <v>39.19191919191919</v>
       </c>
       <c r="P21">
         <v>-1</v>
@@ -2384,7 +2384,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2431,14 +2431,14 @@
       </c>
       <c r="M22">
         <f t="shared" si="2"/>
-        <v>105</v>
+        <v>21</v>
       </c>
       <c r="N22">
         <v>-1</v>
       </c>
       <c r="O22">
         <f t="shared" si="2"/>
-        <v>108.98989898989899</v>
+        <v>41.202020202020201</v>
       </c>
       <c r="P22">
         <v>-1</v>
@@ -2447,7 +2447,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2494,14 +2494,14 @@
       </c>
       <c r="M23">
         <f t="shared" si="2"/>
-        <v>110</v>
+        <v>22</v>
       </c>
       <c r="N23">
         <v>-1</v>
       </c>
       <c r="O23">
         <f t="shared" si="2"/>
-        <v>113.93939393939394</v>
+        <v>43.212121212121211</v>
       </c>
       <c r="P23">
         <v>-1</v>
@@ -2510,7 +2510,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2557,14 +2557,14 @@
       </c>
       <c r="M24">
         <f t="shared" si="2"/>
-        <v>115</v>
+        <v>23</v>
       </c>
       <c r="N24">
         <v>-1</v>
       </c>
       <c r="O24">
         <f t="shared" si="2"/>
-        <v>118.88888888888889</v>
+        <v>45.222222222222221</v>
       </c>
       <c r="P24">
         <v>-1</v>
@@ -2573,7 +2573,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2620,14 +2620,14 @@
       </c>
       <c r="M25">
         <f t="shared" si="2"/>
-        <v>120</v>
+        <v>24</v>
       </c>
       <c r="N25">
         <v>-1</v>
       </c>
       <c r="O25">
         <f t="shared" si="2"/>
-        <v>123.83838383838383</v>
+        <v>47.232323232323232</v>
       </c>
       <c r="P25">
         <v>-1</v>
@@ -2636,7 +2636,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2683,14 +2683,14 @@
       </c>
       <c r="M26">
         <f t="shared" si="2"/>
-        <v>125</v>
+        <v>25</v>
       </c>
       <c r="N26">
         <v>-1</v>
       </c>
       <c r="O26">
         <f t="shared" si="2"/>
-        <v>128.78787878787881</v>
+        <v>49.242424242424242</v>
       </c>
       <c r="P26">
         <v>-1</v>
@@ -2699,7 +2699,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2746,14 +2746,14 @@
       </c>
       <c r="M27">
         <f t="shared" si="2"/>
-        <v>130</v>
+        <v>26</v>
       </c>
       <c r="N27">
         <v>-1</v>
       </c>
       <c r="O27">
         <f t="shared" si="2"/>
-        <v>133.73737373737373</v>
+        <v>51.252525252525253</v>
       </c>
       <c r="P27">
         <v>-1</v>
@@ -2762,7 +2762,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2809,14 +2809,14 @@
       </c>
       <c r="M28">
         <f t="shared" si="2"/>
-        <v>135</v>
+        <v>27.000000000000004</v>
       </c>
       <c r="N28">
         <v>-1</v>
       </c>
       <c r="O28">
         <f t="shared" si="2"/>
-        <v>138.68686868686871</v>
+        <v>53.26262626262627</v>
       </c>
       <c r="P28">
         <v>-1</v>
@@ -2825,7 +2825,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2872,14 +2872,14 @@
       </c>
       <c r="M29">
         <f t="shared" si="2"/>
-        <v>140</v>
+        <v>27.999999999999996</v>
       </c>
       <c r="N29">
         <v>-1</v>
       </c>
       <c r="O29">
         <f t="shared" si="2"/>
-        <v>143.63636363636363</v>
+        <v>55.272727272727266</v>
       </c>
       <c r="P29">
         <v>-1</v>
@@ -2888,7 +2888,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2935,14 +2935,14 @@
       </c>
       <c r="M30">
         <f t="shared" si="2"/>
-        <v>145</v>
+        <v>29</v>
       </c>
       <c r="N30">
         <v>-1</v>
       </c>
       <c r="O30">
         <f t="shared" si="2"/>
-        <v>148.58585858585857</v>
+        <v>57.282828282828284</v>
       </c>
       <c r="P30">
         <v>-1</v>
@@ -2951,7 +2951,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2998,14 +2998,14 @@
       </c>
       <c r="M31">
         <f t="shared" si="2"/>
-        <v>150</v>
+        <v>30</v>
       </c>
       <c r="N31">
         <v>-1</v>
       </c>
       <c r="O31">
         <f t="shared" si="2"/>
-        <v>153.53535353535352</v>
+        <v>59.292929292929294</v>
       </c>
       <c r="P31">
         <v>-1</v>
@@ -3014,7 +3014,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -3061,14 +3061,14 @@
       </c>
       <c r="M32">
         <f t="shared" si="2"/>
-        <v>155</v>
+        <v>31</v>
       </c>
       <c r="N32">
         <v>-1</v>
       </c>
       <c r="O32">
         <f t="shared" si="2"/>
-        <v>158.4848484848485</v>
+        <v>61.303030303030305</v>
       </c>
       <c r="P32">
         <v>-1</v>
@@ -3077,7 +3077,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -3124,14 +3124,14 @@
       </c>
       <c r="M33">
         <f t="shared" si="2"/>
-        <v>160</v>
+        <v>32</v>
       </c>
       <c r="N33">
         <v>-1</v>
       </c>
       <c r="O33">
         <f t="shared" si="2"/>
-        <v>163.43434343434345</v>
+        <v>63.313131313131315</v>
       </c>
       <c r="P33">
         <v>-1</v>
@@ -3140,7 +3140,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -3187,14 +3187,14 @@
       </c>
       <c r="M34">
         <f t="shared" si="2"/>
-        <v>165</v>
+        <v>33</v>
       </c>
       <c r="N34">
         <v>-1</v>
       </c>
       <c r="O34">
         <f t="shared" si="2"/>
-        <v>168.38383838383839</v>
+        <v>65.323232323232332</v>
       </c>
       <c r="P34">
         <v>-1</v>
@@ -3203,7 +3203,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -3250,14 +3250,14 @@
       </c>
       <c r="M35">
         <f t="shared" si="2"/>
-        <v>170</v>
+        <v>34</v>
       </c>
       <c r="N35">
         <v>-1</v>
       </c>
       <c r="O35">
         <f t="shared" si="2"/>
-        <v>173.33333333333331</v>
+        <v>67.333333333333329</v>
       </c>
       <c r="P35">
         <v>-1</v>
@@ -3266,7 +3266,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -3313,14 +3313,14 @@
       </c>
       <c r="M36">
         <f t="shared" si="2"/>
-        <v>175</v>
+        <v>35</v>
       </c>
       <c r="N36">
         <v>-1</v>
       </c>
       <c r="O36">
         <f t="shared" si="2"/>
-        <v>178.28282828282829</v>
+        <v>69.343434343434339</v>
       </c>
       <c r="P36">
         <v>-1</v>
@@ -3329,7 +3329,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -3376,14 +3376,14 @@
       </c>
       <c r="M37">
         <f t="shared" si="2"/>
-        <v>180</v>
+        <v>36</v>
       </c>
       <c r="N37">
         <v>-1</v>
       </c>
       <c r="O37">
         <f t="shared" si="2"/>
-        <v>183.23232323232324</v>
+        <v>71.353535353535349</v>
       </c>
       <c r="P37">
         <v>-1</v>
@@ -3392,7 +3392,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -3439,14 +3439,14 @@
       </c>
       <c r="M38">
         <f t="shared" si="2"/>
-        <v>185</v>
+        <v>37</v>
       </c>
       <c r="N38">
         <v>-1</v>
       </c>
       <c r="O38">
         <f t="shared" si="2"/>
-        <v>188.18181818181819</v>
+        <v>73.36363636363636</v>
       </c>
       <c r="P38">
         <v>-1</v>
@@ -3455,7 +3455,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -3502,14 +3502,14 @@
       </c>
       <c r="M39">
         <f t="shared" si="2"/>
-        <v>190</v>
+        <v>38</v>
       </c>
       <c r="N39">
         <v>-1</v>
       </c>
       <c r="O39">
         <f t="shared" si="2"/>
-        <v>193.13131313131314</v>
+        <v>75.373737373737384</v>
       </c>
       <c r="P39">
         <v>-1</v>
@@ -3518,7 +3518,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -3565,14 +3565,14 @@
       </c>
       <c r="M40">
         <f t="shared" si="2"/>
-        <v>195</v>
+        <v>39</v>
       </c>
       <c r="N40">
         <v>-1</v>
       </c>
       <c r="O40">
         <f t="shared" si="2"/>
-        <v>198.08080808080805</v>
+        <v>77.383838383838381</v>
       </c>
       <c r="P40">
         <v>-1</v>
@@ -3581,7 +3581,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -3628,14 +3628,14 @@
       </c>
       <c r="M41">
         <f t="shared" si="2"/>
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="N41">
         <v>-1</v>
       </c>
       <c r="O41">
         <f t="shared" si="2"/>
-        <v>203.03030303030303</v>
+        <v>79.393939393939391</v>
       </c>
       <c r="P41">
         <v>-1</v>
@@ -3644,7 +3644,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -3691,14 +3691,14 @@
       </c>
       <c r="M42">
         <f t="shared" si="2"/>
-        <v>205</v>
+        <v>41</v>
       </c>
       <c r="N42">
         <v>-1</v>
       </c>
       <c r="O42">
         <f t="shared" si="2"/>
-        <v>207.97979797979798</v>
+        <v>81.404040404040401</v>
       </c>
       <c r="P42">
         <v>-1</v>
@@ -3707,7 +3707,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -3754,14 +3754,14 @@
       </c>
       <c r="M43">
         <f t="shared" si="2"/>
-        <v>210</v>
+        <v>42</v>
       </c>
       <c r="N43">
         <v>-1</v>
       </c>
       <c r="O43">
         <f t="shared" si="2"/>
-        <v>212.92929292929293</v>
+        <v>83.414141414141412</v>
       </c>
       <c r="P43">
         <v>-1</v>
@@ -3770,7 +3770,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -3817,14 +3817,14 @@
       </c>
       <c r="M44">
         <f t="shared" si="2"/>
-        <v>215</v>
+        <v>43</v>
       </c>
       <c r="N44">
         <v>-1</v>
       </c>
       <c r="O44">
         <f t="shared" si="2"/>
-        <v>217.87878787878788</v>
+        <v>85.424242424242422</v>
       </c>
       <c r="P44">
         <v>-1</v>
@@ -3833,7 +3833,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -3880,14 +3880,14 @@
       </c>
       <c r="M45">
         <f t="shared" si="2"/>
-        <v>220</v>
+        <v>44</v>
       </c>
       <c r="N45">
         <v>-1</v>
       </c>
       <c r="O45">
         <f t="shared" si="2"/>
-        <v>222.82828282828285</v>
+        <v>87.434343434343432</v>
       </c>
       <c r="P45">
         <v>-1</v>
@@ -3896,7 +3896,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -3943,14 +3943,14 @@
       </c>
       <c r="M46">
         <f t="shared" si="2"/>
-        <v>225</v>
+        <v>45</v>
       </c>
       <c r="N46">
         <v>-1</v>
       </c>
       <c r="O46">
         <f t="shared" si="2"/>
-        <v>227.77777777777777</v>
+        <v>89.444444444444443</v>
       </c>
       <c r="P46">
         <v>-1</v>
@@ -3959,7 +3959,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -4006,14 +4006,14 @@
       </c>
       <c r="M47">
         <f t="shared" si="2"/>
-        <v>230</v>
+        <v>46</v>
       </c>
       <c r="N47">
         <v>-1</v>
       </c>
       <c r="O47">
         <f t="shared" si="2"/>
-        <v>232.72727272727272</v>
+        <v>91.454545454545453</v>
       </c>
       <c r="P47">
         <v>-1</v>
@@ -4022,7 +4022,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -4069,14 +4069,14 @@
       </c>
       <c r="M48">
         <f t="shared" si="2"/>
-        <v>235</v>
+        <v>47</v>
       </c>
       <c r="N48">
         <v>-1</v>
       </c>
       <c r="O48">
         <f t="shared" si="2"/>
-        <v>237.67676767676767</v>
+        <v>93.464646464646464</v>
       </c>
       <c r="P48">
         <v>-1</v>
@@ -4085,7 +4085,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -4132,14 +4132,14 @@
       </c>
       <c r="M49">
         <f t="shared" si="2"/>
-        <v>240</v>
+        <v>48</v>
       </c>
       <c r="N49">
         <v>-1</v>
       </c>
       <c r="O49">
         <f t="shared" si="2"/>
-        <v>242.62626262626262</v>
+        <v>95.474747474747474</v>
       </c>
       <c r="P49">
         <v>-1</v>
@@ -4148,7 +4148,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -4195,14 +4195,14 @@
       </c>
       <c r="M50">
         <f t="shared" si="2"/>
-        <v>245</v>
+        <v>49</v>
       </c>
       <c r="N50">
         <v>-1</v>
       </c>
       <c r="O50">
         <f t="shared" si="2"/>
-        <v>247.57575757575759</v>
+        <v>97.484848484848484</v>
       </c>
       <c r="P50">
         <v>-1</v>
@@ -4211,7 +4211,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -4258,14 +4258,14 @@
       </c>
       <c r="M51">
         <f t="shared" si="2"/>
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="N51">
         <v>-1</v>
       </c>
       <c r="O51">
         <f t="shared" si="2"/>
-        <v>252.52525252525254</v>
+        <v>99.494949494949495</v>
       </c>
       <c r="P51">
         <v>-1</v>
@@ -4274,7 +4274,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -4321,14 +4321,14 @@
       </c>
       <c r="M52">
         <f t="shared" si="2"/>
-        <v>255.00000000000003</v>
+        <v>51</v>
       </c>
       <c r="N52">
         <v>-1</v>
       </c>
       <c r="O52">
         <f t="shared" si="2"/>
-        <v>257.47474747474746</v>
+        <v>101.50505050505051</v>
       </c>
       <c r="P52">
         <v>-1</v>
@@ -4337,7 +4337,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -4384,14 +4384,14 @@
       </c>
       <c r="M53">
         <f t="shared" si="2"/>
-        <v>260</v>
+        <v>52</v>
       </c>
       <c r="N53">
         <v>-1</v>
       </c>
       <c r="O53">
         <f t="shared" si="2"/>
-        <v>262.42424242424238</v>
+        <v>103.51515151515152</v>
       </c>
       <c r="P53">
         <v>-1</v>
@@ -4400,7 +4400,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -4447,14 +4447,14 @@
       </c>
       <c r="M54">
         <f t="shared" si="2"/>
-        <v>265</v>
+        <v>53.000000000000007</v>
       </c>
       <c r="N54">
         <v>-1</v>
       </c>
       <c r="O54">
         <f t="shared" si="2"/>
-        <v>267.37373737373741</v>
+        <v>105.52525252525254</v>
       </c>
       <c r="P54">
         <v>-1</v>
@@ -4463,7 +4463,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -4510,14 +4510,14 @@
       </c>
       <c r="M55">
         <f t="shared" si="2"/>
-        <v>270</v>
+        <v>54</v>
       </c>
       <c r="N55">
         <v>-1</v>
       </c>
       <c r="O55">
         <f t="shared" si="2"/>
-        <v>272.32323232323233</v>
+        <v>107.53535353535354</v>
       </c>
       <c r="P55">
         <v>-1</v>
@@ -4526,7 +4526,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -4573,14 +4573,14 @@
       </c>
       <c r="M56">
         <f t="shared" si="2"/>
-        <v>275</v>
+        <v>54.999999999999993</v>
       </c>
       <c r="N56">
         <v>-1</v>
       </c>
       <c r="O56">
         <f t="shared" si="2"/>
-        <v>277.27272727272725</v>
+        <v>109.54545454545453</v>
       </c>
       <c r="P56">
         <v>-1</v>
@@ -4589,7 +4589,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -4636,14 +4636,14 @@
       </c>
       <c r="M57">
         <f t="shared" si="2"/>
-        <v>280</v>
+        <v>56</v>
       </c>
       <c r="N57">
         <v>-1</v>
       </c>
       <c r="O57">
         <f t="shared" si="2"/>
-        <v>282.22222222222223</v>
+        <v>111.55555555555556</v>
       </c>
       <c r="P57">
         <v>-1</v>
@@ -4652,7 +4652,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -4699,14 +4699,14 @@
       </c>
       <c r="M58">
         <f t="shared" si="2"/>
-        <v>285</v>
+        <v>57</v>
       </c>
       <c r="N58">
         <v>-1</v>
       </c>
       <c r="O58">
         <f t="shared" si="2"/>
-        <v>287.17171717171715</v>
+        <v>113.56565656565657</v>
       </c>
       <c r="P58">
         <v>-1</v>
@@ -4715,7 +4715,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -4762,14 +4762,14 @@
       </c>
       <c r="M59">
         <f t="shared" si="2"/>
-        <v>290</v>
+        <v>58.000000000000007</v>
       </c>
       <c r="N59">
         <v>-1</v>
       </c>
       <c r="O59">
         <f t="shared" si="2"/>
-        <v>292.12121212121212</v>
+        <v>115.57575757575758</v>
       </c>
       <c r="P59">
         <v>-1</v>
@@ -4778,7 +4778,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -4825,14 +4825,14 @@
       </c>
       <c r="M60">
         <f t="shared" si="2"/>
-        <v>295</v>
+        <v>59</v>
       </c>
       <c r="N60">
         <v>-1</v>
       </c>
       <c r="O60">
         <f t="shared" si="2"/>
-        <v>297.07070707070704</v>
+        <v>117.58585858585859</v>
       </c>
       <c r="P60">
         <v>-1</v>
@@ -4841,7 +4841,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -4888,14 +4888,14 @@
       </c>
       <c r="M61">
         <f t="shared" si="2"/>
-        <v>300</v>
+        <v>59.999999999999993</v>
       </c>
       <c r="N61">
         <v>-1</v>
       </c>
       <c r="O61">
         <f t="shared" si="2"/>
-        <v>302.02020202020202</v>
+        <v>119.59595959595958</v>
       </c>
       <c r="P61">
         <v>-1</v>
@@ -4904,7 +4904,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -4951,14 +4951,14 @@
       </c>
       <c r="M62">
         <f t="shared" si="2"/>
-        <v>305</v>
+        <v>61</v>
       </c>
       <c r="N62">
         <v>-1</v>
       </c>
       <c r="O62">
         <f t="shared" si="2"/>
-        <v>306.969696969697</v>
+        <v>121.60606060606061</v>
       </c>
       <c r="P62">
         <v>-1</v>
@@ -4967,7 +4967,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -5014,14 +5014,14 @@
       </c>
       <c r="M63">
         <f t="shared" si="2"/>
-        <v>310</v>
+        <v>62</v>
       </c>
       <c r="N63">
         <v>-1</v>
       </c>
       <c r="O63">
         <f t="shared" si="2"/>
-        <v>311.91919191919192</v>
+        <v>123.61616161616161</v>
       </c>
       <c r="P63">
         <v>-1</v>
@@ -5030,7 +5030,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -5077,14 +5077,14 @@
       </c>
       <c r="M64">
         <f t="shared" si="2"/>
-        <v>315</v>
+        <v>63</v>
       </c>
       <c r="N64">
         <v>-1</v>
       </c>
       <c r="O64">
         <f t="shared" si="2"/>
-        <v>316.86868686868689</v>
+        <v>125.62626262626263</v>
       </c>
       <c r="P64">
         <v>-1</v>
@@ -5093,7 +5093,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -5140,14 +5140,14 @@
       </c>
       <c r="M65">
         <f t="shared" si="2"/>
-        <v>320</v>
+        <v>64</v>
       </c>
       <c r="N65">
         <v>-1</v>
       </c>
       <c r="O65">
         <f t="shared" si="2"/>
-        <v>321.81818181818181</v>
+        <v>127.63636363636364</v>
       </c>
       <c r="P65">
         <v>-1</v>
@@ -5156,7 +5156,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -5203,14 +5203,14 @@
       </c>
       <c r="M66">
         <f t="shared" si="2"/>
-        <v>325</v>
+        <v>65</v>
       </c>
       <c r="N66">
         <v>-1</v>
       </c>
       <c r="O66">
         <f t="shared" si="2"/>
-        <v>326.76767676767679</v>
+        <v>129.64646464646466</v>
       </c>
       <c r="P66">
         <v>-1</v>
@@ -5219,7 +5219,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -5266,14 +5266,14 @@
       </c>
       <c r="M67">
         <f t="shared" ref="M67:O100" si="13">(M$2+((SUM($A67-1)/SUM($A$101-1))*(SUM(M$101-M$2))))</f>
-        <v>330</v>
+        <v>66</v>
       </c>
       <c r="N67">
         <v>-1</v>
       </c>
       <c r="O67">
         <f t="shared" si="13"/>
-        <v>331.71717171717171</v>
+        <v>131.65656565656565</v>
       </c>
       <c r="P67">
         <v>-1</v>
@@ -5282,7 +5282,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
@@ -5329,14 +5329,14 @@
       </c>
       <c r="M68">
         <f t="shared" si="13"/>
-        <v>335</v>
+        <v>67</v>
       </c>
       <c r="N68">
         <v>-1</v>
       </c>
       <c r="O68">
         <f t="shared" si="13"/>
-        <v>336.66666666666663</v>
+        <v>133.66666666666666</v>
       </c>
       <c r="P68">
         <v>-1</v>
@@ -5345,7 +5345,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
@@ -5392,14 +5392,14 @@
       </c>
       <c r="M69">
         <f t="shared" si="13"/>
-        <v>340</v>
+        <v>68</v>
       </c>
       <c r="N69">
         <v>-1</v>
       </c>
       <c r="O69">
         <f t="shared" si="13"/>
-        <v>341.61616161616161</v>
+        <v>135.6767676767677</v>
       </c>
       <c r="P69">
         <v>-1</v>
@@ -5408,7 +5408,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
@@ -5455,14 +5455,14 @@
       </c>
       <c r="M70">
         <f t="shared" si="13"/>
-        <v>345</v>
+        <v>69</v>
       </c>
       <c r="N70">
         <v>-1</v>
       </c>
       <c r="O70">
         <f t="shared" si="13"/>
-        <v>346.56565656565658</v>
+        <v>137.68686868686868</v>
       </c>
       <c r="P70">
         <v>-1</v>
@@ -5471,7 +5471,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
@@ -5518,14 +5518,14 @@
       </c>
       <c r="M71">
         <f t="shared" si="13"/>
-        <v>350</v>
+        <v>70</v>
       </c>
       <c r="N71">
         <v>-1</v>
       </c>
       <c r="O71">
         <f t="shared" si="13"/>
-        <v>351.51515151515156</v>
+        <v>139.69696969696972</v>
       </c>
       <c r="P71">
         <v>-1</v>
@@ -5534,7 +5534,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
@@ -5581,14 +5581,14 @@
       </c>
       <c r="M72">
         <f t="shared" si="13"/>
-        <v>355</v>
+        <v>71</v>
       </c>
       <c r="N72">
         <v>-1</v>
       </c>
       <c r="O72">
         <f t="shared" si="13"/>
-        <v>356.46464646464648</v>
+        <v>141.7070707070707</v>
       </c>
       <c r="P72">
         <v>-1</v>
@@ -5597,7 +5597,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
@@ -5644,14 +5644,14 @@
       </c>
       <c r="M73">
         <f t="shared" si="13"/>
-        <v>360</v>
+        <v>72</v>
       </c>
       <c r="N73">
         <v>-1</v>
       </c>
       <c r="O73">
         <f t="shared" si="13"/>
-        <v>361.4141414141414</v>
+        <v>143.71717171717171</v>
       </c>
       <c r="P73">
         <v>-1</v>
@@ -5660,7 +5660,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
@@ -5707,14 +5707,14 @@
       </c>
       <c r="M74">
         <f t="shared" si="13"/>
-        <v>365</v>
+        <v>73</v>
       </c>
       <c r="N74">
         <v>-1</v>
       </c>
       <c r="O74">
         <f t="shared" si="13"/>
-        <v>366.36363636363637</v>
+        <v>145.72727272727272</v>
       </c>
       <c r="P74">
         <v>-1</v>
@@ -5723,7 +5723,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
@@ -5770,14 +5770,14 @@
       </c>
       <c r="M75">
         <f t="shared" si="13"/>
-        <v>370</v>
+        <v>74</v>
       </c>
       <c r="N75">
         <v>-1</v>
       </c>
       <c r="O75">
         <f t="shared" si="13"/>
-        <v>371.31313131313129</v>
+        <v>147.73737373737373</v>
       </c>
       <c r="P75">
         <v>-1</v>
@@ -5786,7 +5786,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
@@ -5833,14 +5833,14 @@
       </c>
       <c r="M76">
         <f t="shared" si="13"/>
-        <v>375</v>
+        <v>75</v>
       </c>
       <c r="N76">
         <v>-1</v>
       </c>
       <c r="O76">
         <f t="shared" si="13"/>
-        <v>376.26262626262627</v>
+        <v>149.74747474747477</v>
       </c>
       <c r="P76">
         <v>-1</v>
@@ -5849,7 +5849,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
@@ -5896,14 +5896,14 @@
       </c>
       <c r="M77">
         <f t="shared" si="13"/>
-        <v>380</v>
+        <v>76</v>
       </c>
       <c r="N77">
         <v>-1</v>
       </c>
       <c r="O77">
         <f t="shared" si="13"/>
-        <v>381.21212121212119</v>
+        <v>151.75757575757575</v>
       </c>
       <c r="P77">
         <v>-1</v>
@@ -5912,7 +5912,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
@@ -5959,14 +5959,14 @@
       </c>
       <c r="M78">
         <f t="shared" si="13"/>
-        <v>385</v>
+        <v>77</v>
       </c>
       <c r="N78">
         <v>-1</v>
       </c>
       <c r="O78">
         <f t="shared" si="13"/>
-        <v>386.16161616161611</v>
+        <v>153.76767676767676</v>
       </c>
       <c r="P78">
         <v>-1</v>
@@ -5975,7 +5975,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
@@ -6022,14 +6022,14 @@
       </c>
       <c r="M79">
         <f t="shared" si="13"/>
-        <v>390</v>
+        <v>78</v>
       </c>
       <c r="N79">
         <v>-1</v>
       </c>
       <c r="O79">
         <f t="shared" si="13"/>
-        <v>391.11111111111114</v>
+        <v>155.77777777777777</v>
       </c>
       <c r="P79">
         <v>-1</v>
@@ -6038,7 +6038,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
@@ -6085,14 +6085,14 @@
       </c>
       <c r="M80">
         <f t="shared" si="13"/>
-        <v>395</v>
+        <v>79</v>
       </c>
       <c r="N80">
         <v>-1</v>
       </c>
       <c r="O80">
         <f t="shared" si="13"/>
-        <v>396.06060606060606</v>
+        <v>157.78787878787878</v>
       </c>
       <c r="P80">
         <v>-1</v>
@@ -6101,7 +6101,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
@@ -6148,14 +6148,14 @@
       </c>
       <c r="M81">
         <f t="shared" si="13"/>
-        <v>400</v>
+        <v>80</v>
       </c>
       <c r="N81">
         <v>-1</v>
       </c>
       <c r="O81">
         <f t="shared" si="13"/>
-        <v>401.01010101010104</v>
+        <v>159.79797979797979</v>
       </c>
       <c r="P81">
         <v>-1</v>
@@ -6164,7 +6164,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
@@ -6211,14 +6211,14 @@
       </c>
       <c r="M82">
         <f t="shared" si="13"/>
-        <v>405</v>
+        <v>81</v>
       </c>
       <c r="N82">
         <v>-1</v>
       </c>
       <c r="O82">
         <f t="shared" si="13"/>
-        <v>405.95959595959596</v>
+        <v>161.8080808080808</v>
       </c>
       <c r="P82">
         <v>-1</v>
@@ -6227,7 +6227,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
@@ -6274,14 +6274,14 @@
       </c>
       <c r="M83">
         <f t="shared" si="13"/>
-        <v>410</v>
+        <v>82</v>
       </c>
       <c r="N83">
         <v>-1</v>
       </c>
       <c r="O83">
         <f t="shared" si="13"/>
-        <v>410.90909090909093</v>
+        <v>163.81818181818184</v>
       </c>
       <c r="P83">
         <v>-1</v>
@@ -6290,7 +6290,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
@@ -6337,14 +6337,14 @@
       </c>
       <c r="M84">
         <f t="shared" si="13"/>
-        <v>415</v>
+        <v>83</v>
       </c>
       <c r="N84">
         <v>-1</v>
       </c>
       <c r="O84">
         <f t="shared" si="13"/>
-        <v>415.85858585858585</v>
+        <v>165.82828282828282</v>
       </c>
       <c r="P84">
         <v>-1</v>
@@ -6353,7 +6353,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
@@ -6400,14 +6400,14 @@
       </c>
       <c r="M85">
         <f t="shared" si="13"/>
-        <v>420</v>
+        <v>84</v>
       </c>
       <c r="N85">
         <v>-1</v>
       </c>
       <c r="O85">
         <f t="shared" si="13"/>
-        <v>420.80808080808077</v>
+        <v>167.83838383838383</v>
       </c>
       <c r="P85">
         <v>-1</v>
@@ -6416,7 +6416,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
@@ -6463,14 +6463,14 @@
       </c>
       <c r="M86">
         <f t="shared" si="13"/>
-        <v>425</v>
+        <v>85</v>
       </c>
       <c r="N86">
         <v>-1</v>
       </c>
       <c r="O86">
         <f t="shared" si="13"/>
-        <v>425.75757575757575</v>
+        <v>169.84848484848484</v>
       </c>
       <c r="P86">
         <v>-1</v>
@@ -6479,7 +6479,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
@@ -6526,14 +6526,14 @@
       </c>
       <c r="M87">
         <f t="shared" si="13"/>
-        <v>430</v>
+        <v>86</v>
       </c>
       <c r="N87">
         <v>-1</v>
       </c>
       <c r="O87">
         <f t="shared" si="13"/>
-        <v>430.70707070707067</v>
+        <v>171.85858585858585</v>
       </c>
       <c r="P87">
         <v>-1</v>
@@ -6542,7 +6542,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
@@ -6589,14 +6589,14 @@
       </c>
       <c r="M88">
         <f t="shared" si="13"/>
-        <v>435</v>
+        <v>87</v>
       </c>
       <c r="N88">
         <v>-1</v>
       </c>
       <c r="O88">
         <f t="shared" si="13"/>
-        <v>435.6565656565657</v>
+        <v>173.86868686868686</v>
       </c>
       <c r="P88">
         <v>-1</v>
@@ -6605,7 +6605,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
@@ -6652,14 +6652,14 @@
       </c>
       <c r="M89">
         <f t="shared" si="13"/>
-        <v>440</v>
+        <v>88</v>
       </c>
       <c r="N89">
         <v>-1</v>
       </c>
       <c r="O89">
         <f t="shared" si="13"/>
-        <v>440.60606060606062</v>
+        <v>175.87878787878788</v>
       </c>
       <c r="P89">
         <v>-1</v>
@@ -6668,7 +6668,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
@@ -6715,14 +6715,14 @@
       </c>
       <c r="M90">
         <f t="shared" si="13"/>
-        <v>445</v>
+        <v>89</v>
       </c>
       <c r="N90">
         <v>-1</v>
       </c>
       <c r="O90">
         <f t="shared" si="13"/>
-        <v>445.55555555555554</v>
+        <v>177.88888888888889</v>
       </c>
       <c r="P90">
         <v>-1</v>
@@ -6731,7 +6731,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
@@ -6778,14 +6778,14 @@
       </c>
       <c r="M91">
         <f t="shared" si="13"/>
-        <v>450</v>
+        <v>90</v>
       </c>
       <c r="N91">
         <v>-1</v>
       </c>
       <c r="O91">
         <f t="shared" si="13"/>
-        <v>450.50505050505052</v>
+        <v>179.8989898989899</v>
       </c>
       <c r="P91">
         <v>-1</v>
@@ -6794,7 +6794,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
@@ -6841,14 +6841,14 @@
       </c>
       <c r="M92">
         <f t="shared" si="13"/>
-        <v>455</v>
+        <v>91</v>
       </c>
       <c r="N92">
         <v>-1</v>
       </c>
       <c r="O92">
         <f t="shared" si="13"/>
-        <v>455.45454545454544</v>
+        <v>181.90909090909091</v>
       </c>
       <c r="P92">
         <v>-1</v>
@@ -6857,7 +6857,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
@@ -6904,14 +6904,14 @@
       </c>
       <c r="M93">
         <f t="shared" si="13"/>
-        <v>460</v>
+        <v>92</v>
       </c>
       <c r="N93">
         <v>-1</v>
       </c>
       <c r="O93">
         <f t="shared" si="13"/>
-        <v>460.40404040404042</v>
+        <v>183.91919191919192</v>
       </c>
       <c r="P93">
         <v>-1</v>
@@ -6920,7 +6920,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
@@ -6967,14 +6967,14 @@
       </c>
       <c r="M94">
         <f t="shared" si="13"/>
-        <v>465</v>
+        <v>93</v>
       </c>
       <c r="N94">
         <v>-1</v>
       </c>
       <c r="O94">
         <f t="shared" si="13"/>
-        <v>465.35353535353534</v>
+        <v>185.92929292929293</v>
       </c>
       <c r="P94">
         <v>-1</v>
@@ -6983,7 +6983,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
@@ -7030,14 +7030,14 @@
       </c>
       <c r="M95">
         <f t="shared" si="13"/>
-        <v>470</v>
+        <v>94</v>
       </c>
       <c r="N95">
         <v>-1</v>
       </c>
       <c r="O95">
         <f t="shared" si="13"/>
-        <v>470.30303030303031</v>
+        <v>187.93939393939394</v>
       </c>
       <c r="P95">
         <v>-1</v>
@@ -7046,7 +7046,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
@@ -7093,14 +7093,14 @@
       </c>
       <c r="M96">
         <f t="shared" si="13"/>
-        <v>475</v>
+        <v>95</v>
       </c>
       <c r="N96">
         <v>-1</v>
       </c>
       <c r="O96">
         <f t="shared" si="13"/>
-        <v>475.25252525252523</v>
+        <v>189.94949494949495</v>
       </c>
       <c r="P96">
         <v>-1</v>
@@ -7109,7 +7109,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
@@ -7156,14 +7156,14 @@
       </c>
       <c r="M97">
         <f t="shared" si="13"/>
-        <v>480</v>
+        <v>96</v>
       </c>
       <c r="N97">
         <v>-1</v>
       </c>
       <c r="O97">
         <f t="shared" si="13"/>
-        <v>480.20202020202021</v>
+        <v>191.95959595959596</v>
       </c>
       <c r="P97">
         <v>-1</v>
@@ -7172,7 +7172,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
@@ -7219,14 +7219,14 @@
       </c>
       <c r="M98">
         <f t="shared" si="13"/>
-        <v>485</v>
+        <v>97</v>
       </c>
       <c r="N98">
         <v>-1</v>
       </c>
       <c r="O98">
         <f t="shared" si="13"/>
-        <v>485.15151515151518</v>
+        <v>193.96969696969697</v>
       </c>
       <c r="P98">
         <v>-1</v>
@@ -7235,7 +7235,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
@@ -7282,14 +7282,14 @@
       </c>
       <c r="M99">
         <f t="shared" si="13"/>
-        <v>490</v>
+        <v>98</v>
       </c>
       <c r="N99">
         <v>-1</v>
       </c>
       <c r="O99">
         <f t="shared" si="13"/>
-        <v>490.1010101010101</v>
+        <v>195.97979797979798</v>
       </c>
       <c r="P99">
         <v>-1</v>
@@ -7298,7 +7298,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
@@ -7345,14 +7345,14 @@
       </c>
       <c r="M100">
         <f t="shared" si="13"/>
-        <v>495</v>
+        <v>99</v>
       </c>
       <c r="N100">
         <v>-1</v>
       </c>
       <c r="O100">
         <f t="shared" si="13"/>
-        <v>495.05050505050508</v>
+        <v>197.98989898989899</v>
       </c>
       <c r="P100">
         <v>-1</v>
@@ -7361,7 +7361,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="101" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>100</v>
       </c>
@@ -7399,13 +7399,13 @@
         <v>-1</v>
       </c>
       <c r="M101" s="1">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="N101" s="1">
         <v>-1</v>
       </c>
       <c r="O101" s="1">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="P101" s="1">
         <v>-1</v>
@@ -7429,15 +7429,15 @@
       <selection activeCell="B4" sqref="B4:R4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="20.5546875" customWidth="1"/>
-    <col min="5" max="5" width="18.6640625" customWidth="1"/>
-    <col min="6" max="6" width="14.5546875" customWidth="1"/>
+    <col min="3" max="4" width="20.5703125" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -7452,7 +7452,7 @@
       </c>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>100</v>
       </c>
@@ -7466,7 +7466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -7520,7 +7520,7 @@
       </c>
       <c r="R4" s="2"/>
     </row>
-    <row r="5" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -7537,7 +7537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
@@ -7558,7 +7558,7 @@
         <v>3.0101010101010104</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>3</v>
       </c>
@@ -7579,7 +7579,7 @@
         <v>5.0202020202020208</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>4</v>
       </c>
@@ -7600,7 +7600,7 @@
         <v>7.0303030303030303</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>5</v>
       </c>
@@ -7621,7 +7621,7 @@
         <v>9.0404040404040416</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>6</v>
       </c>
@@ -7642,7 +7642,7 @@
         <v>11.05050505050505</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>7</v>
       </c>
@@ -7663,7 +7663,7 @@
         <v>13.060606060606061</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>8</v>
       </c>
@@ -7684,7 +7684,7 @@
         <v>15.070707070707071</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>9</v>
       </c>
@@ -7705,7 +7705,7 @@
         <v>17.080808080808083</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>10</v>
       </c>
@@ -7726,7 +7726,7 @@
         <v>19.09090909090909</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>11</v>
       </c>
@@ -7747,7 +7747,7 @@
         <v>21.1010101010101</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>12</v>
       </c>
@@ -7768,7 +7768,7 @@
         <v>23.111111111111111</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>13</v>
       </c>
@@ -7789,7 +7789,7 @@
         <v>25.121212121212121</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>14</v>
       </c>
@@ -7810,7 +7810,7 @@
         <v>27.131313131313135</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>15</v>
       </c>
@@ -7831,7 +7831,7 @@
         <v>29.141414141414142</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>16</v>
       </c>
@@ -7852,7 +7852,7 @@
         <v>31.151515151515152</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>17</v>
       </c>
@@ -7873,7 +7873,7 @@
         <v>33.161616161616166</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>18</v>
       </c>
@@ -7894,7 +7894,7 @@
         <v>35.171717171717169</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>19</v>
       </c>
@@ -7915,7 +7915,7 @@
         <v>37.18181818181818</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>20</v>
       </c>
@@ -7936,7 +7936,7 @@
         <v>39.19191919191919</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>21</v>
       </c>
@@ -7957,7 +7957,7 @@
         <v>41.202020202020201</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>22</v>
       </c>
@@ -7978,7 +7978,7 @@
         <v>43.212121212121211</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>23</v>
       </c>
@@ -7999,7 +7999,7 @@
         <v>45.222222222222221</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>24</v>
       </c>
@@ -8020,7 +8020,7 @@
         <v>47.232323232323232</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>25</v>
       </c>
@@ -8041,7 +8041,7 @@
         <v>49.242424242424242</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>26</v>
       </c>
@@ -8062,7 +8062,7 @@
         <v>51.252525252525253</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>27</v>
       </c>
@@ -8083,7 +8083,7 @@
         <v>53.26262626262627</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>28</v>
       </c>
@@ -8104,7 +8104,7 @@
         <v>55.272727272727266</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>29</v>
       </c>
@@ -8125,7 +8125,7 @@
         <v>57.282828282828284</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>30</v>
       </c>
@@ -8146,7 +8146,7 @@
         <v>59.292929292929294</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>31</v>
       </c>
@@ -8167,7 +8167,7 @@
         <v>61.303030303030305</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>32</v>
       </c>
@@ -8188,7 +8188,7 @@
         <v>63.313131313131315</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>33</v>
       </c>
@@ -8209,7 +8209,7 @@
         <v>65.323232323232332</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>34</v>
       </c>
@@ -8230,7 +8230,7 @@
         <v>67.333333333333329</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>35</v>
       </c>
@@ -8251,7 +8251,7 @@
         <v>69.343434343434339</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>36</v>
       </c>
@@ -8272,7 +8272,7 @@
         <v>71.353535353535349</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>37</v>
       </c>
@@ -8293,7 +8293,7 @@
         <v>73.36363636363636</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>38</v>
       </c>
@@ -8314,7 +8314,7 @@
         <v>75.373737373737384</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>39</v>
       </c>
@@ -8335,7 +8335,7 @@
         <v>77.383838383838381</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>40</v>
       </c>
@@ -8356,7 +8356,7 @@
         <v>79.393939393939391</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>41</v>
       </c>
@@ -8377,7 +8377,7 @@
         <v>81.404040404040401</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>42</v>
       </c>
@@ -8398,7 +8398,7 @@
         <v>83.414141414141412</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>43</v>
       </c>
@@ -8419,7 +8419,7 @@
         <v>85.424242424242422</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>44</v>
       </c>
@@ -8440,7 +8440,7 @@
         <v>87.434343434343432</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>45</v>
       </c>
@@ -8461,7 +8461,7 @@
         <v>89.444444444444443</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>46</v>
       </c>
@@ -8482,7 +8482,7 @@
         <v>91.454545454545453</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>47</v>
       </c>
@@ -8503,7 +8503,7 @@
         <v>93.464646464646464</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>48</v>
       </c>
@@ -8524,7 +8524,7 @@
         <v>95.474747474747474</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>49</v>
       </c>
@@ -8545,7 +8545,7 @@
         <v>97.484848484848484</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>50</v>
       </c>
@@ -8566,7 +8566,7 @@
         <v>99.494949494949495</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>51</v>
       </c>
@@ -8587,7 +8587,7 @@
         <v>101.50505050505051</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>52</v>
       </c>
@@ -8608,7 +8608,7 @@
         <v>103.51515151515152</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>53</v>
       </c>
@@ -8629,7 +8629,7 @@
         <v>105.52525252525254</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>54</v>
       </c>
@@ -8650,7 +8650,7 @@
         <v>107.53535353535354</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>55</v>
       </c>
@@ -8671,7 +8671,7 @@
         <v>109.54545454545453</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>56</v>
       </c>
@@ -8692,7 +8692,7 @@
         <v>111.55555555555556</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>57</v>
       </c>
@@ -8713,7 +8713,7 @@
         <v>113.56565656565657</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>58</v>
       </c>
@@ -8734,7 +8734,7 @@
         <v>115.57575757575758</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>59</v>
       </c>
@@ -8755,7 +8755,7 @@
         <v>117.58585858585859</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>60</v>
       </c>
@@ -8776,7 +8776,7 @@
         <v>119.59595959595958</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>61</v>
       </c>
@@ -8797,7 +8797,7 @@
         <v>121.60606060606061</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>62</v>
       </c>
@@ -8818,7 +8818,7 @@
         <v>123.61616161616161</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>63</v>
       </c>
@@ -8839,7 +8839,7 @@
         <v>125.62626262626263</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>64</v>
       </c>
@@ -8860,7 +8860,7 @@
         <v>127.63636363636364</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>65</v>
       </c>
@@ -8881,7 +8881,7 @@
         <v>129.64646464646466</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>66</v>
       </c>
@@ -8902,7 +8902,7 @@
         <v>131.65656565656565</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>67</v>
       </c>
@@ -8923,7 +8923,7 @@
         <v>133.66666666666666</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>68</v>
       </c>
@@ -8944,7 +8944,7 @@
         <v>135.6767676767677</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>69</v>
       </c>
@@ -8965,7 +8965,7 @@
         <v>137.68686868686868</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>70</v>
       </c>
@@ -8986,7 +8986,7 @@
         <v>139.69696969696972</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>71</v>
       </c>
@@ -9007,7 +9007,7 @@
         <v>141.7070707070707</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>72</v>
       </c>
@@ -9028,7 +9028,7 @@
         <v>143.71717171717171</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>73</v>
       </c>
@@ -9049,7 +9049,7 @@
         <v>145.72727272727272</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>74</v>
       </c>
@@ -9070,7 +9070,7 @@
         <v>147.73737373737373</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>75</v>
       </c>
@@ -9091,7 +9091,7 @@
         <v>149.74747474747477</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>76</v>
       </c>
@@ -9112,7 +9112,7 @@
         <v>151.75757575757575</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>77</v>
       </c>
@@ -9133,7 +9133,7 @@
         <v>153.76767676767676</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>78</v>
       </c>
@@ -9154,7 +9154,7 @@
         <v>155.77777777777777</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>79</v>
       </c>
@@ -9175,7 +9175,7 @@
         <v>157.78787878787878</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>80</v>
       </c>
@@ -9196,7 +9196,7 @@
         <v>159.79797979797979</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>81</v>
       </c>
@@ -9217,7 +9217,7 @@
         <v>161.8080808080808</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>82</v>
       </c>
@@ -9238,7 +9238,7 @@
         <v>163.81818181818184</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>83</v>
       </c>
@@ -9259,7 +9259,7 @@
         <v>165.82828282828282</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>84</v>
       </c>
@@ -9280,7 +9280,7 @@
         <v>167.83838383838383</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>85</v>
       </c>
@@ -9301,7 +9301,7 @@
         <v>169.84848484848484</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>86</v>
       </c>
@@ -9322,7 +9322,7 @@
         <v>171.85858585858585</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>87</v>
       </c>
@@ -9343,7 +9343,7 @@
         <v>173.86868686868686</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>88</v>
       </c>
@@ -9364,7 +9364,7 @@
         <v>175.87878787878788</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>89</v>
       </c>
@@ -9385,7 +9385,7 @@
         <v>177.88888888888889</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>90</v>
       </c>
@@ -9406,7 +9406,7 @@
         <v>179.8989898989899</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>91</v>
       </c>
@@ -9427,7 +9427,7 @@
         <v>181.90909090909091</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>92</v>
       </c>
@@ -9448,7 +9448,7 @@
         <v>183.91919191919192</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>93</v>
       </c>
@@ -9469,7 +9469,7 @@
         <v>185.92929292929293</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>94</v>
       </c>
@@ -9490,7 +9490,7 @@
         <v>187.93939393939394</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>95</v>
       </c>
@@ -9511,7 +9511,7 @@
         <v>189.94949494949495</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>96</v>
       </c>
@@ -9532,7 +9532,7 @@
         <v>191.95959595959596</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>97</v>
       </c>
@@ -9553,7 +9553,7 @@
         <v>193.96969696969697</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>98</v>
       </c>
@@ -9574,7 +9574,7 @@
         <v>195.97979797979798</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>99</v>
       </c>
@@ -9595,7 +9595,7 @@
         <v>197.98989898989899</v>
       </c>
     </row>
-    <row r="104" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>100</v>
       </c>
@@ -9626,14 +9626,14 @@
       <selection activeCell="B70" sqref="B70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
         <v>1</v>
       </c>
@@ -9647,7 +9647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2</v>
       </c>
@@ -9664,7 +9664,7 @@
         <v>3.0101010101010104</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3</v>
       </c>
@@ -9681,7 +9681,7 @@
         <v>5.0202020202020208</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>4</v>
       </c>
@@ -9698,7 +9698,7 @@
         <v>7.0303030303030303</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5</v>
       </c>
@@ -9715,7 +9715,7 @@
         <v>9.0404040404040416</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>6</v>
       </c>
@@ -9732,7 +9732,7 @@
         <v>11.05050505050505</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>7</v>
       </c>
@@ -9749,7 +9749,7 @@
         <v>13.060606060606061</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>8</v>
       </c>
@@ -9766,7 +9766,7 @@
         <v>15.070707070707071</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>9</v>
       </c>
@@ -9783,7 +9783,7 @@
         <v>17.080808080808083</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>10</v>
       </c>
@@ -9800,7 +9800,7 @@
         <v>19.09090909090909</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>11</v>
       </c>
@@ -9817,7 +9817,7 @@
         <v>21.1010101010101</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>12</v>
       </c>
@@ -9834,7 +9834,7 @@
         <v>23.111111111111111</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>13</v>
       </c>
@@ -9851,7 +9851,7 @@
         <v>25.121212121212121</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>14</v>
       </c>
@@ -9868,7 +9868,7 @@
         <v>27.131313131313135</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>15</v>
       </c>
@@ -9885,7 +9885,7 @@
         <v>29.141414141414142</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>16</v>
       </c>
@@ -9902,7 +9902,7 @@
         <v>31.151515151515152</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>17</v>
       </c>
@@ -9919,7 +9919,7 @@
         <v>33.161616161616166</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>18</v>
       </c>
@@ -9936,7 +9936,7 @@
         <v>35.171717171717169</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>19</v>
       </c>
@@ -9953,7 +9953,7 @@
         <v>37.18181818181818</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>20</v>
       </c>
@@ -9970,7 +9970,7 @@
         <v>39.19191919191919</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>21</v>
       </c>
@@ -9987,7 +9987,7 @@
         <v>41.202020202020201</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>22</v>
       </c>
@@ -10004,7 +10004,7 @@
         <v>43.212121212121211</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>23</v>
       </c>
@@ -10021,7 +10021,7 @@
         <v>45.222222222222221</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>24</v>
       </c>
@@ -10038,7 +10038,7 @@
         <v>47.232323232323232</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>25</v>
       </c>
@@ -10055,7 +10055,7 @@
         <v>49.242424242424242</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>26</v>
       </c>
@@ -10072,7 +10072,7 @@
         <v>51.252525252525253</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>27</v>
       </c>
@@ -10089,7 +10089,7 @@
         <v>53.26262626262627</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>28</v>
       </c>
@@ -10106,7 +10106,7 @@
         <v>55.272727272727266</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>29</v>
       </c>
@@ -10123,7 +10123,7 @@
         <v>57.282828282828284</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>30</v>
       </c>
@@ -10140,7 +10140,7 @@
         <v>59.292929292929294</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>31</v>
       </c>
@@ -10157,7 +10157,7 @@
         <v>61.303030303030305</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>32</v>
       </c>
@@ -10174,7 +10174,7 @@
         <v>63.313131313131315</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>33</v>
       </c>
@@ -10191,7 +10191,7 @@
         <v>65.323232323232332</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>34</v>
       </c>
@@ -10208,7 +10208,7 @@
         <v>67.333333333333329</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>35</v>
       </c>
@@ -10225,7 +10225,7 @@
         <v>69.343434343434339</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>36</v>
       </c>
@@ -10242,7 +10242,7 @@
         <v>71.353535353535349</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>37</v>
       </c>
@@ -10259,7 +10259,7 @@
         <v>73.36363636363636</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>38</v>
       </c>
@@ -10276,7 +10276,7 @@
         <v>75.373737373737384</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>39</v>
       </c>
@@ -10293,7 +10293,7 @@
         <v>77.383838383838381</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>40</v>
       </c>
@@ -10310,7 +10310,7 @@
         <v>79.393939393939391</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>41</v>
       </c>
@@ -10327,7 +10327,7 @@
         <v>81.404040404040401</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>42</v>
       </c>
@@ -10344,7 +10344,7 @@
         <v>83.414141414141412</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>43</v>
       </c>
@@ -10361,7 +10361,7 @@
         <v>85.424242424242422</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>44</v>
       </c>
@@ -10378,7 +10378,7 @@
         <v>87.434343434343432</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>45</v>
       </c>
@@ -10395,7 +10395,7 @@
         <v>89.444444444444443</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>46</v>
       </c>
@@ -10412,7 +10412,7 @@
         <v>91.454545454545453</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>47</v>
       </c>
@@ -10429,7 +10429,7 @@
         <v>93.464646464646464</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>48</v>
       </c>
@@ -10446,7 +10446,7 @@
         <v>95.474747474747474</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>49</v>
       </c>
@@ -10463,7 +10463,7 @@
         <v>97.484848484848484</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>50</v>
       </c>
@@ -10480,7 +10480,7 @@
         <v>99.494949494949495</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>51</v>
       </c>
@@ -10497,7 +10497,7 @@
         <v>101.50505050505051</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>52</v>
       </c>
@@ -10514,7 +10514,7 @@
         <v>103.51515151515152</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>53</v>
       </c>
@@ -10531,7 +10531,7 @@
         <v>105.52525252525254</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>54</v>
       </c>
@@ -10548,7 +10548,7 @@
         <v>107.53535353535354</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>55</v>
       </c>
@@ -10565,7 +10565,7 @@
         <v>109.54545454545453</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>56</v>
       </c>
@@ -10582,7 +10582,7 @@
         <v>111.55555555555556</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>57</v>
       </c>
@@ -10599,7 +10599,7 @@
         <v>113.56565656565657</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>58</v>
       </c>
@@ -10616,7 +10616,7 @@
         <v>115.57575757575758</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>59</v>
       </c>
@@ -10633,7 +10633,7 @@
         <v>117.58585858585859</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>60</v>
       </c>
@@ -10650,7 +10650,7 @@
         <v>119.59595959595958</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>61</v>
       </c>
@@ -10667,7 +10667,7 @@
         <v>121.60606060606061</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>62</v>
       </c>
@@ -10684,7 +10684,7 @@
         <v>123.61616161616161</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>63</v>
       </c>
@@ -10701,7 +10701,7 @@
         <v>125.62626262626263</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>64</v>
       </c>
@@ -10718,7 +10718,7 @@
         <v>127.63636363636364</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>65</v>
       </c>
@@ -10735,7 +10735,7 @@
         <v>129.64646464646466</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>66</v>
       </c>
@@ -10752,7 +10752,7 @@
         <v>131.65656565656565</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>67</v>
       </c>
@@ -10769,7 +10769,7 @@
         <v>133.66666666666666</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>68</v>
       </c>
@@ -10786,7 +10786,7 @@
         <v>135.6767676767677</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>69</v>
       </c>
@@ -10803,7 +10803,7 @@
         <v>137.68686868686868</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>70</v>
       </c>
@@ -10820,7 +10820,7 @@
         <v>139.69696969696972</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>71</v>
       </c>
@@ -10837,7 +10837,7 @@
         <v>141.7070707070707</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>72</v>
       </c>
@@ -10854,7 +10854,7 @@
         <v>143.71717171717171</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>73</v>
       </c>
@@ -10871,7 +10871,7 @@
         <v>145.72727272727272</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>74</v>
       </c>
@@ -10888,7 +10888,7 @@
         <v>147.73737373737373</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>75</v>
       </c>
@@ -10905,7 +10905,7 @@
         <v>149.74747474747477</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>76</v>
       </c>
@@ -10922,7 +10922,7 @@
         <v>151.75757575757575</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>77</v>
       </c>
@@ -10939,7 +10939,7 @@
         <v>153.76767676767676</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>78</v>
       </c>
@@ -10956,7 +10956,7 @@
         <v>155.77777777777777</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>79</v>
       </c>
@@ -10973,7 +10973,7 @@
         <v>157.78787878787878</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>80</v>
       </c>
@@ -10990,7 +10990,7 @@
         <v>159.79797979797979</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>81</v>
       </c>
@@ -11007,7 +11007,7 @@
         <v>161.8080808080808</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>82</v>
       </c>
@@ -11024,7 +11024,7 @@
         <v>163.81818181818184</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>83</v>
       </c>
@@ -11041,7 +11041,7 @@
         <v>165.82828282828282</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>84</v>
       </c>
@@ -11058,7 +11058,7 @@
         <v>167.83838383838383</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>85</v>
       </c>
@@ -11075,7 +11075,7 @@
         <v>169.84848484848484</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>86</v>
       </c>
@@ -11092,7 +11092,7 @@
         <v>171.85858585858585</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>87</v>
       </c>
@@ -11109,7 +11109,7 @@
         <v>173.86868686868686</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>88</v>
       </c>
@@ -11126,7 +11126,7 @@
         <v>175.87878787878788</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>89</v>
       </c>
@@ -11143,7 +11143,7 @@
         <v>177.88888888888889</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>90</v>
       </c>
@@ -11160,7 +11160,7 @@
         <v>179.8989898989899</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>91</v>
       </c>
@@ -11177,7 +11177,7 @@
         <v>181.90909090909091</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>92</v>
       </c>
@@ -11194,7 +11194,7 @@
         <v>183.91919191919192</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>93</v>
       </c>
@@ -11211,7 +11211,7 @@
         <v>185.92929292929293</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>94</v>
       </c>
@@ -11228,7 +11228,7 @@
         <v>187.93939393939394</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>95</v>
       </c>
@@ -11245,7 +11245,7 @@
         <v>189.94949494949495</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>96</v>
       </c>
@@ -11262,7 +11262,7 @@
         <v>191.95959595959596</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>97</v>
       </c>
@@ -11279,7 +11279,7 @@
         <v>193.96969696969697</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>98</v>
       </c>
@@ -11296,7 +11296,7 @@
         <v>195.97979797979798</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>99</v>
       </c>
@@ -11313,7 +11313,7 @@
         <v>197.98989898989899</v>
       </c>
     </row>
-    <row r="100" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>100</v>
       </c>
@@ -11341,12 +11341,12 @@
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>1</v>
       </c>
@@ -11366,7 +11366,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2</v>
       </c>
@@ -11389,7 +11389,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3</v>
       </c>
@@ -11412,7 +11412,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>4</v>
       </c>
@@ -11435,7 +11435,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5</v>
       </c>
@@ -11458,7 +11458,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>6</v>
       </c>
@@ -11479,7 +11479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>7</v>
       </c>
@@ -11488,7 +11488,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>8</v>
       </c>
@@ -11497,7 +11497,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>9</v>
       </c>
@@ -11506,7 +11506,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>10</v>
       </c>
@@ -11515,7 +11515,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>11</v>
       </c>
@@ -11524,7 +11524,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>12</v>
       </c>
@@ -11533,7 +11533,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>13</v>
       </c>
@@ -11542,7 +11542,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>14</v>
       </c>
@@ -11551,7 +11551,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>15</v>
       </c>
@@ -11560,7 +11560,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>16</v>
       </c>
@@ -11569,7 +11569,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>17</v>
       </c>
@@ -11578,7 +11578,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>18</v>
       </c>
@@ -11587,7 +11587,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>19</v>
       </c>
@@ -11596,7 +11596,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>20</v>
       </c>
@@ -11605,7 +11605,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>21</v>
       </c>
@@ -11614,7 +11614,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>22</v>
       </c>
@@ -11623,7 +11623,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>23</v>
       </c>
@@ -11632,7 +11632,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>24</v>
       </c>
@@ -11641,7 +11641,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>25</v>
       </c>
@@ -11650,7 +11650,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>26</v>
       </c>
@@ -11659,7 +11659,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>27</v>
       </c>
@@ -11668,7 +11668,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>28</v>
       </c>
@@ -11677,7 +11677,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>29</v>
       </c>
@@ -11686,7 +11686,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>30</v>
       </c>
@@ -11695,7 +11695,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>31</v>
       </c>
@@ -11704,7 +11704,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>32</v>
       </c>
@@ -11713,7 +11713,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>33</v>
       </c>
@@ -11722,7 +11722,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>34</v>
       </c>
@@ -11731,7 +11731,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>35</v>
       </c>
@@ -11740,7 +11740,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>36</v>
       </c>
@@ -11749,7 +11749,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>37</v>
       </c>
@@ -11758,7 +11758,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>38</v>
       </c>
@@ -11767,7 +11767,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>39</v>
       </c>
@@ -11776,7 +11776,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>40</v>
       </c>
@@ -11785,7 +11785,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>41</v>
       </c>
@@ -11794,7 +11794,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>42</v>
       </c>
@@ -11803,7 +11803,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>43</v>
       </c>
@@ -11812,7 +11812,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>44</v>
       </c>
@@ -11821,7 +11821,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>45</v>
       </c>
@@ -11830,7 +11830,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>46</v>
       </c>
@@ -11839,7 +11839,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>47</v>
       </c>
@@ -11848,7 +11848,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>48</v>
       </c>
@@ -11857,7 +11857,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>49</v>
       </c>
@@ -11866,7 +11866,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>50</v>
       </c>
@@ -11875,7 +11875,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>51</v>
       </c>
@@ -11884,7 +11884,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>52</v>
       </c>
@@ -11893,7 +11893,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>53</v>
       </c>
@@ -11902,7 +11902,7 @@
         <v>47.999999999999993</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>54</v>
       </c>
@@ -11911,7 +11911,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>55</v>
       </c>
@@ -11920,7 +11920,7 @@
         <v>46.000000000000007</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>56</v>
       </c>
@@ -11929,7 +11929,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>57</v>
       </c>
@@ -11938,7 +11938,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>58</v>
       </c>
@@ -11947,7 +11947,7 @@
         <v>42.999999999999993</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>59</v>
       </c>
@@ -11956,7 +11956,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>60</v>
       </c>
@@ -11965,7 +11965,7 @@
         <v>41.000000000000007</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>61</v>
       </c>
@@ -11974,7 +11974,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>62</v>
       </c>
@@ -11983,7 +11983,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>63</v>
       </c>
@@ -11992,7 +11992,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>64</v>
       </c>
@@ -12001,7 +12001,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>65</v>
       </c>
@@ -12010,7 +12010,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>66</v>
       </c>
@@ -12019,7 +12019,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>67</v>
       </c>
@@ -12028,7 +12028,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>68</v>
       </c>
@@ -12037,7 +12037,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>69</v>
       </c>
@@ -12046,7 +12046,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>70</v>
       </c>
@@ -12055,7 +12055,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>71</v>
       </c>
@@ -12064,7 +12064,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>72</v>
       </c>
@@ -12073,7 +12073,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>73</v>
       </c>
@@ -12082,7 +12082,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>74</v>
       </c>
@@ -12091,7 +12091,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>75</v>
       </c>
@@ -12100,7 +12100,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>76</v>
       </c>
@@ -12109,7 +12109,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>77</v>
       </c>
@@ -12118,7 +12118,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>78</v>
       </c>
@@ -12127,7 +12127,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>79</v>
       </c>
@@ -12136,7 +12136,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>80</v>
       </c>
@@ -12145,7 +12145,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>81</v>
       </c>
@@ -12154,7 +12154,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>82</v>
       </c>
@@ -12163,7 +12163,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>83</v>
       </c>
@@ -12172,7 +12172,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>84</v>
       </c>
@@ -12181,7 +12181,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>85</v>
       </c>
@@ -12190,7 +12190,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>86</v>
       </c>
@@ -12199,7 +12199,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>87</v>
       </c>
@@ -12208,7 +12208,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>88</v>
       </c>
@@ -12217,7 +12217,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>89</v>
       </c>
@@ -12226,7 +12226,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>90</v>
       </c>
@@ -12235,7 +12235,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>91</v>
       </c>
@@ -12244,7 +12244,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>92</v>
       </c>
@@ -12253,7 +12253,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>93</v>
       </c>
@@ -12262,7 +12262,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>94</v>
       </c>
@@ -12271,7 +12271,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>95</v>
       </c>
@@ -12280,7 +12280,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>96</v>
       </c>
@@ -12289,7 +12289,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>97</v>
       </c>
@@ -12298,7 +12298,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>98</v>
       </c>
@@ -12307,7 +12307,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>99</v>
       </c>
@@ -12316,7 +12316,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>100</v>
       </c>

--- a/RotoShootUnityProject/Assets/Resources/mySheet.xlsx
+++ b/RotoShootUnityProject/Assets/Resources/mySheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming\UnityProjects\RotoShoot\RotoShootUnityProject\Assets\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{211EEB43-C534-46BC-AF78-9A228DA2D5A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BD170AD-3158-47B5-BEB3-83FA615FD93B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25490" yWindow="90" windowWidth="38620" windowHeight="21820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="37605" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="mySheet (4)" sheetId="4" r:id="rId1"/>
@@ -1067,7 +1067,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O102" sqref="O102"/>
+      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1142,10 +1142,10 @@
         <v>0.1</v>
       </c>
       <c r="C2" s="1">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="D2" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E2" s="1">
         <v>5</v>
@@ -1193,23 +1193,23 @@
       </c>
       <c r="B3">
         <f>(B$2+((SUM($A3-1)/SUM($A$101-1))*(SUM(B$101-B$2))))</f>
-        <v>0.60404040404040404</v>
+        <v>0.40202020202020206</v>
       </c>
       <c r="C3">
         <f t="shared" ref="C3:H18" si="0">(C$2+((SUM($A3-1)/SUM($A$101-1))*(SUM(C$101-C$2))))</f>
-        <v>0.19898989898989899</v>
+        <v>0.39797979797979799</v>
       </c>
       <c r="D3">
         <f t="shared" si="0"/>
-        <v>1.9828282828282828</v>
+        <v>2.9737373737373738</v>
       </c>
       <c r="E3">
         <f t="shared" si="0"/>
-        <v>5.1515151515151514</v>
+        <v>5.1010101010101012</v>
       </c>
       <c r="F3">
         <f t="shared" si="0"/>
-        <v>10.1010101010101</v>
+        <v>10.05050505050505</v>
       </c>
       <c r="G3">
         <f t="shared" si="0"/>
@@ -1234,7 +1234,7 @@
       </c>
       <c r="M3">
         <f t="shared" ref="M3:O66" si="2">(M$2+((SUM($A3-1)/SUM($A$101-1))*(SUM(M$101-M$2))))</f>
-        <v>2</v>
+        <v>1.7474747474747474</v>
       </c>
       <c r="N3">
         <v>-1</v>
@@ -1256,23 +1256,23 @@
       </c>
       <c r="B4">
         <f t="shared" ref="B4:B5" si="3">(B$2+((SUM($A4-1)/SUM($A$101-1))*(SUM(B$101-B$2))))</f>
-        <v>1.1080808080808082</v>
+        <v>0.70404040404040402</v>
       </c>
       <c r="C4">
         <f t="shared" si="0"/>
-        <v>0.19797979797979798</v>
+        <v>0.39595959595959596</v>
       </c>
       <c r="D4">
         <f t="shared" si="0"/>
-        <v>1.9656565656565657</v>
+        <v>2.9474747474747476</v>
       </c>
       <c r="E4">
         <f t="shared" si="0"/>
-        <v>5.3030303030303028</v>
+        <v>5.2020202020202024</v>
       </c>
       <c r="F4">
         <f t="shared" si="0"/>
-        <v>10.202020202020202</v>
+        <v>10.1010101010101</v>
       </c>
       <c r="G4">
         <f t="shared" si="0"/>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="M4">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>2.4949494949494948</v>
       </c>
       <c r="N4">
         <v>-1</v>
@@ -1319,23 +1319,23 @@
       </c>
       <c r="B5">
         <f t="shared" si="3"/>
-        <v>1.6121212121212123</v>
+        <v>1.0060606060606061</v>
       </c>
       <c r="C5">
         <f t="shared" si="0"/>
-        <v>0.19696969696969699</v>
+        <v>0.39393939393939398</v>
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
-        <v>1.9484848484848485</v>
+        <v>2.9212121212121214</v>
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
-        <v>5.454545454545455</v>
+        <v>5.3030303030303028</v>
       </c>
       <c r="F5">
         <f t="shared" si="0"/>
-        <v>10.303030303030303</v>
+        <v>10.151515151515152</v>
       </c>
       <c r="G5">
         <f t="shared" si="0"/>
@@ -1360,7 +1360,7 @@
       </c>
       <c r="M5">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>3.2424242424242427</v>
       </c>
       <c r="N5">
         <v>-1</v>
@@ -1382,23 +1382,23 @@
       </c>
       <c r="B6">
         <f t="shared" ref="B6" si="4">(B$2+((SUM(A6-1)/SUM(A$101-1))*(SUM(B$101-B$2))))</f>
-        <v>2.1161616161616164</v>
+        <v>1.3080808080808082</v>
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
-        <v>0.19595959595959597</v>
+        <v>0.39191919191919194</v>
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
-        <v>1.9313131313131313</v>
+        <v>2.8949494949494952</v>
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
-        <v>5.6060606060606064</v>
+        <v>5.404040404040404</v>
       </c>
       <c r="F6">
         <f t="shared" si="0"/>
-        <v>10.404040404040405</v>
+        <v>10.202020202020202</v>
       </c>
       <c r="G6">
         <f t="shared" si="0"/>
@@ -1423,7 +1423,7 @@
       </c>
       <c r="M6">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>3.9898989898989901</v>
       </c>
       <c r="N6">
         <v>-1</v>
@@ -1445,23 +1445,23 @@
       </c>
       <c r="B7">
         <f t="shared" ref="B7:B67" si="5">(B$2+((SUM(A7-1)/SUM(A$101-1))*(SUM(B$101-B$2))))</f>
-        <v>2.62020202020202</v>
+        <v>1.61010101010101</v>
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
-        <v>0.19494949494949496</v>
+        <v>0.38989898989898991</v>
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>1.9141414141414141</v>
+        <v>2.8686868686868685</v>
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
-        <v>5.7575757575757578</v>
+        <v>5.5050505050505052</v>
       </c>
       <c r="F7">
         <f t="shared" si="0"/>
-        <v>10.505050505050505</v>
+        <v>10.252525252525253</v>
       </c>
       <c r="G7">
         <f t="shared" si="0"/>
@@ -1486,7 +1486,7 @@
       </c>
       <c r="M7">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>4.737373737373737</v>
       </c>
       <c r="N7">
         <v>-1</v>
@@ -1508,23 +1508,23 @@
       </c>
       <c r="B8">
         <f t="shared" si="5"/>
-        <v>3.1242424242424245</v>
+        <v>1.9121212121212121</v>
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
-        <v>0.19393939393939394</v>
+        <v>0.38787878787878788</v>
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>1.896969696969697</v>
+        <v>2.8424242424242423</v>
       </c>
       <c r="E8">
         <f t="shared" si="0"/>
-        <v>5.9090909090909092</v>
+        <v>5.6060606060606064</v>
       </c>
       <c r="F8">
         <f t="shared" si="0"/>
-        <v>10.606060606060606</v>
+        <v>10.303030303030303</v>
       </c>
       <c r="G8">
         <f t="shared" si="0"/>
@@ -1549,7 +1549,7 @@
       </c>
       <c r="M8">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>5.4848484848484853</v>
       </c>
       <c r="N8">
         <v>-1</v>
@@ -1571,23 +1571,23 @@
       </c>
       <c r="B9">
         <f t="shared" si="5"/>
-        <v>3.6282828282828281</v>
+        <v>2.2141414141414142</v>
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
-        <v>0.19292929292929295</v>
+        <v>0.3858585858585859</v>
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
-        <v>1.8797979797979798</v>
+        <v>2.8161616161616161</v>
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
-        <v>6.0606060606060606</v>
+        <v>5.7070707070707067</v>
       </c>
       <c r="F9">
         <f t="shared" si="0"/>
-        <v>10.707070707070708</v>
+        <v>10.353535353535353</v>
       </c>
       <c r="G9">
         <f t="shared" si="0"/>
@@ -1612,7 +1612,7 @@
       </c>
       <c r="M9">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>6.2323232323232318</v>
       </c>
       <c r="N9">
         <v>-1</v>
@@ -1634,23 +1634,23 @@
       </c>
       <c r="B10">
         <f t="shared" si="5"/>
-        <v>4.1323232323232322</v>
+        <v>2.5161616161616163</v>
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
-        <v>0.19191919191919193</v>
+        <v>0.38383838383838387</v>
       </c>
       <c r="D10">
         <f t="shared" si="0"/>
-        <v>1.8626262626262626</v>
+        <v>2.7898989898989899</v>
       </c>
       <c r="E10">
         <f t="shared" si="0"/>
-        <v>6.2121212121212119</v>
+        <v>5.808080808080808</v>
       </c>
       <c r="F10">
         <f t="shared" si="0"/>
-        <v>10.808080808080808</v>
+        <v>10.404040404040405</v>
       </c>
       <c r="G10">
         <f t="shared" si="0"/>
@@ -1675,7 +1675,7 @@
       </c>
       <c r="M10">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>6.9797979797979801</v>
       </c>
       <c r="N10">
         <v>-1</v>
@@ -1697,23 +1697,23 @@
       </c>
       <c r="B11">
         <f t="shared" si="5"/>
-        <v>4.6363636363636358</v>
+        <v>2.8181818181818183</v>
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
-        <v>0.19090909090909092</v>
+        <v>0.38181818181818183</v>
       </c>
       <c r="D11">
         <f t="shared" si="0"/>
-        <v>1.8454545454545455</v>
+        <v>2.7636363636363637</v>
       </c>
       <c r="E11">
         <f t="shared" si="0"/>
-        <v>6.3636363636363633</v>
+        <v>5.9090909090909092</v>
       </c>
       <c r="F11">
         <f t="shared" si="0"/>
-        <v>10.90909090909091</v>
+        <v>10.454545454545455</v>
       </c>
       <c r="G11">
         <f t="shared" si="0"/>
@@ -1738,7 +1738,7 @@
       </c>
       <c r="M11">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>7.7272727272727275</v>
       </c>
       <c r="N11">
         <v>-1</v>
@@ -1760,23 +1760,23 @@
       </c>
       <c r="B12">
         <f t="shared" si="5"/>
-        <v>5.1404040404040394</v>
+        <v>3.12020202020202</v>
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
-        <v>0.1898989898989899</v>
+        <v>0.3797979797979798</v>
       </c>
       <c r="D12">
         <f t="shared" si="0"/>
-        <v>1.8282828282828283</v>
+        <v>2.7373737373737375</v>
       </c>
       <c r="E12">
         <f t="shared" si="0"/>
-        <v>6.5151515151515156</v>
+        <v>6.0101010101010104</v>
       </c>
       <c r="F12">
         <f t="shared" si="0"/>
-        <v>11.01010101010101</v>
+        <v>10.505050505050505</v>
       </c>
       <c r="G12">
         <f t="shared" si="0"/>
@@ -1801,7 +1801,7 @@
       </c>
       <c r="M12">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>8.474747474747474</v>
       </c>
       <c r="N12">
         <v>-1</v>
@@ -1823,23 +1823,23 @@
       </c>
       <c r="B13">
         <f t="shared" si="5"/>
-        <v>5.6444444444444439</v>
+        <v>3.4222222222222221</v>
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
-        <v>0.18888888888888891</v>
+        <v>0.37777777777777782</v>
       </c>
       <c r="D13">
         <f t="shared" si="0"/>
-        <v>1.8111111111111111</v>
+        <v>2.7111111111111112</v>
       </c>
       <c r="E13">
         <f t="shared" si="0"/>
-        <v>6.6666666666666661</v>
+        <v>6.1111111111111107</v>
       </c>
       <c r="F13">
         <f t="shared" si="0"/>
-        <v>11.111111111111111</v>
+        <v>10.555555555555555</v>
       </c>
       <c r="G13">
         <f t="shared" si="0"/>
@@ -1864,7 +1864,7 @@
       </c>
       <c r="M13">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>9.2222222222222214</v>
       </c>
       <c r="N13">
         <v>-1</v>
@@ -1886,23 +1886,23 @@
       </c>
       <c r="B14">
         <f t="shared" si="5"/>
-        <v>6.1484848484848484</v>
+        <v>3.7242424242424241</v>
       </c>
       <c r="C14">
         <f t="shared" si="0"/>
-        <v>0.1878787878787879</v>
+        <v>0.37575757575757579</v>
       </c>
       <c r="D14">
         <f t="shared" si="0"/>
-        <v>1.7939393939393939</v>
+        <v>2.6848484848484846</v>
       </c>
       <c r="E14">
         <f t="shared" si="0"/>
-        <v>6.8181818181818183</v>
+        <v>6.2121212121212119</v>
       </c>
       <c r="F14">
         <f t="shared" si="0"/>
-        <v>11.212121212121213</v>
+        <v>10.606060606060606</v>
       </c>
       <c r="G14">
         <f t="shared" si="0"/>
@@ -1927,7 +1927,7 @@
       </c>
       <c r="M14">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>9.9696969696969706</v>
       </c>
       <c r="N14">
         <v>-1</v>
@@ -1949,23 +1949,23 @@
       </c>
       <c r="B15">
         <f t="shared" si="5"/>
-        <v>6.652525252525253</v>
+        <v>4.0262626262626267</v>
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
-        <v>0.18686868686868688</v>
+        <v>0.37373737373737376</v>
       </c>
       <c r="D15">
         <f t="shared" si="0"/>
-        <v>1.7767676767676768</v>
+        <v>2.6585858585858584</v>
       </c>
       <c r="E15">
         <f t="shared" si="0"/>
-        <v>6.9696969696969697</v>
+        <v>6.3131313131313131</v>
       </c>
       <c r="F15">
         <f t="shared" si="0"/>
-        <v>11.313131313131313</v>
+        <v>10.656565656565657</v>
       </c>
       <c r="G15">
         <f t="shared" si="0"/>
@@ -1990,7 +1990,7 @@
       </c>
       <c r="M15">
         <f t="shared" si="2"/>
-        <v>14.000000000000002</v>
+        <v>10.717171717171718</v>
       </c>
       <c r="N15">
         <v>-1</v>
@@ -2012,23 +2012,23 @@
       </c>
       <c r="B16">
         <f t="shared" si="5"/>
-        <v>7.1565656565656557</v>
+        <v>4.3282828282828278</v>
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
-        <v>0.18585858585858586</v>
+        <v>0.37171717171717172</v>
       </c>
       <c r="D16">
         <f t="shared" si="0"/>
-        <v>1.7595959595959596</v>
+        <v>2.6323232323232322</v>
       </c>
       <c r="E16">
         <f t="shared" si="0"/>
-        <v>7.1212121212121211</v>
+        <v>6.4141414141414144</v>
       </c>
       <c r="F16">
         <f t="shared" si="0"/>
-        <v>11.414141414141413</v>
+        <v>10.707070707070708</v>
       </c>
       <c r="G16">
         <f t="shared" si="0"/>
@@ -2053,7 +2053,7 @@
       </c>
       <c r="M16">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>11.464646464646464</v>
       </c>
       <c r="N16">
         <v>-1</v>
@@ -2075,23 +2075,23 @@
       </c>
       <c r="B17">
         <f t="shared" si="5"/>
-        <v>7.6606060606060602</v>
+        <v>4.6303030303030299</v>
       </c>
       <c r="C17">
         <f t="shared" si="0"/>
-        <v>0.18484848484848487</v>
+        <v>0.36969696969696975</v>
       </c>
       <c r="D17">
         <f t="shared" si="0"/>
-        <v>1.7424242424242424</v>
+        <v>2.606060606060606</v>
       </c>
       <c r="E17">
         <f t="shared" si="0"/>
-        <v>7.2727272727272734</v>
+        <v>6.5151515151515156</v>
       </c>
       <c r="F17">
         <f t="shared" si="0"/>
-        <v>11.515151515151516</v>
+        <v>10.757575757575758</v>
       </c>
       <c r="G17">
         <f t="shared" si="0"/>
@@ -2116,7 +2116,7 @@
       </c>
       <c r="M17">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>12.212121212121213</v>
       </c>
       <c r="N17">
         <v>-1</v>
@@ -2138,23 +2138,23 @@
       </c>
       <c r="B18">
         <f t="shared" si="5"/>
-        <v>8.1646464646464647</v>
+        <v>4.932323232323232</v>
       </c>
       <c r="C18">
         <f t="shared" si="0"/>
-        <v>0.18383838383838386</v>
+        <v>0.36767676767676771</v>
       </c>
       <c r="D18">
         <f t="shared" si="0"/>
-        <v>1.7252525252525253</v>
+        <v>2.5797979797979798</v>
       </c>
       <c r="E18">
         <f t="shared" si="0"/>
-        <v>7.4242424242424239</v>
+        <v>6.6161616161616159</v>
       </c>
       <c r="F18">
         <f t="shared" si="0"/>
-        <v>11.616161616161616</v>
+        <v>10.808080808080808</v>
       </c>
       <c r="G18">
         <f t="shared" si="0"/>
@@ -2179,7 +2179,7 @@
       </c>
       <c r="M18">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>12.95959595959596</v>
       </c>
       <c r="N18">
         <v>-1</v>
@@ -2201,23 +2201,23 @@
       </c>
       <c r="B19">
         <f t="shared" si="5"/>
-        <v>8.6686868686868674</v>
+        <v>5.2343434343434332</v>
       </c>
       <c r="C19">
         <f t="shared" ref="C19:D46" si="6">(C$2+((SUM($A19-1)/SUM($A$101-1))*(SUM(C$101-C$2))))</f>
-        <v>0.18282828282828284</v>
+        <v>0.36565656565656568</v>
       </c>
       <c r="D19">
         <f t="shared" si="6"/>
-        <v>1.7080808080808081</v>
+        <v>2.5535353535353535</v>
       </c>
       <c r="E19">
         <f t="shared" ref="E19:E82" si="7">(E$2+((SUM($A19-1)/SUM($A$101-1))*(SUM(E$101-E$2))))</f>
-        <v>7.5757575757575761</v>
+        <v>6.7171717171717171</v>
       </c>
       <c r="F19">
         <f t="shared" ref="F19:F82" si="8">(F$2+((SUM($A19-1)/SUM($A$101-1))*(SUM(F$101-F$2))))</f>
-        <v>11.717171717171716</v>
+        <v>10.858585858585858</v>
       </c>
       <c r="G19">
         <f t="shared" ref="G19:H82" si="9">(G$2+((SUM($A19-1)/SUM($A$101-1))*(SUM(G$101-G$2))))</f>
@@ -2242,7 +2242,7 @@
       </c>
       <c r="M19">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>13.707070707070706</v>
       </c>
       <c r="N19">
         <v>-1</v>
@@ -2264,23 +2264,23 @@
       </c>
       <c r="B20">
         <f t="shared" si="5"/>
-        <v>9.172727272727272</v>
+        <v>5.5363636363636362</v>
       </c>
       <c r="C20">
         <f t="shared" si="6"/>
-        <v>0.18181818181818182</v>
+        <v>0.36363636363636365</v>
       </c>
       <c r="D20">
         <f t="shared" si="6"/>
-        <v>1.6909090909090909</v>
+        <v>2.5272727272727273</v>
       </c>
       <c r="E20">
         <f t="shared" si="7"/>
-        <v>7.7272727272727275</v>
+        <v>6.8181818181818183</v>
       </c>
       <c r="F20">
         <f t="shared" si="8"/>
-        <v>11.818181818181818</v>
+        <v>10.90909090909091</v>
       </c>
       <c r="G20">
         <f t="shared" si="9"/>
@@ -2305,7 +2305,7 @@
       </c>
       <c r="M20">
         <f t="shared" si="2"/>
-        <v>19</v>
+        <v>14.454545454545455</v>
       </c>
       <c r="N20">
         <v>-1</v>
@@ -2327,23 +2327,23 @@
       </c>
       <c r="B21">
         <f t="shared" si="5"/>
-        <v>9.6767676767676747</v>
+        <v>5.8383838383838373</v>
       </c>
       <c r="C21">
         <f t="shared" si="6"/>
-        <v>0.18080808080808081</v>
+        <v>0.36161616161616161</v>
       </c>
       <c r="D21">
         <f t="shared" si="6"/>
-        <v>1.6737373737373737</v>
+        <v>2.5010101010101011</v>
       </c>
       <c r="E21">
         <f t="shared" si="7"/>
-        <v>7.8787878787878789</v>
+        <v>6.9191919191919187</v>
       </c>
       <c r="F21">
         <f t="shared" si="8"/>
-        <v>11.919191919191919</v>
+        <v>10.95959595959596</v>
       </c>
       <c r="G21">
         <f t="shared" si="9"/>
@@ -2368,7 +2368,7 @@
       </c>
       <c r="M21">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>15.202020202020201</v>
       </c>
       <c r="N21">
         <v>-1</v>
@@ -2390,23 +2390,23 @@
       </c>
       <c r="B22">
         <f t="shared" si="5"/>
-        <v>10.180808080808079</v>
+        <v>6.1404040404040394</v>
       </c>
       <c r="C22">
         <f t="shared" si="6"/>
-        <v>0.17979797979797982</v>
+        <v>0.35959595959595964</v>
       </c>
       <c r="D22">
         <f t="shared" si="6"/>
-        <v>1.6565656565656566</v>
+        <v>2.4747474747474749</v>
       </c>
       <c r="E22">
         <f t="shared" si="7"/>
-        <v>8.0303030303030312</v>
+        <v>7.0202020202020208</v>
       </c>
       <c r="F22">
         <f t="shared" si="8"/>
-        <v>12.020202020202021</v>
+        <v>11.01010101010101</v>
       </c>
       <c r="G22">
         <f t="shared" si="9"/>
@@ -2431,7 +2431,7 @@
       </c>
       <c r="M22">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>15.94949494949495</v>
       </c>
       <c r="N22">
         <v>-1</v>
@@ -2453,23 +2453,23 @@
       </c>
       <c r="B23">
         <f t="shared" si="5"/>
-        <v>10.684848484848484</v>
+        <v>6.4424242424242424</v>
       </c>
       <c r="C23">
         <f t="shared" si="6"/>
-        <v>0.1787878787878788</v>
+        <v>0.3575757575757576</v>
       </c>
       <c r="D23">
         <f t="shared" si="6"/>
-        <v>1.6393939393939394</v>
+        <v>2.4484848484848483</v>
       </c>
       <c r="E23">
         <f t="shared" si="7"/>
-        <v>8.1818181818181817</v>
+        <v>7.1212121212121211</v>
       </c>
       <c r="F23">
         <f t="shared" si="8"/>
-        <v>12.121212121212121</v>
+        <v>11.060606060606061</v>
       </c>
       <c r="G23">
         <f t="shared" si="9"/>
@@ -2494,7 +2494,7 @@
       </c>
       <c r="M23">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>16.696969696969695</v>
       </c>
       <c r="N23">
         <v>-1</v>
@@ -2516,23 +2516,23 @@
       </c>
       <c r="B24">
         <f t="shared" si="5"/>
-        <v>11.188888888888888</v>
+        <v>6.7444444444444436</v>
       </c>
       <c r="C24">
         <f t="shared" si="6"/>
-        <v>0.17777777777777778</v>
+        <v>0.35555555555555557</v>
       </c>
       <c r="D24">
         <f t="shared" si="6"/>
-        <v>1.6222222222222222</v>
+        <v>2.4222222222222225</v>
       </c>
       <c r="E24">
         <f t="shared" si="7"/>
-        <v>8.3333333333333321</v>
+        <v>7.2222222222222223</v>
       </c>
       <c r="F24">
         <f t="shared" si="8"/>
-        <v>12.222222222222221</v>
+        <v>11.111111111111111</v>
       </c>
       <c r="G24">
         <f t="shared" si="9"/>
@@ -2557,7 +2557,7 @@
       </c>
       <c r="M24">
         <f t="shared" si="2"/>
-        <v>23</v>
+        <v>17.444444444444443</v>
       </c>
       <c r="N24">
         <v>-1</v>
@@ -2579,23 +2579,23 @@
       </c>
       <c r="B25">
         <f t="shared" si="5"/>
-        <v>11.692929292929293</v>
+        <v>7.0464646464646457</v>
       </c>
       <c r="C25">
         <f t="shared" si="6"/>
-        <v>0.17676767676767677</v>
+        <v>0.35353535353535354</v>
       </c>
       <c r="D25">
         <f t="shared" si="6"/>
-        <v>1.6050505050505051</v>
+        <v>2.3959595959595958</v>
       </c>
       <c r="E25">
         <f t="shared" si="7"/>
-        <v>8.4848484848484844</v>
+        <v>7.3232323232323235</v>
       </c>
       <c r="F25">
         <f t="shared" si="8"/>
-        <v>12.323232323232324</v>
+        <v>11.161616161616161</v>
       </c>
       <c r="G25">
         <f t="shared" si="9"/>
@@ -2620,7 +2620,7 @@
       </c>
       <c r="M25">
         <f t="shared" si="2"/>
-        <v>24</v>
+        <v>18.19191919191919</v>
       </c>
       <c r="N25">
         <v>-1</v>
@@ -2642,23 +2642,23 @@
       </c>
       <c r="B26">
         <f t="shared" si="5"/>
-        <v>12.196969696969697</v>
+        <v>7.3484848484848477</v>
       </c>
       <c r="C26">
         <f t="shared" si="6"/>
-        <v>0.17575757575757578</v>
+        <v>0.35151515151515156</v>
       </c>
       <c r="D26">
         <f t="shared" si="6"/>
-        <v>1.5878787878787879</v>
+        <v>2.3696969696969696</v>
       </c>
       <c r="E26">
         <f t="shared" si="7"/>
-        <v>8.6363636363636367</v>
+        <v>7.4242424242424239</v>
       </c>
       <c r="F26">
         <f t="shared" si="8"/>
-        <v>12.424242424242424</v>
+        <v>11.212121212121213</v>
       </c>
       <c r="G26">
         <f t="shared" si="9"/>
@@ -2683,7 +2683,7 @@
       </c>
       <c r="M26">
         <f t="shared" si="2"/>
-        <v>25</v>
+        <v>18.939393939393941</v>
       </c>
       <c r="N26">
         <v>-1</v>
@@ -2705,23 +2705,23 @@
       </c>
       <c r="B27">
         <f t="shared" si="5"/>
-        <v>12.701010101010102</v>
+        <v>7.6505050505050507</v>
       </c>
       <c r="C27">
         <f t="shared" si="6"/>
-        <v>0.17474747474747476</v>
+        <v>0.34949494949494953</v>
       </c>
       <c r="D27">
         <f t="shared" si="6"/>
-        <v>1.5707070707070707</v>
+        <v>2.3434343434343434</v>
       </c>
       <c r="E27">
         <f t="shared" si="7"/>
-        <v>8.787878787878789</v>
+        <v>7.525252525252526</v>
       </c>
       <c r="F27">
         <f t="shared" si="8"/>
-        <v>12.525252525252526</v>
+        <v>11.262626262626263</v>
       </c>
       <c r="G27">
         <f t="shared" si="9"/>
@@ -2746,7 +2746,7 @@
       </c>
       <c r="M27">
         <f t="shared" si="2"/>
-        <v>26</v>
+        <v>19.686868686868689</v>
       </c>
       <c r="N27">
         <v>-1</v>
@@ -2768,23 +2768,23 @@
       </c>
       <c r="B28">
         <f t="shared" si="5"/>
-        <v>13.205050505050506</v>
+        <v>7.9525252525252528</v>
       </c>
       <c r="C28">
         <f t="shared" si="6"/>
-        <v>0.17373737373737375</v>
+        <v>0.34747474747474749</v>
       </c>
       <c r="D28">
         <f t="shared" si="6"/>
-        <v>1.5535353535353535</v>
+        <v>2.3171717171717172</v>
       </c>
       <c r="E28">
         <f t="shared" si="7"/>
-        <v>8.9393939393939394</v>
+        <v>7.6262626262626263</v>
       </c>
       <c r="F28">
         <f t="shared" si="8"/>
-        <v>12.626262626262626</v>
+        <v>11.313131313131313</v>
       </c>
       <c r="G28">
         <f t="shared" si="9"/>
@@ -2809,7 +2809,7 @@
       </c>
       <c r="M28">
         <f t="shared" si="2"/>
-        <v>27.000000000000004</v>
+        <v>20.434343434343436</v>
       </c>
       <c r="N28">
         <v>-1</v>
@@ -2831,23 +2831,23 @@
       </c>
       <c r="B29">
         <f t="shared" si="5"/>
-        <v>13.709090909090907</v>
+        <v>8.254545454545454</v>
       </c>
       <c r="C29">
         <f t="shared" si="6"/>
-        <v>0.17272727272727273</v>
+        <v>0.34545454545454546</v>
       </c>
       <c r="D29">
         <f t="shared" si="6"/>
-        <v>1.5363636363636364</v>
+        <v>2.290909090909091</v>
       </c>
       <c r="E29">
         <f t="shared" si="7"/>
-        <v>9.0909090909090899</v>
+        <v>7.7272727272727266</v>
       </c>
       <c r="F29">
         <f t="shared" si="8"/>
-        <v>12.727272727272727</v>
+        <v>11.363636363636363</v>
       </c>
       <c r="G29">
         <f t="shared" si="9"/>
@@ -2872,7 +2872,7 @@
       </c>
       <c r="M29">
         <f t="shared" si="2"/>
-        <v>27.999999999999996</v>
+        <v>21.18181818181818</v>
       </c>
       <c r="N29">
         <v>-1</v>
@@ -2894,23 +2894,23 @@
       </c>
       <c r="B30">
         <f t="shared" si="5"/>
-        <v>14.213131313131312</v>
+        <v>8.556565656565656</v>
       </c>
       <c r="C30">
         <f t="shared" si="6"/>
-        <v>0.17171717171717171</v>
+        <v>0.34343434343434343</v>
       </c>
       <c r="D30">
         <f t="shared" si="6"/>
-        <v>1.5191919191919192</v>
+        <v>2.2646464646464648</v>
       </c>
       <c r="E30">
         <f t="shared" si="7"/>
-        <v>9.2424242424242422</v>
+        <v>7.8282828282828287</v>
       </c>
       <c r="F30">
         <f t="shared" si="8"/>
-        <v>12.828282828282829</v>
+        <v>11.414141414141413</v>
       </c>
       <c r="G30">
         <f t="shared" si="9"/>
@@ -2935,7 +2935,7 @@
       </c>
       <c r="M30">
         <f t="shared" si="2"/>
-        <v>29</v>
+        <v>21.929292929292927</v>
       </c>
       <c r="N30">
         <v>-1</v>
@@ -2957,23 +2957,23 @@
       </c>
       <c r="B31">
         <f t="shared" si="5"/>
-        <v>14.717171717171716</v>
+        <v>8.8585858585858581</v>
       </c>
       <c r="C31">
         <f t="shared" si="6"/>
-        <v>0.17070707070707072</v>
+        <v>0.34141414141414145</v>
       </c>
       <c r="D31">
         <f t="shared" si="6"/>
-        <v>1.502020202020202</v>
+        <v>2.2383838383838386</v>
       </c>
       <c r="E31">
         <f t="shared" si="7"/>
-        <v>9.3939393939393945</v>
+        <v>7.9292929292929291</v>
       </c>
       <c r="F31">
         <f t="shared" si="8"/>
-        <v>12.929292929292929</v>
+        <v>11.464646464646464</v>
       </c>
       <c r="G31">
         <f t="shared" si="9"/>
@@ -2998,7 +2998,7 @@
       </c>
       <c r="M31">
         <f t="shared" si="2"/>
-        <v>30</v>
+        <v>22.676767676767678</v>
       </c>
       <c r="N31">
         <v>-1</v>
@@ -3020,23 +3020,23 @@
       </c>
       <c r="B32">
         <f t="shared" si="5"/>
-        <v>15.221212121212121</v>
+        <v>9.1606060606060602</v>
       </c>
       <c r="C32">
         <f t="shared" si="6"/>
-        <v>0.16969696969696971</v>
+        <v>0.33939393939393941</v>
       </c>
       <c r="D32">
         <f t="shared" si="6"/>
-        <v>1.4848484848484849</v>
+        <v>2.2121212121212119</v>
       </c>
       <c r="E32">
         <f t="shared" si="7"/>
-        <v>9.5454545454545467</v>
+        <v>8.0303030303030312</v>
       </c>
       <c r="F32">
         <f t="shared" si="8"/>
-        <v>13.030303030303031</v>
+        <v>11.515151515151516</v>
       </c>
       <c r="G32">
         <f t="shared" si="9"/>
@@ -3061,7 +3061,7 @@
       </c>
       <c r="M32">
         <f t="shared" si="2"/>
-        <v>31</v>
+        <v>23.424242424242426</v>
       </c>
       <c r="N32">
         <v>-1</v>
@@ -3083,23 +3083,23 @@
       </c>
       <c r="B33">
         <f t="shared" si="5"/>
-        <v>15.725252525252525</v>
+        <v>9.4626262626262623</v>
       </c>
       <c r="C33">
         <f t="shared" si="6"/>
-        <v>0.16868686868686869</v>
+        <v>0.33737373737373738</v>
       </c>
       <c r="D33">
         <f t="shared" si="6"/>
-        <v>1.4676767676767677</v>
+        <v>2.1858585858585857</v>
       </c>
       <c r="E33">
         <f t="shared" si="7"/>
-        <v>9.6969696969696972</v>
+        <v>8.1313131313131315</v>
       </c>
       <c r="F33">
         <f t="shared" si="8"/>
-        <v>13.131313131313131</v>
+        <v>11.565656565656566</v>
       </c>
       <c r="G33">
         <f t="shared" si="9"/>
@@ -3124,7 +3124,7 @@
       </c>
       <c r="M33">
         <f t="shared" si="2"/>
-        <v>32</v>
+        <v>24.171717171717173</v>
       </c>
       <c r="N33">
         <v>-1</v>
@@ -3146,23 +3146,23 @@
       </c>
       <c r="B34">
         <f t="shared" si="5"/>
-        <v>16.229292929292932</v>
+        <v>9.7646464646464644</v>
       </c>
       <c r="C34">
         <f t="shared" si="6"/>
-        <v>0.16767676767676767</v>
+        <v>0.33535353535353535</v>
       </c>
       <c r="D34">
         <f t="shared" si="6"/>
-        <v>1.4505050505050505</v>
+        <v>2.1595959595959595</v>
       </c>
       <c r="E34">
         <f t="shared" si="7"/>
-        <v>9.8484848484848477</v>
+        <v>8.2323232323232318</v>
       </c>
       <c r="F34">
         <f t="shared" si="8"/>
-        <v>13.232323232323232</v>
+        <v>11.616161616161616</v>
       </c>
       <c r="G34">
         <f t="shared" si="9"/>
@@ -3187,7 +3187,7 @@
       </c>
       <c r="M34">
         <f t="shared" si="2"/>
-        <v>33</v>
+        <v>24.91919191919192</v>
       </c>
       <c r="N34">
         <v>-1</v>
@@ -3209,23 +3209,23 @@
       </c>
       <c r="B35">
         <f t="shared" si="5"/>
-        <v>16.733333333333334</v>
+        <v>10.066666666666665</v>
       </c>
       <c r="C35">
         <f t="shared" si="6"/>
-        <v>0.16666666666666669</v>
+        <v>0.33333333333333337</v>
       </c>
       <c r="D35">
         <f t="shared" si="6"/>
-        <v>1.4333333333333333</v>
+        <v>2.1333333333333333</v>
       </c>
       <c r="E35">
         <f t="shared" si="7"/>
-        <v>10</v>
+        <v>8.3333333333333321</v>
       </c>
       <c r="F35">
         <f t="shared" si="8"/>
-        <v>13.333333333333332</v>
+        <v>11.666666666666666</v>
       </c>
       <c r="G35">
         <f t="shared" si="9"/>
@@ -3250,7 +3250,7 @@
       </c>
       <c r="M35">
         <f t="shared" si="2"/>
-        <v>34</v>
+        <v>25.666666666666664</v>
       </c>
       <c r="N35">
         <v>-1</v>
@@ -3272,23 +3272,23 @@
       </c>
       <c r="B36">
         <f t="shared" si="5"/>
-        <v>17.237373737373737</v>
+        <v>10.368686868686867</v>
       </c>
       <c r="C36">
         <f t="shared" si="6"/>
-        <v>0.16565656565656567</v>
+        <v>0.33131313131313134</v>
       </c>
       <c r="D36">
         <f t="shared" si="6"/>
-        <v>1.4161616161616162</v>
+        <v>2.1070707070707071</v>
       </c>
       <c r="E36">
         <f t="shared" si="7"/>
-        <v>10.151515151515152</v>
+        <v>8.4343434343434343</v>
       </c>
       <c r="F36">
         <f t="shared" si="8"/>
-        <v>13.434343434343434</v>
+        <v>11.717171717171716</v>
       </c>
       <c r="G36">
         <f t="shared" si="9"/>
@@ -3313,7 +3313,7 @@
       </c>
       <c r="M36">
         <f t="shared" si="2"/>
-        <v>35</v>
+        <v>26.414141414141412</v>
       </c>
       <c r="N36">
         <v>-1</v>
@@ -3335,23 +3335,23 @@
       </c>
       <c r="B37">
         <f t="shared" si="5"/>
-        <v>17.741414141414143</v>
+        <v>10.670707070707071</v>
       </c>
       <c r="C37">
         <f t="shared" si="6"/>
-        <v>0.16464646464646465</v>
+        <v>0.3292929292929293</v>
       </c>
       <c r="D37">
         <f t="shared" si="6"/>
-        <v>1.398989898989899</v>
+        <v>2.0808080808080809</v>
       </c>
       <c r="E37">
         <f t="shared" si="7"/>
-        <v>10.303030303030303</v>
+        <v>8.5353535353535364</v>
       </c>
       <c r="F37">
         <f t="shared" si="8"/>
-        <v>13.535353535353536</v>
+        <v>11.767676767676768</v>
       </c>
       <c r="G37">
         <f t="shared" si="9"/>
@@ -3376,7 +3376,7 @@
       </c>
       <c r="M37">
         <f t="shared" si="2"/>
-        <v>36</v>
+        <v>27.161616161616163</v>
       </c>
       <c r="N37">
         <v>-1</v>
@@ -3398,23 +3398,23 @@
       </c>
       <c r="B38">
         <f t="shared" si="5"/>
-        <v>18.245454545454546</v>
+        <v>10.972727272727273</v>
       </c>
       <c r="C38">
         <f t="shared" si="6"/>
-        <v>0.16363636363636364</v>
+        <v>0.32727272727272727</v>
       </c>
       <c r="D38">
         <f t="shared" si="6"/>
-        <v>1.3818181818181818</v>
+        <v>2.0545454545454547</v>
       </c>
       <c r="E38">
         <f t="shared" si="7"/>
-        <v>10.454545454545455</v>
+        <v>8.6363636363636367</v>
       </c>
       <c r="F38">
         <f t="shared" si="8"/>
-        <v>13.636363636363637</v>
+        <v>11.818181818181818</v>
       </c>
       <c r="G38">
         <f t="shared" si="9"/>
@@ -3439,7 +3439,7 @@
       </c>
       <c r="M38">
         <f t="shared" si="2"/>
-        <v>37</v>
+        <v>27.90909090909091</v>
       </c>
       <c r="N38">
         <v>-1</v>
@@ -3461,23 +3461,23 @@
       </c>
       <c r="B39">
         <f t="shared" si="5"/>
-        <v>18.749494949494952</v>
+        <v>11.274747474747475</v>
       </c>
       <c r="C39">
         <f t="shared" si="6"/>
-        <v>0.16262626262626262</v>
+        <v>0.32525252525252524</v>
       </c>
       <c r="D39">
         <f t="shared" si="6"/>
-        <v>1.3646464646464647</v>
+        <v>2.028282828282828</v>
       </c>
       <c r="E39">
         <f t="shared" si="7"/>
-        <v>10.606060606060606</v>
+        <v>8.737373737373737</v>
       </c>
       <c r="F39">
         <f t="shared" si="8"/>
-        <v>13.737373737373737</v>
+        <v>11.868686868686869</v>
       </c>
       <c r="G39">
         <f t="shared" si="9"/>
@@ -3502,7 +3502,7 @@
       </c>
       <c r="M39">
         <f t="shared" si="2"/>
-        <v>38</v>
+        <v>28.656565656565657</v>
       </c>
       <c r="N39">
         <v>-1</v>
@@ -3524,23 +3524,23 @@
       </c>
       <c r="B40">
         <f t="shared" si="5"/>
-        <v>19.253535353535352</v>
+        <v>11.576767676767675</v>
       </c>
       <c r="C40">
         <f t="shared" si="6"/>
-        <v>0.16161616161616163</v>
+        <v>0.32323232323232326</v>
       </c>
       <c r="D40">
         <f t="shared" si="6"/>
-        <v>1.3474747474747475</v>
+        <v>2.0020202020202023</v>
       </c>
       <c r="E40">
         <f t="shared" si="7"/>
-        <v>10.757575757575758</v>
+        <v>8.8383838383838373</v>
       </c>
       <c r="F40">
         <f t="shared" si="8"/>
-        <v>13.838383838383837</v>
+        <v>11.919191919191919</v>
       </c>
       <c r="G40">
         <f t="shared" si="9"/>
@@ -3565,7 +3565,7 @@
       </c>
       <c r="M40">
         <f t="shared" si="2"/>
-        <v>39</v>
+        <v>29.404040404040401</v>
       </c>
       <c r="N40">
         <v>-1</v>
@@ -3587,23 +3587,23 @@
       </c>
       <c r="B41">
         <f t="shared" si="5"/>
-        <v>19.757575757575758</v>
+        <v>11.878787878787877</v>
       </c>
       <c r="C41">
         <f t="shared" si="6"/>
-        <v>0.16060606060606061</v>
+        <v>0.32121212121212123</v>
       </c>
       <c r="D41">
         <f t="shared" si="6"/>
-        <v>1.3303030303030303</v>
+        <v>1.9757575757575758</v>
       </c>
       <c r="E41">
         <f t="shared" si="7"/>
-        <v>10.90909090909091</v>
+        <v>8.9393939393939394</v>
       </c>
       <c r="F41">
         <f t="shared" si="8"/>
-        <v>13.939393939393939</v>
+        <v>11.969696969696969</v>
       </c>
       <c r="G41">
         <f t="shared" si="9"/>
@@ -3628,7 +3628,7 @@
       </c>
       <c r="M41">
         <f t="shared" si="2"/>
-        <v>40</v>
+        <v>30.151515151515149</v>
       </c>
       <c r="N41">
         <v>-1</v>
@@ -3650,23 +3650,23 @@
       </c>
       <c r="B42">
         <f t="shared" si="5"/>
-        <v>20.261616161616161</v>
+        <v>12.180808080808079</v>
       </c>
       <c r="C42">
         <f t="shared" si="6"/>
-        <v>0.1595959595959596</v>
+        <v>0.31919191919191919</v>
       </c>
       <c r="D42">
         <f t="shared" si="6"/>
-        <v>1.3131313131313131</v>
+        <v>1.9494949494949494</v>
       </c>
       <c r="E42">
         <f t="shared" si="7"/>
-        <v>11.060606060606061</v>
+        <v>9.0404040404040416</v>
       </c>
       <c r="F42">
         <f t="shared" si="8"/>
-        <v>14.040404040404042</v>
+        <v>12.020202020202021</v>
       </c>
       <c r="G42">
         <f t="shared" si="9"/>
@@ -3691,7 +3691,7 @@
       </c>
       <c r="M42">
         <f t="shared" si="2"/>
-        <v>41</v>
+        <v>30.8989898989899</v>
       </c>
       <c r="N42">
         <v>-1</v>
@@ -3713,23 +3713,23 @@
       </c>
       <c r="B43">
         <f t="shared" si="5"/>
-        <v>20.765656565656567</v>
+        <v>12.482828282828281</v>
       </c>
       <c r="C43">
         <f t="shared" si="6"/>
-        <v>0.15858585858585861</v>
+        <v>0.31717171717171722</v>
       </c>
       <c r="D43">
         <f t="shared" si="6"/>
-        <v>1.295959595959596</v>
+        <v>1.9232323232323232</v>
       </c>
       <c r="E43">
         <f t="shared" si="7"/>
-        <v>11.212121212121211</v>
+        <v>9.1414141414141419</v>
       </c>
       <c r="F43">
         <f t="shared" si="8"/>
-        <v>14.141414141414142</v>
+        <v>12.070707070707071</v>
       </c>
       <c r="G43">
         <f t="shared" si="9"/>
@@ -3754,7 +3754,7 @@
       </c>
       <c r="M43">
         <f t="shared" si="2"/>
-        <v>42</v>
+        <v>31.646464646464647</v>
       </c>
       <c r="N43">
         <v>-1</v>
@@ -3776,23 +3776,23 @@
       </c>
       <c r="B44">
         <f t="shared" si="5"/>
-        <v>21.26969696969697</v>
+        <v>12.784848484848485</v>
       </c>
       <c r="C44">
         <f t="shared" si="6"/>
-        <v>0.15757575757575759</v>
+        <v>0.31515151515151518</v>
       </c>
       <c r="D44">
         <f t="shared" si="6"/>
-        <v>1.2787878787878788</v>
+        <v>1.896969696969697</v>
       </c>
       <c r="E44">
         <f t="shared" si="7"/>
-        <v>11.363636363636363</v>
+        <v>9.2424242424242422</v>
       </c>
       <c r="F44">
         <f t="shared" si="8"/>
-        <v>14.242424242424242</v>
+        <v>12.121212121212121</v>
       </c>
       <c r="G44">
         <f t="shared" si="9"/>
@@ -3817,7 +3817,7 @@
       </c>
       <c r="M44">
         <f t="shared" si="2"/>
-        <v>43</v>
+        <v>32.393939393939391</v>
       </c>
       <c r="N44">
         <v>-1</v>
@@ -3839,23 +3839,23 @@
       </c>
       <c r="B45">
         <f t="shared" si="5"/>
-        <v>21.773737373737376</v>
+        <v>13.086868686868687</v>
       </c>
       <c r="C45">
         <f t="shared" si="6"/>
-        <v>0.15656565656565657</v>
+        <v>0.31313131313131315</v>
       </c>
       <c r="D45">
         <f t="shared" si="6"/>
-        <v>1.2616161616161616</v>
+        <v>1.8707070707070705</v>
       </c>
       <c r="E45">
         <f t="shared" si="7"/>
-        <v>11.515151515151516</v>
+        <v>9.3434343434343425</v>
       </c>
       <c r="F45">
         <f t="shared" si="8"/>
-        <v>14.343434343434343</v>
+        <v>12.171717171717171</v>
       </c>
       <c r="G45">
         <f t="shared" si="9"/>
@@ -3880,7 +3880,7 @@
       </c>
       <c r="M45">
         <f t="shared" si="2"/>
-        <v>44</v>
+        <v>33.141414141414145</v>
       </c>
       <c r="N45">
         <v>-1</v>
@@ -3902,23 +3902,23 @@
       </c>
       <c r="B46">
         <f t="shared" si="5"/>
-        <v>22.277777777777779</v>
+        <v>13.388888888888888</v>
       </c>
       <c r="C46">
         <f t="shared" ref="C46:C77" si="11">(C$2+((SUM(A46-1)/SUM(A$101-1))*(SUM(C$101-C$2))))</f>
-        <v>0.15555555555555556</v>
+        <v>0.31111111111111112</v>
       </c>
       <c r="D46">
         <f t="shared" si="6"/>
-        <v>1.2444444444444445</v>
+        <v>1.8444444444444446</v>
       </c>
       <c r="E46">
         <f t="shared" si="7"/>
-        <v>11.666666666666666</v>
+        <v>9.4444444444444446</v>
       </c>
       <c r="F46">
         <f t="shared" si="8"/>
-        <v>14.444444444444445</v>
+        <v>12.222222222222221</v>
       </c>
       <c r="G46">
         <f t="shared" si="9"/>
@@ -3943,7 +3943,7 @@
       </c>
       <c r="M46">
         <f t="shared" si="2"/>
-        <v>45</v>
+        <v>33.888888888888886</v>
       </c>
       <c r="N46">
         <v>-1</v>
@@ -3965,23 +3965,23 @@
       </c>
       <c r="B47">
         <f t="shared" si="5"/>
-        <v>22.781818181818181</v>
+        <v>13.69090909090909</v>
       </c>
       <c r="C47">
         <f t="shared" si="11"/>
-        <v>0.15454545454545454</v>
+        <v>0.30909090909090908</v>
       </c>
       <c r="D47">
         <f t="shared" ref="D47:D100" si="12">(D$2+((SUM($A47-1)/SUM($A$101-1))*(SUM(D$101-D$2))))</f>
-        <v>1.2272727272727273</v>
+        <v>1.8181818181818181</v>
       </c>
       <c r="E47">
         <f t="shared" si="7"/>
-        <v>11.818181818181818</v>
+        <v>9.545454545454545</v>
       </c>
       <c r="F47">
         <f t="shared" si="8"/>
-        <v>14.545454545454545</v>
+        <v>12.272727272727273</v>
       </c>
       <c r="G47">
         <f t="shared" si="9"/>
@@ -4006,7 +4006,7 @@
       </c>
       <c r="M47">
         <f t="shared" si="2"/>
-        <v>46</v>
+        <v>34.636363636363633</v>
       </c>
       <c r="N47">
         <v>-1</v>
@@ -4028,23 +4028,23 @@
       </c>
       <c r="B48">
         <f t="shared" si="5"/>
-        <v>23.285858585858588</v>
+        <v>13.992929292929292</v>
       </c>
       <c r="C48">
         <f t="shared" si="11"/>
-        <v>0.15353535353535355</v>
+        <v>0.30707070707070711</v>
       </c>
       <c r="D48">
         <f t="shared" si="12"/>
-        <v>1.2101010101010101</v>
+        <v>1.7919191919191919</v>
       </c>
       <c r="E48">
         <f t="shared" si="7"/>
-        <v>11.969696969696969</v>
+        <v>9.6464646464646471</v>
       </c>
       <c r="F48">
         <f t="shared" si="8"/>
-        <v>14.646464646464647</v>
+        <v>12.323232323232324</v>
       </c>
       <c r="G48">
         <f t="shared" si="9"/>
@@ -4069,7 +4069,7 @@
       </c>
       <c r="M48">
         <f t="shared" si="2"/>
-        <v>47</v>
+        <v>35.383838383838381</v>
       </c>
       <c r="N48">
         <v>-1</v>
@@ -4091,23 +4091,23 @@
       </c>
       <c r="B49">
         <f t="shared" si="5"/>
-        <v>23.78989898989899</v>
+        <v>14.294949494949494</v>
       </c>
       <c r="C49">
         <f t="shared" si="11"/>
-        <v>0.15252525252525254</v>
+        <v>0.30505050505050507</v>
       </c>
       <c r="D49">
         <f t="shared" si="12"/>
-        <v>1.192929292929293</v>
+        <v>1.7656565656565657</v>
       </c>
       <c r="E49">
         <f t="shared" si="7"/>
-        <v>12.121212121212121</v>
+        <v>9.7474747474747474</v>
       </c>
       <c r="F49">
         <f t="shared" si="8"/>
-        <v>14.747474747474747</v>
+        <v>12.373737373737374</v>
       </c>
       <c r="G49">
         <f t="shared" si="9"/>
@@ -4132,7 +4132,7 @@
       </c>
       <c r="M49">
         <f t="shared" si="2"/>
-        <v>48</v>
+        <v>36.131313131313135</v>
       </c>
       <c r="N49">
         <v>-1</v>
@@ -4154,23 +4154,23 @@
       </c>
       <c r="B50">
         <f t="shared" si="5"/>
-        <v>24.293939393939397</v>
+        <v>14.596969696969696</v>
       </c>
       <c r="C50">
         <f t="shared" si="11"/>
-        <v>0.15151515151515152</v>
+        <v>0.30303030303030304</v>
       </c>
       <c r="D50">
         <f t="shared" si="12"/>
-        <v>1.1757575757575758</v>
+        <v>1.7393939393939393</v>
       </c>
       <c r="E50">
         <f t="shared" si="7"/>
-        <v>12.272727272727273</v>
+        <v>9.8484848484848477</v>
       </c>
       <c r="F50">
         <f t="shared" si="8"/>
-        <v>14.848484848484848</v>
+        <v>12.424242424242424</v>
       </c>
       <c r="G50">
         <f t="shared" si="9"/>
@@ -4195,7 +4195,7 @@
       </c>
       <c r="M50">
         <f t="shared" si="2"/>
-        <v>49</v>
+        <v>36.878787878787882</v>
       </c>
       <c r="N50">
         <v>-1</v>
@@ -4217,23 +4217,23 @@
       </c>
       <c r="B51">
         <f t="shared" si="5"/>
-        <v>24.797979797979799</v>
+        <v>14.898989898989898</v>
       </c>
       <c r="C51">
         <f t="shared" si="11"/>
-        <v>0.1505050505050505</v>
+        <v>0.30101010101010101</v>
       </c>
       <c r="D51">
         <f t="shared" si="12"/>
-        <v>1.1585858585858586</v>
+        <v>1.7131313131313131</v>
       </c>
       <c r="E51">
         <f t="shared" si="7"/>
-        <v>12.424242424242426</v>
+        <v>9.9494949494949498</v>
       </c>
       <c r="F51">
         <f t="shared" si="8"/>
-        <v>14.94949494949495</v>
+        <v>12.474747474747474</v>
       </c>
       <c r="G51">
         <f t="shared" si="9"/>
@@ -4258,7 +4258,7 @@
       </c>
       <c r="M51">
         <f t="shared" si="2"/>
-        <v>50</v>
+        <v>37.62626262626263</v>
       </c>
       <c r="N51">
         <v>-1</v>
@@ -4280,23 +4280,23 @@
       </c>
       <c r="B52">
         <f t="shared" si="5"/>
-        <v>25.302020202020206</v>
+        <v>15.201010101010102</v>
       </c>
       <c r="C52">
         <f t="shared" si="11"/>
-        <v>0.14949494949494951</v>
+        <v>0.29898989898989903</v>
       </c>
       <c r="D52">
         <f t="shared" si="12"/>
-        <v>1.1414141414141414</v>
+        <v>1.6868686868686866</v>
       </c>
       <c r="E52">
         <f t="shared" si="7"/>
-        <v>12.575757575757576</v>
+        <v>10.050505050505052</v>
       </c>
       <c r="F52">
         <f t="shared" si="8"/>
-        <v>15.050505050505052</v>
+        <v>12.525252525252526</v>
       </c>
       <c r="G52">
         <f t="shared" si="9"/>
@@ -4321,7 +4321,7 @@
       </c>
       <c r="M52">
         <f t="shared" si="2"/>
-        <v>51</v>
+        <v>38.373737373737377</v>
       </c>
       <c r="N52">
         <v>-1</v>
@@ -4343,23 +4343,23 @@
       </c>
       <c r="B53">
         <f t="shared" si="5"/>
-        <v>25.806060606060605</v>
+        <v>15.503030303030302</v>
       </c>
       <c r="C53">
         <f t="shared" si="11"/>
-        <v>0.1484848484848485</v>
+        <v>0.29696969696969699</v>
       </c>
       <c r="D53">
         <f t="shared" si="12"/>
-        <v>1.1242424242424243</v>
+        <v>1.6606060606060606</v>
       </c>
       <c r="E53">
         <f t="shared" si="7"/>
-        <v>12.727272727272727</v>
+        <v>10.151515151515152</v>
       </c>
       <c r="F53">
         <f t="shared" si="8"/>
-        <v>15.151515151515152</v>
+        <v>12.575757575757576</v>
       </c>
       <c r="G53">
         <f t="shared" si="9"/>
@@ -4384,7 +4384,7 @@
       </c>
       <c r="M53">
         <f t="shared" si="2"/>
-        <v>52</v>
+        <v>39.121212121212118</v>
       </c>
       <c r="N53">
         <v>-1</v>
@@ -4406,23 +4406,23 @@
       </c>
       <c r="B54">
         <f t="shared" si="5"/>
-        <v>26.310101010101015</v>
+        <v>15.805050505050506</v>
       </c>
       <c r="C54">
         <f t="shared" si="11"/>
-        <v>0.14747474747474748</v>
+        <v>0.29494949494949496</v>
       </c>
       <c r="D54">
         <f t="shared" si="12"/>
-        <v>1.1070707070707071</v>
+        <v>1.6343434343434342</v>
       </c>
       <c r="E54">
         <f t="shared" si="7"/>
-        <v>12.878787878787879</v>
+        <v>10.252525252525253</v>
       </c>
       <c r="F54">
         <f t="shared" si="8"/>
-        <v>15.252525252525253</v>
+        <v>12.626262626262626</v>
       </c>
       <c r="G54">
         <f t="shared" si="9"/>
@@ -4447,7 +4447,7 @@
       </c>
       <c r="M54">
         <f t="shared" si="2"/>
-        <v>53.000000000000007</v>
+        <v>39.868686868686872</v>
       </c>
       <c r="N54">
         <v>-1</v>
@@ -4469,23 +4469,23 @@
       </c>
       <c r="B55">
         <f t="shared" si="5"/>
-        <v>26.814141414141414</v>
+        <v>16.107070707070708</v>
       </c>
       <c r="C55">
         <f t="shared" si="11"/>
-        <v>0.14646464646464646</v>
+        <v>0.29292929292929293</v>
       </c>
       <c r="D55">
         <f t="shared" si="12"/>
-        <v>1.0898989898989899</v>
+        <v>1.608080808080808</v>
       </c>
       <c r="E55">
         <f t="shared" si="7"/>
-        <v>13.030303030303031</v>
+        <v>10.353535353535353</v>
       </c>
       <c r="F55">
         <f t="shared" si="8"/>
-        <v>15.353535353535353</v>
+        <v>12.676767676767676</v>
       </c>
       <c r="G55">
         <f t="shared" si="9"/>
@@ -4510,7 +4510,7 @@
       </c>
       <c r="M55">
         <f t="shared" si="2"/>
-        <v>54</v>
+        <v>40.616161616161619</v>
       </c>
       <c r="N55">
         <v>-1</v>
@@ -4532,23 +4532,23 @@
       </c>
       <c r="B56">
         <f t="shared" si="5"/>
-        <v>27.318181818181817</v>
+        <v>16.40909090909091</v>
       </c>
       <c r="C56">
         <f t="shared" si="11"/>
-        <v>0.14545454545454548</v>
+        <v>0.29090909090909095</v>
       </c>
       <c r="D56">
         <f t="shared" si="12"/>
-        <v>1.0727272727272728</v>
+        <v>1.5818181818181818</v>
       </c>
       <c r="E56">
         <f t="shared" si="7"/>
-        <v>13.181818181818182</v>
+        <v>10.454545454545453</v>
       </c>
       <c r="F56">
         <f t="shared" si="8"/>
-        <v>15.454545454545453</v>
+        <v>12.727272727272727</v>
       </c>
       <c r="G56">
         <f t="shared" si="9"/>
@@ -4573,7 +4573,7 @@
       </c>
       <c r="M56">
         <f t="shared" si="2"/>
-        <v>54.999999999999993</v>
+        <v>41.36363636363636</v>
       </c>
       <c r="N56">
         <v>-1</v>
@@ -4595,23 +4595,23 @@
       </c>
       <c r="B57">
         <f t="shared" si="5"/>
-        <v>27.822222222222223</v>
+        <v>16.711111111111112</v>
       </c>
       <c r="C57">
         <f t="shared" si="11"/>
-        <v>0.14444444444444446</v>
+        <v>0.28888888888888892</v>
       </c>
       <c r="D57">
         <f t="shared" si="12"/>
-        <v>1.0555555555555556</v>
+        <v>1.5555555555555554</v>
       </c>
       <c r="E57">
         <f t="shared" si="7"/>
-        <v>13.333333333333334</v>
+        <v>10.555555555555555</v>
       </c>
       <c r="F57">
         <f t="shared" si="8"/>
-        <v>15.555555555555555</v>
+        <v>12.777777777777779</v>
       </c>
       <c r="G57">
         <f t="shared" si="9"/>
@@ -4636,7 +4636,7 @@
       </c>
       <c r="M57">
         <f t="shared" si="2"/>
-        <v>56</v>
+        <v>42.111111111111114</v>
       </c>
       <c r="N57">
         <v>-1</v>
@@ -4658,23 +4658,23 @@
       </c>
       <c r="B58">
         <f t="shared" si="5"/>
-        <v>28.326262626262626</v>
+        <v>17.013131313131314</v>
       </c>
       <c r="C58">
         <f t="shared" si="11"/>
-        <v>0.14343434343434344</v>
+        <v>0.28686868686868688</v>
       </c>
       <c r="D58">
         <f t="shared" si="12"/>
-        <v>1.0383838383838384</v>
+        <v>1.5292929292929294</v>
       </c>
       <c r="E58">
         <f t="shared" si="7"/>
-        <v>13.484848484848484</v>
+        <v>10.656565656565657</v>
       </c>
       <c r="F58">
         <f t="shared" si="8"/>
-        <v>15.656565656565657</v>
+        <v>12.828282828282829</v>
       </c>
       <c r="G58">
         <f t="shared" si="9"/>
@@ -4699,7 +4699,7 @@
       </c>
       <c r="M58">
         <f t="shared" si="2"/>
-        <v>57</v>
+        <v>42.858585858585855</v>
       </c>
       <c r="N58">
         <v>-1</v>
@@ -4721,23 +4721,23 @@
       </c>
       <c r="B59">
         <f t="shared" si="5"/>
-        <v>28.830303030303032</v>
+        <v>17.315151515151516</v>
       </c>
       <c r="C59">
         <f t="shared" si="11"/>
-        <v>0.14242424242424243</v>
+        <v>0.28484848484848485</v>
       </c>
       <c r="D59">
         <f t="shared" si="12"/>
-        <v>1.021212121212121</v>
+        <v>1.5030303030303029</v>
       </c>
       <c r="E59">
         <f t="shared" si="7"/>
-        <v>13.636363636363637</v>
+        <v>10.757575757575758</v>
       </c>
       <c r="F59">
         <f t="shared" si="8"/>
-        <v>15.757575757575758</v>
+        <v>12.878787878787879</v>
       </c>
       <c r="G59">
         <f t="shared" si="9"/>
@@ -4762,7 +4762,7 @@
       </c>
       <c r="M59">
         <f t="shared" si="2"/>
-        <v>58.000000000000007</v>
+        <v>43.606060606060609</v>
       </c>
       <c r="N59">
         <v>-1</v>
@@ -4784,23 +4784,23 @@
       </c>
       <c r="B60">
         <f t="shared" si="5"/>
-        <v>29.334343434343435</v>
+        <v>17.617171717171718</v>
       </c>
       <c r="C60">
         <f t="shared" si="11"/>
-        <v>0.14141414141414144</v>
+        <v>0.28282828282828287</v>
       </c>
       <c r="D60">
         <f t="shared" si="12"/>
-        <v>1.0040404040404041</v>
+        <v>1.4767676767676767</v>
       </c>
       <c r="E60">
         <f t="shared" si="7"/>
-        <v>13.787878787878787</v>
+        <v>10.858585858585858</v>
       </c>
       <c r="F60">
         <f t="shared" si="8"/>
-        <v>15.858585858585858</v>
+        <v>12.929292929292929</v>
       </c>
       <c r="G60">
         <f t="shared" si="9"/>
@@ -4825,7 +4825,7 @@
       </c>
       <c r="M60">
         <f t="shared" si="2"/>
-        <v>59</v>
+        <v>44.353535353535356</v>
       </c>
       <c r="N60">
         <v>-1</v>
@@ -4847,23 +4847,23 @@
       </c>
       <c r="B61">
         <f t="shared" si="5"/>
-        <v>29.838383838383837</v>
+        <v>17.919191919191917</v>
       </c>
       <c r="C61">
         <f t="shared" si="11"/>
-        <v>0.14040404040404042</v>
+        <v>0.28080808080808084</v>
       </c>
       <c r="D61">
         <f t="shared" si="12"/>
-        <v>0.9868686868686869</v>
+        <v>1.4505050505050505</v>
       </c>
       <c r="E61">
         <f t="shared" si="7"/>
-        <v>13.939393939393939</v>
+        <v>10.959595959595958</v>
       </c>
       <c r="F61">
         <f t="shared" si="8"/>
-        <v>15.959595959595958</v>
+        <v>12.979797979797979</v>
       </c>
       <c r="G61">
         <f t="shared" si="9"/>
@@ -4888,7 +4888,7 @@
       </c>
       <c r="M61">
         <f t="shared" si="2"/>
-        <v>59.999999999999993</v>
+        <v>45.101010101010097</v>
       </c>
       <c r="N61">
         <v>-1</v>
@@ -4910,23 +4910,23 @@
       </c>
       <c r="B62">
         <f t="shared" si="5"/>
-        <v>30.342424242424244</v>
+        <v>18.221212121212123</v>
       </c>
       <c r="C62">
         <f t="shared" si="11"/>
-        <v>0.1393939393939394</v>
+        <v>0.27878787878787881</v>
       </c>
       <c r="D62">
         <f t="shared" si="12"/>
-        <v>0.96969696969696972</v>
+        <v>1.4242424242424241</v>
       </c>
       <c r="E62">
         <f t="shared" si="7"/>
-        <v>14.090909090909092</v>
+        <v>11.060606060606061</v>
       </c>
       <c r="F62">
         <f t="shared" si="8"/>
-        <v>16.060606060606062</v>
+        <v>13.030303030303031</v>
       </c>
       <c r="G62">
         <f t="shared" si="9"/>
@@ -4951,7 +4951,7 @@
       </c>
       <c r="M62">
         <f t="shared" si="2"/>
-        <v>61</v>
+        <v>45.848484848484851</v>
       </c>
       <c r="N62">
         <v>-1</v>
@@ -4973,23 +4973,23 @@
       </c>
       <c r="B63">
         <f t="shared" si="5"/>
-        <v>30.846464646464646</v>
+        <v>18.523232323232325</v>
       </c>
       <c r="C63">
         <f t="shared" si="11"/>
-        <v>0.13838383838383839</v>
+        <v>0.27676767676767677</v>
       </c>
       <c r="D63">
         <f t="shared" si="12"/>
-        <v>0.95252525252525255</v>
+        <v>1.3979797979797981</v>
       </c>
       <c r="E63">
         <f t="shared" si="7"/>
-        <v>14.242424242424242</v>
+        <v>11.161616161616161</v>
       </c>
       <c r="F63">
         <f t="shared" si="8"/>
-        <v>16.161616161616159</v>
+        <v>13.08080808080808</v>
       </c>
       <c r="G63">
         <f t="shared" si="9"/>
@@ -5014,7 +5014,7 @@
       </c>
       <c r="M63">
         <f t="shared" si="2"/>
-        <v>62</v>
+        <v>46.595959595959592</v>
       </c>
       <c r="N63">
         <v>-1</v>
@@ -5036,23 +5036,23 @@
       </c>
       <c r="B64">
         <f t="shared" si="5"/>
-        <v>31.350505050505053</v>
+        <v>18.825252525252527</v>
       </c>
       <c r="C64">
         <f t="shared" si="11"/>
-        <v>0.13737373737373737</v>
+        <v>0.27474747474747474</v>
       </c>
       <c r="D64">
         <f t="shared" si="12"/>
-        <v>0.93535353535353538</v>
+        <v>1.3717171717171717</v>
       </c>
       <c r="E64">
         <f t="shared" si="7"/>
-        <v>14.393939393939394</v>
+        <v>11.262626262626263</v>
       </c>
       <c r="F64">
         <f t="shared" si="8"/>
-        <v>16.262626262626263</v>
+        <v>13.131313131313131</v>
       </c>
       <c r="G64">
         <f t="shared" si="9"/>
@@ -5077,7 +5077,7 @@
       </c>
       <c r="M64">
         <f t="shared" si="2"/>
-        <v>63</v>
+        <v>47.343434343434346</v>
       </c>
       <c r="N64">
         <v>-1</v>
@@ -5099,23 +5099,23 @@
       </c>
       <c r="B65">
         <f t="shared" si="5"/>
-        <v>31.854545454545455</v>
+        <v>19.127272727272729</v>
       </c>
       <c r="C65">
         <f t="shared" si="11"/>
-        <v>0.13636363636363635</v>
+        <v>0.27272727272727271</v>
       </c>
       <c r="D65">
         <f t="shared" si="12"/>
-        <v>0.91818181818181821</v>
+        <v>1.3454545454545455</v>
       </c>
       <c r="E65">
         <f t="shared" si="7"/>
-        <v>14.545454545454545</v>
+        <v>11.363636363636363</v>
       </c>
       <c r="F65">
         <f t="shared" si="8"/>
-        <v>16.363636363636363</v>
+        <v>13.181818181818182</v>
       </c>
       <c r="G65">
         <f t="shared" si="9"/>
@@ -5140,7 +5140,7 @@
       </c>
       <c r="M65">
         <f t="shared" si="2"/>
-        <v>64</v>
+        <v>48.090909090909093</v>
       </c>
       <c r="N65">
         <v>-1</v>
@@ -5162,23 +5162,23 @@
       </c>
       <c r="B66">
         <f t="shared" si="5"/>
-        <v>32.358585858585862</v>
+        <v>19.429292929292931</v>
       </c>
       <c r="C66">
         <f t="shared" si="11"/>
-        <v>0.13535353535353534</v>
+        <v>0.27070707070707067</v>
       </c>
       <c r="D66">
         <f t="shared" si="12"/>
-        <v>0.90101010101010104</v>
+        <v>1.319191919191919</v>
       </c>
       <c r="E66">
         <f t="shared" si="7"/>
-        <v>14.696969696969697</v>
+        <v>11.464646464646465</v>
       </c>
       <c r="F66">
         <f t="shared" si="8"/>
-        <v>16.464646464646464</v>
+        <v>13.232323232323232</v>
       </c>
       <c r="G66">
         <f t="shared" si="9"/>
@@ -5203,7 +5203,7 @@
       </c>
       <c r="M66">
         <f t="shared" si="2"/>
-        <v>65</v>
+        <v>48.838383838383841</v>
       </c>
       <c r="N66">
         <v>-1</v>
@@ -5225,23 +5225,23 @@
       </c>
       <c r="B67">
         <f t="shared" si="5"/>
-        <v>32.862626262626264</v>
+        <v>19.731313131313133</v>
       </c>
       <c r="C67">
         <f t="shared" si="11"/>
-        <v>0.13434343434343435</v>
+        <v>0.2686868686868687</v>
       </c>
       <c r="D67">
         <f t="shared" si="12"/>
-        <v>0.88383838383838387</v>
+        <v>1.2929292929292928</v>
       </c>
       <c r="E67">
         <f t="shared" si="7"/>
-        <v>14.848484848484848</v>
+        <v>11.565656565656566</v>
       </c>
       <c r="F67">
         <f t="shared" si="8"/>
-        <v>16.565656565656568</v>
+        <v>13.282828282828284</v>
       </c>
       <c r="G67">
         <f t="shared" si="9"/>
@@ -5266,7 +5266,7 @@
       </c>
       <c r="M67">
         <f t="shared" ref="M67:O100" si="13">(M$2+((SUM($A67-1)/SUM($A$101-1))*(SUM(M$101-M$2))))</f>
-        <v>66</v>
+        <v>49.585858585858588</v>
       </c>
       <c r="N67">
         <v>-1</v>
@@ -5288,23 +5288,23 @@
       </c>
       <c r="B68">
         <f t="shared" ref="B68:B100" si="14">(B$2+((SUM(A68-1)/SUM(A$101-1))*(SUM(B$101-B$2))))</f>
-        <v>33.366666666666667</v>
+        <v>20.033333333333331</v>
       </c>
       <c r="C68">
         <f t="shared" si="11"/>
-        <v>0.13333333333333336</v>
+        <v>0.26666666666666672</v>
       </c>
       <c r="D68">
         <f t="shared" si="12"/>
-        <v>0.8666666666666667</v>
+        <v>1.2666666666666666</v>
       </c>
       <c r="E68">
         <f t="shared" si="7"/>
-        <v>15</v>
+        <v>11.666666666666666</v>
       </c>
       <c r="F68">
         <f t="shared" si="8"/>
-        <v>16.666666666666664</v>
+        <v>13.333333333333332</v>
       </c>
       <c r="G68">
         <f t="shared" si="9"/>
@@ -5329,7 +5329,7 @@
       </c>
       <c r="M68">
         <f t="shared" si="13"/>
-        <v>67</v>
+        <v>50.333333333333329</v>
       </c>
       <c r="N68">
         <v>-1</v>
@@ -5351,23 +5351,23 @@
       </c>
       <c r="B69">
         <f t="shared" si="14"/>
-        <v>33.87070707070707</v>
+        <v>20.335353535353537</v>
       </c>
       <c r="C69">
         <f t="shared" si="11"/>
-        <v>0.13232323232323234</v>
+        <v>0.26464646464646469</v>
       </c>
       <c r="D69">
         <f t="shared" si="12"/>
-        <v>0.84949494949494953</v>
+        <v>1.2404040404040402</v>
       </c>
       <c r="E69">
         <f t="shared" si="7"/>
-        <v>15.151515151515152</v>
+        <v>11.767676767676768</v>
       </c>
       <c r="F69">
         <f t="shared" si="8"/>
-        <v>16.767676767676768</v>
+        <v>13.383838383838384</v>
       </c>
       <c r="G69">
         <f t="shared" si="9"/>
@@ -5392,7 +5392,7 @@
       </c>
       <c r="M69">
         <f t="shared" si="13"/>
-        <v>68</v>
+        <v>51.080808080808083</v>
       </c>
       <c r="N69">
         <v>-1</v>
@@ -5414,23 +5414,23 @@
       </c>
       <c r="B70">
         <f t="shared" si="14"/>
-        <v>34.374747474747473</v>
+        <v>20.637373737373736</v>
       </c>
       <c r="C70">
         <f t="shared" si="11"/>
-        <v>0.13131313131313133</v>
+        <v>0.26262626262626265</v>
       </c>
       <c r="D70">
         <f t="shared" si="12"/>
-        <v>0.83232323232323235</v>
+        <v>1.2141414141414142</v>
       </c>
       <c r="E70">
         <f t="shared" si="7"/>
-        <v>15.303030303030303</v>
+        <v>11.868686868686869</v>
       </c>
       <c r="F70">
         <f t="shared" si="8"/>
-        <v>16.868686868686869</v>
+        <v>13.434343434343434</v>
       </c>
       <c r="G70">
         <f t="shared" si="9"/>
@@ -5455,7 +5455,7 @@
       </c>
       <c r="M70">
         <f t="shared" si="13"/>
-        <v>69</v>
+        <v>51.828282828282823</v>
       </c>
       <c r="N70">
         <v>-1</v>
@@ -5477,23 +5477,23 @@
       </c>
       <c r="B71">
         <f t="shared" si="14"/>
-        <v>34.878787878787882</v>
+        <v>20.939393939393941</v>
       </c>
       <c r="C71">
         <f t="shared" si="11"/>
-        <v>0.13030303030303031</v>
+        <v>0.26060606060606062</v>
       </c>
       <c r="D71">
         <f t="shared" si="12"/>
-        <v>0.81515151515151518</v>
+        <v>1.1878787878787878</v>
       </c>
       <c r="E71">
         <f t="shared" si="7"/>
-        <v>15.454545454545455</v>
+        <v>11.969696969696971</v>
       </c>
       <c r="F71">
         <f t="shared" si="8"/>
-        <v>16.969696969696969</v>
+        <v>13.484848484848484</v>
       </c>
       <c r="G71">
         <f t="shared" si="9"/>
@@ -5518,7 +5518,7 @@
       </c>
       <c r="M71">
         <f t="shared" si="13"/>
-        <v>70</v>
+        <v>52.575757575757578</v>
       </c>
       <c r="N71">
         <v>-1</v>
@@ -5540,23 +5540,23 @@
       </c>
       <c r="B72">
         <f t="shared" si="14"/>
-        <v>35.382828282828285</v>
+        <v>21.241414141414143</v>
       </c>
       <c r="C72">
         <f t="shared" si="11"/>
-        <v>0.12929292929292929</v>
+        <v>0.25858585858585859</v>
       </c>
       <c r="D72">
         <f t="shared" si="12"/>
-        <v>0.79797979797979801</v>
+        <v>1.1616161616161615</v>
       </c>
       <c r="E72">
         <f t="shared" si="7"/>
-        <v>15.606060606060606</v>
+        <v>12.070707070707071</v>
       </c>
       <c r="F72">
         <f t="shared" si="8"/>
-        <v>17.070707070707073</v>
+        <v>13.535353535353536</v>
       </c>
       <c r="G72">
         <f t="shared" si="9"/>
@@ -5581,7 +5581,7 @@
       </c>
       <c r="M72">
         <f t="shared" si="13"/>
-        <v>71</v>
+        <v>53.323232323232325</v>
       </c>
       <c r="N72">
         <v>-1</v>
@@ -5603,23 +5603,23 @@
       </c>
       <c r="B73">
         <f t="shared" si="14"/>
-        <v>35.886868686868688</v>
+        <v>21.543434343434342</v>
       </c>
       <c r="C73">
         <f t="shared" si="11"/>
-        <v>0.12828282828282828</v>
+        <v>0.25656565656565655</v>
       </c>
       <c r="D73">
         <f t="shared" si="12"/>
-        <v>0.78080808080808084</v>
+        <v>1.1353535353535353</v>
       </c>
       <c r="E73">
         <f t="shared" si="7"/>
-        <v>15.757575757575758</v>
+        <v>12.171717171717171</v>
       </c>
       <c r="F73">
         <f t="shared" si="8"/>
-        <v>17.171717171717169</v>
+        <v>13.585858585858585</v>
       </c>
       <c r="G73">
         <f t="shared" si="9"/>
@@ -5644,7 +5644,7 @@
       </c>
       <c r="M73">
         <f t="shared" si="13"/>
-        <v>72</v>
+        <v>54.070707070707066</v>
       </c>
       <c r="N73">
         <v>-1</v>
@@ -5666,23 +5666,23 @@
       </c>
       <c r="B74">
         <f t="shared" si="14"/>
-        <v>36.390909090909091</v>
+        <v>21.845454545454547</v>
       </c>
       <c r="C74">
         <f t="shared" si="11"/>
-        <v>0.12727272727272726</v>
+        <v>0.25454545454545452</v>
       </c>
       <c r="D74">
         <f t="shared" si="12"/>
-        <v>0.76363636363636367</v>
+        <v>1.1090909090909089</v>
       </c>
       <c r="E74">
         <f t="shared" si="7"/>
-        <v>15.90909090909091</v>
+        <v>12.272727272727273</v>
       </c>
       <c r="F74">
         <f t="shared" si="8"/>
-        <v>17.272727272727273</v>
+        <v>13.636363636363637</v>
       </c>
       <c r="G74">
         <f t="shared" si="9"/>
@@ -5707,7 +5707,7 @@
       </c>
       <c r="M74">
         <f t="shared" si="13"/>
-        <v>73</v>
+        <v>54.81818181818182</v>
       </c>
       <c r="N74">
         <v>-1</v>
@@ -5729,23 +5729,23 @@
       </c>
       <c r="B75">
         <f t="shared" si="14"/>
-        <v>36.894949494949493</v>
+        <v>22.147474747474746</v>
       </c>
       <c r="C75">
         <f t="shared" si="11"/>
-        <v>0.12626262626262627</v>
+        <v>0.25252525252525254</v>
       </c>
       <c r="D75">
         <f t="shared" si="12"/>
-        <v>0.7464646464646465</v>
+        <v>1.0828282828282829</v>
       </c>
       <c r="E75">
         <f t="shared" si="7"/>
-        <v>16.060606060606062</v>
+        <v>12.373737373737374</v>
       </c>
       <c r="F75">
         <f t="shared" si="8"/>
-        <v>17.373737373737374</v>
+        <v>13.686868686868687</v>
       </c>
       <c r="G75">
         <f t="shared" si="9"/>
@@ -5770,7 +5770,7 @@
       </c>
       <c r="M75">
         <f t="shared" si="13"/>
-        <v>74</v>
+        <v>55.56565656565656</v>
       </c>
       <c r="N75">
         <v>-1</v>
@@ -5792,23 +5792,23 @@
       </c>
       <c r="B76">
         <f t="shared" si="14"/>
-        <v>37.398989898989903</v>
+        <v>22.449494949494952</v>
       </c>
       <c r="C76">
         <f t="shared" si="11"/>
-        <v>0.12525252525252525</v>
+        <v>0.25050505050505051</v>
       </c>
       <c r="D76">
         <f t="shared" si="12"/>
-        <v>0.72929292929292933</v>
+        <v>1.0565656565656565</v>
       </c>
       <c r="E76">
         <f t="shared" si="7"/>
-        <v>16.212121212121211</v>
+        <v>12.474747474747474</v>
       </c>
       <c r="F76">
         <f t="shared" si="8"/>
-        <v>17.474747474747474</v>
+        <v>13.737373737373737</v>
       </c>
       <c r="G76">
         <f t="shared" si="9"/>
@@ -5833,7 +5833,7 @@
       </c>
       <c r="M76">
         <f t="shared" si="13"/>
-        <v>75</v>
+        <v>56.313131313131315</v>
       </c>
       <c r="N76">
         <v>-1</v>
@@ -5855,23 +5855,23 @@
       </c>
       <c r="B77">
         <f t="shared" si="14"/>
-        <v>37.903030303030306</v>
+        <v>22.75151515151515</v>
       </c>
       <c r="C77">
         <f t="shared" si="11"/>
-        <v>0.12424242424242425</v>
+        <v>0.2484848484848485</v>
       </c>
       <c r="D77">
         <f t="shared" si="12"/>
-        <v>0.71212121212121215</v>
+        <v>1.0303030303030303</v>
       </c>
       <c r="E77">
         <f t="shared" si="7"/>
-        <v>16.363636363636363</v>
+        <v>12.575757575757576</v>
       </c>
       <c r="F77">
         <f t="shared" si="8"/>
-        <v>17.575757575757578</v>
+        <v>13.787878787878789</v>
       </c>
       <c r="G77">
         <f t="shared" si="9"/>
@@ -5896,7 +5896,7 @@
       </c>
       <c r="M77">
         <f t="shared" si="13"/>
-        <v>76</v>
+        <v>57.060606060606062</v>
       </c>
       <c r="N77">
         <v>-1</v>
@@ -5918,23 +5918,23 @@
       </c>
       <c r="B78">
         <f t="shared" si="14"/>
-        <v>38.407070707070702</v>
+        <v>23.053535353535352</v>
       </c>
       <c r="C78">
         <f t="shared" ref="C78:C100" si="15">(C$2+((SUM(A78-1)/SUM(A$101-1))*(SUM(C$101-C$2))))</f>
-        <v>0.12323232323232325</v>
+        <v>0.2464646464646465</v>
       </c>
       <c r="D78">
         <f t="shared" si="12"/>
-        <v>0.69494949494949498</v>
+        <v>1.0040404040404041</v>
       </c>
       <c r="E78">
         <f t="shared" si="7"/>
-        <v>16.515151515151516</v>
+        <v>12.676767676767676</v>
       </c>
       <c r="F78">
         <f t="shared" si="8"/>
-        <v>17.676767676767675</v>
+        <v>13.838383838383837</v>
       </c>
       <c r="G78">
         <f t="shared" si="9"/>
@@ -5959,7 +5959,7 @@
       </c>
       <c r="M78">
         <f t="shared" si="13"/>
-        <v>77</v>
+        <v>57.808080808080803</v>
       </c>
       <c r="N78">
         <v>-1</v>
@@ -5981,23 +5981,23 @@
       </c>
       <c r="B79">
         <f t="shared" si="14"/>
-        <v>38.911111111111111</v>
+        <v>23.355555555555558</v>
       </c>
       <c r="C79">
         <f t="shared" si="15"/>
-        <v>0.12222222222222223</v>
+        <v>0.24444444444444446</v>
       </c>
       <c r="D79">
         <f t="shared" si="12"/>
-        <v>0.67777777777777781</v>
+        <v>0.97777777777777786</v>
       </c>
       <c r="E79">
         <f t="shared" si="7"/>
-        <v>16.666666666666664</v>
+        <v>12.777777777777779</v>
       </c>
       <c r="F79">
         <f t="shared" si="8"/>
-        <v>17.777777777777779</v>
+        <v>13.888888888888889</v>
       </c>
       <c r="G79">
         <f t="shared" si="9"/>
@@ -6022,7 +6022,7 @@
       </c>
       <c r="M79">
         <f t="shared" si="13"/>
-        <v>78</v>
+        <v>58.555555555555557</v>
       </c>
       <c r="N79">
         <v>-1</v>
@@ -6044,23 +6044,23 @@
       </c>
       <c r="B80">
         <f t="shared" si="14"/>
-        <v>39.415151515151514</v>
+        <v>23.657575757575756</v>
       </c>
       <c r="C80">
         <f t="shared" si="15"/>
-        <v>0.12121212121212122</v>
+        <v>0.24242424242424243</v>
       </c>
       <c r="D80">
         <f t="shared" si="12"/>
-        <v>0.66060606060606064</v>
+        <v>0.95151515151515165</v>
       </c>
       <c r="E80">
         <f t="shared" si="7"/>
-        <v>16.81818181818182</v>
+        <v>12.878787878787879</v>
       </c>
       <c r="F80">
         <f t="shared" si="8"/>
-        <v>17.878787878787879</v>
+        <v>13.939393939393939</v>
       </c>
       <c r="G80">
         <f t="shared" si="9"/>
@@ -6085,7 +6085,7 @@
       </c>
       <c r="M80">
         <f t="shared" si="13"/>
-        <v>79</v>
+        <v>59.303030303030297</v>
       </c>
       <c r="N80">
         <v>-1</v>
@@ -6107,23 +6107,23 @@
       </c>
       <c r="B81">
         <f t="shared" si="14"/>
-        <v>39.919191919191924</v>
+        <v>23.959595959595962</v>
       </c>
       <c r="C81">
         <f t="shared" si="15"/>
-        <v>0.1202020202020202</v>
+        <v>0.2404040404040404</v>
       </c>
       <c r="D81">
         <f t="shared" si="12"/>
-        <v>0.64343434343434347</v>
+        <v>0.92525252525252499</v>
       </c>
       <c r="E81">
         <f t="shared" si="7"/>
-        <v>16.969696969696969</v>
+        <v>12.979797979797979</v>
       </c>
       <c r="F81">
         <f t="shared" si="8"/>
-        <v>17.979797979797979</v>
+        <v>13.98989898989899</v>
       </c>
       <c r="G81">
         <f t="shared" si="9"/>
@@ -6148,7 +6148,7 @@
       </c>
       <c r="M81">
         <f t="shared" si="13"/>
-        <v>80</v>
+        <v>60.050505050505052</v>
       </c>
       <c r="N81">
         <v>-1</v>
@@ -6170,23 +6170,23 @@
       </c>
       <c r="B82">
         <f t="shared" si="14"/>
-        <v>40.42323232323232</v>
+        <v>24.261616161616161</v>
       </c>
       <c r="C82">
         <f t="shared" si="15"/>
-        <v>0.1191919191919192</v>
+        <v>0.23838383838383839</v>
       </c>
       <c r="D82">
         <f t="shared" si="12"/>
-        <v>0.6262626262626263</v>
+        <v>0.89898989898989878</v>
       </c>
       <c r="E82">
         <f t="shared" si="7"/>
-        <v>17.121212121212121</v>
+        <v>13.080808080808081</v>
       </c>
       <c r="F82">
         <f t="shared" si="8"/>
-        <v>18.080808080808083</v>
+        <v>14.040404040404042</v>
       </c>
       <c r="G82">
         <f t="shared" si="9"/>
@@ -6211,7 +6211,7 @@
       </c>
       <c r="M82">
         <f t="shared" si="13"/>
-        <v>81</v>
+        <v>60.797979797979799</v>
       </c>
       <c r="N82">
         <v>-1</v>
@@ -6233,23 +6233,23 @@
       </c>
       <c r="B83">
         <f t="shared" si="14"/>
-        <v>40.927272727272729</v>
+        <v>24.563636363636366</v>
       </c>
       <c r="C83">
         <f t="shared" si="15"/>
-        <v>0.11818181818181818</v>
+        <v>0.23636363636363636</v>
       </c>
       <c r="D83">
         <f t="shared" si="12"/>
-        <v>0.60909090909090913</v>
+        <v>0.87272727272727257</v>
       </c>
       <c r="E83">
         <f t="shared" ref="E83:E100" si="16">(E$2+((SUM($A83-1)/SUM($A$101-1))*(SUM(E$101-E$2))))</f>
-        <v>17.272727272727273</v>
+        <v>13.181818181818182</v>
       </c>
       <c r="F83">
         <f t="shared" ref="F83:F100" si="17">(F$2+((SUM($A83-1)/SUM($A$101-1))*(SUM(F$101-F$2))))</f>
-        <v>18.18181818181818</v>
+        <v>14.09090909090909</v>
       </c>
       <c r="G83">
         <f t="shared" ref="G83:H100" si="18">(G$2+((SUM($A83-1)/SUM($A$101-1))*(SUM(G$101-G$2))))</f>
@@ -6274,7 +6274,7 @@
       </c>
       <c r="M83">
         <f t="shared" si="13"/>
-        <v>82</v>
+        <v>61.545454545454547</v>
       </c>
       <c r="N83">
         <v>-1</v>
@@ -6296,23 +6296,23 @@
       </c>
       <c r="B84">
         <f t="shared" si="14"/>
-        <v>41.431313131313132</v>
+        <v>24.865656565656565</v>
       </c>
       <c r="C84">
         <f t="shared" si="15"/>
-        <v>0.11717171717171718</v>
+        <v>0.23434343434343435</v>
       </c>
       <c r="D84">
         <f t="shared" si="12"/>
-        <v>0.59191919191919196</v>
+        <v>0.84646464646464636</v>
       </c>
       <c r="E84">
         <f t="shared" si="16"/>
-        <v>17.424242424242422</v>
+        <v>13.282828282828284</v>
       </c>
       <c r="F84">
         <f t="shared" si="17"/>
-        <v>18.282828282828284</v>
+        <v>14.141414141414142</v>
       </c>
       <c r="G84">
         <f t="shared" si="18"/>
@@ -6337,7 +6337,7 @@
       </c>
       <c r="M84">
         <f t="shared" si="13"/>
-        <v>83</v>
+        <v>62.292929292929294</v>
       </c>
       <c r="N84">
         <v>-1</v>
@@ -6359,23 +6359,23 @@
       </c>
       <c r="B85">
         <f t="shared" si="14"/>
-        <v>41.935353535353535</v>
+        <v>25.167676767676767</v>
       </c>
       <c r="C85">
         <f t="shared" si="15"/>
-        <v>0.11616161616161617</v>
+        <v>0.23232323232323235</v>
       </c>
       <c r="D85">
         <f t="shared" si="12"/>
-        <v>0.57474747474747478</v>
+        <v>0.82020202020202015</v>
       </c>
       <c r="E85">
         <f t="shared" si="16"/>
-        <v>17.575757575757574</v>
+        <v>13.383838383838384</v>
       </c>
       <c r="F85">
         <f t="shared" si="17"/>
-        <v>18.383838383838384</v>
+        <v>14.191919191919192</v>
       </c>
       <c r="G85">
         <f t="shared" si="18"/>
@@ -6400,7 +6400,7 @@
       </c>
       <c r="M85">
         <f t="shared" si="13"/>
-        <v>84</v>
+        <v>63.040404040404034</v>
       </c>
       <c r="N85">
         <v>-1</v>
@@ -6422,23 +6422,23 @@
       </c>
       <c r="B86">
         <f t="shared" si="14"/>
-        <v>42.439393939393938</v>
+        <v>25.469696969696972</v>
       </c>
       <c r="C86">
         <f t="shared" si="15"/>
-        <v>0.11515151515151516</v>
+        <v>0.23030303030303031</v>
       </c>
       <c r="D86">
         <f t="shared" si="12"/>
-        <v>0.55757575757575761</v>
+        <v>0.79393939393939394</v>
       </c>
       <c r="E86">
         <f t="shared" si="16"/>
-        <v>17.727272727272727</v>
+        <v>13.484848484848484</v>
       </c>
       <c r="F86">
         <f t="shared" si="17"/>
-        <v>18.484848484848484</v>
+        <v>14.242424242424242</v>
       </c>
       <c r="G86">
         <f t="shared" si="18"/>
@@ -6463,7 +6463,7 @@
       </c>
       <c r="M86">
         <f t="shared" si="13"/>
-        <v>85</v>
+        <v>63.787878787878789</v>
       </c>
       <c r="N86">
         <v>-1</v>
@@ -6485,23 +6485,23 @@
       </c>
       <c r="B87">
         <f t="shared" si="14"/>
-        <v>42.94343434343434</v>
+        <v>25.771717171717171</v>
       </c>
       <c r="C87">
         <f t="shared" si="15"/>
-        <v>0.11414141414141415</v>
+        <v>0.22828282828282831</v>
       </c>
       <c r="D87">
         <f t="shared" si="12"/>
-        <v>0.54040404040404044</v>
+        <v>0.76767676767676774</v>
       </c>
       <c r="E87">
         <f t="shared" si="16"/>
-        <v>17.878787878787879</v>
+        <v>13.585858585858585</v>
       </c>
       <c r="F87">
         <f t="shared" si="17"/>
-        <v>18.585858585858585</v>
+        <v>14.292929292929292</v>
       </c>
       <c r="G87">
         <f t="shared" si="18"/>
@@ -6526,7 +6526,7 @@
       </c>
       <c r="M87">
         <f t="shared" si="13"/>
-        <v>86</v>
+        <v>64.535353535353536</v>
       </c>
       <c r="N87">
         <v>-1</v>
@@ -6548,23 +6548,23 @@
       </c>
       <c r="B88">
         <f t="shared" si="14"/>
-        <v>43.44747474747475</v>
+        <v>26.073737373737377</v>
       </c>
       <c r="C88">
         <f t="shared" si="15"/>
-        <v>0.11313131313131314</v>
+        <v>0.22626262626262628</v>
       </c>
       <c r="D88">
         <f t="shared" si="12"/>
-        <v>0.52323232323232327</v>
+        <v>0.74141414141414108</v>
       </c>
       <c r="E88">
         <f t="shared" si="16"/>
-        <v>18.030303030303031</v>
+        <v>13.686868686868687</v>
       </c>
       <c r="F88">
         <f t="shared" si="17"/>
-        <v>18.686868686868685</v>
+        <v>14.343434343434343</v>
       </c>
       <c r="G88">
         <f t="shared" si="18"/>
@@ -6589,7 +6589,7 @@
       </c>
       <c r="M88">
         <f t="shared" si="13"/>
-        <v>87</v>
+        <v>65.282828282828291</v>
       </c>
       <c r="N88">
         <v>-1</v>
@@ -6611,23 +6611,23 @@
       </c>
       <c r="B89">
         <f t="shared" si="14"/>
-        <v>43.951515151515153</v>
+        <v>26.375757575757575</v>
       </c>
       <c r="C89">
         <f t="shared" si="15"/>
-        <v>0.11212121212121212</v>
+        <v>0.22424242424242424</v>
       </c>
       <c r="D89">
         <f t="shared" si="12"/>
-        <v>0.5060606060606061</v>
+        <v>0.71515151515151487</v>
       </c>
       <c r="E89">
         <f t="shared" si="16"/>
-        <v>18.18181818181818</v>
+        <v>13.787878787878787</v>
       </c>
       <c r="F89">
         <f t="shared" si="17"/>
-        <v>18.787878787878789</v>
+        <v>14.393939393939394</v>
       </c>
       <c r="G89">
         <f t="shared" si="18"/>
@@ -6652,7 +6652,7 @@
       </c>
       <c r="M89">
         <f t="shared" si="13"/>
-        <v>88</v>
+        <v>66.030303030303031</v>
       </c>
       <c r="N89">
         <v>-1</v>
@@ -6674,23 +6674,23 @@
       </c>
       <c r="B90">
         <f t="shared" si="14"/>
-        <v>44.455555555555556</v>
+        <v>26.677777777777777</v>
       </c>
       <c r="C90">
         <f t="shared" si="15"/>
-        <v>0.11111111111111112</v>
+        <v>0.22222222222222224</v>
       </c>
       <c r="D90">
         <f t="shared" si="12"/>
-        <v>0.48888888888888893</v>
+        <v>0.68888888888888911</v>
       </c>
       <c r="E90">
         <f t="shared" si="16"/>
-        <v>18.333333333333332</v>
+        <v>13.888888888888889</v>
       </c>
       <c r="F90">
         <f t="shared" si="17"/>
-        <v>18.888888888888889</v>
+        <v>14.444444444444445</v>
       </c>
       <c r="G90">
         <f t="shared" si="18"/>
@@ -6715,7 +6715,7 @@
       </c>
       <c r="M90">
         <f t="shared" si="13"/>
-        <v>89</v>
+        <v>66.777777777777771</v>
       </c>
       <c r="N90">
         <v>-1</v>
@@ -6737,23 +6737,23 @@
       </c>
       <c r="B91">
         <f t="shared" si="14"/>
-        <v>44.959595959595958</v>
+        <v>26.979797979797979</v>
       </c>
       <c r="C91">
         <f t="shared" si="15"/>
-        <v>0.1101010101010101</v>
+        <v>0.2202020202020202</v>
       </c>
       <c r="D91">
         <f t="shared" si="12"/>
-        <v>0.47171717171717176</v>
+        <v>0.66262626262626245</v>
       </c>
       <c r="E91">
         <f t="shared" si="16"/>
-        <v>18.484848484848484</v>
+        <v>13.98989898989899</v>
       </c>
       <c r="F91">
         <f t="shared" si="17"/>
-        <v>18.98989898989899</v>
+        <v>14.494949494949495</v>
       </c>
       <c r="G91">
         <f t="shared" si="18"/>
@@ -6778,7 +6778,7 @@
       </c>
       <c r="M91">
         <f t="shared" si="13"/>
-        <v>90</v>
+        <v>67.525252525252526</v>
       </c>
       <c r="N91">
         <v>-1</v>
@@ -6800,23 +6800,23 @@
       </c>
       <c r="B92">
         <f t="shared" si="14"/>
-        <v>45.463636363636361</v>
+        <v>27.281818181818181</v>
       </c>
       <c r="C92">
         <f t="shared" si="15"/>
-        <v>0.1090909090909091</v>
+        <v>0.2181818181818182</v>
       </c>
       <c r="D92">
         <f t="shared" si="12"/>
-        <v>0.45454545454545459</v>
+        <v>0.63636363636363624</v>
       </c>
       <c r="E92">
         <f t="shared" si="16"/>
-        <v>18.636363636363637</v>
+        <v>14.09090909090909</v>
       </c>
       <c r="F92">
         <f t="shared" si="17"/>
-        <v>19.09090909090909</v>
+        <v>14.545454545454545</v>
       </c>
       <c r="G92">
         <f t="shared" si="18"/>
@@ -6841,7 +6841,7 @@
       </c>
       <c r="M92">
         <f t="shared" si="13"/>
-        <v>91</v>
+        <v>68.272727272727266</v>
       </c>
       <c r="N92">
         <v>-1</v>
@@ -6863,23 +6863,23 @@
       </c>
       <c r="B93">
         <f t="shared" si="14"/>
-        <v>45.967676767676771</v>
+        <v>27.583838383838383</v>
       </c>
       <c r="C93">
         <f t="shared" si="15"/>
-        <v>0.10808080808080808</v>
+        <v>0.21616161616161617</v>
       </c>
       <c r="D93">
         <f t="shared" si="12"/>
-        <v>0.43737373737373741</v>
+        <v>0.61010101010101003</v>
       </c>
       <c r="E93">
         <f t="shared" si="16"/>
-        <v>18.787878787878789</v>
+        <v>14.191919191919192</v>
       </c>
       <c r="F93">
         <f t="shared" si="17"/>
-        <v>19.19191919191919</v>
+        <v>14.595959595959595</v>
       </c>
       <c r="G93">
         <f t="shared" si="18"/>
@@ -6904,7 +6904,7 @@
       </c>
       <c r="M93">
         <f t="shared" si="13"/>
-        <v>92</v>
+        <v>69.020202020202021</v>
       </c>
       <c r="N93">
         <v>-1</v>
@@ -6926,23 +6926,23 @@
       </c>
       <c r="B94">
         <f t="shared" si="14"/>
-        <v>46.471717171717174</v>
+        <v>27.885858585858585</v>
       </c>
       <c r="C94">
         <f t="shared" si="15"/>
-        <v>0.10707070707070708</v>
+        <v>0.21414141414141416</v>
       </c>
       <c r="D94">
         <f t="shared" si="12"/>
-        <v>0.42020202020202024</v>
+        <v>0.58383838383838382</v>
       </c>
       <c r="E94">
         <f t="shared" si="16"/>
-        <v>18.939393939393938</v>
+        <v>14.292929292929292</v>
       </c>
       <c r="F94">
         <f t="shared" si="17"/>
-        <v>19.292929292929294</v>
+        <v>14.646464646464647</v>
       </c>
       <c r="G94">
         <f t="shared" si="18"/>
@@ -6967,7 +6967,7 @@
       </c>
       <c r="M94">
         <f t="shared" si="13"/>
-        <v>93</v>
+        <v>69.767676767676761</v>
       </c>
       <c r="N94">
         <v>-1</v>
@@ -6989,23 +6989,23 @@
       </c>
       <c r="B95">
         <f t="shared" si="14"/>
-        <v>46.975757575757576</v>
+        <v>28.187878787878791</v>
       </c>
       <c r="C95">
         <f t="shared" si="15"/>
-        <v>0.10606060606060606</v>
+        <v>0.21212121212121213</v>
       </c>
       <c r="D95">
         <f t="shared" si="12"/>
-        <v>0.40303030303030307</v>
+        <v>0.55757575757575717</v>
       </c>
       <c r="E95">
         <f t="shared" si="16"/>
-        <v>19.090909090909093</v>
+        <v>14.393939393939394</v>
       </c>
       <c r="F95">
         <f t="shared" si="17"/>
-        <v>19.393939393939394</v>
+        <v>14.696969696969697</v>
       </c>
       <c r="G95">
         <f t="shared" si="18"/>
@@ -7030,7 +7030,7 @@
       </c>
       <c r="M95">
         <f t="shared" si="13"/>
-        <v>94</v>
+        <v>70.515151515151516</v>
       </c>
       <c r="N95">
         <v>-1</v>
@@ -7052,23 +7052,23 @@
       </c>
       <c r="B96">
         <f t="shared" si="14"/>
-        <v>47.479797979797979</v>
+        <v>28.48989898989899</v>
       </c>
       <c r="C96">
         <f t="shared" si="15"/>
-        <v>0.10505050505050506</v>
+        <v>0.21010101010101012</v>
       </c>
       <c r="D96">
         <f t="shared" si="12"/>
-        <v>0.3858585858585859</v>
+        <v>0.5313131313131314</v>
       </c>
       <c r="E96">
         <f t="shared" si="16"/>
-        <v>19.242424242424242</v>
+        <v>14.494949494949495</v>
       </c>
       <c r="F96">
         <f t="shared" si="17"/>
-        <v>19.494949494949495</v>
+        <v>14.747474747474747</v>
       </c>
       <c r="G96">
         <f t="shared" si="18"/>
@@ -7093,7 +7093,7 @@
       </c>
       <c r="M96">
         <f t="shared" si="13"/>
-        <v>95</v>
+        <v>71.26262626262627</v>
       </c>
       <c r="N96">
         <v>-1</v>
@@ -7115,23 +7115,23 @@
       </c>
       <c r="B97">
         <f t="shared" si="14"/>
-        <v>47.983838383838382</v>
+        <v>28.791919191919192</v>
       </c>
       <c r="C97">
         <f t="shared" si="15"/>
-        <v>0.10404040404040404</v>
+        <v>0.20808080808080809</v>
       </c>
       <c r="D97">
         <f t="shared" si="12"/>
-        <v>0.36868686868686873</v>
+        <v>0.50505050505050519</v>
       </c>
       <c r="E97">
         <f t="shared" si="16"/>
-        <v>19.393939393939391</v>
+        <v>14.595959595959595</v>
       </c>
       <c r="F97">
         <f t="shared" si="17"/>
-        <v>19.595959595959595</v>
+        <v>14.797979797979798</v>
       </c>
       <c r="G97">
         <f t="shared" si="18"/>
@@ -7156,7 +7156,7 @@
       </c>
       <c r="M97">
         <f t="shared" si="13"/>
-        <v>96</v>
+        <v>72.01010101010101</v>
       </c>
       <c r="N97">
         <v>-1</v>
@@ -7178,23 +7178,23 @@
       </c>
       <c r="B98">
         <f t="shared" si="14"/>
-        <v>48.487878787878792</v>
+        <v>29.093939393939394</v>
       </c>
       <c r="C98">
         <f t="shared" si="15"/>
-        <v>0.10303030303030303</v>
+        <v>0.20606060606060606</v>
       </c>
       <c r="D98">
         <f t="shared" si="12"/>
-        <v>0.35151515151515156</v>
+        <v>0.47878787878787854</v>
       </c>
       <c r="E98">
         <f t="shared" si="16"/>
-        <v>19.545454545454547</v>
+        <v>14.696969696969697</v>
       </c>
       <c r="F98">
         <f t="shared" si="17"/>
-        <v>19.696969696969695</v>
+        <v>14.848484848484848</v>
       </c>
       <c r="G98">
         <f t="shared" si="18"/>
@@ -7219,7 +7219,7 @@
       </c>
       <c r="M98">
         <f t="shared" si="13"/>
-        <v>97</v>
+        <v>72.757575757575765</v>
       </c>
       <c r="N98">
         <v>-1</v>
@@ -7241,23 +7241,23 @@
       </c>
       <c r="B99">
         <f t="shared" si="14"/>
-        <v>48.991919191919195</v>
+        <v>29.395959595959596</v>
       </c>
       <c r="C99">
         <f t="shared" si="15"/>
-        <v>0.10202020202020202</v>
+        <v>0.20404040404040405</v>
       </c>
       <c r="D99">
         <f t="shared" si="12"/>
-        <v>0.33434343434343439</v>
+        <v>0.45252525252525233</v>
       </c>
       <c r="E99">
         <f t="shared" si="16"/>
-        <v>19.696969696969695</v>
+        <v>14.797979797979798</v>
       </c>
       <c r="F99">
         <f t="shared" si="17"/>
-        <v>19.797979797979799</v>
+        <v>14.8989898989899</v>
       </c>
       <c r="G99">
         <f t="shared" si="18"/>
@@ -7282,7 +7282,7 @@
       </c>
       <c r="M99">
         <f t="shared" si="13"/>
-        <v>98</v>
+        <v>73.505050505050505</v>
       </c>
       <c r="N99">
         <v>-1</v>
@@ -7304,23 +7304,23 @@
       </c>
       <c r="B100">
         <f t="shared" si="14"/>
-        <v>49.495959595959597</v>
+        <v>29.697979797979798</v>
       </c>
       <c r="C100">
         <f t="shared" si="15"/>
-        <v>0.10101010101010101</v>
+        <v>0.20202020202020202</v>
       </c>
       <c r="D100">
         <f t="shared" si="12"/>
-        <v>0.31717171717171722</v>
+        <v>0.42626262626262612</v>
       </c>
       <c r="E100">
         <f t="shared" si="16"/>
-        <v>19.848484848484851</v>
+        <v>14.8989898989899</v>
       </c>
       <c r="F100">
         <f t="shared" si="17"/>
-        <v>19.8989898989899</v>
+        <v>14.94949494949495</v>
       </c>
       <c r="G100">
         <f t="shared" si="18"/>
@@ -7345,7 +7345,7 @@
       </c>
       <c r="M100">
         <f t="shared" si="13"/>
-        <v>99</v>
+        <v>74.25252525252526</v>
       </c>
       <c r="N100">
         <v>-1</v>
@@ -7366,19 +7366,19 @@
         <v>100</v>
       </c>
       <c r="B101" s="1">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C101" s="1">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="D101" s="1">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="E101" s="1">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F101" s="1">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G101" s="1">
         <v>100</v>
@@ -7399,7 +7399,7 @@
         <v>-1</v>
       </c>
       <c r="M101" s="1">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="N101" s="1">
         <v>-1</v>

--- a/RotoShootUnityProject/Assets/Resources/mySheet.xlsx
+++ b/RotoShootUnityProject/Assets/Resources/mySheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming\UnityProjects\RotoShoot\RotoShootUnityProject\Assets\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BD170AD-3158-47B5-BEB3-83FA615FD93B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{867525FF-592E-48EA-A2BF-E05692C21792}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="37605" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25490" yWindow="90" windowWidth="38620" windowHeight="21820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="mySheet (4)" sheetId="4" r:id="rId1"/>
@@ -1067,7 +1067,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
+      <selection pane="bottomLeft" activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1078,7 +1078,7 @@
     <col min="6" max="6" width="19.85546875" customWidth="1"/>
     <col min="7" max="7" width="18.5703125" customWidth="1"/>
     <col min="8" max="8" width="12.7109375" customWidth="1"/>
-    <col min="17" max="17" width="21.7109375" customWidth="1"/>
+    <col min="17" max="17" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -1178,7 +1178,7 @@
         <v>-1</v>
       </c>
       <c r="O2" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P2" s="1">
         <v>-1</v>
@@ -1241,7 +1241,7 @@
       </c>
       <c r="O3">
         <f t="shared" si="2"/>
-        <v>3.0101010101010104</v>
+        <v>4</v>
       </c>
       <c r="P3">
         <v>-1</v>
@@ -1304,7 +1304,7 @@
       </c>
       <c r="O4">
         <f t="shared" si="2"/>
-        <v>5.0202020202020208</v>
+        <v>6</v>
       </c>
       <c r="P4">
         <v>-1</v>
@@ -1367,7 +1367,7 @@
       </c>
       <c r="O5">
         <f t="shared" si="2"/>
-        <v>7.0303030303030303</v>
+        <v>8</v>
       </c>
       <c r="P5">
         <v>-1</v>
@@ -1430,7 +1430,7 @@
       </c>
       <c r="O6">
         <f t="shared" si="2"/>
-        <v>9.0404040404040416</v>
+        <v>10</v>
       </c>
       <c r="P6">
         <v>-1</v>
@@ -1493,7 +1493,7 @@
       </c>
       <c r="O7">
         <f t="shared" si="2"/>
-        <v>11.05050505050505</v>
+        <v>12</v>
       </c>
       <c r="P7">
         <v>-1</v>
@@ -1556,7 +1556,7 @@
       </c>
       <c r="O8">
         <f t="shared" si="2"/>
-        <v>13.060606060606061</v>
+        <v>14</v>
       </c>
       <c r="P8">
         <v>-1</v>
@@ -1619,7 +1619,7 @@
       </c>
       <c r="O9">
         <f t="shared" si="2"/>
-        <v>15.070707070707071</v>
+        <v>16</v>
       </c>
       <c r="P9">
         <v>-1</v>
@@ -1682,7 +1682,7 @@
       </c>
       <c r="O10">
         <f t="shared" si="2"/>
-        <v>17.080808080808083</v>
+        <v>18</v>
       </c>
       <c r="P10">
         <v>-1</v>
@@ -1745,7 +1745,7 @@
       </c>
       <c r="O11">
         <f t="shared" si="2"/>
-        <v>19.09090909090909</v>
+        <v>20</v>
       </c>
       <c r="P11">
         <v>-1</v>
@@ -1808,7 +1808,7 @@
       </c>
       <c r="O12">
         <f t="shared" si="2"/>
-        <v>21.1010101010101</v>
+        <v>22</v>
       </c>
       <c r="P12">
         <v>-1</v>
@@ -1871,7 +1871,7 @@
       </c>
       <c r="O13">
         <f t="shared" si="2"/>
-        <v>23.111111111111111</v>
+        <v>24</v>
       </c>
       <c r="P13">
         <v>-1</v>
@@ -1934,7 +1934,7 @@
       </c>
       <c r="O14">
         <f t="shared" si="2"/>
-        <v>25.121212121212121</v>
+        <v>26</v>
       </c>
       <c r="P14">
         <v>-1</v>
@@ -1997,7 +1997,7 @@
       </c>
       <c r="O15">
         <f t="shared" si="2"/>
-        <v>27.131313131313135</v>
+        <v>28.000000000000004</v>
       </c>
       <c r="P15">
         <v>-1</v>
@@ -2060,7 +2060,7 @@
       </c>
       <c r="O16">
         <f t="shared" si="2"/>
-        <v>29.141414141414142</v>
+        <v>30</v>
       </c>
       <c r="P16">
         <v>-1</v>
@@ -2123,7 +2123,7 @@
       </c>
       <c r="O17">
         <f t="shared" si="2"/>
-        <v>31.151515151515152</v>
+        <v>32</v>
       </c>
       <c r="P17">
         <v>-1</v>
@@ -2186,7 +2186,7 @@
       </c>
       <c r="O18">
         <f t="shared" si="2"/>
-        <v>33.161616161616166</v>
+        <v>34</v>
       </c>
       <c r="P18">
         <v>-1</v>
@@ -2249,7 +2249,7 @@
       </c>
       <c r="O19">
         <f t="shared" si="2"/>
-        <v>35.171717171717169</v>
+        <v>36</v>
       </c>
       <c r="P19">
         <v>-1</v>
@@ -2312,7 +2312,7 @@
       </c>
       <c r="O20">
         <f t="shared" si="2"/>
-        <v>37.18181818181818</v>
+        <v>38</v>
       </c>
       <c r="P20">
         <v>-1</v>
@@ -2375,7 +2375,7 @@
       </c>
       <c r="O21">
         <f t="shared" si="2"/>
-        <v>39.19191919191919</v>
+        <v>40</v>
       </c>
       <c r="P21">
         <v>-1</v>
@@ -2438,7 +2438,7 @@
       </c>
       <c r="O22">
         <f t="shared" si="2"/>
-        <v>41.202020202020201</v>
+        <v>42</v>
       </c>
       <c r="P22">
         <v>-1</v>
@@ -2501,7 +2501,7 @@
       </c>
       <c r="O23">
         <f t="shared" si="2"/>
-        <v>43.212121212121211</v>
+        <v>44</v>
       </c>
       <c r="P23">
         <v>-1</v>
@@ -2564,7 +2564,7 @@
       </c>
       <c r="O24">
         <f t="shared" si="2"/>
-        <v>45.222222222222221</v>
+        <v>46</v>
       </c>
       <c r="P24">
         <v>-1</v>
@@ -2627,7 +2627,7 @@
       </c>
       <c r="O25">
         <f t="shared" si="2"/>
-        <v>47.232323232323232</v>
+        <v>48</v>
       </c>
       <c r="P25">
         <v>-1</v>
@@ -2690,7 +2690,7 @@
       </c>
       <c r="O26">
         <f t="shared" si="2"/>
-        <v>49.242424242424242</v>
+        <v>50</v>
       </c>
       <c r="P26">
         <v>-1</v>
@@ -2753,7 +2753,7 @@
       </c>
       <c r="O27">
         <f t="shared" si="2"/>
-        <v>51.252525252525253</v>
+        <v>52</v>
       </c>
       <c r="P27">
         <v>-1</v>
@@ -2816,7 +2816,7 @@
       </c>
       <c r="O28">
         <f t="shared" si="2"/>
-        <v>53.26262626262627</v>
+        <v>54.000000000000007</v>
       </c>
       <c r="P28">
         <v>-1</v>
@@ -2879,7 +2879,7 @@
       </c>
       <c r="O29">
         <f t="shared" si="2"/>
-        <v>55.272727272727266</v>
+        <v>55.999999999999993</v>
       </c>
       <c r="P29">
         <v>-1</v>
@@ -2942,7 +2942,7 @@
       </c>
       <c r="O30">
         <f t="shared" si="2"/>
-        <v>57.282828282828284</v>
+        <v>58</v>
       </c>
       <c r="P30">
         <v>-1</v>
@@ -3005,7 +3005,7 @@
       </c>
       <c r="O31">
         <f t="shared" si="2"/>
-        <v>59.292929292929294</v>
+        <v>60</v>
       </c>
       <c r="P31">
         <v>-1</v>
@@ -3068,7 +3068,7 @@
       </c>
       <c r="O32">
         <f t="shared" si="2"/>
-        <v>61.303030303030305</v>
+        <v>62</v>
       </c>
       <c r="P32">
         <v>-1</v>
@@ -3131,7 +3131,7 @@
       </c>
       <c r="O33">
         <f t="shared" si="2"/>
-        <v>63.313131313131315</v>
+        <v>64</v>
       </c>
       <c r="P33">
         <v>-1</v>
@@ -3194,7 +3194,7 @@
       </c>
       <c r="O34">
         <f t="shared" si="2"/>
-        <v>65.323232323232332</v>
+        <v>66</v>
       </c>
       <c r="P34">
         <v>-1</v>
@@ -3257,7 +3257,7 @@
       </c>
       <c r="O35">
         <f t="shared" si="2"/>
-        <v>67.333333333333329</v>
+        <v>68</v>
       </c>
       <c r="P35">
         <v>-1</v>
@@ -3320,7 +3320,7 @@
       </c>
       <c r="O36">
         <f t="shared" si="2"/>
-        <v>69.343434343434339</v>
+        <v>70</v>
       </c>
       <c r="P36">
         <v>-1</v>
@@ -3383,7 +3383,7 @@
       </c>
       <c r="O37">
         <f t="shared" si="2"/>
-        <v>71.353535353535349</v>
+        <v>72</v>
       </c>
       <c r="P37">
         <v>-1</v>
@@ -3446,7 +3446,7 @@
       </c>
       <c r="O38">
         <f t="shared" si="2"/>
-        <v>73.36363636363636</v>
+        <v>74</v>
       </c>
       <c r="P38">
         <v>-1</v>
@@ -3509,7 +3509,7 @@
       </c>
       <c r="O39">
         <f t="shared" si="2"/>
-        <v>75.373737373737384</v>
+        <v>76</v>
       </c>
       <c r="P39">
         <v>-1</v>
@@ -3572,7 +3572,7 @@
       </c>
       <c r="O40">
         <f t="shared" si="2"/>
-        <v>77.383838383838381</v>
+        <v>78</v>
       </c>
       <c r="P40">
         <v>-1</v>
@@ -3635,7 +3635,7 @@
       </c>
       <c r="O41">
         <f t="shared" si="2"/>
-        <v>79.393939393939391</v>
+        <v>80</v>
       </c>
       <c r="P41">
         <v>-1</v>
@@ -3698,7 +3698,7 @@
       </c>
       <c r="O42">
         <f t="shared" si="2"/>
-        <v>81.404040404040401</v>
+        <v>82</v>
       </c>
       <c r="P42">
         <v>-1</v>
@@ -3761,7 +3761,7 @@
       </c>
       <c r="O43">
         <f t="shared" si="2"/>
-        <v>83.414141414141412</v>
+        <v>84</v>
       </c>
       <c r="P43">
         <v>-1</v>
@@ -3824,7 +3824,7 @@
       </c>
       <c r="O44">
         <f t="shared" si="2"/>
-        <v>85.424242424242422</v>
+        <v>86</v>
       </c>
       <c r="P44">
         <v>-1</v>
@@ -3887,7 +3887,7 @@
       </c>
       <c r="O45">
         <f t="shared" si="2"/>
-        <v>87.434343434343432</v>
+        <v>88</v>
       </c>
       <c r="P45">
         <v>-1</v>
@@ -3950,7 +3950,7 @@
       </c>
       <c r="O46">
         <f t="shared" si="2"/>
-        <v>89.444444444444443</v>
+        <v>90</v>
       </c>
       <c r="P46">
         <v>-1</v>
@@ -4013,7 +4013,7 @@
       </c>
       <c r="O47">
         <f t="shared" si="2"/>
-        <v>91.454545454545453</v>
+        <v>92</v>
       </c>
       <c r="P47">
         <v>-1</v>
@@ -4076,7 +4076,7 @@
       </c>
       <c r="O48">
         <f t="shared" si="2"/>
-        <v>93.464646464646464</v>
+        <v>94</v>
       </c>
       <c r="P48">
         <v>-1</v>
@@ -4139,7 +4139,7 @@
       </c>
       <c r="O49">
         <f t="shared" si="2"/>
-        <v>95.474747474747474</v>
+        <v>96</v>
       </c>
       <c r="P49">
         <v>-1</v>
@@ -4202,7 +4202,7 @@
       </c>
       <c r="O50">
         <f t="shared" si="2"/>
-        <v>97.484848484848484</v>
+        <v>98</v>
       </c>
       <c r="P50">
         <v>-1</v>
@@ -4265,7 +4265,7 @@
       </c>
       <c r="O51">
         <f t="shared" si="2"/>
-        <v>99.494949494949495</v>
+        <v>100</v>
       </c>
       <c r="P51">
         <v>-1</v>
@@ -4328,7 +4328,7 @@
       </c>
       <c r="O52">
         <f t="shared" si="2"/>
-        <v>101.50505050505051</v>
+        <v>102</v>
       </c>
       <c r="P52">
         <v>-1</v>
@@ -4391,7 +4391,7 @@
       </c>
       <c r="O53">
         <f t="shared" si="2"/>
-        <v>103.51515151515152</v>
+        <v>104</v>
       </c>
       <c r="P53">
         <v>-1</v>
@@ -4454,7 +4454,7 @@
       </c>
       <c r="O54">
         <f t="shared" si="2"/>
-        <v>105.52525252525254</v>
+        <v>106.00000000000001</v>
       </c>
       <c r="P54">
         <v>-1</v>
@@ -4517,7 +4517,7 @@
       </c>
       <c r="O55">
         <f t="shared" si="2"/>
-        <v>107.53535353535354</v>
+        <v>108</v>
       </c>
       <c r="P55">
         <v>-1</v>
@@ -4580,7 +4580,7 @@
       </c>
       <c r="O56">
         <f t="shared" si="2"/>
-        <v>109.54545454545453</v>
+        <v>109.99999999999999</v>
       </c>
       <c r="P56">
         <v>-1</v>
@@ -4643,7 +4643,7 @@
       </c>
       <c r="O57">
         <f t="shared" si="2"/>
-        <v>111.55555555555556</v>
+        <v>112</v>
       </c>
       <c r="P57">
         <v>-1</v>
@@ -4706,7 +4706,7 @@
       </c>
       <c r="O58">
         <f t="shared" si="2"/>
-        <v>113.56565656565657</v>
+        <v>114</v>
       </c>
       <c r="P58">
         <v>-1</v>
@@ -4769,7 +4769,7 @@
       </c>
       <c r="O59">
         <f t="shared" si="2"/>
-        <v>115.57575757575758</v>
+        <v>116.00000000000001</v>
       </c>
       <c r="P59">
         <v>-1</v>
@@ -4832,7 +4832,7 @@
       </c>
       <c r="O60">
         <f t="shared" si="2"/>
-        <v>117.58585858585859</v>
+        <v>118</v>
       </c>
       <c r="P60">
         <v>-1</v>
@@ -4895,7 +4895,7 @@
       </c>
       <c r="O61">
         <f t="shared" si="2"/>
-        <v>119.59595959595958</v>
+        <v>119.99999999999999</v>
       </c>
       <c r="P61">
         <v>-1</v>
@@ -4958,7 +4958,7 @@
       </c>
       <c r="O62">
         <f t="shared" si="2"/>
-        <v>121.60606060606061</v>
+        <v>122</v>
       </c>
       <c r="P62">
         <v>-1</v>
@@ -5021,7 +5021,7 @@
       </c>
       <c r="O63">
         <f t="shared" si="2"/>
-        <v>123.61616161616161</v>
+        <v>124</v>
       </c>
       <c r="P63">
         <v>-1</v>
@@ -5084,7 +5084,7 @@
       </c>
       <c r="O64">
         <f t="shared" si="2"/>
-        <v>125.62626262626263</v>
+        <v>126</v>
       </c>
       <c r="P64">
         <v>-1</v>
@@ -5147,7 +5147,7 @@
       </c>
       <c r="O65">
         <f t="shared" si="2"/>
-        <v>127.63636363636364</v>
+        <v>128</v>
       </c>
       <c r="P65">
         <v>-1</v>
@@ -5210,7 +5210,7 @@
       </c>
       <c r="O66">
         <f t="shared" si="2"/>
-        <v>129.64646464646466</v>
+        <v>130</v>
       </c>
       <c r="P66">
         <v>-1</v>
@@ -5273,7 +5273,7 @@
       </c>
       <c r="O67">
         <f t="shared" si="13"/>
-        <v>131.65656565656565</v>
+        <v>132</v>
       </c>
       <c r="P67">
         <v>-1</v>
@@ -5336,7 +5336,7 @@
       </c>
       <c r="O68">
         <f t="shared" si="13"/>
-        <v>133.66666666666666</v>
+        <v>134</v>
       </c>
       <c r="P68">
         <v>-1</v>
@@ -5399,7 +5399,7 @@
       </c>
       <c r="O69">
         <f t="shared" si="13"/>
-        <v>135.6767676767677</v>
+        <v>136</v>
       </c>
       <c r="P69">
         <v>-1</v>
@@ -5462,7 +5462,7 @@
       </c>
       <c r="O70">
         <f t="shared" si="13"/>
-        <v>137.68686868686868</v>
+        <v>138</v>
       </c>
       <c r="P70">
         <v>-1</v>
@@ -5525,7 +5525,7 @@
       </c>
       <c r="O71">
         <f t="shared" si="13"/>
-        <v>139.69696969696972</v>
+        <v>140</v>
       </c>
       <c r="P71">
         <v>-1</v>
@@ -5588,7 +5588,7 @@
       </c>
       <c r="O72">
         <f t="shared" si="13"/>
-        <v>141.7070707070707</v>
+        <v>142</v>
       </c>
       <c r="P72">
         <v>-1</v>
@@ -5651,7 +5651,7 @@
       </c>
       <c r="O73">
         <f t="shared" si="13"/>
-        <v>143.71717171717171</v>
+        <v>144</v>
       </c>
       <c r="P73">
         <v>-1</v>
@@ -5714,7 +5714,7 @@
       </c>
       <c r="O74">
         <f t="shared" si="13"/>
-        <v>145.72727272727272</v>
+        <v>146</v>
       </c>
       <c r="P74">
         <v>-1</v>
@@ -5777,7 +5777,7 @@
       </c>
       <c r="O75">
         <f t="shared" si="13"/>
-        <v>147.73737373737373</v>
+        <v>148</v>
       </c>
       <c r="P75">
         <v>-1</v>
@@ -5840,7 +5840,7 @@
       </c>
       <c r="O76">
         <f t="shared" si="13"/>
-        <v>149.74747474747477</v>
+        <v>150</v>
       </c>
       <c r="P76">
         <v>-1</v>
@@ -5903,7 +5903,7 @@
       </c>
       <c r="O77">
         <f t="shared" si="13"/>
-        <v>151.75757575757575</v>
+        <v>152</v>
       </c>
       <c r="P77">
         <v>-1</v>
@@ -5966,7 +5966,7 @@
       </c>
       <c r="O78">
         <f t="shared" si="13"/>
-        <v>153.76767676767676</v>
+        <v>154</v>
       </c>
       <c r="P78">
         <v>-1</v>
@@ -6029,7 +6029,7 @@
       </c>
       <c r="O79">
         <f t="shared" si="13"/>
-        <v>155.77777777777777</v>
+        <v>156</v>
       </c>
       <c r="P79">
         <v>-1</v>
@@ -6092,7 +6092,7 @@
       </c>
       <c r="O80">
         <f t="shared" si="13"/>
-        <v>157.78787878787878</v>
+        <v>158</v>
       </c>
       <c r="P80">
         <v>-1</v>
@@ -6155,7 +6155,7 @@
       </c>
       <c r="O81">
         <f t="shared" si="13"/>
-        <v>159.79797979797979</v>
+        <v>160</v>
       </c>
       <c r="P81">
         <v>-1</v>
@@ -6218,7 +6218,7 @@
       </c>
       <c r="O82">
         <f t="shared" si="13"/>
-        <v>161.8080808080808</v>
+        <v>162</v>
       </c>
       <c r="P82">
         <v>-1</v>
@@ -6281,7 +6281,7 @@
       </c>
       <c r="O83">
         <f t="shared" si="13"/>
-        <v>163.81818181818184</v>
+        <v>164</v>
       </c>
       <c r="P83">
         <v>-1</v>
@@ -6344,7 +6344,7 @@
       </c>
       <c r="O84">
         <f t="shared" si="13"/>
-        <v>165.82828282828282</v>
+        <v>166</v>
       </c>
       <c r="P84">
         <v>-1</v>
@@ -6407,7 +6407,7 @@
       </c>
       <c r="O85">
         <f t="shared" si="13"/>
-        <v>167.83838383838383</v>
+        <v>168</v>
       </c>
       <c r="P85">
         <v>-1</v>
@@ -6470,7 +6470,7 @@
       </c>
       <c r="O86">
         <f t="shared" si="13"/>
-        <v>169.84848484848484</v>
+        <v>170</v>
       </c>
       <c r="P86">
         <v>-1</v>
@@ -6533,7 +6533,7 @@
       </c>
       <c r="O87">
         <f t="shared" si="13"/>
-        <v>171.85858585858585</v>
+        <v>172</v>
       </c>
       <c r="P87">
         <v>-1</v>
@@ -6596,7 +6596,7 @@
       </c>
       <c r="O88">
         <f t="shared" si="13"/>
-        <v>173.86868686868686</v>
+        <v>174</v>
       </c>
       <c r="P88">
         <v>-1</v>
@@ -6659,7 +6659,7 @@
       </c>
       <c r="O89">
         <f t="shared" si="13"/>
-        <v>175.87878787878788</v>
+        <v>176</v>
       </c>
       <c r="P89">
         <v>-1</v>
@@ -6722,7 +6722,7 @@
       </c>
       <c r="O90">
         <f t="shared" si="13"/>
-        <v>177.88888888888889</v>
+        <v>178</v>
       </c>
       <c r="P90">
         <v>-1</v>
@@ -6785,7 +6785,7 @@
       </c>
       <c r="O91">
         <f t="shared" si="13"/>
-        <v>179.8989898989899</v>
+        <v>180</v>
       </c>
       <c r="P91">
         <v>-1</v>
@@ -6848,7 +6848,7 @@
       </c>
       <c r="O92">
         <f t="shared" si="13"/>
-        <v>181.90909090909091</v>
+        <v>182</v>
       </c>
       <c r="P92">
         <v>-1</v>
@@ -6911,7 +6911,7 @@
       </c>
       <c r="O93">
         <f t="shared" si="13"/>
-        <v>183.91919191919192</v>
+        <v>184</v>
       </c>
       <c r="P93">
         <v>-1</v>
@@ -6974,7 +6974,7 @@
       </c>
       <c r="O94">
         <f t="shared" si="13"/>
-        <v>185.92929292929293</v>
+        <v>186</v>
       </c>
       <c r="P94">
         <v>-1</v>
@@ -7037,7 +7037,7 @@
       </c>
       <c r="O95">
         <f t="shared" si="13"/>
-        <v>187.93939393939394</v>
+        <v>188</v>
       </c>
       <c r="P95">
         <v>-1</v>
@@ -7100,7 +7100,7 @@
       </c>
       <c r="O96">
         <f t="shared" si="13"/>
-        <v>189.94949494949495</v>
+        <v>190</v>
       </c>
       <c r="P96">
         <v>-1</v>
@@ -7163,7 +7163,7 @@
       </c>
       <c r="O97">
         <f t="shared" si="13"/>
-        <v>191.95959595959596</v>
+        <v>192</v>
       </c>
       <c r="P97">
         <v>-1</v>
@@ -7226,7 +7226,7 @@
       </c>
       <c r="O98">
         <f t="shared" si="13"/>
-        <v>193.96969696969697</v>
+        <v>194</v>
       </c>
       <c r="P98">
         <v>-1</v>
@@ -7289,7 +7289,7 @@
       </c>
       <c r="O99">
         <f t="shared" si="13"/>
-        <v>195.97979797979798</v>
+        <v>196</v>
       </c>
       <c r="P99">
         <v>-1</v>
@@ -7352,7 +7352,7 @@
       </c>
       <c r="O100">
         <f t="shared" si="13"/>
-        <v>197.98989898989899</v>
+        <v>198</v>
       </c>
       <c r="P100">
         <v>-1</v>

--- a/RotoShootUnityProject/Assets/Resources/mySheet.xlsx
+++ b/RotoShootUnityProject/Assets/Resources/mySheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming\UnityProjects\RotoShoot\RotoShootUnityProject\Assets\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{867525FF-592E-48EA-A2BF-E05692C21792}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D37745BC-3107-411E-892C-D2C6E793A975}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25490" yWindow="90" windowWidth="38620" windowHeight="21820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1067,7 +1067,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O2" sqref="O2"/>
+      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1139,7 +1139,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>0.1</v>
+        <v>1E-3</v>
       </c>
       <c r="C2" s="1">
         <v>0.4</v>
@@ -1193,7 +1193,7 @@
       </c>
       <c r="B3">
         <f>(B$2+((SUM($A3-1)/SUM($A$101-1))*(SUM(B$101-B$2))))</f>
-        <v>0.40202020202020206</v>
+        <v>0.24341414141414142</v>
       </c>
       <c r="C3">
         <f t="shared" ref="C3:H18" si="0">(C$2+((SUM($A3-1)/SUM($A$101-1))*(SUM(C$101-C$2))))</f>
@@ -1256,7 +1256,7 @@
       </c>
       <c r="B4">
         <f t="shared" ref="B4:B5" si="3">(B$2+((SUM($A4-1)/SUM($A$101-1))*(SUM(B$101-B$2))))</f>
-        <v>0.70404040404040402</v>
+        <v>0.48582828282828283</v>
       </c>
       <c r="C4">
         <f t="shared" si="0"/>
@@ -1319,7 +1319,7 @@
       </c>
       <c r="B5">
         <f t="shared" si="3"/>
-        <v>1.0060606060606061</v>
+        <v>0.72824242424242425</v>
       </c>
       <c r="C5">
         <f t="shared" si="0"/>
@@ -1382,7 +1382,7 @@
       </c>
       <c r="B6">
         <f t="shared" ref="B6" si="4">(B$2+((SUM(A6-1)/SUM(A$101-1))*(SUM(B$101-B$2))))</f>
-        <v>1.3080808080808082</v>
+        <v>0.97065656565656566</v>
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
@@ -1445,7 +1445,7 @@
       </c>
       <c r="B7">
         <f t="shared" ref="B7:B67" si="5">(B$2+((SUM(A7-1)/SUM(A$101-1))*(SUM(B$101-B$2))))</f>
-        <v>1.61010101010101</v>
+        <v>1.213070707070707</v>
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
@@ -1508,7 +1508,7 @@
       </c>
       <c r="B8">
         <f t="shared" si="5"/>
-        <v>1.9121212121212121</v>
+        <v>1.4554848484848484</v>
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
@@ -1571,7 +1571,7 @@
       </c>
       <c r="B9">
         <f t="shared" si="5"/>
-        <v>2.2141414141414142</v>
+        <v>1.6978989898989896</v>
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
@@ -1634,7 +1634,7 @@
       </c>
       <c r="B10">
         <f t="shared" si="5"/>
-        <v>2.5161616161616163</v>
+        <v>1.9403131313131312</v>
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
@@ -1697,7 +1697,7 @@
       </c>
       <c r="B11">
         <f t="shared" si="5"/>
-        <v>2.8181818181818183</v>
+        <v>2.1827272727272726</v>
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
@@ -1760,7 +1760,7 @@
       </c>
       <c r="B12">
         <f t="shared" si="5"/>
-        <v>3.12020202020202</v>
+        <v>2.425141414141414</v>
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
@@ -1823,7 +1823,7 @@
       </c>
       <c r="B13">
         <f t="shared" si="5"/>
-        <v>3.4222222222222221</v>
+        <v>2.667555555555555</v>
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
@@ -1886,7 +1886,7 @@
       </c>
       <c r="B14">
         <f t="shared" si="5"/>
-        <v>3.7242424242424241</v>
+        <v>2.9099696969696969</v>
       </c>
       <c r="C14">
         <f t="shared" si="0"/>
@@ -1949,7 +1949,7 @@
       </c>
       <c r="B15">
         <f t="shared" si="5"/>
-        <v>4.0262626262626267</v>
+        <v>3.1523838383838383</v>
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
@@ -2012,7 +2012,7 @@
       </c>
       <c r="B16">
         <f t="shared" si="5"/>
-        <v>4.3282828282828278</v>
+        <v>3.3947979797979793</v>
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
@@ -2075,7 +2075,7 @@
       </c>
       <c r="B17">
         <f t="shared" si="5"/>
-        <v>4.6303030303030299</v>
+        <v>3.6372121212121211</v>
       </c>
       <c r="C17">
         <f t="shared" si="0"/>
@@ -2138,7 +2138,7 @@
       </c>
       <c r="B18">
         <f t="shared" si="5"/>
-        <v>4.932323232323232</v>
+        <v>3.8796262626262625</v>
       </c>
       <c r="C18">
         <f t="shared" si="0"/>
@@ -2201,7 +2201,7 @@
       </c>
       <c r="B19">
         <f t="shared" si="5"/>
-        <v>5.2343434343434332</v>
+        <v>4.1220404040404039</v>
       </c>
       <c r="C19">
         <f t="shared" ref="C19:D46" si="6">(C$2+((SUM($A19-1)/SUM($A$101-1))*(SUM(C$101-C$2))))</f>
@@ -2264,7 +2264,7 @@
       </c>
       <c r="B20">
         <f t="shared" si="5"/>
-        <v>5.5363636363636362</v>
+        <v>4.3644545454545458</v>
       </c>
       <c r="C20">
         <f t="shared" si="6"/>
@@ -2327,7 +2327,7 @@
       </c>
       <c r="B21">
         <f t="shared" si="5"/>
-        <v>5.8383838383838373</v>
+        <v>4.6068686868686868</v>
       </c>
       <c r="C21">
         <f t="shared" si="6"/>
@@ -2390,7 +2390,7 @@
       </c>
       <c r="B22">
         <f t="shared" si="5"/>
-        <v>6.1404040404040394</v>
+        <v>4.8492828282828286</v>
       </c>
       <c r="C22">
         <f t="shared" si="6"/>
@@ -2453,7 +2453,7 @@
       </c>
       <c r="B23">
         <f t="shared" si="5"/>
-        <v>6.4424242424242424</v>
+        <v>5.0916969696969696</v>
       </c>
       <c r="C23">
         <f t="shared" si="6"/>
@@ -2516,7 +2516,7 @@
       </c>
       <c r="B24">
         <f t="shared" si="5"/>
-        <v>6.7444444444444436</v>
+        <v>5.3341111111111106</v>
       </c>
       <c r="C24">
         <f t="shared" si="6"/>
@@ -2579,7 +2579,7 @@
       </c>
       <c r="B25">
         <f t="shared" si="5"/>
-        <v>7.0464646464646457</v>
+        <v>5.5765252525252524</v>
       </c>
       <c r="C25">
         <f t="shared" si="6"/>
@@ -2642,7 +2642,7 @@
       </c>
       <c r="B26">
         <f t="shared" si="5"/>
-        <v>7.3484848484848477</v>
+        <v>5.8189393939393943</v>
       </c>
       <c r="C26">
         <f t="shared" si="6"/>
@@ -2705,7 +2705,7 @@
       </c>
       <c r="B27">
         <f t="shared" si="5"/>
-        <v>7.6505050505050507</v>
+        <v>6.0613535353535362</v>
       </c>
       <c r="C27">
         <f t="shared" si="6"/>
@@ -2768,7 +2768,7 @@
       </c>
       <c r="B28">
         <f t="shared" si="5"/>
-        <v>7.9525252525252528</v>
+        <v>6.3037676767676771</v>
       </c>
       <c r="C28">
         <f t="shared" si="6"/>
@@ -2831,7 +2831,7 @@
       </c>
       <c r="B29">
         <f t="shared" si="5"/>
-        <v>8.254545454545454</v>
+        <v>6.5461818181818181</v>
       </c>
       <c r="C29">
         <f t="shared" si="6"/>
@@ -2894,7 +2894,7 @@
       </c>
       <c r="B30">
         <f t="shared" si="5"/>
-        <v>8.556565656565656</v>
+        <v>6.7885959595959591</v>
       </c>
       <c r="C30">
         <f t="shared" si="6"/>
@@ -2957,7 +2957,7 @@
       </c>
       <c r="B31">
         <f t="shared" si="5"/>
-        <v>8.8585858585858581</v>
+        <v>7.0310101010101009</v>
       </c>
       <c r="C31">
         <f t="shared" si="6"/>
@@ -3020,7 +3020,7 @@
       </c>
       <c r="B32">
         <f t="shared" si="5"/>
-        <v>9.1606060606060602</v>
+        <v>7.2734242424242428</v>
       </c>
       <c r="C32">
         <f t="shared" si="6"/>
@@ -3083,7 +3083,7 @@
       </c>
       <c r="B33">
         <f t="shared" si="5"/>
-        <v>9.4626262626262623</v>
+        <v>7.5158383838383847</v>
       </c>
       <c r="C33">
         <f t="shared" si="6"/>
@@ -3146,7 +3146,7 @@
       </c>
       <c r="B34">
         <f t="shared" si="5"/>
-        <v>9.7646464646464644</v>
+        <v>7.7582525252525256</v>
       </c>
       <c r="C34">
         <f t="shared" si="6"/>
@@ -3209,7 +3209,7 @@
       </c>
       <c r="B35">
         <f t="shared" si="5"/>
-        <v>10.066666666666665</v>
+        <v>8.0006666666666657</v>
       </c>
       <c r="C35">
         <f t="shared" si="6"/>
@@ -3272,7 +3272,7 @@
       </c>
       <c r="B36">
         <f t="shared" si="5"/>
-        <v>10.368686868686867</v>
+        <v>8.2430808080808067</v>
       </c>
       <c r="C36">
         <f t="shared" si="6"/>
@@ -3335,7 +3335,7 @@
       </c>
       <c r="B37">
         <f t="shared" si="5"/>
-        <v>10.670707070707071</v>
+        <v>8.4854949494949476</v>
       </c>
       <c r="C37">
         <f t="shared" si="6"/>
@@ -3398,7 +3398,7 @@
       </c>
       <c r="B38">
         <f t="shared" si="5"/>
-        <v>10.972727272727273</v>
+        <v>8.7279090909090904</v>
       </c>
       <c r="C38">
         <f t="shared" si="6"/>
@@ -3461,7 +3461,7 @@
       </c>
       <c r="B39">
         <f t="shared" si="5"/>
-        <v>11.274747474747475</v>
+        <v>8.9703232323232314</v>
       </c>
       <c r="C39">
         <f t="shared" si="6"/>
@@ -3524,7 +3524,7 @@
       </c>
       <c r="B40">
         <f t="shared" si="5"/>
-        <v>11.576767676767675</v>
+        <v>9.2127373737373723</v>
       </c>
       <c r="C40">
         <f t="shared" si="6"/>
@@ -3587,7 +3587,7 @@
       </c>
       <c r="B41">
         <f t="shared" si="5"/>
-        <v>11.878787878787877</v>
+        <v>9.4551515151515133</v>
       </c>
       <c r="C41">
         <f t="shared" si="6"/>
@@ -3650,7 +3650,7 @@
       </c>
       <c r="B42">
         <f t="shared" si="5"/>
-        <v>12.180808080808079</v>
+        <v>9.6975656565656561</v>
       </c>
       <c r="C42">
         <f t="shared" si="6"/>
@@ -3713,7 +3713,7 @@
       </c>
       <c r="B43">
         <f t="shared" si="5"/>
-        <v>12.482828282828281</v>
+        <v>9.939979797979797</v>
       </c>
       <c r="C43">
         <f t="shared" si="6"/>
@@ -3776,7 +3776,7 @@
       </c>
       <c r="B44">
         <f t="shared" si="5"/>
-        <v>12.784848484848485</v>
+        <v>10.182393939393938</v>
       </c>
       <c r="C44">
         <f t="shared" si="6"/>
@@ -3839,7 +3839,7 @@
       </c>
       <c r="B45">
         <f t="shared" si="5"/>
-        <v>13.086868686868687</v>
+        <v>10.424808080808081</v>
       </c>
       <c r="C45">
         <f t="shared" si="6"/>
@@ -3902,7 +3902,7 @@
       </c>
       <c r="B46">
         <f t="shared" si="5"/>
-        <v>13.388888888888888</v>
+        <v>10.66722222222222</v>
       </c>
       <c r="C46">
         <f t="shared" ref="C46:C77" si="11">(C$2+((SUM(A46-1)/SUM(A$101-1))*(SUM(C$101-C$2))))</f>
@@ -3965,7 +3965,7 @@
       </c>
       <c r="B47">
         <f t="shared" si="5"/>
-        <v>13.69090909090909</v>
+        <v>10.909636363636363</v>
       </c>
       <c r="C47">
         <f t="shared" si="11"/>
@@ -4028,7 +4028,7 @@
       </c>
       <c r="B48">
         <f t="shared" si="5"/>
-        <v>13.992929292929292</v>
+        <v>11.152050505050504</v>
       </c>
       <c r="C48">
         <f t="shared" si="11"/>
@@ -4091,7 +4091,7 @@
       </c>
       <c r="B49">
         <f t="shared" si="5"/>
-        <v>14.294949494949494</v>
+        <v>11.394464646464645</v>
       </c>
       <c r="C49">
         <f t="shared" si="11"/>
@@ -4154,7 +4154,7 @@
       </c>
       <c r="B50">
         <f t="shared" si="5"/>
-        <v>14.596969696969696</v>
+        <v>11.636878787878787</v>
       </c>
       <c r="C50">
         <f t="shared" si="11"/>
@@ -4217,7 +4217,7 @@
       </c>
       <c r="B51">
         <f t="shared" si="5"/>
-        <v>14.898989898989898</v>
+        <v>11.879292929292928</v>
       </c>
       <c r="C51">
         <f t="shared" si="11"/>
@@ -4280,7 +4280,7 @@
       </c>
       <c r="B52">
         <f t="shared" si="5"/>
-        <v>15.201010101010102</v>
+        <v>12.121707070707071</v>
       </c>
       <c r="C52">
         <f t="shared" si="11"/>
@@ -4343,7 +4343,7 @@
       </c>
       <c r="B53">
         <f t="shared" si="5"/>
-        <v>15.503030303030302</v>
+        <v>12.36412121212121</v>
       </c>
       <c r="C53">
         <f t="shared" si="11"/>
@@ -4406,7 +4406,7 @@
       </c>
       <c r="B54">
         <f t="shared" si="5"/>
-        <v>15.805050505050506</v>
+        <v>12.606535353535353</v>
       </c>
       <c r="C54">
         <f t="shared" si="11"/>
@@ -4469,7 +4469,7 @@
       </c>
       <c r="B55">
         <f t="shared" si="5"/>
-        <v>16.107070707070708</v>
+        <v>12.848949494949494</v>
       </c>
       <c r="C55">
         <f t="shared" si="11"/>
@@ -4532,7 +4532,7 @@
       </c>
       <c r="B56">
         <f t="shared" si="5"/>
-        <v>16.40909090909091</v>
+        <v>13.091363636363635</v>
       </c>
       <c r="C56">
         <f t="shared" si="11"/>
@@ -4595,7 +4595,7 @@
       </c>
       <c r="B57">
         <f t="shared" si="5"/>
-        <v>16.711111111111112</v>
+        <v>13.333777777777778</v>
       </c>
       <c r="C57">
         <f t="shared" si="11"/>
@@ -4658,7 +4658,7 @@
       </c>
       <c r="B58">
         <f t="shared" si="5"/>
-        <v>17.013131313131314</v>
+        <v>13.576191919191917</v>
       </c>
       <c r="C58">
         <f t="shared" si="11"/>
@@ -4721,7 +4721,7 @@
       </c>
       <c r="B59">
         <f t="shared" si="5"/>
-        <v>17.315151515151516</v>
+        <v>13.81860606060606</v>
       </c>
       <c r="C59">
         <f t="shared" si="11"/>
@@ -4784,7 +4784,7 @@
       </c>
       <c r="B60">
         <f t="shared" si="5"/>
-        <v>17.617171717171718</v>
+        <v>14.061020202020201</v>
       </c>
       <c r="C60">
         <f t="shared" si="11"/>
@@ -4847,7 +4847,7 @@
       </c>
       <c r="B61">
         <f t="shared" si="5"/>
-        <v>17.919191919191917</v>
+        <v>14.303434343434342</v>
       </c>
       <c r="C61">
         <f t="shared" si="11"/>
@@ -4910,7 +4910,7 @@
       </c>
       <c r="B62">
         <f t="shared" si="5"/>
-        <v>18.221212121212123</v>
+        <v>14.545848484848484</v>
       </c>
       <c r="C62">
         <f t="shared" si="11"/>
@@ -4973,7 +4973,7 @@
       </c>
       <c r="B63">
         <f t="shared" si="5"/>
-        <v>18.523232323232325</v>
+        <v>14.788262626262624</v>
       </c>
       <c r="C63">
         <f t="shared" si="11"/>
@@ -5036,7 +5036,7 @@
       </c>
       <c r="B64">
         <f t="shared" si="5"/>
-        <v>18.825252525252527</v>
+        <v>15.030676767676768</v>
       </c>
       <c r="C64">
         <f t="shared" si="11"/>
@@ -5099,7 +5099,7 @@
       </c>
       <c r="B65">
         <f t="shared" si="5"/>
-        <v>19.127272727272729</v>
+        <v>15.273090909090907</v>
       </c>
       <c r="C65">
         <f t="shared" si="11"/>
@@ -5162,7 +5162,7 @@
       </c>
       <c r="B66">
         <f t="shared" si="5"/>
-        <v>19.429292929292931</v>
+        <v>15.51550505050505</v>
       </c>
       <c r="C66">
         <f t="shared" si="11"/>
@@ -5225,7 +5225,7 @@
       </c>
       <c r="B67">
         <f t="shared" si="5"/>
-        <v>19.731313131313133</v>
+        <v>15.757919191919191</v>
       </c>
       <c r="C67">
         <f t="shared" si="11"/>
@@ -5288,7 +5288,7 @@
       </c>
       <c r="B68">
         <f t="shared" ref="B68:B100" si="14">(B$2+((SUM(A68-1)/SUM(A$101-1))*(SUM(B$101-B$2))))</f>
-        <v>20.033333333333331</v>
+        <v>16.000333333333334</v>
       </c>
       <c r="C68">
         <f t="shared" si="11"/>
@@ -5351,7 +5351,7 @@
       </c>
       <c r="B69">
         <f t="shared" si="14"/>
-        <v>20.335353535353537</v>
+        <v>16.242747474747475</v>
       </c>
       <c r="C69">
         <f t="shared" si="11"/>
@@ -5414,7 +5414,7 @@
       </c>
       <c r="B70">
         <f t="shared" si="14"/>
-        <v>20.637373737373736</v>
+        <v>16.485161616161616</v>
       </c>
       <c r="C70">
         <f t="shared" si="11"/>
@@ -5477,7 +5477,7 @@
       </c>
       <c r="B71">
         <f t="shared" si="14"/>
-        <v>20.939393939393941</v>
+        <v>16.72757575757576</v>
       </c>
       <c r="C71">
         <f t="shared" si="11"/>
@@ -5540,7 +5540,7 @@
       </c>
       <c r="B72">
         <f t="shared" si="14"/>
-        <v>21.241414141414143</v>
+        <v>16.969989898989898</v>
       </c>
       <c r="C72">
         <f t="shared" si="11"/>
@@ -5603,7 +5603,7 @@
       </c>
       <c r="B73">
         <f t="shared" si="14"/>
-        <v>21.543434343434342</v>
+        <v>17.212404040404039</v>
       </c>
       <c r="C73">
         <f t="shared" si="11"/>
@@ -5666,7 +5666,7 @@
       </c>
       <c r="B74">
         <f t="shared" si="14"/>
-        <v>21.845454545454547</v>
+        <v>17.454818181818183</v>
       </c>
       <c r="C74">
         <f t="shared" si="11"/>
@@ -5729,7 +5729,7 @@
       </c>
       <c r="B75">
         <f t="shared" si="14"/>
-        <v>22.147474747474746</v>
+        <v>17.697232323232324</v>
       </c>
       <c r="C75">
         <f t="shared" si="11"/>
@@ -5792,7 +5792,7 @@
       </c>
       <c r="B76">
         <f t="shared" si="14"/>
-        <v>22.449494949494952</v>
+        <v>17.939646464646465</v>
       </c>
       <c r="C76">
         <f t="shared" si="11"/>
@@ -5855,7 +5855,7 @@
       </c>
       <c r="B77">
         <f t="shared" si="14"/>
-        <v>22.75151515151515</v>
+        <v>18.182060606060606</v>
       </c>
       <c r="C77">
         <f t="shared" si="11"/>
@@ -5918,7 +5918,7 @@
       </c>
       <c r="B78">
         <f t="shared" si="14"/>
-        <v>23.053535353535352</v>
+        <v>18.424474747474747</v>
       </c>
       <c r="C78">
         <f t="shared" ref="C78:C100" si="15">(C$2+((SUM(A78-1)/SUM(A$101-1))*(SUM(C$101-C$2))))</f>
@@ -5981,7 +5981,7 @@
       </c>
       <c r="B79">
         <f t="shared" si="14"/>
-        <v>23.355555555555558</v>
+        <v>18.666888888888888</v>
       </c>
       <c r="C79">
         <f t="shared" si="15"/>
@@ -6044,7 +6044,7 @@
       </c>
       <c r="B80">
         <f t="shared" si="14"/>
-        <v>23.657575757575756</v>
+        <v>18.909303030303029</v>
       </c>
       <c r="C80">
         <f t="shared" si="15"/>
@@ -6107,7 +6107,7 @@
       </c>
       <c r="B81">
         <f t="shared" si="14"/>
-        <v>23.959595959595962</v>
+        <v>19.151717171717173</v>
       </c>
       <c r="C81">
         <f t="shared" si="15"/>
@@ -6170,7 +6170,7 @@
       </c>
       <c r="B82">
         <f t="shared" si="14"/>
-        <v>24.261616161616161</v>
+        <v>19.394131313131314</v>
       </c>
       <c r="C82">
         <f t="shared" si="15"/>
@@ -6233,7 +6233,7 @@
       </c>
       <c r="B83">
         <f t="shared" si="14"/>
-        <v>24.563636363636366</v>
+        <v>19.636545454545455</v>
       </c>
       <c r="C83">
         <f t="shared" si="15"/>
@@ -6296,7 +6296,7 @@
       </c>
       <c r="B84">
         <f t="shared" si="14"/>
-        <v>24.865656565656565</v>
+        <v>19.878959595959596</v>
       </c>
       <c r="C84">
         <f t="shared" si="15"/>
@@ -6359,7 +6359,7 @@
       </c>
       <c r="B85">
         <f t="shared" si="14"/>
-        <v>25.167676767676767</v>
+        <v>20.121373737373737</v>
       </c>
       <c r="C85">
         <f t="shared" si="15"/>
@@ -6422,7 +6422,7 @@
       </c>
       <c r="B86">
         <f t="shared" si="14"/>
-        <v>25.469696969696972</v>
+        <v>20.363787878787878</v>
       </c>
       <c r="C86">
         <f t="shared" si="15"/>
@@ -6485,7 +6485,7 @@
       </c>
       <c r="B87">
         <f t="shared" si="14"/>
-        <v>25.771717171717171</v>
+        <v>20.606202020202019</v>
       </c>
       <c r="C87">
         <f t="shared" si="15"/>
@@ -6548,7 +6548,7 @@
       </c>
       <c r="B88">
         <f t="shared" si="14"/>
-        <v>26.073737373737377</v>
+        <v>20.848616161616164</v>
       </c>
       <c r="C88">
         <f t="shared" si="15"/>
@@ -6611,7 +6611,7 @@
       </c>
       <c r="B89">
         <f t="shared" si="14"/>
-        <v>26.375757575757575</v>
+        <v>21.091030303030305</v>
       </c>
       <c r="C89">
         <f t="shared" si="15"/>
@@ -6674,7 +6674,7 @@
       </c>
       <c r="B90">
         <f t="shared" si="14"/>
-        <v>26.677777777777777</v>
+        <v>21.333444444444442</v>
       </c>
       <c r="C90">
         <f t="shared" si="15"/>
@@ -6737,7 +6737,7 @@
       </c>
       <c r="B91">
         <f t="shared" si="14"/>
-        <v>26.979797979797979</v>
+        <v>21.575858585858587</v>
       </c>
       <c r="C91">
         <f t="shared" si="15"/>
@@ -6800,7 +6800,7 @@
       </c>
       <c r="B92">
         <f t="shared" si="14"/>
-        <v>27.281818181818181</v>
+        <v>21.818272727272728</v>
       </c>
       <c r="C92">
         <f t="shared" si="15"/>
@@ -6863,7 +6863,7 @@
       </c>
       <c r="B93">
         <f t="shared" si="14"/>
-        <v>27.583838383838383</v>
+        <v>22.060686868686869</v>
       </c>
       <c r="C93">
         <f t="shared" si="15"/>
@@ -6926,7 +6926,7 @@
       </c>
       <c r="B94">
         <f t="shared" si="14"/>
-        <v>27.885858585858585</v>
+        <v>22.30310101010101</v>
       </c>
       <c r="C94">
         <f t="shared" si="15"/>
@@ -6989,7 +6989,7 @@
       </c>
       <c r="B95">
         <f t="shared" si="14"/>
-        <v>28.187878787878791</v>
+        <v>22.545515151515154</v>
       </c>
       <c r="C95">
         <f t="shared" si="15"/>
@@ -7052,7 +7052,7 @@
       </c>
       <c r="B96">
         <f t="shared" si="14"/>
-        <v>28.48989898989899</v>
+        <v>22.787929292929292</v>
       </c>
       <c r="C96">
         <f t="shared" si="15"/>
@@ -7115,7 +7115,7 @@
       </c>
       <c r="B97">
         <f t="shared" si="14"/>
-        <v>28.791919191919192</v>
+        <v>23.030343434343433</v>
       </c>
       <c r="C97">
         <f t="shared" si="15"/>
@@ -7178,7 +7178,7 @@
       </c>
       <c r="B98">
         <f t="shared" si="14"/>
-        <v>29.093939393939394</v>
+        <v>23.272757575757577</v>
       </c>
       <c r="C98">
         <f t="shared" si="15"/>
@@ -7241,7 +7241,7 @@
       </c>
       <c r="B99">
         <f t="shared" si="14"/>
-        <v>29.395959595959596</v>
+        <v>23.515171717171718</v>
       </c>
       <c r="C99">
         <f t="shared" si="15"/>
@@ -7304,7 +7304,7 @@
       </c>
       <c r="B100">
         <f t="shared" si="14"/>
-        <v>29.697979797979798</v>
+        <v>23.757585858585859</v>
       </c>
       <c r="C100">
         <f t="shared" si="15"/>
@@ -7366,7 +7366,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="1">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C101" s="1">
         <v>0.2</v>
